--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>3.07214</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>3.4482</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>3.71861</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>4.05257</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>4.15038</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>5.87116</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>5.47427</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>4.9431</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>7.75973</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>6.57886</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>5.76385</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>9.44096</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>7.71107</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>6.6416</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>11.1266</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>8.75038</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>7.51109</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>12.627</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>9.73128</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>8.26553</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>14.0515</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>11.3444</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>8.91071</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>16.3714</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>9.31603</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>8.64119</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>13.4322</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>9.74522</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>8.70693</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>13.4936</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>9.54697</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>9.039260000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>13.2365</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>9.36848</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>9.324960000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>13.5336</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>9.70729</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>9.537890000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>13.6163</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>9.797169999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>9.739179999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>13.8233</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>9.75548</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>9.925789999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>14.1167</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>9.725339999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>10.0693</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>14.5668</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>3.07987</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>3.43651</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>3.70704</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>4.05752</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>4.05836</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>5.82668</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>5.52235</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>4.85737</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>7.7801</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>6.56275</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>5.69515</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>9.42693</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>7.79886</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>6.66397</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>11.0492</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>8.861359999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>7.4804</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>9.85979</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>8.292260000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>14.0399</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>11.4725</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>8.96683</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>16.371</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>9.491210000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>8.672090000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>13.446</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>9.897489999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>8.68773</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>13.4851</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>9.36246</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>8.99883</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>13.1202</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>9.53167</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>9.25741</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>13.2587</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>9.756640000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>9.560650000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>13.7685</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>10.0709</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>9.75353</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>14.2699</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>9.85338</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>9.882210000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>14.4938</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>9.88076</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>9.994630000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>14.3586</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>3.23728</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>3.44224</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>3.60757</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>4.46529</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>4.07844</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>5.77801</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>5.78439</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>5.04051</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>7.85793</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>7.26198</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>5.88931</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>9.86509</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>8.565469999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>6.84515</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>11.952</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>9.66663</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>7.68627</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>13.6758</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>10.901</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>8.51275</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>15.4924</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>12.6287</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>9.27139</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>18.0072</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>10.4058</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>8.865220000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>14.0945</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>10.8342</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>8.90386</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>14.4629</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>10.3356</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>9.18966</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>13.5189</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>10.7246</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>9.5252</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>13.9763</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>10.7826</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>9.7469</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>14.7215</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>11.0256</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>9.921519999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>15.2475</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>10.6908</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>10.146</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>14.9925</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>10.9871</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>10.2202</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>15.0839</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>2.80436</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>3.40008</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>3.68572</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>4.06573</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>4.19462</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>5.78374</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>5.36447</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>5.32828</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>7.65385</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>6.37578</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>6.22436</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>9.24511</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>7.39501</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>7.11254</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>10.9815</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>8.41681</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>7.88124</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>12.4494</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>9.799099999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>8.656129999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>14.3989</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>11.0263</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>9.23602</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>16.2194</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>9.81423</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>8.64723</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>14.1121</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>9.871880000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>8.816319999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>14.6319</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>10.0131</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>9.02919</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>14.7969</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>10.2679</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>9.285740000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>15.0917</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>10.3678</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>9.46546</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>15.0943</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>10.485</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>9.73082</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>15.2003</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>10.4885</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>9.975540000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>14.5115</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>10.4359</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>10.1558</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>13.9903</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>2.84711</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>3.40397</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>3.66976</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>4.05203</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>4.25945</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>5.81812</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>5.40823</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>5.33193</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>7.7016</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>6.48223</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>6.33132</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>9.282159999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>7.50008</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>7.22735</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>10.9418</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>8.53215</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>8.06818</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>12.4967</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>9.576510000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>8.75742</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>14.0014</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>11.1818</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>9.381589999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>16.4324</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>9.95002</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>8.890890000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>14.0918</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>10.0904</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>8.98414</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>14.3805</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>10.2074</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>9.27346</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>14.7795</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>10.3335</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>9.434060000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>15.0616</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>10.4951</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>9.65631</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>15.3519</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>10.6832</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>9.894970000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>15.119</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>10.6472</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>10.1748</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>15.2918</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>10.5688</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>10.3576</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>13.7822</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>3.17637</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>3.402</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>3.60401</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>4.37425</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>4.33981</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>5.81993</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>5.73309</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>5.5207</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>8.101279999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>7.34129</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>6.57753</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>10.3305</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>8.681789999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>7.54151</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>12.3675</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>9.925140000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>8.42667</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>14.3744</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>11.228</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>9.083830000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>16.3727</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>13.0637</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>9.72795</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>19.1103</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>11.5244</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>9.16811</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>15.8905</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>11.6122</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>9.303520000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>16.3683</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>11.7883</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>9.614129999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>16.858</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>12.1734</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>9.795389999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>17.5041</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>12.3137</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>10.0422</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>17.3142</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>12.6982</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>10.24</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>17.5079</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>12.5697</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>10.5372</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>17.5572</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>12.44</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>10.7412</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>16.9232</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07121</v>
+        <v>3.34078</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4422</v>
+        <v>3.79244</v>
       </c>
       <c r="D2" t="n">
-        <v>3.77056</v>
+        <v>4.1875</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.12867</v>
+        <v>4.35294</v>
       </c>
       <c r="C3" t="n">
-        <v>4.49588</v>
+        <v>4.8016</v>
       </c>
       <c r="D3" t="n">
-        <v>5.90265</v>
+        <v>6.43804</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.49787</v>
+        <v>5.63633</v>
       </c>
       <c r="C4" t="n">
-        <v>6.09508</v>
+        <v>6.50093</v>
       </c>
       <c r="D4" t="n">
-        <v>7.86305</v>
+        <v>8.373519999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.56622</v>
+        <v>6.52051</v>
       </c>
       <c r="C5" t="n">
-        <v>7.71431</v>
+        <v>8.212479999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9.516360000000001</v>
+        <v>10.1019</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.68131</v>
+        <v>7.81582</v>
       </c>
       <c r="C6" t="n">
-        <v>9.382960000000001</v>
+        <v>9.7788</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1756</v>
+        <v>11.8405</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.663320000000001</v>
+        <v>8.919639999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>11.059</v>
+        <v>11.7188</v>
       </c>
       <c r="D7" t="n">
-        <v>12.6824</v>
+        <v>13.4206</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.72118</v>
+        <v>9.927989999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>12.6155</v>
+        <v>13.5703</v>
       </c>
       <c r="D8" t="n">
-        <v>14.0979</v>
+        <v>14.866</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3284</v>
+        <v>11.4621</v>
       </c>
       <c r="C9" t="n">
-        <v>14.4512</v>
+        <v>15.5173</v>
       </c>
       <c r="D9" t="n">
-        <v>16.4206</v>
+        <v>17.2066</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.361370000000001</v>
+        <v>9.623390000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>12.2645</v>
+        <v>12.9628</v>
       </c>
       <c r="D10" t="n">
-        <v>13.3878</v>
+        <v>14.2507</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.68211</v>
+        <v>9.88368</v>
       </c>
       <c r="C11" t="n">
-        <v>12.0762</v>
+        <v>13.009</v>
       </c>
       <c r="D11" t="n">
-        <v>13.5411</v>
+        <v>14.4791</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.308310000000001</v>
+        <v>9.526149999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>12.5659</v>
+        <v>13.1295</v>
       </c>
       <c r="D12" t="n">
-        <v>13.2659</v>
+        <v>14.2009</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.691369999999999</v>
+        <v>9.829370000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>12.8565</v>
+        <v>13.6599</v>
       </c>
       <c r="D13" t="n">
-        <v>13.5299</v>
+        <v>14.071</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.620200000000001</v>
+        <v>9.95431</v>
       </c>
       <c r="C14" t="n">
-        <v>13.127</v>
+        <v>13.7034</v>
       </c>
       <c r="D14" t="n">
-        <v>13.9317</v>
+        <v>14.3525</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.808490000000001</v>
+        <v>10.0527</v>
       </c>
       <c r="C15" t="n">
-        <v>13.3101</v>
+        <v>14.0472</v>
       </c>
       <c r="D15" t="n">
-        <v>14.0337</v>
+        <v>14.8805</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.829560000000001</v>
+        <v>10.0157</v>
       </c>
       <c r="C16" t="n">
-        <v>13.5723</v>
+        <v>14.2537</v>
       </c>
       <c r="D16" t="n">
-        <v>14.3276</v>
+        <v>15.1195</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.75873</v>
+        <v>9.981949999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>13.6305</v>
+        <v>14.5039</v>
       </c>
       <c r="D17" t="n">
-        <v>14.5362</v>
+        <v>15.3805</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07361</v>
+        <v>3.34601</v>
       </c>
       <c r="C2" t="n">
-        <v>3.43616</v>
+        <v>3.78977</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7574</v>
+        <v>4.17201</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.14154</v>
+        <v>4.45322</v>
       </c>
       <c r="C3" t="n">
-        <v>4.52471</v>
+        <v>4.93783</v>
       </c>
       <c r="D3" t="n">
-        <v>5.86471</v>
+        <v>6.45473</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.54196</v>
+        <v>5.73844</v>
       </c>
       <c r="C4" t="n">
-        <v>6.09439</v>
+        <v>6.52425</v>
       </c>
       <c r="D4" t="n">
-        <v>7.85098</v>
+        <v>8.365320000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.64598</v>
+        <v>6.75694</v>
       </c>
       <c r="C5" t="n">
-        <v>7.65337</v>
+        <v>8.15727</v>
       </c>
       <c r="D5" t="n">
-        <v>9.48982</v>
+        <v>10.1117</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.78344</v>
+        <v>7.95226</v>
       </c>
       <c r="C6" t="n">
-        <v>9.377549999999999</v>
+        <v>9.95656</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1837</v>
+        <v>11.8367</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.83755</v>
+        <v>9.05505</v>
       </c>
       <c r="C7" t="n">
-        <v>10.9724</v>
+        <v>11.7028</v>
       </c>
       <c r="D7" t="n">
-        <v>12.7061</v>
+        <v>13.4232</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.841559999999999</v>
+        <v>10.0494</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7644</v>
+        <v>13.5514</v>
       </c>
       <c r="D8" t="n">
-        <v>14.117</v>
+        <v>14.866</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.4882</v>
+        <v>11.6257</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2603</v>
+        <v>15.3694</v>
       </c>
       <c r="D9" t="n">
-        <v>16.4259</v>
+        <v>17.2502</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.339180000000001</v>
+        <v>9.762180000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>12.3128</v>
+        <v>12.9852</v>
       </c>
       <c r="D10" t="n">
-        <v>13.3957</v>
+        <v>14.2585</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.91939</v>
+        <v>10.1116</v>
       </c>
       <c r="C11" t="n">
-        <v>12.2379</v>
+        <v>12.9692</v>
       </c>
       <c r="D11" t="n">
-        <v>13.4479</v>
+        <v>14.2495</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.439730000000001</v>
+        <v>9.695169999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>12.5029</v>
+        <v>13.2329</v>
       </c>
       <c r="D12" t="n">
-        <v>13.1155</v>
+        <v>13.9182</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.6564</v>
+        <v>9.7959</v>
       </c>
       <c r="C13" t="n">
-        <v>13.003</v>
+        <v>13.6445</v>
       </c>
       <c r="D13" t="n">
-        <v>13.4367</v>
+        <v>14.2953</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.79289</v>
+        <v>9.960380000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>13.0515</v>
+        <v>13.828</v>
       </c>
       <c r="D14" t="n">
-        <v>13.7788</v>
+        <v>14.5064</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.936489999999999</v>
+        <v>10.1324</v>
       </c>
       <c r="C15" t="n">
-        <v>13.441</v>
+        <v>13.9974</v>
       </c>
       <c r="D15" t="n">
-        <v>14.3644</v>
+        <v>15.286</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.976179999999999</v>
+        <v>9.975070000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>13.6238</v>
+        <v>14.189</v>
       </c>
       <c r="D16" t="n">
-        <v>14.2282</v>
+        <v>15.0101</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.830970000000001</v>
+        <v>10.0297</v>
       </c>
       <c r="C17" t="n">
-        <v>13.7355</v>
+        <v>14.4677</v>
       </c>
       <c r="D17" t="n">
-        <v>14.4844</v>
+        <v>15.0744</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.23618</v>
+        <v>3.56135</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4267</v>
+        <v>3.79183</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63985</v>
+        <v>4.03398</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.52448</v>
+        <v>4.81775</v>
       </c>
       <c r="C3" t="n">
-        <v>4.73657</v>
+        <v>5.10119</v>
       </c>
       <c r="D3" t="n">
-        <v>5.92227</v>
+        <v>6.417</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.97568</v>
+        <v>6.11643</v>
       </c>
       <c r="C4" t="n">
-        <v>6.34436</v>
+        <v>6.69903</v>
       </c>
       <c r="D4" t="n">
-        <v>8.06935</v>
+        <v>8.69342</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2671</v>
+        <v>7.58751</v>
       </c>
       <c r="C5" t="n">
-        <v>8.001300000000001</v>
+        <v>8.50353</v>
       </c>
       <c r="D5" t="n">
-        <v>9.878920000000001</v>
+        <v>10.7548</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.38977</v>
+        <v>8.713800000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.56053</v>
+        <v>10.1144</v>
       </c>
       <c r="D6" t="n">
-        <v>11.924</v>
+        <v>12.6946</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.672230000000001</v>
+        <v>10.0037</v>
       </c>
       <c r="C7" t="n">
-        <v>11.2442</v>
+        <v>11.8986</v>
       </c>
       <c r="D7" t="n">
-        <v>13.7872</v>
+        <v>14.6377</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8881</v>
+        <v>11.2503</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0484</v>
+        <v>13.7982</v>
       </c>
       <c r="D8" t="n">
-        <v>15.5957</v>
+        <v>16.533</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.6013</v>
+        <v>12.9477</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9686</v>
+        <v>16.0636</v>
       </c>
       <c r="D9" t="n">
-        <v>18.1168</v>
+        <v>19.3929</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3053</v>
+        <v>10.8856</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4667</v>
+        <v>13.5809</v>
       </c>
       <c r="D10" t="n">
-        <v>14.3041</v>
+        <v>15.3533</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.7183</v>
+        <v>11.1517</v>
       </c>
       <c r="C11" t="n">
-        <v>12.5955</v>
+        <v>13.3458</v>
       </c>
       <c r="D11" t="n">
-        <v>14.6057</v>
+        <v>15.3236</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1375</v>
+        <v>10.8561</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9113</v>
+        <v>13.6349</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7654</v>
+        <v>14.5908</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.5373</v>
+        <v>11.166</v>
       </c>
       <c r="C13" t="n">
-        <v>13.3686</v>
+        <v>13.9748</v>
       </c>
       <c r="D13" t="n">
-        <v>14.2322</v>
+        <v>14.9326</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.0696</v>
+        <v>11.4397</v>
       </c>
       <c r="C14" t="n">
-        <v>13.4469</v>
+        <v>14.269</v>
       </c>
       <c r="D14" t="n">
-        <v>14.8668</v>
+        <v>15.9897</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.1569</v>
+        <v>11.3867</v>
       </c>
       <c r="C15" t="n">
-        <v>13.6958</v>
+        <v>14.4579</v>
       </c>
       <c r="D15" t="n">
-        <v>15.4619</v>
+        <v>16.6401</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.044</v>
+        <v>11.5268</v>
       </c>
       <c r="C16" t="n">
-        <v>13.8313</v>
+        <v>14.7666</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0812</v>
+        <v>16.302</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0285</v>
+        <v>11.6173</v>
       </c>
       <c r="C17" t="n">
-        <v>13.9211</v>
+        <v>14.8571</v>
       </c>
       <c r="D17" t="n">
-        <v>15.2171</v>
+        <v>16.2758</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.81048</v>
+        <v>3.05464</v>
       </c>
       <c r="C2" t="n">
-        <v>3.39159</v>
+        <v>3.73606</v>
       </c>
       <c r="D2" t="n">
-        <v>3.72372</v>
+        <v>4.14275</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.05145</v>
+        <v>4.22581</v>
       </c>
       <c r="C3" t="n">
-        <v>4.48533</v>
+        <v>4.86391</v>
       </c>
       <c r="D3" t="n">
-        <v>5.8285</v>
+        <v>6.45607</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.41319</v>
+        <v>5.3814</v>
       </c>
       <c r="C4" t="n">
-        <v>6.04694</v>
+        <v>6.42031</v>
       </c>
       <c r="D4" t="n">
-        <v>7.76676</v>
+        <v>8.267530000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.41588</v>
+        <v>6.45138</v>
       </c>
       <c r="C5" t="n">
-        <v>7.56998</v>
+        <v>8.06094</v>
       </c>
       <c r="D5" t="n">
-        <v>9.38341</v>
+        <v>9.95978</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.50929</v>
+        <v>7.58372</v>
       </c>
       <c r="C6" t="n">
-        <v>9.11416</v>
+        <v>9.72803</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0515</v>
+        <v>11.7149</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.3879</v>
+        <v>8.63261</v>
       </c>
       <c r="C7" t="n">
-        <v>10.5887</v>
+        <v>11.2623</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5082</v>
+        <v>13.2777</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.38171</v>
+        <v>9.55569</v>
       </c>
       <c r="C8" t="n">
-        <v>12.1218</v>
+        <v>13.1275</v>
       </c>
       <c r="D8" t="n">
-        <v>14.007</v>
+        <v>14.7279</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.9664</v>
+        <v>11.0642</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7894</v>
+        <v>14.8708</v>
       </c>
       <c r="D9" t="n">
-        <v>16.3866</v>
+        <v>17.227</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.70575</v>
+        <v>10.1289</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4083</v>
+        <v>12.886</v>
       </c>
       <c r="D10" t="n">
-        <v>14.441</v>
+        <v>14.8295</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.920949999999999</v>
+        <v>10.0769</v>
       </c>
       <c r="C11" t="n">
-        <v>12.4259</v>
+        <v>13.1993</v>
       </c>
       <c r="D11" t="n">
-        <v>14.6072</v>
+        <v>15.2826</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1601</v>
+        <v>10.1923</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9103</v>
+        <v>13.7209</v>
       </c>
       <c r="D12" t="n">
-        <v>14.9067</v>
+        <v>15.6983</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.3329</v>
+        <v>10.3223</v>
       </c>
       <c r="C13" t="n">
-        <v>13.2122</v>
+        <v>14.0166</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0728</v>
+        <v>15.8668</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.391</v>
+        <v>10.5241</v>
       </c>
       <c r="C14" t="n">
-        <v>13.4356</v>
+        <v>14.2911</v>
       </c>
       <c r="D14" t="n">
-        <v>15.4272</v>
+        <v>15.8107</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5521</v>
+        <v>10.6527</v>
       </c>
       <c r="C15" t="n">
-        <v>13.6388</v>
+        <v>14.5834</v>
       </c>
       <c r="D15" t="n">
-        <v>15.3694</v>
+        <v>15.8915</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.5027</v>
+        <v>10.7532</v>
       </c>
       <c r="C16" t="n">
-        <v>13.9145</v>
+        <v>14.785</v>
       </c>
       <c r="D16" t="n">
-        <v>15.2042</v>
+        <v>16.2009</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.4783</v>
+        <v>10.6159</v>
       </c>
       <c r="C17" t="n">
-        <v>14.0455</v>
+        <v>14.7854</v>
       </c>
       <c r="D17" t="n">
-        <v>14.5496</v>
+        <v>15.749</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.82987</v>
+        <v>3.05795</v>
       </c>
       <c r="C2" t="n">
-        <v>3.39572</v>
+        <v>3.74541</v>
       </c>
       <c r="D2" t="n">
-        <v>3.70422</v>
+        <v>4.12448</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.11582</v>
+        <v>4.31964</v>
       </c>
       <c r="C3" t="n">
-        <v>4.53134</v>
+        <v>4.86904</v>
       </c>
       <c r="D3" t="n">
-        <v>5.80654</v>
+        <v>6.38994</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.25063</v>
+        <v>5.48442</v>
       </c>
       <c r="C4" t="n">
-        <v>5.95735</v>
+        <v>6.37112</v>
       </c>
       <c r="D4" t="n">
-        <v>7.66385</v>
+        <v>8.192869999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.32244</v>
+        <v>6.58864</v>
       </c>
       <c r="C5" t="n">
-        <v>7.63048</v>
+        <v>8.01328</v>
       </c>
       <c r="D5" t="n">
-        <v>9.41328</v>
+        <v>9.886850000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.60845</v>
+        <v>7.76396</v>
       </c>
       <c r="C6" t="n">
-        <v>9.168519999999999</v>
+        <v>9.67614</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0456</v>
+        <v>11.6407</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.63571</v>
+        <v>8.833449999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8414</v>
+        <v>11.2759</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5657</v>
+        <v>13.2119</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.50709</v>
+        <v>9.72369</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2766</v>
+        <v>13.0193</v>
       </c>
       <c r="D8" t="n">
-        <v>14.0313</v>
+        <v>14.7579</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.2105</v>
+        <v>11.3019</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7848</v>
+        <v>14.9136</v>
       </c>
       <c r="D9" t="n">
-        <v>16.4288</v>
+        <v>17.1652</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2128</v>
+        <v>10.0777</v>
       </c>
       <c r="C10" t="n">
-        <v>12.5067</v>
+        <v>13.2671</v>
       </c>
       <c r="D10" t="n">
-        <v>14.2897</v>
+        <v>14.9491</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.996840000000001</v>
+        <v>10.1803</v>
       </c>
       <c r="C11" t="n">
-        <v>12.3781</v>
+        <v>13.1869</v>
       </c>
       <c r="D11" t="n">
-        <v>14.5841</v>
+        <v>15.2213</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1827</v>
+        <v>10.3673</v>
       </c>
       <c r="C12" t="n">
-        <v>12.8675</v>
+        <v>13.7805</v>
       </c>
       <c r="D12" t="n">
-        <v>14.8626</v>
+        <v>15.4179</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4591</v>
+        <v>10.4786</v>
       </c>
       <c r="C13" t="n">
-        <v>13.2833</v>
+        <v>14.0928</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0859</v>
+        <v>15.6138</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5298</v>
+        <v>10.7448</v>
       </c>
       <c r="C14" t="n">
-        <v>13.4698</v>
+        <v>14.3371</v>
       </c>
       <c r="D14" t="n">
-        <v>15.46</v>
+        <v>16.0795</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6162</v>
+        <v>10.8778</v>
       </c>
       <c r="C15" t="n">
-        <v>13.6474</v>
+        <v>14.7047</v>
       </c>
       <c r="D15" t="n">
-        <v>15.3012</v>
+        <v>15.9387</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.6305</v>
+        <v>10.8777</v>
       </c>
       <c r="C16" t="n">
-        <v>13.9136</v>
+        <v>14.7702</v>
       </c>
       <c r="D16" t="n">
-        <v>15.344</v>
+        <v>16.0789</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6535</v>
+        <v>10.7754</v>
       </c>
       <c r="C17" t="n">
-        <v>14.1318</v>
+        <v>14.9631</v>
       </c>
       <c r="D17" t="n">
-        <v>14.3859</v>
+        <v>15.4895</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.17913</v>
+        <v>3.49146</v>
       </c>
       <c r="C2" t="n">
-        <v>3.41823</v>
+        <v>3.78123</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63575</v>
+        <v>4.03993</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.43327</v>
+        <v>4.58844</v>
       </c>
       <c r="C3" t="n">
-        <v>4.65857</v>
+        <v>4.89361</v>
       </c>
       <c r="D3" t="n">
-        <v>5.92633</v>
+        <v>6.37062</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.99299</v>
+        <v>6.36784</v>
       </c>
       <c r="C4" t="n">
-        <v>6.12696</v>
+        <v>6.58684</v>
       </c>
       <c r="D4" t="n">
-        <v>8.218209999999999</v>
+        <v>8.797359999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.15618</v>
+        <v>7.73903</v>
       </c>
       <c r="C5" t="n">
-        <v>7.74655</v>
+        <v>8.278029999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2315</v>
+        <v>10.986</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.543699999999999</v>
+        <v>9.08414</v>
       </c>
       <c r="C6" t="n">
-        <v>9.4451</v>
+        <v>10.2018</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3719</v>
+        <v>13.3823</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.99995</v>
+        <v>10.2931</v>
       </c>
       <c r="C7" t="n">
-        <v>11.1903</v>
+        <v>11.8098</v>
       </c>
       <c r="D7" t="n">
-        <v>14.5015</v>
+        <v>15.3558</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.2599</v>
+        <v>11.6249</v>
       </c>
       <c r="C8" t="n">
-        <v>12.6963</v>
+        <v>13.5678</v>
       </c>
       <c r="D8" t="n">
-        <v>16.3959</v>
+        <v>17.4885</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0211</v>
+        <v>13.4857</v>
       </c>
       <c r="C9" t="n">
-        <v>14.3877</v>
+        <v>15.556</v>
       </c>
       <c r="D9" t="n">
-        <v>19.0776</v>
+        <v>20.379</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.363</v>
+        <v>11.7232</v>
       </c>
       <c r="C10" t="n">
-        <v>12.6977</v>
+        <v>13.5347</v>
       </c>
       <c r="D10" t="n">
-        <v>15.8267</v>
+        <v>17.0953</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.6279</v>
+        <v>11.9601</v>
       </c>
       <c r="C11" t="n">
-        <v>12.8358</v>
+        <v>13.6176</v>
       </c>
       <c r="D11" t="n">
-        <v>16.3605</v>
+        <v>17.4373</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.04</v>
+        <v>12.5438</v>
       </c>
       <c r="C12" t="n">
-        <v>13.3217</v>
+        <v>14.2412</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0743</v>
+        <v>17.6841</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1813</v>
+        <v>12.5044</v>
       </c>
       <c r="C13" t="n">
-        <v>13.8062</v>
+        <v>14.6701</v>
       </c>
       <c r="D13" t="n">
-        <v>17.0811</v>
+        <v>18.5196</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.377</v>
+        <v>12.6792</v>
       </c>
       <c r="C14" t="n">
-        <v>13.9862</v>
+        <v>14.8249</v>
       </c>
       <c r="D14" t="n">
-        <v>17.1101</v>
+        <v>18.5896</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.6794</v>
+        <v>12.9524</v>
       </c>
       <c r="C15" t="n">
-        <v>14.2644</v>
+        <v>14.9945</v>
       </c>
       <c r="D15" t="n">
-        <v>17.5479</v>
+        <v>18.7464</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4589</v>
+        <v>12.7729</v>
       </c>
       <c r="C16" t="n">
-        <v>14.2946</v>
+        <v>15.4013</v>
       </c>
       <c r="D16" t="n">
-        <v>17.1898</v>
+        <v>18.2909</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.392</v>
+        <v>12.9455</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4594</v>
+        <v>15.4946</v>
       </c>
       <c r="D17" t="n">
-        <v>17.1579</v>
+        <v>17.8616</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.34078</v>
+        <v>3.3409</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79244</v>
+        <v>3.79502</v>
       </c>
       <c r="D2" t="n">
-        <v>4.1875</v>
+        <v>4.18676</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.35294</v>
+        <v>4.35898</v>
       </c>
       <c r="C3" t="n">
-        <v>4.8016</v>
+        <v>4.84479</v>
       </c>
       <c r="D3" t="n">
-        <v>6.43804</v>
+        <v>6.40759</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.63633</v>
+        <v>5.66887</v>
       </c>
       <c r="C4" t="n">
-        <v>6.50093</v>
+        <v>6.5232</v>
       </c>
       <c r="D4" t="n">
-        <v>8.373519999999999</v>
+        <v>8.339180000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.52051</v>
+        <v>6.74956</v>
       </c>
       <c r="C5" t="n">
-        <v>8.212479999999999</v>
+        <v>8.1904</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1019</v>
+        <v>10.1233</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.81582</v>
+        <v>7.90924</v>
       </c>
       <c r="C6" t="n">
-        <v>9.7788</v>
+        <v>9.911709999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8405</v>
+        <v>11.8509</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.919639999999999</v>
+        <v>8.93779</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7188</v>
+        <v>11.7093</v>
       </c>
       <c r="D7" t="n">
-        <v>13.4206</v>
+        <v>13.4144</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.927989999999999</v>
+        <v>9.922929999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5703</v>
+        <v>13.5508</v>
       </c>
       <c r="D8" t="n">
-        <v>14.866</v>
+        <v>14.8563</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.4621</v>
+        <v>11.4533</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5173</v>
+        <v>15.426</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2066</v>
+        <v>17.2179</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.623390000000001</v>
+        <v>9.6113</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9628</v>
+        <v>12.9192</v>
       </c>
       <c r="D10" t="n">
-        <v>14.2507</v>
+        <v>14.0943</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.88368</v>
+        <v>9.867330000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>13.009</v>
+        <v>12.8736</v>
       </c>
       <c r="D11" t="n">
-        <v>14.4791</v>
+        <v>14.078</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.526149999999999</v>
+        <v>9.26864</v>
       </c>
       <c r="C12" t="n">
-        <v>13.1295</v>
+        <v>13.2922</v>
       </c>
       <c r="D12" t="n">
-        <v>14.2009</v>
+        <v>13.8392</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.829370000000001</v>
+        <v>9.739330000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6599</v>
+        <v>13.6708</v>
       </c>
       <c r="D13" t="n">
-        <v>14.071</v>
+        <v>13.9299</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.95431</v>
+        <v>9.796419999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>13.7034</v>
+        <v>13.7497</v>
       </c>
       <c r="D14" t="n">
-        <v>14.3525</v>
+        <v>14.0907</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0527</v>
+        <v>9.920109999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0472</v>
+        <v>14.0348</v>
       </c>
       <c r="D15" t="n">
-        <v>14.8805</v>
+        <v>14.6425</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0157</v>
+        <v>10.0568</v>
       </c>
       <c r="C16" t="n">
-        <v>14.2537</v>
+        <v>14.2713</v>
       </c>
       <c r="D16" t="n">
-        <v>15.1195</v>
+        <v>15.3291</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.981949999999999</v>
+        <v>9.961930000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5039</v>
+        <v>14.3304</v>
       </c>
       <c r="D17" t="n">
-        <v>15.3805</v>
+        <v>15.4732</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.34601</v>
+        <v>3.34728</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78977</v>
+        <v>3.7893</v>
       </c>
       <c r="D2" t="n">
-        <v>4.17201</v>
+        <v>4.16762</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.45322</v>
+        <v>4.34812</v>
       </c>
       <c r="C3" t="n">
-        <v>4.93783</v>
+        <v>4.80043</v>
       </c>
       <c r="D3" t="n">
-        <v>6.45473</v>
+        <v>6.36918</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.73844</v>
+        <v>5.57492</v>
       </c>
       <c r="C4" t="n">
-        <v>6.52425</v>
+        <v>6.41526</v>
       </c>
       <c r="D4" t="n">
-        <v>8.365320000000001</v>
+        <v>8.33198</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.75694</v>
+        <v>6.58248</v>
       </c>
       <c r="C5" t="n">
-        <v>8.15727</v>
+        <v>8.16025</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1117</v>
+        <v>10.1208</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.95226</v>
+        <v>8.01796</v>
       </c>
       <c r="C6" t="n">
-        <v>9.95656</v>
+        <v>9.802530000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8367</v>
+        <v>11.7797</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.05505</v>
+        <v>8.87627</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7028</v>
+        <v>11.6489</v>
       </c>
       <c r="D7" t="n">
-        <v>13.4232</v>
+        <v>13.3902</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0494</v>
+        <v>10.0492</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5514</v>
+        <v>13.5647</v>
       </c>
       <c r="D8" t="n">
-        <v>14.866</v>
+        <v>14.8506</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.6257</v>
+        <v>11.6204</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3694</v>
+        <v>15.3837</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2502</v>
+        <v>17.2476</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.762180000000001</v>
+        <v>9.761570000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9852</v>
+        <v>13.1546</v>
       </c>
       <c r="D10" t="n">
-        <v>14.2585</v>
+        <v>14.2628</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.1116</v>
+        <v>10.2385</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9692</v>
+        <v>12.9393</v>
       </c>
       <c r="D11" t="n">
-        <v>14.2495</v>
+        <v>14.2039</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.695169999999999</v>
+        <v>9.560790000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>13.2329</v>
+        <v>13.2383</v>
       </c>
       <c r="D12" t="n">
-        <v>13.9182</v>
+        <v>14.0183</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.7959</v>
+        <v>9.693659999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6445</v>
+        <v>13.5677</v>
       </c>
       <c r="D13" t="n">
-        <v>14.2953</v>
+        <v>14.2036</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.960380000000001</v>
+        <v>10.0353</v>
       </c>
       <c r="C14" t="n">
-        <v>13.828</v>
+        <v>13.8316</v>
       </c>
       <c r="D14" t="n">
-        <v>14.5064</v>
+        <v>14.4762</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1324</v>
+        <v>10.215</v>
       </c>
       <c r="C15" t="n">
-        <v>13.9974</v>
+        <v>13.989</v>
       </c>
       <c r="D15" t="n">
-        <v>15.286</v>
+        <v>15.1395</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.975070000000001</v>
+        <v>10.0064</v>
       </c>
       <c r="C16" t="n">
-        <v>14.189</v>
+        <v>14.2955</v>
       </c>
       <c r="D16" t="n">
-        <v>15.0101</v>
+        <v>15.2019</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0297</v>
+        <v>10.0089</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4677</v>
+        <v>14.3875</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0744</v>
+        <v>15.2697</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.56135</v>
+        <v>3.56372</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79183</v>
+        <v>3.79455</v>
       </c>
       <c r="D2" t="n">
-        <v>4.03398</v>
+        <v>4.04103</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.81775</v>
+        <v>4.67002</v>
       </c>
       <c r="C3" t="n">
-        <v>5.10119</v>
+        <v>4.98821</v>
       </c>
       <c r="D3" t="n">
-        <v>6.417</v>
+        <v>6.35156</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.11643</v>
+        <v>6.22811</v>
       </c>
       <c r="C4" t="n">
-        <v>6.69903</v>
+        <v>6.78847</v>
       </c>
       <c r="D4" t="n">
-        <v>8.69342</v>
+        <v>8.693339999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.58751</v>
+        <v>7.30195</v>
       </c>
       <c r="C5" t="n">
-        <v>8.50353</v>
+        <v>8.515930000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7548</v>
+        <v>10.745</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.713800000000001</v>
+        <v>8.948119999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1144</v>
+        <v>10.2117</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6946</v>
+        <v>12.6433</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0037</v>
+        <v>10.0003</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8986</v>
+        <v>11.9116</v>
       </c>
       <c r="D7" t="n">
-        <v>14.6377</v>
+        <v>14.634</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.2503</v>
+        <v>11.2468</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7982</v>
+        <v>13.7969</v>
       </c>
       <c r="D8" t="n">
-        <v>16.533</v>
+        <v>16.5184</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.9477</v>
+        <v>12.9625</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0636</v>
+        <v>15.8756</v>
       </c>
       <c r="D9" t="n">
-        <v>19.3929</v>
+        <v>19.1819</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.8856</v>
+        <v>10.7146</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5809</v>
+        <v>13.2862</v>
       </c>
       <c r="D10" t="n">
-        <v>15.3533</v>
+        <v>15.4017</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1517</v>
+        <v>11.1381</v>
       </c>
       <c r="C11" t="n">
-        <v>13.3458</v>
+        <v>13.256</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3236</v>
+        <v>15.3358</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.8561</v>
+        <v>10.6694</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6349</v>
+        <v>13.5211</v>
       </c>
       <c r="D12" t="n">
-        <v>14.5908</v>
+        <v>14.6716</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.166</v>
+        <v>11.0023</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9748</v>
+        <v>13.9291</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9326</v>
+        <v>15.1415</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.4397</v>
+        <v>10.9305</v>
       </c>
       <c r="C14" t="n">
-        <v>14.269</v>
+        <v>14.1907</v>
       </c>
       <c r="D14" t="n">
-        <v>15.9897</v>
+        <v>15.7403</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3867</v>
+        <v>11.4061</v>
       </c>
       <c r="C15" t="n">
-        <v>14.4579</v>
+        <v>14.3738</v>
       </c>
       <c r="D15" t="n">
-        <v>16.6401</v>
+        <v>16.4241</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5268</v>
+        <v>11.3105</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7666</v>
+        <v>14.5181</v>
       </c>
       <c r="D16" t="n">
-        <v>16.302</v>
+        <v>16.0293</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6173</v>
+        <v>11.4861</v>
       </c>
       <c r="C17" t="n">
-        <v>14.8571</v>
+        <v>14.8461</v>
       </c>
       <c r="D17" t="n">
-        <v>16.2758</v>
+        <v>16.4087</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05464</v>
+        <v>3.02746</v>
       </c>
       <c r="C2" t="n">
-        <v>3.73606</v>
+        <v>3.73641</v>
       </c>
       <c r="D2" t="n">
-        <v>4.14275</v>
+        <v>4.1392</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.22581</v>
+        <v>4.25217</v>
       </c>
       <c r="C3" t="n">
-        <v>4.86391</v>
+        <v>4.87545</v>
       </c>
       <c r="D3" t="n">
-        <v>6.45607</v>
+        <v>6.4438</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.3814</v>
+        <v>5.50049</v>
       </c>
       <c r="C4" t="n">
-        <v>6.42031</v>
+        <v>6.47142</v>
       </c>
       <c r="D4" t="n">
-        <v>8.267530000000001</v>
+        <v>8.246090000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.45138</v>
+        <v>6.59936</v>
       </c>
       <c r="C5" t="n">
-        <v>8.06094</v>
+        <v>8.05625</v>
       </c>
       <c r="D5" t="n">
-        <v>9.95978</v>
+        <v>9.97317</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.58372</v>
+        <v>7.60041</v>
       </c>
       <c r="C6" t="n">
-        <v>9.72803</v>
+        <v>9.576219999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7149</v>
+        <v>11.7127</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.63261</v>
+        <v>8.65704</v>
       </c>
       <c r="C7" t="n">
-        <v>11.2623</v>
+        <v>11.3064</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2777</v>
+        <v>13.3077</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.55569</v>
+        <v>9.585990000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1275</v>
+        <v>12.9226</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7279</v>
+        <v>14.7615</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0642</v>
+        <v>11.0927</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8708</v>
+        <v>14.7663</v>
       </c>
       <c r="D9" t="n">
-        <v>17.227</v>
+        <v>17.2616</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.1289</v>
+        <v>9.88762</v>
       </c>
       <c r="C10" t="n">
-        <v>12.886</v>
+        <v>12.7886</v>
       </c>
       <c r="D10" t="n">
-        <v>14.8295</v>
+        <v>14.9749</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0769</v>
+        <v>10.0964</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1993</v>
+        <v>13.2047</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2826</v>
+        <v>15.2321</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1923</v>
+        <v>10.2979</v>
       </c>
       <c r="C12" t="n">
-        <v>13.7209</v>
+        <v>13.7732</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6983</v>
+        <v>15.6004</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.3223</v>
+        <v>10.4524</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0166</v>
+        <v>14.1527</v>
       </c>
       <c r="D13" t="n">
-        <v>15.8668</v>
+        <v>15.6545</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5241</v>
+        <v>10.4993</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2911</v>
+        <v>14.2272</v>
       </c>
       <c r="D14" t="n">
-        <v>15.8107</v>
+        <v>15.8995</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6527</v>
+        <v>10.6467</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5834</v>
+        <v>14.5713</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8915</v>
+        <v>16.1441</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.7532</v>
+        <v>10.6448</v>
       </c>
       <c r="C16" t="n">
-        <v>14.785</v>
+        <v>14.6289</v>
       </c>
       <c r="D16" t="n">
-        <v>16.2009</v>
+        <v>15.9372</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6159</v>
+        <v>10.5099</v>
       </c>
       <c r="C17" t="n">
-        <v>14.7854</v>
+        <v>14.7927</v>
       </c>
       <c r="D17" t="n">
-        <v>15.749</v>
+        <v>15.0837</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05795</v>
+        <v>3.05657</v>
       </c>
       <c r="C2" t="n">
-        <v>3.74541</v>
+        <v>3.74188</v>
       </c>
       <c r="D2" t="n">
-        <v>4.12448</v>
+        <v>4.12159</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.31964</v>
+        <v>4.26719</v>
       </c>
       <c r="C3" t="n">
-        <v>4.86904</v>
+        <v>4.8482</v>
       </c>
       <c r="D3" t="n">
-        <v>6.38994</v>
+        <v>6.29801</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.48442</v>
+        <v>5.49732</v>
       </c>
       <c r="C4" t="n">
-        <v>6.37112</v>
+        <v>6.44556</v>
       </c>
       <c r="D4" t="n">
-        <v>8.192869999999999</v>
+        <v>8.258889999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.58864</v>
+        <v>6.6913</v>
       </c>
       <c r="C5" t="n">
-        <v>8.01328</v>
+        <v>8.139110000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.886850000000001</v>
+        <v>9.961370000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.76396</v>
+        <v>7.81056</v>
       </c>
       <c r="C6" t="n">
-        <v>9.67614</v>
+        <v>9.77219</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6407</v>
+        <v>11.6685</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.833449999999999</v>
+        <v>8.801310000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>11.2759</v>
+        <v>11.5707</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2119</v>
+        <v>13.3032</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.72369</v>
+        <v>9.738849999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0193</v>
+        <v>13.1409</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7579</v>
+        <v>14.8186</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3019</v>
+        <v>11.3007</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9136</v>
+        <v>14.8573</v>
       </c>
       <c r="D9" t="n">
-        <v>17.1652</v>
+        <v>17.3847</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0777</v>
+        <v>10.2494</v>
       </c>
       <c r="C10" t="n">
-        <v>13.2671</v>
+        <v>12.9143</v>
       </c>
       <c r="D10" t="n">
-        <v>14.9491</v>
+        <v>14.6856</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.1803</v>
+        <v>10.2375</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1869</v>
+        <v>13.2592</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2213</v>
+        <v>15.3303</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3673</v>
+        <v>10.4179</v>
       </c>
       <c r="C12" t="n">
-        <v>13.7805</v>
+        <v>13.5463</v>
       </c>
       <c r="D12" t="n">
-        <v>15.4179</v>
+        <v>15.8098</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4786</v>
+        <v>10.4798</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0928</v>
+        <v>14.1191</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6138</v>
+        <v>15.8971</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.7448</v>
+        <v>10.716</v>
       </c>
       <c r="C14" t="n">
-        <v>14.3371</v>
+        <v>14.2826</v>
       </c>
       <c r="D14" t="n">
-        <v>16.0795</v>
+        <v>15.8521</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.8778</v>
+        <v>10.8837</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7047</v>
+        <v>14.6121</v>
       </c>
       <c r="D15" t="n">
-        <v>15.9387</v>
+        <v>16.0661</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8777</v>
+        <v>10.8322</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7702</v>
+        <v>14.7145</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0789</v>
+        <v>15.8129</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.7754</v>
+        <v>10.7216</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9631</v>
+        <v>14.7749</v>
       </c>
       <c r="D17" t="n">
-        <v>15.4895</v>
+        <v>15.4573</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.49146</v>
+        <v>3.49034</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78123</v>
+        <v>3.77873</v>
       </c>
       <c r="D2" t="n">
-        <v>4.03993</v>
+        <v>4.04092</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.58844</v>
+        <v>4.74565</v>
       </c>
       <c r="C3" t="n">
-        <v>4.89361</v>
+        <v>4.99804</v>
       </c>
       <c r="D3" t="n">
-        <v>6.37062</v>
+        <v>6.44542</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.36784</v>
+        <v>6.02894</v>
       </c>
       <c r="C4" t="n">
-        <v>6.58684</v>
+        <v>6.5544</v>
       </c>
       <c r="D4" t="n">
-        <v>8.797359999999999</v>
+        <v>8.753450000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.73903</v>
+        <v>7.63104</v>
       </c>
       <c r="C5" t="n">
-        <v>8.278029999999999</v>
+        <v>8.255660000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.986</v>
+        <v>11.0246</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.08414</v>
+        <v>8.91886</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2018</v>
+        <v>10.0672</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3823</v>
+        <v>13.3132</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.2931</v>
+        <v>10.4063</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8098</v>
+        <v>11.9319</v>
       </c>
       <c r="D7" t="n">
-        <v>15.3558</v>
+        <v>15.4989</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6249</v>
+        <v>11.6496</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5678</v>
+        <v>13.5538</v>
       </c>
       <c r="D8" t="n">
-        <v>17.4885</v>
+        <v>17.4908</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.4857</v>
+        <v>13.4327</v>
       </c>
       <c r="C9" t="n">
-        <v>15.556</v>
+        <v>15.5052</v>
       </c>
       <c r="D9" t="n">
-        <v>20.379</v>
+        <v>20.4204</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7232</v>
+        <v>11.9238</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5347</v>
+        <v>13.4632</v>
       </c>
       <c r="D10" t="n">
-        <v>17.0953</v>
+        <v>16.9057</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9601</v>
+        <v>12.0576</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6176</v>
+        <v>13.8026</v>
       </c>
       <c r="D11" t="n">
-        <v>17.4373</v>
+        <v>17.2054</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5438</v>
+        <v>12.4932</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2412</v>
+        <v>14.2362</v>
       </c>
       <c r="D12" t="n">
-        <v>17.6841</v>
+        <v>17.7541</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5044</v>
+        <v>12.5251</v>
       </c>
       <c r="C13" t="n">
-        <v>14.6701</v>
+        <v>14.507</v>
       </c>
       <c r="D13" t="n">
-        <v>18.5196</v>
+        <v>18.4806</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.6792</v>
+        <v>12.7547</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8249</v>
+        <v>14.8608</v>
       </c>
       <c r="D14" t="n">
-        <v>18.5896</v>
+        <v>18.407</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9524</v>
+        <v>13.0008</v>
       </c>
       <c r="C15" t="n">
-        <v>14.9945</v>
+        <v>15.0519</v>
       </c>
       <c r="D15" t="n">
-        <v>18.7464</v>
+        <v>18.587</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7729</v>
+        <v>12.8358</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4013</v>
+        <v>15.2401</v>
       </c>
       <c r="D16" t="n">
-        <v>18.2909</v>
+        <v>18.8226</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.9455</v>
+        <v>12.7022</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4946</v>
+        <v>15.3048</v>
       </c>
       <c r="D17" t="n">
-        <v>17.8616</v>
+        <v>18.22</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.3409</v>
+        <v>3.35031</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79502</v>
+        <v>3.7982</v>
       </c>
       <c r="D2" t="n">
-        <v>4.18676</v>
+        <v>4.17656</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.35898</v>
+        <v>4.26365</v>
       </c>
       <c r="C3" t="n">
-        <v>4.84479</v>
+        <v>4.83907</v>
       </c>
       <c r="D3" t="n">
-        <v>6.40759</v>
+        <v>6.36774</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.66887</v>
+        <v>5.69805</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5232</v>
+        <v>6.50792</v>
       </c>
       <c r="D4" t="n">
-        <v>8.339180000000001</v>
+        <v>8.39518</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.74956</v>
+        <v>6.51558</v>
       </c>
       <c r="C5" t="n">
-        <v>8.1904</v>
+        <v>8.11636</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1233</v>
+        <v>9.997159999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.90924</v>
+        <v>7.81898</v>
       </c>
       <c r="C6" t="n">
-        <v>9.911709999999999</v>
+        <v>9.81916</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8509</v>
+        <v>11.7281</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.93779</v>
+        <v>8.93394</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7093</v>
+        <v>11.7495</v>
       </c>
       <c r="D7" t="n">
-        <v>13.4144</v>
+        <v>13.3339</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.922929999999999</v>
+        <v>9.8833</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5508</v>
+        <v>13.5989</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8563</v>
+        <v>14.8103</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.4533</v>
+        <v>11.4473</v>
       </c>
       <c r="C9" t="n">
-        <v>15.426</v>
+        <v>15.4942</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2179</v>
+        <v>17.2015</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.6113</v>
+        <v>9.50977</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9192</v>
+        <v>13.0174</v>
       </c>
       <c r="D10" t="n">
-        <v>14.0943</v>
+        <v>14.1603</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.867330000000001</v>
+        <v>10.0011</v>
       </c>
       <c r="C11" t="n">
-        <v>12.8736</v>
+        <v>12.8585</v>
       </c>
       <c r="D11" t="n">
-        <v>14.078</v>
+        <v>14.3154</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.26864</v>
+        <v>9.60497</v>
       </c>
       <c r="C12" t="n">
-        <v>13.2922</v>
+        <v>13.3517</v>
       </c>
       <c r="D12" t="n">
-        <v>13.8392</v>
+        <v>13.7866</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.739330000000001</v>
+        <v>9.758789999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6708</v>
+        <v>13.7105</v>
       </c>
       <c r="D13" t="n">
-        <v>13.9299</v>
+        <v>14.0674</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.796419999999999</v>
+        <v>9.835430000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>13.7497</v>
+        <v>13.735</v>
       </c>
       <c r="D14" t="n">
-        <v>14.0907</v>
+        <v>14.3271</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.920109999999999</v>
+        <v>9.94675</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0348</v>
+        <v>14.0242</v>
       </c>
       <c r="D15" t="n">
-        <v>14.6425</v>
+        <v>14.7343</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0568</v>
+        <v>9.81476</v>
       </c>
       <c r="C16" t="n">
-        <v>14.2713</v>
+        <v>14.1971</v>
       </c>
       <c r="D16" t="n">
-        <v>15.3291</v>
+        <v>15.1447</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.961930000000001</v>
+        <v>10.034</v>
       </c>
       <c r="C17" t="n">
-        <v>14.3304</v>
+        <v>14.3795</v>
       </c>
       <c r="D17" t="n">
-        <v>15.4732</v>
+        <v>15.1777</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.34728</v>
+        <v>3.34398</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7893</v>
+        <v>3.78982</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16762</v>
+        <v>4.14779</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.34812</v>
+        <v>4.45386</v>
       </c>
       <c r="C3" t="n">
-        <v>4.80043</v>
+        <v>4.88252</v>
       </c>
       <c r="D3" t="n">
-        <v>6.36918</v>
+        <v>6.47054</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.57492</v>
+        <v>5.73845</v>
       </c>
       <c r="C4" t="n">
-        <v>6.41526</v>
+        <v>6.52724</v>
       </c>
       <c r="D4" t="n">
-        <v>8.33198</v>
+        <v>8.403409999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.58248</v>
+        <v>6.8104</v>
       </c>
       <c r="C5" t="n">
-        <v>8.16025</v>
+        <v>8.20046</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1208</v>
+        <v>10.0845</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.01796</v>
+        <v>7.95465</v>
       </c>
       <c r="C6" t="n">
-        <v>9.802530000000001</v>
+        <v>9.78595</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7797</v>
+        <v>11.8099</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.87627</v>
+        <v>9.04499</v>
       </c>
       <c r="C7" t="n">
-        <v>11.6489</v>
+        <v>11.7234</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3902</v>
+        <v>13.3913</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0492</v>
+        <v>10.033</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5647</v>
+        <v>13.5428</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8506</v>
+        <v>14.8374</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.6204</v>
+        <v>11.6008</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3837</v>
+        <v>15.5028</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2476</v>
+        <v>17.2428</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.761570000000001</v>
+        <v>9.74105</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1546</v>
+        <v>13.153</v>
       </c>
       <c r="D10" t="n">
-        <v>14.2628</v>
+        <v>14.1925</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.2385</v>
+        <v>10.1254</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9393</v>
+        <v>12.9971</v>
       </c>
       <c r="D11" t="n">
-        <v>14.2039</v>
+        <v>14.3216</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.560790000000001</v>
+        <v>9.711349999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>13.2383</v>
+        <v>13.3554</v>
       </c>
       <c r="D12" t="n">
-        <v>14.0183</v>
+        <v>13.9312</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.693659999999999</v>
+        <v>9.767760000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>13.5677</v>
+        <v>13.6876</v>
       </c>
       <c r="D13" t="n">
-        <v>14.2036</v>
+        <v>13.8937</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0353</v>
+        <v>10.0855</v>
       </c>
       <c r="C14" t="n">
-        <v>13.8316</v>
+        <v>13.8453</v>
       </c>
       <c r="D14" t="n">
-        <v>14.4762</v>
+        <v>14.4071</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.215</v>
+        <v>10.0704</v>
       </c>
       <c r="C15" t="n">
-        <v>13.989</v>
+        <v>14.1941</v>
       </c>
       <c r="D15" t="n">
-        <v>15.1395</v>
+        <v>15.0963</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0064</v>
+        <v>10.083</v>
       </c>
       <c r="C16" t="n">
-        <v>14.2955</v>
+        <v>14.4542</v>
       </c>
       <c r="D16" t="n">
-        <v>15.2019</v>
+        <v>15.3142</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0089</v>
+        <v>10.0003</v>
       </c>
       <c r="C17" t="n">
-        <v>14.3875</v>
+        <v>14.4455</v>
       </c>
       <c r="D17" t="n">
-        <v>15.2697</v>
+        <v>15.3091</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.56372</v>
+        <v>3.5736</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79455</v>
+        <v>3.79034</v>
       </c>
       <c r="D2" t="n">
-        <v>4.04103</v>
+        <v>4.02549</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.67002</v>
+        <v>4.63562</v>
       </c>
       <c r="C3" t="n">
-        <v>4.98821</v>
+        <v>4.92993</v>
       </c>
       <c r="D3" t="n">
-        <v>6.35156</v>
+        <v>6.2162</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.22811</v>
+        <v>5.97035</v>
       </c>
       <c r="C4" t="n">
-        <v>6.78847</v>
+        <v>6.57213</v>
       </c>
       <c r="D4" t="n">
-        <v>8.693339999999999</v>
+        <v>8.47831</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.30195</v>
+        <v>7.30539</v>
       </c>
       <c r="C5" t="n">
-        <v>8.515930000000001</v>
+        <v>8.30376</v>
       </c>
       <c r="D5" t="n">
-        <v>10.745</v>
+        <v>10.5254</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.948119999999999</v>
+        <v>8.82202</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2117</v>
+        <v>10.1836</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6433</v>
+        <v>12.6176</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0003</v>
+        <v>9.97677</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9116</v>
+        <v>11.8965</v>
       </c>
       <c r="D7" t="n">
-        <v>14.634</v>
+        <v>14.566</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.2468</v>
+        <v>11.1973</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7969</v>
+        <v>13.7763</v>
       </c>
       <c r="D8" t="n">
-        <v>16.5184</v>
+        <v>16.4276</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.9625</v>
+        <v>12.9014</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8756</v>
+        <v>15.8496</v>
       </c>
       <c r="D9" t="n">
-        <v>19.1819</v>
+        <v>19.0817</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.7146</v>
+        <v>10.6321</v>
       </c>
       <c r="C10" t="n">
-        <v>13.2862</v>
+        <v>13.2924</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4017</v>
+        <v>15.3025</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1381</v>
+        <v>11.1985</v>
       </c>
       <c r="C11" t="n">
-        <v>13.256</v>
+        <v>13.321</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3358</v>
+        <v>15.2512</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6694</v>
+        <v>10.7589</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5211</v>
+        <v>13.5751</v>
       </c>
       <c r="D12" t="n">
-        <v>14.6716</v>
+        <v>14.4376</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0023</v>
+        <v>11.1162</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9291</v>
+        <v>13.9966</v>
       </c>
       <c r="D13" t="n">
-        <v>15.1415</v>
+        <v>14.9464</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.9305</v>
+        <v>11.3939</v>
       </c>
       <c r="C14" t="n">
-        <v>14.1907</v>
+        <v>14.2231</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7403</v>
+        <v>15.5614</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.4061</v>
+        <v>11.5763</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3738</v>
+        <v>14.2988</v>
       </c>
       <c r="D15" t="n">
-        <v>16.4241</v>
+        <v>16.4482</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.3105</v>
+        <v>11.5115</v>
       </c>
       <c r="C16" t="n">
-        <v>14.5181</v>
+        <v>14.6782</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0293</v>
+        <v>16.1184</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.4861</v>
+        <v>11.3733</v>
       </c>
       <c r="C17" t="n">
-        <v>14.8461</v>
+        <v>14.9082</v>
       </c>
       <c r="D17" t="n">
-        <v>16.4087</v>
+        <v>16.0699</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02746</v>
+        <v>3.01091</v>
       </c>
       <c r="C2" t="n">
-        <v>3.73641</v>
+        <v>3.73657</v>
       </c>
       <c r="D2" t="n">
-        <v>4.1392</v>
+        <v>4.13066</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.25217</v>
+        <v>4.23829</v>
       </c>
       <c r="C3" t="n">
-        <v>4.87545</v>
+        <v>4.81721</v>
       </c>
       <c r="D3" t="n">
-        <v>6.4438</v>
+        <v>6.30049</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.50049</v>
+        <v>5.57107</v>
       </c>
       <c r="C4" t="n">
-        <v>6.47142</v>
+        <v>6.51602</v>
       </c>
       <c r="D4" t="n">
-        <v>8.246090000000001</v>
+        <v>8.29208</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.59936</v>
+        <v>6.58507</v>
       </c>
       <c r="C5" t="n">
-        <v>8.05625</v>
+        <v>8.09817</v>
       </c>
       <c r="D5" t="n">
-        <v>9.97317</v>
+        <v>9.96274</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.60041</v>
+        <v>7.67592</v>
       </c>
       <c r="C6" t="n">
-        <v>9.576219999999999</v>
+        <v>9.67384</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7127</v>
+        <v>11.6978</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.65704</v>
+        <v>8.63111</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3064</v>
+        <v>11.3143</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3077</v>
+        <v>13.2311</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.585990000000001</v>
+        <v>9.536289999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>12.9226</v>
+        <v>13.0469</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7615</v>
+        <v>14.7543</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0927</v>
+        <v>11.1022</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7663</v>
+        <v>14.8593</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2616</v>
+        <v>17.1957</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.88762</v>
+        <v>9.693669999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>12.7886</v>
+        <v>13.055</v>
       </c>
       <c r="D10" t="n">
-        <v>14.9749</v>
+        <v>14.9191</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0964</v>
+        <v>10.0364</v>
       </c>
       <c r="C11" t="n">
-        <v>13.2047</v>
+        <v>13.2188</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2321</v>
+        <v>15.2735</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2979</v>
+        <v>10.2371</v>
       </c>
       <c r="C12" t="n">
-        <v>13.7732</v>
+        <v>13.5922</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6004</v>
+        <v>15.6875</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4524</v>
+        <v>10.3905</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1527</v>
+        <v>14.0288</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6545</v>
+        <v>15.834</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.4993</v>
+        <v>10.5517</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2272</v>
+        <v>14.2676</v>
       </c>
       <c r="D14" t="n">
-        <v>15.8995</v>
+        <v>15.7888</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6467</v>
+        <v>10.7169</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5713</v>
+        <v>14.3877</v>
       </c>
       <c r="D15" t="n">
-        <v>16.1441</v>
+        <v>15.7916</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.6448</v>
+        <v>10.6088</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6289</v>
+        <v>14.6678</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9372</v>
+        <v>15.2245</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.5099</v>
+        <v>10.6148</v>
       </c>
       <c r="C17" t="n">
-        <v>14.7927</v>
+        <v>14.6912</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0837</v>
+        <v>15.9207</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05657</v>
+        <v>3.06127</v>
       </c>
       <c r="C2" t="n">
-        <v>3.74188</v>
+        <v>3.74363</v>
       </c>
       <c r="D2" t="n">
-        <v>4.12159</v>
+        <v>4.11038</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.26719</v>
+        <v>4.25045</v>
       </c>
       <c r="C3" t="n">
-        <v>4.8482</v>
+        <v>4.83309</v>
       </c>
       <c r="D3" t="n">
-        <v>6.29801</v>
+        <v>6.22743</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.49732</v>
+        <v>5.63968</v>
       </c>
       <c r="C4" t="n">
-        <v>6.44556</v>
+        <v>6.48208</v>
       </c>
       <c r="D4" t="n">
-        <v>8.258889999999999</v>
+        <v>8.26784</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.6913</v>
+        <v>6.42165</v>
       </c>
       <c r="C5" t="n">
-        <v>8.139110000000001</v>
+        <v>8.09773</v>
       </c>
       <c r="D5" t="n">
-        <v>9.961370000000001</v>
+        <v>9.89358</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.81056</v>
+        <v>7.57128</v>
       </c>
       <c r="C6" t="n">
-        <v>9.77219</v>
+        <v>9.76336</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6685</v>
+        <v>11.6107</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.801310000000001</v>
+        <v>8.77129</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5707</v>
+        <v>11.3592</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3032</v>
+        <v>13.1804</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.738849999999999</v>
+        <v>9.680479999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1409</v>
+        <v>13.04</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8186</v>
+        <v>14.6937</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3007</v>
+        <v>11.283</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8573</v>
+        <v>14.9892</v>
       </c>
       <c r="D9" t="n">
-        <v>17.3847</v>
+        <v>17.2775</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2494</v>
+        <v>10.3133</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9143</v>
+        <v>12.9695</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6856</v>
+        <v>14.8755</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.2375</v>
+        <v>10.0971</v>
       </c>
       <c r="C11" t="n">
-        <v>13.2592</v>
+        <v>13.1996</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3303</v>
+        <v>15.1082</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.4179</v>
+        <v>10.3825</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5463</v>
+        <v>13.8316</v>
       </c>
       <c r="D12" t="n">
-        <v>15.8098</v>
+        <v>15.6122</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4798</v>
+        <v>10.6196</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1191</v>
+        <v>14.0182</v>
       </c>
       <c r="D13" t="n">
-        <v>15.8971</v>
+        <v>15.9185</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.716</v>
+        <v>10.6514</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2826</v>
+        <v>14.2912</v>
       </c>
       <c r="D14" t="n">
-        <v>15.8521</v>
+        <v>15.9772</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.8837</v>
+        <v>10.8656</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6121</v>
+        <v>14.7889</v>
       </c>
       <c r="D15" t="n">
-        <v>16.0661</v>
+        <v>16.1089</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8322</v>
+        <v>10.822</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7145</v>
+        <v>14.7761</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8129</v>
+        <v>16.2083</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.7216</v>
+        <v>10.6902</v>
       </c>
       <c r="C17" t="n">
-        <v>14.7749</v>
+        <v>15.0312</v>
       </c>
       <c r="D17" t="n">
-        <v>15.4573</v>
+        <v>15.22</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.49034</v>
+        <v>3.48018</v>
       </c>
       <c r="C2" t="n">
-        <v>3.77873</v>
+        <v>3.77712</v>
       </c>
       <c r="D2" t="n">
-        <v>4.04092</v>
+        <v>4.01094</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.74565</v>
+        <v>4.7099</v>
       </c>
       <c r="C3" t="n">
-        <v>4.99804</v>
+        <v>5.01229</v>
       </c>
       <c r="D3" t="n">
-        <v>6.44542</v>
+        <v>6.42173</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.02894</v>
+        <v>6.1973</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5544</v>
+        <v>6.72552</v>
       </c>
       <c r="D4" t="n">
-        <v>8.753450000000001</v>
+        <v>8.8529</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.63104</v>
+        <v>7.72465</v>
       </c>
       <c r="C5" t="n">
-        <v>8.255660000000001</v>
+        <v>8.47479</v>
       </c>
       <c r="D5" t="n">
-        <v>11.0246</v>
+        <v>11.0022</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.91886</v>
+        <v>8.92168</v>
       </c>
       <c r="C6" t="n">
-        <v>10.0672</v>
+        <v>10.1014</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3132</v>
+        <v>13.3337</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4063</v>
+        <v>10.3416</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9319</v>
+        <v>11.9726</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4989</v>
+        <v>15.4856</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6496</v>
+        <v>11.6215</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5538</v>
+        <v>13.6462</v>
       </c>
       <c r="D8" t="n">
-        <v>17.4908</v>
+        <v>17.5215</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.4327</v>
+        <v>13.4358</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5052</v>
+        <v>15.4486</v>
       </c>
       <c r="D9" t="n">
-        <v>20.4204</v>
+        <v>20.3652</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9238</v>
+        <v>11.9219</v>
       </c>
       <c r="C10" t="n">
-        <v>13.4632</v>
+        <v>13.4455</v>
       </c>
       <c r="D10" t="n">
-        <v>16.9057</v>
+        <v>17.2114</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0576</v>
+        <v>11.9539</v>
       </c>
       <c r="C11" t="n">
-        <v>13.8026</v>
+        <v>13.8042</v>
       </c>
       <c r="D11" t="n">
-        <v>17.2054</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.4932</v>
+        <v>12.4125</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2362</v>
+        <v>14.241</v>
       </c>
       <c r="D12" t="n">
-        <v>17.7541</v>
+        <v>17.8523</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5251</v>
+        <v>12.4718</v>
       </c>
       <c r="C13" t="n">
-        <v>14.507</v>
+        <v>14.5937</v>
       </c>
       <c r="D13" t="n">
-        <v>18.4806</v>
+        <v>18.5611</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.7547</v>
+        <v>12.775</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8608</v>
+        <v>14.7833</v>
       </c>
       <c r="D14" t="n">
-        <v>18.407</v>
+        <v>18.3717</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.0008</v>
+        <v>13.0428</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0519</v>
+        <v>14.9054</v>
       </c>
       <c r="D15" t="n">
-        <v>18.587</v>
+        <v>18.4421</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8358</v>
+        <v>13.0155</v>
       </c>
       <c r="C16" t="n">
-        <v>15.2401</v>
+        <v>15.2201</v>
       </c>
       <c r="D16" t="n">
-        <v>18.8226</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7022</v>
+        <v>12.8822</v>
       </c>
       <c r="C17" t="n">
-        <v>15.3048</v>
+        <v>15.4379</v>
       </c>
       <c r="D17" t="n">
-        <v>18.22</v>
+        <v>17.537</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.35031</v>
+        <v>2.98381</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7982</v>
+        <v>3.49108</v>
       </c>
       <c r="D2" t="n">
-        <v>4.17656</v>
+        <v>4.02934</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.26365</v>
+        <v>5.05735</v>
       </c>
       <c r="C3" t="n">
-        <v>4.83907</v>
+        <v>4.80576</v>
       </c>
       <c r="D3" t="n">
-        <v>6.36774</v>
+        <v>6.20795</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.69805</v>
+        <v>6.65735</v>
       </c>
       <c r="C4" t="n">
-        <v>6.50792</v>
+        <v>6.51578</v>
       </c>
       <c r="D4" t="n">
-        <v>8.39518</v>
+        <v>8.382820000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.51558</v>
+        <v>7.81037</v>
       </c>
       <c r="C5" t="n">
-        <v>8.11636</v>
+        <v>7.94476</v>
       </c>
       <c r="D5" t="n">
-        <v>9.997159999999999</v>
+        <v>10.2689</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.81898</v>
+        <v>9.533440000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.81916</v>
+        <v>9.667299999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7281</v>
+        <v>12.1435</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.93394</v>
+        <v>11.4115</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7495</v>
+        <v>11.5266</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3339</v>
+        <v>14.015</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.8833</v>
+        <v>12.9369</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5989</v>
+        <v>13.0661</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8103</v>
+        <v>15.4551</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.4473</v>
+        <v>15.2589</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4942</v>
+        <v>14.8444</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2015</v>
+        <v>17.9801</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.50977</v>
+        <v>12.6185</v>
       </c>
       <c r="C10" t="n">
-        <v>13.0174</v>
+        <v>12.9768</v>
       </c>
       <c r="D10" t="n">
-        <v>14.1603</v>
+        <v>15.4705</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0011</v>
+        <v>12.7834</v>
       </c>
       <c r="C11" t="n">
-        <v>12.8585</v>
+        <v>13.025</v>
       </c>
       <c r="D11" t="n">
-        <v>14.3154</v>
+        <v>15.4764</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.60497</v>
+        <v>13.5241</v>
       </c>
       <c r="C12" t="n">
-        <v>13.3517</v>
+        <v>13.5819</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7866</v>
+        <v>16.1505</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.758789999999999</v>
+        <v>14.0125</v>
       </c>
       <c r="C13" t="n">
-        <v>13.7105</v>
+        <v>13.8797</v>
       </c>
       <c r="D13" t="n">
-        <v>14.0674</v>
+        <v>16.8199</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.835430000000001</v>
+        <v>14.0001</v>
       </c>
       <c r="C14" t="n">
-        <v>13.735</v>
+        <v>14.2248</v>
       </c>
       <c r="D14" t="n">
-        <v>14.3271</v>
+        <v>16.6299</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.94675</v>
+        <v>14.0503</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0242</v>
+        <v>14.6144</v>
       </c>
       <c r="D15" t="n">
-        <v>14.7343</v>
+        <v>16.4442</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.81476</v>
+        <v>14.3668</v>
       </c>
       <c r="C16" t="n">
-        <v>14.1971</v>
+        <v>14.7631</v>
       </c>
       <c r="D16" t="n">
-        <v>15.1447</v>
+        <v>16.6531</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.034</v>
+        <v>14.4995</v>
       </c>
       <c r="C17" t="n">
-        <v>14.3795</v>
+        <v>15.0773</v>
       </c>
       <c r="D17" t="n">
-        <v>15.1777</v>
+        <v>16.7727</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.34398</v>
+        <v>3.44888</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78982</v>
+        <v>3.68751</v>
       </c>
       <c r="D2" t="n">
-        <v>4.14779</v>
+        <v>4.0104</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.45386</v>
+        <v>5.08465</v>
       </c>
       <c r="C3" t="n">
-        <v>4.88252</v>
+        <v>4.79067</v>
       </c>
       <c r="D3" t="n">
-        <v>6.47054</v>
+        <v>6.18383</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.73845</v>
+        <v>6.77466</v>
       </c>
       <c r="C4" t="n">
-        <v>6.52724</v>
+        <v>6.40512</v>
       </c>
       <c r="D4" t="n">
-        <v>8.403409999999999</v>
+        <v>8.357799999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.8104</v>
+        <v>7.98167</v>
       </c>
       <c r="C5" t="n">
-        <v>8.20046</v>
+        <v>7.88941</v>
       </c>
       <c r="D5" t="n">
-        <v>10.0845</v>
+        <v>10.282</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.95465</v>
+        <v>10.0693</v>
       </c>
       <c r="C6" t="n">
-        <v>9.78595</v>
+        <v>9.74286</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8099</v>
+        <v>12.2586</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.04499</v>
+        <v>11.6771</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7234</v>
+        <v>11.5034</v>
       </c>
       <c r="D7" t="n">
-        <v>13.3913</v>
+        <v>14.2416</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.033</v>
+        <v>13.3969</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5428</v>
+        <v>13.0854</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8374</v>
+        <v>15.7987</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.6008</v>
+        <v>15.6169</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5028</v>
+        <v>14.8865</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2428</v>
+        <v>18.2532</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.74105</v>
+        <v>12.4972</v>
       </c>
       <c r="C10" t="n">
-        <v>13.153</v>
+        <v>12.9908</v>
       </c>
       <c r="D10" t="n">
-        <v>14.1925</v>
+        <v>15.3015</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.1254</v>
+        <v>13.093</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9971</v>
+        <v>13.1022</v>
       </c>
       <c r="D11" t="n">
-        <v>14.3216</v>
+        <v>15.7759</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.711349999999999</v>
+        <v>13.8959</v>
       </c>
       <c r="C12" t="n">
-        <v>13.3554</v>
+        <v>13.4066</v>
       </c>
       <c r="D12" t="n">
-        <v>13.9312</v>
+        <v>16.1732</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.767760000000001</v>
+        <v>14.5456</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6876</v>
+        <v>13.9897</v>
       </c>
       <c r="D13" t="n">
-        <v>13.8937</v>
+        <v>16.7272</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0855</v>
+        <v>13.9886</v>
       </c>
       <c r="C14" t="n">
-        <v>13.8453</v>
+        <v>14.0808</v>
       </c>
       <c r="D14" t="n">
-        <v>14.4071</v>
+        <v>16.4704</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0704</v>
+        <v>14.2061</v>
       </c>
       <c r="C15" t="n">
-        <v>14.1941</v>
+        <v>14.5478</v>
       </c>
       <c r="D15" t="n">
-        <v>15.0963</v>
+        <v>16.5571</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.083</v>
+        <v>14.468</v>
       </c>
       <c r="C16" t="n">
-        <v>14.4542</v>
+        <v>14.7666</v>
       </c>
       <c r="D16" t="n">
-        <v>15.3142</v>
+        <v>16.6837</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0003</v>
+        <v>14.2653</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4455</v>
+        <v>15.0345</v>
       </c>
       <c r="D17" t="n">
-        <v>15.3091</v>
+        <v>16.5599</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.5736</v>
+        <v>3.71816</v>
       </c>
       <c r="C2" t="n">
-        <v>3.79034</v>
+        <v>3.78211</v>
       </c>
       <c r="D2" t="n">
-        <v>4.02549</v>
+        <v>4.06301</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.63562</v>
+        <v>5.23774</v>
       </c>
       <c r="C3" t="n">
-        <v>4.92993</v>
+        <v>5.09657</v>
       </c>
       <c r="D3" t="n">
-        <v>6.2162</v>
+        <v>6.49654</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.97035</v>
+        <v>6.59185</v>
       </c>
       <c r="C4" t="n">
-        <v>6.57213</v>
+        <v>6.65992</v>
       </c>
       <c r="D4" t="n">
-        <v>8.47831</v>
+        <v>9.17962</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.30539</v>
+        <v>8.7715</v>
       </c>
       <c r="C5" t="n">
-        <v>8.30376</v>
+        <v>8.602589999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.5254</v>
+        <v>11.6378</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.82202</v>
+        <v>10.4881</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1836</v>
+        <v>10.3762</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6176</v>
+        <v>14.0732</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.97677</v>
+        <v>12.3096</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8965</v>
+        <v>12.2388</v>
       </c>
       <c r="D7" t="n">
-        <v>14.566</v>
+        <v>16.6509</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1973</v>
+        <v>13.4266</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7763</v>
+        <v>14.0985</v>
       </c>
       <c r="D8" t="n">
-        <v>16.4276</v>
+        <v>19.0245</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.9014</v>
+        <v>15.3479</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8496</v>
+        <v>15.6932</v>
       </c>
       <c r="D9" t="n">
-        <v>19.0817</v>
+        <v>21.2808</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6321</v>
+        <v>13.6462</v>
       </c>
       <c r="C10" t="n">
-        <v>13.2924</v>
+        <v>13.3713</v>
       </c>
       <c r="D10" t="n">
-        <v>15.3025</v>
+        <v>17.2606</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1985</v>
+        <v>13.632</v>
       </c>
       <c r="C11" t="n">
-        <v>13.321</v>
+        <v>13.7437</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2512</v>
+        <v>17.6921</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.7589</v>
+        <v>14.1438</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5751</v>
+        <v>14.3464</v>
       </c>
       <c r="D12" t="n">
-        <v>14.4376</v>
+        <v>18.8113</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.1162</v>
+        <v>14.3824</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9966</v>
+        <v>14.6946</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9464</v>
+        <v>19.4055</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.3939</v>
+        <v>14.2407</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2231</v>
+        <v>14.8387</v>
       </c>
       <c r="D14" t="n">
-        <v>15.5614</v>
+        <v>18.467</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5763</v>
+        <v>14.2</v>
       </c>
       <c r="C15" t="n">
-        <v>14.2988</v>
+        <v>15.2522</v>
       </c>
       <c r="D15" t="n">
-        <v>16.4482</v>
+        <v>18.6106</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5115</v>
+        <v>14.5833</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6782</v>
+        <v>15.4392</v>
       </c>
       <c r="D16" t="n">
-        <v>16.1184</v>
+        <v>19.6616</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.3733</v>
+        <v>14.6024</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9082</v>
+        <v>15.8609</v>
       </c>
       <c r="D17" t="n">
-        <v>16.0699</v>
+        <v>19.9272</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.01091</v>
+        <v>2.44955</v>
       </c>
       <c r="C2" t="n">
-        <v>3.73657</v>
+        <v>3.45052</v>
       </c>
       <c r="D2" t="n">
-        <v>4.13066</v>
+        <v>3.75714</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.23829</v>
+        <v>4.24259</v>
       </c>
       <c r="C3" t="n">
-        <v>4.81721</v>
+        <v>4.72919</v>
       </c>
       <c r="D3" t="n">
-        <v>6.30049</v>
+        <v>6.1972</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.57107</v>
+        <v>5.99816</v>
       </c>
       <c r="C4" t="n">
-        <v>6.51602</v>
+        <v>6.44086</v>
       </c>
       <c r="D4" t="n">
-        <v>8.29208</v>
+        <v>8.37045</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.58507</v>
+        <v>7.63741</v>
       </c>
       <c r="C5" t="n">
-        <v>8.09817</v>
+        <v>8.133940000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.96274</v>
+        <v>10.3206</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.67592</v>
+        <v>9.265409999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.67384</v>
+        <v>9.85445</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6978</v>
+        <v>12.231</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.63111</v>
+        <v>10.8429</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3143</v>
+        <v>11.5393</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2311</v>
+        <v>14.0102</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.536289999999999</v>
+        <v>12.3549</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0469</v>
+        <v>13.3253</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7543</v>
+        <v>15.6976</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.1022</v>
+        <v>14.1756</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8593</v>
+        <v>15.4346</v>
       </c>
       <c r="D9" t="n">
-        <v>17.1957</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.693669999999999</v>
+        <v>13.4303</v>
       </c>
       <c r="C10" t="n">
-        <v>13.055</v>
+        <v>14.6016</v>
       </c>
       <c r="D10" t="n">
-        <v>14.9191</v>
+        <v>17.5856</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0364</v>
+        <v>13.6202</v>
       </c>
       <c r="C11" t="n">
-        <v>13.2188</v>
+        <v>14.1981</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2735</v>
+        <v>17.6447</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2371</v>
+        <v>13.6152</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5922</v>
+        <v>14.2549</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6875</v>
+        <v>17.6949</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.3905</v>
+        <v>13.9408</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0288</v>
+        <v>14.3726</v>
       </c>
       <c r="D13" t="n">
-        <v>15.834</v>
+        <v>18.1943</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5517</v>
+        <v>13.2937</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2676</v>
+        <v>14.4615</v>
       </c>
       <c r="D14" t="n">
-        <v>15.7888</v>
+        <v>17.3821</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.7169</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3877</v>
+        <v>14.6188</v>
       </c>
       <c r="D15" t="n">
-        <v>15.7916</v>
+        <v>17.7659</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.6088</v>
+        <v>13.981</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6678</v>
+        <v>14.8095</v>
       </c>
       <c r="D16" t="n">
-        <v>15.2245</v>
+        <v>17.9248</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6148</v>
+        <v>13.9702</v>
       </c>
       <c r="C17" t="n">
-        <v>14.6912</v>
+        <v>14.9986</v>
       </c>
       <c r="D17" t="n">
-        <v>15.9207</v>
+        <v>18.1739</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.06127</v>
+        <v>2.47041</v>
       </c>
       <c r="C2" t="n">
-        <v>3.74363</v>
+        <v>3.4549</v>
       </c>
       <c r="D2" t="n">
-        <v>4.11038</v>
+        <v>3.72791</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.25045</v>
+        <v>4.30758</v>
       </c>
       <c r="C3" t="n">
-        <v>4.83309</v>
+        <v>4.73394</v>
       </c>
       <c r="D3" t="n">
-        <v>6.22743</v>
+        <v>6.17486</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.63968</v>
+        <v>6.14267</v>
       </c>
       <c r="C4" t="n">
-        <v>6.48208</v>
+        <v>6.47438</v>
       </c>
       <c r="D4" t="n">
-        <v>8.26784</v>
+        <v>8.433579999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.42165</v>
+        <v>7.78892</v>
       </c>
       <c r="C5" t="n">
-        <v>8.09773</v>
+        <v>8.127280000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>9.89358</v>
+        <v>10.4097</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.57128</v>
+        <v>9.45984</v>
       </c>
       <c r="C6" t="n">
-        <v>9.76336</v>
+        <v>9.82559</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6107</v>
+        <v>12.3901</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.77129</v>
+        <v>11.0524</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3592</v>
+        <v>11.5101</v>
       </c>
       <c r="D7" t="n">
-        <v>13.1804</v>
+        <v>14.2503</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.680479999999999</v>
+        <v>12.5841</v>
       </c>
       <c r="C8" t="n">
-        <v>13.04</v>
+        <v>13.2799</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6937</v>
+        <v>15.9685</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.283</v>
+        <v>14.5407</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9892</v>
+        <v>15.4157</v>
       </c>
       <c r="D9" t="n">
-        <v>17.2775</v>
+        <v>18.9116</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3133</v>
+        <v>13.8731</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9695</v>
+        <v>14.5843</v>
       </c>
       <c r="D10" t="n">
-        <v>14.8755</v>
+        <v>17.7242</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0971</v>
+        <v>13.8934</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1996</v>
+        <v>14.2818</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1082</v>
+        <v>17.6828</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3825</v>
+        <v>13.8845</v>
       </c>
       <c r="C12" t="n">
-        <v>13.8316</v>
+        <v>14.2424</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6122</v>
+        <v>17.8732</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6196</v>
+        <v>14.3056</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0182</v>
+        <v>14.3619</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9185</v>
+        <v>18.3582</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.6514</v>
+        <v>13.7037</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2912</v>
+        <v>14.4283</v>
       </c>
       <c r="D14" t="n">
-        <v>15.9772</v>
+        <v>17.6362</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.8656</v>
+        <v>14.348</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7889</v>
+        <v>14.6493</v>
       </c>
       <c r="D15" t="n">
-        <v>16.1089</v>
+        <v>18.1477</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.822</v>
+        <v>14.3794</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7761</v>
+        <v>14.8004</v>
       </c>
       <c r="D16" t="n">
-        <v>16.2083</v>
+        <v>18.2452</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6902</v>
+        <v>14.5216</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0312</v>
+        <v>14.9803</v>
       </c>
       <c r="D17" t="n">
-        <v>15.22</v>
+        <v>18.2929</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.48018</v>
+        <v>3.26223</v>
       </c>
       <c r="C2" t="n">
-        <v>3.77712</v>
+        <v>3.734</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01094</v>
+        <v>4.01579</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.7099</v>
+        <v>5.08288</v>
       </c>
       <c r="C3" t="n">
-        <v>5.01229</v>
+        <v>4.99191</v>
       </c>
       <c r="D3" t="n">
-        <v>6.42173</v>
+        <v>6.60357</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.1973</v>
+        <v>6.93965</v>
       </c>
       <c r="C4" t="n">
-        <v>6.72552</v>
+        <v>6.73436</v>
       </c>
       <c r="D4" t="n">
-        <v>8.8529</v>
+        <v>9.236789999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.72465</v>
+        <v>8.73119</v>
       </c>
       <c r="C5" t="n">
-        <v>8.47479</v>
+        <v>8.479039999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.0022</v>
+        <v>11.7225</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.92168</v>
+        <v>10.508</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1014</v>
+        <v>10.2532</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3337</v>
+        <v>14.2129</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.3416</v>
+        <v>12.1996</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9726</v>
+        <v>11.9921</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4856</v>
+        <v>16.8181</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6215</v>
+        <v>13.9361</v>
       </c>
       <c r="C8" t="n">
-        <v>13.6462</v>
+        <v>13.7566</v>
       </c>
       <c r="D8" t="n">
-        <v>17.5215</v>
+        <v>19.2314</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.4358</v>
+        <v>16.1425</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4486</v>
+        <v>15.7178</v>
       </c>
       <c r="D9" t="n">
-        <v>20.3652</v>
+        <v>22.3466</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9219</v>
+        <v>15.3713</v>
       </c>
       <c r="C10" t="n">
-        <v>13.4455</v>
+        <v>15.1615</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2114</v>
+        <v>20.9866</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9539</v>
+        <v>15.1863</v>
       </c>
       <c r="C11" t="n">
-        <v>13.8042</v>
+        <v>14.8575</v>
       </c>
       <c r="D11" t="n">
-        <v>17.61</v>
+        <v>20.6888</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.4125</v>
+        <v>15.4876</v>
       </c>
       <c r="C12" t="n">
-        <v>14.241</v>
+        <v>15.0299</v>
       </c>
       <c r="D12" t="n">
-        <v>17.8523</v>
+        <v>21.2596</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4718</v>
+        <v>15.5907</v>
       </c>
       <c r="C13" t="n">
-        <v>14.5937</v>
+        <v>15.0943</v>
       </c>
       <c r="D13" t="n">
-        <v>18.5611</v>
+        <v>21.4513</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.775</v>
+        <v>15.1461</v>
       </c>
       <c r="C14" t="n">
-        <v>14.7833</v>
+        <v>15.1968</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3717</v>
+        <v>20.7702</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.0428</v>
+        <v>15.6366</v>
       </c>
       <c r="C15" t="n">
-        <v>14.9054</v>
+        <v>15.4231</v>
       </c>
       <c r="D15" t="n">
-        <v>18.4421</v>
+        <v>21.5599</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.0155</v>
+        <v>15.6724</v>
       </c>
       <c r="C16" t="n">
-        <v>15.2201</v>
+        <v>15.5874</v>
       </c>
       <c r="D16" t="n">
-        <v>18.14</v>
+        <v>21.5035</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.8822</v>
+        <v>15.5622</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4379</v>
+        <v>15.7563</v>
       </c>
       <c r="D17" t="n">
-        <v>17.537</v>
+        <v>21.6787</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.98381</v>
+        <v>3.30903</v>
       </c>
       <c r="C2" t="n">
-        <v>3.49108</v>
+        <v>3.69584</v>
       </c>
       <c r="D2" t="n">
-        <v>4.02934</v>
+        <v>4.01676</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.05735</v>
+        <v>4.5777</v>
       </c>
       <c r="C3" t="n">
-        <v>4.80576</v>
+        <v>4.81725</v>
       </c>
       <c r="D3" t="n">
-        <v>6.20795</v>
+        <v>6.23471</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.65735</v>
+        <v>6.27997</v>
       </c>
       <c r="C4" t="n">
-        <v>6.51578</v>
+        <v>6.4233</v>
       </c>
       <c r="D4" t="n">
-        <v>8.382820000000001</v>
+        <v>8.35417</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.81037</v>
+        <v>7.65338</v>
       </c>
       <c r="C5" t="n">
-        <v>7.94476</v>
+        <v>8.095549999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2689</v>
+        <v>10.2908</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.533440000000001</v>
+        <v>9.072279999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.667299999999999</v>
+        <v>9.79853</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1435</v>
+        <v>12.1319</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4115</v>
+        <v>10.3828</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5266</v>
+        <v>11.5857</v>
       </c>
       <c r="D7" t="n">
-        <v>14.015</v>
+        <v>14.0778</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9369</v>
+        <v>11.7051</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0661</v>
+        <v>13.2223</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4551</v>
+        <v>15.5161</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2589</v>
+        <v>13.9703</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8444</v>
+        <v>14.9062</v>
       </c>
       <c r="D9" t="n">
-        <v>17.9801</v>
+        <v>18.1934</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.6185</v>
+        <v>11.661</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9768</v>
+        <v>12.9935</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4705</v>
+        <v>15.4424</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.7834</v>
+        <v>11.5409</v>
       </c>
       <c r="C11" t="n">
-        <v>13.025</v>
+        <v>12.9342</v>
       </c>
       <c r="D11" t="n">
-        <v>15.4764</v>
+        <v>15.3087</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.5241</v>
+        <v>12.1896</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5819</v>
+        <v>13.6188</v>
       </c>
       <c r="D12" t="n">
-        <v>16.1505</v>
+        <v>16.083</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.0125</v>
+        <v>12.5077</v>
       </c>
       <c r="C13" t="n">
-        <v>13.8797</v>
+        <v>13.9361</v>
       </c>
       <c r="D13" t="n">
-        <v>16.8199</v>
+        <v>16.5038</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0001</v>
+        <v>12.4822</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2248</v>
+        <v>14.198</v>
       </c>
       <c r="D14" t="n">
-        <v>16.6299</v>
+        <v>16.1686</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0503</v>
+        <v>12.227</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6144</v>
+        <v>14.4979</v>
       </c>
       <c r="D15" t="n">
-        <v>16.4442</v>
+        <v>16.1792</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3668</v>
+        <v>12.2051</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7631</v>
+        <v>14.9435</v>
       </c>
       <c r="D16" t="n">
-        <v>16.6531</v>
+        <v>16.7199</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4995</v>
+        <v>12.2327</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0773</v>
+        <v>15.0615</v>
       </c>
       <c r="D17" t="n">
-        <v>16.7727</v>
+        <v>16.9096</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.44888</v>
+        <v>3.39042</v>
       </c>
       <c r="C2" t="n">
-        <v>3.68751</v>
+        <v>3.69192</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0104</v>
+        <v>4.00114</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.08465</v>
+        <v>4.74301</v>
       </c>
       <c r="C3" t="n">
-        <v>4.79067</v>
+        <v>4.81092</v>
       </c>
       <c r="D3" t="n">
-        <v>6.18383</v>
+        <v>6.24597</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.77466</v>
+        <v>6.40827</v>
       </c>
       <c r="C4" t="n">
-        <v>6.40512</v>
+        <v>6.45518</v>
       </c>
       <c r="D4" t="n">
-        <v>8.357799999999999</v>
+        <v>8.364649999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.98167</v>
+        <v>7.87609</v>
       </c>
       <c r="C5" t="n">
-        <v>7.88941</v>
+        <v>8.034090000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.282</v>
+        <v>10.2067</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0693</v>
+        <v>9.30584</v>
       </c>
       <c r="C6" t="n">
-        <v>9.74286</v>
+        <v>9.79726</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2586</v>
+        <v>12.2825</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.6771</v>
+        <v>10.7025</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5034</v>
+        <v>11.4559</v>
       </c>
       <c r="D7" t="n">
-        <v>14.2416</v>
+        <v>14.2587</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3969</v>
+        <v>12.0794</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0854</v>
+        <v>13.0758</v>
       </c>
       <c r="D8" t="n">
-        <v>15.7987</v>
+        <v>15.8717</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6169</v>
+        <v>14.3836</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8865</v>
+        <v>14.9467</v>
       </c>
       <c r="D9" t="n">
-        <v>18.2532</v>
+        <v>18.6479</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4972</v>
+        <v>11.9408</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9908</v>
+        <v>12.9896</v>
       </c>
       <c r="D10" t="n">
-        <v>15.3015</v>
+        <v>15.2852</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.093</v>
+        <v>12.3722</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1022</v>
+        <v>13.0385</v>
       </c>
       <c r="D11" t="n">
-        <v>15.7759</v>
+        <v>15.7722</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.8959</v>
+        <v>12.5852</v>
       </c>
       <c r="C12" t="n">
-        <v>13.4066</v>
+        <v>13.5436</v>
       </c>
       <c r="D12" t="n">
-        <v>16.1732</v>
+        <v>16.5138</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5456</v>
+        <v>12.664</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9897</v>
+        <v>14.1177</v>
       </c>
       <c r="D13" t="n">
-        <v>16.7272</v>
+        <v>16.9955</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9886</v>
+        <v>12.3758</v>
       </c>
       <c r="C14" t="n">
-        <v>14.0808</v>
+        <v>14.3013</v>
       </c>
       <c r="D14" t="n">
-        <v>16.4704</v>
+        <v>16.4481</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2061</v>
+        <v>12.7935</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5478</v>
+        <v>14.3857</v>
       </c>
       <c r="D15" t="n">
-        <v>16.5571</v>
+        <v>16.7315</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.468</v>
+        <v>12.7251</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7666</v>
+        <v>14.6858</v>
       </c>
       <c r="D16" t="n">
-        <v>16.6837</v>
+        <v>16.6227</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2653</v>
+        <v>12.7467</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0345</v>
+        <v>15.0379</v>
       </c>
       <c r="D17" t="n">
-        <v>16.5599</v>
+        <v>16.688</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.71816</v>
+        <v>3.62272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78211</v>
+        <v>3.78362</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06301</v>
+        <v>4.05175</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.23774</v>
+        <v>4.97444</v>
       </c>
       <c r="C3" t="n">
-        <v>5.09657</v>
+        <v>5.13073</v>
       </c>
       <c r="D3" t="n">
-        <v>6.49654</v>
+        <v>6.65873</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.59185</v>
+        <v>6.75486</v>
       </c>
       <c r="C4" t="n">
-        <v>6.65992</v>
+        <v>6.85193</v>
       </c>
       <c r="D4" t="n">
-        <v>9.17962</v>
+        <v>9.1767</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.7715</v>
+        <v>8.32954</v>
       </c>
       <c r="C5" t="n">
-        <v>8.602589999999999</v>
+        <v>8.59693</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6378</v>
+        <v>11.6333</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.4881</v>
+        <v>9.68586</v>
       </c>
       <c r="C6" t="n">
-        <v>10.3762</v>
+        <v>10.4197</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0732</v>
+        <v>14.1042</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3096</v>
+        <v>11.2685</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2388</v>
+        <v>11.9779</v>
       </c>
       <c r="D7" t="n">
-        <v>16.6509</v>
+        <v>16.3734</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.4266</v>
+        <v>12.6799</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0985</v>
+        <v>14.0238</v>
       </c>
       <c r="D8" t="n">
-        <v>19.0245</v>
+        <v>18.9331</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3479</v>
+        <v>14.639</v>
       </c>
       <c r="C9" t="n">
-        <v>15.6932</v>
+        <v>15.7782</v>
       </c>
       <c r="D9" t="n">
-        <v>21.2808</v>
+        <v>21.3297</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.6462</v>
+        <v>12.5264</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3713</v>
+        <v>13.6096</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2606</v>
+        <v>17.3776</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.632</v>
+        <v>12.6833</v>
       </c>
       <c r="C11" t="n">
-        <v>13.7437</v>
+        <v>13.707</v>
       </c>
       <c r="D11" t="n">
-        <v>17.6921</v>
+        <v>17.9699</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1438</v>
+        <v>13.2899</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3464</v>
+        <v>14.384</v>
       </c>
       <c r="D12" t="n">
-        <v>18.8113</v>
+        <v>18.8578</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3824</v>
+        <v>13.5912</v>
       </c>
       <c r="C13" t="n">
-        <v>14.6946</v>
+        <v>14.8202</v>
       </c>
       <c r="D13" t="n">
-        <v>19.4055</v>
+        <v>19.7127</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.2407</v>
+        <v>13.2472</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8387</v>
+        <v>14.8385</v>
       </c>
       <c r="D14" t="n">
-        <v>18.467</v>
+        <v>18.904</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2</v>
+        <v>13.3976</v>
       </c>
       <c r="C15" t="n">
-        <v>15.2522</v>
+        <v>15.0999</v>
       </c>
       <c r="D15" t="n">
-        <v>18.6106</v>
+        <v>18.9963</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5833</v>
+        <v>13.2669</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4392</v>
+        <v>15.4056</v>
       </c>
       <c r="D16" t="n">
-        <v>19.6616</v>
+        <v>19.301</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.6024</v>
+        <v>13.354</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8609</v>
+        <v>15.7376</v>
       </c>
       <c r="D17" t="n">
-        <v>19.9272</v>
+        <v>19.5239</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.44955</v>
+        <v>2.15027</v>
       </c>
       <c r="C2" t="n">
-        <v>3.45052</v>
+        <v>3.4395</v>
       </c>
       <c r="D2" t="n">
-        <v>3.75714</v>
+        <v>3.73919</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.24259</v>
+        <v>3.74365</v>
       </c>
       <c r="C3" t="n">
-        <v>4.72919</v>
+        <v>4.75931</v>
       </c>
       <c r="D3" t="n">
-        <v>6.1972</v>
+        <v>6.20751</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.99816</v>
+        <v>5.28496</v>
       </c>
       <c r="C4" t="n">
-        <v>6.44086</v>
+        <v>6.45725</v>
       </c>
       <c r="D4" t="n">
-        <v>8.37045</v>
+        <v>8.37786</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.63741</v>
+        <v>6.74354</v>
       </c>
       <c r="C5" t="n">
-        <v>8.133940000000001</v>
+        <v>8.154350000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.3206</v>
+        <v>10.3378</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.265409999999999</v>
+        <v>8.113910000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.85445</v>
+        <v>9.85111</v>
       </c>
       <c r="D6" t="n">
-        <v>12.231</v>
+        <v>12.2285</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.8429</v>
+        <v>9.51463</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5393</v>
+        <v>11.5519</v>
       </c>
       <c r="D7" t="n">
-        <v>14.0102</v>
+        <v>14.0177</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.3549</v>
+        <v>10.8873</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3253</v>
+        <v>13.3427</v>
       </c>
       <c r="D8" t="n">
-        <v>15.6976</v>
+        <v>15.7249</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.1756</v>
+        <v>12.5391</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4346</v>
+        <v>15.4936</v>
       </c>
       <c r="D9" t="n">
-        <v>18.61</v>
+        <v>18.6222</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.4303</v>
+        <v>11.9964</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6016</v>
+        <v>14.441</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5856</v>
+        <v>17.7482</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.6202</v>
+        <v>11.8834</v>
       </c>
       <c r="C11" t="n">
-        <v>14.1981</v>
+        <v>14.2894</v>
       </c>
       <c r="D11" t="n">
-        <v>17.6447</v>
+        <v>17.8195</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6152</v>
+        <v>12.0425</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2549</v>
+        <v>14.2975</v>
       </c>
       <c r="D12" t="n">
-        <v>17.6949</v>
+        <v>17.6879</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.9408</v>
+        <v>12.1842</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3726</v>
+        <v>14.3565</v>
       </c>
       <c r="D13" t="n">
-        <v>18.1943</v>
+        <v>17.8874</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.2937</v>
+        <v>11.7745</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4615</v>
+        <v>14.5181</v>
       </c>
       <c r="D14" t="n">
-        <v>17.3821</v>
+        <v>17.482</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>12.2501</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6188</v>
+        <v>14.6151</v>
       </c>
       <c r="D15" t="n">
-        <v>17.7659</v>
+        <v>18.038</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.981</v>
+        <v>11.9943</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8095</v>
+        <v>14.8659</v>
       </c>
       <c r="D16" t="n">
-        <v>17.9248</v>
+        <v>18.0566</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9702</v>
+        <v>12.0532</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9986</v>
+        <v>15.0998</v>
       </c>
       <c r="D17" t="n">
-        <v>18.1739</v>
+        <v>17.818</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.47041</v>
+        <v>2.20546</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4549</v>
+        <v>3.46064</v>
       </c>
       <c r="D2" t="n">
-        <v>3.72791</v>
+        <v>3.728</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.30758</v>
+        <v>3.74208</v>
       </c>
       <c r="C3" t="n">
-        <v>4.73394</v>
+        <v>4.7412</v>
       </c>
       <c r="D3" t="n">
-        <v>6.17486</v>
+        <v>6.17005</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.14267</v>
+        <v>5.34976</v>
       </c>
       <c r="C4" t="n">
-        <v>6.47438</v>
+        <v>6.44434</v>
       </c>
       <c r="D4" t="n">
-        <v>8.433579999999999</v>
+        <v>8.38815</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.78892</v>
+        <v>6.83425</v>
       </c>
       <c r="C5" t="n">
-        <v>8.127280000000001</v>
+        <v>8.1309</v>
       </c>
       <c r="D5" t="n">
-        <v>10.4097</v>
+        <v>10.4119</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.45984</v>
+        <v>8.26961</v>
       </c>
       <c r="C6" t="n">
-        <v>9.82559</v>
+        <v>9.85012</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3901</v>
+        <v>12.3661</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0524</v>
+        <v>9.691369999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5101</v>
+        <v>11.5452</v>
       </c>
       <c r="D7" t="n">
-        <v>14.2503</v>
+        <v>14.2365</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5841</v>
+        <v>11.0095</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2799</v>
+        <v>13.3316</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9685</v>
+        <v>15.9862</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5407</v>
+        <v>12.8249</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4157</v>
+        <v>15.4115</v>
       </c>
       <c r="D9" t="n">
-        <v>18.9116</v>
+        <v>18.9404</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8731</v>
+        <v>12.4451</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5843</v>
+        <v>14.4396</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7242</v>
+        <v>17.8655</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8934</v>
+        <v>12.1128</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2818</v>
+        <v>14.2755</v>
       </c>
       <c r="D11" t="n">
-        <v>17.6828</v>
+        <v>17.9292</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.8845</v>
+        <v>12.2791</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2424</v>
+        <v>14.1516</v>
       </c>
       <c r="D12" t="n">
-        <v>17.8732</v>
+        <v>18.1442</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3056</v>
+        <v>12.3047</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3619</v>
+        <v>14.3516</v>
       </c>
       <c r="D13" t="n">
-        <v>18.3582</v>
+        <v>18.3325</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7037</v>
+        <v>11.9044</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4283</v>
+        <v>14.552</v>
       </c>
       <c r="D14" t="n">
-        <v>17.6362</v>
+        <v>17.6355</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.348</v>
+        <v>12.4241</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6493</v>
+        <v>14.6118</v>
       </c>
       <c r="D15" t="n">
-        <v>18.1477</v>
+        <v>18.2085</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3794</v>
+        <v>12.1293</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8004</v>
+        <v>14.8522</v>
       </c>
       <c r="D16" t="n">
-        <v>18.2452</v>
+        <v>18.1131</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5216</v>
+        <v>12.2051</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9803</v>
+        <v>15.0075</v>
       </c>
       <c r="D17" t="n">
-        <v>18.2929</v>
+        <v>18.3813</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.26223</v>
+        <v>3.13655</v>
       </c>
       <c r="C2" t="n">
-        <v>3.734</v>
+        <v>3.72844</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01579</v>
+        <v>4.00495</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.08288</v>
+        <v>4.76904</v>
       </c>
       <c r="C3" t="n">
-        <v>4.99191</v>
+        <v>4.98039</v>
       </c>
       <c r="D3" t="n">
-        <v>6.60357</v>
+        <v>6.5696</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.93965</v>
+        <v>6.4941</v>
       </c>
       <c r="C4" t="n">
-        <v>6.73436</v>
+        <v>6.73501</v>
       </c>
       <c r="D4" t="n">
-        <v>9.236789999999999</v>
+        <v>9.23479</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.73119</v>
+        <v>8.145379999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.479039999999999</v>
+        <v>8.472239999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7225</v>
+        <v>11.7347</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.508</v>
+        <v>9.762740000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2532</v>
+        <v>10.2623</v>
       </c>
       <c r="D6" t="n">
-        <v>14.2129</v>
+        <v>14.3494</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.1996</v>
+        <v>11.3482</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9921</v>
+        <v>12.0244</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8181</v>
+        <v>16.8236</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9361</v>
+        <v>12.9211</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7566</v>
+        <v>13.8975</v>
       </c>
       <c r="D8" t="n">
-        <v>19.2314</v>
+        <v>19.3189</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1425</v>
+        <v>15.0317</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7178</v>
+        <v>15.8096</v>
       </c>
       <c r="D9" t="n">
-        <v>22.3466</v>
+        <v>22.3884</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.3713</v>
+        <v>14.5092</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1615</v>
+        <v>15.055</v>
       </c>
       <c r="D10" t="n">
-        <v>20.9866</v>
+        <v>21.0289</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.1863</v>
+        <v>14.317</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8575</v>
+        <v>14.9168</v>
       </c>
       <c r="D11" t="n">
-        <v>20.6888</v>
+        <v>20.9862</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4876</v>
+        <v>14.4465</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0299</v>
+        <v>14.8902</v>
       </c>
       <c r="D12" t="n">
-        <v>21.2596</v>
+        <v>21.3996</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5907</v>
+        <v>14.6992</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0943</v>
+        <v>15.0488</v>
       </c>
       <c r="D13" t="n">
-        <v>21.4513</v>
+        <v>21.5175</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1461</v>
+        <v>14.1297</v>
       </c>
       <c r="C14" t="n">
-        <v>15.1968</v>
+        <v>15.2099</v>
       </c>
       <c r="D14" t="n">
-        <v>20.7702</v>
+        <v>20.8658</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6366</v>
+        <v>14.4977</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4231</v>
+        <v>15.3978</v>
       </c>
       <c r="D15" t="n">
-        <v>21.5599</v>
+        <v>21.582</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.6724</v>
+        <v>14.3557</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5874</v>
+        <v>15.5728</v>
       </c>
       <c r="D16" t="n">
-        <v>21.5035</v>
+        <v>21.4746</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5622</v>
+        <v>14.1718</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7563</v>
+        <v>15.8035</v>
       </c>
       <c r="D17" t="n">
-        <v>21.6787</v>
+        <v>21.8988</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.30903</v>
+        <v>3.31389</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69584</v>
+        <v>3.69539</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01676</v>
+        <v>4.01432</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5777</v>
+        <v>4.61245</v>
       </c>
       <c r="C3" t="n">
-        <v>4.81725</v>
+        <v>4.78721</v>
       </c>
       <c r="D3" t="n">
-        <v>6.23471</v>
+        <v>6.21957</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.27997</v>
+        <v>6.29855</v>
       </c>
       <c r="C4" t="n">
-        <v>6.4233</v>
+        <v>6.45481</v>
       </c>
       <c r="D4" t="n">
-        <v>8.35417</v>
+        <v>8.349780000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.65338</v>
+        <v>7.6608</v>
       </c>
       <c r="C5" t="n">
-        <v>8.095549999999999</v>
+        <v>8.12335</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2908</v>
+        <v>10.2722</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.072279999999999</v>
+        <v>9.10135</v>
       </c>
       <c r="C6" t="n">
-        <v>9.79853</v>
+        <v>9.780250000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1319</v>
+        <v>12.1497</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.3828</v>
+        <v>10.4637</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5857</v>
+        <v>11.5048</v>
       </c>
       <c r="D7" t="n">
-        <v>14.0778</v>
+        <v>14.0651</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7051</v>
+        <v>11.7631</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2223</v>
+        <v>13.0314</v>
       </c>
       <c r="D8" t="n">
-        <v>15.5161</v>
+        <v>15.4563</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9703</v>
+        <v>13.9689</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9062</v>
+        <v>15.0195</v>
       </c>
       <c r="D9" t="n">
-        <v>18.1934</v>
+        <v>18.1842</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.661</v>
+        <v>11.5899</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9935</v>
+        <v>12.7199</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4424</v>
+        <v>15.657</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.5409</v>
+        <v>11.9534</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9342</v>
+        <v>12.9567</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3087</v>
+        <v>15.5675</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1896</v>
+        <v>12.2687</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6188</v>
+        <v>13.6915</v>
       </c>
       <c r="D12" t="n">
-        <v>16.083</v>
+        <v>16.0278</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5077</v>
+        <v>12.5033</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9361</v>
+        <v>14.0638</v>
       </c>
       <c r="D13" t="n">
-        <v>16.5038</v>
+        <v>16.4645</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4822</v>
+        <v>12.4601</v>
       </c>
       <c r="C14" t="n">
-        <v>14.198</v>
+        <v>14.2511</v>
       </c>
       <c r="D14" t="n">
-        <v>16.1686</v>
+        <v>16.2646</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.227</v>
+        <v>12.3605</v>
       </c>
       <c r="C15" t="n">
-        <v>14.4979</v>
+        <v>14.536</v>
       </c>
       <c r="D15" t="n">
-        <v>16.1792</v>
+        <v>16.139</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2051</v>
+        <v>12.3002</v>
       </c>
       <c r="C16" t="n">
-        <v>14.9435</v>
+        <v>14.773</v>
       </c>
       <c r="D16" t="n">
-        <v>16.7199</v>
+        <v>16.5192</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2327</v>
+        <v>12.444</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0615</v>
+        <v>14.9501</v>
       </c>
       <c r="D17" t="n">
-        <v>16.9096</v>
+        <v>16.3384</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.39042</v>
+        <v>3.40496</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69192</v>
+        <v>3.69064</v>
       </c>
       <c r="D2" t="n">
-        <v>4.00114</v>
+        <v>3.99601</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.74301</v>
+        <v>4.71444</v>
       </c>
       <c r="C3" t="n">
-        <v>4.81092</v>
+        <v>4.76923</v>
       </c>
       <c r="D3" t="n">
-        <v>6.24597</v>
+        <v>6.21926</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.40827</v>
+        <v>6.45191</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45518</v>
+        <v>6.47536</v>
       </c>
       <c r="D4" t="n">
-        <v>8.364649999999999</v>
+        <v>8.387169999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.87609</v>
+        <v>7.90376</v>
       </c>
       <c r="C5" t="n">
-        <v>8.034090000000001</v>
+        <v>8.04654</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2067</v>
+        <v>10.2981</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.30584</v>
+        <v>9.29302</v>
       </c>
       <c r="C6" t="n">
-        <v>9.79726</v>
+        <v>9.78848</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2825</v>
+        <v>12.3173</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7025</v>
+        <v>10.73</v>
       </c>
       <c r="C7" t="n">
-        <v>11.4559</v>
+        <v>11.5475</v>
       </c>
       <c r="D7" t="n">
-        <v>14.2587</v>
+        <v>14.314</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0794</v>
+        <v>12.1232</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0758</v>
+        <v>12.8769</v>
       </c>
       <c r="D8" t="n">
-        <v>15.8717</v>
+        <v>15.7533</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.3836</v>
+        <v>14.4155</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9467</v>
+        <v>14.9733</v>
       </c>
       <c r="D9" t="n">
-        <v>18.6479</v>
+        <v>18.5199</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9408</v>
+        <v>11.7319</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9896</v>
+        <v>12.9645</v>
       </c>
       <c r="D10" t="n">
-        <v>15.2852</v>
+        <v>15.6129</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.3722</v>
+        <v>12.1426</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0385</v>
+        <v>13.1073</v>
       </c>
       <c r="D11" t="n">
-        <v>15.7722</v>
+        <v>15.5982</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5852</v>
+        <v>12.5741</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5436</v>
+        <v>13.5708</v>
       </c>
       <c r="D12" t="n">
-        <v>16.5138</v>
+        <v>16.2107</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.664</v>
+        <v>12.6671</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1177</v>
+        <v>13.9817</v>
       </c>
       <c r="D13" t="n">
-        <v>16.9955</v>
+        <v>16.5467</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3758</v>
+        <v>12.835</v>
       </c>
       <c r="C14" t="n">
-        <v>14.3013</v>
+        <v>14.3</v>
       </c>
       <c r="D14" t="n">
-        <v>16.4481</v>
+        <v>16.5226</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.7935</v>
+        <v>12.6903</v>
       </c>
       <c r="C15" t="n">
-        <v>14.3857</v>
+        <v>14.5101</v>
       </c>
       <c r="D15" t="n">
-        <v>16.7315</v>
+        <v>16.551</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7251</v>
+        <v>12.7466</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6858</v>
+        <v>14.7431</v>
       </c>
       <c r="D16" t="n">
-        <v>16.6227</v>
+        <v>16.6038</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7467</v>
+        <v>12.7141</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0379</v>
+        <v>14.8937</v>
       </c>
       <c r="D17" t="n">
-        <v>16.688</v>
+        <v>16.9734</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.62272</v>
+        <v>3.6176</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78362</v>
+        <v>3.78329</v>
       </c>
       <c r="D2" t="n">
-        <v>4.05175</v>
+        <v>4.0505</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.97444</v>
+        <v>4.95123</v>
       </c>
       <c r="C3" t="n">
-        <v>5.13073</v>
+        <v>5.06448</v>
       </c>
       <c r="D3" t="n">
-        <v>6.65873</v>
+        <v>6.51024</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.75486</v>
+        <v>6.73147</v>
       </c>
       <c r="C4" t="n">
-        <v>6.85193</v>
+        <v>6.83957</v>
       </c>
       <c r="D4" t="n">
-        <v>9.1767</v>
+        <v>9.15436</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.32954</v>
+        <v>8.31293</v>
       </c>
       <c r="C5" t="n">
-        <v>8.59693</v>
+        <v>8.60131</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6333</v>
+        <v>11.6722</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.68586</v>
+        <v>9.76887</v>
       </c>
       <c r="C6" t="n">
-        <v>10.4197</v>
+        <v>10.2528</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1042</v>
+        <v>13.9673</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2685</v>
+        <v>11.1955</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9779</v>
+        <v>12.0182</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3734</v>
+        <v>16.2675</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6799</v>
+        <v>12.6768</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0238</v>
+        <v>13.7555</v>
       </c>
       <c r="D8" t="n">
-        <v>18.9331</v>
+        <v>18.4588</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.639</v>
+        <v>14.6982</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7782</v>
+        <v>15.7313</v>
       </c>
       <c r="D9" t="n">
-        <v>21.3297</v>
+        <v>21.6013</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.5264</v>
+        <v>13.026</v>
       </c>
       <c r="C10" t="n">
-        <v>13.6096</v>
+        <v>13.5408</v>
       </c>
       <c r="D10" t="n">
-        <v>17.3776</v>
+        <v>17.4075</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6833</v>
+        <v>12.6543</v>
       </c>
       <c r="C11" t="n">
-        <v>13.707</v>
+        <v>13.681</v>
       </c>
       <c r="D11" t="n">
-        <v>17.9699</v>
+        <v>18.2037</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2899</v>
+        <v>13.2572</v>
       </c>
       <c r="C12" t="n">
-        <v>14.384</v>
+        <v>14.2806</v>
       </c>
       <c r="D12" t="n">
-        <v>18.8578</v>
+        <v>18.6933</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5912</v>
+        <v>13.4852</v>
       </c>
       <c r="C13" t="n">
-        <v>14.8202</v>
+        <v>14.5839</v>
       </c>
       <c r="D13" t="n">
-        <v>19.7127</v>
+        <v>19.2792</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.2472</v>
+        <v>13.5714</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8385</v>
+        <v>14.9338</v>
       </c>
       <c r="D14" t="n">
-        <v>18.904</v>
+        <v>18.9212</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3976</v>
+        <v>13.563</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0999</v>
+        <v>15.1466</v>
       </c>
       <c r="D15" t="n">
-        <v>18.9963</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2669</v>
+        <v>13.2927</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4056</v>
+        <v>15.5269</v>
       </c>
       <c r="D16" t="n">
-        <v>19.301</v>
+        <v>19.3873</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.354</v>
+        <v>13.3579</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7376</v>
+        <v>15.7074</v>
       </c>
       <c r="D17" t="n">
-        <v>19.5239</v>
+        <v>20.1448</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.15027</v>
+        <v>2.17358</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4395</v>
+        <v>3.44328</v>
       </c>
       <c r="D2" t="n">
-        <v>3.73919</v>
+        <v>3.73866</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.74365</v>
+        <v>3.74704</v>
       </c>
       <c r="C3" t="n">
-        <v>4.75931</v>
+        <v>4.74734</v>
       </c>
       <c r="D3" t="n">
-        <v>6.20751</v>
+        <v>6.19303</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.28496</v>
+        <v>5.32965</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45725</v>
+        <v>6.46509</v>
       </c>
       <c r="D4" t="n">
-        <v>8.37786</v>
+        <v>8.388920000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.74354</v>
+        <v>6.75379</v>
       </c>
       <c r="C5" t="n">
-        <v>8.154350000000001</v>
+        <v>8.14812</v>
       </c>
       <c r="D5" t="n">
-        <v>10.3378</v>
+        <v>10.2764</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.113910000000001</v>
+        <v>8.17309</v>
       </c>
       <c r="C6" t="n">
-        <v>9.85111</v>
+        <v>9.85427</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2285</v>
+        <v>12.2591</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.51463</v>
+        <v>9.573449999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5519</v>
+        <v>11.5604</v>
       </c>
       <c r="D7" t="n">
-        <v>14.0177</v>
+        <v>14.022</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8873</v>
+        <v>10.8896</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3427</v>
+        <v>13.3448</v>
       </c>
       <c r="D8" t="n">
-        <v>15.7249</v>
+        <v>15.7101</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5391</v>
+        <v>12.5257</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4936</v>
+        <v>15.5107</v>
       </c>
       <c r="D9" t="n">
-        <v>18.6222</v>
+        <v>18.6317</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9964</v>
+        <v>12.0959</v>
       </c>
       <c r="C10" t="n">
-        <v>14.441</v>
+        <v>14.5458</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7482</v>
+        <v>17.6401</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.8834</v>
+        <v>11.7945</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2894</v>
+        <v>14.2619</v>
       </c>
       <c r="D11" t="n">
-        <v>17.8195</v>
+        <v>17.4851</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0425</v>
+        <v>11.9708</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2975</v>
+        <v>14.3762</v>
       </c>
       <c r="D12" t="n">
-        <v>17.6879</v>
+        <v>17.8421</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1842</v>
+        <v>12.2476</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3565</v>
+        <v>14.3862</v>
       </c>
       <c r="D13" t="n">
-        <v>17.8874</v>
+        <v>18.128</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.7745</v>
+        <v>11.7652</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5181</v>
+        <v>14.5379</v>
       </c>
       <c r="D14" t="n">
-        <v>17.482</v>
+        <v>17.3429</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2501</v>
+        <v>12.1685</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6151</v>
+        <v>14.7006</v>
       </c>
       <c r="D15" t="n">
-        <v>18.038</v>
+        <v>17.8024</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.9943</v>
+        <v>12.0095</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8659</v>
+        <v>14.8902</v>
       </c>
       <c r="D16" t="n">
-        <v>18.0566</v>
+        <v>17.8304</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0532</v>
+        <v>12.0606</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0998</v>
+        <v>15.0981</v>
       </c>
       <c r="D17" t="n">
-        <v>17.818</v>
+        <v>17.9535</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20546</v>
+        <v>2.18883</v>
       </c>
       <c r="C2" t="n">
-        <v>3.46064</v>
+        <v>3.45335</v>
       </c>
       <c r="D2" t="n">
-        <v>3.728</v>
+        <v>3.71838</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.74208</v>
+        <v>3.75852</v>
       </c>
       <c r="C3" t="n">
-        <v>4.7412</v>
+        <v>4.74664</v>
       </c>
       <c r="D3" t="n">
-        <v>6.17005</v>
+        <v>6.16505</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.34976</v>
+        <v>5.41409</v>
       </c>
       <c r="C4" t="n">
-        <v>6.44434</v>
+        <v>6.45655</v>
       </c>
       <c r="D4" t="n">
-        <v>8.38815</v>
+        <v>8.390779999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.83425</v>
+        <v>6.78411</v>
       </c>
       <c r="C5" t="n">
-        <v>8.1309</v>
+        <v>8.141299999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.4119</v>
+        <v>10.4238</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.26961</v>
+        <v>8.315670000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.85012</v>
+        <v>9.850860000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3661</v>
+        <v>12.4071</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.691369999999999</v>
+        <v>9.72832</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5452</v>
+        <v>11.5351</v>
       </c>
       <c r="D7" t="n">
-        <v>14.2365</v>
+        <v>14.2389</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0095</v>
+        <v>11.0389</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3316</v>
+        <v>13.3374</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9862</v>
+        <v>16.0192</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.8249</v>
+        <v>12.8447</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4115</v>
+        <v>15.3929</v>
       </c>
       <c r="D9" t="n">
-        <v>18.9404</v>
+        <v>18.9438</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4451</v>
+        <v>12.2248</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4396</v>
+        <v>14.4302</v>
       </c>
       <c r="D10" t="n">
-        <v>17.8655</v>
+        <v>17.7026</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1128</v>
+        <v>12.0097</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2755</v>
+        <v>14.2486</v>
       </c>
       <c r="D11" t="n">
-        <v>17.9292</v>
+        <v>17.9285</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2791</v>
+        <v>12.2677</v>
       </c>
       <c r="C12" t="n">
-        <v>14.1516</v>
+        <v>14.3759</v>
       </c>
       <c r="D12" t="n">
-        <v>18.1442</v>
+        <v>17.8511</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3047</v>
+        <v>12.3877</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3516</v>
+        <v>14.3566</v>
       </c>
       <c r="D13" t="n">
-        <v>18.3325</v>
+        <v>18.3375</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9044</v>
+        <v>11.875</v>
       </c>
       <c r="C14" t="n">
-        <v>14.552</v>
+        <v>14.486</v>
       </c>
       <c r="D14" t="n">
-        <v>17.6355</v>
+        <v>17.6913</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4241</v>
+        <v>12.5033</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6118</v>
+        <v>14.7169</v>
       </c>
       <c r="D15" t="n">
-        <v>18.2085</v>
+        <v>18.223</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1293</v>
+        <v>12.0867</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8522</v>
+        <v>14.914</v>
       </c>
       <c r="D16" t="n">
-        <v>18.1131</v>
+        <v>18.0879</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2051</v>
+        <v>12.0909</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0075</v>
+        <v>15.0563</v>
       </c>
       <c r="D17" t="n">
-        <v>18.3813</v>
+        <v>18.1946</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.13655</v>
+        <v>3.13879</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72844</v>
+        <v>3.7262</v>
       </c>
       <c r="D2" t="n">
-        <v>4.00495</v>
+        <v>3.9966</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.76904</v>
+        <v>4.78804</v>
       </c>
       <c r="C3" t="n">
-        <v>4.98039</v>
+        <v>4.97649</v>
       </c>
       <c r="D3" t="n">
-        <v>6.5696</v>
+        <v>6.56538</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.4941</v>
+        <v>6.51748</v>
       </c>
       <c r="C4" t="n">
-        <v>6.73501</v>
+        <v>6.75186</v>
       </c>
       <c r="D4" t="n">
-        <v>9.23479</v>
+        <v>9.255229999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.145379999999999</v>
+        <v>8.17216</v>
       </c>
       <c r="C5" t="n">
-        <v>8.472239999999999</v>
+        <v>8.49128</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7347</v>
+        <v>11.739</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.762740000000001</v>
+        <v>9.815</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2623</v>
+        <v>10.2752</v>
       </c>
       <c r="D6" t="n">
-        <v>14.3494</v>
+        <v>14.2938</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3482</v>
+        <v>11.3752</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0244</v>
+        <v>12.037</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8236</v>
+        <v>16.8317</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9211</v>
+        <v>12.9999</v>
       </c>
       <c r="C8" t="n">
-        <v>13.8975</v>
+        <v>13.8281</v>
       </c>
       <c r="D8" t="n">
-        <v>19.3189</v>
+        <v>19.2193</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0317</v>
+        <v>15.1333</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8096</v>
+        <v>15.9007</v>
       </c>
       <c r="D9" t="n">
-        <v>22.3884</v>
+        <v>22.5294</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.5092</v>
+        <v>14.4879</v>
       </c>
       <c r="C10" t="n">
-        <v>15.055</v>
+        <v>15.0303</v>
       </c>
       <c r="D10" t="n">
-        <v>21.0289</v>
+        <v>20.8086</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.317</v>
+        <v>14.3165</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9168</v>
+        <v>14.7163</v>
       </c>
       <c r="D11" t="n">
-        <v>20.9862</v>
+        <v>20.9068</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4465</v>
+        <v>14.4727</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8902</v>
+        <v>14.9017</v>
       </c>
       <c r="D12" t="n">
-        <v>21.3996</v>
+        <v>21.1795</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6992</v>
+        <v>14.767</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0488</v>
+        <v>15.0607</v>
       </c>
       <c r="D13" t="n">
-        <v>21.5175</v>
+        <v>21.6503</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.1297</v>
+        <v>14.0332</v>
       </c>
       <c r="C14" t="n">
-        <v>15.2099</v>
+        <v>15.145</v>
       </c>
       <c r="D14" t="n">
-        <v>20.8658</v>
+        <v>20.769</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4977</v>
+        <v>14.6416</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3978</v>
+        <v>15.4178</v>
       </c>
       <c r="D15" t="n">
-        <v>21.582</v>
+        <v>21.6116</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3557</v>
+        <v>14.3806</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5728</v>
+        <v>15.5362</v>
       </c>
       <c r="D16" t="n">
-        <v>21.4746</v>
+        <v>21.5608</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1718</v>
+        <v>14.3751</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8035</v>
+        <v>15.8248</v>
       </c>
       <c r="D17" t="n">
-        <v>21.8988</v>
+        <v>21.8924</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.31389</v>
+        <v>3.30028</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69539</v>
+        <v>3.69351</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01432</v>
+        <v>4.00872</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.61245</v>
+        <v>4.64741</v>
       </c>
       <c r="C3" t="n">
-        <v>4.78721</v>
+        <v>4.83327</v>
       </c>
       <c r="D3" t="n">
-        <v>6.21957</v>
+        <v>6.517</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.29855</v>
+        <v>6.24954</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45481</v>
+        <v>6.46335</v>
       </c>
       <c r="D4" t="n">
-        <v>8.349780000000001</v>
+        <v>9.06719</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.6608</v>
+        <v>7.64384</v>
       </c>
       <c r="C5" t="n">
-        <v>8.12335</v>
+        <v>8.100619999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2722</v>
+        <v>11.6152</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.10135</v>
+        <v>9.106579999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.780250000000001</v>
+        <v>9.815950000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1497</v>
+        <v>13.8823</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4637</v>
+        <v>10.4563</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5048</v>
+        <v>11.5892</v>
       </c>
       <c r="D7" t="n">
-        <v>14.0651</v>
+        <v>16.5377</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7631</v>
+        <v>11.7942</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0314</v>
+        <v>13.2696</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4563</v>
+        <v>18.8935</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9689</v>
+        <v>14.0126</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0195</v>
+        <v>14.9333</v>
       </c>
       <c r="D9" t="n">
-        <v>18.1842</v>
+        <v>21.3382</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5899</v>
+        <v>12.0267</v>
       </c>
       <c r="C10" t="n">
-        <v>12.7199</v>
+        <v>12.9831</v>
       </c>
       <c r="D10" t="n">
-        <v>15.657</v>
+        <v>17.3462</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9534</v>
+        <v>11.9179</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9567</v>
+        <v>13.0273</v>
       </c>
       <c r="D11" t="n">
-        <v>15.5675</v>
+        <v>18.3911</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2687</v>
+        <v>12.3362</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6915</v>
+        <v>13.574</v>
       </c>
       <c r="D12" t="n">
-        <v>16.0278</v>
+        <v>19.3193</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5033</v>
+        <v>12.4492</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0638</v>
+        <v>14.1312</v>
       </c>
       <c r="D13" t="n">
-        <v>16.4645</v>
+        <v>20.5921</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4601</v>
+        <v>12.4068</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2511</v>
+        <v>14.2778</v>
       </c>
       <c r="D14" t="n">
-        <v>16.2646</v>
+        <v>19.7464</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3605</v>
+        <v>12.4028</v>
       </c>
       <c r="C15" t="n">
-        <v>14.536</v>
+        <v>14.463</v>
       </c>
       <c r="D15" t="n">
-        <v>16.139</v>
+        <v>19.5236</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3002</v>
+        <v>12.4542</v>
       </c>
       <c r="C16" t="n">
-        <v>14.773</v>
+        <v>14.8157</v>
       </c>
       <c r="D16" t="n">
-        <v>16.5192</v>
+        <v>20.1811</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.444</v>
+        <v>12.4635</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9501</v>
+        <v>15.0241</v>
       </c>
       <c r="D17" t="n">
-        <v>16.3384</v>
+        <v>20.5057</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.40496</v>
+        <v>3.41234</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69064</v>
+        <v>3.68965</v>
       </c>
       <c r="D2" t="n">
-        <v>3.99601</v>
+        <v>3.99873</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.71444</v>
+        <v>4.7348</v>
       </c>
       <c r="C3" t="n">
-        <v>4.76923</v>
+        <v>4.75357</v>
       </c>
       <c r="D3" t="n">
-        <v>6.21926</v>
+        <v>6.40899</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.45191</v>
+        <v>6.39769</v>
       </c>
       <c r="C4" t="n">
-        <v>6.47536</v>
+        <v>6.43368</v>
       </c>
       <c r="D4" t="n">
-        <v>8.387169999999999</v>
+        <v>8.964320000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.90376</v>
+        <v>7.76529</v>
       </c>
       <c r="C5" t="n">
-        <v>8.04654</v>
+        <v>8.11684</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2981</v>
+        <v>11.3907</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.29302</v>
+        <v>9.341889999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.78848</v>
+        <v>9.77008</v>
       </c>
       <c r="D6" t="n">
-        <v>12.3173</v>
+        <v>13.9239</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.73</v>
+        <v>10.7764</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5475</v>
+        <v>11.274</v>
       </c>
       <c r="D7" t="n">
-        <v>14.314</v>
+        <v>16.3617</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1232</v>
+        <v>12.1521</v>
       </c>
       <c r="C8" t="n">
-        <v>12.8769</v>
+        <v>13.1068</v>
       </c>
       <c r="D8" t="n">
-        <v>15.7533</v>
+        <v>18.5564</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4155</v>
+        <v>14.455</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9733</v>
+        <v>14.9404</v>
       </c>
       <c r="D9" t="n">
-        <v>18.5199</v>
+        <v>21.0241</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7319</v>
+        <v>12.0269</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9645</v>
+        <v>13.243</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6129</v>
+        <v>17.456</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1426</v>
+        <v>11.9835</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1073</v>
+        <v>13.0937</v>
       </c>
       <c r="D11" t="n">
-        <v>15.5982</v>
+        <v>18.0361</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5741</v>
+        <v>12.6219</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5708</v>
+        <v>13.6343</v>
       </c>
       <c r="D12" t="n">
-        <v>16.2107</v>
+        <v>19.3709</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.6671</v>
+        <v>12.7413</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9817</v>
+        <v>14.1596</v>
       </c>
       <c r="D13" t="n">
-        <v>16.5467</v>
+        <v>19.7547</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.835</v>
+        <v>12.6613</v>
       </c>
       <c r="C14" t="n">
-        <v>14.3</v>
+        <v>14.2961</v>
       </c>
       <c r="D14" t="n">
-        <v>16.5226</v>
+        <v>19.6535</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.6903</v>
+        <v>12.685</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5101</v>
+        <v>14.5047</v>
       </c>
       <c r="D15" t="n">
-        <v>16.551</v>
+        <v>19.7657</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7466</v>
+        <v>12.5466</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7431</v>
+        <v>14.8768</v>
       </c>
       <c r="D16" t="n">
-        <v>16.6038</v>
+        <v>20.0633</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7141</v>
+        <v>12.6433</v>
       </c>
       <c r="C17" t="n">
-        <v>14.8937</v>
+        <v>14.9328</v>
       </c>
       <c r="D17" t="n">
-        <v>16.9734</v>
+        <v>20.4649</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.6176</v>
+        <v>3.62061</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78329</v>
+        <v>3.7853</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0505</v>
+        <v>4.05172</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.95123</v>
+        <v>5.01824</v>
       </c>
       <c r="C3" t="n">
-        <v>5.06448</v>
+        <v>5.03252</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51024</v>
+        <v>6.62002</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.73147</v>
+        <v>6.71333</v>
       </c>
       <c r="C4" t="n">
-        <v>6.83957</v>
+        <v>6.81949</v>
       </c>
       <c r="D4" t="n">
-        <v>9.15436</v>
+        <v>9.268039999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.31293</v>
+        <v>8.291779999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.60131</v>
+        <v>8.437139999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6722</v>
+        <v>11.7183</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.76887</v>
+        <v>9.584300000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2528</v>
+        <v>10.2675</v>
       </c>
       <c r="D6" t="n">
-        <v>13.9673</v>
+        <v>14.589</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1955</v>
+        <v>11.2846</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0182</v>
+        <v>12.1314</v>
       </c>
       <c r="D7" t="n">
-        <v>16.2675</v>
+        <v>16.9583</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6768</v>
+        <v>12.9428</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7555</v>
+        <v>13.7981</v>
       </c>
       <c r="D8" t="n">
-        <v>18.4588</v>
+        <v>19.5672</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6982</v>
+        <v>15.0066</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7313</v>
+        <v>15.9421</v>
       </c>
       <c r="D9" t="n">
-        <v>21.6013</v>
+        <v>21.9943</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.026</v>
+        <v>12.7457</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5408</v>
+        <v>13.5402</v>
       </c>
       <c r="D10" t="n">
-        <v>17.4075</v>
+        <v>18.2004</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6543</v>
+        <v>12.7466</v>
       </c>
       <c r="C11" t="n">
-        <v>13.681</v>
+        <v>13.7349</v>
       </c>
       <c r="D11" t="n">
-        <v>18.2037</v>
+        <v>19.3881</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2572</v>
+        <v>13.3047</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2806</v>
+        <v>14.3898</v>
       </c>
       <c r="D12" t="n">
-        <v>18.6933</v>
+        <v>19.7334</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4852</v>
+        <v>13.6039</v>
       </c>
       <c r="C13" t="n">
-        <v>14.5839</v>
+        <v>14.7147</v>
       </c>
       <c r="D13" t="n">
-        <v>19.2792</v>
+        <v>20.7563</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5714</v>
+        <v>13.5051</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9338</v>
+        <v>14.8592</v>
       </c>
       <c r="D14" t="n">
-        <v>18.9212</v>
+        <v>20.446</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.563</v>
+        <v>13.3305</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1466</v>
+        <v>15.1448</v>
       </c>
       <c r="D15" t="n">
-        <v>19.25</v>
+        <v>20.8131</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2927</v>
+        <v>13.1967</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5269</v>
+        <v>15.4447</v>
       </c>
       <c r="D16" t="n">
-        <v>19.3873</v>
+        <v>20.9936</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.3579</v>
+        <v>13.3497</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7074</v>
+        <v>15.7235</v>
       </c>
       <c r="D17" t="n">
-        <v>20.1448</v>
+        <v>21.7812</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.17358</v>
+        <v>2.16575</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44328</v>
+        <v>3.44104</v>
       </c>
       <c r="D2" t="n">
-        <v>3.73866</v>
+        <v>3.72849</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.74704</v>
+        <v>3.73508</v>
       </c>
       <c r="C3" t="n">
-        <v>4.74734</v>
+        <v>4.74162</v>
       </c>
       <c r="D3" t="n">
-        <v>6.19303</v>
+        <v>6.60468</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.32965</v>
+        <v>5.34769</v>
       </c>
       <c r="C4" t="n">
-        <v>6.46509</v>
+        <v>6.48205</v>
       </c>
       <c r="D4" t="n">
-        <v>8.388920000000001</v>
+        <v>9.50638</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.75379</v>
+        <v>6.79937</v>
       </c>
       <c r="C5" t="n">
-        <v>8.14812</v>
+        <v>8.157310000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2764</v>
+        <v>12.2461</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.17309</v>
+        <v>8.204789999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.85427</v>
+        <v>9.85394</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2591</v>
+        <v>15.034</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.573449999999999</v>
+        <v>9.527419999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5604</v>
+        <v>11.5979</v>
       </c>
       <c r="D7" t="n">
-        <v>14.022</v>
+        <v>17.835</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8896</v>
+        <v>10.8665</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3448</v>
+        <v>13.3425</v>
       </c>
       <c r="D8" t="n">
-        <v>15.7101</v>
+        <v>20.4496</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5257</v>
+        <v>12.5958</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5107</v>
+        <v>15.522</v>
       </c>
       <c r="D9" t="n">
-        <v>18.6317</v>
+        <v>23.9319</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0959</v>
+        <v>12.0212</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5458</v>
+        <v>14.6721</v>
       </c>
       <c r="D10" t="n">
-        <v>17.6401</v>
+        <v>22.4733</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7945</v>
+        <v>11.893</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2619</v>
+        <v>14.3931</v>
       </c>
       <c r="D11" t="n">
-        <v>17.4851</v>
+        <v>22.1847</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9708</v>
+        <v>12.1252</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3762</v>
+        <v>14.2907</v>
       </c>
       <c r="D12" t="n">
-        <v>17.8421</v>
+        <v>22.5042</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2476</v>
+        <v>12.1929</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3862</v>
+        <v>14.4073</v>
       </c>
       <c r="D13" t="n">
-        <v>18.128</v>
+        <v>22.6739</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.7652</v>
+        <v>11.6721</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5379</v>
+        <v>14.485</v>
       </c>
       <c r="D14" t="n">
-        <v>17.3429</v>
+        <v>22.1304</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1685</v>
+        <v>12.2455</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7006</v>
+        <v>14.7081</v>
       </c>
       <c r="D15" t="n">
-        <v>17.8024</v>
+        <v>23.1875</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0095</v>
+        <v>11.9182</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8902</v>
+        <v>14.8997</v>
       </c>
       <c r="D16" t="n">
-        <v>17.8304</v>
+        <v>23.0065</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0606</v>
+        <v>12.0663</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0981</v>
+        <v>15.087</v>
       </c>
       <c r="D17" t="n">
-        <v>17.9535</v>
+        <v>23.5549</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.18883</v>
+        <v>2.19746</v>
       </c>
       <c r="C2" t="n">
-        <v>3.45335</v>
+        <v>3.45682</v>
       </c>
       <c r="D2" t="n">
-        <v>3.71838</v>
+        <v>3.71692</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.75852</v>
+        <v>3.80453</v>
       </c>
       <c r="C3" t="n">
-        <v>4.74664</v>
+        <v>4.83192</v>
       </c>
       <c r="D3" t="n">
-        <v>6.16505</v>
+        <v>6.53086</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.41409</v>
+        <v>5.40703</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45655</v>
+        <v>6.46669</v>
       </c>
       <c r="D4" t="n">
-        <v>8.390779999999999</v>
+        <v>9.351380000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.78411</v>
+        <v>6.85925</v>
       </c>
       <c r="C5" t="n">
-        <v>8.141299999999999</v>
+        <v>8.14865</v>
       </c>
       <c r="D5" t="n">
-        <v>10.4238</v>
+        <v>12.1006</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.315670000000001</v>
+        <v>8.35402</v>
       </c>
       <c r="C6" t="n">
-        <v>9.850860000000001</v>
+        <v>9.85205</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4071</v>
+        <v>14.8296</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.72832</v>
+        <v>9.6896</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5351</v>
+        <v>11.5444</v>
       </c>
       <c r="D7" t="n">
-        <v>14.2389</v>
+        <v>17.5337</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0389</v>
+        <v>11.0707</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3374</v>
+        <v>13.3429</v>
       </c>
       <c r="D8" t="n">
-        <v>16.0192</v>
+        <v>20.2232</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.8447</v>
+        <v>12.8409</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3929</v>
+        <v>15.4649</v>
       </c>
       <c r="D9" t="n">
-        <v>18.9438</v>
+        <v>23.6345</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2248</v>
+        <v>12.4056</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4302</v>
+        <v>14.4899</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7026</v>
+        <v>22.2017</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0097</v>
+        <v>12.1998</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2486</v>
+        <v>14.2177</v>
       </c>
       <c r="D11" t="n">
-        <v>17.9285</v>
+        <v>22.1102</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2677</v>
+        <v>12.2143</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3759</v>
+        <v>14.1841</v>
       </c>
       <c r="D12" t="n">
-        <v>17.8511</v>
+        <v>22.1129</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3877</v>
+        <v>12.4438</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3566</v>
+        <v>14.4868</v>
       </c>
       <c r="D13" t="n">
-        <v>18.3375</v>
+        <v>22.4713</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.875</v>
+        <v>12.0187</v>
       </c>
       <c r="C14" t="n">
-        <v>14.486</v>
+        <v>14.4961</v>
       </c>
       <c r="D14" t="n">
-        <v>17.6913</v>
+        <v>21.8484</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5033</v>
+        <v>12.5187</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7169</v>
+        <v>14.7334</v>
       </c>
       <c r="D15" t="n">
-        <v>18.223</v>
+        <v>22.7397</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0867</v>
+        <v>12.2472</v>
       </c>
       <c r="C16" t="n">
-        <v>14.914</v>
+        <v>14.8923</v>
       </c>
       <c r="D16" t="n">
-        <v>18.0879</v>
+        <v>22.705</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0909</v>
+        <v>12.1559</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0563</v>
+        <v>15.0384</v>
       </c>
       <c r="D17" t="n">
-        <v>18.1946</v>
+        <v>22.7763</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.13879</v>
+        <v>3.13667</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7262</v>
+        <v>3.72736</v>
       </c>
       <c r="D2" t="n">
-        <v>3.9966</v>
+        <v>3.99554</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.78804</v>
+        <v>4.80103</v>
       </c>
       <c r="C3" t="n">
-        <v>4.97649</v>
+        <v>4.98078</v>
       </c>
       <c r="D3" t="n">
-        <v>6.56538</v>
+        <v>6.661</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.51748</v>
+        <v>6.55644</v>
       </c>
       <c r="C4" t="n">
-        <v>6.75186</v>
+        <v>6.74748</v>
       </c>
       <c r="D4" t="n">
-        <v>9.255229999999999</v>
+        <v>9.47363</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.17216</v>
+        <v>8.175319999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.49128</v>
+        <v>8.50084</v>
       </c>
       <c r="D5" t="n">
-        <v>11.739</v>
+        <v>12.236</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.815</v>
+        <v>9.77666</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2752</v>
+        <v>10.2653</v>
       </c>
       <c r="D6" t="n">
-        <v>14.2938</v>
+        <v>15.0793</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3752</v>
+        <v>11.386</v>
       </c>
       <c r="C7" t="n">
-        <v>12.037</v>
+        <v>12.0839</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8317</v>
+        <v>17.9513</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9999</v>
+        <v>12.8356</v>
       </c>
       <c r="C8" t="n">
-        <v>13.8281</v>
+        <v>13.7071</v>
       </c>
       <c r="D8" t="n">
-        <v>19.2193</v>
+        <v>20.774</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1333</v>
+        <v>14.95</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9007</v>
+        <v>15.9424</v>
       </c>
       <c r="D9" t="n">
-        <v>22.5294</v>
+        <v>24.1268</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4879</v>
+        <v>14.3757</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0303</v>
+        <v>15.1934</v>
       </c>
       <c r="D10" t="n">
-        <v>20.8086</v>
+        <v>22.4417</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3165</v>
+        <v>14.4185</v>
       </c>
       <c r="C11" t="n">
-        <v>14.7163</v>
+        <v>14.9935</v>
       </c>
       <c r="D11" t="n">
-        <v>20.9068</v>
+        <v>22.4407</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4727</v>
+        <v>14.4546</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9017</v>
+        <v>15.0025</v>
       </c>
       <c r="D12" t="n">
-        <v>21.1795</v>
+        <v>22.8606</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.767</v>
+        <v>14.4927</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0607</v>
+        <v>15.0467</v>
       </c>
       <c r="D13" t="n">
-        <v>21.6503</v>
+        <v>23.2926</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0332</v>
+        <v>14.0002</v>
       </c>
       <c r="C14" t="n">
-        <v>15.145</v>
+        <v>15.2869</v>
       </c>
       <c r="D14" t="n">
-        <v>20.769</v>
+        <v>22.3258</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6416</v>
+        <v>14.4672</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4178</v>
+        <v>15.4074</v>
       </c>
       <c r="D15" t="n">
-        <v>21.6116</v>
+        <v>23.167</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3806</v>
+        <v>14.6489</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5362</v>
+        <v>15.7083</v>
       </c>
       <c r="D16" t="n">
-        <v>21.5608</v>
+        <v>23.3077</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3751</v>
+        <v>14.1875</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8248</v>
+        <v>15.7985</v>
       </c>
       <c r="D17" t="n">
-        <v>21.8924</v>
+        <v>23.5201</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.30028</v>
+        <v>3.31609</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69351</v>
+        <v>3.69147</v>
       </c>
       <c r="D2" t="n">
-        <v>4.00872</v>
+        <v>4.01264</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.64741</v>
+        <v>4.69984</v>
       </c>
       <c r="C3" t="n">
-        <v>4.83327</v>
+        <v>4.84549</v>
       </c>
       <c r="D3" t="n">
-        <v>6.517</v>
+        <v>6.48336</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.24954</v>
+        <v>6.22217</v>
       </c>
       <c r="C4" t="n">
-        <v>6.46335</v>
+        <v>6.49586</v>
       </c>
       <c r="D4" t="n">
-        <v>9.06719</v>
+        <v>9.06751</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.64384</v>
+        <v>7.65631</v>
       </c>
       <c r="C5" t="n">
-        <v>8.100619999999999</v>
+        <v>8.002649999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6152</v>
+        <v>11.3735</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.106579999999999</v>
+        <v>9.05092</v>
       </c>
       <c r="C6" t="n">
-        <v>9.815950000000001</v>
+        <v>9.809670000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>13.8823</v>
+        <v>13.8579</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4563</v>
+        <v>10.4646</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5892</v>
+        <v>11.5548</v>
       </c>
       <c r="D7" t="n">
-        <v>16.5377</v>
+        <v>16.4305</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7942</v>
+        <v>11.8045</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2696</v>
+        <v>13.0382</v>
       </c>
       <c r="D8" t="n">
-        <v>18.8935</v>
+        <v>18.3695</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0126</v>
+        <v>14.0092</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9333</v>
+        <v>15.0252</v>
       </c>
       <c r="D9" t="n">
-        <v>21.3382</v>
+        <v>21.0388</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0267</v>
+        <v>11.4126</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9831</v>
+        <v>12.8284</v>
       </c>
       <c r="D10" t="n">
-        <v>17.3462</v>
+        <v>17.7464</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9179</v>
+        <v>11.951</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0273</v>
+        <v>13.2374</v>
       </c>
       <c r="D11" t="n">
-        <v>18.3911</v>
+        <v>18.4569</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3362</v>
+        <v>12.3171</v>
       </c>
       <c r="C12" t="n">
-        <v>13.574</v>
+        <v>13.4977</v>
       </c>
       <c r="D12" t="n">
-        <v>19.3193</v>
+        <v>19.2019</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4492</v>
+        <v>12.364</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1312</v>
+        <v>14.0835</v>
       </c>
       <c r="D13" t="n">
-        <v>20.5921</v>
+        <v>20.2039</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4068</v>
+        <v>12.2587</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2778</v>
+        <v>14.1646</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7464</v>
+        <v>19.4277</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4028</v>
+        <v>12.229</v>
       </c>
       <c r="C15" t="n">
-        <v>14.463</v>
+        <v>14.5487</v>
       </c>
       <c r="D15" t="n">
-        <v>19.5236</v>
+        <v>19.8453</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4542</v>
+        <v>12.2445</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8157</v>
+        <v>14.6468</v>
       </c>
       <c r="D16" t="n">
-        <v>20.1811</v>
+        <v>20.6553</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.4635</v>
+        <v>12.4507</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0241</v>
+        <v>15.0094</v>
       </c>
       <c r="D17" t="n">
-        <v>20.5057</v>
+        <v>20.2667</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.41234</v>
+        <v>3.39218</v>
       </c>
       <c r="C2" t="n">
-        <v>3.68965</v>
+        <v>3.69005</v>
       </c>
       <c r="D2" t="n">
-        <v>3.99873</v>
+        <v>3.99691</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.7348</v>
+        <v>4.75629</v>
       </c>
       <c r="C3" t="n">
-        <v>4.75357</v>
+        <v>4.75963</v>
       </c>
       <c r="D3" t="n">
-        <v>6.40899</v>
+        <v>6.43054</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.39769</v>
+        <v>6.44238</v>
       </c>
       <c r="C4" t="n">
-        <v>6.43368</v>
+        <v>6.48969</v>
       </c>
       <c r="D4" t="n">
-        <v>8.964320000000001</v>
+        <v>8.99751</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.76529</v>
+        <v>7.86587</v>
       </c>
       <c r="C5" t="n">
-        <v>8.11684</v>
+        <v>7.96094</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3907</v>
+        <v>11.3474</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.341889999999999</v>
+        <v>9.22664</v>
       </c>
       <c r="C6" t="n">
-        <v>9.77008</v>
+        <v>9.748250000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>13.9239</v>
+        <v>13.679</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7764</v>
+        <v>10.6839</v>
       </c>
       <c r="C7" t="n">
-        <v>11.274</v>
+        <v>11.5212</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3617</v>
+        <v>15.8393</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1521</v>
+        <v>12.1145</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1068</v>
+        <v>13.1206</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5564</v>
+        <v>18.208</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.455</v>
+        <v>14.4609</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9404</v>
+        <v>14.9248</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0241</v>
+        <v>20.7443</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0269</v>
+        <v>11.8321</v>
       </c>
       <c r="C10" t="n">
-        <v>13.243</v>
+        <v>13.1511</v>
       </c>
       <c r="D10" t="n">
-        <v>17.456</v>
+        <v>17.5777</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9835</v>
+        <v>12.0874</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0937</v>
+        <v>13.1647</v>
       </c>
       <c r="D11" t="n">
-        <v>18.0361</v>
+        <v>18.3453</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6219</v>
+        <v>12.6082</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6343</v>
+        <v>13.5899</v>
       </c>
       <c r="D12" t="n">
-        <v>19.3709</v>
+        <v>19.4275</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7413</v>
+        <v>12.7024</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1596</v>
+        <v>14.2967</v>
       </c>
       <c r="D13" t="n">
-        <v>19.7547</v>
+        <v>20.2342</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.6613</v>
+        <v>12.9037</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2961</v>
+        <v>14.2651</v>
       </c>
       <c r="D14" t="n">
-        <v>19.6535</v>
+        <v>19.1613</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.685</v>
+        <v>12.9013</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5047</v>
+        <v>14.5015</v>
       </c>
       <c r="D15" t="n">
-        <v>19.7657</v>
+        <v>19.734</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5466</v>
+        <v>12.4385</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8768</v>
+        <v>14.8694</v>
       </c>
       <c r="D16" t="n">
-        <v>20.0633</v>
+        <v>20.138</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.6433</v>
+        <v>12.5221</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9328</v>
+        <v>14.9875</v>
       </c>
       <c r="D17" t="n">
-        <v>20.4649</v>
+        <v>20.4677</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.62061</v>
+        <v>3.62569</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7853</v>
+        <v>3.78415</v>
       </c>
       <c r="D2" t="n">
-        <v>4.05172</v>
+        <v>4.05008</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.01824</v>
+        <v>4.93916</v>
       </c>
       <c r="C3" t="n">
-        <v>5.03252</v>
+        <v>5.03172</v>
       </c>
       <c r="D3" t="n">
-        <v>6.62002</v>
+        <v>6.55795</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.71333</v>
+        <v>6.70967</v>
       </c>
       <c r="C4" t="n">
-        <v>6.81949</v>
+        <v>6.82742</v>
       </c>
       <c r="D4" t="n">
-        <v>9.268039999999999</v>
+        <v>9.20458</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.291779999999999</v>
+        <v>8.312099999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.437139999999999</v>
+        <v>8.614599999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7183</v>
+        <v>11.8639</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.584300000000001</v>
+        <v>9.9023</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2675</v>
+        <v>10.2266</v>
       </c>
       <c r="D6" t="n">
-        <v>14.589</v>
+        <v>14.0549</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2846</v>
+        <v>11.296</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1314</v>
+        <v>12.0706</v>
       </c>
       <c r="D7" t="n">
-        <v>16.9583</v>
+        <v>16.6203</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9428</v>
+        <v>12.6681</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7981</v>
+        <v>13.986</v>
       </c>
       <c r="D8" t="n">
-        <v>19.5672</v>
+        <v>19.3467</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0066</v>
+        <v>14.6586</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9421</v>
+        <v>15.7393</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9943</v>
+        <v>21.7145</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.7457</v>
+        <v>13.1251</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5402</v>
+        <v>13.3799</v>
       </c>
       <c r="D10" t="n">
-        <v>18.2004</v>
+        <v>18.1011</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.7466</v>
+        <v>12.9068</v>
       </c>
       <c r="C11" t="n">
-        <v>13.7349</v>
+        <v>13.8223</v>
       </c>
       <c r="D11" t="n">
-        <v>19.3881</v>
+        <v>18.8633</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.3047</v>
+        <v>13.3027</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3898</v>
+        <v>14.3152</v>
       </c>
       <c r="D12" t="n">
-        <v>19.7334</v>
+        <v>19.7697</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6039</v>
+        <v>13.4149</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7147</v>
+        <v>14.8619</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7563</v>
+        <v>20.4736</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5051</v>
+        <v>13.463</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8592</v>
+        <v>14.9787</v>
       </c>
       <c r="D14" t="n">
-        <v>20.446</v>
+        <v>20.2398</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3305</v>
+        <v>13.6169</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1448</v>
+        <v>15.2879</v>
       </c>
       <c r="D15" t="n">
-        <v>20.8131</v>
+        <v>20.2547</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1967</v>
+        <v>13.0862</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4447</v>
+        <v>15.5706</v>
       </c>
       <c r="D16" t="n">
-        <v>20.9936</v>
+        <v>21.2143</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.3497</v>
+        <v>13.4458</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7235</v>
+        <v>15.7397</v>
       </c>
       <c r="D17" t="n">
-        <v>21.7812</v>
+        <v>21.1099</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.16575</v>
+        <v>2.17833</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44104</v>
+        <v>3.4471</v>
       </c>
       <c r="D2" t="n">
-        <v>3.72849</v>
+        <v>3.74232</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.73508</v>
+        <v>3.71948</v>
       </c>
       <c r="C3" t="n">
-        <v>4.74162</v>
+        <v>4.74101</v>
       </c>
       <c r="D3" t="n">
-        <v>6.60468</v>
+        <v>6.59568</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.34769</v>
+        <v>5.30568</v>
       </c>
       <c r="C4" t="n">
-        <v>6.48205</v>
+        <v>6.45388</v>
       </c>
       <c r="D4" t="n">
-        <v>9.50638</v>
+        <v>9.49667</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.79937</v>
+        <v>6.77294</v>
       </c>
       <c r="C5" t="n">
-        <v>8.157310000000001</v>
+        <v>8.14958</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2461</v>
+        <v>12.2836</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.204789999999999</v>
+        <v>8.233700000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.85394</v>
+        <v>9.8698</v>
       </c>
       <c r="D6" t="n">
-        <v>15.034</v>
+        <v>14.9978</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.527419999999999</v>
+        <v>9.572649999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5979</v>
+        <v>11.5619</v>
       </c>
       <c r="D7" t="n">
-        <v>17.835</v>
+        <v>17.6988</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8665</v>
+        <v>10.879</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3425</v>
+        <v>13.3929</v>
       </c>
       <c r="D8" t="n">
-        <v>20.4496</v>
+        <v>20.5726</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5958</v>
+        <v>12.5492</v>
       </c>
       <c r="C9" t="n">
-        <v>15.522</v>
+        <v>15.4927</v>
       </c>
       <c r="D9" t="n">
-        <v>23.9319</v>
+        <v>23.9275</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0212</v>
+        <v>12.0164</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6721</v>
+        <v>14.7063</v>
       </c>
       <c r="D10" t="n">
-        <v>22.4733</v>
+        <v>22.2422</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.893</v>
+        <v>11.9624</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3931</v>
+        <v>14.3726</v>
       </c>
       <c r="D11" t="n">
-        <v>22.1847</v>
+        <v>22.3875</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1252</v>
+        <v>12.0931</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2907</v>
+        <v>14.242</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5042</v>
+        <v>22.3504</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1929</v>
+        <v>12.164</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4073</v>
+        <v>14.4559</v>
       </c>
       <c r="D13" t="n">
-        <v>22.6739</v>
+        <v>22.9309</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6721</v>
+        <v>11.6909</v>
       </c>
       <c r="C14" t="n">
-        <v>14.485</v>
+        <v>14.4574</v>
       </c>
       <c r="D14" t="n">
-        <v>22.1304</v>
+        <v>22.1572</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2455</v>
+        <v>12.2763</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7081</v>
+        <v>14.7115</v>
       </c>
       <c r="D15" t="n">
-        <v>23.1875</v>
+        <v>23.073</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.9182</v>
+        <v>12.0407</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8997</v>
+        <v>14.8881</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0065</v>
+        <v>23.0894</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0663</v>
+        <v>11.9989</v>
       </c>
       <c r="C17" t="n">
-        <v>15.087</v>
+        <v>15.0521</v>
       </c>
       <c r="D17" t="n">
-        <v>23.5549</v>
+        <v>23.3803</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.19746</v>
+        <v>2.19971</v>
       </c>
       <c r="C2" t="n">
-        <v>3.45682</v>
+        <v>3.45649</v>
       </c>
       <c r="D2" t="n">
-        <v>3.71692</v>
+        <v>3.71357</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.80453</v>
+        <v>3.75446</v>
       </c>
       <c r="C3" t="n">
-        <v>4.83192</v>
+        <v>4.74347</v>
       </c>
       <c r="D3" t="n">
-        <v>6.53086</v>
+        <v>6.51193</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.40703</v>
+        <v>5.36391</v>
       </c>
       <c r="C4" t="n">
-        <v>6.46669</v>
+        <v>6.45224</v>
       </c>
       <c r="D4" t="n">
-        <v>9.351380000000001</v>
+        <v>9.346550000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.85925</v>
+        <v>6.86535</v>
       </c>
       <c r="C5" t="n">
-        <v>8.14865</v>
+        <v>8.1427</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1006</v>
+        <v>12.054</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.35402</v>
+        <v>8.314550000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.85205</v>
+        <v>9.835660000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8296</v>
+        <v>14.7718</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.6896</v>
+        <v>9.71753</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5444</v>
+        <v>11.5586</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5337</v>
+        <v>17.5015</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0707</v>
+        <v>11.0452</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3429</v>
+        <v>13.348</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2232</v>
+        <v>20.2115</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.8409</v>
+        <v>12.8467</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4649</v>
+        <v>15.4111</v>
       </c>
       <c r="D9" t="n">
-        <v>23.6345</v>
+        <v>23.4855</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4056</v>
+        <v>12.265</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4899</v>
+        <v>14.6024</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2017</v>
+        <v>21.9661</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1998</v>
+        <v>12.0639</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2177</v>
+        <v>14.198</v>
       </c>
       <c r="D11" t="n">
-        <v>22.1102</v>
+        <v>21.5765</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2143</v>
+        <v>12.1975</v>
       </c>
       <c r="C12" t="n">
-        <v>14.1841</v>
+        <v>14.3127</v>
       </c>
       <c r="D12" t="n">
-        <v>22.1129</v>
+        <v>22.152</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4438</v>
+        <v>12.3732</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4868</v>
+        <v>14.5311</v>
       </c>
       <c r="D13" t="n">
-        <v>22.4713</v>
+        <v>22.384</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.0187</v>
+        <v>11.9098</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4961</v>
+        <v>14.5915</v>
       </c>
       <c r="D14" t="n">
-        <v>21.8484</v>
+        <v>21.8745</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5187</v>
+        <v>12.5059</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7334</v>
+        <v>14.6613</v>
       </c>
       <c r="D15" t="n">
-        <v>22.7397</v>
+        <v>22.9155</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2472</v>
+        <v>12.2137</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8923</v>
+        <v>14.8612</v>
       </c>
       <c r="D16" t="n">
-        <v>22.705</v>
+        <v>22.6602</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1559</v>
+        <v>12.1179</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0384</v>
+        <v>15.0498</v>
       </c>
       <c r="D17" t="n">
-        <v>22.7763</v>
+        <v>22.5521</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.13667</v>
+        <v>3.1455</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72736</v>
+        <v>3.72687</v>
       </c>
       <c r="D2" t="n">
-        <v>3.99554</v>
+        <v>4.00013</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.80103</v>
+        <v>4.76741</v>
       </c>
       <c r="C3" t="n">
-        <v>4.98078</v>
+        <v>4.97883</v>
       </c>
       <c r="D3" t="n">
-        <v>6.661</v>
+        <v>6.65064</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.55644</v>
+        <v>6.50529</v>
       </c>
       <c r="C4" t="n">
-        <v>6.74748</v>
+        <v>6.73719</v>
       </c>
       <c r="D4" t="n">
-        <v>9.47363</v>
+        <v>9.43744</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.175319999999999</v>
+        <v>8.185169999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.50084</v>
+        <v>8.496040000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.236</v>
+        <v>12.2326</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.77666</v>
+        <v>9.774609999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2653</v>
+        <v>10.2455</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0793</v>
+        <v>15.1082</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.386</v>
+        <v>11.4017</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0839</v>
+        <v>12.0321</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9513</v>
+        <v>17.9677</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.8356</v>
+        <v>12.9683</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7071</v>
+        <v>13.9155</v>
       </c>
       <c r="D8" t="n">
-        <v>20.774</v>
+        <v>20.7199</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.95</v>
+        <v>15.1513</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9424</v>
+        <v>15.6868</v>
       </c>
       <c r="D9" t="n">
-        <v>24.1268</v>
+        <v>23.9791</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3757</v>
+        <v>14.4569</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1934</v>
+        <v>15.1921</v>
       </c>
       <c r="D10" t="n">
-        <v>22.4417</v>
+        <v>22.4163</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4185</v>
+        <v>14.3096</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9935</v>
+        <v>14.7843</v>
       </c>
       <c r="D11" t="n">
-        <v>22.4407</v>
+        <v>22.2765</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4546</v>
+        <v>14.2921</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0025</v>
+        <v>14.9482</v>
       </c>
       <c r="D12" t="n">
-        <v>22.8606</v>
+        <v>22.4024</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4927</v>
+        <v>14.5792</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0467</v>
+        <v>14.9661</v>
       </c>
       <c r="D13" t="n">
-        <v>23.2926</v>
+        <v>23.1229</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0002</v>
+        <v>13.9931</v>
       </c>
       <c r="C14" t="n">
-        <v>15.2869</v>
+        <v>15.1843</v>
       </c>
       <c r="D14" t="n">
-        <v>22.3258</v>
+        <v>22.4089</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4672</v>
+        <v>14.6235</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4074</v>
+        <v>15.3558</v>
       </c>
       <c r="D15" t="n">
-        <v>23.167</v>
+        <v>23.2127</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6489</v>
+        <v>14.5456</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7083</v>
+        <v>15.6532</v>
       </c>
       <c r="D16" t="n">
-        <v>23.3077</v>
+        <v>23.1034</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1875</v>
+        <v>14.45</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7985</v>
+        <v>15.7612</v>
       </c>
       <c r="D17" t="n">
-        <v>23.5201</v>
+        <v>23.5895</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.31609</v>
+        <v>3.30782</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69147</v>
+        <v>3.69325</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01264</v>
+        <v>3.96417</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.69984</v>
+        <v>4.69589</v>
       </c>
       <c r="C3" t="n">
-        <v>4.84549</v>
+        <v>4.88285</v>
       </c>
       <c r="D3" t="n">
-        <v>6.48336</v>
+        <v>6.45423</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.22217</v>
+        <v>6.25566</v>
       </c>
       <c r="C4" t="n">
-        <v>6.49586</v>
+        <v>6.48055</v>
       </c>
       <c r="D4" t="n">
-        <v>9.06751</v>
+        <v>8.931660000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.65631</v>
+        <v>7.66085</v>
       </c>
       <c r="C5" t="n">
-        <v>8.002649999999999</v>
+        <v>8.149979999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3735</v>
+        <v>11.5115</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.05092</v>
+        <v>9.097530000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.809670000000001</v>
+        <v>9.78797</v>
       </c>
       <c r="D6" t="n">
-        <v>13.8579</v>
+        <v>13.9033</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4646</v>
+        <v>10.4989</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5548</v>
+        <v>11.4716</v>
       </c>
       <c r="D7" t="n">
-        <v>16.4305</v>
+        <v>16.3909</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8045</v>
+        <v>11.8515</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0382</v>
+        <v>13.2246</v>
       </c>
       <c r="D8" t="n">
-        <v>18.3695</v>
+        <v>18.4404</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0092</v>
+        <v>14.074</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0252</v>
+        <v>15.0351</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0388</v>
+        <v>21.1322</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.4126</v>
+        <v>11.731</v>
       </c>
       <c r="C10" t="n">
-        <v>12.8284</v>
+        <v>12.8915</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7464</v>
+        <v>17.5196</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.951</v>
+        <v>11.9092</v>
       </c>
       <c r="C11" t="n">
-        <v>13.2374</v>
+        <v>13.0506</v>
       </c>
       <c r="D11" t="n">
-        <v>18.4569</v>
+        <v>18.1301</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3171</v>
+        <v>12.3351</v>
       </c>
       <c r="C12" t="n">
-        <v>13.4977</v>
+        <v>13.6747</v>
       </c>
       <c r="D12" t="n">
-        <v>19.2019</v>
+        <v>19.2602</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.364</v>
+        <v>12.5848</v>
       </c>
       <c r="C13" t="n">
-        <v>14.0835</v>
+        <v>14.1069</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2039</v>
+        <v>20.1113</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2587</v>
+        <v>12.5221</v>
       </c>
       <c r="C14" t="n">
-        <v>14.1646</v>
+        <v>14.2263</v>
       </c>
       <c r="D14" t="n">
-        <v>19.4277</v>
+        <v>19.8528</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.229</v>
+        <v>12.5822</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5487</v>
+        <v>14.4803</v>
       </c>
       <c r="D15" t="n">
-        <v>19.8453</v>
+        <v>20.2452</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2445</v>
+        <v>12.2124</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6468</v>
+        <v>14.7219</v>
       </c>
       <c r="D16" t="n">
-        <v>20.6553</v>
+        <v>20.2622</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.4507</v>
+        <v>12.3129</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0094</v>
+        <v>14.9798</v>
       </c>
       <c r="D17" t="n">
-        <v>20.2667</v>
+        <v>20.3007</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.39218</v>
+        <v>3.38104</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69005</v>
+        <v>3.68743</v>
       </c>
       <c r="D2" t="n">
-        <v>3.99691</v>
+        <v>3.94861</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.75629</v>
+        <v>4.61911</v>
       </c>
       <c r="C3" t="n">
-        <v>4.75963</v>
+        <v>4.79708</v>
       </c>
       <c r="D3" t="n">
-        <v>6.43054</v>
+        <v>6.33826</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.44238</v>
+        <v>6.43304</v>
       </c>
       <c r="C4" t="n">
-        <v>6.48969</v>
+        <v>6.40972</v>
       </c>
       <c r="D4" t="n">
-        <v>8.99751</v>
+        <v>8.90912</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.86587</v>
+        <v>7.92119</v>
       </c>
       <c r="C5" t="n">
-        <v>7.96094</v>
+        <v>8.130750000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3474</v>
+        <v>11.3282</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.22664</v>
+        <v>9.37383</v>
       </c>
       <c r="C6" t="n">
-        <v>9.748250000000001</v>
+        <v>9.77952</v>
       </c>
       <c r="D6" t="n">
-        <v>13.679</v>
+        <v>13.5788</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.6839</v>
+        <v>10.7788</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5212</v>
+        <v>11.4855</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8393</v>
+        <v>16.2647</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1145</v>
+        <v>12.1179</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1206</v>
+        <v>13.1431</v>
       </c>
       <c r="D8" t="n">
-        <v>18.208</v>
+        <v>18.6659</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4609</v>
+        <v>14.4673</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9248</v>
+        <v>14.863</v>
       </c>
       <c r="D9" t="n">
-        <v>20.7443</v>
+        <v>20.9307</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.8321</v>
+        <v>12.0555</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1511</v>
+        <v>13.029</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5777</v>
+        <v>17.5365</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0874</v>
+        <v>11.9543</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1647</v>
+        <v>13.0646</v>
       </c>
       <c r="D11" t="n">
-        <v>18.3453</v>
+        <v>18.5649</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6082</v>
+        <v>12.5353</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5899</v>
+        <v>13.6953</v>
       </c>
       <c r="D12" t="n">
-        <v>19.4275</v>
+        <v>19.0963</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7024</v>
+        <v>12.8417</v>
       </c>
       <c r="C13" t="n">
-        <v>14.2967</v>
+        <v>14.015</v>
       </c>
       <c r="D13" t="n">
-        <v>20.2342</v>
+        <v>19.9902</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9037</v>
+        <v>12.7897</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2651</v>
+        <v>14.2308</v>
       </c>
       <c r="D14" t="n">
-        <v>19.1613</v>
+        <v>19.8344</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9013</v>
+        <v>12.4886</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5015</v>
+        <v>14.5009</v>
       </c>
       <c r="D15" t="n">
-        <v>19.734</v>
+        <v>19.7232</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4385</v>
+        <v>12.4571</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8694</v>
+        <v>14.7734</v>
       </c>
       <c r="D16" t="n">
-        <v>20.138</v>
+        <v>19.8583</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5221</v>
+        <v>12.7267</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9875</v>
+        <v>15.0999</v>
       </c>
       <c r="D17" t="n">
-        <v>20.4677</v>
+        <v>20.183</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.62569</v>
+        <v>3.61362</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78415</v>
+        <v>3.78309</v>
       </c>
       <c r="D2" t="n">
-        <v>4.05008</v>
+        <v>4.01083</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.93916</v>
+        <v>4.93224</v>
       </c>
       <c r="C3" t="n">
-        <v>5.03172</v>
+        <v>5.01691</v>
       </c>
       <c r="D3" t="n">
-        <v>6.55795</v>
+        <v>6.58842</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.70967</v>
+        <v>6.74199</v>
       </c>
       <c r="C4" t="n">
-        <v>6.82742</v>
+        <v>6.83853</v>
       </c>
       <c r="D4" t="n">
-        <v>9.20458</v>
+        <v>9.257379999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.312099999999999</v>
+        <v>8.31588</v>
       </c>
       <c r="C5" t="n">
-        <v>8.614599999999999</v>
+        <v>8.609389999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8639</v>
+        <v>11.8447</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.9023</v>
+        <v>9.90522</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2266</v>
+        <v>10.4347</v>
       </c>
       <c r="D6" t="n">
-        <v>14.0549</v>
+        <v>14.4179</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.296</v>
+        <v>11.4487</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0706</v>
+        <v>12.2345</v>
       </c>
       <c r="D7" t="n">
-        <v>16.6203</v>
+        <v>16.9228</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6681</v>
+        <v>12.9615</v>
       </c>
       <c r="C8" t="n">
-        <v>13.986</v>
+        <v>13.9721</v>
       </c>
       <c r="D8" t="n">
-        <v>19.3467</v>
+        <v>19.3727</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6586</v>
+        <v>15.034</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7393</v>
+        <v>15.7723</v>
       </c>
       <c r="D9" t="n">
-        <v>21.7145</v>
+        <v>21.5002</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.1251</v>
+        <v>12.528</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3799</v>
+        <v>13.6012</v>
       </c>
       <c r="D10" t="n">
-        <v>18.1011</v>
+        <v>17.9259</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9068</v>
+        <v>12.8696</v>
       </c>
       <c r="C11" t="n">
-        <v>13.8223</v>
+        <v>13.6838</v>
       </c>
       <c r="D11" t="n">
-        <v>18.8633</v>
+        <v>18.8774</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.3027</v>
+        <v>13.2392</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3152</v>
+        <v>14.2404</v>
       </c>
       <c r="D12" t="n">
-        <v>19.7697</v>
+        <v>20.1758</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4149</v>
+        <v>13.5505</v>
       </c>
       <c r="C13" t="n">
-        <v>14.8619</v>
+        <v>14.6315</v>
       </c>
       <c r="D13" t="n">
-        <v>20.4736</v>
+        <v>20.7096</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.463</v>
+        <v>13.5155</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9787</v>
+        <v>14.9902</v>
       </c>
       <c r="D14" t="n">
-        <v>20.2398</v>
+        <v>20.0598</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.6169</v>
+        <v>13.3004</v>
       </c>
       <c r="C15" t="n">
-        <v>15.2879</v>
+        <v>15.0847</v>
       </c>
       <c r="D15" t="n">
-        <v>20.2547</v>
+        <v>20.5486</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.0862</v>
+        <v>13.22</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5706</v>
+        <v>15.5154</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2143</v>
+        <v>21.3613</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.4458</v>
+        <v>13.2976</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7397</v>
+        <v>15.8423</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1099</v>
+        <v>20.5269</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.17833</v>
+        <v>2.17028</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4471</v>
+        <v>3.44309</v>
       </c>
       <c r="D2" t="n">
-        <v>3.74232</v>
+        <v>3.70577</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.71948</v>
+        <v>3.75259</v>
       </c>
       <c r="C3" t="n">
-        <v>4.74101</v>
+        <v>4.81465</v>
       </c>
       <c r="D3" t="n">
-        <v>6.59568</v>
+        <v>6.55034</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.30568</v>
+        <v>5.31269</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45388</v>
+        <v>6.48311</v>
       </c>
       <c r="D4" t="n">
-        <v>9.49667</v>
+        <v>9.388170000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.77294</v>
+        <v>6.77232</v>
       </c>
       <c r="C5" t="n">
-        <v>8.14958</v>
+        <v>8.153779999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2836</v>
+        <v>12.1648</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.233700000000001</v>
+        <v>8.22278</v>
       </c>
       <c r="C6" t="n">
-        <v>9.8698</v>
+        <v>9.87424</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9978</v>
+        <v>14.8982</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.572649999999999</v>
+        <v>9.55485</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5619</v>
+        <v>11.5747</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6988</v>
+        <v>17.6617</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.879</v>
+        <v>10.8634</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3929</v>
+        <v>13.3686</v>
       </c>
       <c r="D8" t="n">
-        <v>20.5726</v>
+        <v>20.3439</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5492</v>
+        <v>12.4601</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4927</v>
+        <v>15.5506</v>
       </c>
       <c r="D9" t="n">
-        <v>23.9275</v>
+        <v>23.7943</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0164</v>
+        <v>11.9284</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7063</v>
+        <v>14.5041</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2422</v>
+        <v>22.0926</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9624</v>
+        <v>12.0229</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3726</v>
+        <v>14.2397</v>
       </c>
       <c r="D11" t="n">
-        <v>22.3875</v>
+        <v>21.8458</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0931</v>
+        <v>12.1069</v>
       </c>
       <c r="C12" t="n">
-        <v>14.242</v>
+        <v>14.2501</v>
       </c>
       <c r="D12" t="n">
-        <v>22.3504</v>
+        <v>22.6118</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.164</v>
+        <v>12.2517</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4559</v>
+        <v>14.3784</v>
       </c>
       <c r="D13" t="n">
-        <v>22.9309</v>
+        <v>22.8742</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6909</v>
+        <v>11.7181</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4574</v>
+        <v>14.5231</v>
       </c>
       <c r="D14" t="n">
-        <v>22.1572</v>
+        <v>22.0032</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2763</v>
+        <v>12.1832</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7115</v>
+        <v>14.7489</v>
       </c>
       <c r="D15" t="n">
-        <v>23.073</v>
+        <v>22.9126</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0407</v>
+        <v>12.0895</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8881</v>
+        <v>14.8792</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0894</v>
+        <v>22.8414</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.9989</v>
+        <v>12.017</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0521</v>
+        <v>15.083</v>
       </c>
       <c r="D17" t="n">
-        <v>23.3803</v>
+        <v>22.6647</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.19971</v>
+        <v>2.19595</v>
       </c>
       <c r="C2" t="n">
-        <v>3.45649</v>
+        <v>3.44967</v>
       </c>
       <c r="D2" t="n">
-        <v>3.71357</v>
+        <v>3.68812</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.75446</v>
+        <v>3.79097</v>
       </c>
       <c r="C3" t="n">
-        <v>4.74347</v>
+        <v>4.81119</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51193</v>
+        <v>6.48222</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.36391</v>
+        <v>5.35865</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45224</v>
+        <v>6.46876</v>
       </c>
       <c r="D4" t="n">
-        <v>9.346550000000001</v>
+        <v>9.261760000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.86535</v>
+        <v>6.84267</v>
       </c>
       <c r="C5" t="n">
-        <v>8.1427</v>
+        <v>8.158939999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>12.054</v>
+        <v>11.9973</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.314550000000001</v>
+        <v>8.335559999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.835660000000001</v>
+        <v>9.86679</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7718</v>
+        <v>14.7296</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.71753</v>
+        <v>9.68511</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5586</v>
+        <v>11.5487</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5015</v>
+        <v>17.3988</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0452</v>
+        <v>11.1096</v>
       </c>
       <c r="C8" t="n">
-        <v>13.348</v>
+        <v>13.3542</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2115</v>
+        <v>20.1483</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.8467</v>
+        <v>12.89</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4111</v>
+        <v>15.5201</v>
       </c>
       <c r="D9" t="n">
-        <v>23.4855</v>
+        <v>23.3863</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.265</v>
+        <v>12.3237</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6024</v>
+        <v>14.576</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9661</v>
+        <v>22.0412</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0639</v>
+        <v>12.1133</v>
       </c>
       <c r="C11" t="n">
-        <v>14.198</v>
+        <v>14.3302</v>
       </c>
       <c r="D11" t="n">
-        <v>21.5765</v>
+        <v>21.9021</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1975</v>
+        <v>12.2357</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3127</v>
+        <v>14.2488</v>
       </c>
       <c r="D12" t="n">
-        <v>22.152</v>
+        <v>21.8633</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3732</v>
+        <v>12.3939</v>
       </c>
       <c r="C13" t="n">
-        <v>14.5311</v>
+        <v>14.4361</v>
       </c>
       <c r="D13" t="n">
-        <v>22.384</v>
+        <v>22.5517</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9098</v>
+        <v>11.9337</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5915</v>
+        <v>14.5431</v>
       </c>
       <c r="D14" t="n">
-        <v>21.8745</v>
+        <v>21.7168</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5059</v>
+        <v>12.3795</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6613</v>
+        <v>14.7153</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9155</v>
+        <v>22.5189</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2137</v>
+        <v>12.3151</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8612</v>
+        <v>14.9099</v>
       </c>
       <c r="D16" t="n">
-        <v>22.6602</v>
+        <v>22.4551</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1179</v>
+        <v>12.1651</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0498</v>
+        <v>15.0114</v>
       </c>
       <c r="D17" t="n">
-        <v>22.5521</v>
+        <v>22.5654</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.1455</v>
+        <v>3.15077</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72687</v>
+        <v>3.72119</v>
       </c>
       <c r="D2" t="n">
-        <v>4.00013</v>
+        <v>3.96067</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.76741</v>
+        <v>4.76044</v>
       </c>
       <c r="C3" t="n">
-        <v>4.97883</v>
+        <v>5.04917</v>
       </c>
       <c r="D3" t="n">
-        <v>6.65064</v>
+        <v>6.64193</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.50529</v>
+        <v>6.5365</v>
       </c>
       <c r="C4" t="n">
-        <v>6.73719</v>
+        <v>6.75307</v>
       </c>
       <c r="D4" t="n">
-        <v>9.43744</v>
+        <v>9.42446</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.185169999999999</v>
+        <v>8.173500000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>8.496040000000001</v>
+        <v>8.50888</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2326</v>
+        <v>12.1922</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.774609999999999</v>
+        <v>9.842140000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2455</v>
+        <v>10.2853</v>
       </c>
       <c r="D6" t="n">
-        <v>15.1082</v>
+        <v>15.0604</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4017</v>
+        <v>11.3576</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0321</v>
+        <v>12.0638</v>
       </c>
       <c r="D7" t="n">
-        <v>17.9677</v>
+        <v>17.8764</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9683</v>
+        <v>12.9952</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9155</v>
+        <v>13.91</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7199</v>
+        <v>20.6556</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1513</v>
+        <v>15.2186</v>
       </c>
       <c r="C9" t="n">
-        <v>15.6868</v>
+        <v>16.0056</v>
       </c>
       <c r="D9" t="n">
-        <v>23.9791</v>
+        <v>23.8939</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4569</v>
+        <v>14.4173</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1921</v>
+        <v>15.0623</v>
       </c>
       <c r="D10" t="n">
-        <v>22.4163</v>
+        <v>22.6084</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3096</v>
+        <v>14.4089</v>
       </c>
       <c r="C11" t="n">
-        <v>14.7843</v>
+        <v>15.0382</v>
       </c>
       <c r="D11" t="n">
-        <v>22.2765</v>
+        <v>22.435</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2921</v>
+        <v>14.502</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9482</v>
+        <v>15.051</v>
       </c>
       <c r="D12" t="n">
-        <v>22.4024</v>
+        <v>22.5522</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5792</v>
+        <v>14.7117</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9661</v>
+        <v>15.2658</v>
       </c>
       <c r="D13" t="n">
-        <v>23.1229</v>
+        <v>23.133</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9931</v>
+        <v>14.0598</v>
       </c>
       <c r="C14" t="n">
-        <v>15.1843</v>
+        <v>15.2314</v>
       </c>
       <c r="D14" t="n">
-        <v>22.4089</v>
+        <v>22.3185</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6235</v>
+        <v>14.5438</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3558</v>
+        <v>15.4931</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2127</v>
+        <v>22.8832</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5456</v>
+        <v>14.5696</v>
       </c>
       <c r="C16" t="n">
-        <v>15.6532</v>
+        <v>15.6958</v>
       </c>
       <c r="D16" t="n">
-        <v>23.1034</v>
+        <v>23.0378</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.45</v>
+        <v>14.3775</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7612</v>
+        <v>15.9535</v>
       </c>
       <c r="D17" t="n">
-        <v>23.5895</v>
+        <v>23.3365</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.30782</v>
+        <v>3.32848</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69325</v>
+        <v>3.69384</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96417</v>
+        <v>3.96485</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.69589</v>
+        <v>4.74576</v>
       </c>
       <c r="C3" t="n">
-        <v>4.88285</v>
+        <v>4.89709</v>
       </c>
       <c r="D3" t="n">
-        <v>6.45423</v>
+        <v>6.4558</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.25566</v>
+        <v>6.27998</v>
       </c>
       <c r="C4" t="n">
-        <v>6.48055</v>
+        <v>6.47196</v>
       </c>
       <c r="D4" t="n">
-        <v>8.931660000000001</v>
+        <v>9.00372</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.66085</v>
+        <v>7.38598</v>
       </c>
       <c r="C5" t="n">
-        <v>8.149979999999999</v>
+        <v>7.89508</v>
       </c>
       <c r="D5" t="n">
-        <v>11.5115</v>
+        <v>11.4301</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.097530000000001</v>
+        <v>9.097009999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.78797</v>
+        <v>9.665179999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>13.9033</v>
+        <v>13.8696</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4989</v>
+        <v>10.4485</v>
       </c>
       <c r="C7" t="n">
-        <v>11.4716</v>
+        <v>11.1887</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3909</v>
+        <v>16.3559</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8515</v>
+        <v>11.8294</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2246</v>
+        <v>13.1421</v>
       </c>
       <c r="D8" t="n">
-        <v>18.4404</v>
+        <v>19.0237</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.074</v>
+        <v>13.9998</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0351</v>
+        <v>14.9726</v>
       </c>
       <c r="D9" t="n">
-        <v>21.1322</v>
+        <v>21.3834</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.731</v>
+        <v>11.5646</v>
       </c>
       <c r="C10" t="n">
-        <v>12.8915</v>
+        <v>12.8233</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5196</v>
+        <v>17.7989</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9092</v>
+        <v>11.6938</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0506</v>
+        <v>13.0989</v>
       </c>
       <c r="D11" t="n">
-        <v>18.1301</v>
+        <v>18.0586</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3351</v>
+        <v>12.331</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6747</v>
+        <v>13.5933</v>
       </c>
       <c r="D12" t="n">
-        <v>19.2602</v>
+        <v>19.2006</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5848</v>
+        <v>12.6483</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1069</v>
+        <v>13.9573</v>
       </c>
       <c r="D13" t="n">
-        <v>20.1113</v>
+        <v>20.7677</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5221</v>
+        <v>12.4918</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2263</v>
+        <v>14.2285</v>
       </c>
       <c r="D14" t="n">
-        <v>19.8528</v>
+        <v>19.8719</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5822</v>
+        <v>12.4836</v>
       </c>
       <c r="C15" t="n">
-        <v>14.4803</v>
+        <v>14.5781</v>
       </c>
       <c r="D15" t="n">
-        <v>20.2452</v>
+        <v>20.0615</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2124</v>
+        <v>12.2841</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7219</v>
+        <v>14.6961</v>
       </c>
       <c r="D16" t="n">
-        <v>20.2622</v>
+        <v>20.5903</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.3129</v>
+        <v>12.2463</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9798</v>
+        <v>14.9595</v>
       </c>
       <c r="D17" t="n">
-        <v>20.3007</v>
+        <v>20.4132</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.38104</v>
+        <v>3.38195</v>
       </c>
       <c r="C2" t="n">
-        <v>3.68743</v>
+        <v>3.68366</v>
       </c>
       <c r="D2" t="n">
-        <v>3.94861</v>
+        <v>3.94986</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.61911</v>
+        <v>4.82264</v>
       </c>
       <c r="C3" t="n">
-        <v>4.79708</v>
+        <v>4.86418</v>
       </c>
       <c r="D3" t="n">
-        <v>6.33826</v>
+        <v>6.36743</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.43304</v>
+        <v>6.44296</v>
       </c>
       <c r="C4" t="n">
-        <v>6.40972</v>
+        <v>6.4297</v>
       </c>
       <c r="D4" t="n">
-        <v>8.90912</v>
+        <v>8.89312</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.92119</v>
+        <v>7.87622</v>
       </c>
       <c r="C5" t="n">
-        <v>8.130750000000001</v>
+        <v>8.012600000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3282</v>
+        <v>11.3581</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.37383</v>
+        <v>9.17122</v>
       </c>
       <c r="C6" t="n">
-        <v>9.77952</v>
+        <v>9.77472</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5788</v>
+        <v>13.852</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7788</v>
+        <v>10.7344</v>
       </c>
       <c r="C7" t="n">
-        <v>11.4855</v>
+        <v>11.197</v>
       </c>
       <c r="D7" t="n">
-        <v>16.2647</v>
+        <v>16.257</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1179</v>
+        <v>12.1332</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1431</v>
+        <v>13.1354</v>
       </c>
       <c r="D8" t="n">
-        <v>18.6659</v>
+        <v>18.205</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4673</v>
+        <v>14.5475</v>
       </c>
       <c r="C9" t="n">
-        <v>14.863</v>
+        <v>14.9478</v>
       </c>
       <c r="D9" t="n">
-        <v>20.9307</v>
+        <v>20.9112</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0555</v>
+        <v>11.7251</v>
       </c>
       <c r="C10" t="n">
-        <v>13.029</v>
+        <v>12.9228</v>
       </c>
       <c r="D10" t="n">
-        <v>17.5365</v>
+        <v>17.4784</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9543</v>
+        <v>12.0504</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0646</v>
+        <v>13.1928</v>
       </c>
       <c r="D11" t="n">
-        <v>18.5649</v>
+        <v>18.574</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5353</v>
+        <v>12.5363</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6953</v>
+        <v>13.542</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0963</v>
+        <v>18.9924</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.8417</v>
+        <v>12.7848</v>
       </c>
       <c r="C13" t="n">
-        <v>14.015</v>
+        <v>14.1333</v>
       </c>
       <c r="D13" t="n">
-        <v>19.9902</v>
+        <v>20.3643</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.7897</v>
+        <v>12.9876</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2308</v>
+        <v>14.161</v>
       </c>
       <c r="D14" t="n">
-        <v>19.8344</v>
+        <v>19.7904</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4886</v>
+        <v>12.6408</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5009</v>
+        <v>14.608</v>
       </c>
       <c r="D15" t="n">
-        <v>19.7232</v>
+        <v>20.0853</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4571</v>
+        <v>12.8333</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7734</v>
+        <v>14.7966</v>
       </c>
       <c r="D16" t="n">
-        <v>19.8583</v>
+        <v>19.8106</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7267</v>
+        <v>12.7261</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0999</v>
+        <v>14.8663</v>
       </c>
       <c r="D17" t="n">
-        <v>20.183</v>
+        <v>20.0242</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.61362</v>
+        <v>3.62215</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78309</v>
+        <v>3.78313</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01083</v>
+        <v>4.01254</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.93224</v>
+        <v>4.93859</v>
       </c>
       <c r="C3" t="n">
-        <v>5.01691</v>
+        <v>4.93518</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58842</v>
+        <v>6.53296</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.74199</v>
+        <v>6.70869</v>
       </c>
       <c r="C4" t="n">
-        <v>6.83853</v>
+        <v>6.83363</v>
       </c>
       <c r="D4" t="n">
-        <v>9.257379999999999</v>
+        <v>9.1137</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.31588</v>
+        <v>8.29935</v>
       </c>
       <c r="C5" t="n">
-        <v>8.609389999999999</v>
+        <v>8.37738</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8447</v>
+        <v>11.8283</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.90522</v>
+        <v>9.413130000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.4347</v>
+        <v>10.0771</v>
       </c>
       <c r="D6" t="n">
-        <v>14.4179</v>
+        <v>14.2324</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4487</v>
+        <v>10.9991</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2345</v>
+        <v>12.0626</v>
       </c>
       <c r="D7" t="n">
-        <v>16.9228</v>
+        <v>16.8825</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9615</v>
+        <v>12.5147</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9721</v>
+        <v>13.942</v>
       </c>
       <c r="D8" t="n">
-        <v>19.3727</v>
+        <v>18.8876</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.034</v>
+        <v>14.2211</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7723</v>
+        <v>15.5429</v>
       </c>
       <c r="D9" t="n">
-        <v>21.5002</v>
+        <v>21.2655</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.528</v>
+        <v>12.8194</v>
       </c>
       <c r="C10" t="n">
-        <v>13.6012</v>
+        <v>13.5885</v>
       </c>
       <c r="D10" t="n">
-        <v>17.9259</v>
+        <v>18.1315</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.8696</v>
+        <v>12.788</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6838</v>
+        <v>13.665</v>
       </c>
       <c r="D11" t="n">
-        <v>18.8774</v>
+        <v>18.8044</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2392</v>
+        <v>13.2269</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2404</v>
+        <v>14.2683</v>
       </c>
       <c r="D12" t="n">
-        <v>20.1758</v>
+        <v>19.7533</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5505</v>
+        <v>13.6741</v>
       </c>
       <c r="C13" t="n">
-        <v>14.6315</v>
+        <v>14.6331</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7096</v>
+        <v>20.8499</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5155</v>
+        <v>13.4396</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9902</v>
+        <v>14.8034</v>
       </c>
       <c r="D14" t="n">
-        <v>20.0598</v>
+        <v>20.4029</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3004</v>
+        <v>13.2063</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0847</v>
+        <v>15.1015</v>
       </c>
       <c r="D15" t="n">
-        <v>20.5486</v>
+        <v>20.2965</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.22</v>
+        <v>13.2678</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5154</v>
+        <v>15.5725</v>
       </c>
       <c r="D16" t="n">
-        <v>21.3613</v>
+        <v>21.0416</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2976</v>
+        <v>13.2999</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8423</v>
+        <v>15.8091</v>
       </c>
       <c r="D17" t="n">
-        <v>20.5269</v>
+        <v>21.0121</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.17028</v>
+        <v>2.15552</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44309</v>
+        <v>3.43911</v>
       </c>
       <c r="D2" t="n">
-        <v>3.70577</v>
+        <v>3.69735</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.75259</v>
+        <v>3.73377</v>
       </c>
       <c r="C3" t="n">
-        <v>4.81465</v>
+        <v>4.75337</v>
       </c>
       <c r="D3" t="n">
-        <v>6.55034</v>
+        <v>6.51427</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.31269</v>
+        <v>5.32521</v>
       </c>
       <c r="C4" t="n">
-        <v>6.48311</v>
+        <v>6.44557</v>
       </c>
       <c r="D4" t="n">
-        <v>9.388170000000001</v>
+        <v>9.36327</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.77232</v>
+        <v>6.7894</v>
       </c>
       <c r="C5" t="n">
-        <v>8.153779999999999</v>
+        <v>8.14964</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1648</v>
+        <v>12.1032</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.22278</v>
+        <v>8.15615</v>
       </c>
       <c r="C6" t="n">
-        <v>9.87424</v>
+        <v>9.845190000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8982</v>
+        <v>14.8238</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.55485</v>
+        <v>9.52148</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5747</v>
+        <v>11.5703</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6617</v>
+        <v>17.5235</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8634</v>
+        <v>10.87</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3686</v>
+        <v>13.365</v>
       </c>
       <c r="D8" t="n">
-        <v>20.3439</v>
+        <v>20.1509</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4601</v>
+        <v>12.6512</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5506</v>
+        <v>15.3673</v>
       </c>
       <c r="D9" t="n">
-        <v>23.7943</v>
+        <v>23.681</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9284</v>
+        <v>12.117</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5041</v>
+        <v>14.481</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0926</v>
+        <v>22.0374</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0229</v>
+        <v>11.804</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2397</v>
+        <v>14.2452</v>
       </c>
       <c r="D11" t="n">
-        <v>21.8458</v>
+        <v>22.1895</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1069</v>
+        <v>11.9263</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2501</v>
+        <v>14.1317</v>
       </c>
       <c r="D12" t="n">
-        <v>22.6118</v>
+        <v>22.0012</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2517</v>
+        <v>12.1836</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3784</v>
+        <v>14.3847</v>
       </c>
       <c r="D13" t="n">
-        <v>22.8742</v>
+        <v>22.8259</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.7181</v>
+        <v>11.7419</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5231</v>
+        <v>14.4856</v>
       </c>
       <c r="D14" t="n">
-        <v>22.0032</v>
+        <v>21.9302</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1832</v>
+        <v>12.2713</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7489</v>
+        <v>14.6364</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9126</v>
+        <v>22.7707</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0895</v>
+        <v>11.8722</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8792</v>
+        <v>14.8198</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8414</v>
+        <v>22.5868</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.017</v>
+        <v>12.0556</v>
       </c>
       <c r="C17" t="n">
-        <v>15.083</v>
+        <v>15.0133</v>
       </c>
       <c r="D17" t="n">
-        <v>22.6647</v>
+        <v>22.4824</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.19595</v>
+        <v>2.17609</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44967</v>
+        <v>3.45071</v>
       </c>
       <c r="D2" t="n">
-        <v>3.68812</v>
+        <v>3.67813</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.79097</v>
+        <v>3.71514</v>
       </c>
       <c r="C3" t="n">
-        <v>4.81119</v>
+        <v>4.72924</v>
       </c>
       <c r="D3" t="n">
-        <v>6.48222</v>
+        <v>6.42016</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.35865</v>
+        <v>5.32438</v>
       </c>
       <c r="C4" t="n">
-        <v>6.46876</v>
+        <v>6.45784</v>
       </c>
       <c r="D4" t="n">
-        <v>9.261760000000001</v>
+        <v>9.219889999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.84267</v>
+        <v>6.84184</v>
       </c>
       <c r="C5" t="n">
-        <v>8.158939999999999</v>
+        <v>8.142480000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9973</v>
+        <v>11.9562</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.335559999999999</v>
+        <v>8.303649999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>9.86679</v>
+        <v>9.83126</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7296</v>
+        <v>14.7243</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.68511</v>
+        <v>9.670769999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5487</v>
+        <v>11.5611</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3988</v>
+        <v>17.3183</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1096</v>
+        <v>11.1059</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3542</v>
+        <v>13.301</v>
       </c>
       <c r="D8" t="n">
-        <v>20.1483</v>
+        <v>20.072</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.89</v>
+        <v>12.732</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5201</v>
+        <v>15.1485</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3863</v>
+        <v>23.4168</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3237</v>
+        <v>12.1452</v>
       </c>
       <c r="C10" t="n">
-        <v>14.576</v>
+        <v>14.3955</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0412</v>
+        <v>21.9516</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1133</v>
+        <v>11.972</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3302</v>
+        <v>14.0833</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9021</v>
+        <v>21.6863</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2357</v>
+        <v>12.2746</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2488</v>
+        <v>14.2091</v>
       </c>
       <c r="D12" t="n">
-        <v>21.8633</v>
+        <v>21.8576</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3939</v>
+        <v>12.4088</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4361</v>
+        <v>14.3947</v>
       </c>
       <c r="D13" t="n">
-        <v>22.5517</v>
+        <v>22.6656</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9337</v>
+        <v>11.9518</v>
       </c>
       <c r="C14" t="n">
-        <v>14.5431</v>
+        <v>14.4193</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7168</v>
+        <v>21.7402</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3795</v>
+        <v>12.4648</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7153</v>
+        <v>14.6084</v>
       </c>
       <c r="D15" t="n">
-        <v>22.5189</v>
+        <v>22.6958</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3151</v>
+        <v>12.2689</v>
       </c>
       <c r="C16" t="n">
-        <v>14.9099</v>
+        <v>14.8668</v>
       </c>
       <c r="D16" t="n">
-        <v>22.4551</v>
+        <v>22.5603</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1651</v>
+        <v>12.0619</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0114</v>
+        <v>14.9728</v>
       </c>
       <c r="D17" t="n">
-        <v>22.5654</v>
+        <v>22.8365</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.15077</v>
+        <v>3.12226</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72119</v>
+        <v>3.72527</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96067</v>
+        <v>3.96354</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.76044</v>
+        <v>4.74915</v>
       </c>
       <c r="C3" t="n">
-        <v>5.04917</v>
+        <v>4.97417</v>
       </c>
       <c r="D3" t="n">
-        <v>6.64193</v>
+        <v>6.65451</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5365</v>
+        <v>6.51689</v>
       </c>
       <c r="C4" t="n">
-        <v>6.75307</v>
+        <v>6.69049</v>
       </c>
       <c r="D4" t="n">
-        <v>9.42446</v>
+        <v>9.47073</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.173500000000001</v>
+        <v>8.04928</v>
       </c>
       <c r="C5" t="n">
-        <v>8.50888</v>
+        <v>8.40137</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1922</v>
+        <v>12.2625</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.842140000000001</v>
+        <v>9.716290000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2853</v>
+        <v>10.1414</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0604</v>
+        <v>15.0863</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3576</v>
+        <v>11.3007</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0638</v>
+        <v>11.844</v>
       </c>
       <c r="D7" t="n">
-        <v>17.8764</v>
+        <v>17.8919</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9952</v>
+        <v>12.8362</v>
       </c>
       <c r="C8" t="n">
-        <v>13.91</v>
+        <v>13.4855</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6556</v>
+        <v>20.7142</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2186</v>
+        <v>14.7704</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0056</v>
+        <v>15.2976</v>
       </c>
       <c r="D9" t="n">
-        <v>23.8939</v>
+        <v>23.8747</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4173</v>
+        <v>14.1968</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0623</v>
+        <v>14.9562</v>
       </c>
       <c r="D10" t="n">
-        <v>22.6084</v>
+        <v>22.3211</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4089</v>
+        <v>14.0484</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0382</v>
+        <v>14.6583</v>
       </c>
       <c r="D11" t="n">
-        <v>22.435</v>
+        <v>22.7709</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.502</v>
+        <v>14.1303</v>
       </c>
       <c r="C12" t="n">
-        <v>15.051</v>
+        <v>14.8274</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5522</v>
+        <v>22.799</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7117</v>
+        <v>14.1598</v>
       </c>
       <c r="C13" t="n">
-        <v>15.2658</v>
+        <v>14.9106</v>
       </c>
       <c r="D13" t="n">
-        <v>23.133</v>
+        <v>22.9422</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.0598</v>
+        <v>13.6828</v>
       </c>
       <c r="C14" t="n">
-        <v>15.2314</v>
+        <v>15.0681</v>
       </c>
       <c r="D14" t="n">
-        <v>22.3185</v>
+        <v>22.3183</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5438</v>
+        <v>14.2621</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4931</v>
+        <v>15.1819</v>
       </c>
       <c r="D15" t="n">
-        <v>22.8832</v>
+        <v>22.9639</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5696</v>
+        <v>14.0715</v>
       </c>
       <c r="C16" t="n">
-        <v>15.6958</v>
+        <v>15.4209</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0378</v>
+        <v>23.2057</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3775</v>
+        <v>13.9202</v>
       </c>
       <c r="C17" t="n">
-        <v>15.9535</v>
+        <v>15.5483</v>
       </c>
       <c r="D17" t="n">
-        <v>23.3365</v>
+        <v>23.1336</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.32848</v>
+        <v>3.31595</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69384</v>
+        <v>3.69252</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96485</v>
+        <v>3.96616</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.74576</v>
+        <v>4.65311</v>
       </c>
       <c r="C3" t="n">
-        <v>4.89709</v>
+        <v>5.11007</v>
       </c>
       <c r="D3" t="n">
-        <v>6.4558</v>
+        <v>6.48701</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.27998</v>
+        <v>6.28313</v>
       </c>
       <c r="C4" t="n">
-        <v>6.47196</v>
+        <v>6.77583</v>
       </c>
       <c r="D4" t="n">
-        <v>9.00372</v>
+        <v>8.97259</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.38598</v>
+        <v>7.68018</v>
       </c>
       <c r="C5" t="n">
-        <v>7.89508</v>
+        <v>8.303089999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.4301</v>
+        <v>11.479</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.097009999999999</v>
+        <v>9.03032</v>
       </c>
       <c r="C6" t="n">
-        <v>9.665179999999999</v>
+        <v>10.1523</v>
       </c>
       <c r="D6" t="n">
-        <v>13.8696</v>
+        <v>13.5495</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4485</v>
+        <v>10.444</v>
       </c>
       <c r="C7" t="n">
-        <v>11.1887</v>
+        <v>11.8263</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3559</v>
+        <v>16.1385</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8294</v>
+        <v>11.7755</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1421</v>
+        <v>13.8614</v>
       </c>
       <c r="D8" t="n">
-        <v>19.0237</v>
+        <v>18.1235</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9998</v>
+        <v>14.0436</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9726</v>
+        <v>15.7037</v>
       </c>
       <c r="D9" t="n">
-        <v>21.3834</v>
+        <v>20.526</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5646</v>
+        <v>11.4061</v>
       </c>
       <c r="C10" t="n">
-        <v>12.8233</v>
+        <v>13.8457</v>
       </c>
       <c r="D10" t="n">
-        <v>17.7989</v>
+        <v>17.2886</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.6938</v>
+        <v>11.9</v>
       </c>
       <c r="C11" t="n">
-        <v>13.0989</v>
+        <v>13.5701</v>
       </c>
       <c r="D11" t="n">
-        <v>18.0586</v>
+        <v>18.0483</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.331</v>
+        <v>12.3424</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5933</v>
+        <v>14.4503</v>
       </c>
       <c r="D12" t="n">
-        <v>19.2006</v>
+        <v>19.1956</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.6483</v>
+        <v>12.3397</v>
       </c>
       <c r="C13" t="n">
-        <v>13.9573</v>
+        <v>14.9282</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7677</v>
+        <v>19.4634</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4918</v>
+        <v>12.4094</v>
       </c>
       <c r="C14" t="n">
-        <v>14.2285</v>
+        <v>15.0733</v>
       </c>
       <c r="D14" t="n">
-        <v>19.8719</v>
+        <v>19.3564</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4836</v>
+        <v>12.5296</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5781</v>
+        <v>15.3249</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0615</v>
+        <v>20.0837</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2841</v>
+        <v>12.5297</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6961</v>
+        <v>15.7731</v>
       </c>
       <c r="D16" t="n">
-        <v>20.5903</v>
+        <v>20.2554</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2463</v>
+        <v>12.2925</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9595</v>
+        <v>15.8566</v>
       </c>
       <c r="D17" t="n">
-        <v>20.4132</v>
+        <v>21.0491</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.38195</v>
+        <v>3.39776</v>
       </c>
       <c r="C2" t="n">
-        <v>3.68366</v>
+        <v>3.68616</v>
       </c>
       <c r="D2" t="n">
-        <v>3.94986</v>
+        <v>3.95132</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.82264</v>
+        <v>4.66638</v>
       </c>
       <c r="C3" t="n">
-        <v>4.86418</v>
+        <v>5.04933</v>
       </c>
       <c r="D3" t="n">
-        <v>6.36743</v>
+        <v>6.38137</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.44296</v>
+        <v>6.44233</v>
       </c>
       <c r="C4" t="n">
-        <v>6.4297</v>
+        <v>6.78465</v>
       </c>
       <c r="D4" t="n">
-        <v>8.89312</v>
+        <v>8.79284</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.87622</v>
+        <v>7.66755</v>
       </c>
       <c r="C5" t="n">
-        <v>8.012600000000001</v>
+        <v>8.2041</v>
       </c>
       <c r="D5" t="n">
-        <v>11.3581</v>
+        <v>11.117</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.17122</v>
+        <v>9.32545</v>
       </c>
       <c r="C6" t="n">
-        <v>9.77472</v>
+        <v>10.2586</v>
       </c>
       <c r="D6" t="n">
-        <v>13.852</v>
+        <v>13.532</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7344</v>
+        <v>10.7794</v>
       </c>
       <c r="C7" t="n">
-        <v>11.197</v>
+        <v>12.147</v>
       </c>
       <c r="D7" t="n">
-        <v>16.257</v>
+        <v>15.8818</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1332</v>
+        <v>12.1281</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1354</v>
+        <v>13.549</v>
       </c>
       <c r="D8" t="n">
-        <v>18.205</v>
+        <v>18.2466</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5475</v>
+        <v>14.5416</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9478</v>
+        <v>15.7555</v>
       </c>
       <c r="D9" t="n">
-        <v>20.9112</v>
+        <v>20.0855</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7251</v>
+        <v>11.7248</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9228</v>
+        <v>13.6023</v>
       </c>
       <c r="D10" t="n">
-        <v>17.4784</v>
+        <v>17.2539</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0504</v>
+        <v>12.1136</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1928</v>
+        <v>13.7423</v>
       </c>
       <c r="D11" t="n">
-        <v>18.574</v>
+        <v>17.9125</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.5363</v>
+        <v>12.7189</v>
       </c>
       <c r="C12" t="n">
-        <v>13.542</v>
+        <v>14.4277</v>
       </c>
       <c r="D12" t="n">
-        <v>18.9924</v>
+        <v>19.014</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7848</v>
+        <v>12.797</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1333</v>
+        <v>14.9082</v>
       </c>
       <c r="D13" t="n">
-        <v>20.3643</v>
+        <v>19.7673</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.9876</v>
+        <v>12.7862</v>
       </c>
       <c r="C14" t="n">
-        <v>14.161</v>
+        <v>15.0725</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7904</v>
+        <v>19.5806</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.6408</v>
+        <v>12.7554</v>
       </c>
       <c r="C15" t="n">
-        <v>14.608</v>
+        <v>15.3731</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0853</v>
+        <v>19.7573</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8333</v>
+        <v>12.751</v>
       </c>
       <c r="C16" t="n">
-        <v>14.7966</v>
+        <v>15.8261</v>
       </c>
       <c r="D16" t="n">
-        <v>19.8106</v>
+        <v>20.3726</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7261</v>
+        <v>12.7369</v>
       </c>
       <c r="C17" t="n">
-        <v>14.8663</v>
+        <v>15.8513</v>
       </c>
       <c r="D17" t="n">
-        <v>20.0242</v>
+        <v>20.4813</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.62215</v>
+        <v>3.62951</v>
       </c>
       <c r="C2" t="n">
-        <v>3.78313</v>
+        <v>3.7831</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01254</v>
+        <v>4.01132</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.93859</v>
+        <v>5.01576</v>
       </c>
       <c r="C3" t="n">
-        <v>4.93518</v>
+        <v>5.24797</v>
       </c>
       <c r="D3" t="n">
-        <v>6.53296</v>
+        <v>6.53087</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.70869</v>
+        <v>6.75871</v>
       </c>
       <c r="C4" t="n">
-        <v>6.83363</v>
+        <v>6.86624</v>
       </c>
       <c r="D4" t="n">
-        <v>9.1137</v>
+        <v>9.122640000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.29935</v>
+        <v>7.92733</v>
       </c>
       <c r="C5" t="n">
-        <v>8.37738</v>
+        <v>8.675039999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8283</v>
+        <v>11.6271</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.413130000000001</v>
+        <v>9.89981</v>
       </c>
       <c r="C6" t="n">
-        <v>10.0771</v>
+        <v>10.5467</v>
       </c>
       <c r="D6" t="n">
-        <v>14.2324</v>
+        <v>14.1339</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.9991</v>
+        <v>11.0267</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0626</v>
+        <v>12.1888</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8825</v>
+        <v>16.3181</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5147</v>
+        <v>12.4886</v>
       </c>
       <c r="C8" t="n">
-        <v>13.942</v>
+        <v>14.1409</v>
       </c>
       <c r="D8" t="n">
-        <v>18.8876</v>
+        <v>18.6689</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.2211</v>
+        <v>14.3564</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5429</v>
+        <v>15.9565</v>
       </c>
       <c r="D9" t="n">
-        <v>21.2655</v>
+        <v>21.0494</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.8194</v>
+        <v>12.7315</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5885</v>
+        <v>13.7937</v>
       </c>
       <c r="D10" t="n">
-        <v>18.1315</v>
+        <v>17.834</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.788</v>
+        <v>12.5579</v>
       </c>
       <c r="C11" t="n">
-        <v>13.665</v>
+        <v>14.0285</v>
       </c>
       <c r="D11" t="n">
-        <v>18.8044</v>
+        <v>18.8429</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.2269</v>
+        <v>13.3352</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2683</v>
+        <v>14.9565</v>
       </c>
       <c r="D12" t="n">
-        <v>19.7533</v>
+        <v>19.5644</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6741</v>
+        <v>13.5222</v>
       </c>
       <c r="C13" t="n">
-        <v>14.6331</v>
+        <v>15.504</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8499</v>
+        <v>20.087</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.4396</v>
+        <v>13.7301</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8034</v>
+        <v>15.6813</v>
       </c>
       <c r="D14" t="n">
-        <v>20.4029</v>
+        <v>19.7526</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.2063</v>
+        <v>13.4787</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1015</v>
+        <v>15.9274</v>
       </c>
       <c r="D15" t="n">
-        <v>20.2965</v>
+        <v>20.6629</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2678</v>
+        <v>13.4177</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5725</v>
+        <v>16.2139</v>
       </c>
       <c r="D16" t="n">
-        <v>21.0416</v>
+        <v>21.1016</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2999</v>
+        <v>13.2056</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8091</v>
+        <v>16.7804</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0121</v>
+        <v>21.133</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.15552</v>
+        <v>2.15767</v>
       </c>
       <c r="C2" t="n">
-        <v>3.43911</v>
+        <v>3.44007</v>
       </c>
       <c r="D2" t="n">
-        <v>3.69735</v>
+        <v>3.71277</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.73377</v>
+        <v>3.73153</v>
       </c>
       <c r="C3" t="n">
-        <v>4.75337</v>
+        <v>5.06669</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51427</v>
+        <v>6.52742</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.32521</v>
+        <v>5.27838</v>
       </c>
       <c r="C4" t="n">
-        <v>6.44557</v>
+        <v>6.80193</v>
       </c>
       <c r="D4" t="n">
-        <v>9.36327</v>
+        <v>9.359260000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.7894</v>
+        <v>6.76108</v>
       </c>
       <c r="C5" t="n">
-        <v>8.14964</v>
+        <v>8.552160000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1032</v>
+        <v>12.0753</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.15615</v>
+        <v>8.20027</v>
       </c>
       <c r="C6" t="n">
-        <v>9.845190000000001</v>
+        <v>10.3239</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8238</v>
+        <v>14.8101</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.52148</v>
+        <v>9.53515</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5703</v>
+        <v>12.079</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5235</v>
+        <v>17.4973</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.87</v>
+        <v>10.8424</v>
       </c>
       <c r="C8" t="n">
-        <v>13.365</v>
+        <v>13.9407</v>
       </c>
       <c r="D8" t="n">
-        <v>20.1509</v>
+        <v>20.2373</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.6512</v>
+        <v>12.5926</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3673</v>
+        <v>16.2762</v>
       </c>
       <c r="D9" t="n">
-        <v>23.681</v>
+        <v>23.5661</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.117</v>
+        <v>11.9654</v>
       </c>
       <c r="C10" t="n">
-        <v>14.481</v>
+        <v>15.2149</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0374</v>
+        <v>22.0534</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.804</v>
+        <v>11.7384</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2452</v>
+        <v>14.8765</v>
       </c>
       <c r="D11" t="n">
-        <v>22.1895</v>
+        <v>22.1908</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9263</v>
+        <v>11.94</v>
       </c>
       <c r="C12" t="n">
-        <v>14.1317</v>
+        <v>14.982</v>
       </c>
       <c r="D12" t="n">
-        <v>22.0012</v>
+        <v>22.2774</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1836</v>
+        <v>12.2325</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3847</v>
+        <v>15.1738</v>
       </c>
       <c r="D13" t="n">
-        <v>22.8259</v>
+        <v>22.7739</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.7419</v>
+        <v>11.6578</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4856</v>
+        <v>15.4017</v>
       </c>
       <c r="D14" t="n">
-        <v>21.9302</v>
+        <v>21.8296</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2713</v>
+        <v>12.1941</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6364</v>
+        <v>15.5562</v>
       </c>
       <c r="D15" t="n">
-        <v>22.7707</v>
+        <v>22.6492</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8722</v>
+        <v>12.0834</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8198</v>
+        <v>15.7502</v>
       </c>
       <c r="D16" t="n">
-        <v>22.5868</v>
+        <v>22.8442</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0556</v>
+        <v>12.0502</v>
       </c>
       <c r="C17" t="n">
-        <v>15.0133</v>
+        <v>15.8894</v>
       </c>
       <c r="D17" t="n">
-        <v>22.4824</v>
+        <v>22.7695</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.17609</v>
+        <v>2.21046</v>
       </c>
       <c r="C2" t="n">
-        <v>3.45071</v>
+        <v>3.46179</v>
       </c>
       <c r="D2" t="n">
-        <v>3.67813</v>
+        <v>3.70882</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.71514</v>
+        <v>3.73255</v>
       </c>
       <c r="C3" t="n">
-        <v>4.72924</v>
+        <v>5.00507</v>
       </c>
       <c r="D3" t="n">
-        <v>6.42016</v>
+        <v>6.42803</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.32438</v>
+        <v>5.33075</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45784</v>
+        <v>6.78535</v>
       </c>
       <c r="D4" t="n">
-        <v>9.219889999999999</v>
+        <v>9.217460000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.84184</v>
+        <v>6.82476</v>
       </c>
       <c r="C5" t="n">
-        <v>8.142480000000001</v>
+        <v>8.54771</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9562</v>
+        <v>11.953</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.303649999999999</v>
+        <v>8.331580000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.83126</v>
+        <v>10.283</v>
       </c>
       <c r="D6" t="n">
-        <v>14.7243</v>
+        <v>14.6351</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.670769999999999</v>
+        <v>9.713010000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5611</v>
+        <v>12.0152</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3183</v>
+        <v>17.3374</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1059</v>
+        <v>11.0586</v>
       </c>
       <c r="C8" t="n">
-        <v>13.301</v>
+        <v>13.9214</v>
       </c>
       <c r="D8" t="n">
-        <v>20.072</v>
+        <v>19.9306</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.732</v>
+        <v>12.7007</v>
       </c>
       <c r="C9" t="n">
-        <v>15.1485</v>
+        <v>16.1967</v>
       </c>
       <c r="D9" t="n">
-        <v>23.4168</v>
+        <v>23.2229</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1452</v>
+        <v>11.8649</v>
       </c>
       <c r="C10" t="n">
-        <v>14.3955</v>
+        <v>15.313</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9516</v>
+        <v>21.8996</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.972</v>
+        <v>12.1327</v>
       </c>
       <c r="C11" t="n">
-        <v>14.0833</v>
+        <v>15.0085</v>
       </c>
       <c r="D11" t="n">
-        <v>21.6863</v>
+        <v>21.6824</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2746</v>
+        <v>12.0134</v>
       </c>
       <c r="C12" t="n">
-        <v>14.2091</v>
+        <v>15.1349</v>
       </c>
       <c r="D12" t="n">
-        <v>21.8576</v>
+        <v>22.1259</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4088</v>
+        <v>12.326</v>
       </c>
       <c r="C13" t="n">
-        <v>14.3947</v>
+        <v>15.1995</v>
       </c>
       <c r="D13" t="n">
-        <v>22.6656</v>
+        <v>22.5211</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9518</v>
+        <v>11.9103</v>
       </c>
       <c r="C14" t="n">
-        <v>14.4193</v>
+        <v>15.3484</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7402</v>
+        <v>21.6188</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4648</v>
+        <v>12.4681</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6084</v>
+        <v>15.4788</v>
       </c>
       <c r="D15" t="n">
-        <v>22.6958</v>
+        <v>22.5806</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2689</v>
+        <v>12.1327</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8668</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
-        <v>22.5603</v>
+        <v>22.6065</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0619</v>
+        <v>12.1686</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9728</v>
+        <v>15.8787</v>
       </c>
       <c r="D17" t="n">
-        <v>22.8365</v>
+        <v>22.5801</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12226</v>
+        <v>3.13336</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72527</v>
+        <v>3.73088</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96354</v>
+        <v>3.97287</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.74915</v>
+        <v>4.7901</v>
       </c>
       <c r="C3" t="n">
-        <v>4.97417</v>
+        <v>5.23054</v>
       </c>
       <c r="D3" t="n">
-        <v>6.65451</v>
+        <v>6.60932</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.51689</v>
+        <v>6.50998</v>
       </c>
       <c r="C4" t="n">
-        <v>6.69049</v>
+        <v>6.92708</v>
       </c>
       <c r="D4" t="n">
-        <v>9.47073</v>
+        <v>9.37804</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.04928</v>
+        <v>8.062469999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.40137</v>
+        <v>8.65178</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2625</v>
+        <v>12.1258</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.716290000000001</v>
+        <v>9.756740000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1414</v>
+        <v>10.5405</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0863</v>
+        <v>14.9605</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3007</v>
+        <v>11.2874</v>
       </c>
       <c r="C7" t="n">
-        <v>11.844</v>
+        <v>12.5283</v>
       </c>
       <c r="D7" t="n">
-        <v>17.8919</v>
+        <v>17.7703</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.8362</v>
+        <v>12.9329</v>
       </c>
       <c r="C8" t="n">
-        <v>13.4855</v>
+        <v>14.209</v>
       </c>
       <c r="D8" t="n">
-        <v>20.7142</v>
+        <v>20.6199</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7704</v>
+        <v>15.1421</v>
       </c>
       <c r="C9" t="n">
-        <v>15.2976</v>
+        <v>15.8513</v>
       </c>
       <c r="D9" t="n">
-        <v>23.8747</v>
+        <v>23.7927</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1968</v>
+        <v>14.4491</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9562</v>
+        <v>15.5459</v>
       </c>
       <c r="D10" t="n">
-        <v>22.3211</v>
+        <v>22.3201</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0484</v>
+        <v>14.0322</v>
       </c>
       <c r="C11" t="n">
-        <v>14.6583</v>
+        <v>15.4748</v>
       </c>
       <c r="D11" t="n">
-        <v>22.7709</v>
+        <v>22.2809</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1303</v>
+        <v>14.1819</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8274</v>
+        <v>15.5917</v>
       </c>
       <c r="D12" t="n">
-        <v>22.799</v>
+        <v>22.5707</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1598</v>
+        <v>14.4224</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9106</v>
+        <v>15.5644</v>
       </c>
       <c r="D13" t="n">
-        <v>22.9422</v>
+        <v>22.9959</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6828</v>
+        <v>13.7896</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0681</v>
+        <v>15.6995</v>
       </c>
       <c r="D14" t="n">
-        <v>22.3183</v>
+        <v>22.1861</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2621</v>
+        <v>14.4055</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1819</v>
+        <v>15.8561</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9639</v>
+        <v>23.2494</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0715</v>
+        <v>14.0653</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4209</v>
+        <v>16.2332</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2057</v>
+        <v>23.0811</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9202</v>
+        <v>14.3078</v>
       </c>
       <c r="C17" t="n">
-        <v>15.5483</v>
+        <v>16.5715</v>
       </c>
       <c r="D17" t="n">
-        <v>23.1336</v>
+        <v>23.222</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.31595</v>
+        <v>4.73122</v>
       </c>
       <c r="C2" t="n">
-        <v>3.69252</v>
+        <v>5.67583</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96616</v>
+        <v>6.23101</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.65311</v>
+        <v>6.1664</v>
       </c>
       <c r="C3" t="n">
-        <v>5.11007</v>
+        <v>6.78777</v>
       </c>
       <c r="D3" t="n">
-        <v>6.48701</v>
+        <v>9.207470000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.28313</v>
+        <v>7.67404</v>
       </c>
       <c r="C4" t="n">
-        <v>6.77583</v>
+        <v>8.64289</v>
       </c>
       <c r="D4" t="n">
-        <v>8.97259</v>
+        <v>12.326</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.68018</v>
+        <v>9.011509999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.303089999999999</v>
+        <v>10.6426</v>
       </c>
       <c r="D5" t="n">
-        <v>11.479</v>
+        <v>15.6449</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.03032</v>
+        <v>10.8282</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1523</v>
+        <v>12.7718</v>
       </c>
       <c r="D6" t="n">
-        <v>13.5495</v>
+        <v>18.7986</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.444</v>
+        <v>12.3231</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8263</v>
+        <v>14.3908</v>
       </c>
       <c r="D7" t="n">
-        <v>16.1385</v>
+        <v>21.9763</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7755</v>
+        <v>13.8273</v>
       </c>
       <c r="C8" t="n">
-        <v>13.8614</v>
+        <v>16.8751</v>
       </c>
       <c r="D8" t="n">
-        <v>18.1235</v>
+        <v>24.6829</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0436</v>
+        <v>16.355</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7037</v>
+        <v>19.162</v>
       </c>
       <c r="D9" t="n">
-        <v>20.526</v>
+        <v>28.0527</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.4061</v>
+        <v>13.7756</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8457</v>
+        <v>16.8658</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2886</v>
+        <v>24.2137</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.9</v>
+        <v>13.7907</v>
       </c>
       <c r="C11" t="n">
-        <v>13.5701</v>
+        <v>17.0037</v>
       </c>
       <c r="D11" t="n">
-        <v>18.0483</v>
+        <v>25.4468</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.3424</v>
+        <v>14.4425</v>
       </c>
       <c r="C12" t="n">
-        <v>14.4503</v>
+        <v>17.6802</v>
       </c>
       <c r="D12" t="n">
-        <v>19.1956</v>
+        <v>25.4743</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3397</v>
+        <v>14.7863</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9282</v>
+        <v>18.3581</v>
       </c>
       <c r="D13" t="n">
-        <v>19.4634</v>
+        <v>26.41</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4094</v>
+        <v>14.9207</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0733</v>
+        <v>18.538</v>
       </c>
       <c r="D14" t="n">
-        <v>19.3564</v>
+        <v>26.5433</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5296</v>
+        <v>14.4746</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3249</v>
+        <v>18.8439</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0837</v>
+        <v>26.7879</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5297</v>
+        <v>14.6214</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7731</v>
+        <v>19.5139</v>
       </c>
       <c r="D16" t="n">
-        <v>20.2554</v>
+        <v>26.7827</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2925</v>
+        <v>14.3538</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8566</v>
+        <v>19.9931</v>
       </c>
       <c r="D17" t="n">
-        <v>21.0491</v>
+        <v>27.4466</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.39776</v>
+        <v>4.91453</v>
       </c>
       <c r="C2" t="n">
-        <v>3.68616</v>
+        <v>5.66058</v>
       </c>
       <c r="D2" t="n">
-        <v>3.95132</v>
+        <v>6.19372</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.66638</v>
+        <v>5.89471</v>
       </c>
       <c r="C3" t="n">
-        <v>5.04933</v>
+        <v>6.64005</v>
       </c>
       <c r="D3" t="n">
-        <v>6.38137</v>
+        <v>9.02468</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.44233</v>
+        <v>7.88145</v>
       </c>
       <c r="C4" t="n">
-        <v>6.78465</v>
+        <v>8.57901</v>
       </c>
       <c r="D4" t="n">
-        <v>8.79284</v>
+        <v>12.1783</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.66755</v>
+        <v>9.519500000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>8.2041</v>
+        <v>10.5368</v>
       </c>
       <c r="D5" t="n">
-        <v>11.117</v>
+        <v>15.4216</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.32545</v>
+        <v>11.1684</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2586</v>
+        <v>12.6415</v>
       </c>
       <c r="D6" t="n">
-        <v>13.532</v>
+        <v>18.5037</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7794</v>
+        <v>12.7683</v>
       </c>
       <c r="C7" t="n">
-        <v>12.147</v>
+        <v>14.5442</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8818</v>
+        <v>21.8573</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1281</v>
+        <v>14.3368</v>
       </c>
       <c r="C8" t="n">
-        <v>13.549</v>
+        <v>16.9527</v>
       </c>
       <c r="D8" t="n">
-        <v>18.2466</v>
+        <v>24.3326</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5416</v>
+        <v>17.0739</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7555</v>
+        <v>18.9381</v>
       </c>
       <c r="D9" t="n">
-        <v>20.0855</v>
+        <v>27.6598</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.7248</v>
+        <v>14.3218</v>
       </c>
       <c r="C10" t="n">
-        <v>13.6023</v>
+        <v>16.9796</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2539</v>
+        <v>24.3371</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1136</v>
+        <v>14.2234</v>
       </c>
       <c r="C11" t="n">
-        <v>13.7423</v>
+        <v>17.1902</v>
       </c>
       <c r="D11" t="n">
-        <v>17.9125</v>
+        <v>24.6548</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.7189</v>
+        <v>14.6805</v>
       </c>
       <c r="C12" t="n">
-        <v>14.4277</v>
+        <v>18.0057</v>
       </c>
       <c r="D12" t="n">
-        <v>19.014</v>
+        <v>25.4928</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.797</v>
+        <v>15.0403</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9082</v>
+        <v>17.9463</v>
       </c>
       <c r="D13" t="n">
-        <v>19.7673</v>
+        <v>26.9786</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.7862</v>
+        <v>14.9541</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0725</v>
+        <v>18.5235</v>
       </c>
       <c r="D14" t="n">
-        <v>19.5806</v>
+        <v>26.1014</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.7554</v>
+        <v>15.134</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3731</v>
+        <v>18.9553</v>
       </c>
       <c r="D15" t="n">
-        <v>19.7573</v>
+        <v>26.5723</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.751</v>
+        <v>15.0081</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8261</v>
+        <v>19.3775</v>
       </c>
       <c r="D16" t="n">
-        <v>20.3726</v>
+        <v>25.8917</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7369</v>
+        <v>14.8785</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8513</v>
+        <v>19.8899</v>
       </c>
       <c r="D17" t="n">
-        <v>20.4813</v>
+        <v>26.9593</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.62951</v>
+        <v>5.42639</v>
       </c>
       <c r="C2" t="n">
-        <v>3.7831</v>
+        <v>5.93186</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01132</v>
+        <v>6.34703</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.01576</v>
+        <v>6.72904</v>
       </c>
       <c r="C3" t="n">
-        <v>5.24797</v>
+        <v>7.15073</v>
       </c>
       <c r="D3" t="n">
-        <v>6.53087</v>
+        <v>9.520709999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.75871</v>
+        <v>8.442159999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>6.86624</v>
+        <v>9.19481</v>
       </c>
       <c r="D4" t="n">
-        <v>9.122640000000001</v>
+        <v>12.6272</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.92733</v>
+        <v>10.2016</v>
       </c>
       <c r="C5" t="n">
-        <v>8.675039999999999</v>
+        <v>11.2051</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6271</v>
+        <v>15.8545</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.89981</v>
+        <v>11.5026</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5467</v>
+        <v>13.0784</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1339</v>
+        <v>19.2621</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0267</v>
+        <v>13.6591</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1888</v>
+        <v>15.7792</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3181</v>
+        <v>22.5723</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4886</v>
+        <v>15.4888</v>
       </c>
       <c r="C8" t="n">
-        <v>14.1409</v>
+        <v>17.5778</v>
       </c>
       <c r="D8" t="n">
-        <v>18.6689</v>
+        <v>25.3686</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.3564</v>
+        <v>17.7536</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9565</v>
+        <v>20.2884</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0494</v>
+        <v>28.9783</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.7315</v>
+        <v>15.6139</v>
       </c>
       <c r="C10" t="n">
-        <v>13.7937</v>
+        <v>18.0407</v>
       </c>
       <c r="D10" t="n">
-        <v>17.834</v>
+        <v>25.5206</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5579</v>
+        <v>15.3099</v>
       </c>
       <c r="C11" t="n">
-        <v>14.0285</v>
+        <v>17.849</v>
       </c>
       <c r="D11" t="n">
-        <v>18.8429</v>
+        <v>25.9401</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.3352</v>
+        <v>15.6386</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9565</v>
+        <v>18.7004</v>
       </c>
       <c r="D12" t="n">
-        <v>19.5644</v>
+        <v>26.2971</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5222</v>
+        <v>16.2846</v>
       </c>
       <c r="C13" t="n">
-        <v>15.504</v>
+        <v>19.0736</v>
       </c>
       <c r="D13" t="n">
-        <v>20.087</v>
+        <v>27.7184</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7301</v>
+        <v>16.0509</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6813</v>
+        <v>19.1317</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7526</v>
+        <v>26.6118</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4787</v>
+        <v>15.7294</v>
       </c>
       <c r="C15" t="n">
-        <v>15.9274</v>
+        <v>19.6924</v>
       </c>
       <c r="D15" t="n">
-        <v>20.6629</v>
+        <v>26.6947</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.4177</v>
+        <v>15.986</v>
       </c>
       <c r="C16" t="n">
-        <v>16.2139</v>
+        <v>20.3494</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1016</v>
+        <v>27.724</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2056</v>
+        <v>15.8338</v>
       </c>
       <c r="C17" t="n">
-        <v>16.7804</v>
+        <v>20.9408</v>
       </c>
       <c r="D17" t="n">
-        <v>21.133</v>
+        <v>28.4928</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.15767</v>
+        <v>2.67183</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44007</v>
+        <v>5.0703</v>
       </c>
       <c r="D2" t="n">
-        <v>3.71277</v>
+        <v>5.5624</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.73153</v>
+        <v>4.50985</v>
       </c>
       <c r="C3" t="n">
-        <v>5.06669</v>
+        <v>6.52651</v>
       </c>
       <c r="D3" t="n">
-        <v>6.52742</v>
+        <v>9.18032</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.27838</v>
+        <v>6.30197</v>
       </c>
       <c r="C4" t="n">
-        <v>6.80193</v>
+        <v>8.62557</v>
       </c>
       <c r="D4" t="n">
-        <v>9.359260000000001</v>
+        <v>13.0429</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.76108</v>
+        <v>7.96869</v>
       </c>
       <c r="C5" t="n">
-        <v>8.552160000000001</v>
+        <v>10.665</v>
       </c>
       <c r="D5" t="n">
-        <v>12.0753</v>
+        <v>16.8205</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.20027</v>
+        <v>9.60445</v>
       </c>
       <c r="C6" t="n">
-        <v>10.3239</v>
+        <v>12.775</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8101</v>
+        <v>20.3694</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.53515</v>
+        <v>11.0514</v>
       </c>
       <c r="C7" t="n">
-        <v>12.079</v>
+        <v>14.8674</v>
       </c>
       <c r="D7" t="n">
-        <v>17.4973</v>
+        <v>23.8838</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.8424</v>
+        <v>12.5713</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9407</v>
+        <v>17.1645</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2373</v>
+        <v>27.679</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5926</v>
+        <v>14.5936</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2762</v>
+        <v>20.0034</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5661</v>
+        <v>32.627</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9654</v>
+        <v>13.7837</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2149</v>
+        <v>18.659</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0534</v>
+        <v>30.3019</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7384</v>
+        <v>13.7196</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8765</v>
+        <v>18.4448</v>
       </c>
       <c r="D11" t="n">
-        <v>22.1908</v>
+        <v>29.5372</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.94</v>
+        <v>13.7689</v>
       </c>
       <c r="C12" t="n">
-        <v>14.982</v>
+        <v>18.3796</v>
       </c>
       <c r="D12" t="n">
-        <v>22.2774</v>
+        <v>29.7789</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2325</v>
+        <v>14.1167</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1738</v>
+        <v>18.6168</v>
       </c>
       <c r="D13" t="n">
-        <v>22.7739</v>
+        <v>31.0738</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6578</v>
+        <v>13.5502</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4017</v>
+        <v>18.7819</v>
       </c>
       <c r="D14" t="n">
-        <v>21.8296</v>
+        <v>30.1815</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1941</v>
+        <v>14.1301</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5562</v>
+        <v>19.0713</v>
       </c>
       <c r="D15" t="n">
-        <v>22.6492</v>
+        <v>30.938</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0834</v>
+        <v>13.9986</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7502</v>
+        <v>19.4087</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8442</v>
+        <v>30.9222</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0502</v>
+        <v>13.6805</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8894</v>
+        <v>19.7481</v>
       </c>
       <c r="D17" t="n">
-        <v>22.7695</v>
+        <v>30.946</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.21046</v>
+        <v>2.78254</v>
       </c>
       <c r="C2" t="n">
-        <v>3.46179</v>
+        <v>5.11424</v>
       </c>
       <c r="D2" t="n">
-        <v>3.70882</v>
+        <v>5.57303</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.73255</v>
+        <v>4.4984</v>
       </c>
       <c r="C3" t="n">
-        <v>5.00507</v>
+        <v>6.55293</v>
       </c>
       <c r="D3" t="n">
-        <v>6.42803</v>
+        <v>9.092750000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.33075</v>
+        <v>6.40433</v>
       </c>
       <c r="C4" t="n">
-        <v>6.78535</v>
+        <v>8.61669</v>
       </c>
       <c r="D4" t="n">
-        <v>9.217460000000001</v>
+        <v>12.8653</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.82476</v>
+        <v>8.045199999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.54771</v>
+        <v>10.6437</v>
       </c>
       <c r="D5" t="n">
-        <v>11.953</v>
+        <v>16.4562</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.331580000000001</v>
+        <v>9.730309999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>10.283</v>
+        <v>12.7088</v>
       </c>
       <c r="D6" t="n">
-        <v>14.6351</v>
+        <v>20.0963</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.713010000000001</v>
+        <v>11.3147</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0152</v>
+        <v>14.8114</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3374</v>
+        <v>23.6216</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0586</v>
+        <v>12.8069</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9214</v>
+        <v>17.0342</v>
       </c>
       <c r="D8" t="n">
-        <v>19.9306</v>
+        <v>27.2643</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.7007</v>
+        <v>14.9654</v>
       </c>
       <c r="C9" t="n">
-        <v>16.1967</v>
+        <v>19.8466</v>
       </c>
       <c r="D9" t="n">
-        <v>23.2229</v>
+        <v>31.9441</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.8649</v>
+        <v>14.3573</v>
       </c>
       <c r="C10" t="n">
-        <v>15.313</v>
+        <v>18.7832</v>
       </c>
       <c r="D10" t="n">
-        <v>21.8996</v>
+        <v>29.2996</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1327</v>
+        <v>13.9529</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0085</v>
+        <v>18.2998</v>
       </c>
       <c r="D11" t="n">
-        <v>21.6824</v>
+        <v>29.2978</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0134</v>
+        <v>14.0396</v>
       </c>
       <c r="C12" t="n">
-        <v>15.1349</v>
+        <v>18.3919</v>
       </c>
       <c r="D12" t="n">
-        <v>22.1259</v>
+        <v>29.7674</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.326</v>
+        <v>14.3539</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1995</v>
+        <v>18.6166</v>
       </c>
       <c r="D13" t="n">
-        <v>22.5211</v>
+        <v>30.5353</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9103</v>
+        <v>13.8404</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3484</v>
+        <v>18.7231</v>
       </c>
       <c r="D14" t="n">
-        <v>21.6188</v>
+        <v>29.3841</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4681</v>
+        <v>14.391</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4788</v>
+        <v>19.0581</v>
       </c>
       <c r="D15" t="n">
-        <v>22.5806</v>
+        <v>30.2801</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1327</v>
+        <v>14.347</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7</v>
+        <v>19.4026</v>
       </c>
       <c r="D16" t="n">
-        <v>22.6065</v>
+        <v>30.5839</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1686</v>
+        <v>14.0648</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8787</v>
+        <v>19.6265</v>
       </c>
       <c r="D17" t="n">
-        <v>22.5801</v>
+        <v>30.532</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.13336</v>
+        <v>4.39528</v>
       </c>
       <c r="C2" t="n">
-        <v>3.73088</v>
+        <v>5.77257</v>
       </c>
       <c r="D2" t="n">
-        <v>3.97287</v>
+        <v>6.21322</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.7901</v>
+        <v>6.13997</v>
       </c>
       <c r="C3" t="n">
-        <v>5.23054</v>
+        <v>6.96921</v>
       </c>
       <c r="D3" t="n">
-        <v>6.60932</v>
+        <v>9.46316</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.50998</v>
+        <v>8.187290000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>6.92708</v>
+        <v>9.075049999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.37804</v>
+        <v>13.2409</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.062469999999999</v>
+        <v>10.016</v>
       </c>
       <c r="C5" t="n">
-        <v>8.65178</v>
+        <v>10.9087</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1258</v>
+        <v>16.9124</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.756740000000001</v>
+        <v>11.8948</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5405</v>
+        <v>13.2997</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9605</v>
+        <v>20.7768</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2874</v>
+        <v>13.656</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5283</v>
+        <v>15.5237</v>
       </c>
       <c r="D7" t="n">
-        <v>17.7703</v>
+        <v>24.5546</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.9329</v>
+        <v>15.4194</v>
       </c>
       <c r="C8" t="n">
-        <v>14.209</v>
+        <v>17.501</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6199</v>
+        <v>28.2774</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1421</v>
+        <v>17.9729</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8513</v>
+        <v>19.9616</v>
       </c>
       <c r="D9" t="n">
-        <v>23.7927</v>
+        <v>32.7561</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4491</v>
+        <v>17.0342</v>
       </c>
       <c r="C10" t="n">
-        <v>15.5459</v>
+        <v>18.9934</v>
       </c>
       <c r="D10" t="n">
-        <v>22.3201</v>
+        <v>30.6348</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0322</v>
+        <v>16.3537</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4748</v>
+        <v>19.1914</v>
       </c>
       <c r="D11" t="n">
-        <v>22.2809</v>
+        <v>29.9324</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1819</v>
+        <v>17.0567</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5917</v>
+        <v>19.2639</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5707</v>
+        <v>30.9002</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4224</v>
+        <v>17.1526</v>
       </c>
       <c r="C13" t="n">
-        <v>15.5644</v>
+        <v>19.3394</v>
       </c>
       <c r="D13" t="n">
-        <v>22.9959</v>
+        <v>31.1052</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7896</v>
+        <v>16.7447</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6995</v>
+        <v>19.5811</v>
       </c>
       <c r="D14" t="n">
-        <v>22.1861</v>
+        <v>30.7985</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4055</v>
+        <v>16.6988</v>
       </c>
       <c r="C15" t="n">
-        <v>15.8561</v>
+        <v>19.7991</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2494</v>
+        <v>31.4743</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0653</v>
+        <v>17.0663</v>
       </c>
       <c r="C16" t="n">
-        <v>16.2332</v>
+        <v>20.0303</v>
       </c>
       <c r="D16" t="n">
-        <v>23.0811</v>
+        <v>31.1008</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3078</v>
+        <v>17.0263</v>
       </c>
       <c r="C17" t="n">
-        <v>16.5715</v>
+        <v>20.5177</v>
       </c>
       <c r="D17" t="n">
-        <v>23.222</v>
+        <v>31.2985</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.73122</v>
+        <v>9.463649999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>5.67583</v>
+        <v>13.8855</v>
       </c>
       <c r="D2" t="n">
-        <v>6.23101</v>
+        <v>16.7014</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1664</v>
+        <v>8.98601</v>
       </c>
       <c r="C3" t="n">
-        <v>6.78777</v>
+        <v>10.4278</v>
       </c>
       <c r="D3" t="n">
-        <v>9.207470000000001</v>
+        <v>17.0543</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.67404</v>
+        <v>9.981669999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>8.64289</v>
+        <v>12.3572</v>
       </c>
       <c r="D4" t="n">
-        <v>12.326</v>
+        <v>21.3538</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.011509999999999</v>
+        <v>12.0144</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6426</v>
+        <v>14.7848</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6449</v>
+        <v>25.5345</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8282</v>
+        <v>14.3814</v>
       </c>
       <c r="C6" t="n">
-        <v>12.7718</v>
+        <v>17.4198</v>
       </c>
       <c r="D6" t="n">
-        <v>18.7986</v>
+        <v>30.3646</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3231</v>
+        <v>16.9031</v>
       </c>
       <c r="C7" t="n">
-        <v>14.3908</v>
+        <v>20.0327</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9763</v>
+        <v>35.5358</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8273</v>
+        <v>18.4109</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8751</v>
+        <v>22.5454</v>
       </c>
       <c r="D8" t="n">
-        <v>24.6829</v>
+        <v>38.2413</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.355</v>
+        <v>21.513</v>
       </c>
       <c r="C9" t="n">
-        <v>19.162</v>
+        <v>25.3974</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0527</v>
+        <v>42.5087</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7756</v>
+        <v>19.1197</v>
       </c>
       <c r="C10" t="n">
-        <v>16.8658</v>
+        <v>23.8481</v>
       </c>
       <c r="D10" t="n">
-        <v>24.2137</v>
+        <v>40.6991</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7907</v>
+        <v>18.7251</v>
       </c>
       <c r="C11" t="n">
-        <v>17.0037</v>
+        <v>23.5001</v>
       </c>
       <c r="D11" t="n">
-        <v>25.4468</v>
+        <v>40.4653</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4425</v>
+        <v>19.1617</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6802</v>
+        <v>23.911</v>
       </c>
       <c r="D12" t="n">
-        <v>25.4743</v>
+        <v>40.9678</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7863</v>
+        <v>19.6423</v>
       </c>
       <c r="C13" t="n">
-        <v>18.3581</v>
+        <v>24.7492</v>
       </c>
       <c r="D13" t="n">
-        <v>26.41</v>
+        <v>41.8411</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9207</v>
+        <v>19.0453</v>
       </c>
       <c r="C14" t="n">
-        <v>18.538</v>
+        <v>25.3019</v>
       </c>
       <c r="D14" t="n">
-        <v>26.5433</v>
+        <v>42.8597</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4746</v>
+        <v>19.1392</v>
       </c>
       <c r="C15" t="n">
-        <v>18.8439</v>
+        <v>26.1937</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7879</v>
+        <v>42.1255</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6214</v>
+        <v>19.1836</v>
       </c>
       <c r="C16" t="n">
-        <v>19.5139</v>
+        <v>26.5417</v>
       </c>
       <c r="D16" t="n">
-        <v>26.7827</v>
+        <v>42.2076</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3538</v>
+        <v>20.0968</v>
       </c>
       <c r="C17" t="n">
-        <v>19.9931</v>
+        <v>27.232</v>
       </c>
       <c r="D17" t="n">
-        <v>27.4466</v>
+        <v>43.371</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.91453</v>
+        <v>10.1297</v>
       </c>
       <c r="C2" t="n">
-        <v>5.66058</v>
+        <v>13.7581</v>
       </c>
       <c r="D2" t="n">
-        <v>6.19372</v>
+        <v>16.6382</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.89471</v>
+        <v>9.59948</v>
       </c>
       <c r="C3" t="n">
-        <v>6.64005</v>
+        <v>10.6574</v>
       </c>
       <c r="D3" t="n">
-        <v>9.02468</v>
+        <v>16.9961</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.88145</v>
+        <v>11.2127</v>
       </c>
       <c r="C4" t="n">
-        <v>8.57901</v>
+        <v>12.29</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1783</v>
+        <v>21.1811</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.519500000000001</v>
+        <v>13.0019</v>
       </c>
       <c r="C5" t="n">
-        <v>10.5368</v>
+        <v>14.7002</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4216</v>
+        <v>24.8223</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1684</v>
+        <v>15.1411</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6415</v>
+        <v>17.1653</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5037</v>
+        <v>30.486</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7683</v>
+        <v>17.4272</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5442</v>
+        <v>20.1562</v>
       </c>
       <c r="D7" t="n">
-        <v>21.8573</v>
+        <v>35.2206</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3368</v>
+        <v>19.0417</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9527</v>
+        <v>22.0758</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3326</v>
+        <v>37.5841</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.0739</v>
+        <v>22.4578</v>
       </c>
       <c r="C9" t="n">
-        <v>18.9381</v>
+        <v>24.6849</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6598</v>
+        <v>42.1683</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3218</v>
+        <v>19.4236</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9796</v>
+        <v>24.4698</v>
       </c>
       <c r="D10" t="n">
-        <v>24.3371</v>
+        <v>40.2771</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2234</v>
+        <v>19.5267</v>
       </c>
       <c r="C11" t="n">
-        <v>17.1902</v>
+        <v>23.77</v>
       </c>
       <c r="D11" t="n">
-        <v>24.6548</v>
+        <v>39.7277</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6805</v>
+        <v>19.5095</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0057</v>
+        <v>23.916</v>
       </c>
       <c r="D12" t="n">
-        <v>25.4928</v>
+        <v>39.8927</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0403</v>
+        <v>20.3484</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9463</v>
+        <v>24.6642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9786</v>
+        <v>41.163</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9541</v>
+        <v>20.0762</v>
       </c>
       <c r="C14" t="n">
-        <v>18.5235</v>
+        <v>25.4498</v>
       </c>
       <c r="D14" t="n">
-        <v>26.1014</v>
+        <v>40.6162</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.134</v>
+        <v>19.7946</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9553</v>
+        <v>26.1717</v>
       </c>
       <c r="D15" t="n">
-        <v>26.5723</v>
+        <v>42.0388</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0081</v>
+        <v>20.401</v>
       </c>
       <c r="C16" t="n">
-        <v>19.3775</v>
+        <v>26.7347</v>
       </c>
       <c r="D16" t="n">
-        <v>25.8917</v>
+        <v>42.2198</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.8785</v>
+        <v>20.236</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8899</v>
+        <v>27.3526</v>
       </c>
       <c r="D17" t="n">
-        <v>26.9593</v>
+        <v>42.4697</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.42639</v>
+        <v>12.6934</v>
       </c>
       <c r="C2" t="n">
-        <v>5.93186</v>
+        <v>15.1989</v>
       </c>
       <c r="D2" t="n">
-        <v>6.34703</v>
+        <v>18.4089</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.72904</v>
+        <v>10.7557</v>
       </c>
       <c r="C3" t="n">
-        <v>7.15073</v>
+        <v>12.2106</v>
       </c>
       <c r="D3" t="n">
-        <v>9.520709999999999</v>
+        <v>18.4313</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.442159999999999</v>
+        <v>12.2033</v>
       </c>
       <c r="C4" t="n">
-        <v>9.19481</v>
+        <v>13.7775</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6272</v>
+        <v>22.8221</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2016</v>
+        <v>14.2947</v>
       </c>
       <c r="C5" t="n">
-        <v>11.2051</v>
+        <v>16.5426</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8545</v>
+        <v>28.0161</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5026</v>
+        <v>16.7382</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0784</v>
+        <v>19.038</v>
       </c>
       <c r="D6" t="n">
-        <v>19.2621</v>
+        <v>32.4843</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6591</v>
+        <v>19.1075</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7792</v>
+        <v>23.0435</v>
       </c>
       <c r="D7" t="n">
-        <v>22.5723</v>
+        <v>38.1086</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4888</v>
+        <v>20.8477</v>
       </c>
       <c r="C8" t="n">
-        <v>17.5778</v>
+        <v>24.0823</v>
       </c>
       <c r="D8" t="n">
-        <v>25.3686</v>
+        <v>39.4541</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.7536</v>
+        <v>23.2557</v>
       </c>
       <c r="C9" t="n">
-        <v>20.2884</v>
+        <v>27.3991</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9783</v>
+        <v>45.4089</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6139</v>
+        <v>22.236</v>
       </c>
       <c r="C10" t="n">
-        <v>18.0407</v>
+        <v>26.4869</v>
       </c>
       <c r="D10" t="n">
-        <v>25.5206</v>
+        <v>43.7395</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.3099</v>
+        <v>21.0539</v>
       </c>
       <c r="C11" t="n">
-        <v>17.849</v>
+        <v>25.4648</v>
       </c>
       <c r="D11" t="n">
-        <v>25.9401</v>
+        <v>42.3998</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6386</v>
+        <v>21.6377</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7004</v>
+        <v>25.7572</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2971</v>
+        <v>44.1384</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.2846</v>
+        <v>22.5871</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0736</v>
+        <v>26.0977</v>
       </c>
       <c r="D13" t="n">
-        <v>27.7184</v>
+        <v>43.9386</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.0509</v>
+        <v>22.028</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1317</v>
+        <v>26.7199</v>
       </c>
       <c r="D14" t="n">
-        <v>26.6118</v>
+        <v>44.852</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7294</v>
+        <v>21.5007</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6924</v>
+        <v>27.6714</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6947</v>
+        <v>45.1527</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.986</v>
+        <v>21.4425</v>
       </c>
       <c r="C16" t="n">
-        <v>20.3494</v>
+        <v>28.3356</v>
       </c>
       <c r="D16" t="n">
-        <v>27.724</v>
+        <v>43.8736</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8338</v>
+        <v>21.4882</v>
       </c>
       <c r="C17" t="n">
-        <v>20.9408</v>
+        <v>29.123</v>
       </c>
       <c r="D17" t="n">
-        <v>28.4928</v>
+        <v>44.1119</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.67183</v>
+        <v>3.83778</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0703</v>
+        <v>10.7046</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5624</v>
+        <v>12.668</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.50985</v>
+        <v>6.11839</v>
       </c>
       <c r="C3" t="n">
-        <v>6.52651</v>
+        <v>10.3223</v>
       </c>
       <c r="D3" t="n">
-        <v>9.18032</v>
+        <v>17.4422</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.30197</v>
+        <v>8.35191</v>
       </c>
       <c r="C4" t="n">
-        <v>8.62557</v>
+        <v>12.4827</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0429</v>
+        <v>23.4546</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.96869</v>
+        <v>10.3926</v>
       </c>
       <c r="C5" t="n">
-        <v>10.665</v>
+        <v>14.9644</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8205</v>
+        <v>29.113</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.60445</v>
+        <v>12.48</v>
       </c>
       <c r="C6" t="n">
-        <v>12.775</v>
+        <v>17.6236</v>
       </c>
       <c r="D6" t="n">
-        <v>20.3694</v>
+        <v>34.3649</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0514</v>
+        <v>14.3191</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8674</v>
+        <v>20.2807</v>
       </c>
       <c r="D7" t="n">
-        <v>23.8838</v>
+        <v>40.1132</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5713</v>
+        <v>16.2124</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1645</v>
+        <v>23.162</v>
       </c>
       <c r="D8" t="n">
-        <v>27.679</v>
+        <v>45.4489</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5936</v>
+        <v>18.7033</v>
       </c>
       <c r="C9" t="n">
-        <v>20.0034</v>
+        <v>26.5956</v>
       </c>
       <c r="D9" t="n">
-        <v>32.627</v>
+        <v>54.1343</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7837</v>
+        <v>17.5335</v>
       </c>
       <c r="C10" t="n">
-        <v>18.659</v>
+        <v>24.7194</v>
       </c>
       <c r="D10" t="n">
-        <v>30.3019</v>
+        <v>49.5848</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7196</v>
+        <v>17.4978</v>
       </c>
       <c r="C11" t="n">
-        <v>18.4448</v>
+        <v>24.7949</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5372</v>
+        <v>48.1011</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.7689</v>
+        <v>17.5705</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3796</v>
+        <v>25.3166</v>
       </c>
       <c r="D12" t="n">
-        <v>29.7789</v>
+        <v>49.083</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1167</v>
+        <v>17.8605</v>
       </c>
       <c r="C13" t="n">
-        <v>18.6168</v>
+        <v>25.156</v>
       </c>
       <c r="D13" t="n">
-        <v>31.0738</v>
+        <v>51.1142</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.5502</v>
+        <v>17.3953</v>
       </c>
       <c r="C14" t="n">
-        <v>18.7819</v>
+        <v>25.5589</v>
       </c>
       <c r="D14" t="n">
-        <v>30.1815</v>
+        <v>50.0934</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1301</v>
+        <v>17.8491</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0713</v>
+        <v>25.8853</v>
       </c>
       <c r="D15" t="n">
-        <v>30.938</v>
+        <v>49.3036</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9986</v>
+        <v>17.7137</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4087</v>
+        <v>26.5137</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9222</v>
+        <v>50.6737</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.6805</v>
+        <v>17.6483</v>
       </c>
       <c r="C17" t="n">
-        <v>19.7481</v>
+        <v>27.1202</v>
       </c>
       <c r="D17" t="n">
-        <v>30.946</v>
+        <v>51.0202</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.78254</v>
+        <v>3.91544</v>
       </c>
       <c r="C2" t="n">
-        <v>5.11424</v>
+        <v>10.803</v>
       </c>
       <c r="D2" t="n">
-        <v>5.57303</v>
+        <v>12.6099</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.4984</v>
+        <v>6.29633</v>
       </c>
       <c r="C3" t="n">
-        <v>6.55293</v>
+        <v>10.4465</v>
       </c>
       <c r="D3" t="n">
-        <v>9.092750000000001</v>
+        <v>17.1807</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.40433</v>
+        <v>8.35943</v>
       </c>
       <c r="C4" t="n">
-        <v>8.61669</v>
+        <v>12.5148</v>
       </c>
       <c r="D4" t="n">
-        <v>12.8653</v>
+        <v>22.5502</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.045199999999999</v>
+        <v>10.6118</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6437</v>
+        <v>14.986</v>
       </c>
       <c r="D5" t="n">
-        <v>16.4562</v>
+        <v>27.9974</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.730309999999999</v>
+        <v>12.4525</v>
       </c>
       <c r="C6" t="n">
-        <v>12.7088</v>
+        <v>17.597</v>
       </c>
       <c r="D6" t="n">
-        <v>20.0963</v>
+        <v>33.482</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3147</v>
+        <v>14.4776</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8114</v>
+        <v>20.3375</v>
       </c>
       <c r="D7" t="n">
-        <v>23.6216</v>
+        <v>39.3379</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.8069</v>
+        <v>16.6098</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0342</v>
+        <v>23.3502</v>
       </c>
       <c r="D8" t="n">
-        <v>27.2643</v>
+        <v>44.969</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9654</v>
+        <v>18.9794</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8466</v>
+        <v>26.74</v>
       </c>
       <c r="D9" t="n">
-        <v>31.9441</v>
+        <v>53.5053</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3573</v>
+        <v>18.1469</v>
       </c>
       <c r="C10" t="n">
-        <v>18.7832</v>
+        <v>24.8133</v>
       </c>
       <c r="D10" t="n">
-        <v>29.2996</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9529</v>
+        <v>17.8044</v>
       </c>
       <c r="C11" t="n">
-        <v>18.2998</v>
+        <v>24.7978</v>
       </c>
       <c r="D11" t="n">
-        <v>29.2978</v>
+        <v>48.0834</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0396</v>
+        <v>17.9827</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3919</v>
+        <v>24.9504</v>
       </c>
       <c r="D12" t="n">
-        <v>29.7674</v>
+        <v>48.0247</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3539</v>
+        <v>18.3916</v>
       </c>
       <c r="C13" t="n">
-        <v>18.6166</v>
+        <v>25.2072</v>
       </c>
       <c r="D13" t="n">
-        <v>30.5353</v>
+        <v>48.5218</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8404</v>
+        <v>17.5976</v>
       </c>
       <c r="C14" t="n">
-        <v>18.7231</v>
+        <v>25.4284</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3841</v>
+        <v>48.2318</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.391</v>
+        <v>18.4211</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0581</v>
+        <v>25.9063</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2801</v>
+        <v>48.7327</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.347</v>
+        <v>18.1571</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4026</v>
+        <v>26.3642</v>
       </c>
       <c r="D16" t="n">
-        <v>30.5839</v>
+        <v>49.5283</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.0648</v>
+        <v>18.011</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6265</v>
+        <v>27.0933</v>
       </c>
       <c r="D17" t="n">
-        <v>30.532</v>
+        <v>49.1686</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.39528</v>
+        <v>8.273059999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>5.77257</v>
+        <v>14.1914</v>
       </c>
       <c r="D2" t="n">
-        <v>6.21322</v>
+        <v>17.2495</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.13997</v>
+        <v>9.18845</v>
       </c>
       <c r="C3" t="n">
-        <v>6.96921</v>
+        <v>11.3095</v>
       </c>
       <c r="D3" t="n">
-        <v>9.46316</v>
+        <v>18.724</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.187290000000001</v>
+        <v>11.5835</v>
       </c>
       <c r="C4" t="n">
-        <v>9.075049999999999</v>
+        <v>13.1207</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2409</v>
+        <v>24.2348</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.016</v>
+        <v>13.7591</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9087</v>
+        <v>15.4605</v>
       </c>
       <c r="D5" t="n">
-        <v>16.9124</v>
+        <v>29.9673</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.8948</v>
+        <v>16.0079</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2997</v>
+        <v>18.5754</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7768</v>
+        <v>36.1123</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.656</v>
+        <v>18.204</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5237</v>
+        <v>20.7592</v>
       </c>
       <c r="D7" t="n">
-        <v>24.5546</v>
+        <v>42.1149</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4194</v>
+        <v>20.5622</v>
       </c>
       <c r="C8" t="n">
-        <v>17.501</v>
+        <v>23.9349</v>
       </c>
       <c r="D8" t="n">
-        <v>28.2774</v>
+        <v>48.6793</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.9729</v>
+        <v>23.5783</v>
       </c>
       <c r="C9" t="n">
-        <v>19.9616</v>
+        <v>25.6273</v>
       </c>
       <c r="D9" t="n">
-        <v>32.7561</v>
+        <v>55.2143</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0342</v>
+        <v>22.5966</v>
       </c>
       <c r="C10" t="n">
-        <v>18.9934</v>
+        <v>26.3958</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6348</v>
+        <v>53.1256</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.3537</v>
+        <v>22.3107</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1914</v>
+        <v>25.8672</v>
       </c>
       <c r="D11" t="n">
-        <v>29.9324</v>
+        <v>52.4091</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0567</v>
+        <v>22.5696</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2639</v>
+        <v>26.2418</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9002</v>
+        <v>52.8961</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1526</v>
+        <v>22.4502</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3394</v>
+        <v>26.5894</v>
       </c>
       <c r="D13" t="n">
-        <v>31.1052</v>
+        <v>54.104</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7447</v>
+        <v>22.3008</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5811</v>
+        <v>26.3844</v>
       </c>
       <c r="D14" t="n">
-        <v>30.7985</v>
+        <v>53.5917</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.6988</v>
+        <v>22.6875</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7991</v>
+        <v>26.9873</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4743</v>
+        <v>53.4573</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.0663</v>
+        <v>22.5613</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0303</v>
+        <v>27.8026</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1008</v>
+        <v>53.8617</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.0263</v>
+        <v>22.3757</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5177</v>
+        <v>28.4431</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2985</v>
+        <v>55.3355</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.33266</v>
+        <v>9.38721</v>
       </c>
       <c r="C2" t="n">
-        <v>4.01572</v>
+        <v>16.6965</v>
       </c>
       <c r="D2" t="n">
-        <v>4.07755</v>
+        <v>19.6594</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.65742</v>
+        <v>9.21519</v>
       </c>
       <c r="C3" t="n">
-        <v>6.52918</v>
+        <v>17.5686</v>
       </c>
       <c r="D3" t="n">
-        <v>7.05161</v>
+        <v>22.9462</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.881</v>
+        <v>10.8278</v>
       </c>
       <c r="C4" t="n">
-        <v>9.021559999999999</v>
+        <v>21.9699</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0811</v>
+        <v>30.4537</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.26681</v>
+        <v>12.5331</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6492</v>
+        <v>26.5282</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9424</v>
+        <v>37.4877</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.81541</v>
+        <v>14.5806</v>
       </c>
       <c r="C6" t="n">
-        <v>13.855</v>
+        <v>31.6907</v>
       </c>
       <c r="D6" t="n">
-        <v>15.8195</v>
+        <v>43.9762</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4167</v>
+        <v>16.8188</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4646</v>
+        <v>37.2518</v>
       </c>
       <c r="D7" t="n">
-        <v>18.3552</v>
+        <v>51.0981</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7566</v>
+        <v>18.444</v>
       </c>
       <c r="C8" t="n">
-        <v>18.8004</v>
+        <v>40.3838</v>
       </c>
       <c r="D8" t="n">
-        <v>21.0243</v>
+        <v>56.9356</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0155</v>
+        <v>21.5602</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2665</v>
+        <v>46.9549</v>
       </c>
       <c r="D9" t="n">
-        <v>23.8164</v>
+        <v>62.6696</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.3793</v>
+        <v>18.4222</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6063</v>
+        <v>42.0687</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5818</v>
+        <v>57.2494</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7555</v>
+        <v>18.3592</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6289</v>
+        <v>41.2963</v>
       </c>
       <c r="D11" t="n">
-        <v>20.5229</v>
+        <v>55.9508</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.063</v>
+        <v>19.2185</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9811</v>
+        <v>41.9579</v>
       </c>
       <c r="D12" t="n">
-        <v>21.7926</v>
+        <v>56.74</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3761</v>
+        <v>19.7491</v>
       </c>
       <c r="C13" t="n">
-        <v>19.9069</v>
+        <v>43.2876</v>
       </c>
       <c r="D13" t="n">
-        <v>22.7523</v>
+        <v>58.9627</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5387</v>
+        <v>19.3383</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8757</v>
+        <v>44.1191</v>
       </c>
       <c r="D14" t="n">
-        <v>22.2183</v>
+        <v>59.0097</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5149</v>
+        <v>19.0436</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8855</v>
+        <v>43.9679</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2012</v>
+        <v>62.0626</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1948</v>
+        <v>18.9978</v>
       </c>
       <c r="C16" t="n">
-        <v>20.2232</v>
+        <v>44.4971</v>
       </c>
       <c r="D16" t="n">
-        <v>23.1251</v>
+        <v>62.582</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2933</v>
+        <v>19.087</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8875</v>
+        <v>42.76</v>
       </c>
       <c r="D17" t="n">
-        <v>22.9021</v>
+        <v>62.476</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.38787</v>
+        <v>10.0443</v>
       </c>
       <c r="C2" t="n">
-        <v>3.98715</v>
+        <v>16.6041</v>
       </c>
       <c r="D2" t="n">
-        <v>4.06941</v>
+        <v>19.5169</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.78864</v>
+        <v>9.48386</v>
       </c>
       <c r="C3" t="n">
-        <v>6.51541</v>
+        <v>17.412</v>
       </c>
       <c r="D3" t="n">
-        <v>7.06738</v>
+        <v>23.0968</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.47221</v>
+        <v>11.1496</v>
       </c>
       <c r="C4" t="n">
-        <v>9.11401</v>
+        <v>21.5843</v>
       </c>
       <c r="D4" t="n">
-        <v>9.93896</v>
+        <v>30.1424</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.40646</v>
+        <v>12.9747</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4276</v>
+        <v>25.7312</v>
       </c>
       <c r="D5" t="n">
-        <v>12.9458</v>
+        <v>37.1212</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.294180000000001</v>
+        <v>15.0124</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8558</v>
+        <v>31.2251</v>
       </c>
       <c r="D6" t="n">
-        <v>15.8928</v>
+        <v>43.0431</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.6755</v>
+        <v>17.3214</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4618</v>
+        <v>36.5961</v>
       </c>
       <c r="D7" t="n">
-        <v>18.2666</v>
+        <v>49.9407</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0955</v>
+        <v>18.9766</v>
       </c>
       <c r="C8" t="n">
-        <v>18.7465</v>
+        <v>39.3537</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6772</v>
+        <v>55.0863</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4358</v>
+        <v>22.549</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1481</v>
+        <v>44.4953</v>
       </c>
       <c r="D9" t="n">
-        <v>22.86</v>
+        <v>61.8361</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.8888</v>
+        <v>19.2947</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7147</v>
+        <v>42.3684</v>
       </c>
       <c r="D10" t="n">
-        <v>19.6182</v>
+        <v>54.4343</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0964</v>
+        <v>19.2116</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3319</v>
+        <v>41.9133</v>
       </c>
       <c r="D11" t="n">
-        <v>20.3967</v>
+        <v>56.1389</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.505</v>
+        <v>19.8019</v>
       </c>
       <c r="C12" t="n">
-        <v>18.9828</v>
+        <v>42.0092</v>
       </c>
       <c r="D12" t="n">
-        <v>22.014</v>
+        <v>56.0585</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.8284</v>
+        <v>20.2542</v>
       </c>
       <c r="C13" t="n">
-        <v>19.7032</v>
+        <v>43.4276</v>
       </c>
       <c r="D13" t="n">
-        <v>22.3946</v>
+        <v>59.9335</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5887</v>
+        <v>19.8199</v>
       </c>
       <c r="C14" t="n">
-        <v>19.361</v>
+        <v>42.0113</v>
       </c>
       <c r="D14" t="n">
-        <v>21.714</v>
+        <v>57.6287</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.6811</v>
+        <v>20.1706</v>
       </c>
       <c r="C15" t="n">
-        <v>20.0399</v>
+        <v>42.1116</v>
       </c>
       <c r="D15" t="n">
-        <v>22.6109</v>
+        <v>59.1139</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7345</v>
+        <v>19.8588</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0946</v>
+        <v>41.9262</v>
       </c>
       <c r="D16" t="n">
-        <v>23.1869</v>
+        <v>59.9149</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5309</v>
+        <v>20.7691</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0783</v>
+        <v>41.6168</v>
       </c>
       <c r="D17" t="n">
-        <v>23.792</v>
+        <v>58.4779</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.61948</v>
+        <v>12.6747</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05011</v>
+        <v>18.3935</v>
       </c>
       <c r="D2" t="n">
-        <v>4.11385</v>
+        <v>20.4987</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.05608</v>
+        <v>10.3194</v>
       </c>
       <c r="C3" t="n">
-        <v>6.68369</v>
+        <v>18.3978</v>
       </c>
       <c r="D3" t="n">
-        <v>7.35845</v>
+        <v>23.995</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.40262</v>
+        <v>12.2352</v>
       </c>
       <c r="C4" t="n">
-        <v>9.11139</v>
+        <v>23.1826</v>
       </c>
       <c r="D4" t="n">
-        <v>10.2112</v>
+        <v>32.0036</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.92627</v>
+        <v>13.4443</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6468</v>
+        <v>27.4724</v>
       </c>
       <c r="D5" t="n">
-        <v>13.4152</v>
+        <v>37.2296</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.382960000000001</v>
+        <v>15.9105</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2249</v>
+        <v>32.4041</v>
       </c>
       <c r="D6" t="n">
-        <v>16.1499</v>
+        <v>42.2175</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.149</v>
+        <v>18.6219</v>
       </c>
       <c r="C7" t="n">
-        <v>16.7883</v>
+        <v>37.7728</v>
       </c>
       <c r="D7" t="n">
-        <v>18.6178</v>
+        <v>48.7896</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4495</v>
+        <v>20.8707</v>
       </c>
       <c r="C8" t="n">
-        <v>19.0708</v>
+        <v>41.8769</v>
       </c>
       <c r="D8" t="n">
-        <v>21.5679</v>
+        <v>52.6226</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.407</v>
+        <v>23.3339</v>
       </c>
       <c r="C9" t="n">
-        <v>21.5898</v>
+        <v>44.4403</v>
       </c>
       <c r="D9" t="n">
-        <v>24.318</v>
+        <v>56.0509</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3992</v>
+        <v>22.1712</v>
       </c>
       <c r="C10" t="n">
-        <v>18.3377</v>
+        <v>43.6922</v>
       </c>
       <c r="D10" t="n">
-        <v>20.1531</v>
+        <v>53.9674</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4924</v>
+        <v>21.2633</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7552</v>
+        <v>44.6281</v>
       </c>
       <c r="D11" t="n">
-        <v>21.285</v>
+        <v>54.3601</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.34</v>
+        <v>21.8662</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0956</v>
+        <v>44.5275</v>
       </c>
       <c r="D12" t="n">
-        <v>22.53</v>
+        <v>56.4229</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5604</v>
+        <v>22.8666</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3994</v>
+        <v>45.5599</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4434</v>
+        <v>56.0345</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6295</v>
+        <v>22.1969</v>
       </c>
       <c r="C14" t="n">
-        <v>19.9081</v>
+        <v>45.5417</v>
       </c>
       <c r="D14" t="n">
-        <v>22.6923</v>
+        <v>53.2988</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.37</v>
+        <v>21.4592</v>
       </c>
       <c r="C15" t="n">
-        <v>20.7805</v>
+        <v>44.7764</v>
       </c>
       <c r="D15" t="n">
-        <v>23.209</v>
+        <v>53.6783</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2233</v>
+        <v>21.6217</v>
       </c>
       <c r="C16" t="n">
-        <v>20.981</v>
+        <v>45.3163</v>
       </c>
       <c r="D16" t="n">
-        <v>23.6797</v>
+        <v>51.1152</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.5425</v>
+        <v>21.1726</v>
       </c>
       <c r="C17" t="n">
-        <v>21.2495</v>
+        <v>42.1887</v>
       </c>
       <c r="D17" t="n">
-        <v>23.74</v>
+        <v>53.605</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.15154</v>
+        <v>3.82151</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72471</v>
+        <v>12.6225</v>
       </c>
       <c r="D2" t="n">
-        <v>3.94488</v>
+        <v>16.9127</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.66932</v>
+        <v>6.17301</v>
       </c>
       <c r="C3" t="n">
-        <v>6.56926</v>
+        <v>17.4841</v>
       </c>
       <c r="D3" t="n">
-        <v>7.23997</v>
+        <v>24.4612</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.25138</v>
+        <v>8.21801</v>
       </c>
       <c r="C4" t="n">
-        <v>9.46608</v>
+        <v>23.2837</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6498</v>
+        <v>33.819</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.72483</v>
+        <v>10.4571</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2455</v>
+        <v>28.9708</v>
       </c>
       <c r="D5" t="n">
-        <v>13.9859</v>
+        <v>42.7989</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.15654</v>
+        <v>12.4572</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9885</v>
+        <v>34.7918</v>
       </c>
       <c r="D6" t="n">
-        <v>17.3107</v>
+        <v>52.1855</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.5291</v>
+        <v>14.3457</v>
       </c>
       <c r="C7" t="n">
-        <v>17.6511</v>
+        <v>40.641</v>
       </c>
       <c r="D7" t="n">
-        <v>20.6166</v>
+        <v>60.8855</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.7543</v>
+        <v>16.2372</v>
       </c>
       <c r="C8" t="n">
-        <v>20.3422</v>
+        <v>46.2846</v>
       </c>
       <c r="D8" t="n">
-        <v>23.9378</v>
+        <v>69.3258</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4767</v>
+        <v>18.6503</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0174</v>
+        <v>55.0715</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2806</v>
+        <v>79.05329999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.9082</v>
+        <v>17.4942</v>
       </c>
       <c r="C10" t="n">
-        <v>22.509</v>
+        <v>48.9481</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0995</v>
+        <v>67.544</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7307</v>
+        <v>17.339</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1837</v>
+        <v>48.8464</v>
       </c>
       <c r="D11" t="n">
-        <v>24.8347</v>
+        <v>69.1263</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9686</v>
+        <v>17.65</v>
       </c>
       <c r="C12" t="n">
-        <v>22.6631</v>
+        <v>49.9228</v>
       </c>
       <c r="D12" t="n">
-        <v>25.5103</v>
+        <v>69.7658</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1796</v>
+        <v>17.9884</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9522</v>
+        <v>50.6492</v>
       </c>
       <c r="D13" t="n">
-        <v>26.1732</v>
+        <v>71.3695</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.6686</v>
+        <v>17.2482</v>
       </c>
       <c r="C14" t="n">
-        <v>22.1943</v>
+        <v>49.2017</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2855</v>
+        <v>69.5575</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1913</v>
+        <v>17.8761</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9317</v>
+        <v>49.9823</v>
       </c>
       <c r="D15" t="n">
-        <v>26.2504</v>
+        <v>70.0249</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0007</v>
+        <v>17.8543</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6657</v>
+        <v>50.6868</v>
       </c>
       <c r="D16" t="n">
-        <v>26.037</v>
+        <v>68.9829</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1626</v>
+        <v>17.9407</v>
       </c>
       <c r="C17" t="n">
-        <v>23.0372</v>
+        <v>49.6753</v>
       </c>
       <c r="D17" t="n">
-        <v>26.6371</v>
+        <v>68.9699</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20621</v>
+        <v>3.86638</v>
       </c>
       <c r="C2" t="n">
-        <v>3.72571</v>
+        <v>12.5923</v>
       </c>
       <c r="D2" t="n">
-        <v>3.94991</v>
+        <v>16.9597</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.81815</v>
+        <v>6.12266</v>
       </c>
       <c r="C3" t="n">
-        <v>6.53164</v>
+        <v>16.945</v>
       </c>
       <c r="D3" t="n">
-        <v>7.28002</v>
+        <v>23.9083</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.34263</v>
+        <v>8.46547</v>
       </c>
       <c r="C4" t="n">
-        <v>9.33902</v>
+        <v>22.6431</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5945</v>
+        <v>33.1573</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.81443</v>
+        <v>10.5601</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0915</v>
+        <v>28.279</v>
       </c>
       <c r="D5" t="n">
-        <v>13.9467</v>
+        <v>42.1662</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.219849999999999</v>
+        <v>12.5999</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7938</v>
+        <v>33.9662</v>
       </c>
       <c r="D6" t="n">
-        <v>17.2312</v>
+        <v>51.139</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.667540000000001</v>
+        <v>14.6507</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5179</v>
+        <v>39.4749</v>
       </c>
       <c r="D7" t="n">
-        <v>20.5156</v>
+        <v>60.1376</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0063</v>
+        <v>16.4447</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2174</v>
+        <v>45.5866</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8315</v>
+        <v>68.71040000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.7841</v>
+        <v>19.1502</v>
       </c>
       <c r="C9" t="n">
-        <v>23.663</v>
+        <v>53.5036</v>
       </c>
       <c r="D9" t="n">
-        <v>27.1198</v>
+        <v>78.56489999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.071</v>
+        <v>18.0965</v>
       </c>
       <c r="C10" t="n">
-        <v>22.0714</v>
+        <v>47.559</v>
       </c>
       <c r="D10" t="n">
-        <v>25.5766</v>
+        <v>68.6717</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.08</v>
+        <v>17.7998</v>
       </c>
       <c r="C11" t="n">
-        <v>21.7677</v>
+        <v>47.6002</v>
       </c>
       <c r="D11" t="n">
-        <v>25.0467</v>
+        <v>69.73260000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1636</v>
+        <v>17.8717</v>
       </c>
       <c r="C12" t="n">
-        <v>22.0704</v>
+        <v>48.5263</v>
       </c>
       <c r="D12" t="n">
-        <v>25.2263</v>
+        <v>69.45699999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4322</v>
+        <v>18.3826</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6387</v>
+        <v>50.0442</v>
       </c>
       <c r="D13" t="n">
-        <v>26.0401</v>
+        <v>70.10120000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8805</v>
+        <v>17.7199</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7892</v>
+        <v>49.0678</v>
       </c>
       <c r="D14" t="n">
-        <v>25.3792</v>
+        <v>68.3592</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3549</v>
+        <v>18.3293</v>
       </c>
       <c r="C15" t="n">
-        <v>22.7859</v>
+        <v>48.9918</v>
       </c>
       <c r="D15" t="n">
-        <v>26.096</v>
+        <v>69.5074</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3477</v>
+        <v>18.4326</v>
       </c>
       <c r="C16" t="n">
-        <v>22.7188</v>
+        <v>50.2961</v>
       </c>
       <c r="D16" t="n">
-        <v>26.2904</v>
+        <v>69.6204</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2107</v>
+        <v>17.9277</v>
       </c>
       <c r="C17" t="n">
-        <v>22.8</v>
+        <v>49.5758</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2304</v>
+        <v>69.18810000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12597</v>
+        <v>8.140409999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>3.99658</v>
+        <v>17.2203</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08749</v>
+        <v>20.2332</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.75264</v>
+        <v>9.460190000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>6.64741</v>
+        <v>18.7146</v>
       </c>
       <c r="D3" t="n">
-        <v>7.42568</v>
+        <v>26.2219</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.53759</v>
+        <v>11.6897</v>
       </c>
       <c r="C4" t="n">
-        <v>9.52351</v>
+        <v>24.4311</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9138</v>
+        <v>35.4487</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.9042</v>
+        <v>13.9374</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2482</v>
+        <v>30.4433</v>
       </c>
       <c r="D5" t="n">
-        <v>14.3105</v>
+        <v>43.8117</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.603109999999999</v>
+        <v>16.1076</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1159</v>
+        <v>36.3491</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6795</v>
+        <v>52.2078</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1802</v>
+        <v>18.4531</v>
       </c>
       <c r="C7" t="n">
-        <v>17.9384</v>
+        <v>42.9356</v>
       </c>
       <c r="D7" t="n">
-        <v>20.9887</v>
+        <v>60.0942</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6945</v>
+        <v>20.6288</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7072</v>
+        <v>49.4545</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3061</v>
+        <v>67.2581</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7278</v>
+        <v>23.5462</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0863</v>
+        <v>56.5671</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7833</v>
+        <v>75.1546</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0803</v>
+        <v>22.6352</v>
       </c>
       <c r="C10" t="n">
-        <v>22.6233</v>
+        <v>52.2733</v>
       </c>
       <c r="D10" t="n">
-        <v>25.6749</v>
+        <v>66.4644</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1547</v>
+        <v>22.3232</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1583</v>
+        <v>51.7841</v>
       </c>
       <c r="D11" t="n">
-        <v>25.6307</v>
+        <v>68.8999</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0013</v>
+        <v>22.759</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4744</v>
+        <v>53.1009</v>
       </c>
       <c r="D12" t="n">
-        <v>26.0816</v>
+        <v>69.83799999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2405</v>
+        <v>22.6824</v>
       </c>
       <c r="C13" t="n">
-        <v>23.197</v>
+        <v>53.4781</v>
       </c>
       <c r="D13" t="n">
-        <v>26.7084</v>
+        <v>70.8442</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6417</v>
+        <v>22.1583</v>
       </c>
       <c r="C14" t="n">
-        <v>22.3427</v>
+        <v>52.988</v>
       </c>
       <c r="D14" t="n">
-        <v>25.9685</v>
+        <v>70.9984</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9597</v>
+        <v>22.8969</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2837</v>
+        <v>53.9509</v>
       </c>
       <c r="D15" t="n">
-        <v>26.8618</v>
+        <v>71.7373</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0613</v>
+        <v>22.5335</v>
       </c>
       <c r="C16" t="n">
-        <v>23.4045</v>
+        <v>54.1786</v>
       </c>
       <c r="D16" t="n">
-        <v>27.0515</v>
+        <v>70.8344</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.0101</v>
+        <v>22.4063</v>
       </c>
       <c r="C17" t="n">
-        <v>23.4883</v>
+        <v>53.2749</v>
       </c>
       <c r="D17" t="n">
-        <v>27.0936</v>
+        <v>70.16500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.463649999999999</v>
+        <v>9.49732</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8855</v>
+        <v>13.8696</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7014</v>
+        <v>16.6919</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.98601</v>
+        <v>9.02093</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4278</v>
+        <v>10.4292</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0543</v>
+        <v>17.2353</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.981669999999999</v>
+        <v>10.7869</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3572</v>
+        <v>12.5425</v>
       </c>
       <c r="D4" t="n">
-        <v>21.3538</v>
+        <v>21.2899</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0144</v>
+        <v>12.5125</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7848</v>
+        <v>14.8908</v>
       </c>
       <c r="D5" t="n">
-        <v>25.5345</v>
+        <v>25.6188</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.3814</v>
+        <v>14.7872</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4198</v>
+        <v>17.4871</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3646</v>
+        <v>30.8809</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.9031</v>
+        <v>16.8769</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0327</v>
+        <v>20.1715</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5358</v>
+        <v>35.5022</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4109</v>
+        <v>18.4016</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5454</v>
+        <v>22.5603</v>
       </c>
       <c r="D8" t="n">
-        <v>38.2413</v>
+        <v>39.0014</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.513</v>
+        <v>21.6823</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3974</v>
+        <v>25.0939</v>
       </c>
       <c r="D9" t="n">
-        <v>42.5087</v>
+        <v>43.6371</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1197</v>
+        <v>18.422</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8481</v>
+        <v>24.4298</v>
       </c>
       <c r="D10" t="n">
-        <v>40.6991</v>
+        <v>42.5156</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7251</v>
+        <v>18.6654</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5001</v>
+        <v>23.5953</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4653</v>
+        <v>41.0855</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.1617</v>
+        <v>18.9813</v>
       </c>
       <c r="C12" t="n">
-        <v>23.911</v>
+        <v>23.7955</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9678</v>
+        <v>40.2582</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6423</v>
+        <v>19.7563</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7492</v>
+        <v>24.7637</v>
       </c>
       <c r="D13" t="n">
-        <v>41.8411</v>
+        <v>42.1218</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0453</v>
+        <v>19.0816</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3019</v>
+        <v>25.3039</v>
       </c>
       <c r="D14" t="n">
-        <v>42.8597</v>
+        <v>42.2308</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1392</v>
+        <v>19.0704</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1937</v>
+        <v>26.0966</v>
       </c>
       <c r="D15" t="n">
-        <v>42.1255</v>
+        <v>43.3769</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1836</v>
+        <v>19.3875</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5417</v>
+        <v>26.4306</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2076</v>
+        <v>44.5895</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0968</v>
+        <v>19.6227</v>
       </c>
       <c r="C17" t="n">
-        <v>27.232</v>
+        <v>27.4516</v>
       </c>
       <c r="D17" t="n">
-        <v>43.371</v>
+        <v>45.099</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1297</v>
+        <v>10.0645</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7581</v>
+        <v>13.7227</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6382</v>
+        <v>16.5698</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.59948</v>
+        <v>9.443619999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6574</v>
+        <v>10.6063</v>
       </c>
       <c r="D3" t="n">
-        <v>16.9961</v>
+        <v>17.2277</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2127</v>
+        <v>11.1244</v>
       </c>
       <c r="C4" t="n">
-        <v>12.29</v>
+        <v>12.3468</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1811</v>
+        <v>21.1067</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0019</v>
+        <v>13.0003</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7002</v>
+        <v>14.8103</v>
       </c>
       <c r="D5" t="n">
-        <v>24.8223</v>
+        <v>24.7012</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1411</v>
+        <v>15.1331</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1653</v>
+        <v>17.2332</v>
       </c>
       <c r="D6" t="n">
-        <v>30.486</v>
+        <v>29.5884</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.4272</v>
+        <v>17.3307</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1562</v>
+        <v>20.1639</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2206</v>
+        <v>34.3722</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0417</v>
+        <v>19.086</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0758</v>
+        <v>22.2957</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5841</v>
+        <v>38.7973</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4578</v>
+        <v>22.3966</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6849</v>
+        <v>25.0507</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1683</v>
+        <v>42.5592</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4236</v>
+        <v>19.3249</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4698</v>
+        <v>23.9816</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2771</v>
+        <v>41.1292</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.5267</v>
+        <v>19.3991</v>
       </c>
       <c r="C11" t="n">
-        <v>23.77</v>
+        <v>23.6769</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7277</v>
+        <v>40.4734</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.5095</v>
+        <v>19.7411</v>
       </c>
       <c r="C12" t="n">
-        <v>23.916</v>
+        <v>24.0389</v>
       </c>
       <c r="D12" t="n">
-        <v>39.8927</v>
+        <v>39.4859</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3484</v>
+        <v>20.1985</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6642</v>
+        <v>24.9598</v>
       </c>
       <c r="D13" t="n">
-        <v>41.163</v>
+        <v>42.5602</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0762</v>
+        <v>20.0025</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4498</v>
+        <v>25.4401</v>
       </c>
       <c r="D14" t="n">
-        <v>40.6162</v>
+        <v>41.6084</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7946</v>
+        <v>19.9784</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1717</v>
+        <v>25.9967</v>
       </c>
       <c r="D15" t="n">
-        <v>42.0388</v>
+        <v>43.4633</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.401</v>
+        <v>20.2299</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7347</v>
+        <v>26.6444</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2198</v>
+        <v>39.5165</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.236</v>
+        <v>20.0558</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3526</v>
+        <v>27.4991</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4697</v>
+        <v>41.5167</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6934</v>
+        <v>12.7095</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1989</v>
+        <v>15.2129</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4089</v>
+        <v>18.4975</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.7557</v>
+        <v>10.5955</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2106</v>
+        <v>11.6157</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4313</v>
+        <v>18.3669</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2033</v>
+        <v>12.2474</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7775</v>
+        <v>13.7541</v>
       </c>
       <c r="D4" t="n">
-        <v>22.8221</v>
+        <v>22.8743</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2947</v>
+        <v>14.236</v>
       </c>
       <c r="C5" t="n">
-        <v>16.5426</v>
+        <v>16.5867</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0161</v>
+        <v>27.3605</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.7382</v>
+        <v>16.5059</v>
       </c>
       <c r="C6" t="n">
-        <v>19.038</v>
+        <v>19.58</v>
       </c>
       <c r="D6" t="n">
-        <v>32.4843</v>
+        <v>31.7597</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1075</v>
+        <v>18.9096</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0435</v>
+        <v>22.3767</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1086</v>
+        <v>37.5389</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8477</v>
+        <v>20.8531</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0823</v>
+        <v>24.9669</v>
       </c>
       <c r="D8" t="n">
-        <v>39.4541</v>
+        <v>40.4607</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2557</v>
+        <v>23.2775</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3991</v>
+        <v>27.4</v>
       </c>
       <c r="D9" t="n">
-        <v>45.4089</v>
+        <v>45.6125</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.236</v>
+        <v>22.2911</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4869</v>
+        <v>26.4885</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7395</v>
+        <v>43.9027</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0539</v>
+        <v>21.0984</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4648</v>
+        <v>25.4874</v>
       </c>
       <c r="D11" t="n">
-        <v>42.3998</v>
+        <v>44.226</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6377</v>
+        <v>21.4963</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7572</v>
+        <v>25.6266</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1384</v>
+        <v>43.6938</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5871</v>
+        <v>22.6626</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0977</v>
+        <v>26.283</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9386</v>
+        <v>44.8931</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.028</v>
+        <v>22.0348</v>
       </c>
       <c r="C14" t="n">
-        <v>26.7199</v>
+        <v>26.8808</v>
       </c>
       <c r="D14" t="n">
-        <v>44.852</v>
+        <v>45.0951</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5007</v>
+        <v>21.9456</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6714</v>
+        <v>27.6245</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1527</v>
+        <v>43.812</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4425</v>
+        <v>21.7691</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3356</v>
+        <v>28.2648</v>
       </c>
       <c r="D16" t="n">
-        <v>43.8736</v>
+        <v>45.9711</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4882</v>
+        <v>21.4017</v>
       </c>
       <c r="C17" t="n">
-        <v>29.123</v>
+        <v>29.136</v>
       </c>
       <c r="D17" t="n">
-        <v>44.1119</v>
+        <v>45.4998</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.83778</v>
+        <v>3.90508</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7046</v>
+        <v>10.7224</v>
       </c>
       <c r="D2" t="n">
-        <v>12.668</v>
+        <v>12.7004</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11839</v>
+        <v>6.05329</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3223</v>
+        <v>10.1312</v>
       </c>
       <c r="D3" t="n">
-        <v>17.4422</v>
+        <v>17.2558</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.35191</v>
+        <v>8.403040000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4827</v>
+        <v>12.5848</v>
       </c>
       <c r="D4" t="n">
-        <v>23.4546</v>
+        <v>23.3718</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3926</v>
+        <v>10.4546</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9644</v>
+        <v>14.9801</v>
       </c>
       <c r="D5" t="n">
-        <v>29.113</v>
+        <v>29.1083</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.48</v>
+        <v>12.5312</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6236</v>
+        <v>17.6342</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3649</v>
+        <v>34.6302</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3191</v>
+        <v>14.4335</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2807</v>
+        <v>20.3646</v>
       </c>
       <c r="D7" t="n">
-        <v>40.1132</v>
+        <v>40.6348</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2124</v>
+        <v>16.2252</v>
       </c>
       <c r="C8" t="n">
-        <v>23.162</v>
+        <v>23.4536</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4489</v>
+        <v>45.6496</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7033</v>
+        <v>18.7628</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5956</v>
+        <v>26.934</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1343</v>
+        <v>53.9533</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5335</v>
+        <v>17.8679</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7194</v>
+        <v>25.1458</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5848</v>
+        <v>49.5624</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4978</v>
+        <v>17.7606</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7949</v>
+        <v>25.0976</v>
       </c>
       <c r="D11" t="n">
-        <v>48.1011</v>
+        <v>48.6648</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5705</v>
+        <v>17.5607</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3166</v>
+        <v>25.0987</v>
       </c>
       <c r="D12" t="n">
-        <v>49.083</v>
+        <v>50.4821</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8605</v>
+        <v>18.1019</v>
       </c>
       <c r="C13" t="n">
-        <v>25.156</v>
+        <v>25.2888</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1142</v>
+        <v>50.6133</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3953</v>
+        <v>17.299</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5589</v>
+        <v>25.5748</v>
       </c>
       <c r="D14" t="n">
-        <v>50.0934</v>
+        <v>49.5639</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8491</v>
+        <v>18.003</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8853</v>
+        <v>25.9796</v>
       </c>
       <c r="D15" t="n">
-        <v>49.3036</v>
+        <v>50.5162</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7137</v>
+        <v>18.0246</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5137</v>
+        <v>26.664</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6737</v>
+        <v>50.434</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6483</v>
+        <v>17.9437</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1202</v>
+        <v>27.221</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0202</v>
+        <v>50.7915</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.91544</v>
+        <v>3.86665</v>
       </c>
       <c r="C2" t="n">
-        <v>10.803</v>
+        <v>10.7817</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6099</v>
+        <v>12.5447</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.29633</v>
+        <v>6.08706</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4465</v>
+        <v>10.1582</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1807</v>
+        <v>16.9292</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.35943</v>
+        <v>8.52041</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5148</v>
+        <v>12.5295</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5502</v>
+        <v>22.822</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6118</v>
+        <v>10.5355</v>
       </c>
       <c r="C5" t="n">
-        <v>14.986</v>
+        <v>14.9939</v>
       </c>
       <c r="D5" t="n">
-        <v>27.9974</v>
+        <v>28.0917</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4525</v>
+        <v>12.6757</v>
       </c>
       <c r="C6" t="n">
-        <v>17.597</v>
+        <v>17.6577</v>
       </c>
       <c r="D6" t="n">
-        <v>33.482</v>
+        <v>33.6796</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4776</v>
+        <v>14.6318</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3375</v>
+        <v>20.4168</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3379</v>
+        <v>39.1842</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6098</v>
+        <v>16.5982</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3502</v>
+        <v>23.4421</v>
       </c>
       <c r="D8" t="n">
-        <v>44.969</v>
+        <v>45.3503</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9794</v>
+        <v>19.0828</v>
       </c>
       <c r="C9" t="n">
-        <v>26.74</v>
+        <v>26.8064</v>
       </c>
       <c r="D9" t="n">
-        <v>53.5053</v>
+        <v>53.262</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1469</v>
+        <v>18.0942</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8133</v>
+        <v>24.9357</v>
       </c>
       <c r="D10" t="n">
-        <v>48.98</v>
+        <v>48.2184</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8044</v>
+        <v>17.7915</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7978</v>
+        <v>24.7617</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0834</v>
+        <v>48.1218</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9827</v>
+        <v>17.9305</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9504</v>
+        <v>24.9224</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0247</v>
+        <v>48.4499</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3916</v>
+        <v>18.4356</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2072</v>
+        <v>25.2465</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5218</v>
+        <v>48.9897</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5976</v>
+        <v>17.6654</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4284</v>
+        <v>25.4979</v>
       </c>
       <c r="D14" t="n">
-        <v>48.2318</v>
+        <v>48.0105</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4211</v>
+        <v>18.5193</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9063</v>
+        <v>25.9696</v>
       </c>
       <c r="D15" t="n">
-        <v>48.7327</v>
+        <v>49.0455</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1571</v>
+        <v>18.1296</v>
       </c>
       <c r="C16" t="n">
-        <v>26.3642</v>
+        <v>26.5963</v>
       </c>
       <c r="D16" t="n">
-        <v>49.5283</v>
+        <v>48.528</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.011</v>
+        <v>18.2062</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0933</v>
+        <v>27.1508</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1686</v>
+        <v>48.9497</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.273059999999999</v>
+        <v>8.20256</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1914</v>
+        <v>14.185</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2495</v>
+        <v>17.3391</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.18845</v>
+        <v>9.52576</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3095</v>
+        <v>11.5033</v>
       </c>
       <c r="D3" t="n">
-        <v>18.724</v>
+        <v>18.6297</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5835</v>
+        <v>11.6669</v>
       </c>
       <c r="C4" t="n">
-        <v>13.1207</v>
+        <v>13.5821</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2348</v>
+        <v>24.3084</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7591</v>
+        <v>13.8429</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4605</v>
+        <v>16.0598</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9673</v>
+        <v>30.0325</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0079</v>
+        <v>16.0283</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5754</v>
+        <v>18.9307</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1123</v>
+        <v>35.8905</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.204</v>
+        <v>18.3814</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7592</v>
+        <v>21.7638</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1149</v>
+        <v>42.2579</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5622</v>
+        <v>20.6858</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9349</v>
+        <v>24.7419</v>
       </c>
       <c r="D8" t="n">
-        <v>48.6793</v>
+        <v>49.0597</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5783</v>
+        <v>23.6978</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6273</v>
+        <v>27.4913</v>
       </c>
       <c r="D9" t="n">
-        <v>55.2143</v>
+        <v>56.5055</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5966</v>
+        <v>22.5016</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3958</v>
+        <v>26.1801</v>
       </c>
       <c r="D10" t="n">
-        <v>53.1256</v>
+        <v>53.3612</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3107</v>
+        <v>22.4844</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8672</v>
+        <v>26.0628</v>
       </c>
       <c r="D11" t="n">
-        <v>52.4091</v>
+        <v>51.8517</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5696</v>
+        <v>22.7621</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2418</v>
+        <v>26.5869</v>
       </c>
       <c r="D12" t="n">
-        <v>52.8961</v>
+        <v>53.8398</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4502</v>
+        <v>23.0435</v>
       </c>
       <c r="C13" t="n">
-        <v>26.5894</v>
+        <v>27.066</v>
       </c>
       <c r="D13" t="n">
-        <v>54.104</v>
+        <v>54.262</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3008</v>
+        <v>22.1733</v>
       </c>
       <c r="C14" t="n">
-        <v>26.3844</v>
+        <v>27.5011</v>
       </c>
       <c r="D14" t="n">
-        <v>53.5917</v>
+        <v>53.7071</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.6875</v>
+        <v>23.1052</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9873</v>
+        <v>28.1788</v>
       </c>
       <c r="D15" t="n">
-        <v>53.4573</v>
+        <v>54.5077</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.5613</v>
+        <v>22.9562</v>
       </c>
       <c r="C16" t="n">
-        <v>27.8026</v>
+        <v>28.9431</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8617</v>
+        <v>54.5974</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3757</v>
+        <v>23.1998</v>
       </c>
       <c r="C17" t="n">
-        <v>28.4431</v>
+        <v>29.766</v>
       </c>
       <c r="D17" t="n">
-        <v>55.3355</v>
+        <v>54.4865</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38721</v>
+        <v>9.157209999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6965</v>
+        <v>16.6744</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6594</v>
+        <v>19.6206</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.21519</v>
+        <v>9.272220000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5686</v>
+        <v>17.6693</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9462</v>
+        <v>22.638</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8278</v>
+        <v>10.8508</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9699</v>
+        <v>21.2673</v>
       </c>
       <c r="D4" t="n">
-        <v>30.4537</v>
+        <v>28.629</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5331</v>
+        <v>12.5445</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5282</v>
+        <v>25.8916</v>
       </c>
       <c r="D5" t="n">
-        <v>37.4877</v>
+        <v>36.1255</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5806</v>
+        <v>14.5278</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6907</v>
+        <v>30.2968</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9762</v>
+        <v>41.2149</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8188</v>
+        <v>16.8561</v>
       </c>
       <c r="C7" t="n">
-        <v>37.2518</v>
+        <v>34.9432</v>
       </c>
       <c r="D7" t="n">
-        <v>51.0981</v>
+        <v>46.225</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.444</v>
+        <v>18.3429</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3838</v>
+        <v>38.8179</v>
       </c>
       <c r="D8" t="n">
-        <v>56.9356</v>
+        <v>50.8518</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5602</v>
+        <v>21.5165</v>
       </c>
       <c r="C9" t="n">
-        <v>46.9549</v>
+        <v>43.1088</v>
       </c>
       <c r="D9" t="n">
-        <v>62.6696</v>
+        <v>56.3997</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.4222</v>
+        <v>18.3646</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0687</v>
+        <v>40.0672</v>
       </c>
       <c r="D10" t="n">
-        <v>57.2494</v>
+        <v>55.2471</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3592</v>
+        <v>18.6963</v>
       </c>
       <c r="C11" t="n">
-        <v>41.2963</v>
+        <v>40.5921</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9508</v>
+        <v>52.3887</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2185</v>
+        <v>19.0988</v>
       </c>
       <c r="C12" t="n">
-        <v>41.9579</v>
+        <v>39.6019</v>
       </c>
       <c r="D12" t="n">
-        <v>56.74</v>
+        <v>55.854</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7491</v>
+        <v>19.6638</v>
       </c>
       <c r="C13" t="n">
-        <v>43.2876</v>
+        <v>42.0764</v>
       </c>
       <c r="D13" t="n">
-        <v>58.9627</v>
+        <v>55.7026</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3383</v>
+        <v>19.1833</v>
       </c>
       <c r="C14" t="n">
-        <v>44.1191</v>
+        <v>41.735</v>
       </c>
       <c r="D14" t="n">
-        <v>59.0097</v>
+        <v>59.7256</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0436</v>
+        <v>19.3421</v>
       </c>
       <c r="C15" t="n">
-        <v>43.9679</v>
+        <v>42.6275</v>
       </c>
       <c r="D15" t="n">
-        <v>62.0626</v>
+        <v>58.0891</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.9978</v>
+        <v>19.3572</v>
       </c>
       <c r="C16" t="n">
-        <v>44.4971</v>
+        <v>42.4024</v>
       </c>
       <c r="D16" t="n">
-        <v>62.582</v>
+        <v>61.5256</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.087</v>
+        <v>19.0473</v>
       </c>
       <c r="C17" t="n">
-        <v>42.76</v>
+        <v>42.5406</v>
       </c>
       <c r="D17" t="n">
-        <v>62.476</v>
+        <v>57.6411</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0443</v>
+        <v>10.1459</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6041</v>
+        <v>16.5636</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5169</v>
+        <v>19.4847</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.48386</v>
+        <v>9.276870000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>17.412</v>
+        <v>16.8123</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0968</v>
+        <v>22.3664</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1496</v>
+        <v>11.1346</v>
       </c>
       <c r="C4" t="n">
-        <v>21.5843</v>
+        <v>21.1495</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1424</v>
+        <v>28.2962</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9747</v>
+        <v>12.9605</v>
       </c>
       <c r="C5" t="n">
-        <v>25.7312</v>
+        <v>24.9497</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1212</v>
+        <v>33.8768</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0124</v>
+        <v>15.1059</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2251</v>
+        <v>29.8672</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0431</v>
+        <v>40.9793</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.3214</v>
+        <v>17.3924</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5961</v>
+        <v>34.8893</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9407</v>
+        <v>45.7146</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9766</v>
+        <v>18.9988</v>
       </c>
       <c r="C8" t="n">
-        <v>39.3537</v>
+        <v>38.4961</v>
       </c>
       <c r="D8" t="n">
-        <v>55.0863</v>
+        <v>50.4582</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.549</v>
+        <v>22.3729</v>
       </c>
       <c r="C9" t="n">
-        <v>44.4953</v>
+        <v>41.3202</v>
       </c>
       <c r="D9" t="n">
-        <v>61.8361</v>
+        <v>55.972</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2947</v>
+        <v>19.7398</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3684</v>
+        <v>40.2957</v>
       </c>
       <c r="D10" t="n">
-        <v>54.4343</v>
+        <v>51.6527</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2116</v>
+        <v>19.3618</v>
       </c>
       <c r="C11" t="n">
-        <v>41.9133</v>
+        <v>40.7214</v>
       </c>
       <c r="D11" t="n">
-        <v>56.1389</v>
+        <v>54.297</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.8019</v>
+        <v>20.0184</v>
       </c>
       <c r="C12" t="n">
-        <v>42.0092</v>
+        <v>41.4278</v>
       </c>
       <c r="D12" t="n">
-        <v>56.0585</v>
+        <v>52.7134</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2542</v>
+        <v>20.0065</v>
       </c>
       <c r="C13" t="n">
-        <v>43.4276</v>
+        <v>42.5799</v>
       </c>
       <c r="D13" t="n">
-        <v>59.9335</v>
+        <v>55.0344</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8199</v>
+        <v>20.2405</v>
       </c>
       <c r="C14" t="n">
-        <v>42.0113</v>
+        <v>42.7134</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6287</v>
+        <v>56.1764</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1706</v>
+        <v>19.9818</v>
       </c>
       <c r="C15" t="n">
-        <v>42.1116</v>
+        <v>40.5451</v>
       </c>
       <c r="D15" t="n">
-        <v>59.1139</v>
+        <v>58.0193</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8588</v>
+        <v>19.7899</v>
       </c>
       <c r="C16" t="n">
-        <v>41.9262</v>
+        <v>43.5606</v>
       </c>
       <c r="D16" t="n">
-        <v>59.9149</v>
+        <v>60.868</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7691</v>
+        <v>20.3186</v>
       </c>
       <c r="C17" t="n">
-        <v>41.6168</v>
+        <v>41.2333</v>
       </c>
       <c r="D17" t="n">
-        <v>58.4779</v>
+        <v>57.6465</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6747</v>
+        <v>12.7191</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3935</v>
+        <v>18.5442</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4987</v>
+        <v>20.5192</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3194</v>
+        <v>10.7942</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3978</v>
+        <v>18.5822</v>
       </c>
       <c r="D3" t="n">
-        <v>23.995</v>
+        <v>24.2983</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2352</v>
+        <v>12.3895</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1826</v>
+        <v>22.7322</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0036</v>
+        <v>31.0958</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.4443</v>
+        <v>14.1915</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4724</v>
+        <v>27.9665</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2296</v>
+        <v>36.8913</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9105</v>
+        <v>16.6493</v>
       </c>
       <c r="C6" t="n">
-        <v>32.4041</v>
+        <v>32.2907</v>
       </c>
       <c r="D6" t="n">
-        <v>42.2175</v>
+        <v>42.5521</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.6219</v>
+        <v>18.8693</v>
       </c>
       <c r="C7" t="n">
-        <v>37.7728</v>
+        <v>37.4658</v>
       </c>
       <c r="D7" t="n">
-        <v>48.7896</v>
+        <v>46.9266</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8707</v>
+        <v>20.905</v>
       </c>
       <c r="C8" t="n">
-        <v>41.8769</v>
+        <v>41.3669</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6226</v>
+        <v>50.9969</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3339</v>
+        <v>23.3828</v>
       </c>
       <c r="C9" t="n">
-        <v>44.4403</v>
+        <v>44.9601</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0509</v>
+        <v>54.9652</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1712</v>
+        <v>22.2087</v>
       </c>
       <c r="C10" t="n">
-        <v>43.6922</v>
+        <v>44.1184</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9674</v>
+        <v>53.2219</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2633</v>
+        <v>21.3406</v>
       </c>
       <c r="C11" t="n">
-        <v>44.6281</v>
+        <v>42.5228</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3601</v>
+        <v>51.9736</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8662</v>
+        <v>21.8386</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5275</v>
+        <v>44.2013</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4229</v>
+        <v>52.6328</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8666</v>
+        <v>22.6574</v>
       </c>
       <c r="C13" t="n">
-        <v>45.5599</v>
+        <v>45.6067</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0345</v>
+        <v>55.0545</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1969</v>
+        <v>22.439</v>
       </c>
       <c r="C14" t="n">
-        <v>45.5417</v>
+        <v>45.294</v>
       </c>
       <c r="D14" t="n">
-        <v>53.2988</v>
+        <v>53.6336</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4592</v>
+        <v>21.704</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7764</v>
+        <v>46.0745</v>
       </c>
       <c r="D15" t="n">
-        <v>53.6783</v>
+        <v>53.5909</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6217</v>
+        <v>21.7833</v>
       </c>
       <c r="C16" t="n">
-        <v>45.3163</v>
+        <v>44.6056</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1152</v>
+        <v>53.646</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1726</v>
+        <v>20.8212</v>
       </c>
       <c r="C17" t="n">
-        <v>42.1887</v>
+        <v>45.8778</v>
       </c>
       <c r="D17" t="n">
-        <v>53.605</v>
+        <v>49.6543</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.82151</v>
+        <v>3.92984</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6225</v>
+        <v>12.7026</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9127</v>
+        <v>16.9655</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.17301</v>
+        <v>6.05202</v>
       </c>
       <c r="C3" t="n">
-        <v>17.4841</v>
+        <v>17.1679</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4612</v>
+        <v>24.1192</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.21801</v>
+        <v>8.35309</v>
       </c>
       <c r="C4" t="n">
-        <v>23.2837</v>
+        <v>23.0353</v>
       </c>
       <c r="D4" t="n">
-        <v>33.819</v>
+        <v>33.523</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4571</v>
+        <v>10.3493</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9708</v>
+        <v>28.5067</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7989</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4572</v>
+        <v>12.5724</v>
       </c>
       <c r="C6" t="n">
-        <v>34.7918</v>
+        <v>33.6706</v>
       </c>
       <c r="D6" t="n">
-        <v>52.1855</v>
+        <v>51.1099</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3457</v>
+        <v>14.3841</v>
       </c>
       <c r="C7" t="n">
-        <v>40.641</v>
+        <v>39.9319</v>
       </c>
       <c r="D7" t="n">
-        <v>60.8855</v>
+        <v>59.5081</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2372</v>
+        <v>16.2513</v>
       </c>
       <c r="C8" t="n">
-        <v>46.2846</v>
+        <v>45.2227</v>
       </c>
       <c r="D8" t="n">
-        <v>69.3258</v>
+        <v>68.7488</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6503</v>
+        <v>18.5705</v>
       </c>
       <c r="C9" t="n">
-        <v>55.0715</v>
+        <v>53.6522</v>
       </c>
       <c r="D9" t="n">
-        <v>79.05329999999999</v>
+        <v>77.14709999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4942</v>
+        <v>17.5829</v>
       </c>
       <c r="C10" t="n">
-        <v>48.9481</v>
+        <v>49.1497</v>
       </c>
       <c r="D10" t="n">
-        <v>67.544</v>
+        <v>66.65940000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.339</v>
+        <v>17.1601</v>
       </c>
       <c r="C11" t="n">
-        <v>48.8464</v>
+        <v>48.0053</v>
       </c>
       <c r="D11" t="n">
-        <v>69.1263</v>
+        <v>68.0886</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.65</v>
+        <v>17.666</v>
       </c>
       <c r="C12" t="n">
-        <v>49.9228</v>
+        <v>49.396</v>
       </c>
       <c r="D12" t="n">
-        <v>69.7658</v>
+        <v>68.2774</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9884</v>
+        <v>17.9609</v>
       </c>
       <c r="C13" t="n">
-        <v>50.6492</v>
+        <v>50.1783</v>
       </c>
       <c r="D13" t="n">
-        <v>71.3695</v>
+        <v>70.69450000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2482</v>
+        <v>17.2697</v>
       </c>
       <c r="C14" t="n">
-        <v>49.2017</v>
+        <v>48.6278</v>
       </c>
       <c r="D14" t="n">
-        <v>69.5575</v>
+        <v>69.6811</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8761</v>
+        <v>18.1191</v>
       </c>
       <c r="C15" t="n">
-        <v>49.9823</v>
+        <v>49.8397</v>
       </c>
       <c r="D15" t="n">
-        <v>70.0249</v>
+        <v>69.7564</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8543</v>
+        <v>17.9054</v>
       </c>
       <c r="C16" t="n">
-        <v>50.6868</v>
+        <v>50.2719</v>
       </c>
       <c r="D16" t="n">
-        <v>68.9829</v>
+        <v>70.70269999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9407</v>
+        <v>18.0589</v>
       </c>
       <c r="C17" t="n">
-        <v>49.6753</v>
+        <v>50.0948</v>
       </c>
       <c r="D17" t="n">
-        <v>68.9699</v>
+        <v>72.2403</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.86638</v>
+        <v>3.90148</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5923</v>
+        <v>12.5745</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9597</v>
+        <v>16.956</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12266</v>
+        <v>6.10142</v>
       </c>
       <c r="C3" t="n">
-        <v>16.945</v>
+        <v>16.9345</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9083</v>
+        <v>23.9044</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.46547</v>
+        <v>8.40119</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6431</v>
+        <v>22.3356</v>
       </c>
       <c r="D4" t="n">
-        <v>33.1573</v>
+        <v>33.001</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5601</v>
+        <v>10.5112</v>
       </c>
       <c r="C5" t="n">
-        <v>28.279</v>
+        <v>28.0287</v>
       </c>
       <c r="D5" t="n">
-        <v>42.1662</v>
+        <v>41.8721</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5999</v>
+        <v>12.5721</v>
       </c>
       <c r="C6" t="n">
-        <v>33.9662</v>
+        <v>33.7877</v>
       </c>
       <c r="D6" t="n">
-        <v>51.139</v>
+        <v>50.7245</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6507</v>
+        <v>14.5924</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4749</v>
+        <v>39.6976</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1376</v>
+        <v>59.2196</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4447</v>
+        <v>16.4565</v>
       </c>
       <c r="C8" t="n">
-        <v>45.5866</v>
+        <v>44.5772</v>
       </c>
       <c r="D8" t="n">
-        <v>68.71040000000001</v>
+        <v>67.8561</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1502</v>
+        <v>18.9449</v>
       </c>
       <c r="C9" t="n">
-        <v>53.5036</v>
+        <v>52.6669</v>
       </c>
       <c r="D9" t="n">
-        <v>78.56489999999999</v>
+        <v>76.4522</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0965</v>
+        <v>18.1176</v>
       </c>
       <c r="C10" t="n">
-        <v>47.559</v>
+        <v>48.4606</v>
       </c>
       <c r="D10" t="n">
-        <v>68.6717</v>
+        <v>66.3502</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7998</v>
+        <v>18.0739</v>
       </c>
       <c r="C11" t="n">
-        <v>47.6002</v>
+        <v>47.2173</v>
       </c>
       <c r="D11" t="n">
-        <v>69.73260000000001</v>
+        <v>67.3921</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8717</v>
+        <v>17.9883</v>
       </c>
       <c r="C12" t="n">
-        <v>48.5263</v>
+        <v>48.4421</v>
       </c>
       <c r="D12" t="n">
-        <v>69.45699999999999</v>
+        <v>67.67270000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3826</v>
+        <v>18.1732</v>
       </c>
       <c r="C13" t="n">
-        <v>50.0442</v>
+        <v>49.2766</v>
       </c>
       <c r="D13" t="n">
-        <v>70.10120000000001</v>
+        <v>69.9735</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7199</v>
+        <v>17.6468</v>
       </c>
       <c r="C14" t="n">
-        <v>49.0678</v>
+        <v>47.4754</v>
       </c>
       <c r="D14" t="n">
-        <v>68.3592</v>
+        <v>68.68770000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3293</v>
+        <v>18.3608</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9918</v>
+        <v>48.9085</v>
       </c>
       <c r="D15" t="n">
-        <v>69.5074</v>
+        <v>68.7771</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.4326</v>
+        <v>18.3333</v>
       </c>
       <c r="C16" t="n">
-        <v>50.2961</v>
+        <v>49.3056</v>
       </c>
       <c r="D16" t="n">
-        <v>69.6204</v>
+        <v>70.0244</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9277</v>
+        <v>18.3102</v>
       </c>
       <c r="C17" t="n">
-        <v>49.5758</v>
+        <v>49.2224</v>
       </c>
       <c r="D17" t="n">
-        <v>69.18810000000001</v>
+        <v>70.1671</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.140409999999999</v>
+        <v>8.03961</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2203</v>
+        <v>17.3076</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2332</v>
+        <v>20.2628</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.460190000000001</v>
+        <v>9.394349999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7146</v>
+        <v>18.9208</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2219</v>
+        <v>26.2018</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6897</v>
+        <v>11.6049</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4311</v>
+        <v>24.446</v>
       </c>
       <c r="D4" t="n">
-        <v>35.4487</v>
+        <v>35.4843</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.9374</v>
+        <v>13.915</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4433</v>
+        <v>30.2804</v>
       </c>
       <c r="D5" t="n">
-        <v>43.8117</v>
+        <v>43.9823</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.1076</v>
+        <v>16.0854</v>
       </c>
       <c r="C6" t="n">
-        <v>36.3491</v>
+        <v>36.3122</v>
       </c>
       <c r="D6" t="n">
-        <v>52.2078</v>
+        <v>52.1583</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.4531</v>
+        <v>18.2727</v>
       </c>
       <c r="C7" t="n">
-        <v>42.9356</v>
+        <v>42.5952</v>
       </c>
       <c r="D7" t="n">
-        <v>60.0942</v>
+        <v>59.8791</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6288</v>
+        <v>20.6321</v>
       </c>
       <c r="C8" t="n">
-        <v>49.4545</v>
+        <v>49.1843</v>
       </c>
       <c r="D8" t="n">
-        <v>67.2581</v>
+        <v>66.732</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5462</v>
+        <v>23.6324</v>
       </c>
       <c r="C9" t="n">
-        <v>56.5671</v>
+        <v>56.6004</v>
       </c>
       <c r="D9" t="n">
-        <v>75.1546</v>
+        <v>74.2162</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.6352</v>
+        <v>22.8567</v>
       </c>
       <c r="C10" t="n">
-        <v>52.2733</v>
+        <v>52.4059</v>
       </c>
       <c r="D10" t="n">
-        <v>66.4644</v>
+        <v>67.5391</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3232</v>
+        <v>22.5911</v>
       </c>
       <c r="C11" t="n">
-        <v>51.7841</v>
+        <v>52.6922</v>
       </c>
       <c r="D11" t="n">
-        <v>68.8999</v>
+        <v>69.3154</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.759</v>
+        <v>22.6729</v>
       </c>
       <c r="C12" t="n">
-        <v>53.1009</v>
+        <v>52.7362</v>
       </c>
       <c r="D12" t="n">
-        <v>69.83799999999999</v>
+        <v>70.6508</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6824</v>
+        <v>22.9966</v>
       </c>
       <c r="C13" t="n">
-        <v>53.4781</v>
+        <v>54.5701</v>
       </c>
       <c r="D13" t="n">
-        <v>70.8442</v>
+        <v>69.5622</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1583</v>
+        <v>22.3144</v>
       </c>
       <c r="C14" t="n">
-        <v>52.988</v>
+        <v>53.1494</v>
       </c>
       <c r="D14" t="n">
-        <v>70.9984</v>
+        <v>71.44540000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8969</v>
+        <v>23.0586</v>
       </c>
       <c r="C15" t="n">
-        <v>53.9509</v>
+        <v>54.3444</v>
       </c>
       <c r="D15" t="n">
-        <v>71.7373</v>
+        <v>72.0718</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.5335</v>
+        <v>22.9714</v>
       </c>
       <c r="C16" t="n">
-        <v>54.1786</v>
+        <v>54.5282</v>
       </c>
       <c r="D16" t="n">
-        <v>70.8344</v>
+        <v>71.5365</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4063</v>
+        <v>22.8034</v>
       </c>
       <c r="C17" t="n">
-        <v>53.2749</v>
+        <v>54.7511</v>
       </c>
       <c r="D17" t="n">
-        <v>70.16500000000001</v>
+        <v>70.9897</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.157209999999999</v>
+        <v>9.508380000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6744</v>
+        <v>16.7227</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6206</v>
+        <v>19.6522</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.272220000000001</v>
+        <v>9.273720000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6693</v>
+        <v>17.4284</v>
       </c>
       <c r="D3" t="n">
-        <v>22.638</v>
+        <v>22.5688</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8508</v>
+        <v>10.7796</v>
       </c>
       <c r="C4" t="n">
-        <v>21.2673</v>
+        <v>21.4704</v>
       </c>
       <c r="D4" t="n">
-        <v>28.629</v>
+        <v>29.3899</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5445</v>
+        <v>12.432</v>
       </c>
       <c r="C5" t="n">
-        <v>25.8916</v>
+        <v>25.2787</v>
       </c>
       <c r="D5" t="n">
-        <v>36.1255</v>
+        <v>35.3086</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5278</v>
+        <v>14.4955</v>
       </c>
       <c r="C6" t="n">
-        <v>30.2968</v>
+        <v>30.5348</v>
       </c>
       <c r="D6" t="n">
-        <v>41.2149</v>
+        <v>42.3099</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8561</v>
+        <v>16.7526</v>
       </c>
       <c r="C7" t="n">
-        <v>34.9432</v>
+        <v>35.941</v>
       </c>
       <c r="D7" t="n">
-        <v>46.225</v>
+        <v>48.1044</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3429</v>
+        <v>18.2461</v>
       </c>
       <c r="C8" t="n">
-        <v>38.8179</v>
+        <v>38.7459</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8518</v>
+        <v>52.2226</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5165</v>
+        <v>21.4187</v>
       </c>
       <c r="C9" t="n">
-        <v>43.1088</v>
+        <v>42.3055</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3997</v>
+        <v>55.8634</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3646</v>
+        <v>18.1163</v>
       </c>
       <c r="C10" t="n">
-        <v>40.0672</v>
+        <v>40.934</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2471</v>
+        <v>53.8207</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6963</v>
+        <v>18.4893</v>
       </c>
       <c r="C11" t="n">
-        <v>40.5921</v>
+        <v>40.2213</v>
       </c>
       <c r="D11" t="n">
-        <v>52.3887</v>
+        <v>53.3159</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0988</v>
+        <v>18.8799</v>
       </c>
       <c r="C12" t="n">
-        <v>39.6019</v>
+        <v>40.617</v>
       </c>
       <c r="D12" t="n">
-        <v>55.854</v>
+        <v>55.5641</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6638</v>
+        <v>19.4131</v>
       </c>
       <c r="C13" t="n">
-        <v>42.0764</v>
+        <v>40.5614</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7026</v>
+        <v>55.9212</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1833</v>
+        <v>19.1079</v>
       </c>
       <c r="C14" t="n">
-        <v>41.735</v>
+        <v>43.1244</v>
       </c>
       <c r="D14" t="n">
-        <v>59.7256</v>
+        <v>56.9364</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3421</v>
+        <v>18.9806</v>
       </c>
       <c r="C15" t="n">
-        <v>42.6275</v>
+        <v>42.132</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0891</v>
+        <v>60.0083</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3572</v>
+        <v>19.1131</v>
       </c>
       <c r="C16" t="n">
-        <v>42.4024</v>
+        <v>44.3871</v>
       </c>
       <c r="D16" t="n">
-        <v>61.5256</v>
+        <v>57.3649</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0473</v>
+        <v>19.0312</v>
       </c>
       <c r="C17" t="n">
-        <v>42.5406</v>
+        <v>44.1948</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6411</v>
+        <v>59.2361</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1459</v>
+        <v>10.1913</v>
       </c>
       <c r="C2" t="n">
-        <v>16.5636</v>
+        <v>16.6457</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4847</v>
+        <v>19.522</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.276870000000001</v>
+        <v>9.26895</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8123</v>
+        <v>16.7083</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3664</v>
+        <v>22.159</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1346</v>
+        <v>11.1792</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1495</v>
+        <v>20.8594</v>
       </c>
       <c r="D4" t="n">
-        <v>28.2962</v>
+        <v>28.497</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9605</v>
+        <v>13.044</v>
       </c>
       <c r="C5" t="n">
-        <v>24.9497</v>
+        <v>25.3926</v>
       </c>
       <c r="D5" t="n">
-        <v>33.8768</v>
+        <v>35.3761</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1059</v>
+        <v>15.1705</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8672</v>
+        <v>30.3129</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9793</v>
+        <v>41.4009</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.3924</v>
+        <v>17.2876</v>
       </c>
       <c r="C7" t="n">
-        <v>34.8893</v>
+        <v>33.9135</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7146</v>
+        <v>46.7965</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9988</v>
+        <v>18.9664</v>
       </c>
       <c r="C8" t="n">
-        <v>38.4961</v>
+        <v>38.1339</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4582</v>
+        <v>52.3185</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3729</v>
+        <v>22.485</v>
       </c>
       <c r="C9" t="n">
-        <v>41.3202</v>
+        <v>41.7152</v>
       </c>
       <c r="D9" t="n">
-        <v>55.972</v>
+        <v>56.9715</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7398</v>
+        <v>19.9631</v>
       </c>
       <c r="C10" t="n">
-        <v>40.2957</v>
+        <v>41.0838</v>
       </c>
       <c r="D10" t="n">
-        <v>51.6527</v>
+        <v>53.0878</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3618</v>
+        <v>19.06</v>
       </c>
       <c r="C11" t="n">
-        <v>40.7214</v>
+        <v>40.581</v>
       </c>
       <c r="D11" t="n">
-        <v>54.297</v>
+        <v>53.6626</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0184</v>
+        <v>19.5858</v>
       </c>
       <c r="C12" t="n">
-        <v>41.4278</v>
+        <v>39.9245</v>
       </c>
       <c r="D12" t="n">
-        <v>52.7134</v>
+        <v>55.0818</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.0065</v>
+        <v>20.1881</v>
       </c>
       <c r="C13" t="n">
-        <v>42.5799</v>
+        <v>40.7786</v>
       </c>
       <c r="D13" t="n">
-        <v>55.0344</v>
+        <v>56.4201</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2405</v>
+        <v>19.9267</v>
       </c>
       <c r="C14" t="n">
-        <v>42.7134</v>
+        <v>43.2543</v>
       </c>
       <c r="D14" t="n">
-        <v>56.1764</v>
+        <v>58.8832</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9818</v>
+        <v>19.9072</v>
       </c>
       <c r="C15" t="n">
-        <v>40.5451</v>
+        <v>41.6935</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0193</v>
+        <v>54.6852</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7899</v>
+        <v>20.0513</v>
       </c>
       <c r="C16" t="n">
-        <v>43.5606</v>
+        <v>42.4623</v>
       </c>
       <c r="D16" t="n">
-        <v>60.868</v>
+        <v>60.2649</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3186</v>
+        <v>19.8214</v>
       </c>
       <c r="C17" t="n">
-        <v>41.2333</v>
+        <v>41.6533</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6465</v>
+        <v>58.5229</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7191</v>
+        <v>12.6924</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5442</v>
+        <v>18.5333</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5192</v>
+        <v>20.5523</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.7942</v>
+        <v>10.5152</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5822</v>
+        <v>17.9602</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2983</v>
+        <v>24.2027</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3895</v>
+        <v>12.8633</v>
       </c>
       <c r="C4" t="n">
-        <v>22.7322</v>
+        <v>22.7565</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0958</v>
+        <v>31.1693</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1915</v>
+        <v>15.1947</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9665</v>
+        <v>28.1418</v>
       </c>
       <c r="D5" t="n">
-        <v>36.8913</v>
+        <v>37.2527</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6493</v>
+        <v>17.8436</v>
       </c>
       <c r="C6" t="n">
-        <v>32.2907</v>
+        <v>33.5241</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5521</v>
+        <v>41.9316</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.8693</v>
+        <v>20.6646</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4658</v>
+        <v>38.0982</v>
       </c>
       <c r="D7" t="n">
-        <v>46.9266</v>
+        <v>48.0493</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.905</v>
+        <v>23.45</v>
       </c>
       <c r="C8" t="n">
-        <v>41.3669</v>
+        <v>41.1597</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9969</v>
+        <v>52.0056</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3828</v>
+        <v>26.816</v>
       </c>
       <c r="C9" t="n">
-        <v>44.9601</v>
+        <v>44.5708</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9652</v>
+        <v>54.1103</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2087</v>
+        <v>25.2102</v>
       </c>
       <c r="C10" t="n">
-        <v>44.1184</v>
+        <v>44.9314</v>
       </c>
       <c r="D10" t="n">
-        <v>53.2219</v>
+        <v>53.491</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3406</v>
+        <v>23.9278</v>
       </c>
       <c r="C11" t="n">
-        <v>42.5228</v>
+        <v>44.3484</v>
       </c>
       <c r="D11" t="n">
-        <v>51.9736</v>
+        <v>54.0928</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8386</v>
+        <v>24.8917</v>
       </c>
       <c r="C12" t="n">
-        <v>44.2013</v>
+        <v>44.3208</v>
       </c>
       <c r="D12" t="n">
-        <v>52.6328</v>
+        <v>54.881</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6574</v>
+        <v>25.1075</v>
       </c>
       <c r="C13" t="n">
-        <v>45.6067</v>
+        <v>45.9483</v>
       </c>
       <c r="D13" t="n">
-        <v>55.0545</v>
+        <v>54.7817</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.439</v>
+        <v>24.2236</v>
       </c>
       <c r="C14" t="n">
-        <v>45.294</v>
+        <v>43.9207</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6336</v>
+        <v>54.9254</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.704</v>
+        <v>23.2155</v>
       </c>
       <c r="C15" t="n">
-        <v>46.0745</v>
+        <v>45.4019</v>
       </c>
       <c r="D15" t="n">
-        <v>53.5909</v>
+        <v>55.5113</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7833</v>
+        <v>23.5821</v>
       </c>
       <c r="C16" t="n">
-        <v>44.6056</v>
+        <v>45.5596</v>
       </c>
       <c r="D16" t="n">
-        <v>53.646</v>
+        <v>52.4299</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.8212</v>
+        <v>23.799</v>
       </c>
       <c r="C17" t="n">
-        <v>45.8778</v>
+        <v>41.4273</v>
       </c>
       <c r="D17" t="n">
-        <v>49.6543</v>
+        <v>52.2584</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92984</v>
+        <v>3.93952</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7026</v>
+        <v>12.763</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9655</v>
+        <v>17.1204</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05202</v>
+        <v>6.03477</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1679</v>
+        <v>17.34</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1192</v>
+        <v>24.3667</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.35309</v>
+        <v>8.293699999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0353</v>
+        <v>23.1767</v>
       </c>
       <c r="D4" t="n">
-        <v>33.523</v>
+        <v>33.5532</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3493</v>
+        <v>10.311</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5067</v>
+        <v>28.5704</v>
       </c>
       <c r="D5" t="n">
-        <v>42.23</v>
+        <v>42.3546</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5724</v>
+        <v>12.3927</v>
       </c>
       <c r="C6" t="n">
-        <v>33.6706</v>
+        <v>33.5909</v>
       </c>
       <c r="D6" t="n">
-        <v>51.1099</v>
+        <v>51.5886</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3841</v>
+        <v>14.303</v>
       </c>
       <c r="C7" t="n">
-        <v>39.9319</v>
+        <v>39.7479</v>
       </c>
       <c r="D7" t="n">
-        <v>59.5081</v>
+        <v>60.5078</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2513</v>
+        <v>16.1408</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2227</v>
+        <v>45.0915</v>
       </c>
       <c r="D8" t="n">
-        <v>68.7488</v>
+        <v>68.788</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5705</v>
+        <v>18.5389</v>
       </c>
       <c r="C9" t="n">
-        <v>53.6522</v>
+        <v>53.5301</v>
       </c>
       <c r="D9" t="n">
-        <v>77.14709999999999</v>
+        <v>77.6527</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5829</v>
+        <v>17.3753</v>
       </c>
       <c r="C10" t="n">
-        <v>49.1497</v>
+        <v>49.8653</v>
       </c>
       <c r="D10" t="n">
-        <v>66.65940000000001</v>
+        <v>68.2997</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1601</v>
+        <v>17.475</v>
       </c>
       <c r="C11" t="n">
-        <v>48.0053</v>
+        <v>48.1728</v>
       </c>
       <c r="D11" t="n">
-        <v>68.0886</v>
+        <v>68.14709999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.666</v>
+        <v>17.5372</v>
       </c>
       <c r="C12" t="n">
-        <v>49.396</v>
+        <v>49.356</v>
       </c>
       <c r="D12" t="n">
-        <v>68.2774</v>
+        <v>69.119</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9609</v>
+        <v>17.9243</v>
       </c>
       <c r="C13" t="n">
-        <v>50.1783</v>
+        <v>50.2333</v>
       </c>
       <c r="D13" t="n">
-        <v>70.69450000000001</v>
+        <v>70.4066</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2697</v>
+        <v>17.2057</v>
       </c>
       <c r="C14" t="n">
-        <v>48.6278</v>
+        <v>49.7549</v>
       </c>
       <c r="D14" t="n">
-        <v>69.6811</v>
+        <v>69.6378</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1191</v>
+        <v>17.8362</v>
       </c>
       <c r="C15" t="n">
-        <v>49.8397</v>
+        <v>49.148</v>
       </c>
       <c r="D15" t="n">
-        <v>69.7564</v>
+        <v>71.435</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9054</v>
+        <v>17.9062</v>
       </c>
       <c r="C16" t="n">
-        <v>50.2719</v>
+        <v>49.9312</v>
       </c>
       <c r="D16" t="n">
-        <v>70.70269999999999</v>
+        <v>71.31610000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0589</v>
+        <v>18.0636</v>
       </c>
       <c r="C17" t="n">
-        <v>50.0948</v>
+        <v>49.1655</v>
       </c>
       <c r="D17" t="n">
-        <v>72.2403</v>
+        <v>68.8451</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.90148</v>
+        <v>3.9565</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5745</v>
+        <v>12.6596</v>
       </c>
       <c r="D2" t="n">
-        <v>16.956</v>
+        <v>17.1325</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.10142</v>
+        <v>6.21942</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9345</v>
+        <v>17.1935</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9044</v>
+        <v>23.9913</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.40119</v>
+        <v>8.45354</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3356</v>
+        <v>22.6046</v>
       </c>
       <c r="D4" t="n">
-        <v>33.001</v>
+        <v>33.2544</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5112</v>
+        <v>10.4995</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0287</v>
+        <v>27.8779</v>
       </c>
       <c r="D5" t="n">
-        <v>41.8721</v>
+        <v>41.8204</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5721</v>
+        <v>12.5449</v>
       </c>
       <c r="C6" t="n">
-        <v>33.7877</v>
+        <v>33.3319</v>
       </c>
       <c r="D6" t="n">
-        <v>50.7245</v>
+        <v>50.7953</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5924</v>
+        <v>14.4494</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6976</v>
+        <v>38.6452</v>
       </c>
       <c r="D7" t="n">
-        <v>59.2196</v>
+        <v>59.077</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4565</v>
+        <v>16.3758</v>
       </c>
       <c r="C8" t="n">
-        <v>44.5772</v>
+        <v>44.1504</v>
       </c>
       <c r="D8" t="n">
-        <v>67.8561</v>
+        <v>68.1104</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9449</v>
+        <v>18.9562</v>
       </c>
       <c r="C9" t="n">
-        <v>52.6669</v>
+        <v>52.782</v>
       </c>
       <c r="D9" t="n">
-        <v>76.4522</v>
+        <v>76.9748</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1176</v>
+        <v>17.8132</v>
       </c>
       <c r="C10" t="n">
-        <v>48.4606</v>
+        <v>48.5484</v>
       </c>
       <c r="D10" t="n">
-        <v>66.3502</v>
+        <v>68.72539999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0739</v>
+        <v>17.6935</v>
       </c>
       <c r="C11" t="n">
-        <v>47.2173</v>
+        <v>47.7298</v>
       </c>
       <c r="D11" t="n">
-        <v>67.3921</v>
+        <v>67.8848</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9883</v>
+        <v>17.9645</v>
       </c>
       <c r="C12" t="n">
-        <v>48.4421</v>
+        <v>48.3594</v>
       </c>
       <c r="D12" t="n">
-        <v>67.67270000000001</v>
+        <v>69.1189</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1732</v>
+        <v>18.2413</v>
       </c>
       <c r="C13" t="n">
-        <v>49.2766</v>
+        <v>49.0519</v>
       </c>
       <c r="D13" t="n">
-        <v>69.9735</v>
+        <v>69.45829999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6468</v>
+        <v>17.5664</v>
       </c>
       <c r="C14" t="n">
-        <v>47.4754</v>
+        <v>48.5425</v>
       </c>
       <c r="D14" t="n">
-        <v>68.68770000000001</v>
+        <v>67.9177</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3608</v>
+        <v>18.3294</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9085</v>
+        <v>48.8621</v>
       </c>
       <c r="D15" t="n">
-        <v>68.7771</v>
+        <v>68.59229999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.3333</v>
+        <v>18.3107</v>
       </c>
       <c r="C16" t="n">
-        <v>49.3056</v>
+        <v>47.5364</v>
       </c>
       <c r="D16" t="n">
-        <v>70.0244</v>
+        <v>70.1443</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3102</v>
+        <v>18.4386</v>
       </c>
       <c r="C17" t="n">
-        <v>49.2224</v>
+        <v>48.3991</v>
       </c>
       <c r="D17" t="n">
-        <v>70.1671</v>
+        <v>68.79949999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.03961</v>
+        <v>8.055289999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3076</v>
+        <v>17.296</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2628</v>
+        <v>20.2751</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.394349999999999</v>
+        <v>9.38588</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9208</v>
+        <v>18.6899</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2018</v>
+        <v>26.1255</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6049</v>
+        <v>12.168</v>
       </c>
       <c r="C4" t="n">
-        <v>24.446</v>
+        <v>24.4684</v>
       </c>
       <c r="D4" t="n">
-        <v>35.4843</v>
+        <v>35.7349</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.915</v>
+        <v>14.6324</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2804</v>
+        <v>30.1492</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9823</v>
+        <v>44.0919</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0854</v>
+        <v>17.2634</v>
       </c>
       <c r="C6" t="n">
-        <v>36.3122</v>
+        <v>35.9538</v>
       </c>
       <c r="D6" t="n">
-        <v>52.1583</v>
+        <v>52.3921</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.2727</v>
+        <v>19.9187</v>
       </c>
       <c r="C7" t="n">
-        <v>42.5952</v>
+        <v>42.3546</v>
       </c>
       <c r="D7" t="n">
-        <v>59.8791</v>
+        <v>60.024</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6321</v>
+        <v>22.8612</v>
       </c>
       <c r="C8" t="n">
-        <v>49.1843</v>
+        <v>48.8815</v>
       </c>
       <c r="D8" t="n">
-        <v>66.732</v>
+        <v>67.9029</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6324</v>
+        <v>26.6556</v>
       </c>
       <c r="C9" t="n">
-        <v>56.6004</v>
+        <v>56.237</v>
       </c>
       <c r="D9" t="n">
-        <v>74.2162</v>
+        <v>75.23990000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.8567</v>
+        <v>25.2256</v>
       </c>
       <c r="C10" t="n">
-        <v>52.4059</v>
+        <v>53.1319</v>
       </c>
       <c r="D10" t="n">
-        <v>67.5391</v>
+        <v>67.3379</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5911</v>
+        <v>25.274</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6922</v>
+        <v>51.6905</v>
       </c>
       <c r="D11" t="n">
-        <v>69.3154</v>
+        <v>69.1537</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.6729</v>
+        <v>25.3584</v>
       </c>
       <c r="C12" t="n">
-        <v>52.7362</v>
+        <v>53.2967</v>
       </c>
       <c r="D12" t="n">
-        <v>70.6508</v>
+        <v>70.245</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9966</v>
+        <v>25.4068</v>
       </c>
       <c r="C13" t="n">
-        <v>54.5701</v>
+        <v>54.1848</v>
       </c>
       <c r="D13" t="n">
-        <v>69.5622</v>
+        <v>71.8565</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3144</v>
+        <v>24.5605</v>
       </c>
       <c r="C14" t="n">
-        <v>53.1494</v>
+        <v>53.0679</v>
       </c>
       <c r="D14" t="n">
-        <v>71.44540000000001</v>
+        <v>70.9319</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0586</v>
+        <v>25.7228</v>
       </c>
       <c r="C15" t="n">
-        <v>54.3444</v>
+        <v>53.9438</v>
       </c>
       <c r="D15" t="n">
-        <v>72.0718</v>
+        <v>71.27119999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9714</v>
+        <v>25.5381</v>
       </c>
       <c r="C16" t="n">
-        <v>54.5282</v>
+        <v>54.2182</v>
       </c>
       <c r="D16" t="n">
-        <v>71.5365</v>
+        <v>71.8567</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8034</v>
+        <v>25.5277</v>
       </c>
       <c r="C17" t="n">
-        <v>54.7511</v>
+        <v>54.2092</v>
       </c>
       <c r="D17" t="n">
-        <v>70.9897</v>
+        <v>71.9444</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.508380000000001</v>
+        <v>9.58344</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7227</v>
+        <v>16.6904</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6522</v>
+        <v>20.6456</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.273720000000001</v>
+        <v>9.16333</v>
       </c>
       <c r="C3" t="n">
-        <v>17.4284</v>
+        <v>17.5792</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5688</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7796</v>
+        <v>10.7732</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4704</v>
+        <v>21.4286</v>
       </c>
       <c r="D4" t="n">
-        <v>29.3899</v>
+        <v>29.2837</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.432</v>
+        <v>12.6061</v>
       </c>
       <c r="C5" t="n">
-        <v>25.2787</v>
+        <v>26.2022</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3086</v>
+        <v>35.2277</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4955</v>
+        <v>14.6186</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5348</v>
+        <v>30.1008</v>
       </c>
       <c r="D6" t="n">
-        <v>42.3099</v>
+        <v>42.4686</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7526</v>
+        <v>16.836</v>
       </c>
       <c r="C7" t="n">
-        <v>35.941</v>
+        <v>35.8513</v>
       </c>
       <c r="D7" t="n">
-        <v>48.1044</v>
+        <v>45.6685</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2461</v>
+        <v>18.4036</v>
       </c>
       <c r="C8" t="n">
-        <v>38.7459</v>
+        <v>39.668</v>
       </c>
       <c r="D8" t="n">
-        <v>52.2226</v>
+        <v>50.2642</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4187</v>
+        <v>21.5956</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3055</v>
+        <v>44.5694</v>
       </c>
       <c r="D9" t="n">
-        <v>55.8634</v>
+        <v>55.6711</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1163</v>
+        <v>18.5773</v>
       </c>
       <c r="C10" t="n">
-        <v>40.934</v>
+        <v>41.8249</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8207</v>
+        <v>54.805</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4893</v>
+        <v>18.5463</v>
       </c>
       <c r="C11" t="n">
-        <v>40.2213</v>
+        <v>41.4448</v>
       </c>
       <c r="D11" t="n">
-        <v>53.3159</v>
+        <v>53.7434</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8799</v>
+        <v>19.0537</v>
       </c>
       <c r="C12" t="n">
-        <v>40.617</v>
+        <v>40.6346</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5641</v>
+        <v>58.0675</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4131</v>
+        <v>19.9164</v>
       </c>
       <c r="C13" t="n">
-        <v>40.5614</v>
+        <v>41.2854</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9212</v>
+        <v>57.1809</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1079</v>
+        <v>18.8651</v>
       </c>
       <c r="C14" t="n">
-        <v>43.1244</v>
+        <v>43.2421</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9364</v>
+        <v>58.429</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9806</v>
+        <v>19.2999</v>
       </c>
       <c r="C15" t="n">
-        <v>42.132</v>
+        <v>42.3541</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0083</v>
+        <v>62.6524</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1131</v>
+        <v>19.3313</v>
       </c>
       <c r="C16" t="n">
-        <v>44.3871</v>
+        <v>44.0492</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3649</v>
+        <v>58.771</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0312</v>
+        <v>19.0713</v>
       </c>
       <c r="C17" t="n">
-        <v>44.1948</v>
+        <v>44.2724</v>
       </c>
       <c r="D17" t="n">
-        <v>59.2361</v>
+        <v>64.9836</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1913</v>
+        <v>10.1858</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6457</v>
+        <v>16.6118</v>
       </c>
       <c r="D2" t="n">
-        <v>19.522</v>
+        <v>20.4743</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.26895</v>
+        <v>9.586080000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7083</v>
+        <v>17.1077</v>
       </c>
       <c r="D3" t="n">
-        <v>22.159</v>
+        <v>22.8919</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1792</v>
+        <v>11.1697</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8594</v>
+        <v>21.0992</v>
       </c>
       <c r="D4" t="n">
-        <v>28.497</v>
+        <v>29.036</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.044</v>
+        <v>13.0377</v>
       </c>
       <c r="C5" t="n">
-        <v>25.3926</v>
+        <v>25.4494</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3761</v>
+        <v>35.097</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1705</v>
+        <v>15.1941</v>
       </c>
       <c r="C6" t="n">
-        <v>30.3129</v>
+        <v>29.9095</v>
       </c>
       <c r="D6" t="n">
-        <v>41.4009</v>
+        <v>39.9559</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2876</v>
+        <v>17.36</v>
       </c>
       <c r="C7" t="n">
-        <v>33.9135</v>
+        <v>35.0788</v>
       </c>
       <c r="D7" t="n">
-        <v>46.7965</v>
+        <v>45.5824</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9664</v>
+        <v>19.0645</v>
       </c>
       <c r="C8" t="n">
-        <v>38.1339</v>
+        <v>38.0606</v>
       </c>
       <c r="D8" t="n">
-        <v>52.3185</v>
+        <v>51.6044</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.485</v>
+        <v>22.4796</v>
       </c>
       <c r="C9" t="n">
-        <v>41.7152</v>
+        <v>43.2917</v>
       </c>
       <c r="D9" t="n">
-        <v>56.9715</v>
+        <v>54.4315</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9631</v>
+        <v>19.9426</v>
       </c>
       <c r="C10" t="n">
-        <v>41.0838</v>
+        <v>41.6179</v>
       </c>
       <c r="D10" t="n">
-        <v>53.0878</v>
+        <v>52.5297</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.06</v>
+        <v>19.0688</v>
       </c>
       <c r="C11" t="n">
-        <v>40.581</v>
+        <v>39.5286</v>
       </c>
       <c r="D11" t="n">
-        <v>53.6626</v>
+        <v>50.8092</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.5858</v>
+        <v>20.0162</v>
       </c>
       <c r="C12" t="n">
-        <v>39.9245</v>
+        <v>40.3594</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0818</v>
+        <v>53.5996</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1881</v>
+        <v>20.3563</v>
       </c>
       <c r="C13" t="n">
-        <v>40.7786</v>
+        <v>42.6532</v>
       </c>
       <c r="D13" t="n">
-        <v>56.4201</v>
+        <v>56.7983</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9267</v>
+        <v>19.3903</v>
       </c>
       <c r="C14" t="n">
-        <v>43.2543</v>
+        <v>42.1241</v>
       </c>
       <c r="D14" t="n">
-        <v>58.8832</v>
+        <v>59.5035</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9072</v>
+        <v>19.4516</v>
       </c>
       <c r="C15" t="n">
-        <v>41.6935</v>
+        <v>41.4397</v>
       </c>
       <c r="D15" t="n">
-        <v>54.6852</v>
+        <v>58.2588</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0513</v>
+        <v>20.392</v>
       </c>
       <c r="C16" t="n">
-        <v>42.4623</v>
+        <v>42.8269</v>
       </c>
       <c r="D16" t="n">
-        <v>60.2649</v>
+        <v>59.8021</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8214</v>
+        <v>19.5858</v>
       </c>
       <c r="C17" t="n">
-        <v>41.6533</v>
+        <v>42.523</v>
       </c>
       <c r="D17" t="n">
-        <v>58.5229</v>
+        <v>63.5994</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6924</v>
+        <v>12.6095</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5333</v>
+        <v>18.5157</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5523</v>
+        <v>21.6842</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5152</v>
+        <v>10.65</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9602</v>
+        <v>18.7978</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2027</v>
+        <v>25.2441</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8633</v>
+        <v>12.3174</v>
       </c>
       <c r="C4" t="n">
-        <v>22.7565</v>
+        <v>23.0607</v>
       </c>
       <c r="D4" t="n">
-        <v>31.1693</v>
+        <v>31.2325</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1947</v>
+        <v>14.1537</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1418</v>
+        <v>28.1151</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2527</v>
+        <v>36.4569</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8436</v>
+        <v>16.5636</v>
       </c>
       <c r="C6" t="n">
-        <v>33.5241</v>
+        <v>33.0411</v>
       </c>
       <c r="D6" t="n">
-        <v>41.9316</v>
+        <v>43.2985</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.6646</v>
+        <v>18.912</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0982</v>
+        <v>37.5003</v>
       </c>
       <c r="D7" t="n">
-        <v>48.0493</v>
+        <v>48.6393</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.45</v>
+        <v>20.8415</v>
       </c>
       <c r="C8" t="n">
-        <v>41.1597</v>
+        <v>41.7936</v>
       </c>
       <c r="D8" t="n">
-        <v>52.0056</v>
+        <v>51.9012</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.816</v>
+        <v>23.3262</v>
       </c>
       <c r="C9" t="n">
-        <v>44.5708</v>
+        <v>45.2372</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1103</v>
+        <v>54.7726</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2102</v>
+        <v>22.3861</v>
       </c>
       <c r="C10" t="n">
-        <v>44.9314</v>
+        <v>44.8633</v>
       </c>
       <c r="D10" t="n">
-        <v>53.491</v>
+        <v>54.2737</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9278</v>
+        <v>21.3398</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3484</v>
+        <v>44.9582</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0928</v>
+        <v>53.5337</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8917</v>
+        <v>21.6973</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3208</v>
+        <v>44.7781</v>
       </c>
       <c r="D12" t="n">
-        <v>54.881</v>
+        <v>53.2578</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.1075</v>
+        <v>22.4635</v>
       </c>
       <c r="C13" t="n">
-        <v>45.9483</v>
+        <v>45.3637</v>
       </c>
       <c r="D13" t="n">
-        <v>54.7817</v>
+        <v>55.9119</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2236</v>
+        <v>21.7208</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9207</v>
+        <v>46.3333</v>
       </c>
       <c r="D14" t="n">
-        <v>54.9254</v>
+        <v>53.956</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.2155</v>
+        <v>21.7275</v>
       </c>
       <c r="C15" t="n">
-        <v>45.4019</v>
+        <v>44.8069</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5113</v>
+        <v>54.2478</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5821</v>
+        <v>21.7505</v>
       </c>
       <c r="C16" t="n">
-        <v>45.5596</v>
+        <v>45.2287</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4299</v>
+        <v>52.4799</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.799</v>
+        <v>21.1229</v>
       </c>
       <c r="C17" t="n">
-        <v>41.4273</v>
+        <v>46.1017</v>
       </c>
       <c r="D17" t="n">
-        <v>52.2584</v>
+        <v>53.6931</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.93952</v>
+        <v>3.89672</v>
       </c>
       <c r="C2" t="n">
-        <v>12.763</v>
+        <v>12.8003</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1204</v>
+        <v>17.8793</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03477</v>
+        <v>6.13887</v>
       </c>
       <c r="C3" t="n">
-        <v>17.34</v>
+        <v>17.6945</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3667</v>
+        <v>24.9807</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.293699999999999</v>
+        <v>8.33412</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1767</v>
+        <v>23.2133</v>
       </c>
       <c r="D4" t="n">
-        <v>33.5532</v>
+        <v>34.304</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.311</v>
+        <v>10.4415</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5704</v>
+        <v>28.6534</v>
       </c>
       <c r="D5" t="n">
-        <v>42.3546</v>
+        <v>43.4218</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3927</v>
+        <v>12.4787</v>
       </c>
       <c r="C6" t="n">
-        <v>33.5909</v>
+        <v>33.6858</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5886</v>
+        <v>52.2642</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.303</v>
+        <v>14.3283</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7479</v>
+        <v>39.7759</v>
       </c>
       <c r="D7" t="n">
-        <v>60.5078</v>
+        <v>61.4138</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1408</v>
+        <v>16.2654</v>
       </c>
       <c r="C8" t="n">
-        <v>45.0915</v>
+        <v>45.8229</v>
       </c>
       <c r="D8" t="n">
-        <v>68.788</v>
+        <v>70.03789999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5389</v>
+        <v>18.5998</v>
       </c>
       <c r="C9" t="n">
-        <v>53.5301</v>
+        <v>54.2048</v>
       </c>
       <c r="D9" t="n">
-        <v>77.6527</v>
+        <v>78.1285</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3753</v>
+        <v>17.4787</v>
       </c>
       <c r="C10" t="n">
-        <v>49.8653</v>
+        <v>49.5619</v>
       </c>
       <c r="D10" t="n">
-        <v>68.2997</v>
+        <v>70.70489999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.475</v>
+        <v>17.5456</v>
       </c>
       <c r="C11" t="n">
-        <v>48.1728</v>
+        <v>48.7355</v>
       </c>
       <c r="D11" t="n">
-        <v>68.14709999999999</v>
+        <v>70.3503</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5372</v>
+        <v>17.6176</v>
       </c>
       <c r="C12" t="n">
-        <v>49.356</v>
+        <v>50.0295</v>
       </c>
       <c r="D12" t="n">
-        <v>69.119</v>
+        <v>70.55110000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9243</v>
+        <v>17.9761</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2333</v>
+        <v>50.4164</v>
       </c>
       <c r="D13" t="n">
-        <v>70.4066</v>
+        <v>72.41419999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2057</v>
+        <v>17.283</v>
       </c>
       <c r="C14" t="n">
-        <v>49.7549</v>
+        <v>49.7192</v>
       </c>
       <c r="D14" t="n">
-        <v>69.6378</v>
+        <v>71.1048</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8362</v>
+        <v>17.9786</v>
       </c>
       <c r="C15" t="n">
-        <v>49.148</v>
+        <v>49.7854</v>
       </c>
       <c r="D15" t="n">
-        <v>71.435</v>
+        <v>70.9465</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9062</v>
+        <v>17.8014</v>
       </c>
       <c r="C16" t="n">
-        <v>49.9312</v>
+        <v>50.4414</v>
       </c>
       <c r="D16" t="n">
-        <v>71.31610000000001</v>
+        <v>71.7221</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0636</v>
+        <v>17.9702</v>
       </c>
       <c r="C17" t="n">
-        <v>49.1655</v>
+        <v>49.4932</v>
       </c>
       <c r="D17" t="n">
-        <v>68.8451</v>
+        <v>70.95699999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9565</v>
+        <v>3.8478</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6596</v>
+        <v>12.5627</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1325</v>
+        <v>17.7097</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.21942</v>
+        <v>6.0706</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1935</v>
+        <v>16.8668</v>
       </c>
       <c r="D3" t="n">
-        <v>23.9913</v>
+        <v>24.6321</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.45354</v>
+        <v>8.465170000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6046</v>
+        <v>22.5517</v>
       </c>
       <c r="D4" t="n">
-        <v>33.2544</v>
+        <v>33.9378</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4995</v>
+        <v>10.6543</v>
       </c>
       <c r="C5" t="n">
-        <v>27.8779</v>
+        <v>27.9798</v>
       </c>
       <c r="D5" t="n">
-        <v>41.8204</v>
+        <v>42.6099</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5449</v>
+        <v>12.7383</v>
       </c>
       <c r="C6" t="n">
-        <v>33.3319</v>
+        <v>33.7011</v>
       </c>
       <c r="D6" t="n">
-        <v>50.7953</v>
+        <v>51.7154</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4494</v>
+        <v>14.6417</v>
       </c>
       <c r="C7" t="n">
-        <v>38.6452</v>
+        <v>39.1885</v>
       </c>
       <c r="D7" t="n">
-        <v>59.077</v>
+        <v>61.0375</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3758</v>
+        <v>16.4685</v>
       </c>
       <c r="C8" t="n">
-        <v>44.1504</v>
+        <v>44.9225</v>
       </c>
       <c r="D8" t="n">
-        <v>68.1104</v>
+        <v>69.04600000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9562</v>
+        <v>19.1711</v>
       </c>
       <c r="C9" t="n">
-        <v>52.782</v>
+        <v>52.9551</v>
       </c>
       <c r="D9" t="n">
-        <v>76.9748</v>
+        <v>77.76220000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8132</v>
+        <v>18.191</v>
       </c>
       <c r="C10" t="n">
-        <v>48.5484</v>
+        <v>47.8084</v>
       </c>
       <c r="D10" t="n">
-        <v>68.72539999999999</v>
+        <v>71.58159999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6935</v>
+        <v>17.8074</v>
       </c>
       <c r="C11" t="n">
-        <v>47.7298</v>
+        <v>47.6426</v>
       </c>
       <c r="D11" t="n">
-        <v>67.8848</v>
+        <v>69.61360000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9645</v>
+        <v>17.9644</v>
       </c>
       <c r="C12" t="n">
-        <v>48.3594</v>
+        <v>48.2209</v>
       </c>
       <c r="D12" t="n">
-        <v>69.1189</v>
+        <v>69.5917</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.2413</v>
+        <v>18.5269</v>
       </c>
       <c r="C13" t="n">
-        <v>49.0519</v>
+        <v>48.2701</v>
       </c>
       <c r="D13" t="n">
-        <v>69.45829999999999</v>
+        <v>70.1212</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5664</v>
+        <v>17.5678</v>
       </c>
       <c r="C14" t="n">
-        <v>48.5425</v>
+        <v>47.8083</v>
       </c>
       <c r="D14" t="n">
-        <v>67.9177</v>
+        <v>70.03019999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3294</v>
+        <v>18.3826</v>
       </c>
       <c r="C15" t="n">
-        <v>48.8621</v>
+        <v>48.8375</v>
       </c>
       <c r="D15" t="n">
-        <v>68.59229999999999</v>
+        <v>70.95180000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.3107</v>
+        <v>18.1993</v>
       </c>
       <c r="C16" t="n">
-        <v>47.5364</v>
+        <v>49.4711</v>
       </c>
       <c r="D16" t="n">
-        <v>70.1443</v>
+        <v>70.3231</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4386</v>
+        <v>18.4836</v>
       </c>
       <c r="C17" t="n">
-        <v>48.3991</v>
+        <v>47.9604</v>
       </c>
       <c r="D17" t="n">
-        <v>68.79949999999999</v>
+        <v>70.99809999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.055289999999999</v>
+        <v>8.140700000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>17.296</v>
+        <v>17.268</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2751</v>
+        <v>21.3565</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.38588</v>
+        <v>9.48545</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6899</v>
+        <v>18.9362</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1255</v>
+        <v>27.1357</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.168</v>
+        <v>11.6513</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4684</v>
+        <v>24.2798</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7349</v>
+        <v>36.6331</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6324</v>
+        <v>13.8436</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1492</v>
+        <v>30.3138</v>
       </c>
       <c r="D5" t="n">
-        <v>44.0919</v>
+        <v>45.1462</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2634</v>
+        <v>16.1062</v>
       </c>
       <c r="C6" t="n">
-        <v>35.9538</v>
+        <v>36.4085</v>
       </c>
       <c r="D6" t="n">
-        <v>52.3921</v>
+        <v>53.7849</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.9187</v>
+        <v>18.3649</v>
       </c>
       <c r="C7" t="n">
-        <v>42.3546</v>
+        <v>42.8245</v>
       </c>
       <c r="D7" t="n">
-        <v>60.024</v>
+        <v>61.2431</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8612</v>
+        <v>20.6334</v>
       </c>
       <c r="C8" t="n">
-        <v>48.8815</v>
+        <v>49.3421</v>
       </c>
       <c r="D8" t="n">
-        <v>67.9029</v>
+        <v>68.00790000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6556</v>
+        <v>23.7553</v>
       </c>
       <c r="C9" t="n">
-        <v>56.237</v>
+        <v>56.9504</v>
       </c>
       <c r="D9" t="n">
-        <v>75.23990000000001</v>
+        <v>76.28360000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2256</v>
+        <v>22.6796</v>
       </c>
       <c r="C10" t="n">
-        <v>53.1319</v>
+        <v>52.5555</v>
       </c>
       <c r="D10" t="n">
-        <v>67.3379</v>
+        <v>68.8481</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.274</v>
+        <v>22.4521</v>
       </c>
       <c r="C11" t="n">
-        <v>51.6905</v>
+        <v>52.3766</v>
       </c>
       <c r="D11" t="n">
-        <v>69.1537</v>
+        <v>69.2191</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3584</v>
+        <v>22.6343</v>
       </c>
       <c r="C12" t="n">
-        <v>53.2967</v>
+        <v>54.1245</v>
       </c>
       <c r="D12" t="n">
-        <v>70.245</v>
+        <v>71.1575</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4068</v>
+        <v>22.9246</v>
       </c>
       <c r="C13" t="n">
-        <v>54.1848</v>
+        <v>54.1272</v>
       </c>
       <c r="D13" t="n">
-        <v>71.8565</v>
+        <v>71.67870000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5605</v>
+        <v>22.2135</v>
       </c>
       <c r="C14" t="n">
-        <v>53.0679</v>
+        <v>53.4843</v>
       </c>
       <c r="D14" t="n">
-        <v>70.9319</v>
+        <v>72.3874</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7228</v>
+        <v>23.1381</v>
       </c>
       <c r="C15" t="n">
-        <v>53.9438</v>
+        <v>54.3382</v>
       </c>
       <c r="D15" t="n">
-        <v>71.27119999999999</v>
+        <v>73.3008</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5381</v>
+        <v>22.938</v>
       </c>
       <c r="C16" t="n">
-        <v>54.2182</v>
+        <v>53.6946</v>
       </c>
       <c r="D16" t="n">
-        <v>71.8567</v>
+        <v>73.0805</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5277</v>
+        <v>22.9755</v>
       </c>
       <c r="C17" t="n">
-        <v>54.2092</v>
+        <v>53.972</v>
       </c>
       <c r="D17" t="n">
-        <v>71.9444</v>
+        <v>71.9954</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.58344</v>
+        <v>9.327640000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6904</v>
+        <v>16.7007</v>
       </c>
       <c r="D2" t="n">
-        <v>20.6456</v>
+        <v>19.6401</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.16333</v>
+        <v>9.08703</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5792</v>
+        <v>17.3588</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1</v>
+        <v>22.928</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7732</v>
+        <v>10.6797</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4286</v>
+        <v>21.2924</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2837</v>
+        <v>30.2697</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.6061</v>
+        <v>12.5778</v>
       </c>
       <c r="C5" t="n">
-        <v>26.2022</v>
+        <v>25.1508</v>
       </c>
       <c r="D5" t="n">
-        <v>35.2277</v>
+        <v>35.9661</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6186</v>
+        <v>14.5178</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1008</v>
+        <v>29.6643</v>
       </c>
       <c r="D6" t="n">
-        <v>42.4686</v>
+        <v>42.1796</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.836</v>
+        <v>16.8433</v>
       </c>
       <c r="C7" t="n">
-        <v>35.8513</v>
+        <v>35.3252</v>
       </c>
       <c r="D7" t="n">
-        <v>45.6685</v>
+        <v>47.5922</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4036</v>
+        <v>18.3505</v>
       </c>
       <c r="C8" t="n">
-        <v>39.668</v>
+        <v>39.5891</v>
       </c>
       <c r="D8" t="n">
-        <v>50.2642</v>
+        <v>52.8145</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5956</v>
+        <v>21.5819</v>
       </c>
       <c r="C9" t="n">
-        <v>44.5694</v>
+        <v>44.6702</v>
       </c>
       <c r="D9" t="n">
-        <v>55.6711</v>
+        <v>57.1217</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.5773</v>
+        <v>18.4567</v>
       </c>
       <c r="C10" t="n">
-        <v>41.8249</v>
+        <v>41.2546</v>
       </c>
       <c r="D10" t="n">
-        <v>54.805</v>
+        <v>54.7544</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5463</v>
+        <v>18.4516</v>
       </c>
       <c r="C11" t="n">
-        <v>41.4448</v>
+        <v>40.2865</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7434</v>
+        <v>54.1484</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0537</v>
+        <v>19.0095</v>
       </c>
       <c r="C12" t="n">
-        <v>40.6346</v>
+        <v>39.8111</v>
       </c>
       <c r="D12" t="n">
-        <v>58.0675</v>
+        <v>55.9054</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.9164</v>
+        <v>19.7024</v>
       </c>
       <c r="C13" t="n">
-        <v>41.2854</v>
+        <v>42.447</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1809</v>
+        <v>57.3347</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8651</v>
+        <v>19.2064</v>
       </c>
       <c r="C14" t="n">
-        <v>43.2421</v>
+        <v>42.6057</v>
       </c>
       <c r="D14" t="n">
-        <v>58.429</v>
+        <v>59.9663</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2999</v>
+        <v>19.3979</v>
       </c>
       <c r="C15" t="n">
-        <v>42.3541</v>
+        <v>41.589</v>
       </c>
       <c r="D15" t="n">
-        <v>62.6524</v>
+        <v>57.825</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3313</v>
+        <v>19.1224</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0492</v>
+        <v>43.9671</v>
       </c>
       <c r="D16" t="n">
-        <v>58.771</v>
+        <v>60.9006</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0713</v>
+        <v>19.2961</v>
       </c>
       <c r="C17" t="n">
-        <v>44.2724</v>
+        <v>41.4944</v>
       </c>
       <c r="D17" t="n">
-        <v>64.9836</v>
+        <v>61.0354</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1858</v>
+        <v>9.95416</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6118</v>
+        <v>16.5949</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4743</v>
+        <v>19.474</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.586080000000001</v>
+        <v>9.303269999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1077</v>
+        <v>16.7936</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8919</v>
+        <v>22.3709</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1697</v>
+        <v>11.1549</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0992</v>
+        <v>20.8388</v>
       </c>
       <c r="D4" t="n">
-        <v>29.036</v>
+        <v>29.1172</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0377</v>
+        <v>13.0404</v>
       </c>
       <c r="C5" t="n">
-        <v>25.4494</v>
+        <v>25.1745</v>
       </c>
       <c r="D5" t="n">
-        <v>35.097</v>
+        <v>35.3363</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1941</v>
+        <v>15.1379</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9095</v>
+        <v>29.7833</v>
       </c>
       <c r="D6" t="n">
-        <v>39.9559</v>
+        <v>42.547</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.36</v>
+        <v>17.2947</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0788</v>
+        <v>34.6121</v>
       </c>
       <c r="D7" t="n">
-        <v>45.5824</v>
+        <v>47.2686</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0645</v>
+        <v>19.1106</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0606</v>
+        <v>38.37</v>
       </c>
       <c r="D8" t="n">
-        <v>51.6044</v>
+        <v>53.0268</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4796</v>
+        <v>22.5369</v>
       </c>
       <c r="C9" t="n">
-        <v>43.2917</v>
+        <v>41.6143</v>
       </c>
       <c r="D9" t="n">
-        <v>54.4315</v>
+        <v>55.1463</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9426</v>
+        <v>19.3684</v>
       </c>
       <c r="C10" t="n">
-        <v>41.6179</v>
+        <v>41.2686</v>
       </c>
       <c r="D10" t="n">
-        <v>52.5297</v>
+        <v>51.5549</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0688</v>
+        <v>19.0792</v>
       </c>
       <c r="C11" t="n">
-        <v>39.5286</v>
+        <v>41.4079</v>
       </c>
       <c r="D11" t="n">
-        <v>50.8092</v>
+        <v>54.5036</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0162</v>
+        <v>19.9922</v>
       </c>
       <c r="C12" t="n">
-        <v>40.3594</v>
+        <v>40.4529</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5996</v>
+        <v>54.286</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3563</v>
+        <v>20.3782</v>
       </c>
       <c r="C13" t="n">
-        <v>42.6532</v>
+        <v>43.0993</v>
       </c>
       <c r="D13" t="n">
-        <v>56.7983</v>
+        <v>55.7188</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3903</v>
+        <v>19.8698</v>
       </c>
       <c r="C14" t="n">
-        <v>42.1241</v>
+        <v>41.3863</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5035</v>
+        <v>57.2801</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4516</v>
+        <v>19.8217</v>
       </c>
       <c r="C15" t="n">
-        <v>41.4397</v>
+        <v>42.2773</v>
       </c>
       <c r="D15" t="n">
-        <v>58.2588</v>
+        <v>58.7135</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.392</v>
+        <v>20.335</v>
       </c>
       <c r="C16" t="n">
-        <v>42.8269</v>
+        <v>40.8481</v>
       </c>
       <c r="D16" t="n">
-        <v>59.8021</v>
+        <v>57.5497</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5858</v>
+        <v>20.2807</v>
       </c>
       <c r="C17" t="n">
-        <v>42.523</v>
+        <v>40.905</v>
       </c>
       <c r="D17" t="n">
-        <v>63.5994</v>
+        <v>59.2488</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6095</v>
+        <v>12.3936</v>
       </c>
       <c r="C2" t="n">
-        <v>18.5157</v>
+        <v>18.4597</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6842</v>
+        <v>20.495</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.65</v>
+        <v>10.2928</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7978</v>
+        <v>18.349</v>
       </c>
       <c r="D3" t="n">
-        <v>25.2441</v>
+        <v>24.1944</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3174</v>
+        <v>12.2642</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0607</v>
+        <v>22.6293</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2325</v>
+        <v>30.9305</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1537</v>
+        <v>14.1079</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1151</v>
+        <v>27.5139</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4569</v>
+        <v>37.1622</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5636</v>
+        <v>16.6421</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0411</v>
+        <v>33.4546</v>
       </c>
       <c r="D6" t="n">
-        <v>43.2985</v>
+        <v>41.9493</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.912</v>
+        <v>18.9119</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5003</v>
+        <v>37.3091</v>
       </c>
       <c r="D7" t="n">
-        <v>48.6393</v>
+        <v>47.5607</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8415</v>
+        <v>20.8032</v>
       </c>
       <c r="C8" t="n">
-        <v>41.7936</v>
+        <v>41.6444</v>
       </c>
       <c r="D8" t="n">
-        <v>51.9012</v>
+        <v>50.9326</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3262</v>
+        <v>23.2723</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2372</v>
+        <v>44.8494</v>
       </c>
       <c r="D9" t="n">
-        <v>54.7726</v>
+        <v>53.394</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3861</v>
+        <v>22.3396</v>
       </c>
       <c r="C10" t="n">
-        <v>44.8633</v>
+        <v>43.4767</v>
       </c>
       <c r="D10" t="n">
-        <v>54.2737</v>
+        <v>53.227</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3398</v>
+        <v>21.0885</v>
       </c>
       <c r="C11" t="n">
-        <v>44.9582</v>
+        <v>42.7759</v>
       </c>
       <c r="D11" t="n">
-        <v>53.5337</v>
+        <v>53.5666</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6973</v>
+        <v>21.5072</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7781</v>
+        <v>45.5949</v>
       </c>
       <c r="D12" t="n">
-        <v>53.2578</v>
+        <v>53.49</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4635</v>
+        <v>22.8071</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3637</v>
+        <v>44.8788</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9119</v>
+        <v>54.671</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7208</v>
+        <v>22.3006</v>
       </c>
       <c r="C14" t="n">
-        <v>46.3333</v>
+        <v>43.5277</v>
       </c>
       <c r="D14" t="n">
-        <v>53.956</v>
+        <v>53.1937</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7275</v>
+        <v>21.2873</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8069</v>
+        <v>46.6063</v>
       </c>
       <c r="D15" t="n">
-        <v>54.2478</v>
+        <v>54.1758</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7505</v>
+        <v>21.46</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2287</v>
+        <v>45.1522</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4799</v>
+        <v>56.0846</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1229</v>
+        <v>21.7388</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1017</v>
+        <v>43.0282</v>
       </c>
       <c r="D17" t="n">
-        <v>53.6931</v>
+        <v>51.4971</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89672</v>
+        <v>3.83542</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8003</v>
+        <v>12.6664</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8793</v>
+        <v>16.9396</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.13887</v>
+        <v>6.14921</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6945</v>
+        <v>17.5329</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9807</v>
+        <v>24.6213</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.33412</v>
+        <v>8.31049</v>
       </c>
       <c r="C4" t="n">
-        <v>23.2133</v>
+        <v>23.4065</v>
       </c>
       <c r="D4" t="n">
-        <v>34.304</v>
+        <v>33.8683</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4415</v>
+        <v>10.3985</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6534</v>
+        <v>28.9276</v>
       </c>
       <c r="D5" t="n">
-        <v>43.4218</v>
+        <v>42.6593</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4787</v>
+        <v>12.3892</v>
       </c>
       <c r="C6" t="n">
-        <v>33.6858</v>
+        <v>34.3294</v>
       </c>
       <c r="D6" t="n">
-        <v>52.2642</v>
+        <v>51.789</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3283</v>
+        <v>14.3124</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7759</v>
+        <v>40.0722</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4138</v>
+        <v>60.8808</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2654</v>
+        <v>16.1641</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8229</v>
+        <v>45.2832</v>
       </c>
       <c r="D8" t="n">
-        <v>70.03789999999999</v>
+        <v>69.3858</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5998</v>
+        <v>18.6472</v>
       </c>
       <c r="C9" t="n">
-        <v>54.2048</v>
+        <v>53.7785</v>
       </c>
       <c r="D9" t="n">
-        <v>78.1285</v>
+        <v>78.23180000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4787</v>
+        <v>17.4986</v>
       </c>
       <c r="C10" t="n">
-        <v>49.5619</v>
+        <v>49.5153</v>
       </c>
       <c r="D10" t="n">
-        <v>70.70489999999999</v>
+        <v>70.5532</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5456</v>
+        <v>17.4683</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7355</v>
+        <v>47.9426</v>
       </c>
       <c r="D11" t="n">
-        <v>70.3503</v>
+        <v>69.0416</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6176</v>
+        <v>17.5752</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0295</v>
+        <v>48.8789</v>
       </c>
       <c r="D12" t="n">
-        <v>70.55110000000001</v>
+        <v>68.9515</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9761</v>
+        <v>17.9921</v>
       </c>
       <c r="C13" t="n">
-        <v>50.4164</v>
+        <v>49.9991</v>
       </c>
       <c r="D13" t="n">
-        <v>72.41419999999999</v>
+        <v>70.1468</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.283</v>
+        <v>17.1848</v>
       </c>
       <c r="C14" t="n">
-        <v>49.7192</v>
+        <v>49.4554</v>
       </c>
       <c r="D14" t="n">
-        <v>71.1048</v>
+        <v>69.86279999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9786</v>
+        <v>17.9957</v>
       </c>
       <c r="C15" t="n">
-        <v>49.7854</v>
+        <v>50.2021</v>
       </c>
       <c r="D15" t="n">
-        <v>70.9465</v>
+        <v>70.599</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8014</v>
+        <v>17.8908</v>
       </c>
       <c r="C16" t="n">
-        <v>50.4414</v>
+        <v>50.2515</v>
       </c>
       <c r="D16" t="n">
-        <v>71.7221</v>
+        <v>72.4494</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9702</v>
+        <v>17.7144</v>
       </c>
       <c r="C17" t="n">
-        <v>49.4932</v>
+        <v>49.6088</v>
       </c>
       <c r="D17" t="n">
-        <v>70.95699999999999</v>
+        <v>73.2659</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.8478</v>
+        <v>3.87755</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5627</v>
+        <v>12.5594</v>
       </c>
       <c r="D2" t="n">
-        <v>17.7097</v>
+        <v>17.0045</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0706</v>
+        <v>6.11527</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8668</v>
+        <v>17.0361</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6321</v>
+        <v>24.0776</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.465170000000001</v>
+        <v>8.408580000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5517</v>
+        <v>22.4265</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9378</v>
+        <v>33.1604</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6543</v>
+        <v>10.5115</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9798</v>
+        <v>28.1259</v>
       </c>
       <c r="D5" t="n">
-        <v>42.6099</v>
+        <v>42.1292</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7383</v>
+        <v>12.6301</v>
       </c>
       <c r="C6" t="n">
-        <v>33.7011</v>
+        <v>33.5179</v>
       </c>
       <c r="D6" t="n">
-        <v>51.7154</v>
+        <v>50.9564</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6417</v>
+        <v>14.6105</v>
       </c>
       <c r="C7" t="n">
-        <v>39.1885</v>
+        <v>39.0411</v>
       </c>
       <c r="D7" t="n">
-        <v>61.0375</v>
+        <v>60.1542</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4685</v>
+        <v>16.4404</v>
       </c>
       <c r="C8" t="n">
-        <v>44.9225</v>
+        <v>45.0804</v>
       </c>
       <c r="D8" t="n">
-        <v>69.04600000000001</v>
+        <v>68.5889</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1711</v>
+        <v>18.9821</v>
       </c>
       <c r="C9" t="n">
-        <v>52.9551</v>
+        <v>52.6036</v>
       </c>
       <c r="D9" t="n">
-        <v>77.76220000000001</v>
+        <v>77.90309999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.191</v>
+        <v>17.7961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8084</v>
+        <v>47.2263</v>
       </c>
       <c r="D10" t="n">
-        <v>71.58159999999999</v>
+        <v>67.66589999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8074</v>
+        <v>17.9963</v>
       </c>
       <c r="C11" t="n">
-        <v>47.6426</v>
+        <v>47.18</v>
       </c>
       <c r="D11" t="n">
-        <v>69.61360000000001</v>
+        <v>68.92319999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9644</v>
+        <v>17.7929</v>
       </c>
       <c r="C12" t="n">
-        <v>48.2209</v>
+        <v>48.5894</v>
       </c>
       <c r="D12" t="n">
-        <v>69.5917</v>
+        <v>68.69070000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.5269</v>
+        <v>18.047</v>
       </c>
       <c r="C13" t="n">
-        <v>48.2701</v>
+        <v>49.7036</v>
       </c>
       <c r="D13" t="n">
-        <v>70.1212</v>
+        <v>70.6985</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5678</v>
+        <v>17.5792</v>
       </c>
       <c r="C14" t="n">
-        <v>47.8083</v>
+        <v>48.0292</v>
       </c>
       <c r="D14" t="n">
-        <v>70.03019999999999</v>
+        <v>69.8386</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3826</v>
+        <v>18.311</v>
       </c>
       <c r="C15" t="n">
-        <v>48.8375</v>
+        <v>48.9265</v>
       </c>
       <c r="D15" t="n">
-        <v>70.95180000000001</v>
+        <v>70.15389999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1993</v>
+        <v>18.2057</v>
       </c>
       <c r="C16" t="n">
-        <v>49.4711</v>
+        <v>48.7797</v>
       </c>
       <c r="D16" t="n">
-        <v>70.3231</v>
+        <v>69.2248</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4836</v>
+        <v>18.1105</v>
       </c>
       <c r="C17" t="n">
-        <v>47.9604</v>
+        <v>48.1757</v>
       </c>
       <c r="D17" t="n">
-        <v>70.99809999999999</v>
+        <v>70.2092</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.140700000000001</v>
+        <v>8.05106</v>
       </c>
       <c r="C2" t="n">
-        <v>17.268</v>
+        <v>17.2869</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3565</v>
+        <v>20.2708</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.48545</v>
+        <v>9.28388</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9362</v>
+        <v>18.8153</v>
       </c>
       <c r="D3" t="n">
-        <v>27.1357</v>
+        <v>26.0621</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6513</v>
+        <v>11.6595</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2798</v>
+        <v>24.2509</v>
       </c>
       <c r="D4" t="n">
-        <v>36.6331</v>
+        <v>35.3574</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8436</v>
+        <v>13.7855</v>
       </c>
       <c r="C5" t="n">
-        <v>30.3138</v>
+        <v>30.2451</v>
       </c>
       <c r="D5" t="n">
-        <v>45.1462</v>
+        <v>44.0869</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.1062</v>
+        <v>16.0818</v>
       </c>
       <c r="C6" t="n">
-        <v>36.4085</v>
+        <v>36.3735</v>
       </c>
       <c r="D6" t="n">
-        <v>53.7849</v>
+        <v>52.4769</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.3649</v>
+        <v>18.2297</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8245</v>
+        <v>42.9142</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2431</v>
+        <v>60.2746</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6334</v>
+        <v>20.6357</v>
       </c>
       <c r="C8" t="n">
-        <v>49.3421</v>
+        <v>49.1187</v>
       </c>
       <c r="D8" t="n">
-        <v>68.00790000000001</v>
+        <v>67.26479999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7553</v>
+        <v>23.5827</v>
       </c>
       <c r="C9" t="n">
-        <v>56.9504</v>
+        <v>56.6836</v>
       </c>
       <c r="D9" t="n">
-        <v>76.28360000000001</v>
+        <v>75.312</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.6796</v>
+        <v>22.5882</v>
       </c>
       <c r="C10" t="n">
-        <v>52.5555</v>
+        <v>51.9072</v>
       </c>
       <c r="D10" t="n">
-        <v>68.8481</v>
+        <v>66.5211</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4521</v>
+        <v>22.5258</v>
       </c>
       <c r="C11" t="n">
-        <v>52.3766</v>
+        <v>52.7004</v>
       </c>
       <c r="D11" t="n">
-        <v>69.2191</v>
+        <v>69.7779</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.6343</v>
+        <v>22.625</v>
       </c>
       <c r="C12" t="n">
-        <v>54.1245</v>
+        <v>53.176</v>
       </c>
       <c r="D12" t="n">
-        <v>71.1575</v>
+        <v>70.8057</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9246</v>
+        <v>22.9803</v>
       </c>
       <c r="C13" t="n">
-        <v>54.1272</v>
+        <v>54.7056</v>
       </c>
       <c r="D13" t="n">
-        <v>71.67870000000001</v>
+        <v>70.3556</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2135</v>
+        <v>22.2558</v>
       </c>
       <c r="C14" t="n">
-        <v>53.4843</v>
+        <v>53.4734</v>
       </c>
       <c r="D14" t="n">
-        <v>72.3874</v>
+        <v>70.55880000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1381</v>
+        <v>23.005</v>
       </c>
       <c r="C15" t="n">
-        <v>54.3382</v>
+        <v>53.2416</v>
       </c>
       <c r="D15" t="n">
-        <v>73.3008</v>
+        <v>72.5438</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.938</v>
+        <v>23.0442</v>
       </c>
       <c r="C16" t="n">
-        <v>53.6946</v>
+        <v>54.8492</v>
       </c>
       <c r="D16" t="n">
-        <v>73.0805</v>
+        <v>72.41119999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9755</v>
+        <v>22.7562</v>
       </c>
       <c r="C17" t="n">
-        <v>53.972</v>
+        <v>54.3304</v>
       </c>
       <c r="D17" t="n">
-        <v>71.9954</v>
+        <v>70.55419999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.327640000000001</v>
+        <v>9.471959999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7007</v>
+        <v>16.6992</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6401</v>
+        <v>19.6493</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.08703</v>
+        <v>9.009399999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3588</v>
+        <v>17.58</v>
       </c>
       <c r="D3" t="n">
-        <v>22.928</v>
+        <v>22.6553</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.6797</v>
+        <v>10.8267</v>
       </c>
       <c r="C4" t="n">
-        <v>21.2924</v>
+        <v>22.0284</v>
       </c>
       <c r="D4" t="n">
-        <v>30.2697</v>
+        <v>30.4932</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5778</v>
+        <v>12.5504</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1508</v>
+        <v>26.9563</v>
       </c>
       <c r="D5" t="n">
-        <v>35.9661</v>
+        <v>37.7119</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5178</v>
+        <v>14.7672</v>
       </c>
       <c r="C6" t="n">
-        <v>29.6643</v>
+        <v>31.5623</v>
       </c>
       <c r="D6" t="n">
-        <v>42.1796</v>
+        <v>43.3962</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8433</v>
+        <v>16.9037</v>
       </c>
       <c r="C7" t="n">
-        <v>35.3252</v>
+        <v>37.5493</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5922</v>
+        <v>50.3447</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3505</v>
+        <v>18.415</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5891</v>
+        <v>40.8971</v>
       </c>
       <c r="D8" t="n">
-        <v>52.8145</v>
+        <v>55.9811</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5819</v>
+        <v>21.6488</v>
       </c>
       <c r="C9" t="n">
-        <v>44.6702</v>
+        <v>45.6638</v>
       </c>
       <c r="D9" t="n">
-        <v>57.1217</v>
+        <v>58.6838</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.4567</v>
+        <v>19.1042</v>
       </c>
       <c r="C10" t="n">
-        <v>41.2546</v>
+        <v>42.6641</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7544</v>
+        <v>55.0975</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4516</v>
+        <v>18.6358</v>
       </c>
       <c r="C11" t="n">
-        <v>40.2865</v>
+        <v>41.4189</v>
       </c>
       <c r="D11" t="n">
-        <v>54.1484</v>
+        <v>56.6423</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0095</v>
+        <v>19.2826</v>
       </c>
       <c r="C12" t="n">
-        <v>39.8111</v>
+        <v>42.7202</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9054</v>
+        <v>57.2251</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7024</v>
+        <v>19.7696</v>
       </c>
       <c r="C13" t="n">
-        <v>42.447</v>
+        <v>43.945</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3347</v>
+        <v>59.0579</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2064</v>
+        <v>19.2899</v>
       </c>
       <c r="C14" t="n">
-        <v>42.6057</v>
+        <v>44.7154</v>
       </c>
       <c r="D14" t="n">
-        <v>59.9663</v>
+        <v>59.6286</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3979</v>
+        <v>19.4393</v>
       </c>
       <c r="C15" t="n">
-        <v>41.589</v>
+        <v>44.1351</v>
       </c>
       <c r="D15" t="n">
-        <v>57.825</v>
+        <v>60.7029</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1224</v>
+        <v>19.8809</v>
       </c>
       <c r="C16" t="n">
-        <v>43.9671</v>
+        <v>42.6262</v>
       </c>
       <c r="D16" t="n">
-        <v>60.9006</v>
+        <v>60.796</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2961</v>
+        <v>19.3034</v>
       </c>
       <c r="C17" t="n">
-        <v>41.4944</v>
+        <v>42.9027</v>
       </c>
       <c r="D17" t="n">
-        <v>61.0354</v>
+        <v>61.2061</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.95416</v>
+        <v>10.038</v>
       </c>
       <c r="C2" t="n">
-        <v>16.5949</v>
+        <v>16.592</v>
       </c>
       <c r="D2" t="n">
-        <v>19.474</v>
+        <v>19.4872</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.303269999999999</v>
+        <v>9.53904</v>
       </c>
       <c r="C3" t="n">
-        <v>16.7936</v>
+        <v>17.3214</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3709</v>
+        <v>22.9556</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1549</v>
+        <v>11.1845</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8388</v>
+        <v>21.7372</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1172</v>
+        <v>30.1804</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0404</v>
+        <v>13.1142</v>
       </c>
       <c r="C5" t="n">
-        <v>25.1745</v>
+        <v>26.0877</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3363</v>
+        <v>36.4409</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1379</v>
+        <v>15.2917</v>
       </c>
       <c r="C6" t="n">
-        <v>29.7833</v>
+        <v>30.922</v>
       </c>
       <c r="D6" t="n">
-        <v>42.547</v>
+        <v>43.4166</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2947</v>
+        <v>17.5064</v>
       </c>
       <c r="C7" t="n">
-        <v>34.6121</v>
+        <v>36.967</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2686</v>
+        <v>49.8728</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1106</v>
+        <v>19.0834</v>
       </c>
       <c r="C8" t="n">
-        <v>38.37</v>
+        <v>39.661</v>
       </c>
       <c r="D8" t="n">
-        <v>53.0268</v>
+        <v>54.8069</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5369</v>
+        <v>22.56</v>
       </c>
       <c r="C9" t="n">
-        <v>41.6143</v>
+        <v>46.0457</v>
       </c>
       <c r="D9" t="n">
-        <v>55.1463</v>
+        <v>61.1414</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3684</v>
+        <v>19.4824</v>
       </c>
       <c r="C10" t="n">
-        <v>41.2686</v>
+        <v>42.3083</v>
       </c>
       <c r="D10" t="n">
-        <v>51.5549</v>
+        <v>54.5595</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0792</v>
+        <v>19.169</v>
       </c>
       <c r="C11" t="n">
-        <v>41.4079</v>
+        <v>42.2858</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5036</v>
+        <v>56.5226</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9922</v>
+        <v>19.9676</v>
       </c>
       <c r="C12" t="n">
-        <v>40.4529</v>
+        <v>42.6246</v>
       </c>
       <c r="D12" t="n">
-        <v>54.286</v>
+        <v>56.6671</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3782</v>
+        <v>20.1073</v>
       </c>
       <c r="C13" t="n">
-        <v>43.0993</v>
+        <v>42.5219</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7188</v>
+        <v>60.7837</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8698</v>
+        <v>20.0066</v>
       </c>
       <c r="C14" t="n">
-        <v>41.3863</v>
+        <v>42.639</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2801</v>
+        <v>56.3185</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8217</v>
+        <v>20.0323</v>
       </c>
       <c r="C15" t="n">
-        <v>42.2773</v>
+        <v>43.7805</v>
       </c>
       <c r="D15" t="n">
-        <v>58.7135</v>
+        <v>58.5172</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.335</v>
+        <v>19.9998</v>
       </c>
       <c r="C16" t="n">
-        <v>40.8481</v>
+        <v>43.3094</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5497</v>
+        <v>61.5797</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2807</v>
+        <v>19.6845</v>
       </c>
       <c r="C17" t="n">
-        <v>40.905</v>
+        <v>43.105</v>
       </c>
       <c r="D17" t="n">
-        <v>59.2488</v>
+        <v>61.8763</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.3936</v>
+        <v>12.6485</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4597</v>
+        <v>18.4515</v>
       </c>
       <c r="D2" t="n">
-        <v>20.495</v>
+        <v>20.4797</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2928</v>
+        <v>10.3226</v>
       </c>
       <c r="C3" t="n">
-        <v>18.349</v>
+        <v>18.1599</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1944</v>
+        <v>24.0771</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2642</v>
+        <v>12.2573</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6293</v>
+        <v>23.1448</v>
       </c>
       <c r="D4" t="n">
-        <v>30.9305</v>
+        <v>31.6204</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1079</v>
+        <v>14.1232</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5139</v>
+        <v>27.698</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1622</v>
+        <v>37.8331</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6421</v>
+        <v>16.4884</v>
       </c>
       <c r="C6" t="n">
-        <v>33.4546</v>
+        <v>33.2564</v>
       </c>
       <c r="D6" t="n">
-        <v>41.9493</v>
+        <v>43.6259</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9119</v>
+        <v>18.8912</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3091</v>
+        <v>38.1701</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5607</v>
+        <v>49.257</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8032</v>
+        <v>20.9117</v>
       </c>
       <c r="C8" t="n">
-        <v>41.6444</v>
+        <v>42.4398</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9326</v>
+        <v>52.9323</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2723</v>
+        <v>23.2933</v>
       </c>
       <c r="C9" t="n">
-        <v>44.8494</v>
+        <v>46.6092</v>
       </c>
       <c r="D9" t="n">
-        <v>53.394</v>
+        <v>55.8582</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3396</v>
+        <v>22.3276</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4767</v>
+        <v>44.9229</v>
       </c>
       <c r="D10" t="n">
-        <v>53.227</v>
+        <v>53.8624</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0885</v>
+        <v>21.2725</v>
       </c>
       <c r="C11" t="n">
-        <v>42.7759</v>
+        <v>44.3027</v>
       </c>
       <c r="D11" t="n">
-        <v>53.5666</v>
+        <v>52.8776</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5072</v>
+        <v>21.8105</v>
       </c>
       <c r="C12" t="n">
-        <v>45.5949</v>
+        <v>44.5705</v>
       </c>
       <c r="D12" t="n">
-        <v>53.49</v>
+        <v>54.2116</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8071</v>
+        <v>22.47</v>
       </c>
       <c r="C13" t="n">
-        <v>44.8788</v>
+        <v>47.7878</v>
       </c>
       <c r="D13" t="n">
-        <v>54.671</v>
+        <v>54.8848</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3006</v>
+        <v>22.0496</v>
       </c>
       <c r="C14" t="n">
-        <v>43.5277</v>
+        <v>47.7676</v>
       </c>
       <c r="D14" t="n">
-        <v>53.1937</v>
+        <v>52.253</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2873</v>
+        <v>21.2749</v>
       </c>
       <c r="C15" t="n">
-        <v>46.6063</v>
+        <v>46.7135</v>
       </c>
       <c r="D15" t="n">
-        <v>54.1758</v>
+        <v>53.8064</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.46</v>
+        <v>21.5901</v>
       </c>
       <c r="C16" t="n">
-        <v>45.1522</v>
+        <v>44.2218</v>
       </c>
       <c r="D16" t="n">
-        <v>56.0846</v>
+        <v>53.4531</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7388</v>
+        <v>21.3075</v>
       </c>
       <c r="C17" t="n">
-        <v>43.0282</v>
+        <v>44.269</v>
       </c>
       <c r="D17" t="n">
-        <v>51.4971</v>
+        <v>52.3649</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.83542</v>
+        <v>3.9191</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6664</v>
+        <v>12.7203</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9396</v>
+        <v>17.0931</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14921</v>
+        <v>6.07148</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5329</v>
+        <v>17.3392</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6213</v>
+        <v>24.315</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.31049</v>
+        <v>8.393319999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>23.4065</v>
+        <v>23.3093</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8683</v>
+        <v>33.8775</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3985</v>
+        <v>10.5068</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9276</v>
+        <v>29.0325</v>
       </c>
       <c r="D5" t="n">
-        <v>42.6593</v>
+        <v>42.724</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3892</v>
+        <v>12.5736</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3294</v>
+        <v>34.5068</v>
       </c>
       <c r="D6" t="n">
-        <v>51.789</v>
+        <v>51.9346</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3124</v>
+        <v>14.4435</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0722</v>
+        <v>40.3517</v>
       </c>
       <c r="D7" t="n">
-        <v>60.8808</v>
+        <v>60.7707</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1641</v>
+        <v>16.1726</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2832</v>
+        <v>46.0967</v>
       </c>
       <c r="D8" t="n">
-        <v>69.3858</v>
+        <v>69.8104</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6472</v>
+        <v>18.6565</v>
       </c>
       <c r="C9" t="n">
-        <v>53.7785</v>
+        <v>55.0029</v>
       </c>
       <c r="D9" t="n">
-        <v>78.23180000000001</v>
+        <v>78.89660000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4986</v>
+        <v>17.7237</v>
       </c>
       <c r="C10" t="n">
-        <v>49.5153</v>
+        <v>49.4232</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5532</v>
+        <v>68.3644</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4683</v>
+        <v>17.352</v>
       </c>
       <c r="C11" t="n">
-        <v>47.9426</v>
+        <v>48.7977</v>
       </c>
       <c r="D11" t="n">
-        <v>69.0416</v>
+        <v>68.44929999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5752</v>
+        <v>17.7696</v>
       </c>
       <c r="C12" t="n">
-        <v>48.8789</v>
+        <v>48.8058</v>
       </c>
       <c r="D12" t="n">
-        <v>68.9515</v>
+        <v>70.2783</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9921</v>
+        <v>18.0073</v>
       </c>
       <c r="C13" t="n">
-        <v>49.9991</v>
+        <v>50.7996</v>
       </c>
       <c r="D13" t="n">
-        <v>70.1468</v>
+        <v>71.54470000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1848</v>
+        <v>17.3287</v>
       </c>
       <c r="C14" t="n">
-        <v>49.4554</v>
+        <v>50.0807</v>
       </c>
       <c r="D14" t="n">
-        <v>69.86279999999999</v>
+        <v>70.06100000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9957</v>
+        <v>17.9537</v>
       </c>
       <c r="C15" t="n">
-        <v>50.2021</v>
+        <v>49.743</v>
       </c>
       <c r="D15" t="n">
-        <v>70.599</v>
+        <v>70.1391</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8908</v>
+        <v>17.9618</v>
       </c>
       <c r="C16" t="n">
-        <v>50.2515</v>
+        <v>50.0767</v>
       </c>
       <c r="D16" t="n">
-        <v>72.4494</v>
+        <v>69.9263</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7144</v>
+        <v>18.0743</v>
       </c>
       <c r="C17" t="n">
-        <v>49.6088</v>
+        <v>50.1246</v>
       </c>
       <c r="D17" t="n">
-        <v>73.2659</v>
+        <v>71.84990000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.87755</v>
+        <v>3.90056</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5594</v>
+        <v>12.6097</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0045</v>
+        <v>17.0246</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11527</v>
+        <v>6.18803</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0361</v>
+        <v>17.0071</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0776</v>
+        <v>24.1294</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.408580000000001</v>
+        <v>8.48753</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4265</v>
+        <v>22.5512</v>
       </c>
       <c r="D4" t="n">
-        <v>33.1604</v>
+        <v>33.3193</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5115</v>
+        <v>10.6749</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1259</v>
+        <v>28.1561</v>
       </c>
       <c r="D5" t="n">
-        <v>42.1292</v>
+        <v>42.1312</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6301</v>
+        <v>12.6171</v>
       </c>
       <c r="C6" t="n">
-        <v>33.5179</v>
+        <v>34.0656</v>
       </c>
       <c r="D6" t="n">
-        <v>50.9564</v>
+        <v>51.3054</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6105</v>
+        <v>14.7335</v>
       </c>
       <c r="C7" t="n">
-        <v>39.0411</v>
+        <v>39.6726</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1542</v>
+        <v>60.3991</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4404</v>
+        <v>16.4988</v>
       </c>
       <c r="C8" t="n">
-        <v>45.0804</v>
+        <v>45.2639</v>
       </c>
       <c r="D8" t="n">
-        <v>68.5889</v>
+        <v>68.7641</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9821</v>
+        <v>19.1832</v>
       </c>
       <c r="C9" t="n">
-        <v>52.6036</v>
+        <v>53.7637</v>
       </c>
       <c r="D9" t="n">
-        <v>77.90309999999999</v>
+        <v>78.46080000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7961</v>
+        <v>17.8919</v>
       </c>
       <c r="C10" t="n">
-        <v>47.2263</v>
+        <v>48.7941</v>
       </c>
       <c r="D10" t="n">
-        <v>67.66589999999999</v>
+        <v>70.39830000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9963</v>
+        <v>18.0407</v>
       </c>
       <c r="C11" t="n">
-        <v>47.18</v>
+        <v>47.8216</v>
       </c>
       <c r="D11" t="n">
-        <v>68.92319999999999</v>
+        <v>68.1764</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7929</v>
+        <v>17.9985</v>
       </c>
       <c r="C12" t="n">
-        <v>48.5894</v>
+        <v>49.2605</v>
       </c>
       <c r="D12" t="n">
-        <v>68.69070000000001</v>
+        <v>69.6575</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.047</v>
+        <v>18.3027</v>
       </c>
       <c r="C13" t="n">
-        <v>49.7036</v>
+        <v>49.8015</v>
       </c>
       <c r="D13" t="n">
-        <v>70.6985</v>
+        <v>69.5941</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5792</v>
+        <v>17.7633</v>
       </c>
       <c r="C14" t="n">
-        <v>48.0292</v>
+        <v>48.6625</v>
       </c>
       <c r="D14" t="n">
-        <v>69.8386</v>
+        <v>68.6189</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.311</v>
+        <v>18.1236</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9265</v>
+        <v>49.0958</v>
       </c>
       <c r="D15" t="n">
-        <v>70.15389999999999</v>
+        <v>67.9776</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2057</v>
+        <v>18.303</v>
       </c>
       <c r="C16" t="n">
-        <v>48.7797</v>
+        <v>49.4947</v>
       </c>
       <c r="D16" t="n">
-        <v>69.2248</v>
+        <v>71.7317</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1105</v>
+        <v>18.2264</v>
       </c>
       <c r="C17" t="n">
-        <v>48.1757</v>
+        <v>49.2302</v>
       </c>
       <c r="D17" t="n">
-        <v>70.2092</v>
+        <v>69.7137</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.05106</v>
+        <v>8.18694</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2869</v>
+        <v>17.2727</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2708</v>
+        <v>20.2488</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.28388</v>
+        <v>9.2517</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8153</v>
+        <v>18.8453</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0621</v>
+        <v>26.2212</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6595</v>
+        <v>11.7028</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2509</v>
+        <v>24.4547</v>
       </c>
       <c r="D4" t="n">
-        <v>35.3574</v>
+        <v>35.7135</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7855</v>
+        <v>13.8611</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2451</v>
+        <v>30.2816</v>
       </c>
       <c r="D5" t="n">
-        <v>44.0869</v>
+        <v>44.335</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0818</v>
+        <v>16.1657</v>
       </c>
       <c r="C6" t="n">
-        <v>36.3735</v>
+        <v>36.5553</v>
       </c>
       <c r="D6" t="n">
-        <v>52.4769</v>
+        <v>52.7066</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.2297</v>
+        <v>18.4963</v>
       </c>
       <c r="C7" t="n">
-        <v>42.9142</v>
+        <v>43.1055</v>
       </c>
       <c r="D7" t="n">
-        <v>60.2746</v>
+        <v>60.5575</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6357</v>
+        <v>20.6833</v>
       </c>
       <c r="C8" t="n">
-        <v>49.1187</v>
+        <v>49.5384</v>
       </c>
       <c r="D8" t="n">
-        <v>67.26479999999999</v>
+        <v>67.62869999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5827</v>
+        <v>23.7514</v>
       </c>
       <c r="C9" t="n">
-        <v>56.6836</v>
+        <v>57.1742</v>
       </c>
       <c r="D9" t="n">
-        <v>75.312</v>
+        <v>76.0492</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5882</v>
+        <v>22.5645</v>
       </c>
       <c r="C10" t="n">
-        <v>51.9072</v>
+        <v>52.4035</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5211</v>
+        <v>66.9194</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5258</v>
+        <v>22.3669</v>
       </c>
       <c r="C11" t="n">
-        <v>52.7004</v>
+        <v>52.6164</v>
       </c>
       <c r="D11" t="n">
-        <v>69.7779</v>
+        <v>69.7974</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.625</v>
+        <v>22.5047</v>
       </c>
       <c r="C12" t="n">
-        <v>53.176</v>
+        <v>53.964</v>
       </c>
       <c r="D12" t="n">
-        <v>70.8057</v>
+        <v>70.6155</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9803</v>
+        <v>23.0204</v>
       </c>
       <c r="C13" t="n">
-        <v>54.7056</v>
+        <v>54.6364</v>
       </c>
       <c r="D13" t="n">
-        <v>70.3556</v>
+        <v>71.9821</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2558</v>
+        <v>22.2823</v>
       </c>
       <c r="C14" t="n">
-        <v>53.4734</v>
+        <v>53.2268</v>
       </c>
       <c r="D14" t="n">
-        <v>70.55880000000001</v>
+        <v>71.1707</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.005</v>
+        <v>23.1783</v>
       </c>
       <c r="C15" t="n">
-        <v>53.2416</v>
+        <v>54.5744</v>
       </c>
       <c r="D15" t="n">
-        <v>72.5438</v>
+        <v>72.1824</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0442</v>
+        <v>23.0365</v>
       </c>
       <c r="C16" t="n">
-        <v>54.8492</v>
+        <v>53.4866</v>
       </c>
       <c r="D16" t="n">
-        <v>72.41119999999999</v>
+        <v>71.6767</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7562</v>
+        <v>23.1042</v>
       </c>
       <c r="C17" t="n">
-        <v>54.3304</v>
+        <v>53.8858</v>
       </c>
       <c r="D17" t="n">
-        <v>70.55419999999999</v>
+        <v>72.5266</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.471959999999999</v>
+        <v>9.47444</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6992</v>
+        <v>16.7208</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6493</v>
+        <v>19.7421</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.009399999999999</v>
+        <v>9.298999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17.58</v>
+        <v>17.6812</v>
       </c>
       <c r="D3" t="n">
-        <v>22.6553</v>
+        <v>23.3266</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8267</v>
+        <v>10.7901</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0284</v>
+        <v>21.8039</v>
       </c>
       <c r="D4" t="n">
-        <v>30.4932</v>
+        <v>30.2974</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5504</v>
+        <v>12.5787</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9563</v>
+        <v>26.9171</v>
       </c>
       <c r="D5" t="n">
-        <v>37.7119</v>
+        <v>37.5828</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.7672</v>
+        <v>14.67</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5623</v>
+        <v>31.6728</v>
       </c>
       <c r="D6" t="n">
-        <v>43.3962</v>
+        <v>44.5301</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.9037</v>
+        <v>16.8725</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5493</v>
+        <v>37.9397</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3447</v>
+        <v>50.6585</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.415</v>
+        <v>18.3846</v>
       </c>
       <c r="C8" t="n">
-        <v>40.8971</v>
+        <v>40.3206</v>
       </c>
       <c r="D8" t="n">
-        <v>55.9811</v>
+        <v>56.7291</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6488</v>
+        <v>21.6192</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6638</v>
+        <v>45.9656</v>
       </c>
       <c r="D9" t="n">
-        <v>58.6838</v>
+        <v>61.6995</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1042</v>
+        <v>19.3574</v>
       </c>
       <c r="C10" t="n">
-        <v>42.6641</v>
+        <v>42.1556</v>
       </c>
       <c r="D10" t="n">
-        <v>55.0975</v>
+        <v>56.3502</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6358</v>
+        <v>18.6745</v>
       </c>
       <c r="C11" t="n">
-        <v>41.4189</v>
+        <v>41.6362</v>
       </c>
       <c r="D11" t="n">
-        <v>56.6423</v>
+        <v>56.4576</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2826</v>
+        <v>19.0165</v>
       </c>
       <c r="C12" t="n">
-        <v>42.7202</v>
+        <v>43.1437</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2251</v>
+        <v>57.2449</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7696</v>
+        <v>19.654</v>
       </c>
       <c r="C13" t="n">
-        <v>43.945</v>
+        <v>42.535</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0579</v>
+        <v>59.0002</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2899</v>
+        <v>19.267</v>
       </c>
       <c r="C14" t="n">
-        <v>44.7154</v>
+        <v>43.3036</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6286</v>
+        <v>60.7835</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4393</v>
+        <v>19.3412</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1351</v>
+        <v>42.332</v>
       </c>
       <c r="D15" t="n">
-        <v>60.7029</v>
+        <v>61.4489</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8809</v>
+        <v>19.5528</v>
       </c>
       <c r="C16" t="n">
-        <v>42.6262</v>
+        <v>44.8297</v>
       </c>
       <c r="D16" t="n">
-        <v>60.796</v>
+        <v>60.1908</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3034</v>
+        <v>19.7373</v>
       </c>
       <c r="C17" t="n">
-        <v>42.9027</v>
+        <v>43.1032</v>
       </c>
       <c r="D17" t="n">
-        <v>61.2061</v>
+        <v>60.3114</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.038</v>
+        <v>10.0214</v>
       </c>
       <c r="C2" t="n">
-        <v>16.592</v>
+        <v>16.6047</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4872</v>
+        <v>19.5552</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.53904</v>
+        <v>9.487209999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3214</v>
+        <v>17.2904</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9556</v>
+        <v>22.9161</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1845</v>
+        <v>11.1272</v>
       </c>
       <c r="C4" t="n">
-        <v>21.7372</v>
+        <v>21.9753</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1804</v>
+        <v>30.3681</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1142</v>
+        <v>13.0184</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0877</v>
+        <v>26.4205</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4409</v>
+        <v>37.3375</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2917</v>
+        <v>15.1131</v>
       </c>
       <c r="C6" t="n">
-        <v>30.922</v>
+        <v>31.702</v>
       </c>
       <c r="D6" t="n">
-        <v>43.4166</v>
+        <v>44.5533</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.5064</v>
+        <v>17.4254</v>
       </c>
       <c r="C7" t="n">
-        <v>36.967</v>
+        <v>37.3676</v>
       </c>
       <c r="D7" t="n">
-        <v>49.8728</v>
+        <v>50.9958</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0834</v>
+        <v>19.019</v>
       </c>
       <c r="C8" t="n">
-        <v>39.661</v>
+        <v>40.7638</v>
       </c>
       <c r="D8" t="n">
-        <v>54.8069</v>
+        <v>55.0178</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.56</v>
+        <v>22.3347</v>
       </c>
       <c r="C9" t="n">
-        <v>46.0457</v>
+        <v>44.7899</v>
       </c>
       <c r="D9" t="n">
-        <v>61.1414</v>
+        <v>62.5377</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4824</v>
+        <v>19.7036</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3083</v>
+        <v>42.0605</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5595</v>
+        <v>56.3185</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.169</v>
+        <v>19.1853</v>
       </c>
       <c r="C11" t="n">
-        <v>42.2858</v>
+        <v>42.3524</v>
       </c>
       <c r="D11" t="n">
-        <v>56.5226</v>
+        <v>55.2003</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9676</v>
+        <v>19.9558</v>
       </c>
       <c r="C12" t="n">
-        <v>42.6246</v>
+        <v>41.9451</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6671</v>
+        <v>56.7009</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1073</v>
+        <v>20.39</v>
       </c>
       <c r="C13" t="n">
-        <v>42.5219</v>
+        <v>43.0684</v>
       </c>
       <c r="D13" t="n">
-        <v>60.7837</v>
+        <v>57.248</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0066</v>
+        <v>19.9607</v>
       </c>
       <c r="C14" t="n">
-        <v>42.639</v>
+        <v>40.74</v>
       </c>
       <c r="D14" t="n">
-        <v>56.3185</v>
+        <v>57.6135</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0323</v>
+        <v>19.9688</v>
       </c>
       <c r="C15" t="n">
-        <v>43.7805</v>
+        <v>42.8531</v>
       </c>
       <c r="D15" t="n">
-        <v>58.5172</v>
+        <v>60.6146</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.9998</v>
+        <v>20.2091</v>
       </c>
       <c r="C16" t="n">
-        <v>43.3094</v>
+        <v>40.658</v>
       </c>
       <c r="D16" t="n">
-        <v>61.5797</v>
+        <v>58.3811</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6845</v>
+        <v>19.7353</v>
       </c>
       <c r="C17" t="n">
-        <v>43.105</v>
+        <v>42.2077</v>
       </c>
       <c r="D17" t="n">
-        <v>61.8763</v>
+        <v>57.5977</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6485</v>
+        <v>12.6732</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4515</v>
+        <v>18.4567</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4797</v>
+        <v>20.5169</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3226</v>
+        <v>10.3566</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1599</v>
+        <v>18.4061</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0771</v>
+        <v>24.345</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2573</v>
+        <v>12.2609</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1448</v>
+        <v>23.1378</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6204</v>
+        <v>31.1487</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1232</v>
+        <v>14.2136</v>
       </c>
       <c r="C5" t="n">
-        <v>27.698</v>
+        <v>28.1676</v>
       </c>
       <c r="D5" t="n">
-        <v>37.8331</v>
+        <v>38.3317</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4884</v>
+        <v>16.5185</v>
       </c>
       <c r="C6" t="n">
-        <v>33.2564</v>
+        <v>32.8711</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6259</v>
+        <v>44.8013</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.8912</v>
+        <v>18.7269</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1701</v>
+        <v>38.8235</v>
       </c>
       <c r="D7" t="n">
-        <v>49.257</v>
+        <v>50.5508</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9117</v>
+        <v>20.8458</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4398</v>
+        <v>41.4892</v>
       </c>
       <c r="D8" t="n">
-        <v>52.9323</v>
+        <v>52.1664</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2933</v>
+        <v>23.3247</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6092</v>
+        <v>46.4624</v>
       </c>
       <c r="D9" t="n">
-        <v>55.8582</v>
+        <v>54.5642</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3276</v>
+        <v>22.3729</v>
       </c>
       <c r="C10" t="n">
-        <v>44.9229</v>
+        <v>44.5692</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8624</v>
+        <v>55.105</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2725</v>
+        <v>21.1715</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3027</v>
+        <v>43.8777</v>
       </c>
       <c r="D11" t="n">
-        <v>52.8776</v>
+        <v>54.4322</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8105</v>
+        <v>21.5389</v>
       </c>
       <c r="C12" t="n">
-        <v>44.5705</v>
+        <v>45.4183</v>
       </c>
       <c r="D12" t="n">
-        <v>54.2116</v>
+        <v>55.6537</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.47</v>
+        <v>22.3782</v>
       </c>
       <c r="C13" t="n">
-        <v>47.7878</v>
+        <v>45.3806</v>
       </c>
       <c r="D13" t="n">
-        <v>54.8848</v>
+        <v>56.0195</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0496</v>
+        <v>21.8872</v>
       </c>
       <c r="C14" t="n">
-        <v>47.7676</v>
+        <v>45.4463</v>
       </c>
       <c r="D14" t="n">
-        <v>52.253</v>
+        <v>53.9263</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2749</v>
+        <v>21.715</v>
       </c>
       <c r="C15" t="n">
-        <v>46.7135</v>
+        <v>46.3741</v>
       </c>
       <c r="D15" t="n">
-        <v>53.8064</v>
+        <v>56.3247</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.5901</v>
+        <v>22.1691</v>
       </c>
       <c r="C16" t="n">
-        <v>44.2218</v>
+        <v>44.399</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4531</v>
+        <v>52.8928</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3075</v>
+        <v>21.4634</v>
       </c>
       <c r="C17" t="n">
-        <v>44.269</v>
+        <v>45.6768</v>
       </c>
       <c r="D17" t="n">
-        <v>52.3649</v>
+        <v>52.4373</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9191</v>
+        <v>3.81783</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7203</v>
+        <v>12.628</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0931</v>
+        <v>16.9551</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.07148</v>
+        <v>6.14046</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3392</v>
+        <v>17.5136</v>
       </c>
       <c r="D3" t="n">
-        <v>24.315</v>
+        <v>24.6514</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.393319999999999</v>
+        <v>8.36716</v>
       </c>
       <c r="C4" t="n">
-        <v>23.3093</v>
+        <v>23.3586</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8775</v>
+        <v>33.9797</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5068</v>
+        <v>10.5361</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0325</v>
+        <v>28.9984</v>
       </c>
       <c r="D5" t="n">
-        <v>42.724</v>
+        <v>42.9957</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5736</v>
+        <v>12.4787</v>
       </c>
       <c r="C6" t="n">
-        <v>34.5068</v>
+        <v>34.3105</v>
       </c>
       <c r="D6" t="n">
-        <v>51.9346</v>
+        <v>52.1328</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4435</v>
+        <v>14.3959</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3517</v>
+        <v>40.0775</v>
       </c>
       <c r="D7" t="n">
-        <v>60.7707</v>
+        <v>61.3202</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1726</v>
+        <v>16.1544</v>
       </c>
       <c r="C8" t="n">
-        <v>46.0967</v>
+        <v>46.0352</v>
       </c>
       <c r="D8" t="n">
-        <v>69.8104</v>
+        <v>70.10980000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6565</v>
+        <v>18.6533</v>
       </c>
       <c r="C9" t="n">
-        <v>55.0029</v>
+        <v>54.993</v>
       </c>
       <c r="D9" t="n">
-        <v>78.89660000000001</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7237</v>
+        <v>17.5892</v>
       </c>
       <c r="C10" t="n">
-        <v>49.4232</v>
+        <v>48.7224</v>
       </c>
       <c r="D10" t="n">
-        <v>68.3644</v>
+        <v>68.3798</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.352</v>
+        <v>17.3795</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7977</v>
+        <v>48.7353</v>
       </c>
       <c r="D11" t="n">
-        <v>68.44929999999999</v>
+        <v>69.8064</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7696</v>
+        <v>17.5067</v>
       </c>
       <c r="C12" t="n">
-        <v>48.8058</v>
+        <v>49.6185</v>
       </c>
       <c r="D12" t="n">
-        <v>70.2783</v>
+        <v>70.87649999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0073</v>
+        <v>18.0034</v>
       </c>
       <c r="C13" t="n">
-        <v>50.7996</v>
+        <v>50.8645</v>
       </c>
       <c r="D13" t="n">
-        <v>71.54470000000001</v>
+        <v>72.4409</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3287</v>
+        <v>17.2544</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0807</v>
+        <v>48.9512</v>
       </c>
       <c r="D14" t="n">
-        <v>70.06100000000001</v>
+        <v>69.9263</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9537</v>
+        <v>17.877</v>
       </c>
       <c r="C15" t="n">
-        <v>49.743</v>
+        <v>49.5867</v>
       </c>
       <c r="D15" t="n">
-        <v>70.1391</v>
+        <v>71.0534</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9618</v>
+        <v>17.9497</v>
       </c>
       <c r="C16" t="n">
-        <v>50.0767</v>
+        <v>50.6164</v>
       </c>
       <c r="D16" t="n">
-        <v>69.9263</v>
+        <v>69.857</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0743</v>
+        <v>18.1771</v>
       </c>
       <c r="C17" t="n">
-        <v>50.1246</v>
+        <v>49.4894</v>
       </c>
       <c r="D17" t="n">
-        <v>71.84990000000001</v>
+        <v>70.17700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.90056</v>
+        <v>3.91393</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6097</v>
+        <v>12.5895</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0246</v>
+        <v>17.0782</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.18803</v>
+        <v>6.21675</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0071</v>
+        <v>17.175</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1294</v>
+        <v>24.2856</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.48753</v>
+        <v>8.41461</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5512</v>
+        <v>22.7799</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3193</v>
+        <v>33.4122</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6749</v>
+        <v>10.5072</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1561</v>
+        <v>28.2925</v>
       </c>
       <c r="D5" t="n">
-        <v>42.1312</v>
+        <v>42.3507</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6171</v>
+        <v>12.666</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0656</v>
+        <v>33.946</v>
       </c>
       <c r="D6" t="n">
-        <v>51.3054</v>
+        <v>51.4598</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7335</v>
+        <v>14.5758</v>
       </c>
       <c r="C7" t="n">
-        <v>39.6726</v>
+        <v>39.7902</v>
       </c>
       <c r="D7" t="n">
-        <v>60.3991</v>
+        <v>60.4417</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4988</v>
+        <v>16.5321</v>
       </c>
       <c r="C8" t="n">
-        <v>45.2639</v>
+        <v>45.5792</v>
       </c>
       <c r="D8" t="n">
-        <v>68.7641</v>
+        <v>69.301</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1832</v>
+        <v>19.1404</v>
       </c>
       <c r="C9" t="n">
-        <v>53.7637</v>
+        <v>53.5009</v>
       </c>
       <c r="D9" t="n">
-        <v>78.46080000000001</v>
+        <v>78.8545</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8919</v>
+        <v>18.0241</v>
       </c>
       <c r="C10" t="n">
-        <v>48.7941</v>
+        <v>49.4287</v>
       </c>
       <c r="D10" t="n">
-        <v>70.39830000000001</v>
+        <v>70.47799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0407</v>
+        <v>17.7413</v>
       </c>
       <c r="C11" t="n">
-        <v>47.8216</v>
+        <v>47.5843</v>
       </c>
       <c r="D11" t="n">
-        <v>68.1764</v>
+        <v>68.8347</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9985</v>
+        <v>17.8994</v>
       </c>
       <c r="C12" t="n">
-        <v>49.2605</v>
+        <v>49.3841</v>
       </c>
       <c r="D12" t="n">
-        <v>69.6575</v>
+        <v>69.24509999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3027</v>
+        <v>18.1761</v>
       </c>
       <c r="C13" t="n">
-        <v>49.8015</v>
+        <v>48.8175</v>
       </c>
       <c r="D13" t="n">
-        <v>69.5941</v>
+        <v>71.194</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7633</v>
+        <v>17.6861</v>
       </c>
       <c r="C14" t="n">
-        <v>48.6625</v>
+        <v>48.486</v>
       </c>
       <c r="D14" t="n">
-        <v>68.6189</v>
+        <v>70.9906</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1236</v>
+        <v>18.4213</v>
       </c>
       <c r="C15" t="n">
-        <v>49.0958</v>
+        <v>49.0121</v>
       </c>
       <c r="D15" t="n">
-        <v>67.9776</v>
+        <v>68.40089999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.303</v>
+        <v>18.2887</v>
       </c>
       <c r="C16" t="n">
-        <v>49.4947</v>
+        <v>49.5242</v>
       </c>
       <c r="D16" t="n">
-        <v>71.7317</v>
+        <v>69.32899999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2264</v>
+        <v>18.1314</v>
       </c>
       <c r="C17" t="n">
-        <v>49.2302</v>
+        <v>48.784</v>
       </c>
       <c r="D17" t="n">
-        <v>69.7137</v>
+        <v>71.636</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.18694</v>
+        <v>8.1279</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2727</v>
+        <v>17.2616</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2488</v>
+        <v>20.2668</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.2517</v>
+        <v>9.51932</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8453</v>
+        <v>18.7126</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2212</v>
+        <v>26.4893</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.7028</v>
+        <v>11.6967</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4547</v>
+        <v>24.5024</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7135</v>
+        <v>35.8011</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8611</v>
+        <v>13.8349</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2816</v>
+        <v>30.3258</v>
       </c>
       <c r="D5" t="n">
-        <v>44.335</v>
+        <v>44.7092</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.1657</v>
+        <v>16.0561</v>
       </c>
       <c r="C6" t="n">
-        <v>36.5553</v>
+        <v>36.4766</v>
       </c>
       <c r="D6" t="n">
-        <v>52.7066</v>
+        <v>52.9709</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.4963</v>
+        <v>18.2603</v>
       </c>
       <c r="C7" t="n">
-        <v>43.1055</v>
+        <v>42.8314</v>
       </c>
       <c r="D7" t="n">
-        <v>60.5575</v>
+        <v>60.7895</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6833</v>
+        <v>20.5181</v>
       </c>
       <c r="C8" t="n">
-        <v>49.5384</v>
+        <v>49.2947</v>
       </c>
       <c r="D8" t="n">
-        <v>67.62869999999999</v>
+        <v>68.1674</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7514</v>
+        <v>23.6801</v>
       </c>
       <c r="C9" t="n">
-        <v>57.1742</v>
+        <v>56.8826</v>
       </c>
       <c r="D9" t="n">
-        <v>76.0492</v>
+        <v>76.51819999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5645</v>
+        <v>22.5787</v>
       </c>
       <c r="C10" t="n">
-        <v>52.4035</v>
+        <v>52.5496</v>
       </c>
       <c r="D10" t="n">
-        <v>66.9194</v>
+        <v>67.26139999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3669</v>
+        <v>22.2191</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6164</v>
+        <v>52.2727</v>
       </c>
       <c r="D11" t="n">
-        <v>69.7974</v>
+        <v>69.2705</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5047</v>
+        <v>22.6369</v>
       </c>
       <c r="C12" t="n">
-        <v>53.964</v>
+        <v>53.5723</v>
       </c>
       <c r="D12" t="n">
-        <v>70.6155</v>
+        <v>70.9187</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.0204</v>
+        <v>23.0312</v>
       </c>
       <c r="C13" t="n">
-        <v>54.6364</v>
+        <v>54.8479</v>
       </c>
       <c r="D13" t="n">
-        <v>71.9821</v>
+        <v>70.4362</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2823</v>
+        <v>22.2251</v>
       </c>
       <c r="C14" t="n">
-        <v>53.2268</v>
+        <v>53.5901</v>
       </c>
       <c r="D14" t="n">
-        <v>71.1707</v>
+        <v>70.98950000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1783</v>
+        <v>23.0432</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5744</v>
+        <v>54.5753</v>
       </c>
       <c r="D15" t="n">
-        <v>72.1824</v>
+        <v>70.9136</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0365</v>
+        <v>23.0433</v>
       </c>
       <c r="C16" t="n">
-        <v>53.4866</v>
+        <v>55.1196</v>
       </c>
       <c r="D16" t="n">
-        <v>71.6767</v>
+        <v>71.5626</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.1042</v>
+        <v>22.6815</v>
       </c>
       <c r="C17" t="n">
-        <v>53.8858</v>
+        <v>55.0965</v>
       </c>
       <c r="D17" t="n">
-        <v>72.5266</v>
+        <v>72.9127</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.47444</v>
+        <v>9.436730000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7208</v>
+        <v>16.685</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7421</v>
+        <v>19.5726</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.298999999999999</v>
+        <v>9.183299999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6812</v>
+        <v>17.2801</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3266</v>
+        <v>22.7172</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7901</v>
+        <v>10.7899</v>
       </c>
       <c r="C4" t="n">
-        <v>21.8039</v>
+        <v>21.4514</v>
       </c>
       <c r="D4" t="n">
-        <v>30.2974</v>
+        <v>29.9092</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5787</v>
+        <v>12.5782</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9171</v>
+        <v>25.4374</v>
       </c>
       <c r="D5" t="n">
-        <v>37.5828</v>
+        <v>35.3078</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.67</v>
+        <v>14.5834</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6728</v>
+        <v>30.1103</v>
       </c>
       <c r="D6" t="n">
-        <v>44.5301</v>
+        <v>41.4684</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8725</v>
+        <v>16.8094</v>
       </c>
       <c r="C7" t="n">
-        <v>37.9397</v>
+        <v>34.7439</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6585</v>
+        <v>49.1546</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3846</v>
+        <v>18.3676</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3206</v>
+        <v>38.2605</v>
       </c>
       <c r="D8" t="n">
-        <v>56.7291</v>
+        <v>53.2056</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6192</v>
+        <v>21.575</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9656</v>
+        <v>43.5609</v>
       </c>
       <c r="D9" t="n">
-        <v>61.6995</v>
+        <v>58.4783</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3574</v>
+        <v>18.5837</v>
       </c>
       <c r="C10" t="n">
-        <v>42.1556</v>
+        <v>40.6222</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3502</v>
+        <v>53.4783</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6745</v>
+        <v>18.5978</v>
       </c>
       <c r="C11" t="n">
-        <v>41.6362</v>
+        <v>40.2898</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4576</v>
+        <v>55.9234</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0165</v>
+        <v>19.2058</v>
       </c>
       <c r="C12" t="n">
-        <v>43.1437</v>
+        <v>41.6898</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2449</v>
+        <v>58.9127</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.654</v>
+        <v>19.7009</v>
       </c>
       <c r="C13" t="n">
-        <v>42.535</v>
+        <v>41.1022</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0002</v>
+        <v>56.5781</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.267</v>
+        <v>19.0025</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3036</v>
+        <v>42.4867</v>
       </c>
       <c r="D14" t="n">
-        <v>60.7835</v>
+        <v>59.1091</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3412</v>
+        <v>18.8318</v>
       </c>
       <c r="C15" t="n">
-        <v>42.332</v>
+        <v>41.541</v>
       </c>
       <c r="D15" t="n">
-        <v>61.4489</v>
+        <v>58.2996</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5528</v>
+        <v>19.6543</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8297</v>
+        <v>43.5302</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1908</v>
+        <v>61.2915</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7373</v>
+        <v>19.428</v>
       </c>
       <c r="C17" t="n">
-        <v>43.1032</v>
+        <v>43.2642</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3114</v>
+        <v>61.7805</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0214</v>
+        <v>10.2081</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6047</v>
+        <v>16.6067</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5552</v>
+        <v>19.5589</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.487209999999999</v>
+        <v>9.3141</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2904</v>
+        <v>16.8676</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9161</v>
+        <v>22.5305</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1272</v>
+        <v>11.1069</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9753</v>
+        <v>20.8092</v>
       </c>
       <c r="D4" t="n">
-        <v>30.3681</v>
+        <v>29.5008</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0184</v>
+        <v>13.0777</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4205</v>
+        <v>24.9602</v>
       </c>
       <c r="D5" t="n">
-        <v>37.3375</v>
+        <v>35.4783</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1131</v>
+        <v>15.159</v>
       </c>
       <c r="C6" t="n">
-        <v>31.702</v>
+        <v>29.3362</v>
       </c>
       <c r="D6" t="n">
-        <v>44.5533</v>
+        <v>42.395</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.4254</v>
+        <v>17.2535</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3676</v>
+        <v>34.481</v>
       </c>
       <c r="D7" t="n">
-        <v>50.9958</v>
+        <v>47.5429</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.019</v>
+        <v>18.9503</v>
       </c>
       <c r="C8" t="n">
-        <v>40.7638</v>
+        <v>38.3888</v>
       </c>
       <c r="D8" t="n">
-        <v>55.0178</v>
+        <v>52.6692</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3347</v>
+        <v>22.42</v>
       </c>
       <c r="C9" t="n">
-        <v>44.7899</v>
+        <v>41.9651</v>
       </c>
       <c r="D9" t="n">
-        <v>62.5377</v>
+        <v>57.3785</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7036</v>
+        <v>19.1698</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0605</v>
+        <v>40.2217</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3185</v>
+        <v>55.5473</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1853</v>
+        <v>19.2968</v>
       </c>
       <c r="C11" t="n">
-        <v>42.3524</v>
+        <v>39.8499</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2003</v>
+        <v>53.8456</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9558</v>
+        <v>19.8309</v>
       </c>
       <c r="C12" t="n">
-        <v>41.9451</v>
+        <v>40.9932</v>
       </c>
       <c r="D12" t="n">
-        <v>56.7009</v>
+        <v>56.6959</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.39</v>
+        <v>20.2895</v>
       </c>
       <c r="C13" t="n">
-        <v>43.0684</v>
+        <v>41.6654</v>
       </c>
       <c r="D13" t="n">
-        <v>57.248</v>
+        <v>57.7048</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9607</v>
+        <v>19.6682</v>
       </c>
       <c r="C14" t="n">
-        <v>40.74</v>
+        <v>41.0503</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6135</v>
+        <v>56.9242</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9688</v>
+        <v>19.8214</v>
       </c>
       <c r="C15" t="n">
-        <v>42.8531</v>
+        <v>42.6996</v>
       </c>
       <c r="D15" t="n">
-        <v>60.6146</v>
+        <v>58.6761</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2091</v>
+        <v>19.368</v>
       </c>
       <c r="C16" t="n">
-        <v>40.658</v>
+        <v>41.2358</v>
       </c>
       <c r="D16" t="n">
-        <v>58.3811</v>
+        <v>58.0841</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7353</v>
+        <v>19.9822</v>
       </c>
       <c r="C17" t="n">
-        <v>42.2077</v>
+        <v>42.4793</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5977</v>
+        <v>59.5168</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6732</v>
+        <v>12.7036</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4567</v>
+        <v>18.4594</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5169</v>
+        <v>20.5514</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3566</v>
+        <v>10.3766</v>
       </c>
       <c r="C3" t="n">
-        <v>18.4061</v>
+        <v>18.1763</v>
       </c>
       <c r="D3" t="n">
-        <v>24.345</v>
+        <v>24.055</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2609</v>
+        <v>12.2588</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1378</v>
+        <v>22.6936</v>
       </c>
       <c r="D4" t="n">
-        <v>31.1487</v>
+        <v>30.5289</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2136</v>
+        <v>14.1833</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1676</v>
+        <v>27.2405</v>
       </c>
       <c r="D5" t="n">
-        <v>38.3317</v>
+        <v>36.4303</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5185</v>
+        <v>16.4286</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8711</v>
+        <v>33.1557</v>
       </c>
       <c r="D6" t="n">
-        <v>44.8013</v>
+        <v>42.9329</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7269</v>
+        <v>18.6545</v>
       </c>
       <c r="C7" t="n">
-        <v>38.8235</v>
+        <v>37.8053</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5508</v>
+        <v>47.7983</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8458</v>
+        <v>20.9113</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4892</v>
+        <v>41.138</v>
       </c>
       <c r="D8" t="n">
-        <v>52.1664</v>
+        <v>50.7506</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3247</v>
+        <v>23.3078</v>
       </c>
       <c r="C9" t="n">
-        <v>46.4624</v>
+        <v>46.3604</v>
       </c>
       <c r="D9" t="n">
-        <v>54.5642</v>
+        <v>55.7493</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3729</v>
+        <v>22.2656</v>
       </c>
       <c r="C10" t="n">
-        <v>44.5692</v>
+        <v>44.7695</v>
       </c>
       <c r="D10" t="n">
-        <v>55.105</v>
+        <v>52.9997</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1715</v>
+        <v>21.1649</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8777</v>
+        <v>43.7758</v>
       </c>
       <c r="D11" t="n">
-        <v>54.4322</v>
+        <v>54.6016</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.5389</v>
+        <v>21.7179</v>
       </c>
       <c r="C12" t="n">
-        <v>45.4183</v>
+        <v>44.4313</v>
       </c>
       <c r="D12" t="n">
-        <v>55.6537</v>
+        <v>53.8937</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3782</v>
+        <v>22.7166</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3806</v>
+        <v>45.4087</v>
       </c>
       <c r="D13" t="n">
-        <v>56.0195</v>
+        <v>55.2251</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8872</v>
+        <v>21.9829</v>
       </c>
       <c r="C14" t="n">
-        <v>45.4463</v>
+        <v>45.1413</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9263</v>
+        <v>56.1406</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.715</v>
+        <v>21.731</v>
       </c>
       <c r="C15" t="n">
-        <v>46.3741</v>
+        <v>43.2037</v>
       </c>
       <c r="D15" t="n">
-        <v>56.3247</v>
+        <v>52.7314</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.1691</v>
+        <v>21.4832</v>
       </c>
       <c r="C16" t="n">
-        <v>44.399</v>
+        <v>46.9776</v>
       </c>
       <c r="D16" t="n">
-        <v>52.8928</v>
+        <v>52.8485</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4634</v>
+        <v>21.5897</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6768</v>
+        <v>45.0226</v>
       </c>
       <c r="D17" t="n">
-        <v>52.4373</v>
+        <v>51.9607</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.81783</v>
+        <v>3.85246</v>
       </c>
       <c r="C2" t="n">
-        <v>12.628</v>
+        <v>12.6453</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9551</v>
+        <v>17.0164</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14046</v>
+        <v>6.03953</v>
       </c>
       <c r="C3" t="n">
-        <v>17.5136</v>
+        <v>17.2709</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6514</v>
+        <v>24.5757</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.36716</v>
+        <v>8.399240000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>23.3586</v>
+        <v>23.142</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9797</v>
+        <v>34.0962</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5361</v>
+        <v>10.4082</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9984</v>
+        <v>28.6199</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9957</v>
+        <v>42.9892</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4787</v>
+        <v>12.3386</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3105</v>
+        <v>34.2805</v>
       </c>
       <c r="D6" t="n">
-        <v>52.1328</v>
+        <v>52.0631</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3959</v>
+        <v>14.2898</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0775</v>
+        <v>39.7256</v>
       </c>
       <c r="D7" t="n">
-        <v>61.3202</v>
+        <v>61.1394</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1544</v>
+        <v>16.1619</v>
       </c>
       <c r="C8" t="n">
-        <v>46.0352</v>
+        <v>45.4676</v>
       </c>
       <c r="D8" t="n">
-        <v>70.10980000000001</v>
+        <v>69.86069999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6533</v>
+        <v>18.6309</v>
       </c>
       <c r="C9" t="n">
-        <v>54.993</v>
+        <v>53.3324</v>
       </c>
       <c r="D9" t="n">
-        <v>79.91</v>
+        <v>79.09869999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5892</v>
+        <v>17.6337</v>
       </c>
       <c r="C10" t="n">
-        <v>48.7224</v>
+        <v>48.3145</v>
       </c>
       <c r="D10" t="n">
-        <v>68.3798</v>
+        <v>70.70059999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3795</v>
+        <v>17.4324</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7353</v>
+        <v>49.3863</v>
       </c>
       <c r="D11" t="n">
-        <v>69.8064</v>
+        <v>69.7551</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5067</v>
+        <v>17.6</v>
       </c>
       <c r="C12" t="n">
-        <v>49.6185</v>
+        <v>49.5283</v>
       </c>
       <c r="D12" t="n">
-        <v>70.87649999999999</v>
+        <v>69.2734</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0034</v>
+        <v>17.8932</v>
       </c>
       <c r="C13" t="n">
-        <v>50.8645</v>
+        <v>49.9855</v>
       </c>
       <c r="D13" t="n">
-        <v>72.4409</v>
+        <v>70.79730000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2544</v>
+        <v>17.3332</v>
       </c>
       <c r="C14" t="n">
-        <v>48.9512</v>
+        <v>49.444</v>
       </c>
       <c r="D14" t="n">
-        <v>69.9263</v>
+        <v>70.1211</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.877</v>
+        <v>17.9517</v>
       </c>
       <c r="C15" t="n">
-        <v>49.5867</v>
+        <v>49.0129</v>
       </c>
       <c r="D15" t="n">
-        <v>71.0534</v>
+        <v>70.75060000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9497</v>
+        <v>17.9609</v>
       </c>
       <c r="C16" t="n">
-        <v>50.6164</v>
+        <v>49.0145</v>
       </c>
       <c r="D16" t="n">
-        <v>69.857</v>
+        <v>71.2697</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1771</v>
+        <v>17.8101</v>
       </c>
       <c r="C17" t="n">
-        <v>49.4894</v>
+        <v>49.1364</v>
       </c>
       <c r="D17" t="n">
-        <v>70.17700000000001</v>
+        <v>70.5908</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.91393</v>
+        <v>3.88348</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5895</v>
+        <v>12.5672</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0782</v>
+        <v>17.0828</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.21675</v>
+        <v>6.25523</v>
       </c>
       <c r="C3" t="n">
-        <v>17.175</v>
+        <v>17.0582</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2856</v>
+        <v>24.2778</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.41461</v>
+        <v>8.442909999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>22.7799</v>
+        <v>22.5316</v>
       </c>
       <c r="D4" t="n">
-        <v>33.4122</v>
+        <v>33.3882</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5072</v>
+        <v>10.5693</v>
       </c>
       <c r="C5" t="n">
-        <v>28.2925</v>
+        <v>27.9455</v>
       </c>
       <c r="D5" t="n">
-        <v>42.3507</v>
+        <v>42.2136</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.666</v>
+        <v>12.6661</v>
       </c>
       <c r="C6" t="n">
-        <v>33.946</v>
+        <v>33.8112</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4598</v>
+        <v>51.2876</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5758</v>
+        <v>14.5655</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7902</v>
+        <v>39.3137</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4417</v>
+        <v>60.1902</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5321</v>
+        <v>16.52</v>
       </c>
       <c r="C8" t="n">
-        <v>45.5792</v>
+        <v>45.0498</v>
       </c>
       <c r="D8" t="n">
-        <v>69.301</v>
+        <v>68.828</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1404</v>
+        <v>18.8788</v>
       </c>
       <c r="C9" t="n">
-        <v>53.5009</v>
+        <v>52.3239</v>
       </c>
       <c r="D9" t="n">
-        <v>78.8545</v>
+        <v>78.18819999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0241</v>
+        <v>17.9829</v>
       </c>
       <c r="C10" t="n">
-        <v>49.4287</v>
+        <v>48.0823</v>
       </c>
       <c r="D10" t="n">
-        <v>70.47799999999999</v>
+        <v>69.0642</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7413</v>
+        <v>18.0399</v>
       </c>
       <c r="C11" t="n">
-        <v>47.5843</v>
+        <v>46.509</v>
       </c>
       <c r="D11" t="n">
-        <v>68.8347</v>
+        <v>67.1763</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8994</v>
+        <v>18.0756</v>
       </c>
       <c r="C12" t="n">
-        <v>49.3841</v>
+        <v>48.4643</v>
       </c>
       <c r="D12" t="n">
-        <v>69.24509999999999</v>
+        <v>69.89830000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1761</v>
+        <v>18.3484</v>
       </c>
       <c r="C13" t="n">
-        <v>48.8175</v>
+        <v>49.3751</v>
       </c>
       <c r="D13" t="n">
-        <v>71.194</v>
+        <v>71.1563</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6861</v>
+        <v>17.6355</v>
       </c>
       <c r="C14" t="n">
-        <v>48.486</v>
+        <v>48.0117</v>
       </c>
       <c r="D14" t="n">
-        <v>70.9906</v>
+        <v>69.8306</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4213</v>
+        <v>18.5093</v>
       </c>
       <c r="C15" t="n">
-        <v>49.0121</v>
+        <v>48.6501</v>
       </c>
       <c r="D15" t="n">
-        <v>68.40089999999999</v>
+        <v>70.6221</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2887</v>
+        <v>18.3421</v>
       </c>
       <c r="C16" t="n">
-        <v>49.5242</v>
+        <v>48.0185</v>
       </c>
       <c r="D16" t="n">
-        <v>69.32899999999999</v>
+        <v>70.8934</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1314</v>
+        <v>18.1834</v>
       </c>
       <c r="C17" t="n">
-        <v>48.784</v>
+        <v>47.3807</v>
       </c>
       <c r="D17" t="n">
-        <v>71.636</v>
+        <v>70.2525</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.1279</v>
+        <v>8.092449999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2616</v>
+        <v>17.2585</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2668</v>
+        <v>20.2824</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.51932</v>
+        <v>9.504339999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7126</v>
+        <v>18.9419</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4893</v>
+        <v>26.4135</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6967</v>
+        <v>11.6147</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5024</v>
+        <v>24.2941</v>
       </c>
       <c r="D4" t="n">
-        <v>35.8011</v>
+        <v>35.5536</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8349</v>
+        <v>13.859</v>
       </c>
       <c r="C5" t="n">
-        <v>30.3258</v>
+        <v>30.0669</v>
       </c>
       <c r="D5" t="n">
-        <v>44.7092</v>
+        <v>43.9976</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0561</v>
+        <v>16.0188</v>
       </c>
       <c r="C6" t="n">
-        <v>36.4766</v>
+        <v>36.185</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9709</v>
+        <v>52.5294</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.2603</v>
+        <v>18.3899</v>
       </c>
       <c r="C7" t="n">
-        <v>42.8314</v>
+        <v>42.4916</v>
       </c>
       <c r="D7" t="n">
-        <v>60.7895</v>
+        <v>60.1606</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5181</v>
+        <v>20.6517</v>
       </c>
       <c r="C8" t="n">
-        <v>49.2947</v>
+        <v>49.1818</v>
       </c>
       <c r="D8" t="n">
-        <v>68.1674</v>
+        <v>67.24509999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6801</v>
+        <v>23.642</v>
       </c>
       <c r="C9" t="n">
-        <v>56.8826</v>
+        <v>56.5131</v>
       </c>
       <c r="D9" t="n">
-        <v>76.51819999999999</v>
+        <v>75.29600000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5787</v>
+        <v>22.7186</v>
       </c>
       <c r="C10" t="n">
-        <v>52.5496</v>
+        <v>52.0834</v>
       </c>
       <c r="D10" t="n">
-        <v>67.26139999999999</v>
+        <v>67.3764</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.2191</v>
+        <v>22.5291</v>
       </c>
       <c r="C11" t="n">
-        <v>52.2727</v>
+        <v>52.6362</v>
       </c>
       <c r="D11" t="n">
-        <v>69.2705</v>
+        <v>68.53919999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.6369</v>
+        <v>22.6231</v>
       </c>
       <c r="C12" t="n">
-        <v>53.5723</v>
+        <v>53.2256</v>
       </c>
       <c r="D12" t="n">
-        <v>70.9187</v>
+        <v>69.8182</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.0312</v>
+        <v>22.8069</v>
       </c>
       <c r="C13" t="n">
-        <v>54.8479</v>
+        <v>53.103</v>
       </c>
       <c r="D13" t="n">
-        <v>70.4362</v>
+        <v>70.9753</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2251</v>
+        <v>22.3502</v>
       </c>
       <c r="C14" t="n">
-        <v>53.5901</v>
+        <v>53.6701</v>
       </c>
       <c r="D14" t="n">
-        <v>70.98950000000001</v>
+        <v>70.7929</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0432</v>
+        <v>23.0351</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5753</v>
+        <v>54.5152</v>
       </c>
       <c r="D15" t="n">
-        <v>70.9136</v>
+        <v>72.398</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0433</v>
+        <v>23.035</v>
       </c>
       <c r="C16" t="n">
-        <v>55.1196</v>
+        <v>54.3219</v>
       </c>
       <c r="D16" t="n">
-        <v>71.5626</v>
+        <v>72.8002</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6815</v>
+        <v>23.0207</v>
       </c>
       <c r="C17" t="n">
-        <v>55.0965</v>
+        <v>53.6141</v>
       </c>
       <c r="D17" t="n">
-        <v>72.9127</v>
+        <v>71.40389999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.436730000000001</v>
+        <v>9.44595</v>
       </c>
       <c r="C2" t="n">
-        <v>16.685</v>
+        <v>16.7143</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5726</v>
+        <v>19.7371</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.183299999999999</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2801</v>
+        <v>17.1473</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7172</v>
+        <v>22.5403</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7899</v>
+        <v>10.8117</v>
       </c>
       <c r="C4" t="n">
-        <v>21.4514</v>
+        <v>21.1639</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9092</v>
+        <v>29.0392</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5782</v>
+        <v>12.5466</v>
       </c>
       <c r="C5" t="n">
-        <v>25.4374</v>
+        <v>25.5026</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3078</v>
+        <v>35.4535</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5834</v>
+        <v>14.8092</v>
       </c>
       <c r="C6" t="n">
-        <v>30.1103</v>
+        <v>30.4095</v>
       </c>
       <c r="D6" t="n">
-        <v>41.4684</v>
+        <v>41.2279</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8094</v>
+        <v>16.7755</v>
       </c>
       <c r="C7" t="n">
-        <v>34.7439</v>
+        <v>34.4803</v>
       </c>
       <c r="D7" t="n">
-        <v>49.1546</v>
+        <v>46.8495</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3676</v>
+        <v>18.3652</v>
       </c>
       <c r="C8" t="n">
-        <v>38.2605</v>
+        <v>37.4284</v>
       </c>
       <c r="D8" t="n">
-        <v>53.2056</v>
+        <v>50.4196</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.575</v>
+        <v>21.6067</v>
       </c>
       <c r="C9" t="n">
-        <v>43.5609</v>
+        <v>42.8314</v>
       </c>
       <c r="D9" t="n">
-        <v>58.4783</v>
+        <v>56.2798</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.5837</v>
+        <v>18.9803</v>
       </c>
       <c r="C10" t="n">
-        <v>40.6222</v>
+        <v>42.4232</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4783</v>
+        <v>52.6679</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5978</v>
+        <v>18.4042</v>
       </c>
       <c r="C11" t="n">
-        <v>40.2898</v>
+        <v>41.1106</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9234</v>
+        <v>55.974</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2058</v>
+        <v>19.1344</v>
       </c>
       <c r="C12" t="n">
-        <v>41.6898</v>
+        <v>41.5822</v>
       </c>
       <c r="D12" t="n">
-        <v>58.9127</v>
+        <v>53.6656</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7009</v>
+        <v>19.6583</v>
       </c>
       <c r="C13" t="n">
-        <v>41.1022</v>
+        <v>41.2524</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5781</v>
+        <v>58.3879</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0025</v>
+        <v>19.2828</v>
       </c>
       <c r="C14" t="n">
-        <v>42.4867</v>
+        <v>42.1927</v>
       </c>
       <c r="D14" t="n">
-        <v>59.1091</v>
+        <v>58.1634</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8318</v>
+        <v>19.0409</v>
       </c>
       <c r="C15" t="n">
-        <v>41.541</v>
+        <v>42.6214</v>
       </c>
       <c r="D15" t="n">
-        <v>58.2996</v>
+        <v>57.8486</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6543</v>
+        <v>19.5195</v>
       </c>
       <c r="C16" t="n">
-        <v>43.5302</v>
+        <v>42.3675</v>
       </c>
       <c r="D16" t="n">
-        <v>61.2915</v>
+        <v>62.0954</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.428</v>
+        <v>18.7342</v>
       </c>
       <c r="C17" t="n">
-        <v>43.2642</v>
+        <v>43.2633</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7805</v>
+        <v>62.6378</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2081</v>
+        <v>10.107</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6067</v>
+        <v>16.5811</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5589</v>
+        <v>19.5678</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.3141</v>
+        <v>9.56316</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8676</v>
+        <v>17.067</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5305</v>
+        <v>22.1872</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1069</v>
+        <v>11.1596</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8092</v>
+        <v>21.0039</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5008</v>
+        <v>29.1273</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0777</v>
+        <v>13.0111</v>
       </c>
       <c r="C5" t="n">
-        <v>24.9602</v>
+        <v>24.8931</v>
       </c>
       <c r="D5" t="n">
-        <v>35.4783</v>
+        <v>35.9145</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.159</v>
+        <v>15.1639</v>
       </c>
       <c r="C6" t="n">
-        <v>29.3362</v>
+        <v>30.153</v>
       </c>
       <c r="D6" t="n">
-        <v>42.395</v>
+        <v>41.4176</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2535</v>
+        <v>17.4291</v>
       </c>
       <c r="C7" t="n">
-        <v>34.481</v>
+        <v>34.7872</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5429</v>
+        <v>47.1048</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9503</v>
+        <v>19.0846</v>
       </c>
       <c r="C8" t="n">
-        <v>38.3888</v>
+        <v>37.704</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6692</v>
+        <v>50.777</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.42</v>
+        <v>22.4349</v>
       </c>
       <c r="C9" t="n">
-        <v>41.9651</v>
+        <v>42.0123</v>
       </c>
       <c r="D9" t="n">
-        <v>57.3785</v>
+        <v>56.0157</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1698</v>
+        <v>19.6386</v>
       </c>
       <c r="C10" t="n">
-        <v>40.2217</v>
+        <v>40.5085</v>
       </c>
       <c r="D10" t="n">
-        <v>55.5473</v>
+        <v>54.2884</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2968</v>
+        <v>19.2707</v>
       </c>
       <c r="C11" t="n">
-        <v>39.8499</v>
+        <v>40.5504</v>
       </c>
       <c r="D11" t="n">
-        <v>53.8456</v>
+        <v>53.346</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.8309</v>
+        <v>19.7242</v>
       </c>
       <c r="C12" t="n">
-        <v>40.9932</v>
+        <v>40.3396</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6959</v>
+        <v>56.1307</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2895</v>
+        <v>20.4217</v>
       </c>
       <c r="C13" t="n">
-        <v>41.6654</v>
+        <v>42.1033</v>
       </c>
       <c r="D13" t="n">
-        <v>57.7048</v>
+        <v>57.2865</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6682</v>
+        <v>20.2343</v>
       </c>
       <c r="C14" t="n">
-        <v>41.0503</v>
+        <v>41.4394</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9242</v>
+        <v>56.4699</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8214</v>
+        <v>20.1343</v>
       </c>
       <c r="C15" t="n">
-        <v>42.6996</v>
+        <v>43.5714</v>
       </c>
       <c r="D15" t="n">
-        <v>58.6761</v>
+        <v>63.2174</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.368</v>
+        <v>20.0339</v>
       </c>
       <c r="C16" t="n">
-        <v>41.2358</v>
+        <v>41.1917</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0841</v>
+        <v>58.7939</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.9822</v>
+        <v>20.243</v>
       </c>
       <c r="C17" t="n">
-        <v>42.4793</v>
+        <v>43.1042</v>
       </c>
       <c r="D17" t="n">
-        <v>59.5168</v>
+        <v>62.2302</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7036</v>
+        <v>12.7385</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4594</v>
+        <v>18.4719</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5514</v>
+        <v>20.533</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3766</v>
+        <v>10.4048</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1763</v>
+        <v>18.3828</v>
       </c>
       <c r="D3" t="n">
-        <v>24.055</v>
+        <v>24.0498</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2588</v>
+        <v>12.3561</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6936</v>
+        <v>22.9578</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5289</v>
+        <v>30.9788</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1833</v>
+        <v>14.1596</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2405</v>
+        <v>27.8477</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4303</v>
+        <v>36.5231</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4286</v>
+        <v>16.6142</v>
       </c>
       <c r="C6" t="n">
-        <v>33.1557</v>
+        <v>32.9659</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9329</v>
+        <v>42.8831</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.6545</v>
+        <v>18.8913</v>
       </c>
       <c r="C7" t="n">
-        <v>37.8053</v>
+        <v>38.1615</v>
       </c>
       <c r="D7" t="n">
-        <v>47.7983</v>
+        <v>47.4947</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9113</v>
+        <v>20.8343</v>
       </c>
       <c r="C8" t="n">
-        <v>41.138</v>
+        <v>41.4899</v>
       </c>
       <c r="D8" t="n">
-        <v>50.7506</v>
+        <v>49.5493</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3078</v>
+        <v>23.3174</v>
       </c>
       <c r="C9" t="n">
-        <v>46.3604</v>
+        <v>45.0828</v>
       </c>
       <c r="D9" t="n">
-        <v>55.7493</v>
+        <v>53.8327</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2656</v>
+        <v>22.4301</v>
       </c>
       <c r="C10" t="n">
-        <v>44.7695</v>
+        <v>44.0162</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9997</v>
+        <v>52.6467</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1649</v>
+        <v>21.3792</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7758</v>
+        <v>44.8983</v>
       </c>
       <c r="D11" t="n">
-        <v>54.6016</v>
+        <v>54.7491</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7179</v>
+        <v>21.6989</v>
       </c>
       <c r="C12" t="n">
-        <v>44.4313</v>
+        <v>45.2625</v>
       </c>
       <c r="D12" t="n">
-        <v>53.8937</v>
+        <v>54.3165</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7166</v>
+        <v>22.6783</v>
       </c>
       <c r="C13" t="n">
-        <v>45.4087</v>
+        <v>45.6014</v>
       </c>
       <c r="D13" t="n">
-        <v>55.2251</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9829</v>
+        <v>21.7249</v>
       </c>
       <c r="C14" t="n">
-        <v>45.1413</v>
+        <v>45.6979</v>
       </c>
       <c r="D14" t="n">
-        <v>56.1406</v>
+        <v>53.5342</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.731</v>
+        <v>21.8902</v>
       </c>
       <c r="C15" t="n">
-        <v>43.2037</v>
+        <v>43.3517</v>
       </c>
       <c r="D15" t="n">
-        <v>52.7314</v>
+        <v>51.6936</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4832</v>
+        <v>21.2494</v>
       </c>
       <c r="C16" t="n">
-        <v>46.9776</v>
+        <v>47.0673</v>
       </c>
       <c r="D16" t="n">
-        <v>52.8485</v>
+        <v>55.5517</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5897</v>
+        <v>21.5009</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0226</v>
+        <v>43.7829</v>
       </c>
       <c r="D17" t="n">
-        <v>51.9607</v>
+        <v>50.8085</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85246</v>
+        <v>3.85642</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6453</v>
+        <v>12.665</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0164</v>
+        <v>17.0234</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03953</v>
+        <v>6.00817</v>
       </c>
       <c r="C3" t="n">
-        <v>17.2709</v>
+        <v>17.308</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5757</v>
+        <v>24.4166</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.399240000000001</v>
+        <v>8.37013</v>
       </c>
       <c r="C4" t="n">
-        <v>23.142</v>
+        <v>23.1602</v>
       </c>
       <c r="D4" t="n">
-        <v>34.0962</v>
+        <v>33.9648</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4082</v>
+        <v>10.3803</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6199</v>
+        <v>28.6975</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9892</v>
+        <v>42.597</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3386</v>
+        <v>12.491</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2805</v>
+        <v>34.3897</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0631</v>
+        <v>51.722</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2898</v>
+        <v>14.322</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7256</v>
+        <v>39.9855</v>
       </c>
       <c r="D7" t="n">
-        <v>61.1394</v>
+        <v>60.1954</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1619</v>
+        <v>16.181</v>
       </c>
       <c r="C8" t="n">
-        <v>45.4676</v>
+        <v>45.6236</v>
       </c>
       <c r="D8" t="n">
-        <v>69.86069999999999</v>
+        <v>68.61839999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6309</v>
+        <v>18.6114</v>
       </c>
       <c r="C9" t="n">
-        <v>53.3324</v>
+        <v>53.8106</v>
       </c>
       <c r="D9" t="n">
-        <v>79.09869999999999</v>
+        <v>77.72799999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6337</v>
+        <v>17.5571</v>
       </c>
       <c r="C10" t="n">
-        <v>48.3145</v>
+        <v>49.9763</v>
       </c>
       <c r="D10" t="n">
-        <v>70.70059999999999</v>
+        <v>68.63460000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4324</v>
+        <v>17.4772</v>
       </c>
       <c r="C11" t="n">
-        <v>49.3863</v>
+        <v>48.6991</v>
       </c>
       <c r="D11" t="n">
-        <v>69.7551</v>
+        <v>68.2756</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6</v>
+        <v>17.4363</v>
       </c>
       <c r="C12" t="n">
-        <v>49.5283</v>
+        <v>49.9354</v>
       </c>
       <c r="D12" t="n">
-        <v>69.2734</v>
+        <v>69.7075</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8932</v>
+        <v>17.916</v>
       </c>
       <c r="C13" t="n">
-        <v>49.9855</v>
+        <v>50.2434</v>
       </c>
       <c r="D13" t="n">
-        <v>70.79730000000001</v>
+        <v>71.48609999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3332</v>
+        <v>17.3198</v>
       </c>
       <c r="C14" t="n">
-        <v>49.444</v>
+        <v>49.2492</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1211</v>
+        <v>69.6605</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9517</v>
+        <v>17.8765</v>
       </c>
       <c r="C15" t="n">
-        <v>49.0129</v>
+        <v>50.0526</v>
       </c>
       <c r="D15" t="n">
-        <v>70.75060000000001</v>
+        <v>71.0283</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9609</v>
+        <v>17.8872</v>
       </c>
       <c r="C16" t="n">
-        <v>49.0145</v>
+        <v>49.8888</v>
       </c>
       <c r="D16" t="n">
-        <v>71.2697</v>
+        <v>70.4597</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8101</v>
+        <v>18.2272</v>
       </c>
       <c r="C17" t="n">
-        <v>49.1364</v>
+        <v>48.7659</v>
       </c>
       <c r="D17" t="n">
-        <v>70.5908</v>
+        <v>71.0065</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.88348</v>
+        <v>3.95083</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5672</v>
+        <v>12.6138</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0828</v>
+        <v>17.1242</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.25523</v>
+        <v>6.0706</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0582</v>
+        <v>16.8574</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2778</v>
+        <v>24.0362</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.442909999999999</v>
+        <v>8.467840000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5316</v>
+        <v>22.6066</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3882</v>
+        <v>33.3059</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5693</v>
+        <v>10.5211</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9455</v>
+        <v>27.9587</v>
       </c>
       <c r="D5" t="n">
-        <v>42.2136</v>
+        <v>41.7832</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6661</v>
+        <v>12.5679</v>
       </c>
       <c r="C6" t="n">
-        <v>33.8112</v>
+        <v>33.6121</v>
       </c>
       <c r="D6" t="n">
-        <v>51.2876</v>
+        <v>50.6078</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5655</v>
+        <v>14.6589</v>
       </c>
       <c r="C7" t="n">
-        <v>39.3137</v>
+        <v>39.3028</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1902</v>
+        <v>59.5108</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.52</v>
+        <v>16.4971</v>
       </c>
       <c r="C8" t="n">
-        <v>45.0498</v>
+        <v>45.3115</v>
       </c>
       <c r="D8" t="n">
-        <v>68.828</v>
+        <v>68.6507</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8788</v>
+        <v>19.1243</v>
       </c>
       <c r="C9" t="n">
-        <v>52.3239</v>
+        <v>52.3213</v>
       </c>
       <c r="D9" t="n">
-        <v>78.18819999999999</v>
+        <v>77.02970000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.9829</v>
+        <v>17.6468</v>
       </c>
       <c r="C10" t="n">
-        <v>48.0823</v>
+        <v>48.2586</v>
       </c>
       <c r="D10" t="n">
-        <v>69.0642</v>
+        <v>68.3413</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0399</v>
+        <v>18.1065</v>
       </c>
       <c r="C11" t="n">
-        <v>46.509</v>
+        <v>47.9553</v>
       </c>
       <c r="D11" t="n">
-        <v>67.1763</v>
+        <v>68.44589999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0756</v>
+        <v>17.9306</v>
       </c>
       <c r="C12" t="n">
-        <v>48.4643</v>
+        <v>48.0402</v>
       </c>
       <c r="D12" t="n">
-        <v>69.89830000000001</v>
+        <v>67.3584</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3484</v>
+        <v>18.4216</v>
       </c>
       <c r="C13" t="n">
-        <v>49.3751</v>
+        <v>49.2919</v>
       </c>
       <c r="D13" t="n">
-        <v>71.1563</v>
+        <v>70.9259</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6355</v>
+        <v>17.7754</v>
       </c>
       <c r="C14" t="n">
-        <v>48.0117</v>
+        <v>48.2447</v>
       </c>
       <c r="D14" t="n">
-        <v>69.8306</v>
+        <v>69.1191</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5093</v>
+        <v>18.3004</v>
       </c>
       <c r="C15" t="n">
-        <v>48.6501</v>
+        <v>48.9637</v>
       </c>
       <c r="D15" t="n">
-        <v>70.6221</v>
+        <v>70.4954</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.3421</v>
+        <v>18.275</v>
       </c>
       <c r="C16" t="n">
-        <v>48.0185</v>
+        <v>49.2232</v>
       </c>
       <c r="D16" t="n">
-        <v>70.8934</v>
+        <v>67.6887</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1834</v>
+        <v>18.0771</v>
       </c>
       <c r="C17" t="n">
-        <v>47.3807</v>
+        <v>47.9184</v>
       </c>
       <c r="D17" t="n">
-        <v>70.2525</v>
+        <v>70.12690000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.092449999999999</v>
+        <v>8.123060000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2585</v>
+        <v>17.2688</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2824</v>
+        <v>20.2909</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.504339999999999</v>
+        <v>9.54157</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9419</v>
+        <v>18.6448</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4135</v>
+        <v>26.3635</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6147</v>
+        <v>11.7007</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2941</v>
+        <v>24.2774</v>
       </c>
       <c r="D4" t="n">
-        <v>35.5536</v>
+        <v>35.7406</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.859</v>
+        <v>13.8603</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0669</v>
+        <v>30.1766</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9976</v>
+        <v>44.3449</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0188</v>
+        <v>16.117</v>
       </c>
       <c r="C6" t="n">
-        <v>36.185</v>
+        <v>36.0394</v>
       </c>
       <c r="D6" t="n">
-        <v>52.5294</v>
+        <v>52.4091</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.3899</v>
+        <v>18.3334</v>
       </c>
       <c r="C7" t="n">
-        <v>42.4916</v>
+        <v>42.5866</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1606</v>
+        <v>60.2091</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6517</v>
+        <v>20.5051</v>
       </c>
       <c r="C8" t="n">
-        <v>49.1818</v>
+        <v>49.0106</v>
       </c>
       <c r="D8" t="n">
-        <v>67.24509999999999</v>
+        <v>67.6343</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.642</v>
+        <v>23.695</v>
       </c>
       <c r="C9" t="n">
-        <v>56.5131</v>
+        <v>56.1507</v>
       </c>
       <c r="D9" t="n">
-        <v>75.29600000000001</v>
+        <v>74.7859</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.7186</v>
+        <v>22.5286</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0834</v>
+        <v>52.2295</v>
       </c>
       <c r="D10" t="n">
-        <v>67.3764</v>
+        <v>66.9132</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5291</v>
+        <v>22.3673</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6362</v>
+        <v>52.4204</v>
       </c>
       <c r="D11" t="n">
-        <v>68.53919999999999</v>
+        <v>68.43510000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.6231</v>
+        <v>22.9251</v>
       </c>
       <c r="C12" t="n">
-        <v>53.2256</v>
+        <v>54.0611</v>
       </c>
       <c r="D12" t="n">
-        <v>69.8182</v>
+        <v>70.7278</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8069</v>
+        <v>22.9892</v>
       </c>
       <c r="C13" t="n">
-        <v>53.103</v>
+        <v>53.7223</v>
       </c>
       <c r="D13" t="n">
-        <v>70.9753</v>
+        <v>70.4545</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3502</v>
+        <v>22.2731</v>
       </c>
       <c r="C14" t="n">
-        <v>53.6701</v>
+        <v>53.5622</v>
       </c>
       <c r="D14" t="n">
-        <v>70.7929</v>
+        <v>70.461</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0351</v>
+        <v>23.1787</v>
       </c>
       <c r="C15" t="n">
-        <v>54.5152</v>
+        <v>53.8296</v>
       </c>
       <c r="D15" t="n">
-        <v>72.398</v>
+        <v>71.8793</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.035</v>
+        <v>23.0624</v>
       </c>
       <c r="C16" t="n">
-        <v>54.3219</v>
+        <v>54.5733</v>
       </c>
       <c r="D16" t="n">
-        <v>72.8002</v>
+        <v>71.73220000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0207</v>
+        <v>22.7934</v>
       </c>
       <c r="C17" t="n">
-        <v>53.6141</v>
+        <v>53.7293</v>
       </c>
       <c r="D17" t="n">
-        <v>71.40389999999999</v>
+        <v>70.9008</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.44595</v>
+        <v>9.42136</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7143</v>
+        <v>16.714</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7371</v>
+        <v>19.7341</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.994999999999999</v>
+        <v>9.23887</v>
       </c>
       <c r="C3" t="n">
-        <v>17.1473</v>
+        <v>17.3922</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5403</v>
+        <v>22.595</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8117</v>
+        <v>10.7852</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1639</v>
+        <v>21.3671</v>
       </c>
       <c r="D4" t="n">
-        <v>29.0392</v>
+        <v>29.4054</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5466</v>
+        <v>12.5169</v>
       </c>
       <c r="C5" t="n">
-        <v>25.5026</v>
+        <v>26.1785</v>
       </c>
       <c r="D5" t="n">
-        <v>35.4535</v>
+        <v>36.4815</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.8092</v>
+        <v>14.6367</v>
       </c>
       <c r="C6" t="n">
-        <v>30.4095</v>
+        <v>30.4047</v>
       </c>
       <c r="D6" t="n">
-        <v>41.2279</v>
+        <v>42.8782</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7755</v>
+        <v>16.9491</v>
       </c>
       <c r="C7" t="n">
-        <v>34.4803</v>
+        <v>35.1764</v>
       </c>
       <c r="D7" t="n">
-        <v>46.8495</v>
+        <v>47.5872</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3652</v>
+        <v>18.3693</v>
       </c>
       <c r="C8" t="n">
-        <v>37.4284</v>
+        <v>39.1222</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4196</v>
+        <v>53.5039</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6067</v>
+        <v>21.6321</v>
       </c>
       <c r="C9" t="n">
-        <v>42.8314</v>
+        <v>42.7991</v>
       </c>
       <c r="D9" t="n">
-        <v>56.2798</v>
+        <v>59.1894</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.9803</v>
+        <v>18.9684</v>
       </c>
       <c r="C10" t="n">
-        <v>42.4232</v>
+        <v>40.7602</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6679</v>
+        <v>55.2889</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4042</v>
+        <v>18.6301</v>
       </c>
       <c r="C11" t="n">
-        <v>41.1106</v>
+        <v>41.1041</v>
       </c>
       <c r="D11" t="n">
-        <v>55.974</v>
+        <v>54.5014</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.1344</v>
+        <v>18.9426</v>
       </c>
       <c r="C12" t="n">
-        <v>41.5822</v>
+        <v>42.4715</v>
       </c>
       <c r="D12" t="n">
-        <v>53.6656</v>
+        <v>56.4778</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6583</v>
+        <v>19.5787</v>
       </c>
       <c r="C13" t="n">
-        <v>41.2524</v>
+        <v>43.1325</v>
       </c>
       <c r="D13" t="n">
-        <v>58.3879</v>
+        <v>60.0083</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2828</v>
+        <v>19.1401</v>
       </c>
       <c r="C14" t="n">
-        <v>42.1927</v>
+        <v>42.341</v>
       </c>
       <c r="D14" t="n">
-        <v>58.1634</v>
+        <v>58.0863</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0409</v>
+        <v>19.1641</v>
       </c>
       <c r="C15" t="n">
-        <v>42.6214</v>
+        <v>41.6915</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8486</v>
+        <v>62.364</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5195</v>
+        <v>19.9477</v>
       </c>
       <c r="C16" t="n">
-        <v>42.3675</v>
+        <v>42.837</v>
       </c>
       <c r="D16" t="n">
-        <v>62.0954</v>
+        <v>59.5936</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.7342</v>
+        <v>19.3359</v>
       </c>
       <c r="C17" t="n">
-        <v>43.2633</v>
+        <v>42.8601</v>
       </c>
       <c r="D17" t="n">
-        <v>62.6378</v>
+        <v>60.8489</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.107</v>
+        <v>10.1204</v>
       </c>
       <c r="C2" t="n">
-        <v>16.5811</v>
+        <v>16.6099</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5678</v>
+        <v>19.5558</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.56316</v>
+        <v>9.29072</v>
       </c>
       <c r="C3" t="n">
-        <v>17.067</v>
+        <v>16.8863</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1872</v>
+        <v>22.3377</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1596</v>
+        <v>11.159</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0039</v>
+        <v>20.9817</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1273</v>
+        <v>29.5057</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0111</v>
+        <v>13.0464</v>
       </c>
       <c r="C5" t="n">
-        <v>24.8931</v>
+        <v>25.8264</v>
       </c>
       <c r="D5" t="n">
-        <v>35.9145</v>
+        <v>35.7679</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1639</v>
+        <v>15.2729</v>
       </c>
       <c r="C6" t="n">
-        <v>30.153</v>
+        <v>29.9428</v>
       </c>
       <c r="D6" t="n">
-        <v>41.4176</v>
+        <v>41.6734</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.4291</v>
+        <v>17.183</v>
       </c>
       <c r="C7" t="n">
-        <v>34.7872</v>
+        <v>35.5024</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1048</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0846</v>
+        <v>19.1077</v>
       </c>
       <c r="C8" t="n">
-        <v>37.704</v>
+        <v>38.9383</v>
       </c>
       <c r="D8" t="n">
-        <v>50.777</v>
+        <v>53.1155</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4349</v>
+        <v>22.4084</v>
       </c>
       <c r="C9" t="n">
-        <v>42.0123</v>
+        <v>42.8271</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0157</v>
+        <v>56.6812</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.6386</v>
+        <v>19.1915</v>
       </c>
       <c r="C10" t="n">
-        <v>40.5085</v>
+        <v>40.8355</v>
       </c>
       <c r="D10" t="n">
-        <v>54.2884</v>
+        <v>52.5487</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2707</v>
+        <v>19.1956</v>
       </c>
       <c r="C11" t="n">
-        <v>40.5504</v>
+        <v>41.0047</v>
       </c>
       <c r="D11" t="n">
-        <v>53.346</v>
+        <v>53.2467</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7242</v>
+        <v>20.0802</v>
       </c>
       <c r="C12" t="n">
-        <v>40.3396</v>
+        <v>41.1022</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1307</v>
+        <v>57.2046</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4217</v>
+        <v>20.2405</v>
       </c>
       <c r="C13" t="n">
-        <v>42.1033</v>
+        <v>42.0267</v>
       </c>
       <c r="D13" t="n">
-        <v>57.2865</v>
+        <v>59.6545</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2343</v>
+        <v>20.2838</v>
       </c>
       <c r="C14" t="n">
-        <v>41.4394</v>
+        <v>41.627</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4699</v>
+        <v>55.9855</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1343</v>
+        <v>19.6386</v>
       </c>
       <c r="C15" t="n">
-        <v>43.5714</v>
+        <v>42.1452</v>
       </c>
       <c r="D15" t="n">
-        <v>63.2174</v>
+        <v>60.2953</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0339</v>
+        <v>20.1171</v>
       </c>
       <c r="C16" t="n">
-        <v>41.1917</v>
+        <v>42.9006</v>
       </c>
       <c r="D16" t="n">
-        <v>58.7939</v>
+        <v>56.5284</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.243</v>
+        <v>20.3308</v>
       </c>
       <c r="C17" t="n">
-        <v>43.1042</v>
+        <v>42.5761</v>
       </c>
       <c r="D17" t="n">
-        <v>62.2302</v>
+        <v>62.7674</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7385</v>
+        <v>12.6943</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4719</v>
+        <v>18.4836</v>
       </c>
       <c r="D2" t="n">
-        <v>20.533</v>
+        <v>20.5795</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4048</v>
+        <v>10.3918</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3828</v>
+        <v>18.2333</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0498</v>
+        <v>24.3255</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3561</v>
+        <v>12.2954</v>
       </c>
       <c r="C4" t="n">
-        <v>22.9578</v>
+        <v>23.3912</v>
       </c>
       <c r="D4" t="n">
-        <v>30.9788</v>
+        <v>31.458</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1596</v>
+        <v>14.1902</v>
       </c>
       <c r="C5" t="n">
-        <v>27.8477</v>
+        <v>27.9409</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5231</v>
+        <v>37.5202</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6142</v>
+        <v>16.6403</v>
       </c>
       <c r="C6" t="n">
-        <v>32.9659</v>
+        <v>33.6433</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8831</v>
+        <v>42.7176</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.8913</v>
+        <v>18.9237</v>
       </c>
       <c r="C7" t="n">
-        <v>38.1615</v>
+        <v>38.4605</v>
       </c>
       <c r="D7" t="n">
-        <v>47.4947</v>
+        <v>46.7913</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8343</v>
+        <v>20.8944</v>
       </c>
       <c r="C8" t="n">
-        <v>41.4899</v>
+        <v>41.9943</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5493</v>
+        <v>51.9463</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3174</v>
+        <v>23.3593</v>
       </c>
       <c r="C9" t="n">
-        <v>45.0828</v>
+        <v>45.8605</v>
       </c>
       <c r="D9" t="n">
-        <v>53.8327</v>
+        <v>55.625</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.4301</v>
+        <v>22.1793</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0162</v>
+        <v>43.7485</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6467</v>
+        <v>53.4765</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3792</v>
+        <v>21.1624</v>
       </c>
       <c r="C11" t="n">
-        <v>44.8983</v>
+        <v>44.3879</v>
       </c>
       <c r="D11" t="n">
-        <v>54.7491</v>
+        <v>52.3779</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6989</v>
+        <v>21.8924</v>
       </c>
       <c r="C12" t="n">
-        <v>45.2625</v>
+        <v>44.3052</v>
       </c>
       <c r="D12" t="n">
-        <v>54.3165</v>
+        <v>55.3236</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6783</v>
+        <v>22.6754</v>
       </c>
       <c r="C13" t="n">
-        <v>45.6014</v>
+        <v>46.482</v>
       </c>
       <c r="D13" t="n">
-        <v>55.34</v>
+        <v>55.9634</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7249</v>
+        <v>21.8435</v>
       </c>
       <c r="C14" t="n">
-        <v>45.6979</v>
+        <v>45.5927</v>
       </c>
       <c r="D14" t="n">
-        <v>53.5342</v>
+        <v>53.7931</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.8902</v>
+        <v>21.2669</v>
       </c>
       <c r="C15" t="n">
-        <v>43.3517</v>
+        <v>45.2043</v>
       </c>
       <c r="D15" t="n">
-        <v>51.6936</v>
+        <v>53.9614</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2494</v>
+        <v>21.406</v>
       </c>
       <c r="C16" t="n">
-        <v>47.0673</v>
+        <v>45.6111</v>
       </c>
       <c r="D16" t="n">
-        <v>55.5517</v>
+        <v>54.1582</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.5009</v>
+        <v>21.6327</v>
       </c>
       <c r="C17" t="n">
-        <v>43.7829</v>
+        <v>44.0935</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8085</v>
+        <v>50.0195</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85642</v>
+        <v>3.84393</v>
       </c>
       <c r="C2" t="n">
-        <v>12.665</v>
+        <v>12.6888</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0234</v>
+        <v>17.0342</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.00817</v>
+        <v>6.05099</v>
       </c>
       <c r="C3" t="n">
-        <v>17.308</v>
+        <v>17.317</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4166</v>
+        <v>24.4303</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.37013</v>
+        <v>8.354089999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1602</v>
+        <v>23.2767</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9648</v>
+        <v>33.8599</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3803</v>
+        <v>10.4201</v>
       </c>
       <c r="C5" t="n">
-        <v>28.6975</v>
+        <v>29.0085</v>
       </c>
       <c r="D5" t="n">
-        <v>42.597</v>
+        <v>42.6202</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.491</v>
+        <v>12.5043</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3897</v>
+        <v>34.3745</v>
       </c>
       <c r="D6" t="n">
-        <v>51.722</v>
+        <v>51.7654</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.322</v>
+        <v>14.3461</v>
       </c>
       <c r="C7" t="n">
-        <v>39.9855</v>
+        <v>39.7211</v>
       </c>
       <c r="D7" t="n">
-        <v>60.1954</v>
+        <v>60.4874</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.181</v>
+        <v>16.2805</v>
       </c>
       <c r="C8" t="n">
-        <v>45.6236</v>
+        <v>45.7734</v>
       </c>
       <c r="D8" t="n">
-        <v>68.61839999999999</v>
+        <v>69.6705</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6114</v>
+        <v>18.6157</v>
       </c>
       <c r="C9" t="n">
-        <v>53.8106</v>
+        <v>54.3152</v>
       </c>
       <c r="D9" t="n">
-        <v>77.72799999999999</v>
+        <v>78.5295</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5571</v>
+        <v>17.6882</v>
       </c>
       <c r="C10" t="n">
-        <v>49.9763</v>
+        <v>49.0858</v>
       </c>
       <c r="D10" t="n">
-        <v>68.63460000000001</v>
+        <v>67.9349</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4772</v>
+        <v>17.2879</v>
       </c>
       <c r="C11" t="n">
-        <v>48.6991</v>
+        <v>49.1557</v>
       </c>
       <c r="D11" t="n">
-        <v>68.2756</v>
+        <v>68.8569</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4363</v>
+        <v>17.7533</v>
       </c>
       <c r="C12" t="n">
-        <v>49.9354</v>
+        <v>50.1321</v>
       </c>
       <c r="D12" t="n">
-        <v>69.7075</v>
+        <v>69.90470000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.916</v>
+        <v>18.0863</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2434</v>
+        <v>50.3171</v>
       </c>
       <c r="D13" t="n">
-        <v>71.48609999999999</v>
+        <v>70.1553</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3198</v>
+        <v>17.2086</v>
       </c>
       <c r="C14" t="n">
-        <v>49.2492</v>
+        <v>50.0613</v>
       </c>
       <c r="D14" t="n">
-        <v>69.6605</v>
+        <v>69.9071</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8765</v>
+        <v>18.1077</v>
       </c>
       <c r="C15" t="n">
-        <v>50.0526</v>
+        <v>49.8357</v>
       </c>
       <c r="D15" t="n">
-        <v>71.0283</v>
+        <v>71.2702</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8872</v>
+        <v>17.8775</v>
       </c>
       <c r="C16" t="n">
-        <v>49.8888</v>
+        <v>49.4627</v>
       </c>
       <c r="D16" t="n">
-        <v>70.4597</v>
+        <v>70.14019999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2272</v>
+        <v>17.8457</v>
       </c>
       <c r="C17" t="n">
-        <v>48.7659</v>
+        <v>50.5546</v>
       </c>
       <c r="D17" t="n">
-        <v>71.0065</v>
+        <v>72.1965</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95083</v>
+        <v>3.89137</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6138</v>
+        <v>12.562</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1242</v>
+        <v>17.0289</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0706</v>
+        <v>6.16395</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8574</v>
+        <v>17.0662</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0362</v>
+        <v>24.2261</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.467840000000001</v>
+        <v>8.471719999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6066</v>
+        <v>22.6812</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3059</v>
+        <v>33.3009</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5211</v>
+        <v>10.5868</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9587</v>
+        <v>28.1288</v>
       </c>
       <c r="D5" t="n">
-        <v>41.7832</v>
+        <v>42.0104</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5679</v>
+        <v>12.6653</v>
       </c>
       <c r="C6" t="n">
-        <v>33.6121</v>
+        <v>33.8687</v>
       </c>
       <c r="D6" t="n">
-        <v>50.6078</v>
+        <v>51.085</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6589</v>
+        <v>14.4393</v>
       </c>
       <c r="C7" t="n">
-        <v>39.3028</v>
+        <v>39.4852</v>
       </c>
       <c r="D7" t="n">
-        <v>59.5108</v>
+        <v>60.0404</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4971</v>
+        <v>16.5759</v>
       </c>
       <c r="C8" t="n">
-        <v>45.3115</v>
+        <v>45.3292</v>
       </c>
       <c r="D8" t="n">
-        <v>68.6507</v>
+        <v>68.51300000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.1243</v>
+        <v>18.9947</v>
       </c>
       <c r="C9" t="n">
-        <v>52.3213</v>
+        <v>52.9064</v>
       </c>
       <c r="D9" t="n">
-        <v>77.02970000000001</v>
+        <v>77.8194</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6468</v>
+        <v>17.923</v>
       </c>
       <c r="C10" t="n">
-        <v>48.2586</v>
+        <v>48.5367</v>
       </c>
       <c r="D10" t="n">
-        <v>68.3413</v>
+        <v>68.71339999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1065</v>
+        <v>17.8637</v>
       </c>
       <c r="C11" t="n">
-        <v>47.9553</v>
+        <v>48.2119</v>
       </c>
       <c r="D11" t="n">
-        <v>68.44589999999999</v>
+        <v>68.1648</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9306</v>
+        <v>18.0933</v>
       </c>
       <c r="C12" t="n">
-        <v>48.0402</v>
+        <v>49.2009</v>
       </c>
       <c r="D12" t="n">
-        <v>67.3584</v>
+        <v>69.3169</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.4216</v>
+        <v>18.3391</v>
       </c>
       <c r="C13" t="n">
-        <v>49.2919</v>
+        <v>49.0409</v>
       </c>
       <c r="D13" t="n">
-        <v>70.9259</v>
+        <v>70.0728</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7754</v>
+        <v>17.7388</v>
       </c>
       <c r="C14" t="n">
-        <v>48.2447</v>
+        <v>48.8961</v>
       </c>
       <c r="D14" t="n">
-        <v>69.1191</v>
+        <v>68.3343</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3004</v>
+        <v>18.2434</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9637</v>
+        <v>49.4719</v>
       </c>
       <c r="D15" t="n">
-        <v>70.4954</v>
+        <v>70.0231</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.275</v>
+        <v>18.3741</v>
       </c>
       <c r="C16" t="n">
-        <v>49.2232</v>
+        <v>49.2023</v>
       </c>
       <c r="D16" t="n">
-        <v>67.6887</v>
+        <v>68.6454</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0771</v>
+        <v>18.3469</v>
       </c>
       <c r="C17" t="n">
-        <v>47.9184</v>
+        <v>48.9102</v>
       </c>
       <c r="D17" t="n">
-        <v>70.12690000000001</v>
+        <v>70.18810000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.123060000000001</v>
+        <v>8.11759</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2688</v>
+        <v>17.2864</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2909</v>
+        <v>20.3259</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.54157</v>
+        <v>9.32518</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6448</v>
+        <v>18.8344</v>
       </c>
       <c r="D3" t="n">
-        <v>26.3635</v>
+        <v>26.2634</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.7007</v>
+        <v>11.6907</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2774</v>
+        <v>24.4625</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7406</v>
+        <v>35.681</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8603</v>
+        <v>13.867</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1766</v>
+        <v>30.194</v>
       </c>
       <c r="D5" t="n">
-        <v>44.3449</v>
+        <v>44.155</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.117</v>
+        <v>16.1145</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0394</v>
+        <v>36.412</v>
       </c>
       <c r="D6" t="n">
-        <v>52.4091</v>
+        <v>53.0181</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.3334</v>
+        <v>18.3547</v>
       </c>
       <c r="C7" t="n">
-        <v>42.5866</v>
+        <v>42.9091</v>
       </c>
       <c r="D7" t="n">
-        <v>60.2091</v>
+        <v>60.6222</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5051</v>
+        <v>20.6416</v>
       </c>
       <c r="C8" t="n">
-        <v>49.0106</v>
+        <v>49.3335</v>
       </c>
       <c r="D8" t="n">
-        <v>67.6343</v>
+        <v>68.0966</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.695</v>
+        <v>23.6882</v>
       </c>
       <c r="C9" t="n">
-        <v>56.1507</v>
+        <v>56.7239</v>
       </c>
       <c r="D9" t="n">
-        <v>74.7859</v>
+        <v>75.3317</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5286</v>
+        <v>22.7925</v>
       </c>
       <c r="C10" t="n">
-        <v>52.2295</v>
+        <v>52.0398</v>
       </c>
       <c r="D10" t="n">
-        <v>66.9132</v>
+        <v>66.79810000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3673</v>
+        <v>22.5287</v>
       </c>
       <c r="C11" t="n">
-        <v>52.4204</v>
+        <v>52.2909</v>
       </c>
       <c r="D11" t="n">
-        <v>68.43510000000001</v>
+        <v>69.65389999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.9251</v>
+        <v>22.5465</v>
       </c>
       <c r="C12" t="n">
-        <v>54.0611</v>
+        <v>53.9924</v>
       </c>
       <c r="D12" t="n">
-        <v>70.7278</v>
+        <v>70.84829999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9892</v>
+        <v>22.9658</v>
       </c>
       <c r="C13" t="n">
-        <v>53.7223</v>
+        <v>53.7482</v>
       </c>
       <c r="D13" t="n">
-        <v>70.4545</v>
+        <v>71.87220000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2731</v>
+        <v>22.1966</v>
       </c>
       <c r="C14" t="n">
-        <v>53.5622</v>
+        <v>53.2776</v>
       </c>
       <c r="D14" t="n">
-        <v>70.461</v>
+        <v>71.2822</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1787</v>
+        <v>23.0267</v>
       </c>
       <c r="C15" t="n">
-        <v>53.8296</v>
+        <v>54.3208</v>
       </c>
       <c r="D15" t="n">
-        <v>71.8793</v>
+        <v>72.5381</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0624</v>
+        <v>23.0493</v>
       </c>
       <c r="C16" t="n">
-        <v>54.5733</v>
+        <v>54.6539</v>
       </c>
       <c r="D16" t="n">
-        <v>71.73220000000001</v>
+        <v>71.7769</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7934</v>
+        <v>23.1503</v>
       </c>
       <c r="C17" t="n">
-        <v>53.7293</v>
+        <v>54.6077</v>
       </c>
       <c r="D17" t="n">
-        <v>70.9008</v>
+        <v>73.2522</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.42136</v>
+        <v>9.38095</v>
       </c>
       <c r="C2" t="n">
-        <v>16.714</v>
+        <v>13.9</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7341</v>
+        <v>19.6867</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.23887</v>
+        <v>9.24174</v>
       </c>
       <c r="C3" t="n">
-        <v>17.3922</v>
+        <v>10.6744</v>
       </c>
       <c r="D3" t="n">
-        <v>22.595</v>
+        <v>22.9017</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7852</v>
+        <v>10.775</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3671</v>
+        <v>12.4857</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4054</v>
+        <v>29.6039</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5169</v>
+        <v>12.5767</v>
       </c>
       <c r="C5" t="n">
-        <v>26.1785</v>
+        <v>14.8272</v>
       </c>
       <c r="D5" t="n">
-        <v>36.4815</v>
+        <v>35.6919</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6367</v>
+        <v>14.6311</v>
       </c>
       <c r="C6" t="n">
-        <v>30.4047</v>
+        <v>17.3776</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8782</v>
+        <v>41.3159</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.9491</v>
+        <v>16.8935</v>
       </c>
       <c r="C7" t="n">
-        <v>35.1764</v>
+        <v>20.3897</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5872</v>
+        <v>47.3986</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3693</v>
+        <v>18.3251</v>
       </c>
       <c r="C8" t="n">
-        <v>39.1222</v>
+        <v>22.3704</v>
       </c>
       <c r="D8" t="n">
-        <v>53.5039</v>
+        <v>51.3879</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6321</v>
+        <v>21.5264</v>
       </c>
       <c r="C9" t="n">
-        <v>42.7991</v>
+        <v>24.8986</v>
       </c>
       <c r="D9" t="n">
-        <v>59.1894</v>
+        <v>56.2541</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.9684</v>
+        <v>18.7652</v>
       </c>
       <c r="C10" t="n">
-        <v>40.7602</v>
+        <v>24.1892</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2889</v>
+        <v>52.4958</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6301</v>
+        <v>18.5151</v>
       </c>
       <c r="C11" t="n">
-        <v>41.1041</v>
+        <v>23.555</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5014</v>
+        <v>54.4928</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.9426</v>
+        <v>18.9652</v>
       </c>
       <c r="C12" t="n">
-        <v>42.4715</v>
+        <v>24.0884</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4778</v>
+        <v>54.6271</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5787</v>
+        <v>19.7067</v>
       </c>
       <c r="C13" t="n">
-        <v>43.1325</v>
+        <v>24.582</v>
       </c>
       <c r="D13" t="n">
-        <v>60.0083</v>
+        <v>59.6313</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1401</v>
+        <v>18.7062</v>
       </c>
       <c r="C14" t="n">
-        <v>42.341</v>
+        <v>25.3306</v>
       </c>
       <c r="D14" t="n">
-        <v>58.0863</v>
+        <v>58.5698</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1641</v>
+        <v>18.7083</v>
       </c>
       <c r="C15" t="n">
-        <v>41.6915</v>
+        <v>25.9022</v>
       </c>
       <c r="D15" t="n">
-        <v>62.364</v>
+        <v>58.8849</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.9477</v>
+        <v>19.2854</v>
       </c>
       <c r="C16" t="n">
-        <v>42.837</v>
+        <v>26.8306</v>
       </c>
       <c r="D16" t="n">
-        <v>59.5936</v>
+        <v>62.0858</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3359</v>
+        <v>19.6486</v>
       </c>
       <c r="C17" t="n">
-        <v>42.8601</v>
+        <v>27.2237</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8489</v>
+        <v>60.9652</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1204</v>
+        <v>10.1213</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6099</v>
+        <v>13.7534</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5558</v>
+        <v>19.6967</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.29072</v>
+        <v>9.30743</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8863</v>
+        <v>10.4499</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3377</v>
+        <v>22.5055</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.159</v>
+        <v>11.1869</v>
       </c>
       <c r="C4" t="n">
-        <v>20.9817</v>
+        <v>12.4299</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5057</v>
+        <v>29.2465</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0464</v>
+        <v>12.9876</v>
       </c>
       <c r="C5" t="n">
-        <v>25.8264</v>
+        <v>14.8086</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7679</v>
+        <v>35.2007</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2729</v>
+        <v>15.2103</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9428</v>
+        <v>17.3093</v>
       </c>
       <c r="D6" t="n">
-        <v>41.6734</v>
+        <v>41.0115</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.183</v>
+        <v>17.2175</v>
       </c>
       <c r="C7" t="n">
-        <v>35.5024</v>
+        <v>20.145</v>
       </c>
       <c r="D7" t="n">
-        <v>47.62</v>
+        <v>47.1773</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1077</v>
+        <v>18.9175</v>
       </c>
       <c r="C8" t="n">
-        <v>38.9383</v>
+        <v>22.193</v>
       </c>
       <c r="D8" t="n">
-        <v>53.1155</v>
+        <v>51.1273</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4084</v>
+        <v>22.3579</v>
       </c>
       <c r="C9" t="n">
-        <v>42.8271</v>
+        <v>24.9899</v>
       </c>
       <c r="D9" t="n">
-        <v>56.6812</v>
+        <v>55.3641</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1915</v>
+        <v>19.4406</v>
       </c>
       <c r="C10" t="n">
-        <v>40.8355</v>
+        <v>24.2042</v>
       </c>
       <c r="D10" t="n">
-        <v>52.5487</v>
+        <v>51.2889</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1956</v>
+        <v>19.0234</v>
       </c>
       <c r="C11" t="n">
-        <v>41.0047</v>
+        <v>23.864</v>
       </c>
       <c r="D11" t="n">
-        <v>53.2467</v>
+        <v>52.998</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0802</v>
+        <v>19.6645</v>
       </c>
       <c r="C12" t="n">
-        <v>41.1022</v>
+        <v>24.4416</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2046</v>
+        <v>56.0585</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2405</v>
+        <v>20.3389</v>
       </c>
       <c r="C13" t="n">
-        <v>42.0267</v>
+        <v>24.802</v>
       </c>
       <c r="D13" t="n">
-        <v>59.6545</v>
+        <v>58.4366</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2838</v>
+        <v>19.5949</v>
       </c>
       <c r="C14" t="n">
-        <v>41.627</v>
+        <v>25.1889</v>
       </c>
       <c r="D14" t="n">
-        <v>55.9855</v>
+        <v>54.3468</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.6386</v>
+        <v>20.1852</v>
       </c>
       <c r="C15" t="n">
-        <v>42.1452</v>
+        <v>26.368</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2953</v>
+        <v>58.3899</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.1171</v>
+        <v>19.7675</v>
       </c>
       <c r="C16" t="n">
-        <v>42.9006</v>
+        <v>26.6899</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5284</v>
+        <v>59.5455</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3308</v>
+        <v>19.8329</v>
       </c>
       <c r="C17" t="n">
-        <v>42.5761</v>
+        <v>27.4391</v>
       </c>
       <c r="D17" t="n">
-        <v>62.7674</v>
+        <v>60.0805</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6943</v>
+        <v>12.5398</v>
       </c>
       <c r="C2" t="n">
-        <v>18.4836</v>
+        <v>15.2337</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5795</v>
+        <v>20.7425</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3918</v>
+        <v>10.5241</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2333</v>
+        <v>11.4406</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3255</v>
+        <v>24.0893</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2954</v>
+        <v>12.7672</v>
       </c>
       <c r="C4" t="n">
-        <v>23.3912</v>
+        <v>13.8385</v>
       </c>
       <c r="D4" t="n">
-        <v>31.458</v>
+        <v>31.0459</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1902</v>
+        <v>15.1004</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9409</v>
+        <v>16.6975</v>
       </c>
       <c r="D5" t="n">
-        <v>37.5202</v>
+        <v>37.2931</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6403</v>
+        <v>17.9084</v>
       </c>
       <c r="C6" t="n">
-        <v>33.6433</v>
+        <v>19.6305</v>
       </c>
       <c r="D6" t="n">
-        <v>42.7176</v>
+        <v>43.1546</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9237</v>
+        <v>20.5076</v>
       </c>
       <c r="C7" t="n">
-        <v>38.4605</v>
+        <v>22.4372</v>
       </c>
       <c r="D7" t="n">
-        <v>46.7913</v>
+        <v>48.1157</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8944</v>
+        <v>23.2886</v>
       </c>
       <c r="C8" t="n">
-        <v>41.9943</v>
+        <v>24.6543</v>
       </c>
       <c r="D8" t="n">
-        <v>51.9463</v>
+        <v>51.3055</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3593</v>
+        <v>26.7272</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8605</v>
+        <v>27.3871</v>
       </c>
       <c r="D9" t="n">
-        <v>55.625</v>
+        <v>54.9737</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1793</v>
+        <v>24.8347</v>
       </c>
       <c r="C10" t="n">
-        <v>43.7485</v>
+        <v>26.578</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4765</v>
+        <v>54.3712</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1624</v>
+        <v>23.6488</v>
       </c>
       <c r="C11" t="n">
-        <v>44.3879</v>
+        <v>25.3778</v>
       </c>
       <c r="D11" t="n">
-        <v>52.3779</v>
+        <v>52.8664</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8924</v>
+        <v>24.975</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3052</v>
+        <v>25.5998</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3236</v>
+        <v>53.9674</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6754</v>
+        <v>25.2695</v>
       </c>
       <c r="C13" t="n">
-        <v>46.482</v>
+        <v>26.5017</v>
       </c>
       <c r="D13" t="n">
-        <v>55.9634</v>
+        <v>56.1505</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8435</v>
+        <v>24.5106</v>
       </c>
       <c r="C14" t="n">
-        <v>45.5927</v>
+        <v>26.8755</v>
       </c>
       <c r="D14" t="n">
-        <v>53.7931</v>
+        <v>55.823</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2669</v>
+        <v>23.6643</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2043</v>
+        <v>27.6126</v>
       </c>
       <c r="D15" t="n">
-        <v>53.9614</v>
+        <v>52.9514</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.406</v>
+        <v>23.8795</v>
       </c>
       <c r="C16" t="n">
-        <v>45.6111</v>
+        <v>28.4879</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1582</v>
+        <v>54.5961</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6327</v>
+        <v>23.1705</v>
       </c>
       <c r="C17" t="n">
-        <v>44.0935</v>
+        <v>29.1131</v>
       </c>
       <c r="D17" t="n">
-        <v>50.0195</v>
+        <v>51.8627</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.84393</v>
+        <v>3.85284</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6888</v>
+        <v>10.7095</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0342</v>
+        <v>17.0727</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05099</v>
+        <v>6.01248</v>
       </c>
       <c r="C3" t="n">
-        <v>17.317</v>
+        <v>10.1104</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4303</v>
+        <v>24.3971</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.354089999999999</v>
+        <v>8.41764</v>
       </c>
       <c r="C4" t="n">
-        <v>23.2767</v>
+        <v>12.5364</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8599</v>
+        <v>33.8929</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4201</v>
+        <v>10.4651</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0085</v>
+        <v>14.9839</v>
       </c>
       <c r="D5" t="n">
-        <v>42.6202</v>
+        <v>42.7075</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5043</v>
+        <v>12.3807</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3745</v>
+        <v>17.5922</v>
       </c>
       <c r="D6" t="n">
-        <v>51.7654</v>
+        <v>51.7054</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3461</v>
+        <v>14.4263</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7211</v>
+        <v>20.264</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4874</v>
+        <v>60.8555</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2805</v>
+        <v>16.0509</v>
       </c>
       <c r="C8" t="n">
-        <v>45.7734</v>
+        <v>23.4345</v>
       </c>
       <c r="D8" t="n">
-        <v>69.6705</v>
+        <v>69.1512</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6157</v>
+        <v>18.3311</v>
       </c>
       <c r="C9" t="n">
-        <v>54.3152</v>
+        <v>27.0262</v>
       </c>
       <c r="D9" t="n">
-        <v>78.5295</v>
+        <v>77.879</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6882</v>
+        <v>17.362</v>
       </c>
       <c r="C10" t="n">
-        <v>49.0858</v>
+        <v>25.1467</v>
       </c>
       <c r="D10" t="n">
-        <v>67.9349</v>
+        <v>67.8501</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2879</v>
+        <v>17.615</v>
       </c>
       <c r="C11" t="n">
-        <v>49.1557</v>
+        <v>24.8948</v>
       </c>
       <c r="D11" t="n">
-        <v>68.8569</v>
+        <v>69.7645</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7533</v>
+        <v>17.6663</v>
       </c>
       <c r="C12" t="n">
-        <v>50.1321</v>
+        <v>25.0936</v>
       </c>
       <c r="D12" t="n">
-        <v>69.90470000000001</v>
+        <v>70.3609</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0863</v>
+        <v>17.8068</v>
       </c>
       <c r="C13" t="n">
-        <v>50.3171</v>
+        <v>25.0759</v>
       </c>
       <c r="D13" t="n">
-        <v>70.1553</v>
+        <v>71.6776</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2086</v>
+        <v>17.2425</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0613</v>
+        <v>25.4747</v>
       </c>
       <c r="D14" t="n">
-        <v>69.9071</v>
+        <v>70.3796</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1077</v>
+        <v>17.9455</v>
       </c>
       <c r="C15" t="n">
-        <v>49.8357</v>
+        <v>25.9981</v>
       </c>
       <c r="D15" t="n">
-        <v>71.2702</v>
+        <v>70.6553</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8775</v>
+        <v>17.7822</v>
       </c>
       <c r="C16" t="n">
-        <v>49.4627</v>
+        <v>26.5599</v>
       </c>
       <c r="D16" t="n">
-        <v>70.14019999999999</v>
+        <v>71.2921</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8457</v>
+        <v>18.0384</v>
       </c>
       <c r="C17" t="n">
-        <v>50.5546</v>
+        <v>27.3329</v>
       </c>
       <c r="D17" t="n">
-        <v>72.1965</v>
+        <v>71.3574</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89137</v>
+        <v>3.88057</v>
       </c>
       <c r="C2" t="n">
-        <v>12.562</v>
+        <v>10.8202</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0289</v>
+        <v>17.1458</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.16395</v>
+        <v>6.1091</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0662</v>
+        <v>10.1629</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2261</v>
+        <v>24.1472</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.471719999999999</v>
+        <v>8.46555</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6812</v>
+        <v>12.5466</v>
       </c>
       <c r="D4" t="n">
-        <v>33.3009</v>
+        <v>33.3216</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5868</v>
+        <v>10.6357</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1288</v>
+        <v>15.0284</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0104</v>
+        <v>41.843</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6653</v>
+        <v>12.6346</v>
       </c>
       <c r="C6" t="n">
-        <v>33.8687</v>
+        <v>17.6981</v>
       </c>
       <c r="D6" t="n">
-        <v>51.085</v>
+        <v>50.9136</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4393</v>
+        <v>14.532</v>
       </c>
       <c r="C7" t="n">
-        <v>39.4852</v>
+        <v>20.3632</v>
       </c>
       <c r="D7" t="n">
-        <v>60.0404</v>
+        <v>59.3666</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5759</v>
+        <v>16.3874</v>
       </c>
       <c r="C8" t="n">
-        <v>45.3292</v>
+        <v>23.3706</v>
       </c>
       <c r="D8" t="n">
-        <v>68.51300000000001</v>
+        <v>68.4183</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9947</v>
+        <v>19.0614</v>
       </c>
       <c r="C9" t="n">
-        <v>52.9064</v>
+        <v>26.7982</v>
       </c>
       <c r="D9" t="n">
-        <v>77.8194</v>
+        <v>77.26519999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.923</v>
+        <v>17.855</v>
       </c>
       <c r="C10" t="n">
-        <v>48.5367</v>
+        <v>24.8726</v>
       </c>
       <c r="D10" t="n">
-        <v>68.71339999999999</v>
+        <v>66.86369999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8637</v>
+        <v>17.7774</v>
       </c>
       <c r="C11" t="n">
-        <v>48.2119</v>
+        <v>24.8491</v>
       </c>
       <c r="D11" t="n">
-        <v>68.1648</v>
+        <v>67.88379999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0933</v>
+        <v>17.9432</v>
       </c>
       <c r="C12" t="n">
-        <v>49.2009</v>
+        <v>24.9893</v>
       </c>
       <c r="D12" t="n">
-        <v>69.3169</v>
+        <v>68.5438</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3391</v>
+        <v>18.3388</v>
       </c>
       <c r="C13" t="n">
-        <v>49.0409</v>
+        <v>25.1965</v>
       </c>
       <c r="D13" t="n">
-        <v>70.0728</v>
+        <v>70.154</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7388</v>
+        <v>17.4943</v>
       </c>
       <c r="C14" t="n">
-        <v>48.8961</v>
+        <v>25.5315</v>
       </c>
       <c r="D14" t="n">
-        <v>68.3343</v>
+        <v>69.2059</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2434</v>
+        <v>18.2712</v>
       </c>
       <c r="C15" t="n">
-        <v>49.4719</v>
+        <v>26.0919</v>
       </c>
       <c r="D15" t="n">
-        <v>70.0231</v>
+        <v>69.81959999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.3741</v>
+        <v>18.2776</v>
       </c>
       <c r="C16" t="n">
-        <v>49.2023</v>
+        <v>26.605</v>
       </c>
       <c r="D16" t="n">
-        <v>68.6454</v>
+        <v>69.2615</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3469</v>
+        <v>18.5253</v>
       </c>
       <c r="C17" t="n">
-        <v>48.9102</v>
+        <v>27.2525</v>
       </c>
       <c r="D17" t="n">
-        <v>70.18810000000001</v>
+        <v>69.8207</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11759</v>
+        <v>8.131460000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>17.2864</v>
+        <v>14.2139</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3259</v>
+        <v>20.4619</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.32518</v>
+        <v>9.43038</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8344</v>
+        <v>11.354</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2634</v>
+        <v>26.3579</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6907</v>
+        <v>12.1282</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4625</v>
+        <v>13.6178</v>
       </c>
       <c r="D4" t="n">
-        <v>35.681</v>
+        <v>35.9253</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.867</v>
+        <v>14.6243</v>
       </c>
       <c r="C5" t="n">
-        <v>30.194</v>
+        <v>16.0902</v>
       </c>
       <c r="D5" t="n">
-        <v>44.155</v>
+        <v>44.3372</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.1145</v>
+        <v>17.3604</v>
       </c>
       <c r="C6" t="n">
-        <v>36.412</v>
+        <v>18.9419</v>
       </c>
       <c r="D6" t="n">
-        <v>53.0181</v>
+        <v>53.0134</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.3547</v>
+        <v>20.0265</v>
       </c>
       <c r="C7" t="n">
-        <v>42.9091</v>
+        <v>21.7658</v>
       </c>
       <c r="D7" t="n">
-        <v>60.6222</v>
+        <v>60.7554</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6416</v>
+        <v>22.7914</v>
       </c>
       <c r="C8" t="n">
-        <v>49.3335</v>
+        <v>24.8294</v>
       </c>
       <c r="D8" t="n">
-        <v>68.0966</v>
+        <v>67.9466</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6882</v>
+        <v>26.7638</v>
       </c>
       <c r="C9" t="n">
-        <v>56.7239</v>
+        <v>27.589</v>
       </c>
       <c r="D9" t="n">
-        <v>75.3317</v>
+        <v>75.31359999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.7925</v>
+        <v>25.0809</v>
       </c>
       <c r="C10" t="n">
-        <v>52.0398</v>
+        <v>26.2544</v>
       </c>
       <c r="D10" t="n">
-        <v>66.79810000000001</v>
+        <v>67.741</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5287</v>
+        <v>25.0512</v>
       </c>
       <c r="C11" t="n">
-        <v>52.2909</v>
+        <v>26.3478</v>
       </c>
       <c r="D11" t="n">
-        <v>69.65389999999999</v>
+        <v>68.8646</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5465</v>
+        <v>25.138</v>
       </c>
       <c r="C12" t="n">
-        <v>53.9924</v>
+        <v>26.7956</v>
       </c>
       <c r="D12" t="n">
-        <v>70.84829999999999</v>
+        <v>71.16330000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9658</v>
+        <v>25.8059</v>
       </c>
       <c r="C13" t="n">
-        <v>53.7482</v>
+        <v>27.1371</v>
       </c>
       <c r="D13" t="n">
-        <v>71.87220000000001</v>
+        <v>70.6348</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1966</v>
+        <v>24.7124</v>
       </c>
       <c r="C14" t="n">
-        <v>53.2776</v>
+        <v>27.5407</v>
       </c>
       <c r="D14" t="n">
-        <v>71.2822</v>
+        <v>71.34520000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0267</v>
+        <v>25.7349</v>
       </c>
       <c r="C15" t="n">
-        <v>54.3208</v>
+        <v>28.1534</v>
       </c>
       <c r="D15" t="n">
-        <v>72.5381</v>
+        <v>72.9843</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0493</v>
+        <v>25.4086</v>
       </c>
       <c r="C16" t="n">
-        <v>54.6539</v>
+        <v>28.921</v>
       </c>
       <c r="D16" t="n">
-        <v>71.7769</v>
+        <v>70.8901</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.1503</v>
+        <v>25.4348</v>
       </c>
       <c r="C17" t="n">
-        <v>54.6077</v>
+        <v>29.8672</v>
       </c>
       <c r="D17" t="n">
-        <v>73.2522</v>
+        <v>71.3176</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>13.9</v>
       </c>
       <c r="D2" t="n">
+        <v>16.7164</v>
+      </c>
+      <c r="E2" t="n">
         <v>19.6867</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>10.6744</v>
       </c>
       <c r="D3" t="n">
+        <v>17.3754</v>
+      </c>
+      <c r="E3" t="n">
         <v>22.9017</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>12.4857</v>
       </c>
       <c r="D4" t="n">
+        <v>21.3653</v>
+      </c>
+      <c r="E4" t="n">
         <v>29.6039</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>14.8272</v>
       </c>
       <c r="D5" t="n">
+        <v>24.9982</v>
+      </c>
+      <c r="E5" t="n">
         <v>35.6919</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>17.3776</v>
       </c>
       <c r="D6" t="n">
+        <v>29.9821</v>
+      </c>
+      <c r="E6" t="n">
         <v>41.3159</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>20.3897</v>
       </c>
       <c r="D7" t="n">
+        <v>35.1711</v>
+      </c>
+      <c r="E7" t="n">
         <v>47.3986</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>22.3704</v>
       </c>
       <c r="D8" t="n">
+        <v>39.2049</v>
+      </c>
+      <c r="E8" t="n">
         <v>51.3879</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>24.8986</v>
       </c>
       <c r="D9" t="n">
+        <v>41.6609</v>
+      </c>
+      <c r="E9" t="n">
         <v>56.2541</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>24.1892</v>
       </c>
       <c r="D10" t="n">
+        <v>40.7534</v>
+      </c>
+      <c r="E10" t="n">
         <v>52.4958</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>23.555</v>
       </c>
       <c r="D11" t="n">
+        <v>41.3047</v>
+      </c>
+      <c r="E11" t="n">
         <v>54.4928</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>24.0884</v>
       </c>
       <c r="D12" t="n">
+        <v>40.7701</v>
+      </c>
+      <c r="E12" t="n">
         <v>54.6271</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>24.582</v>
       </c>
       <c r="D13" t="n">
+        <v>41.1599</v>
+      </c>
+      <c r="E13" t="n">
         <v>59.6313</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>25.3306</v>
       </c>
       <c r="D14" t="n">
+        <v>42.0171</v>
+      </c>
+      <c r="E14" t="n">
         <v>58.5698</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>25.9022</v>
       </c>
       <c r="D15" t="n">
+        <v>41.9869</v>
+      </c>
+      <c r="E15" t="n">
         <v>58.8849</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>26.8306</v>
       </c>
       <c r="D16" t="n">
+        <v>41.9646</v>
+      </c>
+      <c r="E16" t="n">
         <v>62.0858</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>27.2237</v>
       </c>
       <c r="D17" t="n">
+        <v>41.9477</v>
+      </c>
+      <c r="E17" t="n">
         <v>60.9652</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>13.7534</v>
       </c>
       <c r="D2" t="n">
+        <v>16.5993</v>
+      </c>
+      <c r="E2" t="n">
         <v>19.6967</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>10.4499</v>
       </c>
       <c r="D3" t="n">
+        <v>16.6975</v>
+      </c>
+      <c r="E3" t="n">
         <v>22.5055</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>12.4299</v>
       </c>
       <c r="D4" t="n">
+        <v>20.9484</v>
+      </c>
+      <c r="E4" t="n">
         <v>29.2465</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>14.8086</v>
       </c>
       <c r="D5" t="n">
+        <v>25.4646</v>
+      </c>
+      <c r="E5" t="n">
         <v>35.2007</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>17.3093</v>
       </c>
       <c r="D6" t="n">
+        <v>29.5438</v>
+      </c>
+      <c r="E6" t="n">
         <v>41.0115</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>20.145</v>
       </c>
       <c r="D7" t="n">
+        <v>34.1898</v>
+      </c>
+      <c r="E7" t="n">
         <v>47.1773</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>22.193</v>
       </c>
       <c r="D8" t="n">
+        <v>37.3448</v>
+      </c>
+      <c r="E8" t="n">
         <v>51.1273</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>24.9899</v>
       </c>
       <c r="D9" t="n">
+        <v>41.8789</v>
+      </c>
+      <c r="E9" t="n">
         <v>55.3641</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>24.2042</v>
       </c>
       <c r="D10" t="n">
+        <v>39.8442</v>
+      </c>
+      <c r="E10" t="n">
         <v>51.2889</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>23.864</v>
       </c>
       <c r="D11" t="n">
+        <v>38.7639</v>
+      </c>
+      <c r="E11" t="n">
         <v>52.998</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>24.4416</v>
       </c>
       <c r="D12" t="n">
+        <v>41.5253</v>
+      </c>
+      <c r="E12" t="n">
         <v>56.0585</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>24.802</v>
       </c>
       <c r="D13" t="n">
+        <v>41.1465</v>
+      </c>
+      <c r="E13" t="n">
         <v>58.4366</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>25.1889</v>
       </c>
       <c r="D14" t="n">
+        <v>41.3323</v>
+      </c>
+      <c r="E14" t="n">
         <v>54.3468</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>26.368</v>
       </c>
       <c r="D15" t="n">
+        <v>40.2207</v>
+      </c>
+      <c r="E15" t="n">
         <v>58.3899</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>26.6899</v>
       </c>
       <c r="D16" t="n">
+        <v>41.9354</v>
+      </c>
+      <c r="E16" t="n">
         <v>59.5455</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>27.4391</v>
       </c>
       <c r="D17" t="n">
+        <v>41.6986</v>
+      </c>
+      <c r="E17" t="n">
         <v>60.0805</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>15.2337</v>
       </c>
       <c r="D2" t="n">
+        <v>18.4824</v>
+      </c>
+      <c r="E2" t="n">
         <v>20.7425</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>11.4406</v>
       </c>
       <c r="D3" t="n">
+        <v>18.3817</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.0893</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>13.8385</v>
       </c>
       <c r="D4" t="n">
+        <v>22.7131</v>
+      </c>
+      <c r="E4" t="n">
         <v>31.0459</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>16.6975</v>
       </c>
       <c r="D5" t="n">
+        <v>27.5176</v>
+      </c>
+      <c r="E5" t="n">
         <v>37.2931</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>19.6305</v>
       </c>
       <c r="D6" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="E6" t="n">
         <v>43.1546</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>22.4372</v>
       </c>
       <c r="D7" t="n">
+        <v>37.3734</v>
+      </c>
+      <c r="E7" t="n">
         <v>48.1157</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>24.6543</v>
       </c>
       <c r="D8" t="n">
+        <v>40.1948</v>
+      </c>
+      <c r="E8" t="n">
         <v>51.3055</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>27.3871</v>
       </c>
       <c r="D9" t="n">
+        <v>45.6839</v>
+      </c>
+      <c r="E9" t="n">
         <v>54.9737</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>26.578</v>
       </c>
       <c r="D10" t="n">
+        <v>44.4896</v>
+      </c>
+      <c r="E10" t="n">
         <v>54.3712</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>25.3778</v>
       </c>
       <c r="D11" t="n">
+        <v>43.8046</v>
+      </c>
+      <c r="E11" t="n">
         <v>52.8664</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>25.5998</v>
       </c>
       <c r="D12" t="n">
+        <v>42.858</v>
+      </c>
+      <c r="E12" t="n">
         <v>53.9674</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>26.5017</v>
       </c>
       <c r="D13" t="n">
+        <v>45.6031</v>
+      </c>
+      <c r="E13" t="n">
         <v>56.1505</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>26.8755</v>
       </c>
       <c r="D14" t="n">
+        <v>44.8211</v>
+      </c>
+      <c r="E14" t="n">
         <v>55.823</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>27.6126</v>
       </c>
       <c r="D15" t="n">
+        <v>47.0014</v>
+      </c>
+      <c r="E15" t="n">
         <v>52.9514</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>28.4879</v>
       </c>
       <c r="D16" t="n">
+        <v>45.9802</v>
+      </c>
+      <c r="E16" t="n">
         <v>54.5961</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>29.1131</v>
       </c>
       <c r="D17" t="n">
+        <v>43.2307</v>
+      </c>
+      <c r="E17" t="n">
         <v>51.8627</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>10.7095</v>
       </c>
       <c r="D2" t="n">
+        <v>12.6584</v>
+      </c>
+      <c r="E2" t="n">
         <v>17.0727</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>10.1104</v>
       </c>
       <c r="D3" t="n">
+        <v>17.3075</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.3971</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>12.5364</v>
       </c>
       <c r="D4" t="n">
+        <v>23.3212</v>
+      </c>
+      <c r="E4" t="n">
         <v>33.8929</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>14.9839</v>
       </c>
       <c r="D5" t="n">
+        <v>29.1477</v>
+      </c>
+      <c r="E5" t="n">
         <v>42.7075</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>17.5922</v>
       </c>
       <c r="D6" t="n">
+        <v>34.3877</v>
+      </c>
+      <c r="E6" t="n">
         <v>51.7054</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>20.264</v>
       </c>
       <c r="D7" t="n">
+        <v>40.0583</v>
+      </c>
+      <c r="E7" t="n">
         <v>60.8555</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>23.4345</v>
       </c>
       <c r="D8" t="n">
+        <v>45.8523</v>
+      </c>
+      <c r="E8" t="n">
         <v>69.1512</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>27.0262</v>
       </c>
       <c r="D9" t="n">
+        <v>54.0392</v>
+      </c>
+      <c r="E9" t="n">
         <v>77.879</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>25.1467</v>
       </c>
       <c r="D10" t="n">
+        <v>48.8652</v>
+      </c>
+      <c r="E10" t="n">
         <v>67.8501</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>24.8948</v>
       </c>
       <c r="D11" t="n">
+        <v>49.2525</v>
+      </c>
+      <c r="E11" t="n">
         <v>69.7645</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>25.0936</v>
       </c>
       <c r="D12" t="n">
+        <v>49.9748</v>
+      </c>
+      <c r="E12" t="n">
         <v>70.3609</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>25.0759</v>
       </c>
       <c r="D13" t="n">
+        <v>50.8955</v>
+      </c>
+      <c r="E13" t="n">
         <v>71.6776</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>25.4747</v>
       </c>
       <c r="D14" t="n">
+        <v>49.4821</v>
+      </c>
+      <c r="E14" t="n">
         <v>70.3796</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>25.9981</v>
       </c>
       <c r="D15" t="n">
+        <v>49.9915</v>
+      </c>
+      <c r="E15" t="n">
         <v>70.6553</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>26.5599</v>
       </c>
       <c r="D16" t="n">
+        <v>50.6792</v>
+      </c>
+      <c r="E16" t="n">
         <v>71.2921</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>27.3329</v>
       </c>
       <c r="D17" t="n">
+        <v>50.0432</v>
+      </c>
+      <c r="E17" t="n">
         <v>71.3574</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>10.8202</v>
       </c>
       <c r="D2" t="n">
+        <v>12.547</v>
+      </c>
+      <c r="E2" t="n">
         <v>17.1458</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>10.1629</v>
       </c>
       <c r="D3" t="n">
+        <v>16.9124</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.1472</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>12.5466</v>
       </c>
       <c r="D4" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="E4" t="n">
         <v>33.3216</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>15.0284</v>
       </c>
       <c r="D5" t="n">
+        <v>28.0209</v>
+      </c>
+      <c r="E5" t="n">
         <v>41.843</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>17.6981</v>
       </c>
       <c r="D6" t="n">
+        <v>33.5141</v>
+      </c>
+      <c r="E6" t="n">
         <v>50.9136</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>20.3632</v>
       </c>
       <c r="D7" t="n">
+        <v>38.7923</v>
+      </c>
+      <c r="E7" t="n">
         <v>59.3666</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>23.3706</v>
       </c>
       <c r="D8" t="n">
+        <v>45.0757</v>
+      </c>
+      <c r="E8" t="n">
         <v>68.4183</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>26.7982</v>
       </c>
       <c r="D9" t="n">
+        <v>52.7471</v>
+      </c>
+      <c r="E9" t="n">
         <v>77.26519999999999</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>24.8726</v>
       </c>
       <c r="D10" t="n">
+        <v>48.4261</v>
+      </c>
+      <c r="E10" t="n">
         <v>66.86369999999999</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>24.8491</v>
       </c>
       <c r="D11" t="n">
+        <v>48.0877</v>
+      </c>
+      <c r="E11" t="n">
         <v>67.88379999999999</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>24.9893</v>
       </c>
       <c r="D12" t="n">
+        <v>48.9164</v>
+      </c>
+      <c r="E12" t="n">
         <v>68.5438</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>25.1965</v>
       </c>
       <c r="D13" t="n">
+        <v>49.5652</v>
+      </c>
+      <c r="E13" t="n">
         <v>70.154</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>25.5315</v>
       </c>
       <c r="D14" t="n">
+        <v>48.4577</v>
+      </c>
+      <c r="E14" t="n">
         <v>69.2059</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>26.0919</v>
       </c>
       <c r="D15" t="n">
+        <v>48.7916</v>
+      </c>
+      <c r="E15" t="n">
         <v>69.81959999999999</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>26.605</v>
       </c>
       <c r="D16" t="n">
+        <v>49.2498</v>
+      </c>
+      <c r="E16" t="n">
         <v>69.2615</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>27.2525</v>
       </c>
       <c r="D17" t="n">
+        <v>48.9523</v>
+      </c>
+      <c r="E17" t="n">
         <v>69.8207</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>14.2139</v>
       </c>
       <c r="D2" t="n">
+        <v>17.2629</v>
+      </c>
+      <c r="E2" t="n">
         <v>20.4619</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>11.354</v>
       </c>
       <c r="D3" t="n">
+        <v>18.759</v>
+      </c>
+      <c r="E3" t="n">
         <v>26.3579</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>13.6178</v>
       </c>
       <c r="D4" t="n">
+        <v>24.2762</v>
+      </c>
+      <c r="E4" t="n">
         <v>35.9253</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>16.0902</v>
       </c>
       <c r="D5" t="n">
+        <v>30.148</v>
+      </c>
+      <c r="E5" t="n">
         <v>44.3372</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>18.9419</v>
       </c>
       <c r="D6" t="n">
+        <v>36.3597</v>
+      </c>
+      <c r="E6" t="n">
         <v>53.0134</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>21.7658</v>
       </c>
       <c r="D7" t="n">
+        <v>42.9069</v>
+      </c>
+      <c r="E7" t="n">
         <v>60.7554</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>24.8294</v>
       </c>
       <c r="D8" t="n">
+        <v>48.9673</v>
+      </c>
+      <c r="E8" t="n">
         <v>67.9466</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>27.589</v>
       </c>
       <c r="D9" t="n">
+        <v>56.3125</v>
+      </c>
+      <c r="E9" t="n">
         <v>75.31359999999999</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>26.2544</v>
       </c>
       <c r="D10" t="n">
+        <v>51.4991</v>
+      </c>
+      <c r="E10" t="n">
         <v>67.741</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>26.3478</v>
       </c>
       <c r="D11" t="n">
+        <v>51.8862</v>
+      </c>
+      <c r="E11" t="n">
         <v>68.8646</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>26.7956</v>
       </c>
       <c r="D12" t="n">
+        <v>53.5153</v>
+      </c>
+      <c r="E12" t="n">
         <v>71.16330000000001</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>27.1371</v>
       </c>
       <c r="D13" t="n">
+        <v>54.9626</v>
+      </c>
+      <c r="E13" t="n">
         <v>70.6348</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>27.5407</v>
       </c>
       <c r="D14" t="n">
+        <v>53.0059</v>
+      </c>
+      <c r="E14" t="n">
         <v>71.34520000000001</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>28.1534</v>
       </c>
       <c r="D15" t="n">
+        <v>54.2925</v>
+      </c>
+      <c r="E15" t="n">
         <v>72.9843</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>28.921</v>
       </c>
       <c r="D16" t="n">
+        <v>54.8021</v>
+      </c>
+      <c r="E16" t="n">
         <v>70.8901</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>29.8672</v>
       </c>
       <c r="D17" t="n">
+        <v>54.7578</v>
+      </c>
+      <c r="E17" t="n">
         <v>71.3176</v>
       </c>
     </row>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.38095</v>
+        <v>9.427630000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9</v>
+        <v>13.9036</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7164</v>
+        <v>16.7334</v>
       </c>
       <c r="E2" t="n">
-        <v>19.6867</v>
+        <v>20.6276</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.24174</v>
+        <v>8.962770000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6744</v>
+        <v>10.4127</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3754</v>
+        <v>17.0617</v>
       </c>
       <c r="E3" t="n">
-        <v>22.9017</v>
+        <v>22.8237</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.775</v>
+        <v>10.9784</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4857</v>
+        <v>12.9863</v>
       </c>
       <c r="D4" t="n">
-        <v>21.3653</v>
+        <v>22.2554</v>
       </c>
       <c r="E4" t="n">
-        <v>29.6039</v>
+        <v>30.3913</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5767</v>
+        <v>13.596</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8272</v>
+        <v>15.8572</v>
       </c>
       <c r="D5" t="n">
-        <v>24.9982</v>
+        <v>27.5559</v>
       </c>
       <c r="E5" t="n">
-        <v>35.6919</v>
+        <v>38.1324</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6311</v>
+        <v>15.45</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3776</v>
+        <v>18.6183</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9821</v>
+        <v>31.4238</v>
       </c>
       <c r="E6" t="n">
-        <v>41.3159</v>
+        <v>41.5441</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8935</v>
+        <v>19.0081</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3897</v>
+        <v>21.0858</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1711</v>
+        <v>36.5946</v>
       </c>
       <c r="E7" t="n">
-        <v>47.3986</v>
+        <v>48.6285</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3251</v>
+        <v>17.8072</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3704</v>
+        <v>21.9734</v>
       </c>
       <c r="D8" t="n">
-        <v>39.2049</v>
+        <v>38.473</v>
       </c>
       <c r="E8" t="n">
-        <v>51.3879</v>
+        <v>52.4484</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5264</v>
+        <v>16.7608</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8986</v>
+        <v>21.8314</v>
       </c>
       <c r="D9" t="n">
-        <v>41.6609</v>
+        <v>37.5113</v>
       </c>
       <c r="E9" t="n">
-        <v>56.2541</v>
+        <v>50.4554</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7652</v>
+        <v>17.2434</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1892</v>
+        <v>21.5929</v>
       </c>
       <c r="D10" t="n">
-        <v>40.7534</v>
+        <v>38.0636</v>
       </c>
       <c r="E10" t="n">
-        <v>52.4958</v>
+        <v>50.4317</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5151</v>
+        <v>17.9432</v>
       </c>
       <c r="C11" t="n">
-        <v>23.555</v>
+        <v>22.1044</v>
       </c>
       <c r="D11" t="n">
-        <v>41.3047</v>
+        <v>36.9799</v>
       </c>
       <c r="E11" t="n">
-        <v>54.4928</v>
+        <v>52.5903</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.9652</v>
+        <v>17.581</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0884</v>
+        <v>22.6651</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7701</v>
+        <v>38.6628</v>
       </c>
       <c r="E12" t="n">
-        <v>54.6271</v>
+        <v>53.4028</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7067</v>
+        <v>17.7094</v>
       </c>
       <c r="C13" t="n">
-        <v>24.582</v>
+        <v>23.3629</v>
       </c>
       <c r="D13" t="n">
-        <v>41.1599</v>
+        <v>37.9215</v>
       </c>
       <c r="E13" t="n">
-        <v>59.6313</v>
+        <v>52.8897</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7062</v>
+        <v>17.3052</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3306</v>
+        <v>24.0078</v>
       </c>
       <c r="D14" t="n">
-        <v>42.0171</v>
+        <v>39.8975</v>
       </c>
       <c r="E14" t="n">
-        <v>58.5698</v>
+        <v>52.6015</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7083</v>
+        <v>17.7373</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9022</v>
+        <v>24.0895</v>
       </c>
       <c r="D15" t="n">
-        <v>41.9869</v>
+        <v>38.9831</v>
       </c>
       <c r="E15" t="n">
-        <v>58.8849</v>
+        <v>53.9043</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2854</v>
+        <v>17.6216</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8306</v>
+        <v>24.1099</v>
       </c>
       <c r="D16" t="n">
-        <v>41.9646</v>
+        <v>38.1526</v>
       </c>
       <c r="E16" t="n">
-        <v>62.0858</v>
+        <v>55.6049</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6486</v>
+        <v>17.6361</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2237</v>
+        <v>24.5154</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9477</v>
+        <v>37.4189</v>
       </c>
       <c r="E17" t="n">
-        <v>60.9652</v>
+        <v>52.2605</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1213</v>
+        <v>10.1094</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7534</v>
+        <v>13.7517</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5993</v>
+        <v>16.6023</v>
       </c>
       <c r="E2" t="n">
-        <v>19.6967</v>
+        <v>20.4467</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.30743</v>
+        <v>10.0406</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4499</v>
+        <v>10.862</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6975</v>
+        <v>16.7699</v>
       </c>
       <c r="E3" t="n">
-        <v>22.5055</v>
+        <v>22.993</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1869</v>
+        <v>13.1378</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4299</v>
+        <v>14.9577</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9484</v>
+        <v>23.18</v>
       </c>
       <c r="E4" t="n">
-        <v>29.2465</v>
+        <v>30.6873</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9876</v>
+        <v>16.0423</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8086</v>
+        <v>18.2711</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4646</v>
+        <v>29.5651</v>
       </c>
       <c r="E5" t="n">
-        <v>35.2007</v>
+        <v>36.7012</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2103</v>
+        <v>15.0602</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3093</v>
+        <v>18.071</v>
       </c>
       <c r="D6" t="n">
-        <v>29.5438</v>
+        <v>31.0113</v>
       </c>
       <c r="E6" t="n">
-        <v>41.0115</v>
+        <v>41.8931</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2175</v>
+        <v>16.0696</v>
       </c>
       <c r="C7" t="n">
-        <v>20.145</v>
+        <v>18.6962</v>
       </c>
       <c r="D7" t="n">
-        <v>34.1898</v>
+        <v>33.7677</v>
       </c>
       <c r="E7" t="n">
-        <v>47.1773</v>
+        <v>47.8504</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9175</v>
+        <v>16.3197</v>
       </c>
       <c r="C8" t="n">
-        <v>22.193</v>
+        <v>19.2871</v>
       </c>
       <c r="D8" t="n">
-        <v>37.3448</v>
+        <v>33.3365</v>
       </c>
       <c r="E8" t="n">
-        <v>51.1273</v>
+        <v>48.8737</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3579</v>
+        <v>16.0226</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9899</v>
+        <v>19.9781</v>
       </c>
       <c r="D9" t="n">
-        <v>41.8789</v>
+        <v>33.4273</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3641</v>
+        <v>50.0476</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4406</v>
+        <v>17.2123</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2042</v>
+        <v>21.2413</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8442</v>
+        <v>34.0954</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2889</v>
+        <v>46.5878</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0234</v>
+        <v>17.5951</v>
       </c>
       <c r="C11" t="n">
-        <v>23.864</v>
+        <v>21.7401</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7639</v>
+        <v>34.2584</v>
       </c>
       <c r="E11" t="n">
-        <v>52.998</v>
+        <v>46.317</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6645</v>
+        <v>17.3405</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4416</v>
+        <v>21.2982</v>
       </c>
       <c r="D12" t="n">
-        <v>41.5253</v>
+        <v>35.0307</v>
       </c>
       <c r="E12" t="n">
-        <v>56.0585</v>
+        <v>46.6103</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3389</v>
+        <v>17.0926</v>
       </c>
       <c r="C13" t="n">
-        <v>24.802</v>
+        <v>22.2004</v>
       </c>
       <c r="D13" t="n">
-        <v>41.1465</v>
+        <v>33.8283</v>
       </c>
       <c r="E13" t="n">
-        <v>58.4366</v>
+        <v>49.0877</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.5949</v>
+        <v>16.3449</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1889</v>
+        <v>22.1482</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3323</v>
+        <v>33.1019</v>
       </c>
       <c r="E14" t="n">
-        <v>54.3468</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1852</v>
+        <v>17.2898</v>
       </c>
       <c r="C15" t="n">
-        <v>26.368</v>
+        <v>22.688</v>
       </c>
       <c r="D15" t="n">
-        <v>40.2207</v>
+        <v>36.881</v>
       </c>
       <c r="E15" t="n">
-        <v>58.3899</v>
+        <v>49.4197</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7675</v>
+        <v>16.601</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6899</v>
+        <v>22.7756</v>
       </c>
       <c r="D16" t="n">
-        <v>41.9354</v>
+        <v>31.2427</v>
       </c>
       <c r="E16" t="n">
-        <v>59.5455</v>
+        <v>48.0894</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8329</v>
+        <v>15.9813</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4391</v>
+        <v>23.5811</v>
       </c>
       <c r="D17" t="n">
-        <v>41.6986</v>
+        <v>33.1499</v>
       </c>
       <c r="E17" t="n">
-        <v>60.0805</v>
+        <v>42.6283</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5398</v>
+        <v>12.6044</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2337</v>
+        <v>15.2318</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4824</v>
+        <v>18.4402</v>
       </c>
       <c r="E2" t="n">
-        <v>20.7425</v>
+        <v>21.6348</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5241</v>
+        <v>10.4948</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4406</v>
+        <v>11.5972</v>
       </c>
       <c r="D3" t="n">
-        <v>18.3817</v>
+        <v>18.1845</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0893</v>
+        <v>27.7334</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7672</v>
+        <v>16.146</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8385</v>
+        <v>17.5353</v>
       </c>
       <c r="D4" t="n">
-        <v>22.7131</v>
+        <v>24.9935</v>
       </c>
       <c r="E4" t="n">
-        <v>31.0459</v>
+        <v>34.3269</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1004</v>
+        <v>15.7531</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6975</v>
+        <v>17.4746</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5176</v>
+        <v>28.5427</v>
       </c>
       <c r="E5" t="n">
-        <v>37.2931</v>
+        <v>40.2582</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9084</v>
+        <v>18.4054</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6305</v>
+        <v>18.4669</v>
       </c>
       <c r="D6" t="n">
-        <v>33.21</v>
+        <v>31.9589</v>
       </c>
       <c r="E6" t="n">
-        <v>43.1546</v>
+        <v>43.7585</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.5076</v>
+        <v>18.7147</v>
       </c>
       <c r="C7" t="n">
-        <v>22.4372</v>
+        <v>19.6457</v>
       </c>
       <c r="D7" t="n">
-        <v>37.3734</v>
+        <v>36.3793</v>
       </c>
       <c r="E7" t="n">
-        <v>48.1157</v>
+        <v>41.7705</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.2886</v>
+        <v>17.7586</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6543</v>
+        <v>22.0056</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1948</v>
+        <v>32.0199</v>
       </c>
       <c r="E8" t="n">
-        <v>51.3055</v>
+        <v>41.0952</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7272</v>
+        <v>18.4703</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3871</v>
+        <v>20.4634</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6839</v>
+        <v>32.648</v>
       </c>
       <c r="E9" t="n">
-        <v>54.9737</v>
+        <v>41.6876</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8347</v>
+        <v>19.9873</v>
       </c>
       <c r="C10" t="n">
-        <v>26.578</v>
+        <v>19.9882</v>
       </c>
       <c r="D10" t="n">
-        <v>44.4896</v>
+        <v>31.8448</v>
       </c>
       <c r="E10" t="n">
-        <v>54.3712</v>
+        <v>44.9359</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.6488</v>
+        <v>19.1723</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3778</v>
+        <v>20.3985</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8046</v>
+        <v>30.8331</v>
       </c>
       <c r="E11" t="n">
-        <v>52.8664</v>
+        <v>48.2903</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.975</v>
+        <v>18.394</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5998</v>
+        <v>20.661</v>
       </c>
       <c r="D12" t="n">
-        <v>42.858</v>
+        <v>38.1082</v>
       </c>
       <c r="E12" t="n">
-        <v>53.9674</v>
+        <v>41.6814</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.2695</v>
+        <v>20.1464</v>
       </c>
       <c r="C13" t="n">
-        <v>26.5017</v>
+        <v>22.3458</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6031</v>
+        <v>33.8181</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1505</v>
+        <v>39.7927</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5106</v>
+        <v>20.1335</v>
       </c>
       <c r="C14" t="n">
-        <v>26.8755</v>
+        <v>22.6797</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8211</v>
+        <v>31.9632</v>
       </c>
       <c r="E14" t="n">
-        <v>55.823</v>
+        <v>37.1529</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.6643</v>
+        <v>20.3337</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6126</v>
+        <v>23.1433</v>
       </c>
       <c r="D15" t="n">
-        <v>47.0014</v>
+        <v>31.162</v>
       </c>
       <c r="E15" t="n">
-        <v>52.9514</v>
+        <v>41.0858</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.8795</v>
+        <v>19.1002</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4879</v>
+        <v>23.5378</v>
       </c>
       <c r="D16" t="n">
-        <v>45.9802</v>
+        <v>29.7078</v>
       </c>
       <c r="E16" t="n">
-        <v>54.5961</v>
+        <v>37.8484</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.1705</v>
+        <v>18.9951</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1131</v>
+        <v>24.0315</v>
       </c>
       <c r="D17" t="n">
-        <v>43.2307</v>
+        <v>27.324</v>
       </c>
       <c r="E17" t="n">
-        <v>51.8627</v>
+        <v>38.1488</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85284</v>
+        <v>3.92824</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7095</v>
+        <v>10.6789</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6584</v>
+        <v>12.692</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0727</v>
+        <v>17.8266</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.01248</v>
+        <v>6.30369</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1104</v>
+        <v>9.754339999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3075</v>
+        <v>15.8761</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3971</v>
+        <v>23.771</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.41764</v>
+        <v>6.83235</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5364</v>
+        <v>9.477600000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>23.3212</v>
+        <v>18.8739</v>
       </c>
       <c r="E4" t="n">
-        <v>33.8929</v>
+        <v>27.6717</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4651</v>
+        <v>7.40007</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9839</v>
+        <v>11.0563</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1477</v>
+        <v>19.8419</v>
       </c>
       <c r="E5" t="n">
-        <v>42.7075</v>
+        <v>32.6342</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3807</v>
+        <v>8.53861</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5922</v>
+        <v>12.1288</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3877</v>
+        <v>21.8648</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7054</v>
+        <v>29.8168</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4263</v>
+        <v>9.14528</v>
       </c>
       <c r="C7" t="n">
-        <v>20.264</v>
+        <v>12.705</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0583</v>
+        <v>22.3631</v>
       </c>
       <c r="E7" t="n">
-        <v>60.8555</v>
+        <v>35.1789</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0509</v>
+        <v>8.98338</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4345</v>
+        <v>12.656</v>
       </c>
       <c r="D8" t="n">
-        <v>45.8523</v>
+        <v>23.564</v>
       </c>
       <c r="E8" t="n">
-        <v>69.1512</v>
+        <v>35.6469</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3311</v>
+        <v>9.241</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0262</v>
+        <v>17.9483</v>
       </c>
       <c r="D9" t="n">
-        <v>54.0392</v>
+        <v>44.0359</v>
       </c>
       <c r="E9" t="n">
-        <v>77.879</v>
+        <v>64.7533</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.362</v>
+        <v>15.9411</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1467</v>
+        <v>22.5916</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8652</v>
+        <v>43.8802</v>
       </c>
       <c r="E10" t="n">
-        <v>67.8501</v>
+        <v>64.1665</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.615</v>
+        <v>16.1147</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8948</v>
+        <v>22.897</v>
       </c>
       <c r="D11" t="n">
-        <v>49.2525</v>
+        <v>45.9382</v>
       </c>
       <c r="E11" t="n">
-        <v>69.7645</v>
+        <v>65.0029</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6663</v>
+        <v>16.3535</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0936</v>
+        <v>22.9879</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9748</v>
+        <v>45.375</v>
       </c>
       <c r="E12" t="n">
-        <v>70.3609</v>
+        <v>65.99630000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8068</v>
+        <v>16.0266</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0759</v>
+        <v>22.137</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8955</v>
+        <v>42.6549</v>
       </c>
       <c r="E13" t="n">
-        <v>71.6776</v>
+        <v>61.7864</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2425</v>
+        <v>15.1679</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4747</v>
+        <v>22.6987</v>
       </c>
       <c r="D14" t="n">
-        <v>49.4821</v>
+        <v>43.1525</v>
       </c>
       <c r="E14" t="n">
-        <v>70.3796</v>
+        <v>63.103</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9455</v>
+        <v>15.7833</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9981</v>
+        <v>23.0702</v>
       </c>
       <c r="D15" t="n">
-        <v>49.9915</v>
+        <v>41.7692</v>
       </c>
       <c r="E15" t="n">
-        <v>70.6553</v>
+        <v>61.0555</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7822</v>
+        <v>15.3729</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5599</v>
+        <v>22.0831</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6792</v>
+        <v>38.4053</v>
       </c>
       <c r="E16" t="n">
-        <v>71.2921</v>
+        <v>53.7868</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0384</v>
+        <v>14.3904</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3329</v>
+        <v>23.0197</v>
       </c>
       <c r="D17" t="n">
-        <v>50.0432</v>
+        <v>39.8471</v>
       </c>
       <c r="E17" t="n">
-        <v>71.3574</v>
+        <v>59.5911</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.88057</v>
+        <v>3.90449</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8202</v>
+        <v>10.8153</v>
       </c>
       <c r="D2" t="n">
-        <v>12.547</v>
+        <v>12.601</v>
       </c>
       <c r="E2" t="n">
-        <v>17.1458</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1091</v>
+        <v>5.99851</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1629</v>
+        <v>9.454650000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>16.9124</v>
+        <v>15.8927</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1472</v>
+        <v>23.0622</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.46555</v>
+        <v>6.87392</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5466</v>
+        <v>10.0337</v>
       </c>
       <c r="D4" t="n">
-        <v>22.63</v>
+        <v>18.0262</v>
       </c>
       <c r="E4" t="n">
-        <v>33.3216</v>
+        <v>26.1034</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6357</v>
+        <v>7.43828</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0284</v>
+        <v>11.2611</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0209</v>
+        <v>18.9592</v>
       </c>
       <c r="E5" t="n">
-        <v>41.843</v>
+        <v>30.6084</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6346</v>
+        <v>8.130789999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6981</v>
+        <v>12.6643</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5141</v>
+        <v>21.248</v>
       </c>
       <c r="E6" t="n">
-        <v>50.9136</v>
+        <v>30.2609</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.532</v>
+        <v>9.41498</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3632</v>
+        <v>12.6495</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7923</v>
+        <v>21.5879</v>
       </c>
       <c r="E7" t="n">
-        <v>59.3666</v>
+        <v>36.3421</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3874</v>
+        <v>9.8505</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3706</v>
+        <v>12.8694</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0757</v>
+        <v>26.1187</v>
       </c>
       <c r="E8" t="n">
-        <v>68.4183</v>
+        <v>36.2942</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.0614</v>
+        <v>9.11679</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7982</v>
+        <v>13.9072</v>
       </c>
       <c r="D9" t="n">
-        <v>52.7471</v>
+        <v>43.7907</v>
       </c>
       <c r="E9" t="n">
-        <v>77.26519999999999</v>
+        <v>64.4965</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.855</v>
+        <v>16.3283</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8726</v>
+        <v>23.0058</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4261</v>
+        <v>43.6709</v>
       </c>
       <c r="E10" t="n">
-        <v>66.86369999999999</v>
+        <v>63.9658</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7774</v>
+        <v>16.6621</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8491</v>
+        <v>23.0341</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0877</v>
+        <v>44.2751</v>
       </c>
       <c r="E11" t="n">
-        <v>67.88379999999999</v>
+        <v>60.6741</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9432</v>
+        <v>15.4646</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9893</v>
+        <v>21.7125</v>
       </c>
       <c r="D12" t="n">
-        <v>48.9164</v>
+        <v>42.1326</v>
       </c>
       <c r="E12" t="n">
-        <v>68.5438</v>
+        <v>60.6748</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3388</v>
+        <v>16.0795</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1965</v>
+        <v>22.5439</v>
       </c>
       <c r="D13" t="n">
-        <v>49.5652</v>
+        <v>41.8758</v>
       </c>
       <c r="E13" t="n">
-        <v>70.154</v>
+        <v>62.6387</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4943</v>
+        <v>14.463</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5315</v>
+        <v>21.899</v>
       </c>
       <c r="D14" t="n">
-        <v>48.4577</v>
+        <v>38.5071</v>
       </c>
       <c r="E14" t="n">
-        <v>69.2059</v>
+        <v>57.8446</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2712</v>
+        <v>14.959</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0919</v>
+        <v>22.7356</v>
       </c>
       <c r="D15" t="n">
-        <v>48.7916</v>
+        <v>37.3442</v>
       </c>
       <c r="E15" t="n">
-        <v>69.81959999999999</v>
+        <v>53.5525</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2776</v>
+        <v>13.6327</v>
       </c>
       <c r="C16" t="n">
-        <v>26.605</v>
+        <v>22.406</v>
       </c>
       <c r="D16" t="n">
-        <v>49.2498</v>
+        <v>36.9709</v>
       </c>
       <c r="E16" t="n">
-        <v>69.2615</v>
+        <v>54.6314</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.5253</v>
+        <v>14.588</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2525</v>
+        <v>21.1805</v>
       </c>
       <c r="D17" t="n">
-        <v>48.9523</v>
+        <v>35.4109</v>
       </c>
       <c r="E17" t="n">
-        <v>69.8207</v>
+        <v>52.4918</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.131460000000001</v>
+        <v>8.43736</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2139</v>
+        <v>14.1918</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2629</v>
+        <v>17.1338</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4619</v>
+        <v>21.1654</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.43038</v>
+        <v>8.97842</v>
       </c>
       <c r="C3" t="n">
-        <v>11.354</v>
+        <v>11.2565</v>
       </c>
       <c r="D3" t="n">
-        <v>18.759</v>
+        <v>16.969</v>
       </c>
       <c r="E3" t="n">
-        <v>26.3579</v>
+        <v>24.041</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1282</v>
+        <v>9.801209999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6178</v>
+        <v>12.1806</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2762</v>
+        <v>18.9672</v>
       </c>
       <c r="E4" t="n">
-        <v>35.9253</v>
+        <v>27.6017</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6243</v>
+        <v>10.8662</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0902</v>
+        <v>13.1013</v>
       </c>
       <c r="D5" t="n">
-        <v>30.148</v>
+        <v>21.3092</v>
       </c>
       <c r="E5" t="n">
-        <v>44.3372</v>
+        <v>31.1999</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.3604</v>
+        <v>13.048</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9419</v>
+        <v>15.0152</v>
       </c>
       <c r="D6" t="n">
-        <v>36.3597</v>
+        <v>23.3877</v>
       </c>
       <c r="E6" t="n">
-        <v>53.0134</v>
+        <v>37.3306</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0265</v>
+        <v>14.1587</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7658</v>
+        <v>16.0485</v>
       </c>
       <c r="D7" t="n">
-        <v>42.9069</v>
+        <v>26.2432</v>
       </c>
       <c r="E7" t="n">
-        <v>60.7554</v>
+        <v>31.5687</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7914</v>
+        <v>13.4641</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8294</v>
+        <v>20.4302</v>
       </c>
       <c r="D8" t="n">
-        <v>48.9673</v>
+        <v>48.8636</v>
       </c>
       <c r="E8" t="n">
-        <v>67.9466</v>
+        <v>69.15179999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7638</v>
+        <v>26.9493</v>
       </c>
       <c r="C9" t="n">
-        <v>27.589</v>
+        <v>27.5302</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3125</v>
+        <v>56.4132</v>
       </c>
       <c r="E9" t="n">
-        <v>75.31359999999999</v>
+        <v>76.04470000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0809</v>
+        <v>25.6459</v>
       </c>
       <c r="C10" t="n">
-        <v>26.2544</v>
+        <v>26.563</v>
       </c>
       <c r="D10" t="n">
-        <v>51.4991</v>
+        <v>51.5384</v>
       </c>
       <c r="E10" t="n">
-        <v>67.741</v>
+        <v>68.58759999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0512</v>
+        <v>25.0384</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3478</v>
+        <v>26.4252</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8862</v>
+        <v>52.3706</v>
       </c>
       <c r="E11" t="n">
-        <v>68.8646</v>
+        <v>70.7313</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.138</v>
+        <v>25.1654</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7956</v>
+        <v>26.756</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5153</v>
+        <v>53.2619</v>
       </c>
       <c r="E12" t="n">
-        <v>71.16330000000001</v>
+        <v>71.9203</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8059</v>
+        <v>25.4857</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1371</v>
+        <v>27.1597</v>
       </c>
       <c r="D13" t="n">
-        <v>54.9626</v>
+        <v>55.3039</v>
       </c>
       <c r="E13" t="n">
-        <v>70.6348</v>
+        <v>72.6819</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7124</v>
+        <v>24.7723</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5407</v>
+        <v>27.5521</v>
       </c>
       <c r="D14" t="n">
-        <v>53.0059</v>
+        <v>53.3873</v>
       </c>
       <c r="E14" t="n">
-        <v>71.34520000000001</v>
+        <v>72.2227</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7349</v>
+        <v>25.7299</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1534</v>
+        <v>28.2375</v>
       </c>
       <c r="D15" t="n">
-        <v>54.2925</v>
+        <v>53.512</v>
       </c>
       <c r="E15" t="n">
-        <v>72.9843</v>
+        <v>74.0771</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4086</v>
+        <v>25.7218</v>
       </c>
       <c r="C16" t="n">
-        <v>28.921</v>
+        <v>29.0337</v>
       </c>
       <c r="D16" t="n">
-        <v>54.8021</v>
+        <v>54.512</v>
       </c>
       <c r="E16" t="n">
-        <v>70.8901</v>
+        <v>72.45350000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4348</v>
+        <v>25.7227</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8672</v>
+        <v>29.7733</v>
       </c>
       <c r="D17" t="n">
-        <v>54.7578</v>
+        <v>54.1417</v>
       </c>
       <c r="E17" t="n">
-        <v>71.3176</v>
+        <v>73.3592</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.427630000000001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.9036</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.7334</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.6276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.962770000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.4127</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.0617</v>
-      </c>
-      <c r="E3" t="n">
-        <v>22.8237</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.9784</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.9863</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.2554</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.3913</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13.596</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.8572</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.5559</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38.1324</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18.6183</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.4238</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41.5441</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>19.0081</v>
-      </c>
-      <c r="C7" t="n">
-        <v>21.0858</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36.5946</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48.6285</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.8072</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21.9734</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38.473</v>
-      </c>
-      <c r="E8" t="n">
-        <v>52.4484</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>16.7608</v>
-      </c>
-      <c r="C9" t="n">
-        <v>21.8314</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.5113</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50.4554</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17.2434</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21.5929</v>
-      </c>
-      <c r="D10" t="n">
-        <v>38.0636</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50.4317</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.9432</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22.1044</v>
-      </c>
-      <c r="D11" t="n">
-        <v>36.9799</v>
-      </c>
-      <c r="E11" t="n">
-        <v>52.5903</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17.581</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22.6651</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.6628</v>
-      </c>
-      <c r="E12" t="n">
-        <v>53.4028</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.7094</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23.3629</v>
-      </c>
-      <c r="D13" t="n">
-        <v>37.9215</v>
-      </c>
-      <c r="E13" t="n">
-        <v>52.8897</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>17.3052</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.0078</v>
-      </c>
-      <c r="D14" t="n">
-        <v>39.8975</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52.6015</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>17.7373</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24.0895</v>
-      </c>
-      <c r="D15" t="n">
-        <v>38.9831</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53.9043</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>17.6216</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.1099</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38.1526</v>
-      </c>
-      <c r="E16" t="n">
-        <v>55.6049</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.6361</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24.5154</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37.4189</v>
-      </c>
-      <c r="E17" t="n">
-        <v>52.2605</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.1094</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.7517</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.6023</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.4467</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.0406</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.862</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.7699</v>
-      </c>
-      <c r="E3" t="n">
-        <v>22.993</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.1378</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.9577</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.6873</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>16.0423</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.2711</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.5651</v>
-      </c>
-      <c r="E5" t="n">
-        <v>36.7012</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.0602</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18.071</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.0113</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41.8931</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16.0696</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.6962</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33.7677</v>
-      </c>
-      <c r="E7" t="n">
-        <v>47.8504</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16.3197</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.2871</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33.3365</v>
-      </c>
-      <c r="E8" t="n">
-        <v>48.8737</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>16.0226</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19.9781</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.4273</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50.0476</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17.2123</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21.2413</v>
-      </c>
-      <c r="D10" t="n">
-        <v>34.0954</v>
-      </c>
-      <c r="E10" t="n">
-        <v>46.5878</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.5951</v>
-      </c>
-      <c r="C11" t="n">
-        <v>21.7401</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.2584</v>
-      </c>
-      <c r="E11" t="n">
-        <v>46.317</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17.3405</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21.2982</v>
-      </c>
-      <c r="D12" t="n">
-        <v>35.0307</v>
-      </c>
-      <c r="E12" t="n">
-        <v>46.6103</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.0926</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22.2004</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33.8283</v>
-      </c>
-      <c r="E13" t="n">
-        <v>49.0877</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16.3449</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22.1482</v>
-      </c>
-      <c r="D14" t="n">
-        <v>33.1019</v>
-      </c>
-      <c r="E14" t="n">
-        <v>46.69</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>17.2898</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22.688</v>
-      </c>
-      <c r="D15" t="n">
-        <v>36.881</v>
-      </c>
-      <c r="E15" t="n">
-        <v>49.4197</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>16.601</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22.7756</v>
-      </c>
-      <c r="D16" t="n">
-        <v>31.2427</v>
-      </c>
-      <c r="E16" t="n">
-        <v>48.0894</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15.9813</v>
-      </c>
-      <c r="C17" t="n">
-        <v>23.5811</v>
-      </c>
-      <c r="D17" t="n">
-        <v>33.1499</v>
-      </c>
-      <c r="E17" t="n">
-        <v>42.6283</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12.6044</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.2318</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.4402</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.6348</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.4948</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.5972</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.1845</v>
-      </c>
-      <c r="E3" t="n">
-        <v>27.7334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.146</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17.5353</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.9935</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34.3269</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.7531</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17.4746</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.5427</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40.2582</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18.4054</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18.4669</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.9589</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43.7585</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18.7147</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19.6457</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36.3793</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41.7705</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.7586</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.0056</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.0199</v>
-      </c>
-      <c r="E8" t="n">
-        <v>41.0952</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18.4703</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20.4634</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32.648</v>
-      </c>
-      <c r="E9" t="n">
-        <v>41.6876</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>19.9873</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19.9882</v>
-      </c>
-      <c r="D10" t="n">
-        <v>31.8448</v>
-      </c>
-      <c r="E10" t="n">
-        <v>44.9359</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>19.1723</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20.3985</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.8331</v>
-      </c>
-      <c r="E11" t="n">
-        <v>48.2903</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>18.394</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20.661</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.1082</v>
-      </c>
-      <c r="E12" t="n">
-        <v>41.6814</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20.1464</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22.3458</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33.8181</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39.7927</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20.1335</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22.6797</v>
-      </c>
-      <c r="D14" t="n">
-        <v>31.9632</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37.1529</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20.3337</v>
-      </c>
-      <c r="C15" t="n">
-        <v>23.1433</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31.162</v>
-      </c>
-      <c r="E15" t="n">
-        <v>41.0858</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>19.1002</v>
-      </c>
-      <c r="C16" t="n">
-        <v>23.5378</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29.7078</v>
-      </c>
-      <c r="E16" t="n">
-        <v>37.8484</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>18.9951</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24.0315</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27.324</v>
-      </c>
-      <c r="E17" t="n">
-        <v>38.1488</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.92824</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.6789</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.692</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.8266</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.30369</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.754339999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.8761</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23.771</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.83235</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.477600000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.8739</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27.6717</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.40007</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.0563</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.8419</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32.6342</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8.53861</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.1288</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.8648</v>
-      </c>
-      <c r="E6" t="n">
-        <v>29.8168</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9.14528</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.705</v>
-      </c>
-      <c r="D7" t="n">
-        <v>22.3631</v>
-      </c>
-      <c r="E7" t="n">
-        <v>35.1789</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8.98338</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.656</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.564</v>
-      </c>
-      <c r="E8" t="n">
-        <v>35.6469</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9.241</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17.9483</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44.0359</v>
-      </c>
-      <c r="E9" t="n">
-        <v>64.7533</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15.9411</v>
-      </c>
-      <c r="C10" t="n">
-        <v>22.5916</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.8802</v>
-      </c>
-      <c r="E10" t="n">
-        <v>64.1665</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.1147</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22.897</v>
-      </c>
-      <c r="D11" t="n">
-        <v>45.9382</v>
-      </c>
-      <c r="E11" t="n">
-        <v>65.0029</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16.3535</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22.9879</v>
-      </c>
-      <c r="D12" t="n">
-        <v>45.375</v>
-      </c>
-      <c r="E12" t="n">
-        <v>65.99630000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16.0266</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22.137</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42.6549</v>
-      </c>
-      <c r="E13" t="n">
-        <v>61.7864</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15.1679</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22.6987</v>
-      </c>
-      <c r="D14" t="n">
-        <v>43.1525</v>
-      </c>
-      <c r="E14" t="n">
-        <v>63.103</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>15.7833</v>
-      </c>
-      <c r="C15" t="n">
-        <v>23.0702</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41.7692</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61.0555</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15.3729</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22.0831</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38.4053</v>
-      </c>
-      <c r="E16" t="n">
-        <v>53.7868</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>14.3904</v>
-      </c>
-      <c r="C17" t="n">
-        <v>23.0197</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39.8471</v>
-      </c>
-      <c r="E17" t="n">
-        <v>59.5911</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.90449</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.8153</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.601</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.916</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.99851</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.454650000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.8927</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23.0622</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.87392</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.0337</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.0262</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26.1034</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.43828</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.2611</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.9592</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30.6084</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8.130789999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.6643</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.248</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30.2609</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9.41498</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.6495</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.5879</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36.3421</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9.8505</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.8694</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26.1187</v>
-      </c>
-      <c r="E8" t="n">
-        <v>36.2942</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9.11679</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13.9072</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.7907</v>
-      </c>
-      <c r="E9" t="n">
-        <v>64.4965</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.3283</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.0058</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.6709</v>
-      </c>
-      <c r="E10" t="n">
-        <v>63.9658</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.6621</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.0341</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44.2751</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60.6741</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>15.4646</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21.7125</v>
-      </c>
-      <c r="D12" t="n">
-        <v>42.1326</v>
-      </c>
-      <c r="E12" t="n">
-        <v>60.6748</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16.0795</v>
-      </c>
-      <c r="C13" t="n">
-        <v>22.5439</v>
-      </c>
-      <c r="D13" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="E13" t="n">
-        <v>62.6387</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14.463</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21.899</v>
-      </c>
-      <c r="D14" t="n">
-        <v>38.5071</v>
-      </c>
-      <c r="E14" t="n">
-        <v>57.8446</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.959</v>
-      </c>
-      <c r="C15" t="n">
-        <v>22.7356</v>
-      </c>
-      <c r="D15" t="n">
-        <v>37.3442</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53.5525</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>13.6327</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22.406</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36.9709</v>
-      </c>
-      <c r="E16" t="n">
-        <v>54.6314</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>14.588</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.1805</v>
-      </c>
-      <c r="D17" t="n">
-        <v>35.4109</v>
-      </c>
-      <c r="E17" t="n">
-        <v>52.4918</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.43736</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.1918</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.1338</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.1654</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.97842</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.2565</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.969</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24.041</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.801209999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.1806</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.9672</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27.6017</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10.8662</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.1013</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.3092</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31.1999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.048</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15.0152</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.3877</v>
-      </c>
-      <c r="E6" t="n">
-        <v>37.3306</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.1587</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.0485</v>
-      </c>
-      <c r="D7" t="n">
-        <v>26.2432</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.5687</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13.4641</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20.4302</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48.8636</v>
-      </c>
-      <c r="E8" t="n">
-        <v>69.15179999999999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>26.9493</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.5302</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.4132</v>
-      </c>
-      <c r="E9" t="n">
-        <v>76.04470000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>25.6459</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26.563</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51.5384</v>
-      </c>
-      <c r="E10" t="n">
-        <v>68.58759999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>25.0384</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.4252</v>
-      </c>
-      <c r="D11" t="n">
-        <v>52.3706</v>
-      </c>
-      <c r="E11" t="n">
-        <v>70.7313</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25.1654</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.756</v>
-      </c>
-      <c r="D12" t="n">
-        <v>53.2619</v>
-      </c>
-      <c r="E12" t="n">
-        <v>71.9203</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>25.4857</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27.1597</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.3039</v>
-      </c>
-      <c r="E13" t="n">
-        <v>72.6819</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24.7723</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.5521</v>
-      </c>
-      <c r="D14" t="n">
-        <v>53.3873</v>
-      </c>
-      <c r="E14" t="n">
-        <v>72.2227</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>25.7299</v>
-      </c>
-      <c r="C15" t="n">
-        <v>28.2375</v>
-      </c>
-      <c r="D15" t="n">
-        <v>53.512</v>
-      </c>
-      <c r="E15" t="n">
-        <v>74.0771</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25.7218</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29.0337</v>
-      </c>
-      <c r="D16" t="n">
-        <v>54.512</v>
-      </c>
-      <c r="E16" t="n">
-        <v>72.45350000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.7227</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29.7733</v>
-      </c>
-      <c r="D17" t="n">
-        <v>54.1417</v>
-      </c>
-      <c r="E17" t="n">
-        <v>73.3592</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.45744</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.8601</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.6989</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.622</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.21049</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.5798</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.3096</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.3715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.7528</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.4015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.1029</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.4677</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.8413</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.4946</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.9369</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.5351</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.5417</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.0288</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.4695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.7633</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.2096</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.0528</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.3966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.2439</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.4376</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.0936</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.5181</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.4985</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.1938</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.8717</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.3987</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.1423</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.2418</v>
+      </c>
+      <c r="D10" t="n">
+        <v>41.9139</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.7501</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18.2501</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.6363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.246</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.1593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.0538</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.0505</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40.4541</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.3572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.496</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.8809</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41.2401</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.0736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.2188</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.3245</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.3806</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.5389</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.9342</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.0224</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41.5701</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.2623</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.4461</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.4233</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43.0511</v>
+      </c>
+      <c r="E16" t="n">
+        <v>63.411</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.4643</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.3043</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44.9034</v>
+      </c>
+      <c r="E17" t="n">
+        <v>59.9927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.0633</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.7411</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.5678</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.4402</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.48272</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.638</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.0896</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.2309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.1378</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.3833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.9112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.3435</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.9589</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.8057</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.4427</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.0378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.1043</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.3513</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.2274</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.5022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.1525</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.0332</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.3433</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49.5599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.8548</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.1601</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.4759</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.5632</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.3689</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.8119</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.3933</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.6112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.5184</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.0812</v>
+      </c>
+      <c r="D10" t="n">
+        <v>41.2842</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54.9339</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.2416</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.8339</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.4619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55.4833</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.4096</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.9684</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41.4857</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.1093</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20.3782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.6774</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42.0422</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59.1655</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.5641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.3133</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40.5813</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.8151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19.9341</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.0998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>42.6061</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60.4913</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.748</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.9268</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.9331</v>
+      </c>
+      <c r="E16" t="n">
+        <v>57.8276</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.889</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.4651</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.9161</v>
+      </c>
+      <c r="E17" t="n">
+        <v>56.919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.6583</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.2321</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.501</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.649</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.5152</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.4448</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.1572</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.0489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.7812</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.8018</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.6025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31.8837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.2482</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.6367</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.8831</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.7967</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.8683</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.5812</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.1145</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.0882</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.4511</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.4806</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.8052</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.7267</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23.3429</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.6805</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.6098</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53.2798</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26.6883</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.2847</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.5984</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.0534</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.1767</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.4477</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.5597</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54.3424</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.7131</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.3923</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.2887</v>
+      </c>
+      <c r="E11" t="n">
+        <v>54.1853</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24.3702</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.7075</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.5431</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.3504</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26.1756</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.0895</v>
+      </c>
+      <c r="E13" t="n">
+        <v>56.1336</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23.8666</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26.9259</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45.311</v>
+      </c>
+      <c r="E14" t="n">
+        <v>56.2988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.0973</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27.6139</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.2315</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.0082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23.7589</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.2478</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47.8757</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54.6411</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22.5624</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28.9998</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.8569</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55.3752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.85557</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.6708</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.7456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.00116</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.1189</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.3092</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.1156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.353160000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.5289</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.2171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.7436</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.3581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9557</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.6675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.3683</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.6702</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.3983</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.3393</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.2445</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.3529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.9415</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.1884</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.377</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.6732</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71.3408</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.5626</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.7073</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.1056</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80.1178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.7383</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.9444</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.1458</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70.50020000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.1462</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.779</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49.0099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.8575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17.555</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.259</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.0154</v>
+      </c>
+      <c r="E12" t="n">
+        <v>71.5891</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.7612</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.3016</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.2801</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71.54089999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.2398</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.4638</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.3844</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70.1551</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.9714</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.0626</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50.3254</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72.9699</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.8124</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.6275</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50.0044</v>
+      </c>
+      <c r="E16" t="n">
+        <v>73.1028</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18.1071</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.2675</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50.8629</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73.1357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.90145</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.8415</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.5716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.8132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.19533</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.4586</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.0291</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.9171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.365119999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.553</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.6375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.1829</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.5674</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9822</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.2033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.1954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.583</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.6107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.5725</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.4682</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.5813</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.3655</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.4893</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.3331</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.3255</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.372</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.1218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70.4224</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.0633</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.8706</v>
+      </c>
+      <c r="D9" t="n">
+        <v>52.7853</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79.5812</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.893</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.0555</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.1613</v>
+      </c>
+      <c r="E10" t="n">
+        <v>69.70140000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.6522</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.0074</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.1844</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18.0031</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.0183</v>
+      </c>
+      <c r="D12" t="n">
+        <v>48.6258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70.05889999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.1903</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.2714</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48.6541</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71.2953</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.5959</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.6053</v>
+      </c>
+      <c r="D14" t="n">
+        <v>47.8087</v>
+      </c>
+      <c r="E14" t="n">
+        <v>71.081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.287</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.0506</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49.1815</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72.0449</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18.2255</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.7219</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49.2418</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.7557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>18.299</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.2586</v>
+      </c>
+      <c r="D17" t="n">
+        <v>48.5384</v>
+      </c>
+      <c r="E17" t="n">
+        <v>70.9753</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.12053</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.2645</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.3805</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.394880000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.3204</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.7244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.1061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.1534</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.6126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.227</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.7016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.7578</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.1075</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.9803</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.4349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.2051</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.9714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.1385</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.9675</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.0625</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21.781</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.6496</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62.077</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22.8593</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.7853</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.9584</v>
+      </c>
+      <c r="E8" t="n">
+        <v>69.645</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26.7307</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.5363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.6771</v>
+      </c>
+      <c r="E9" t="n">
+        <v>77.39790000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.228</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.6101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52.6633</v>
+      </c>
+      <c r="E10" t="n">
+        <v>68.0359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.8322</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.3869</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.8424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.6858</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.3658</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.6281</v>
+      </c>
+      <c r="D12" t="n">
+        <v>53.1475</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73.1187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.5782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.1342</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54.4698</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72.9312</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24.5894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.5254</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53.6225</v>
+      </c>
+      <c r="E14" t="n">
+        <v>72.4628</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25.6987</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28.2578</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.1392</v>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25.5554</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.9716</v>
+      </c>
+      <c r="D16" t="n">
+        <v>54.1552</v>
+      </c>
+      <c r="E16" t="n">
+        <v>73.7671</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25.2579</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29.8438</v>
+      </c>
+      <c r="D17" t="n">
+        <v>55.2013</v>
+      </c>
+      <c r="E17" t="n">
+        <v>74.07640000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.463649999999999</v>
+        <v>9.45744</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8855</v>
+        <v>13.8601</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7014</v>
+        <v>16.6989</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.622</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.98601</v>
+        <v>9.21049</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4278</v>
+        <v>10.5798</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0543</v>
+        <v>17.3096</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.3715</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.981669999999999</v>
+        <v>10.7528</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3572</v>
+        <v>12.4015</v>
       </c>
       <c r="D4" t="n">
-        <v>21.3538</v>
+        <v>21.1029</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.768</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0144</v>
+        <v>12.4677</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7848</v>
+        <v>14.8413</v>
       </c>
       <c r="D5" t="n">
-        <v>25.5345</v>
+        <v>25.4946</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.9369</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.3814</v>
+        <v>14.5351</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4198</v>
+        <v>17.5417</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3646</v>
+        <v>30.0288</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.4695</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.9031</v>
+        <v>16.7633</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0327</v>
+        <v>20.2096</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5358</v>
+        <v>35.0528</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.3966</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.4109</v>
+        <v>18.2439</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5454</v>
+        <v>22.4376</v>
       </c>
       <c r="D8" t="n">
-        <v>38.2413</v>
+        <v>37.0936</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.5181</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.513</v>
+        <v>21.4985</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3974</v>
+        <v>25.1938</v>
       </c>
       <c r="D9" t="n">
-        <v>42.5087</v>
+        <v>41.8717</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.3987</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1197</v>
+        <v>19.1423</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8481</v>
+        <v>24.2418</v>
       </c>
       <c r="D10" t="n">
-        <v>40.6991</v>
+        <v>41.9139</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.7501</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7251</v>
+        <v>18.2501</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5001</v>
+        <v>23.6363</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4653</v>
+        <v>41.246</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.1593</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.1617</v>
+        <v>19.0538</v>
       </c>
       <c r="C12" t="n">
-        <v>23.911</v>
+        <v>24.0505</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9678</v>
+        <v>40.4541</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.3572</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6423</v>
+        <v>19.496</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7492</v>
+        <v>24.8809</v>
       </c>
       <c r="D13" t="n">
-        <v>41.8411</v>
+        <v>41.2401</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.0736</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0453</v>
+        <v>19.2188</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3019</v>
+        <v>25.3245</v>
       </c>
       <c r="D14" t="n">
-        <v>42.8597</v>
+        <v>42.3806</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.5389</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1392</v>
+        <v>18.9342</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1937</v>
+        <v>26.0224</v>
       </c>
       <c r="D15" t="n">
-        <v>42.1255</v>
+        <v>41.5701</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.2623</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1836</v>
+        <v>19.4461</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5417</v>
+        <v>26.4233</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2076</v>
+        <v>43.0511</v>
+      </c>
+      <c r="E16" t="n">
+        <v>63.411</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0968</v>
+        <v>19.4643</v>
       </c>
       <c r="C17" t="n">
-        <v>27.232</v>
+        <v>27.3043</v>
       </c>
       <c r="D17" t="n">
-        <v>43.371</v>
+        <v>44.9034</v>
+      </c>
+      <c r="E17" t="n">
+        <v>59.9927</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1297</v>
+        <v>10.0633</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7581</v>
+        <v>13.7411</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6382</v>
+        <v>16.5678</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.4402</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.59948</v>
+        <v>9.48272</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6574</v>
+        <v>10.638</v>
       </c>
       <c r="D3" t="n">
-        <v>16.9961</v>
+        <v>17.0896</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.2309</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2127</v>
+        <v>11.1378</v>
       </c>
       <c r="C4" t="n">
-        <v>12.29</v>
+        <v>12.3833</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1811</v>
+        <v>20.9112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.3435</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0019</v>
+        <v>12.9589</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7002</v>
+        <v>14.8057</v>
       </c>
       <c r="D5" t="n">
-        <v>24.8223</v>
+        <v>25.4427</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.0378</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1411</v>
+        <v>15.1043</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1653</v>
+        <v>17.3513</v>
       </c>
       <c r="D6" t="n">
-        <v>30.486</v>
+        <v>30.2274</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.5022</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.4272</v>
+        <v>17.1525</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1562</v>
+        <v>20.0332</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2206</v>
+        <v>34.3433</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49.5599</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0417</v>
+        <v>18.8548</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0758</v>
+        <v>22.1601</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5841</v>
+        <v>38.4759</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.5632</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4578</v>
+        <v>22.3689</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6849</v>
+        <v>24.8119</v>
       </c>
       <c r="D9" t="n">
-        <v>42.1683</v>
+        <v>42.3933</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59.6112</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.4236</v>
+        <v>19.5184</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4698</v>
+        <v>24.0812</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2771</v>
+        <v>41.2842</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54.9339</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.5267</v>
+        <v>19.2416</v>
       </c>
       <c r="C11" t="n">
-        <v>23.77</v>
+        <v>23.8339</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7277</v>
+        <v>40.4619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55.4833</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.5095</v>
+        <v>19.4096</v>
       </c>
       <c r="C12" t="n">
-        <v>23.916</v>
+        <v>23.9684</v>
       </c>
       <c r="D12" t="n">
-        <v>39.8927</v>
+        <v>41.4857</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.1093</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3484</v>
+        <v>20.3782</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6642</v>
+        <v>24.6774</v>
       </c>
       <c r="D13" t="n">
-        <v>41.163</v>
+        <v>42.0422</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59.1655</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0762</v>
+        <v>19.5641</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4498</v>
+        <v>25.3133</v>
       </c>
       <c r="D14" t="n">
-        <v>40.6162</v>
+        <v>40.5813</v>
+      </c>
+      <c r="E14" t="n">
+        <v>58.8151</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7946</v>
+        <v>19.9341</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1717</v>
+        <v>26.0998</v>
       </c>
       <c r="D15" t="n">
-        <v>42.0388</v>
+        <v>42.6061</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60.4913</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.401</v>
+        <v>19.748</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7347</v>
+        <v>26.9268</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2198</v>
+        <v>42.9331</v>
+      </c>
+      <c r="E16" t="n">
+        <v>57.8276</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.236</v>
+        <v>19.889</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3526</v>
+        <v>27.4651</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4697</v>
+        <v>42.9161</v>
+      </c>
+      <c r="E17" t="n">
+        <v>56.919</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6934</v>
+        <v>12.6583</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1989</v>
+        <v>15.2321</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4089</v>
+        <v>18.501</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.649</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.7557</v>
+        <v>10.5152</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2106</v>
+        <v>11.4448</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4313</v>
+        <v>18.1572</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.0489</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2033</v>
+        <v>12.7812</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7775</v>
+        <v>13.8018</v>
       </c>
       <c r="D4" t="n">
-        <v>22.8221</v>
+        <v>22.6025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31.8837</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2947</v>
+        <v>15.2482</v>
       </c>
       <c r="C5" t="n">
-        <v>16.5426</v>
+        <v>16.6367</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0161</v>
+        <v>27.8831</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.7967</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.7382</v>
+        <v>17.8683</v>
       </c>
       <c r="C6" t="n">
-        <v>19.038</v>
+        <v>19.5812</v>
       </c>
       <c r="D6" t="n">
-        <v>32.4843</v>
+        <v>33.1145</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.0882</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1075</v>
+        <v>20.4511</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0435</v>
+        <v>22.4806</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1086</v>
+        <v>37.8052</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.7267</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8477</v>
+        <v>23.3429</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0823</v>
+        <v>24.6805</v>
       </c>
       <c r="D8" t="n">
-        <v>39.4541</v>
+        <v>40.6098</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53.2798</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2557</v>
+        <v>26.6883</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3991</v>
+        <v>27.2847</v>
       </c>
       <c r="D9" t="n">
-        <v>45.4089</v>
+        <v>44.5984</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.0534</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.236</v>
+        <v>25.1767</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4869</v>
+        <v>26.4477</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7395</v>
+        <v>43.5597</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54.3424</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.0539</v>
+        <v>23.7131</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4648</v>
+        <v>25.3923</v>
       </c>
       <c r="D11" t="n">
-        <v>42.3998</v>
+        <v>43.2887</v>
+      </c>
+      <c r="E11" t="n">
+        <v>54.1853</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6377</v>
+        <v>24.3702</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7572</v>
+        <v>25.7075</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1384</v>
+        <v>43.5431</v>
+      </c>
+      <c r="E12" t="n">
+        <v>54.9899</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5871</v>
+        <v>25.3504</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0977</v>
+        <v>26.1756</v>
       </c>
       <c r="D13" t="n">
-        <v>43.9386</v>
+        <v>46.0895</v>
+      </c>
+      <c r="E13" t="n">
+        <v>56.1336</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.028</v>
+        <v>23.8666</v>
       </c>
       <c r="C14" t="n">
-        <v>26.7199</v>
+        <v>26.9259</v>
       </c>
       <c r="D14" t="n">
-        <v>44.852</v>
+        <v>45.311</v>
+      </c>
+      <c r="E14" t="n">
+        <v>56.2988</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5007</v>
+        <v>24.0973</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6714</v>
+        <v>27.6139</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1527</v>
+        <v>44.2315</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.0082</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4425</v>
+        <v>23.7589</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3356</v>
+        <v>28.2478</v>
       </c>
       <c r="D16" t="n">
-        <v>43.8736</v>
+        <v>47.8757</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54.6411</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.4882</v>
+        <v>22.5624</v>
       </c>
       <c r="C17" t="n">
-        <v>29.123</v>
+        <v>28.9998</v>
       </c>
       <c r="D17" t="n">
-        <v>44.1119</v>
+        <v>42.8569</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55.3752</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.83778</v>
+        <v>3.85557</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7046</v>
+        <v>10.716</v>
       </c>
       <c r="D2" t="n">
-        <v>12.668</v>
+        <v>12.6708</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.7456</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11839</v>
+        <v>6.00116</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3223</v>
+        <v>10.1189</v>
       </c>
       <c r="D3" t="n">
-        <v>17.4422</v>
+        <v>17.3092</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.1156</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.35191</v>
+        <v>8.353160000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4827</v>
+        <v>12.5289</v>
       </c>
       <c r="D4" t="n">
-        <v>23.4546</v>
+        <v>23.2171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.7436</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3926</v>
+        <v>10.3581</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9644</v>
+        <v>14.9557</v>
       </c>
       <c r="D5" t="n">
-        <v>29.113</v>
+        <v>28.6675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.812</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.48</v>
+        <v>12.3683</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6236</v>
+        <v>17.6702</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3649</v>
+        <v>34.3983</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.234</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3191</v>
+        <v>14.3393</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2807</v>
+        <v>20.2445</v>
       </c>
       <c r="D7" t="n">
-        <v>40.1132</v>
+        <v>40.3529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.9415</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2124</v>
+        <v>16.1884</v>
       </c>
       <c r="C8" t="n">
-        <v>23.162</v>
+        <v>23.377</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4489</v>
+        <v>45.6732</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71.3408</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7033</v>
+        <v>18.5626</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5956</v>
+        <v>26.7073</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1343</v>
+        <v>54.1056</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80.1178</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5335</v>
+        <v>17.7383</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7194</v>
+        <v>24.9444</v>
       </c>
       <c r="D10" t="n">
-        <v>49.5848</v>
+        <v>48.1458</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70.50020000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4978</v>
+        <v>17.1462</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7949</v>
+        <v>24.779</v>
       </c>
       <c r="D11" t="n">
-        <v>48.1011</v>
+        <v>49.0099</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.8575</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5705</v>
+        <v>17.555</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3166</v>
+        <v>25.259</v>
       </c>
       <c r="D12" t="n">
-        <v>49.083</v>
+        <v>50.0154</v>
+      </c>
+      <c r="E12" t="n">
+        <v>71.5891</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8605</v>
+        <v>17.7612</v>
       </c>
       <c r="C13" t="n">
-        <v>25.156</v>
+        <v>25.3016</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1142</v>
+        <v>50.2801</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71.54089999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3953</v>
+        <v>17.2398</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5589</v>
+        <v>25.4638</v>
       </c>
       <c r="D14" t="n">
-        <v>50.0934</v>
+        <v>50.3844</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70.1551</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8491</v>
+        <v>17.9714</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8853</v>
+        <v>26.0626</v>
       </c>
       <c r="D15" t="n">
-        <v>49.3036</v>
+        <v>50.3254</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72.9699</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7137</v>
+        <v>17.8124</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5137</v>
+        <v>26.6275</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6737</v>
+        <v>50.0044</v>
+      </c>
+      <c r="E16" t="n">
+        <v>73.1028</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6483</v>
+        <v>18.1071</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1202</v>
+        <v>27.2675</v>
       </c>
       <c r="D17" t="n">
-        <v>51.0202</v>
+        <v>50.8629</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73.1357</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.91544</v>
+        <v>3.90145</v>
       </c>
       <c r="C2" t="n">
-        <v>10.803</v>
+        <v>10.8415</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6099</v>
+        <v>12.5716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.8132</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.29633</v>
+        <v>6.19533</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4465</v>
+        <v>10.4586</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1807</v>
+        <v>17.0291</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.9171</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.35943</v>
+        <v>8.365119999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5148</v>
+        <v>12.553</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5502</v>
+        <v>22.6375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.1829</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6118</v>
+        <v>10.5674</v>
       </c>
       <c r="C5" t="n">
-        <v>14.986</v>
+        <v>14.9822</v>
       </c>
       <c r="D5" t="n">
-        <v>27.9974</v>
+        <v>28.2033</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43.1954</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4525</v>
+        <v>12.583</v>
       </c>
       <c r="C6" t="n">
-        <v>17.597</v>
+        <v>17.6107</v>
       </c>
       <c r="D6" t="n">
-        <v>33.482</v>
+        <v>33.5725</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.4682</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4776</v>
+        <v>14.5813</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3375</v>
+        <v>20.3655</v>
       </c>
       <c r="D7" t="n">
-        <v>39.3379</v>
+        <v>39.4893</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61.3331</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.6098</v>
+        <v>16.3255</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3502</v>
+        <v>23.372</v>
       </c>
       <c r="D8" t="n">
-        <v>44.969</v>
+        <v>45.1218</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70.4224</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9794</v>
+        <v>19.0633</v>
       </c>
       <c r="C9" t="n">
-        <v>26.74</v>
+        <v>26.8706</v>
       </c>
       <c r="D9" t="n">
-        <v>53.5053</v>
+        <v>52.7853</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79.5812</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1469</v>
+        <v>17.893</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8133</v>
+        <v>25.0555</v>
       </c>
       <c r="D10" t="n">
-        <v>48.98</v>
+        <v>48.1613</v>
+      </c>
+      <c r="E10" t="n">
+        <v>69.70140000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8044</v>
+        <v>17.6522</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7978</v>
+        <v>25.0074</v>
       </c>
       <c r="D11" t="n">
-        <v>48.0834</v>
+        <v>47.013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.1844</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9827</v>
+        <v>18.0031</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9504</v>
+        <v>25.0183</v>
       </c>
       <c r="D12" t="n">
-        <v>48.0247</v>
+        <v>48.6258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70.05889999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3916</v>
+        <v>18.1903</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2072</v>
+        <v>25.2714</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5218</v>
+        <v>48.6541</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71.2953</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5976</v>
+        <v>17.5959</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4284</v>
+        <v>25.6053</v>
       </c>
       <c r="D14" t="n">
-        <v>48.2318</v>
+        <v>47.8087</v>
+      </c>
+      <c r="E14" t="n">
+        <v>71.081</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.4211</v>
+        <v>18.287</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9063</v>
+        <v>26.0506</v>
       </c>
       <c r="D15" t="n">
-        <v>48.7327</v>
+        <v>49.1815</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72.0449</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1571</v>
+        <v>18.2255</v>
       </c>
       <c r="C16" t="n">
-        <v>26.3642</v>
+        <v>26.7219</v>
       </c>
       <c r="D16" t="n">
-        <v>49.5283</v>
+        <v>49.2418</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.7557</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.011</v>
+        <v>18.299</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0933</v>
+        <v>27.2586</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1686</v>
+        <v>48.5384</v>
+      </c>
+      <c r="E17" t="n">
+        <v>70.9753</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.273059999999999</v>
+        <v>8.12053</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1914</v>
+        <v>14.201</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2495</v>
+        <v>17.2645</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.3805</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.18845</v>
+        <v>9.394880000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3095</v>
+        <v>11.3204</v>
       </c>
       <c r="D3" t="n">
-        <v>18.724</v>
+        <v>18.7244</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.1061</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5835</v>
+        <v>12.1534</v>
       </c>
       <c r="C4" t="n">
-        <v>13.1207</v>
+        <v>13.6126</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2348</v>
+        <v>24.227</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.7016</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7591</v>
+        <v>14.7578</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4605</v>
+        <v>16.1075</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9673</v>
+        <v>29.9803</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.4349</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0079</v>
+        <v>17.2051</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5754</v>
+        <v>18.9714</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1123</v>
+        <v>36.1385</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.9675</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.204</v>
+        <v>20.0625</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7592</v>
+        <v>21.781</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1149</v>
+        <v>42.6496</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62.077</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5622</v>
+        <v>22.8593</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9349</v>
+        <v>24.7853</v>
       </c>
       <c r="D8" t="n">
-        <v>48.6793</v>
+        <v>48.9584</v>
+      </c>
+      <c r="E8" t="n">
+        <v>69.645</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5783</v>
+        <v>26.7307</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6273</v>
+        <v>27.5363</v>
       </c>
       <c r="D9" t="n">
-        <v>55.2143</v>
+        <v>56.6771</v>
+      </c>
+      <c r="E9" t="n">
+        <v>77.39790000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5966</v>
+        <v>25.228</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3958</v>
+        <v>26.6101</v>
       </c>
       <c r="D10" t="n">
-        <v>53.1256</v>
+        <v>52.6633</v>
+      </c>
+      <c r="E10" t="n">
+        <v>68.0359</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3107</v>
+        <v>24.8322</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8672</v>
+        <v>26.3869</v>
       </c>
       <c r="D11" t="n">
-        <v>52.4091</v>
+        <v>51.8424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70.6858</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5696</v>
+        <v>25.3658</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2418</v>
+        <v>26.6281</v>
       </c>
       <c r="D12" t="n">
-        <v>52.8961</v>
+        <v>53.1475</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73.1187</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4502</v>
+        <v>25.5782</v>
       </c>
       <c r="C13" t="n">
-        <v>26.5894</v>
+        <v>27.1342</v>
       </c>
       <c r="D13" t="n">
-        <v>54.104</v>
+        <v>54.4698</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72.9312</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3008</v>
+        <v>24.5894</v>
       </c>
       <c r="C14" t="n">
-        <v>26.3844</v>
+        <v>27.5254</v>
       </c>
       <c r="D14" t="n">
-        <v>53.5917</v>
+        <v>53.6225</v>
+      </c>
+      <c r="E14" t="n">
+        <v>72.4628</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.6875</v>
+        <v>25.6987</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9873</v>
+        <v>28.2578</v>
       </c>
       <c r="D15" t="n">
-        <v>53.4573</v>
+        <v>54.1392</v>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3137</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.5613</v>
+        <v>25.5554</v>
       </c>
       <c r="C16" t="n">
-        <v>27.8026</v>
+        <v>28.9716</v>
       </c>
       <c r="D16" t="n">
-        <v>53.8617</v>
+        <v>54.1552</v>
+      </c>
+      <c r="E16" t="n">
+        <v>73.7671</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3757</v>
+        <v>25.2579</v>
       </c>
       <c r="C17" t="n">
-        <v>28.4431</v>
+        <v>29.8438</v>
       </c>
       <c r="D17" t="n">
-        <v>55.3355</v>
+        <v>55.2013</v>
+      </c>
+      <c r="E17" t="n">
+        <v>74.07640000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.45744</v>
+        <v>9.49334</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8601</v>
+        <v>13.8774</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6989</v>
+        <v>16.6198</v>
       </c>
       <c r="E2" t="n">
-        <v>20.622</v>
+        <v>20.5901</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.21049</v>
+        <v>8.832520000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5798</v>
+        <v>11.9304</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3096</v>
+        <v>28.7381</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3715</v>
+        <v>28.6074</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7528</v>
+        <v>11.476</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4015</v>
+        <v>15.0091</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1029</v>
+        <v>24.1359</v>
       </c>
       <c r="E4" t="n">
-        <v>30.768</v>
+        <v>31.824</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4677</v>
+        <v>12.2849</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8413</v>
+        <v>15.4421</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4946</v>
+        <v>27.1105</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9369</v>
+        <v>35.9103</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5351</v>
+        <v>13.7188</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5417</v>
+        <v>16.665</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0288</v>
+        <v>30.7309</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4695</v>
+        <v>39.387</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7633</v>
+        <v>15.207</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2096</v>
+        <v>17.3393</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0528</v>
+        <v>30.378</v>
       </c>
       <c r="E7" t="n">
-        <v>50.3966</v>
+        <v>47.3457</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2439</v>
+        <v>14.255</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4376</v>
+        <v>19.4516</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0936</v>
+        <v>30.038</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5181</v>
+        <v>39.1328</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4985</v>
+        <v>16.1831</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1938</v>
+        <v>18.3784</v>
       </c>
       <c r="D9" t="n">
-        <v>41.8717</v>
+        <v>31.2326</v>
       </c>
       <c r="E9" t="n">
-        <v>59.3987</v>
+        <v>43.5322</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1423</v>
+        <v>15.2128</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2418</v>
+        <v>19.4348</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9139</v>
+        <v>32.3046</v>
       </c>
       <c r="E10" t="n">
-        <v>55.7501</v>
+        <v>46.8289</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2501</v>
+        <v>14.7088</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6363</v>
+        <v>20.1424</v>
       </c>
       <c r="D11" t="n">
-        <v>41.246</v>
+        <v>32.4125</v>
       </c>
       <c r="E11" t="n">
-        <v>57.1593</v>
+        <v>43.9874</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0538</v>
+        <v>15.0382</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0505</v>
+        <v>20.5801</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4541</v>
+        <v>31.7765</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3572</v>
+        <v>44.4919</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.496</v>
+        <v>15.6202</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8809</v>
+        <v>20.5328</v>
       </c>
       <c r="D13" t="n">
-        <v>41.2401</v>
+        <v>30.7054</v>
       </c>
       <c r="E13" t="n">
-        <v>58.0736</v>
+        <v>42.504</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2188</v>
+        <v>15.2242</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3245</v>
+        <v>20.8618</v>
       </c>
       <c r="D14" t="n">
-        <v>42.3806</v>
+        <v>31.8224</v>
       </c>
       <c r="E14" t="n">
-        <v>61.5389</v>
+        <v>45.5477</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9342</v>
+        <v>14.5043</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0224</v>
+        <v>21.2222</v>
       </c>
       <c r="D15" t="n">
-        <v>41.5701</v>
+        <v>31.2417</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2623</v>
+        <v>50.4108</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4461</v>
+        <v>14.9107</v>
       </c>
       <c r="C16" t="n">
-        <v>26.4233</v>
+        <v>21.1938</v>
       </c>
       <c r="D16" t="n">
-        <v>43.0511</v>
+        <v>31.5633</v>
       </c>
       <c r="E16" t="n">
-        <v>63.411</v>
+        <v>40.2304</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4643</v>
+        <v>15.5743</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3043</v>
+        <v>21.5154</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9034</v>
+        <v>28.3413</v>
       </c>
       <c r="E17" t="n">
-        <v>59.9927</v>
+        <v>42.7341</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0633</v>
+        <v>10.3228</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7411</v>
+        <v>13.6992</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5678</v>
+        <v>16.6293</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4402</v>
+        <v>20.4616</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.48272</v>
+        <v>16.5941</v>
       </c>
       <c r="C3" t="n">
-        <v>10.638</v>
+        <v>21.7404</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0896</v>
+        <v>19.3414</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2309</v>
+        <v>23.594</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1378</v>
+        <v>10.521</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3833</v>
+        <v>12.3547</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9112</v>
+        <v>22.0861</v>
       </c>
       <c r="E4" t="n">
-        <v>30.3435</v>
+        <v>32.2002</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9589</v>
+        <v>12.4347</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8057</v>
+        <v>14.5558</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4427</v>
+        <v>26.1155</v>
       </c>
       <c r="E5" t="n">
-        <v>36.0378</v>
+        <v>35.1561</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1043</v>
+        <v>13.4032</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3513</v>
+        <v>15.0481</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2274</v>
+        <v>27.1198</v>
       </c>
       <c r="E6" t="n">
-        <v>42.5022</v>
+        <v>37.3697</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.1525</v>
+        <v>14.4524</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0332</v>
+        <v>16.3122</v>
       </c>
       <c r="D7" t="n">
-        <v>34.3433</v>
+        <v>28.3165</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5599</v>
+        <v>36.8691</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8548</v>
+        <v>14.6486</v>
       </c>
       <c r="C8" t="n">
-        <v>22.1601</v>
+        <v>17.7304</v>
       </c>
       <c r="D8" t="n">
-        <v>38.4759</v>
+        <v>31.9014</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5632</v>
+        <v>37.4829</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3689</v>
+        <v>14.5792</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8119</v>
+        <v>17.753</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3933</v>
+        <v>29.4927</v>
       </c>
       <c r="E9" t="n">
-        <v>59.6112</v>
+        <v>38.9088</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5184</v>
+        <v>14.7999</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0812</v>
+        <v>19.082</v>
       </c>
       <c r="D10" t="n">
-        <v>41.2842</v>
+        <v>27.4594</v>
       </c>
       <c r="E10" t="n">
-        <v>54.9339</v>
+        <v>34.1177</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2416</v>
+        <v>15.4364</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8339</v>
+        <v>19.2438</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4619</v>
+        <v>31.4603</v>
       </c>
       <c r="E11" t="n">
-        <v>55.4833</v>
+        <v>40.2407</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4096</v>
+        <v>16.0716</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9684</v>
+        <v>19.029</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4857</v>
+        <v>27.6946</v>
       </c>
       <c r="E12" t="n">
-        <v>58.1093</v>
+        <v>38.7686</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3782</v>
+        <v>15.1783</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6774</v>
+        <v>18.862</v>
       </c>
       <c r="D13" t="n">
-        <v>42.0422</v>
+        <v>26.0061</v>
       </c>
       <c r="E13" t="n">
-        <v>59.1655</v>
+        <v>29.4128</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.5641</v>
+        <v>14.7562</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3133</v>
+        <v>20.675</v>
       </c>
       <c r="D14" t="n">
-        <v>40.5813</v>
+        <v>18.6764</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8151</v>
+        <v>50.0488</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9341</v>
+        <v>14.336</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0998</v>
+        <v>21.3469</v>
       </c>
       <c r="D15" t="n">
-        <v>42.6061</v>
+        <v>20.46</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4913</v>
+        <v>47.4807</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.748</v>
+        <v>14.0782</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9268</v>
+        <v>24.2359</v>
       </c>
       <c r="D16" t="n">
-        <v>42.9331</v>
+        <v>16.7404</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8276</v>
+        <v>51.8505</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.889</v>
+        <v>13.8472</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4651</v>
+        <v>20.9566</v>
       </c>
       <c r="D17" t="n">
-        <v>42.9161</v>
+        <v>20.3776</v>
       </c>
       <c r="E17" t="n">
-        <v>56.919</v>
+        <v>53.2021</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6583</v>
+        <v>12.8668</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2321</v>
+        <v>15.2133</v>
       </c>
       <c r="D2" t="n">
-        <v>18.501</v>
+        <v>18.4239</v>
       </c>
       <c r="E2" t="n">
-        <v>21.649</v>
+        <v>21.6365</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5152</v>
+        <v>16.6519</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4448</v>
+        <v>12.5696</v>
       </c>
       <c r="D3" t="n">
-        <v>18.1572</v>
+        <v>19.0594</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0489</v>
+        <v>29.8729</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7812</v>
+        <v>12.8136</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8018</v>
+        <v>14.7448</v>
       </c>
       <c r="D4" t="n">
-        <v>22.6025</v>
+        <v>26.0237</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8837</v>
+        <v>31.5593</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2482</v>
+        <v>14.8435</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6367</v>
+        <v>16.2255</v>
       </c>
       <c r="D5" t="n">
-        <v>27.8831</v>
+        <v>25.1611</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7967</v>
+        <v>37.0558</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8683</v>
+        <v>16.2189</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5812</v>
+        <v>16.9321</v>
       </c>
       <c r="D6" t="n">
-        <v>33.1145</v>
+        <v>29.0418</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0882</v>
+        <v>37.1664</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.4511</v>
+        <v>16.3933</v>
       </c>
       <c r="C7" t="n">
-        <v>22.4806</v>
+        <v>15.318</v>
       </c>
       <c r="D7" t="n">
-        <v>37.8052</v>
+        <v>27.8073</v>
       </c>
       <c r="E7" t="n">
-        <v>48.7267</v>
+        <v>32.9391</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3429</v>
+        <v>16.0102</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6805</v>
+        <v>18.9044</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6098</v>
+        <v>23.3464</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2798</v>
+        <v>49.9886</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6883</v>
+        <v>14.9212</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2847</v>
+        <v>16.5866</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5984</v>
+        <v>35.2453</v>
       </c>
       <c r="E9" t="n">
-        <v>56.0534</v>
+        <v>29.0538</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1767</v>
+        <v>16.9239</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4477</v>
+        <v>21.3869</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5597</v>
+        <v>25.1185</v>
       </c>
       <c r="E10" t="n">
-        <v>54.3424</v>
+        <v>37.5938</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.7131</v>
+        <v>17.3416</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3923</v>
+        <v>19.9495</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2887</v>
+        <v>30.1211</v>
       </c>
       <c r="E11" t="n">
-        <v>54.1853</v>
+        <v>31.2462</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3702</v>
+        <v>17.7113</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7075</v>
+        <v>20.0925</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5431</v>
+        <v>28.0185</v>
       </c>
       <c r="E12" t="n">
-        <v>54.9899</v>
+        <v>30.5056</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3504</v>
+        <v>17.2401</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1756</v>
+        <v>20.4921</v>
       </c>
       <c r="D13" t="n">
-        <v>46.0895</v>
+        <v>30.4543</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1336</v>
+        <v>34.1556</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8666</v>
+        <v>16.9018</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9259</v>
+        <v>19.8317</v>
       </c>
       <c r="D14" t="n">
-        <v>45.311</v>
+        <v>28.8147</v>
       </c>
       <c r="E14" t="n">
-        <v>56.2988</v>
+        <v>35.7445</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0973</v>
+        <v>18.2206</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6139</v>
+        <v>20.8419</v>
       </c>
       <c r="D15" t="n">
-        <v>44.2315</v>
+        <v>30.1576</v>
       </c>
       <c r="E15" t="n">
-        <v>57.0082</v>
+        <v>33.6245</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7589</v>
+        <v>17.0604</v>
       </c>
       <c r="C16" t="n">
-        <v>28.2478</v>
+        <v>21.7321</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8757</v>
+        <v>25.2318</v>
       </c>
       <c r="E16" t="n">
-        <v>54.6411</v>
+        <v>31.6907</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5624</v>
+        <v>16.518</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9998</v>
+        <v>22.9428</v>
       </c>
       <c r="D17" t="n">
-        <v>42.8569</v>
+        <v>21.144</v>
       </c>
       <c r="E17" t="n">
-        <v>55.3752</v>
+        <v>37.9848</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85557</v>
+        <v>3.54445</v>
       </c>
       <c r="C2" t="n">
-        <v>10.716</v>
+        <v>8.69868</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6708</v>
+        <v>10.209</v>
       </c>
       <c r="E2" t="n">
-        <v>17.7456</v>
+        <v>15.9823</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.00116</v>
+        <v>4.65122</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1189</v>
+        <v>7.9524</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3092</v>
+        <v>12.6436</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1156</v>
+        <v>20.0365</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.353160000000001</v>
+        <v>5.85415</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5289</v>
+        <v>9.05893</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2171</v>
+        <v>14.8157</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7436</v>
+        <v>22.3912</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3581</v>
+        <v>9.4198</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9557</v>
+        <v>15.3071</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6675</v>
+        <v>28.6735</v>
       </c>
       <c r="E5" t="n">
-        <v>43.812</v>
+        <v>43.8816</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3683</v>
+        <v>12.6454</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6702</v>
+        <v>18.6768</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3983</v>
+        <v>34.4976</v>
       </c>
       <c r="E6" t="n">
-        <v>53.234</v>
+        <v>53.5435</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3393</v>
+        <v>15.2598</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2445</v>
+        <v>19.685</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3529</v>
+        <v>37.6144</v>
       </c>
       <c r="E7" t="n">
-        <v>61.9415</v>
+        <v>60.1454</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1884</v>
+        <v>14.5218</v>
       </c>
       <c r="C8" t="n">
-        <v>23.377</v>
+        <v>20.514</v>
       </c>
       <c r="D8" t="n">
-        <v>45.6732</v>
+        <v>39.9997</v>
       </c>
       <c r="E8" t="n">
-        <v>71.3408</v>
+        <v>58.2453</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5626</v>
+        <v>14.7493</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7073</v>
+        <v>19.4716</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1056</v>
+        <v>36.4142</v>
       </c>
       <c r="E9" t="n">
-        <v>80.1178</v>
+        <v>54.3715</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7383</v>
+        <v>14.0433</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9444</v>
+        <v>20.2319</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1458</v>
+        <v>38.5522</v>
       </c>
       <c r="E10" t="n">
-        <v>70.50020000000001</v>
+        <v>56.3676</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1462</v>
+        <v>14.1167</v>
       </c>
       <c r="C11" t="n">
-        <v>24.779</v>
+        <v>18.8075</v>
       </c>
       <c r="D11" t="n">
-        <v>49.0099</v>
+        <v>35.4985</v>
       </c>
       <c r="E11" t="n">
-        <v>70.8575</v>
+        <v>51.2521</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.555</v>
+        <v>14.0258</v>
       </c>
       <c r="C12" t="n">
-        <v>25.259</v>
+        <v>20.2987</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0154</v>
+        <v>37.3319</v>
       </c>
       <c r="E12" t="n">
-        <v>71.5891</v>
+        <v>52.1298</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7612</v>
+        <v>13.0465</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3016</v>
+        <v>19.3573</v>
       </c>
       <c r="D13" t="n">
-        <v>50.2801</v>
+        <v>37.9266</v>
       </c>
       <c r="E13" t="n">
-        <v>71.54089999999999</v>
+        <v>52.5396</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2398</v>
+        <v>13.3301</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4638</v>
+        <v>19.4772</v>
       </c>
       <c r="D14" t="n">
-        <v>50.3844</v>
+        <v>35.5983</v>
       </c>
       <c r="E14" t="n">
-        <v>70.1551</v>
+        <v>46.2634</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9714</v>
+        <v>13.3282</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0626</v>
+        <v>19.9208</v>
       </c>
       <c r="D15" t="n">
-        <v>50.3254</v>
+        <v>36.2897</v>
       </c>
       <c r="E15" t="n">
-        <v>72.9699</v>
+        <v>45.7176</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8124</v>
+        <v>12.951</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6275</v>
+        <v>19.8547</v>
       </c>
       <c r="D16" t="n">
-        <v>50.0044</v>
+        <v>33.5922</v>
       </c>
       <c r="E16" t="n">
-        <v>73.1028</v>
+        <v>45.6431</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1071</v>
+        <v>13.0344</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2675</v>
+        <v>19.7165</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8629</v>
+        <v>35.8354</v>
       </c>
       <c r="E17" t="n">
-        <v>73.1357</v>
+        <v>50.2373</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.90145</v>
+        <v>3.2871</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8415</v>
+        <v>8.14899</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5716</v>
+        <v>9.226129999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8132</v>
+        <v>14.9576</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.19533</v>
+        <v>4.56289</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4586</v>
+        <v>7.79241</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0291</v>
+        <v>12.5651</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9171</v>
+        <v>17.2127</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.365119999999999</v>
+        <v>6.01767</v>
       </c>
       <c r="C4" t="n">
-        <v>12.553</v>
+        <v>12.5044</v>
       </c>
       <c r="D4" t="n">
-        <v>22.6375</v>
+        <v>22.5226</v>
       </c>
       <c r="E4" t="n">
-        <v>34.1829</v>
+        <v>33.841</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5674</v>
+        <v>10.6037</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9822</v>
+        <v>15.9345</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2033</v>
+        <v>28.5194</v>
       </c>
       <c r="E5" t="n">
-        <v>43.1954</v>
+        <v>43.0987</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.583</v>
+        <v>12.3478</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6107</v>
+        <v>17.5895</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5725</v>
+        <v>32.061</v>
       </c>
       <c r="E6" t="n">
-        <v>52.4682</v>
+        <v>51.0231</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5813</v>
+        <v>13.4524</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3655</v>
+        <v>18.6571</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4893</v>
+        <v>33.852</v>
       </c>
       <c r="E7" t="n">
-        <v>61.3331</v>
+        <v>46.9052</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3255</v>
+        <v>13.3392</v>
       </c>
       <c r="C8" t="n">
-        <v>23.372</v>
+        <v>18.0391</v>
       </c>
       <c r="D8" t="n">
-        <v>45.1218</v>
+        <v>34.3925</v>
       </c>
       <c r="E8" t="n">
-        <v>70.4224</v>
+        <v>45.9702</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.0633</v>
+        <v>12.9271</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8706</v>
+        <v>17.9938</v>
       </c>
       <c r="D9" t="n">
-        <v>52.7853</v>
+        <v>33.0259</v>
       </c>
       <c r="E9" t="n">
-        <v>79.5812</v>
+        <v>45.5732</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.893</v>
+        <v>13.1266</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0555</v>
+        <v>18.4551</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1613</v>
+        <v>30.5279</v>
       </c>
       <c r="E10" t="n">
-        <v>69.70140000000001</v>
+        <v>43.4118</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6522</v>
+        <v>12.6818</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0074</v>
+        <v>17.9436</v>
       </c>
       <c r="D11" t="n">
-        <v>47.013</v>
+        <v>29.7225</v>
       </c>
       <c r="E11" t="n">
-        <v>70.1844</v>
+        <v>48.8696</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0031</v>
+        <v>12.6363</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0183</v>
+        <v>17.4265</v>
       </c>
       <c r="D12" t="n">
-        <v>48.6258</v>
+        <v>32.0953</v>
       </c>
       <c r="E12" t="n">
-        <v>70.05889999999999</v>
+        <v>45.3224</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1903</v>
+        <v>12.5883</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2714</v>
+        <v>17.6304</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6541</v>
+        <v>30.6161</v>
       </c>
       <c r="E13" t="n">
-        <v>71.2953</v>
+        <v>46.1176</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5959</v>
+        <v>11.9711</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6053</v>
+        <v>17.2114</v>
       </c>
       <c r="D14" t="n">
-        <v>47.8087</v>
+        <v>30.9571</v>
       </c>
       <c r="E14" t="n">
-        <v>71.081</v>
+        <v>43.0392</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.287</v>
+        <v>11.7399</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0506</v>
+        <v>17.4127</v>
       </c>
       <c r="D15" t="n">
-        <v>49.1815</v>
+        <v>29.45</v>
       </c>
       <c r="E15" t="n">
-        <v>72.0449</v>
+        <v>42.5061</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2255</v>
+        <v>11.8808</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7219</v>
+        <v>17.8149</v>
       </c>
       <c r="D16" t="n">
-        <v>49.2418</v>
+        <v>31.2343</v>
       </c>
       <c r="E16" t="n">
-        <v>71.7557</v>
+        <v>37.873</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.299</v>
+        <v>12.0581</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2586</v>
+        <v>18.1213</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5384</v>
+        <v>25.8836</v>
       </c>
       <c r="E17" t="n">
-        <v>70.9753</v>
+        <v>40.437</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.12053</v>
+        <v>5.90287</v>
       </c>
       <c r="C2" t="n">
-        <v>14.201</v>
+        <v>14.1822</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2645</v>
+        <v>17.2401</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3805</v>
+        <v>21.3506</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.394880000000001</v>
+        <v>9.3725</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3204</v>
+        <v>11.285</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7244</v>
+        <v>18.8371</v>
       </c>
       <c r="E3" t="n">
-        <v>27.1061</v>
+        <v>26.9706</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1534</v>
+        <v>12.0787</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6126</v>
+        <v>13.2525</v>
       </c>
       <c r="D4" t="n">
-        <v>24.227</v>
+        <v>24.529</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7016</v>
+        <v>36.1385</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7578</v>
+        <v>13.8532</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1075</v>
+        <v>15.196</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9803</v>
+        <v>29.9371</v>
       </c>
       <c r="E5" t="n">
-        <v>45.4349</v>
+        <v>44.2148</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2051</v>
+        <v>16.7462</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9714</v>
+        <v>18.1073</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1385</v>
+        <v>36.2207</v>
       </c>
       <c r="E6" t="n">
-        <v>53.9675</v>
+        <v>52.768</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0625</v>
+        <v>19.604</v>
       </c>
       <c r="C7" t="n">
-        <v>21.781</v>
+        <v>20.5285</v>
       </c>
       <c r="D7" t="n">
-        <v>42.6496</v>
+        <v>42.4805</v>
       </c>
       <c r="E7" t="n">
-        <v>62.077</v>
+        <v>60.7706</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8593</v>
+        <v>22.1351</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7853</v>
+        <v>22.9937</v>
       </c>
       <c r="D8" t="n">
-        <v>48.9584</v>
+        <v>48.5718</v>
       </c>
       <c r="E8" t="n">
-        <v>69.645</v>
+        <v>68.0471</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7307</v>
+        <v>24.6785</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5363</v>
+        <v>25.2182</v>
       </c>
       <c r="D9" t="n">
-        <v>56.6771</v>
+        <v>55.2275</v>
       </c>
       <c r="E9" t="n">
-        <v>77.39790000000001</v>
+        <v>74.697</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.228</v>
+        <v>24.2182</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6101</v>
+        <v>25.1038</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6633</v>
+        <v>51.9729</v>
       </c>
       <c r="E10" t="n">
-        <v>68.0359</v>
+        <v>66.96380000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8322</v>
+        <v>24.4578</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3869</v>
+        <v>25.3041</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8424</v>
+        <v>51.6998</v>
       </c>
       <c r="E11" t="n">
-        <v>70.6858</v>
+        <v>68.9237</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3658</v>
+        <v>24.011</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6281</v>
+        <v>25.2634</v>
       </c>
       <c r="D12" t="n">
-        <v>53.1475</v>
+        <v>52.3229</v>
       </c>
       <c r="E12" t="n">
-        <v>73.1187</v>
+        <v>70.0782</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5782</v>
+        <v>24.3661</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1342</v>
+        <v>25.5918</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4698</v>
+        <v>52.9957</v>
       </c>
       <c r="E13" t="n">
-        <v>72.9312</v>
+        <v>70.2544</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5894</v>
+        <v>23.9629</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5254</v>
+        <v>25.9499</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6225</v>
+        <v>52.9034</v>
       </c>
       <c r="E14" t="n">
-        <v>72.4628</v>
+        <v>70.7345</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6987</v>
+        <v>24.3944</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2578</v>
+        <v>26.7046</v>
       </c>
       <c r="D15" t="n">
-        <v>54.1392</v>
+        <v>53.5671</v>
       </c>
       <c r="E15" t="n">
-        <v>73.3137</v>
+        <v>71.40089999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5554</v>
+        <v>23.7586</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9716</v>
+        <v>27.083</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1552</v>
+        <v>52.4706</v>
       </c>
       <c r="E16" t="n">
-        <v>73.7671</v>
+        <v>71.1537</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2579</v>
+        <v>23.8185</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8438</v>
+        <v>27.7615</v>
       </c>
       <c r="D17" t="n">
-        <v>55.2013</v>
+        <v>53.5495</v>
       </c>
       <c r="E17" t="n">
-        <v>74.07640000000001</v>
+        <v>70.9607</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.45744</v>
+        <v>9.59295</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8601</v>
+        <v>13.8857</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6989</v>
+        <v>16.7618</v>
       </c>
       <c r="E2" t="n">
-        <v>20.622</v>
+        <v>20.6451</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.21049</v>
+        <v>8.98883</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5798</v>
+        <v>10.4684</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3096</v>
+        <v>17.2202</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3715</v>
+        <v>23.3274</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7528</v>
+        <v>10.62</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4015</v>
+        <v>12.4355</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1029</v>
+        <v>21.1376</v>
       </c>
       <c r="E4" t="n">
-        <v>30.768</v>
+        <v>31.0573</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4677</v>
+        <v>12.4406</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8413</v>
+        <v>14.816</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4946</v>
+        <v>25.1943</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9369</v>
+        <v>36.5952</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5351</v>
+        <v>14.5211</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5417</v>
+        <v>17.4301</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0288</v>
+        <v>30.3584</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4695</v>
+        <v>43.1688</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7633</v>
+        <v>16.733</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2096</v>
+        <v>20.1906</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0528</v>
+        <v>36.3395</v>
       </c>
       <c r="E7" t="n">
-        <v>50.3966</v>
+        <v>49.6303</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2439</v>
+        <v>18.2423</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4376</v>
+        <v>22.812</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0936</v>
+        <v>38.8121</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5181</v>
+        <v>55.1721</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4985</v>
+        <v>21.3955</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1938</v>
+        <v>24.8837</v>
       </c>
       <c r="D9" t="n">
-        <v>41.8717</v>
+        <v>43.3371</v>
       </c>
       <c r="E9" t="n">
-        <v>59.3987</v>
+        <v>58.3044</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1423</v>
+        <v>18.8012</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2418</v>
+        <v>24.2533</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9139</v>
+        <v>42.3762</v>
       </c>
       <c r="E10" t="n">
-        <v>55.7501</v>
+        <v>56.3965</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2501</v>
+        <v>18.4261</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6363</v>
+        <v>23.6918</v>
       </c>
       <c r="D11" t="n">
-        <v>41.246</v>
+        <v>39.9273</v>
       </c>
       <c r="E11" t="n">
-        <v>57.1593</v>
+        <v>57.7418</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0538</v>
+        <v>19.0854</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0505</v>
+        <v>23.9258</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4541</v>
+        <v>41.6099</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3572</v>
+        <v>58.9608</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.496</v>
+        <v>19.2396</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8809</v>
+        <v>24.674</v>
       </c>
       <c r="D13" t="n">
-        <v>41.2401</v>
+        <v>41.5828</v>
       </c>
       <c r="E13" t="n">
-        <v>58.0736</v>
+        <v>61.3986</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2188</v>
+        <v>18.785</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3245</v>
+        <v>25.2327</v>
       </c>
       <c r="D14" t="n">
-        <v>42.3806</v>
+        <v>42.3999</v>
       </c>
       <c r="E14" t="n">
-        <v>61.5389</v>
+        <v>62.6819</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9342</v>
+        <v>19.0878</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0224</v>
+        <v>26.0561</v>
       </c>
       <c r="D15" t="n">
-        <v>41.5701</v>
+        <v>41.564</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2623</v>
+        <v>61.4477</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4461</v>
+        <v>19.4877</v>
       </c>
       <c r="C16" t="n">
-        <v>26.4233</v>
+        <v>26.7405</v>
       </c>
       <c r="D16" t="n">
-        <v>43.0511</v>
+        <v>43.7068</v>
       </c>
       <c r="E16" t="n">
-        <v>63.411</v>
+        <v>64.5046</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4643</v>
+        <v>19.2806</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3043</v>
+        <v>27.229</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9034</v>
+        <v>41.5199</v>
       </c>
       <c r="E17" t="n">
-        <v>59.9927</v>
+        <v>64.6416</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0633</v>
+        <v>10.5301</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7411</v>
+        <v>13.7678</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5678</v>
+        <v>16.7033</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4402</v>
+        <v>20.4732</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.48272</v>
+        <v>9.317159999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.638</v>
+        <v>10.4477</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0896</v>
+        <v>16.8799</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2309</v>
+        <v>23.1016</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1378</v>
+        <v>11.1211</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3833</v>
+        <v>12.4678</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9112</v>
+        <v>21.1466</v>
       </c>
       <c r="E4" t="n">
-        <v>30.3435</v>
+        <v>29.6205</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9589</v>
+        <v>12.9087</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8057</v>
+        <v>14.8177</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4427</v>
+        <v>25.1211</v>
       </c>
       <c r="E5" t="n">
-        <v>36.0378</v>
+        <v>36.6629</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1043</v>
+        <v>15.0536</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3513</v>
+        <v>17.3082</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2274</v>
+        <v>29.8383</v>
       </c>
       <c r="E6" t="n">
-        <v>42.5022</v>
+        <v>42.4332</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.1525</v>
+        <v>16.8513</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0332</v>
+        <v>19.8789</v>
       </c>
       <c r="D7" t="n">
-        <v>34.3433</v>
+        <v>33.9722</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5599</v>
+        <v>48.6545</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8548</v>
+        <v>18.8761</v>
       </c>
       <c r="C8" t="n">
-        <v>22.1601</v>
+        <v>22.4715</v>
       </c>
       <c r="D8" t="n">
-        <v>38.4759</v>
+        <v>37.9012</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5632</v>
+        <v>53.544</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3689</v>
+        <v>22.2148</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8119</v>
+        <v>24.9333</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3933</v>
+        <v>42.0116</v>
       </c>
       <c r="E9" t="n">
-        <v>59.6112</v>
+        <v>58.1385</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5184</v>
+        <v>19.3309</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0812</v>
+        <v>24.4037</v>
       </c>
       <c r="D10" t="n">
-        <v>41.2842</v>
+        <v>39.7258</v>
       </c>
       <c r="E10" t="n">
-        <v>54.9339</v>
+        <v>56.2879</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2416</v>
+        <v>18.9638</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8339</v>
+        <v>23.2352</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4619</v>
+        <v>40.0702</v>
       </c>
       <c r="E11" t="n">
-        <v>55.4833</v>
+        <v>55.4556</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4096</v>
+        <v>19.8925</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9684</v>
+        <v>23.8152</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4857</v>
+        <v>40.2281</v>
       </c>
       <c r="E12" t="n">
-        <v>58.1093</v>
+        <v>57.9722</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3782</v>
+        <v>20.3712</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6774</v>
+        <v>24.6141</v>
       </c>
       <c r="D13" t="n">
-        <v>42.0422</v>
+        <v>41.8937</v>
       </c>
       <c r="E13" t="n">
-        <v>59.1655</v>
+        <v>60.9944</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.5641</v>
+        <v>19.8429</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3133</v>
+        <v>25.4201</v>
       </c>
       <c r="D14" t="n">
-        <v>40.5813</v>
+        <v>40.2166</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8151</v>
+        <v>60.4022</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9341</v>
+        <v>19.7674</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0998</v>
+        <v>26.1073</v>
       </c>
       <c r="D15" t="n">
-        <v>42.6061</v>
+        <v>41.0947</v>
       </c>
       <c r="E15" t="n">
-        <v>60.4913</v>
+        <v>65.12269999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.748</v>
+        <v>19.86</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9268</v>
+        <v>26.9108</v>
       </c>
       <c r="D16" t="n">
-        <v>42.9331</v>
+        <v>42.095</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8276</v>
+        <v>59.7067</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.889</v>
+        <v>19.7456</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4651</v>
+        <v>27.1</v>
       </c>
       <c r="D17" t="n">
-        <v>42.9161</v>
+        <v>43.4827</v>
       </c>
       <c r="E17" t="n">
-        <v>56.919</v>
+        <v>64.0712</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6583</v>
+        <v>12.5665</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2321</v>
+        <v>15.2695</v>
       </c>
       <c r="D2" t="n">
-        <v>18.501</v>
+        <v>18.5217</v>
       </c>
       <c r="E2" t="n">
-        <v>21.649</v>
+        <v>21.563</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5152</v>
+        <v>10.9395</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4448</v>
+        <v>11.9577</v>
       </c>
       <c r="D3" t="n">
-        <v>18.1572</v>
+        <v>19.045</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0489</v>
+        <v>26.3659</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7812</v>
+        <v>12.9348</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8018</v>
+        <v>13.8795</v>
       </c>
       <c r="D4" t="n">
-        <v>22.6025</v>
+        <v>23.1334</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8837</v>
+        <v>32.3551</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2482</v>
+        <v>15.0631</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6367</v>
+        <v>16.6385</v>
       </c>
       <c r="D5" t="n">
-        <v>27.8831</v>
+        <v>27.6429</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7967</v>
+        <v>39.066</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8683</v>
+        <v>17.7047</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5812</v>
+        <v>19.4283</v>
       </c>
       <c r="D6" t="n">
-        <v>33.1145</v>
+        <v>32.7039</v>
       </c>
       <c r="E6" t="n">
-        <v>44.0882</v>
+        <v>45.6804</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.4511</v>
+        <v>20.8354</v>
       </c>
       <c r="C7" t="n">
-        <v>22.4806</v>
+        <v>22.4951</v>
       </c>
       <c r="D7" t="n">
-        <v>37.8052</v>
+        <v>38.3061</v>
       </c>
       <c r="E7" t="n">
-        <v>48.7267</v>
+        <v>49.8324</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3429</v>
+        <v>23.299</v>
       </c>
       <c r="C8" t="n">
-        <v>24.6805</v>
+        <v>24.6449</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6098</v>
+        <v>41.2889</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2798</v>
+        <v>53.1812</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6883</v>
+        <v>26.744</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2847</v>
+        <v>27.1075</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5984</v>
+        <v>44.9529</v>
       </c>
       <c r="E9" t="n">
-        <v>56.0534</v>
+        <v>56.3822</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1767</v>
+        <v>25.1876</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4477</v>
+        <v>26.4405</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5597</v>
+        <v>44.5944</v>
       </c>
       <c r="E10" t="n">
-        <v>54.3424</v>
+        <v>55.509</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.7131</v>
+        <v>24.135</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3923</v>
+        <v>25.7125</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2887</v>
+        <v>42.6641</v>
       </c>
       <c r="E11" t="n">
-        <v>54.1853</v>
+        <v>54.5148</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3702</v>
+        <v>24.0809</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7075</v>
+        <v>25.65</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5431</v>
+        <v>44.4053</v>
       </c>
       <c r="E12" t="n">
-        <v>54.9899</v>
+        <v>56.3574</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3504</v>
+        <v>25.665</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1756</v>
+        <v>26.0782</v>
       </c>
       <c r="D13" t="n">
-        <v>46.0895</v>
+        <v>43.5073</v>
       </c>
       <c r="E13" t="n">
-        <v>56.1336</v>
+        <v>56.7215</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8666</v>
+        <v>23.8264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9259</v>
+        <v>27.0043</v>
       </c>
       <c r="D14" t="n">
-        <v>45.311</v>
+        <v>46.254</v>
       </c>
       <c r="E14" t="n">
-        <v>56.2988</v>
+        <v>57.0114</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0973</v>
+        <v>23.784</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6139</v>
+        <v>27.745</v>
       </c>
       <c r="D15" t="n">
-        <v>44.2315</v>
+        <v>45.8024</v>
       </c>
       <c r="E15" t="n">
-        <v>57.0082</v>
+        <v>54.9917</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7589</v>
+        <v>23.7028</v>
       </c>
       <c r="C16" t="n">
-        <v>28.2478</v>
+        <v>28.5171</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8757</v>
+        <v>45.3468</v>
       </c>
       <c r="E16" t="n">
-        <v>54.6411</v>
+        <v>53.5313</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5624</v>
+        <v>23.8309</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9998</v>
+        <v>29.2008</v>
       </c>
       <c r="D17" t="n">
-        <v>42.8569</v>
+        <v>45.0145</v>
       </c>
       <c r="E17" t="n">
-        <v>55.3752</v>
+        <v>53.847</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85557</v>
+        <v>3.82515</v>
       </c>
       <c r="C2" t="n">
-        <v>10.716</v>
+        <v>10.7074</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6708</v>
+        <v>12.7035</v>
       </c>
       <c r="E2" t="n">
-        <v>17.7456</v>
+        <v>18.2252</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.00116</v>
+        <v>6.008</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1189</v>
+        <v>10.1424</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3092</v>
+        <v>17.2922</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1156</v>
+        <v>25.95</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.353160000000001</v>
+        <v>8.30597</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5289</v>
+        <v>12.442</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2171</v>
+        <v>23.0688</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7436</v>
+        <v>35.7138</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3581</v>
+        <v>10.2524</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9557</v>
+        <v>14.9436</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6675</v>
+        <v>28.3015</v>
       </c>
       <c r="E5" t="n">
-        <v>43.812</v>
+        <v>45.5755</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3683</v>
+        <v>12.4123</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6702</v>
+        <v>17.5421</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3983</v>
+        <v>34.0249</v>
       </c>
       <c r="E6" t="n">
-        <v>53.234</v>
+        <v>55.2933</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3393</v>
+        <v>14.311</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2445</v>
+        <v>20.2453</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3529</v>
+        <v>39.0558</v>
       </c>
       <c r="E7" t="n">
-        <v>61.9415</v>
+        <v>64.6872</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1884</v>
+        <v>15.9962</v>
       </c>
       <c r="C8" t="n">
-        <v>23.377</v>
+        <v>23.371</v>
       </c>
       <c r="D8" t="n">
-        <v>45.6732</v>
+        <v>44.7932</v>
       </c>
       <c r="E8" t="n">
-        <v>71.3408</v>
+        <v>73.361</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5626</v>
+        <v>18.432</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7073</v>
+        <v>26.6925</v>
       </c>
       <c r="D9" t="n">
-        <v>54.1056</v>
+        <v>53.4213</v>
       </c>
       <c r="E9" t="n">
-        <v>80.1178</v>
+        <v>81.9494</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7383</v>
+        <v>17.1418</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9444</v>
+        <v>24.9704</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1458</v>
+        <v>47.7885</v>
       </c>
       <c r="E10" t="n">
-        <v>70.50020000000001</v>
+        <v>72.63500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1462</v>
+        <v>17.2208</v>
       </c>
       <c r="C11" t="n">
-        <v>24.779</v>
+        <v>24.9664</v>
       </c>
       <c r="D11" t="n">
-        <v>49.0099</v>
+        <v>47.5883</v>
       </c>
       <c r="E11" t="n">
-        <v>70.8575</v>
+        <v>74.1044</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.555</v>
+        <v>17.5094</v>
       </c>
       <c r="C12" t="n">
-        <v>25.259</v>
+        <v>24.9883</v>
       </c>
       <c r="D12" t="n">
-        <v>50.0154</v>
+        <v>48.9914</v>
       </c>
       <c r="E12" t="n">
-        <v>71.5891</v>
+        <v>74.08839999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7612</v>
+        <v>17.7591</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3016</v>
+        <v>25.1921</v>
       </c>
       <c r="D13" t="n">
-        <v>50.2801</v>
+        <v>51.0357</v>
       </c>
       <c r="E13" t="n">
-        <v>71.54089999999999</v>
+        <v>74.27379999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2398</v>
+        <v>17.1425</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4638</v>
+        <v>25.4838</v>
       </c>
       <c r="D14" t="n">
-        <v>50.3844</v>
+        <v>49.0457</v>
       </c>
       <c r="E14" t="n">
-        <v>70.1551</v>
+        <v>74.8142</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9714</v>
+        <v>17.8377</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0626</v>
+        <v>26.0016</v>
       </c>
       <c r="D15" t="n">
-        <v>50.3254</v>
+        <v>49.2307</v>
       </c>
       <c r="E15" t="n">
-        <v>72.9699</v>
+        <v>73.6053</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8124</v>
+        <v>17.6798</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6275</v>
+        <v>26.5515</v>
       </c>
       <c r="D16" t="n">
-        <v>50.0044</v>
+        <v>50.3022</v>
       </c>
       <c r="E16" t="n">
-        <v>73.1028</v>
+        <v>73.7611</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1071</v>
+        <v>17.8467</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2675</v>
+        <v>27.2281</v>
       </c>
       <c r="D17" t="n">
-        <v>50.8629</v>
+        <v>51.0344</v>
       </c>
       <c r="E17" t="n">
-        <v>73.1357</v>
+        <v>74.89449999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.90145</v>
+        <v>3.97196</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8415</v>
+        <v>10.8741</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5716</v>
+        <v>12.751</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8132</v>
+        <v>18.4096</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.19533</v>
+        <v>6.24682</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4586</v>
+        <v>10.5683</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0291</v>
+        <v>17.2402</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9171</v>
+        <v>25.4192</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.365119999999999</v>
+        <v>8.45478</v>
       </c>
       <c r="C4" t="n">
-        <v>12.553</v>
+        <v>12.5845</v>
       </c>
       <c r="D4" t="n">
-        <v>22.6375</v>
+        <v>22.3429</v>
       </c>
       <c r="E4" t="n">
-        <v>34.1829</v>
+        <v>35.4603</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5674</v>
+        <v>10.499</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9822</v>
+        <v>14.9161</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2033</v>
+        <v>27.6011</v>
       </c>
       <c r="E5" t="n">
-        <v>43.1954</v>
+        <v>44.6793</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.583</v>
+        <v>12.5134</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6107</v>
+        <v>17.535</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5725</v>
+        <v>32.924</v>
       </c>
       <c r="E6" t="n">
-        <v>52.4682</v>
+        <v>54.3959</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5813</v>
+        <v>14.4322</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3655</v>
+        <v>20.2439</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4893</v>
+        <v>38.4891</v>
       </c>
       <c r="E7" t="n">
-        <v>61.3331</v>
+        <v>63.3275</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3255</v>
+        <v>16.2527</v>
       </c>
       <c r="C8" t="n">
-        <v>23.372</v>
+        <v>23.2965</v>
       </c>
       <c r="D8" t="n">
-        <v>45.1218</v>
+        <v>44.3819</v>
       </c>
       <c r="E8" t="n">
-        <v>70.4224</v>
+        <v>72.2089</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.0633</v>
+        <v>18.8708</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8706</v>
+        <v>26.773</v>
       </c>
       <c r="D9" t="n">
-        <v>52.7853</v>
+        <v>52.4437</v>
       </c>
       <c r="E9" t="n">
-        <v>79.5812</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.893</v>
+        <v>17.5687</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0555</v>
+        <v>24.875</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1613</v>
+        <v>47.7039</v>
       </c>
       <c r="E10" t="n">
-        <v>69.70140000000001</v>
+        <v>70.5051</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6522</v>
+        <v>17.7841</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0074</v>
+        <v>25.0167</v>
       </c>
       <c r="D11" t="n">
-        <v>47.013</v>
+        <v>47.1486</v>
       </c>
       <c r="E11" t="n">
-        <v>70.1844</v>
+        <v>73.45269999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0031</v>
+        <v>17.658</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0183</v>
+        <v>24.7314</v>
       </c>
       <c r="D12" t="n">
-        <v>48.6258</v>
+        <v>48.0769</v>
       </c>
       <c r="E12" t="n">
-        <v>70.05889999999999</v>
+        <v>72.22799999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1903</v>
+        <v>18.2484</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2714</v>
+        <v>25.2736</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6541</v>
+        <v>48.5509</v>
       </c>
       <c r="E13" t="n">
-        <v>71.2953</v>
+        <v>74.1506</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5959</v>
+        <v>17.3788</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6053</v>
+        <v>25.2821</v>
       </c>
       <c r="D14" t="n">
-        <v>47.8087</v>
+        <v>48.2935</v>
       </c>
       <c r="E14" t="n">
-        <v>71.081</v>
+        <v>72.7761</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.287</v>
+        <v>18.275</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0506</v>
+        <v>25.9713</v>
       </c>
       <c r="D15" t="n">
-        <v>49.1815</v>
+        <v>49.4844</v>
       </c>
       <c r="E15" t="n">
-        <v>72.0449</v>
+        <v>74.0018</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2255</v>
+        <v>18.1854</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7219</v>
+        <v>26.5497</v>
       </c>
       <c r="D16" t="n">
-        <v>49.2418</v>
+        <v>48.5943</v>
       </c>
       <c r="E16" t="n">
-        <v>71.7557</v>
+        <v>73.5069</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.299</v>
+        <v>18.1017</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2586</v>
+        <v>27.2559</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5384</v>
+        <v>48.9472</v>
       </c>
       <c r="E17" t="n">
-        <v>70.9753</v>
+        <v>75.6712</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.12053</v>
+        <v>8.0533</v>
       </c>
       <c r="C2" t="n">
-        <v>14.201</v>
+        <v>14.2319</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2645</v>
+        <v>17.2509</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3805</v>
+        <v>21.2857</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.394880000000001</v>
+        <v>9.349869999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3204</v>
+        <v>11.3131</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7244</v>
+        <v>18.754</v>
       </c>
       <c r="E3" t="n">
-        <v>27.1061</v>
+        <v>27.3123</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1534</v>
+        <v>12.0683</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6126</v>
+        <v>13.6815</v>
       </c>
       <c r="D4" t="n">
-        <v>24.227</v>
+        <v>24.5748</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7016</v>
+        <v>37.5564</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7578</v>
+        <v>14.6228</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1075</v>
+        <v>16.0789</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9803</v>
+        <v>30.3989</v>
       </c>
       <c r="E5" t="n">
-        <v>45.4349</v>
+        <v>46.3302</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2051</v>
+        <v>17.2202</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9714</v>
+        <v>18.8313</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1385</v>
+        <v>36.3721</v>
       </c>
       <c r="E6" t="n">
-        <v>53.9675</v>
+        <v>55.0473</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0625</v>
+        <v>19.8175</v>
       </c>
       <c r="C7" t="n">
-        <v>21.781</v>
+        <v>21.7062</v>
       </c>
       <c r="D7" t="n">
-        <v>42.6496</v>
+        <v>42.5269</v>
       </c>
       <c r="E7" t="n">
-        <v>62.077</v>
+        <v>63.047</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8593</v>
+        <v>22.7331</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7853</v>
+        <v>24.7529</v>
       </c>
       <c r="D8" t="n">
-        <v>48.9584</v>
+        <v>49.1346</v>
       </c>
       <c r="E8" t="n">
-        <v>69.645</v>
+        <v>70.61490000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7307</v>
+        <v>26.8392</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5363</v>
+        <v>27.4972</v>
       </c>
       <c r="D9" t="n">
-        <v>56.6771</v>
+        <v>56.2653</v>
       </c>
       <c r="E9" t="n">
-        <v>77.39790000000001</v>
+        <v>78.2513</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.228</v>
+        <v>25.0529</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6101</v>
+        <v>26.4704</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6633</v>
+        <v>52.5376</v>
       </c>
       <c r="E10" t="n">
-        <v>68.0359</v>
+        <v>69.5104</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8322</v>
+        <v>24.9494</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3869</v>
+        <v>26.3747</v>
       </c>
       <c r="D11" t="n">
-        <v>51.8424</v>
+        <v>52.857</v>
       </c>
       <c r="E11" t="n">
-        <v>70.6858</v>
+        <v>71.51519999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3658</v>
+        <v>24.8135</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6281</v>
+        <v>26.7083</v>
       </c>
       <c r="D12" t="n">
-        <v>53.1475</v>
+        <v>53.3488</v>
       </c>
       <c r="E12" t="n">
-        <v>73.1187</v>
+        <v>72.32340000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5782</v>
+        <v>25.3953</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1342</v>
+        <v>27.1031</v>
       </c>
       <c r="D13" t="n">
-        <v>54.4698</v>
+        <v>54.1383</v>
       </c>
       <c r="E13" t="n">
-        <v>72.9312</v>
+        <v>73.4089</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5894</v>
+        <v>24.6328</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5254</v>
+        <v>27.614</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6225</v>
+        <v>53.3529</v>
       </c>
       <c r="E14" t="n">
-        <v>72.4628</v>
+        <v>72.99299999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6987</v>
+        <v>25.4739</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2578</v>
+        <v>28.2849</v>
       </c>
       <c r="D15" t="n">
-        <v>54.1392</v>
+        <v>54.0244</v>
       </c>
       <c r="E15" t="n">
-        <v>73.3137</v>
+        <v>74.2341</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5554</v>
+        <v>25.3848</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9716</v>
+        <v>28.9781</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1552</v>
+        <v>54.8881</v>
       </c>
       <c r="E16" t="n">
-        <v>73.7671</v>
+        <v>75.2444</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2579</v>
+        <v>25.6561</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8438</v>
+        <v>29.8004</v>
       </c>
       <c r="D17" t="n">
-        <v>55.2013</v>
+        <v>55.1436</v>
       </c>
       <c r="E17" t="n">
-        <v>74.07640000000001</v>
+        <v>72.9361</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.49334</v>
+        <v>9.46529</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8774</v>
+        <v>13.9243</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6198</v>
+        <v>16.8352</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5901</v>
+        <v>20.6682</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.832520000000001</v>
+        <v>9.045260000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9304</v>
+        <v>10.4805</v>
       </c>
       <c r="D3" t="n">
-        <v>28.7381</v>
+        <v>17.2555</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6074</v>
+        <v>23.7758</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.476</v>
+        <v>10.7389</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0091</v>
+        <v>12.4243</v>
       </c>
       <c r="D4" t="n">
-        <v>24.1359</v>
+        <v>21.0953</v>
       </c>
       <c r="E4" t="n">
-        <v>31.824</v>
+        <v>30.793</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2849</v>
+        <v>12.5243</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4421</v>
+        <v>14.7749</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1105</v>
+        <v>25.8758</v>
       </c>
       <c r="E5" t="n">
-        <v>35.9103</v>
+        <v>36.986</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7188</v>
+        <v>14.6188</v>
       </c>
       <c r="C6" t="n">
-        <v>16.665</v>
+        <v>17.4894</v>
       </c>
       <c r="D6" t="n">
-        <v>30.7309</v>
+        <v>30.3371</v>
       </c>
       <c r="E6" t="n">
-        <v>39.387</v>
+        <v>42.0604</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.207</v>
+        <v>16.71</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3393</v>
+        <v>20.3576</v>
       </c>
       <c r="D7" t="n">
-        <v>30.378</v>
+        <v>34.7784</v>
       </c>
       <c r="E7" t="n">
-        <v>47.3457</v>
+        <v>46.8715</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.255</v>
+        <v>18.2634</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4516</v>
+        <v>22.4444</v>
       </c>
       <c r="D8" t="n">
-        <v>30.038</v>
+        <v>39.0176</v>
       </c>
       <c r="E8" t="n">
-        <v>39.1328</v>
+        <v>53.1928</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1831</v>
+        <v>21.3571</v>
       </c>
       <c r="C9" t="n">
-        <v>18.3784</v>
+        <v>24.6513</v>
       </c>
       <c r="D9" t="n">
-        <v>31.2326</v>
+        <v>43.7936</v>
       </c>
       <c r="E9" t="n">
-        <v>43.5322</v>
+        <v>56.9006</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.2128</v>
+        <v>18.3352</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4348</v>
+        <v>24.2278</v>
       </c>
       <c r="D10" t="n">
-        <v>32.3046</v>
+        <v>40.8204</v>
       </c>
       <c r="E10" t="n">
-        <v>46.8289</v>
+        <v>54.2932</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.7088</v>
+        <v>18.476</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1424</v>
+        <v>23.4289</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4125</v>
+        <v>39.529</v>
       </c>
       <c r="E11" t="n">
-        <v>43.9874</v>
+        <v>53.7454</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.0382</v>
+        <v>18.857</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5801</v>
+        <v>23.7289</v>
       </c>
       <c r="D12" t="n">
-        <v>31.7765</v>
+        <v>41.8584</v>
       </c>
       <c r="E12" t="n">
-        <v>44.4919</v>
+        <v>57.1656</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.6202</v>
+        <v>19.677</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5328</v>
+        <v>24.8094</v>
       </c>
       <c r="D13" t="n">
-        <v>30.7054</v>
+        <v>41.5086</v>
       </c>
       <c r="E13" t="n">
-        <v>42.504</v>
+        <v>61.115</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.2242</v>
+        <v>19.1582</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8618</v>
+        <v>25.3175</v>
       </c>
       <c r="D14" t="n">
-        <v>31.8224</v>
+        <v>42.7101</v>
       </c>
       <c r="E14" t="n">
-        <v>45.5477</v>
+        <v>61.1126</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5043</v>
+        <v>18.9087</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2222</v>
+        <v>25.9947</v>
       </c>
       <c r="D15" t="n">
-        <v>31.2417</v>
+        <v>40.8872</v>
       </c>
       <c r="E15" t="n">
-        <v>50.4108</v>
+        <v>62.3368</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.9107</v>
+        <v>19.5155</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1938</v>
+        <v>26.6307</v>
       </c>
       <c r="D16" t="n">
-        <v>31.5633</v>
+        <v>43.2105</v>
       </c>
       <c r="E16" t="n">
-        <v>40.2304</v>
+        <v>62.6567</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5743</v>
+        <v>19.2192</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5154</v>
+        <v>27.2396</v>
       </c>
       <c r="D17" t="n">
-        <v>28.3413</v>
+        <v>43.7396</v>
       </c>
       <c r="E17" t="n">
-        <v>42.7341</v>
+        <v>63.4991</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3228</v>
+        <v>10.016</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6992</v>
+        <v>13.7621</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6293</v>
+        <v>16.627</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4616</v>
+        <v>20.4644</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.5941</v>
+        <v>9.353899999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>21.7404</v>
+        <v>10.4627</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3414</v>
+        <v>16.8947</v>
       </c>
       <c r="E3" t="n">
-        <v>23.594</v>
+        <v>22.7377</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.521</v>
+        <v>11.0947</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3547</v>
+        <v>12.2463</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0861</v>
+        <v>20.8696</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2002</v>
+        <v>29.9917</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4347</v>
+        <v>13.1448</v>
       </c>
       <c r="C5" t="n">
-        <v>14.5558</v>
+        <v>14.7984</v>
       </c>
       <c r="D5" t="n">
-        <v>26.1155</v>
+        <v>25.4222</v>
       </c>
       <c r="E5" t="n">
-        <v>35.1561</v>
+        <v>35.878</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4032</v>
+        <v>15.1348</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0481</v>
+        <v>17.445</v>
       </c>
       <c r="D6" t="n">
-        <v>27.1198</v>
+        <v>29.2757</v>
       </c>
       <c r="E6" t="n">
-        <v>37.3697</v>
+        <v>41.2886</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4524</v>
+        <v>17.2878</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3122</v>
+        <v>20.2</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3165</v>
+        <v>34.1257</v>
       </c>
       <c r="E7" t="n">
-        <v>36.8691</v>
+        <v>47.2828</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.6486</v>
+        <v>18.9404</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7304</v>
+        <v>22.4194</v>
       </c>
       <c r="D8" t="n">
-        <v>31.9014</v>
+        <v>37.5058</v>
       </c>
       <c r="E8" t="n">
-        <v>37.4829</v>
+        <v>49.8771</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.5792</v>
+        <v>22.2689</v>
       </c>
       <c r="C9" t="n">
-        <v>17.753</v>
+        <v>24.7728</v>
       </c>
       <c r="D9" t="n">
-        <v>29.4927</v>
+        <v>42.607</v>
       </c>
       <c r="E9" t="n">
-        <v>38.9088</v>
+        <v>54.7866</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7999</v>
+        <v>19.3263</v>
       </c>
       <c r="C10" t="n">
-        <v>19.082</v>
+        <v>24.2945</v>
       </c>
       <c r="D10" t="n">
-        <v>27.4594</v>
+        <v>40.2286</v>
       </c>
       <c r="E10" t="n">
-        <v>34.1177</v>
+        <v>54.5481</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4364</v>
+        <v>19.1576</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2438</v>
+        <v>23.5933</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4603</v>
+        <v>39.4729</v>
       </c>
       <c r="E11" t="n">
-        <v>40.2407</v>
+        <v>55.3797</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.0716</v>
+        <v>19.7714</v>
       </c>
       <c r="C12" t="n">
-        <v>19.029</v>
+        <v>24.1969</v>
       </c>
       <c r="D12" t="n">
-        <v>27.6946</v>
+        <v>40.2245</v>
       </c>
       <c r="E12" t="n">
-        <v>38.7686</v>
+        <v>57.1253</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1783</v>
+        <v>20.2879</v>
       </c>
       <c r="C13" t="n">
-        <v>18.862</v>
+        <v>24.6724</v>
       </c>
       <c r="D13" t="n">
-        <v>26.0061</v>
+        <v>39.9482</v>
       </c>
       <c r="E13" t="n">
-        <v>29.4128</v>
+        <v>58.3288</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7562</v>
+        <v>19.6251</v>
       </c>
       <c r="C14" t="n">
-        <v>20.675</v>
+        <v>25.5017</v>
       </c>
       <c r="D14" t="n">
-        <v>18.6764</v>
+        <v>41.3762</v>
       </c>
       <c r="E14" t="n">
-        <v>50.0488</v>
+        <v>60.7613</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.336</v>
+        <v>19.4624</v>
       </c>
       <c r="C15" t="n">
-        <v>21.3469</v>
+        <v>26.1483</v>
       </c>
       <c r="D15" t="n">
-        <v>20.46</v>
+        <v>42.7122</v>
       </c>
       <c r="E15" t="n">
-        <v>47.4807</v>
+        <v>62.2041</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0782</v>
+        <v>20.4905</v>
       </c>
       <c r="C16" t="n">
-        <v>24.2359</v>
+        <v>26.6896</v>
       </c>
       <c r="D16" t="n">
-        <v>16.7404</v>
+        <v>43.227</v>
       </c>
       <c r="E16" t="n">
-        <v>51.8505</v>
+        <v>63.6947</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.8472</v>
+        <v>19.8997</v>
       </c>
       <c r="C17" t="n">
-        <v>20.9566</v>
+        <v>27.6556</v>
       </c>
       <c r="D17" t="n">
-        <v>20.3776</v>
+        <v>43.9314</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2021</v>
+        <v>65.1298</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.8668</v>
+        <v>12.6892</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2133</v>
+        <v>15.2353</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4239</v>
+        <v>18.5061</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6365</v>
+        <v>21.5676</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6519</v>
+        <v>10.9001</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5696</v>
+        <v>11.9206</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0594</v>
+        <v>18.5478</v>
       </c>
       <c r="E3" t="n">
-        <v>29.8729</v>
+        <v>25.683</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8136</v>
+        <v>12.8548</v>
       </c>
       <c r="C4" t="n">
-        <v>14.7448</v>
+        <v>13.8549</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0237</v>
+        <v>22.7791</v>
       </c>
       <c r="E4" t="n">
-        <v>31.5593</v>
+        <v>32.3777</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8435</v>
+        <v>15.0306</v>
       </c>
       <c r="C5" t="n">
-        <v>16.2255</v>
+        <v>16.6126</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1611</v>
+        <v>27.1171</v>
       </c>
       <c r="E5" t="n">
-        <v>37.0558</v>
+        <v>38.7973</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.2189</v>
+        <v>17.8494</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9321</v>
+        <v>19.5282</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0418</v>
+        <v>32.2472</v>
       </c>
       <c r="E6" t="n">
-        <v>37.1664</v>
+        <v>43.4348</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3933</v>
+        <v>20.7411</v>
       </c>
       <c r="C7" t="n">
-        <v>15.318</v>
+        <v>22.5709</v>
       </c>
       <c r="D7" t="n">
-        <v>27.8073</v>
+        <v>37.5248</v>
       </c>
       <c r="E7" t="n">
-        <v>32.9391</v>
+        <v>48.9304</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0102</v>
+        <v>23.353</v>
       </c>
       <c r="C8" t="n">
-        <v>18.9044</v>
+        <v>24.8769</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3464</v>
+        <v>41.2263</v>
       </c>
       <c r="E8" t="n">
-        <v>49.9886</v>
+        <v>51.7654</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9212</v>
+        <v>26.7839</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5866</v>
+        <v>27.2168</v>
       </c>
       <c r="D9" t="n">
-        <v>35.2453</v>
+        <v>45.7919</v>
       </c>
       <c r="E9" t="n">
-        <v>29.0538</v>
+        <v>55.9048</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9239</v>
+        <v>25.12</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3869</v>
+        <v>26.3692</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1185</v>
+        <v>44.1402</v>
       </c>
       <c r="E10" t="n">
-        <v>37.5938</v>
+        <v>56.1338</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3416</v>
+        <v>24.1503</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9495</v>
+        <v>25.3489</v>
       </c>
       <c r="D11" t="n">
-        <v>30.1211</v>
+        <v>43.1778</v>
       </c>
       <c r="E11" t="n">
-        <v>31.2462</v>
+        <v>54.627</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7113</v>
+        <v>24.8482</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0925</v>
+        <v>25.8753</v>
       </c>
       <c r="D12" t="n">
-        <v>28.0185</v>
+        <v>44.3484</v>
       </c>
       <c r="E12" t="n">
-        <v>30.5056</v>
+        <v>55.6507</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2401</v>
+        <v>25.6588</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4921</v>
+        <v>26.2872</v>
       </c>
       <c r="D13" t="n">
-        <v>30.4543</v>
+        <v>45.7698</v>
       </c>
       <c r="E13" t="n">
-        <v>34.1556</v>
+        <v>55.7999</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9018</v>
+        <v>24.0891</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8317</v>
+        <v>26.9674</v>
       </c>
       <c r="D14" t="n">
-        <v>28.8147</v>
+        <v>44.4824</v>
       </c>
       <c r="E14" t="n">
-        <v>35.7445</v>
+        <v>55.0995</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2206</v>
+        <v>24.0545</v>
       </c>
       <c r="C15" t="n">
-        <v>20.8419</v>
+        <v>27.5275</v>
       </c>
       <c r="D15" t="n">
-        <v>30.1576</v>
+        <v>45.2064</v>
       </c>
       <c r="E15" t="n">
-        <v>33.6245</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.0604</v>
+        <v>23.6889</v>
       </c>
       <c r="C16" t="n">
-        <v>21.7321</v>
+        <v>28.4759</v>
       </c>
       <c r="D16" t="n">
-        <v>25.2318</v>
+        <v>44.9715</v>
       </c>
       <c r="E16" t="n">
-        <v>31.6907</v>
+        <v>55.7213</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.518</v>
+        <v>22.8952</v>
       </c>
       <c r="C17" t="n">
-        <v>22.9428</v>
+        <v>29.0685</v>
       </c>
       <c r="D17" t="n">
-        <v>21.144</v>
+        <v>44.1196</v>
       </c>
       <c r="E17" t="n">
-        <v>37.9848</v>
+        <v>52.6544</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.54445</v>
+        <v>3.97337</v>
       </c>
       <c r="C2" t="n">
-        <v>8.69868</v>
+        <v>10.7922</v>
       </c>
       <c r="D2" t="n">
-        <v>10.209</v>
+        <v>12.8846</v>
       </c>
       <c r="E2" t="n">
-        <v>15.9823</v>
+        <v>18.3634</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.65122</v>
+        <v>6.05055</v>
       </c>
       <c r="C3" t="n">
-        <v>7.9524</v>
+        <v>10.1166</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6436</v>
+        <v>17.2086</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0365</v>
+        <v>25.8806</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.85415</v>
+        <v>8.304069999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.05893</v>
+        <v>12.4866</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8157</v>
+        <v>22.9762</v>
       </c>
       <c r="E4" t="n">
-        <v>22.3912</v>
+        <v>35.7477</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.4198</v>
+        <v>10.3352</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3071</v>
+        <v>14.9292</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6735</v>
+        <v>28.5227</v>
       </c>
       <c r="E5" t="n">
-        <v>43.8816</v>
+        <v>45.1119</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6454</v>
+        <v>12.341</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6768</v>
+        <v>17.5947</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4976</v>
+        <v>33.5595</v>
       </c>
       <c r="E6" t="n">
-        <v>53.5435</v>
+        <v>54.5628</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.2598</v>
+        <v>14.313</v>
       </c>
       <c r="C7" t="n">
-        <v>19.685</v>
+        <v>20.3802</v>
       </c>
       <c r="D7" t="n">
-        <v>37.6144</v>
+        <v>39.6216</v>
       </c>
       <c r="E7" t="n">
-        <v>60.1454</v>
+        <v>64.16889999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.5218</v>
+        <v>16.0417</v>
       </c>
       <c r="C8" t="n">
-        <v>20.514</v>
+        <v>23.3582</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9997</v>
+        <v>44.5584</v>
       </c>
       <c r="E8" t="n">
-        <v>58.2453</v>
+        <v>72.146</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7493</v>
+        <v>18.4938</v>
       </c>
       <c r="C9" t="n">
-        <v>19.4716</v>
+        <v>26.8099</v>
       </c>
       <c r="D9" t="n">
-        <v>36.4142</v>
+        <v>53.6211</v>
       </c>
       <c r="E9" t="n">
-        <v>54.3715</v>
+        <v>81.49639999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0433</v>
+        <v>17.3459</v>
       </c>
       <c r="C10" t="n">
-        <v>20.2319</v>
+        <v>24.8416</v>
       </c>
       <c r="D10" t="n">
-        <v>38.5522</v>
+        <v>49.6292</v>
       </c>
       <c r="E10" t="n">
-        <v>56.3676</v>
+        <v>72.6639</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1167</v>
+        <v>17.481</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8075</v>
+        <v>24.8766</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4985</v>
+        <v>48.6969</v>
       </c>
       <c r="E11" t="n">
-        <v>51.2521</v>
+        <v>71.2321</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0258</v>
+        <v>17.5567</v>
       </c>
       <c r="C12" t="n">
-        <v>20.2987</v>
+        <v>24.8425</v>
       </c>
       <c r="D12" t="n">
-        <v>37.3319</v>
+        <v>49.8513</v>
       </c>
       <c r="E12" t="n">
-        <v>52.1298</v>
+        <v>74.441</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.0465</v>
+        <v>17.8243</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3573</v>
+        <v>25.0529</v>
       </c>
       <c r="D13" t="n">
-        <v>37.9266</v>
+        <v>49.3249</v>
       </c>
       <c r="E13" t="n">
-        <v>52.5396</v>
+        <v>75.0133</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.3301</v>
+        <v>17.1942</v>
       </c>
       <c r="C14" t="n">
-        <v>19.4772</v>
+        <v>25.4806</v>
       </c>
       <c r="D14" t="n">
-        <v>35.5983</v>
+        <v>49.075</v>
       </c>
       <c r="E14" t="n">
-        <v>46.2634</v>
+        <v>74.8154</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3282</v>
+        <v>17.9515</v>
       </c>
       <c r="C15" t="n">
-        <v>19.9208</v>
+        <v>25.8628</v>
       </c>
       <c r="D15" t="n">
-        <v>36.2897</v>
+        <v>49.8012</v>
       </c>
       <c r="E15" t="n">
-        <v>45.7176</v>
+        <v>74.944</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.951</v>
+        <v>17.6969</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8547</v>
+        <v>26.5592</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5922</v>
+        <v>50.3952</v>
       </c>
       <c r="E16" t="n">
-        <v>45.6431</v>
+        <v>74.8462</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0344</v>
+        <v>17.6239</v>
       </c>
       <c r="C17" t="n">
-        <v>19.7165</v>
+        <v>27.0562</v>
       </c>
       <c r="D17" t="n">
-        <v>35.8354</v>
+        <v>50.158</v>
       </c>
       <c r="E17" t="n">
-        <v>50.2373</v>
+        <v>73.8244</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.2871</v>
+        <v>3.85347</v>
       </c>
       <c r="C2" t="n">
-        <v>8.14899</v>
+        <v>10.7883</v>
       </c>
       <c r="D2" t="n">
-        <v>9.226129999999999</v>
+        <v>12.5593</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9576</v>
+        <v>18.2735</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.56289</v>
+        <v>6.05939</v>
       </c>
       <c r="C3" t="n">
-        <v>7.79241</v>
+        <v>10.1268</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5651</v>
+        <v>16.8613</v>
       </c>
       <c r="E3" t="n">
-        <v>17.2127</v>
+        <v>25.4595</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.01767</v>
+        <v>8.42188</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5044</v>
+        <v>12.5414</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5226</v>
+        <v>22.5015</v>
       </c>
       <c r="E4" t="n">
-        <v>33.841</v>
+        <v>35.3557</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6037</v>
+        <v>10.4637</v>
       </c>
       <c r="C5" t="n">
-        <v>15.9345</v>
+        <v>14.9547</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5194</v>
+        <v>27.6727</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0987</v>
+        <v>44.343</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3478</v>
+        <v>12.523</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5895</v>
+        <v>17.5663</v>
       </c>
       <c r="D6" t="n">
-        <v>32.061</v>
+        <v>33.449</v>
       </c>
       <c r="E6" t="n">
-        <v>51.0231</v>
+        <v>53.8445</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.4524</v>
+        <v>14.3534</v>
       </c>
       <c r="C7" t="n">
-        <v>18.6571</v>
+        <v>20.2248</v>
       </c>
       <c r="D7" t="n">
-        <v>33.852</v>
+        <v>38.1966</v>
       </c>
       <c r="E7" t="n">
-        <v>46.9052</v>
+        <v>62.766</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3392</v>
+        <v>16.2427</v>
       </c>
       <c r="C8" t="n">
-        <v>18.0391</v>
+        <v>23.3314</v>
       </c>
       <c r="D8" t="n">
-        <v>34.3925</v>
+        <v>44.8128</v>
       </c>
       <c r="E8" t="n">
-        <v>45.9702</v>
+        <v>71.1421</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.9271</v>
+        <v>18.7395</v>
       </c>
       <c r="C9" t="n">
-        <v>17.9938</v>
+        <v>26.7308</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0259</v>
+        <v>52.4419</v>
       </c>
       <c r="E9" t="n">
-        <v>45.5732</v>
+        <v>80.499</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.1266</v>
+        <v>17.8448</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4551</v>
+        <v>25.3254</v>
       </c>
       <c r="D10" t="n">
-        <v>30.5279</v>
+        <v>48.6185</v>
       </c>
       <c r="E10" t="n">
-        <v>43.4118</v>
+        <v>72.84310000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6818</v>
+        <v>17.7342</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9436</v>
+        <v>24.8207</v>
       </c>
       <c r="D11" t="n">
-        <v>29.7225</v>
+        <v>47.137</v>
       </c>
       <c r="E11" t="n">
-        <v>48.8696</v>
+        <v>71.3165</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6363</v>
+        <v>17.9827</v>
       </c>
       <c r="C12" t="n">
-        <v>17.4265</v>
+        <v>24.9817</v>
       </c>
       <c r="D12" t="n">
-        <v>32.0953</v>
+        <v>47.7995</v>
       </c>
       <c r="E12" t="n">
-        <v>45.3224</v>
+        <v>72.717</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5883</v>
+        <v>18.3247</v>
       </c>
       <c r="C13" t="n">
-        <v>17.6304</v>
+        <v>25.1464</v>
       </c>
       <c r="D13" t="n">
-        <v>30.6161</v>
+        <v>49.5854</v>
       </c>
       <c r="E13" t="n">
-        <v>46.1176</v>
+        <v>73.9388</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9711</v>
+        <v>17.4507</v>
       </c>
       <c r="C14" t="n">
-        <v>17.2114</v>
+        <v>25.4812</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9571</v>
+        <v>47.7973</v>
       </c>
       <c r="E14" t="n">
-        <v>43.0392</v>
+        <v>72.2666</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.7399</v>
+        <v>18.3283</v>
       </c>
       <c r="C15" t="n">
-        <v>17.4127</v>
+        <v>25.813</v>
       </c>
       <c r="D15" t="n">
-        <v>29.45</v>
+        <v>48.3081</v>
       </c>
       <c r="E15" t="n">
-        <v>42.5061</v>
+        <v>73.18000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.8808</v>
+        <v>18.0496</v>
       </c>
       <c r="C16" t="n">
-        <v>17.8149</v>
+        <v>26.531</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2343</v>
+        <v>49.0247</v>
       </c>
       <c r="E16" t="n">
-        <v>37.873</v>
+        <v>73.8777</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0581</v>
+        <v>18.0468</v>
       </c>
       <c r="C17" t="n">
-        <v>18.1213</v>
+        <v>27.1228</v>
       </c>
       <c r="D17" t="n">
-        <v>25.8836</v>
+        <v>49.1251</v>
       </c>
       <c r="E17" t="n">
-        <v>40.437</v>
+        <v>73.1249</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.90287</v>
+        <v>8.22866</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1822</v>
+        <v>14.1855</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2401</v>
+        <v>17.2352</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3506</v>
+        <v>21.2685</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.3725</v>
+        <v>9.82061</v>
       </c>
       <c r="C3" t="n">
-        <v>11.285</v>
+        <v>11.7946</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8371</v>
+        <v>18.8122</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9706</v>
+        <v>27.2678</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0787</v>
+        <v>12.0922</v>
       </c>
       <c r="C4" t="n">
-        <v>13.2525</v>
+        <v>13.7189</v>
       </c>
       <c r="D4" t="n">
-        <v>24.529</v>
+        <v>24.6149</v>
       </c>
       <c r="E4" t="n">
-        <v>36.1385</v>
+        <v>37.518</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8532</v>
+        <v>14.5682</v>
       </c>
       <c r="C5" t="n">
-        <v>15.196</v>
+        <v>16.0283</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9371</v>
+        <v>30.032</v>
       </c>
       <c r="E5" t="n">
-        <v>44.2148</v>
+        <v>46.0797</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.7462</v>
+        <v>17.1328</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1073</v>
+        <v>18.8193</v>
       </c>
       <c r="D6" t="n">
-        <v>36.2207</v>
+        <v>36.346</v>
       </c>
       <c r="E6" t="n">
-        <v>52.768</v>
+        <v>54.8408</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.604</v>
+        <v>19.8821</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5285</v>
+        <v>21.7237</v>
       </c>
       <c r="D7" t="n">
-        <v>42.4805</v>
+        <v>42.5565</v>
       </c>
       <c r="E7" t="n">
-        <v>60.7706</v>
+        <v>63.1221</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1351</v>
+        <v>22.7401</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9937</v>
+        <v>24.7299</v>
       </c>
       <c r="D8" t="n">
-        <v>48.5718</v>
+        <v>48.7806</v>
       </c>
       <c r="E8" t="n">
-        <v>68.0471</v>
+        <v>69.9461</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.6785</v>
+        <v>26.6303</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2182</v>
+        <v>27.4361</v>
       </c>
       <c r="D9" t="n">
-        <v>55.2275</v>
+        <v>56.3275</v>
       </c>
       <c r="E9" t="n">
-        <v>74.697</v>
+        <v>77.4379</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2182</v>
+        <v>25.365</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1038</v>
+        <v>26.4674</v>
       </c>
       <c r="D10" t="n">
-        <v>51.9729</v>
+        <v>53.3201</v>
       </c>
       <c r="E10" t="n">
-        <v>66.96380000000001</v>
+        <v>69.4404</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4578</v>
+        <v>24.8119</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3041</v>
+        <v>26.2735</v>
       </c>
       <c r="D11" t="n">
-        <v>51.6998</v>
+        <v>52.4178</v>
       </c>
       <c r="E11" t="n">
-        <v>68.9237</v>
+        <v>70.1931</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.011</v>
+        <v>25.0412</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2634</v>
+        <v>26.7062</v>
       </c>
       <c r="D12" t="n">
-        <v>52.3229</v>
+        <v>53.5904</v>
       </c>
       <c r="E12" t="n">
-        <v>70.0782</v>
+        <v>72.6925</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.3661</v>
+        <v>25.3724</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5918</v>
+        <v>27.1104</v>
       </c>
       <c r="D13" t="n">
-        <v>52.9957</v>
+        <v>53.9332</v>
       </c>
       <c r="E13" t="n">
-        <v>70.2544</v>
+        <v>72.1117</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9629</v>
+        <v>24.5834</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9499</v>
+        <v>27.516</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9034</v>
+        <v>53.1734</v>
       </c>
       <c r="E14" t="n">
-        <v>70.7345</v>
+        <v>73.73220000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3944</v>
+        <v>25.6169</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7046</v>
+        <v>28.2263</v>
       </c>
       <c r="D15" t="n">
-        <v>53.5671</v>
+        <v>53.3888</v>
       </c>
       <c r="E15" t="n">
-        <v>71.40089999999999</v>
+        <v>74.36960000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7586</v>
+        <v>25.0106</v>
       </c>
       <c r="C16" t="n">
-        <v>27.083</v>
+        <v>28.8416</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4706</v>
+        <v>54.1416</v>
       </c>
       <c r="E16" t="n">
-        <v>71.1537</v>
+        <v>73.9556</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8185</v>
+        <v>25.1291</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7615</v>
+        <v>29.8282</v>
       </c>
       <c r="D17" t="n">
-        <v>53.5495</v>
+        <v>54.3664</v>
       </c>
       <c r="E17" t="n">
-        <v>70.9607</v>
+        <v>74.5351</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.46529</v>
+        <v>7.97098</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9243</v>
+        <v>13.863</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8352</v>
+        <v>14.8067</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6682</v>
+        <v>17.6352</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.045260000000001</v>
+        <v>8.265309999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4805</v>
+        <v>10.8775</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2555</v>
+        <v>17.2069</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7758</v>
+        <v>19.5344</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7389</v>
+        <v>8.80462</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4243</v>
+        <v>13.5684</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0953</v>
+        <v>16.3295</v>
       </c>
       <c r="E4" t="n">
-        <v>30.793</v>
+        <v>24.4319</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5243</v>
+        <v>10.9252</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7749</v>
+        <v>11.5313</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8758</v>
+        <v>18.6012</v>
       </c>
       <c r="E5" t="n">
-        <v>36.986</v>
+        <v>23.1325</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6188</v>
+        <v>10.9554</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4894</v>
+        <v>12.4292</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3371</v>
+        <v>16.2848</v>
       </c>
       <c r="E6" t="n">
-        <v>42.0604</v>
+        <v>21.4881</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.71</v>
+        <v>10.7519</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3576</v>
+        <v>14.5213</v>
       </c>
       <c r="D7" t="n">
-        <v>34.7784</v>
+        <v>19.7192</v>
       </c>
       <c r="E7" t="n">
-        <v>46.8715</v>
+        <v>24.8705</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2634</v>
+        <v>11.8672</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4444</v>
+        <v>14.6923</v>
       </c>
       <c r="D8" t="n">
-        <v>39.0176</v>
+        <v>19.4562</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1928</v>
+        <v>22.0005</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3571</v>
+        <v>11.7568</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6513</v>
+        <v>15.9082</v>
       </c>
       <c r="D9" t="n">
-        <v>43.7936</v>
+        <v>18.9485</v>
       </c>
       <c r="E9" t="n">
-        <v>56.9006</v>
+        <v>22.2987</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3352</v>
+        <v>12.3803</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2278</v>
+        <v>15.3929</v>
       </c>
       <c r="D10" t="n">
-        <v>40.8204</v>
+        <v>18.2446</v>
       </c>
       <c r="E10" t="n">
-        <v>54.2932</v>
+        <v>24.8635</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.476</v>
+        <v>12.48</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4289</v>
+        <v>16.0352</v>
       </c>
       <c r="D11" t="n">
-        <v>39.529</v>
+        <v>19.9267</v>
       </c>
       <c r="E11" t="n">
-        <v>53.7454</v>
+        <v>28.2008</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.857</v>
+        <v>12.9883</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7289</v>
+        <v>17.0688</v>
       </c>
       <c r="D12" t="n">
-        <v>41.8584</v>
+        <v>18.234</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1656</v>
+        <v>25.8348</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.677</v>
+        <v>13.5214</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8094</v>
+        <v>17.0983</v>
       </c>
       <c r="D13" t="n">
-        <v>41.5086</v>
+        <v>16.9804</v>
       </c>
       <c r="E13" t="n">
-        <v>61.115</v>
+        <v>25.6953</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1582</v>
+        <v>14.1475</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3175</v>
+        <v>17.6162</v>
       </c>
       <c r="D14" t="n">
-        <v>42.7101</v>
+        <v>14.0398</v>
       </c>
       <c r="E14" t="n">
-        <v>61.1126</v>
+        <v>21.4883</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9087</v>
+        <v>13.1794</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9947</v>
+        <v>18.5259</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8872</v>
+        <v>13.6096</v>
       </c>
       <c r="E15" t="n">
-        <v>62.3368</v>
+        <v>19.8695</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5155</v>
+        <v>12.9944</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6307</v>
+        <v>18.727</v>
       </c>
       <c r="D16" t="n">
-        <v>43.2105</v>
+        <v>14.0763</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6567</v>
+        <v>24.4115</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2192</v>
+        <v>13.6603</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2396</v>
+        <v>18.3623</v>
       </c>
       <c r="D17" t="n">
-        <v>43.7396</v>
+        <v>15.0969</v>
       </c>
       <c r="E17" t="n">
-        <v>63.4991</v>
+        <v>22.6396</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.016</v>
+        <v>8.192209999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7621</v>
+        <v>10.3352</v>
       </c>
       <c r="D2" t="n">
-        <v>16.627</v>
+        <v>12.9102</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4644</v>
+        <v>18.0346</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.353899999999999</v>
+        <v>10.9109</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4627</v>
+        <v>10.7542</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8947</v>
+        <v>13.9034</v>
       </c>
       <c r="E3" t="n">
-        <v>22.7377</v>
+        <v>15.6479</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0947</v>
+        <v>9.30702</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2463</v>
+        <v>11.9131</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8696</v>
+        <v>19.3329</v>
       </c>
       <c r="E4" t="n">
-        <v>29.9917</v>
+        <v>21.7309</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1448</v>
+        <v>10.3728</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7984</v>
+        <v>12.4419</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4222</v>
+        <v>16.2184</v>
       </c>
       <c r="E5" t="n">
-        <v>35.878</v>
+        <v>20.8099</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1348</v>
+        <v>9.02403</v>
       </c>
       <c r="C6" t="n">
-        <v>17.445</v>
+        <v>13.8359</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2757</v>
+        <v>14.9113</v>
       </c>
       <c r="E6" t="n">
-        <v>41.2886</v>
+        <v>21.7865</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2878</v>
+        <v>9.841620000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2</v>
+        <v>15.0728</v>
       </c>
       <c r="D7" t="n">
-        <v>34.1257</v>
+        <v>18.0068</v>
       </c>
       <c r="E7" t="n">
-        <v>47.2828</v>
+        <v>25.009</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9404</v>
+        <v>11.3813</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4194</v>
+        <v>14.2372</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5058</v>
+        <v>16.1651</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8771</v>
+        <v>24.1585</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2689</v>
+        <v>11.3452</v>
       </c>
       <c r="C9" t="n">
-        <v>24.7728</v>
+        <v>14.5187</v>
       </c>
       <c r="D9" t="n">
-        <v>42.607</v>
+        <v>13.7219</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7866</v>
+        <v>20.6627</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3263</v>
+        <v>10.953</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2945</v>
+        <v>16.5375</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2286</v>
+        <v>17.619</v>
       </c>
       <c r="E10" t="n">
-        <v>54.5481</v>
+        <v>20.6309</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1576</v>
+        <v>12.7872</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5933</v>
+        <v>15.9017</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4729</v>
+        <v>16.6606</v>
       </c>
       <c r="E11" t="n">
-        <v>55.3797</v>
+        <v>26.3216</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7714</v>
+        <v>12.2187</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1969</v>
+        <v>16.1675</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2245</v>
+        <v>15.2439</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1253</v>
+        <v>24.7816</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2879</v>
+        <v>13.009</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6724</v>
+        <v>17.195</v>
       </c>
       <c r="D13" t="n">
-        <v>39.9482</v>
+        <v>15.4864</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3288</v>
+        <v>22.9588</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6251</v>
+        <v>13.0785</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5017</v>
+        <v>16.4481</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3762</v>
+        <v>12.8348</v>
       </c>
       <c r="E14" t="n">
-        <v>60.7613</v>
+        <v>20.7242</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4624</v>
+        <v>13.0394</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1483</v>
+        <v>16.8513</v>
       </c>
       <c r="D15" t="n">
-        <v>42.7122</v>
+        <v>13.8019</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2041</v>
+        <v>18.7983</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4905</v>
+        <v>13.1643</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6896</v>
+        <v>17.9439</v>
       </c>
       <c r="D16" t="n">
-        <v>43.227</v>
+        <v>12.0268</v>
       </c>
       <c r="E16" t="n">
-        <v>63.6947</v>
+        <v>22.0647</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8997</v>
+        <v>13.3341</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6556</v>
+        <v>17.6682</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9314</v>
+        <v>13.5718</v>
       </c>
       <c r="E17" t="n">
-        <v>65.1298</v>
+        <v>19.5724</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6892</v>
+        <v>9.56094</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2353</v>
+        <v>11.5727</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5061</v>
+        <v>14.0825</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5676</v>
+        <v>17.9418</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9001</v>
+        <v>10.2703</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9206</v>
+        <v>11.1242</v>
       </c>
       <c r="D3" t="n">
-        <v>18.5478</v>
+        <v>17.0486</v>
       </c>
       <c r="E3" t="n">
-        <v>25.683</v>
+        <v>19.4462</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8548</v>
+        <v>11.5222</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8549</v>
+        <v>12.1382</v>
       </c>
       <c r="D4" t="n">
-        <v>22.7791</v>
+        <v>17.4918</v>
       </c>
       <c r="E4" t="n">
-        <v>32.3777</v>
+        <v>25.8702</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0306</v>
+        <v>11.8098</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6126</v>
+        <v>13.2537</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1171</v>
+        <v>19.3068</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7973</v>
+        <v>25.5481</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8494</v>
+        <v>12.5899</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5282</v>
+        <v>13.3012</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2472</v>
+        <v>18.8688</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4348</v>
+        <v>23.9736</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7411</v>
+        <v>11.5597</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5709</v>
+        <v>14.1399</v>
       </c>
       <c r="D7" t="n">
-        <v>37.5248</v>
+        <v>16.3307</v>
       </c>
       <c r="E7" t="n">
-        <v>48.9304</v>
+        <v>21.6978</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.353</v>
+        <v>12.1668</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8769</v>
+        <v>16.4408</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2263</v>
+        <v>20.3639</v>
       </c>
       <c r="E8" t="n">
-        <v>51.7654</v>
+        <v>25.0881</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7839</v>
+        <v>14.6888</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2168</v>
+        <v>16.427</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7919</v>
+        <v>16.171</v>
       </c>
       <c r="E9" t="n">
-        <v>55.9048</v>
+        <v>26.7019</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.12</v>
+        <v>14.2141</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3692</v>
+        <v>16.7141</v>
       </c>
       <c r="D10" t="n">
-        <v>44.1402</v>
+        <v>16.6054</v>
       </c>
       <c r="E10" t="n">
-        <v>56.1338</v>
+        <v>24.6725</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1503</v>
+        <v>15.4466</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3489</v>
+        <v>18.2525</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1778</v>
+        <v>15.2902</v>
       </c>
       <c r="E11" t="n">
-        <v>54.627</v>
+        <v>33.6089</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8482</v>
+        <v>14.9124</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8753</v>
+        <v>17.2573</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3484</v>
+        <v>18.93</v>
       </c>
       <c r="E12" t="n">
-        <v>55.6507</v>
+        <v>32.5522</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6588</v>
+        <v>13.6133</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2872</v>
+        <v>17.8323</v>
       </c>
       <c r="D13" t="n">
-        <v>45.7698</v>
+        <v>16.6337</v>
       </c>
       <c r="E13" t="n">
-        <v>55.7999</v>
+        <v>26.5586</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0891</v>
+        <v>15.1248</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9674</v>
+        <v>17.3026</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4824</v>
+        <v>19.9115</v>
       </c>
       <c r="E14" t="n">
-        <v>55.0995</v>
+        <v>30.6185</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0545</v>
+        <v>15.5595</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5275</v>
+        <v>18.4922</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2064</v>
+        <v>16.3582</v>
       </c>
       <c r="E15" t="n">
-        <v>55.5</v>
+        <v>25.4931</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6889</v>
+        <v>14.3306</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4759</v>
+        <v>18.4729</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9715</v>
+        <v>14.0901</v>
       </c>
       <c r="E16" t="n">
-        <v>55.7213</v>
+        <v>21.9972</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8952</v>
+        <v>14.2739</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0685</v>
+        <v>18.3707</v>
       </c>
       <c r="D17" t="n">
-        <v>44.1196</v>
+        <v>13.7703</v>
       </c>
       <c r="E17" t="n">
-        <v>52.6544</v>
+        <v>23.0637</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97337</v>
+        <v>2.87732</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7922</v>
+        <v>7.28617</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8846</v>
+        <v>8.0129</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3634</v>
+        <v>15.1797</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05055</v>
+        <v>6.00534</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1166</v>
+        <v>10.4478</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2086</v>
+        <v>15.7559</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8806</v>
+        <v>21.379</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.304069999999999</v>
+        <v>8.404249999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4866</v>
+        <v>13.4409</v>
       </c>
       <c r="D4" t="n">
-        <v>22.9762</v>
+        <v>19.8853</v>
       </c>
       <c r="E4" t="n">
-        <v>35.7477</v>
+        <v>28.9007</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3352</v>
+        <v>10.2518</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9292</v>
+        <v>14.7849</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5227</v>
+        <v>23.7903</v>
       </c>
       <c r="E5" t="n">
-        <v>45.1119</v>
+        <v>34.6339</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.341</v>
+        <v>10.7895</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5947</v>
+        <v>15.2319</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5595</v>
+        <v>22.852</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5628</v>
+        <v>34.1148</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.313</v>
+        <v>11.4938</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3802</v>
+        <v>16.33</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6216</v>
+        <v>21.0909</v>
       </c>
       <c r="E7" t="n">
-        <v>64.16889999999999</v>
+        <v>32.728</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0417</v>
+        <v>11.6066</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3582</v>
+        <v>16.3154</v>
       </c>
       <c r="D8" t="n">
-        <v>44.5584</v>
+        <v>20.2543</v>
       </c>
       <c r="E8" t="n">
-        <v>72.146</v>
+        <v>33.0469</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4938</v>
+        <v>11.069</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8099</v>
+        <v>15.081</v>
       </c>
       <c r="D9" t="n">
-        <v>53.6211</v>
+        <v>17.8788</v>
       </c>
       <c r="E9" t="n">
-        <v>81.49639999999999</v>
+        <v>31.3978</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3459</v>
+        <v>10.7409</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8416</v>
+        <v>15.6215</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6292</v>
+        <v>15.6235</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6639</v>
+        <v>27.0282</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.481</v>
+        <v>10.7328</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8766</v>
+        <v>15.9664</v>
       </c>
       <c r="D11" t="n">
-        <v>48.6969</v>
+        <v>14.6641</v>
       </c>
       <c r="E11" t="n">
-        <v>71.2321</v>
+        <v>25.8947</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5567</v>
+        <v>10.81</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8425</v>
+        <v>16.3221</v>
       </c>
       <c r="D12" t="n">
-        <v>49.8513</v>
+        <v>13.3645</v>
       </c>
       <c r="E12" t="n">
-        <v>74.441</v>
+        <v>23.3138</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8243</v>
+        <v>10.7237</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0529</v>
+        <v>15.7441</v>
       </c>
       <c r="D13" t="n">
-        <v>49.3249</v>
+        <v>12.1857</v>
       </c>
       <c r="E13" t="n">
-        <v>75.0133</v>
+        <v>23.3792</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1942</v>
+        <v>10.6637</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4806</v>
+        <v>15.1137</v>
       </c>
       <c r="D14" t="n">
-        <v>49.075</v>
+        <v>11.708</v>
       </c>
       <c r="E14" t="n">
-        <v>74.8154</v>
+        <v>22.5038</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9515</v>
+        <v>10.2033</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8628</v>
+        <v>18.832</v>
       </c>
       <c r="D15" t="n">
-        <v>49.8012</v>
+        <v>23.2174</v>
       </c>
       <c r="E15" t="n">
-        <v>74.944</v>
+        <v>40.8568</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6969</v>
+        <v>17.8115</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5592</v>
+        <v>26.5297</v>
       </c>
       <c r="D16" t="n">
-        <v>50.3952</v>
+        <v>22.7668</v>
       </c>
       <c r="E16" t="n">
-        <v>74.8462</v>
+        <v>38.0709</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6239</v>
+        <v>17.7924</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0562</v>
+        <v>27.2209</v>
       </c>
       <c r="D17" t="n">
-        <v>50.158</v>
+        <v>20.281</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8244</v>
+        <v>35.5056</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85347</v>
+        <v>3.85755</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7883</v>
+        <v>10.7682</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5593</v>
+        <v>11.9801</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2735</v>
+        <v>16.9691</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05939</v>
+        <v>6.07617</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1268</v>
+        <v>10.1815</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8613</v>
+        <v>15.6234</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4595</v>
+        <v>20.8152</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.42188</v>
+        <v>8.46025</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5414</v>
+        <v>12.6637</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5015</v>
+        <v>19.9265</v>
       </c>
       <c r="E4" t="n">
-        <v>35.3557</v>
+        <v>29.3392</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4637</v>
+        <v>10.5098</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9547</v>
+        <v>15.057</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6727</v>
+        <v>23.8114</v>
       </c>
       <c r="E5" t="n">
-        <v>44.343</v>
+        <v>34.1188</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.523</v>
+        <v>12.4854</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5663</v>
+        <v>17.665</v>
       </c>
       <c r="D6" t="n">
-        <v>33.449</v>
+        <v>27.9086</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8445</v>
+        <v>40.293</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3534</v>
+        <v>14.5532</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2248</v>
+        <v>20.4268</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1966</v>
+        <v>30.8058</v>
       </c>
       <c r="E7" t="n">
-        <v>62.766</v>
+        <v>46.1822</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2427</v>
+        <v>16.3246</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3314</v>
+        <v>23.5117</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8128</v>
+        <v>34.11</v>
       </c>
       <c r="E8" t="n">
-        <v>71.1421</v>
+        <v>50.6312</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7395</v>
+        <v>18.8426</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7308</v>
+        <v>26.996</v>
       </c>
       <c r="D9" t="n">
-        <v>52.4419</v>
+        <v>38.6453</v>
       </c>
       <c r="E9" t="n">
-        <v>80.499</v>
+        <v>54.7811</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8448</v>
+        <v>17.7244</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3254</v>
+        <v>25.359</v>
       </c>
       <c r="D10" t="n">
-        <v>48.6185</v>
+        <v>32.4611</v>
       </c>
       <c r="E10" t="n">
-        <v>72.84310000000001</v>
+        <v>48.3625</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7342</v>
+        <v>17.9126</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8207</v>
+        <v>25.1514</v>
       </c>
       <c r="D11" t="n">
-        <v>47.137</v>
+        <v>28.2117</v>
       </c>
       <c r="E11" t="n">
-        <v>71.3165</v>
+        <v>46.6431</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9827</v>
+        <v>17.8445</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9817</v>
+        <v>25.1949</v>
       </c>
       <c r="D12" t="n">
-        <v>47.7995</v>
+        <v>26.807</v>
       </c>
       <c r="E12" t="n">
-        <v>72.717</v>
+        <v>43.2291</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3247</v>
+        <v>18.134</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1464</v>
+        <v>25.5871</v>
       </c>
       <c r="D13" t="n">
-        <v>49.5854</v>
+        <v>24.5295</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9388</v>
+        <v>41.886</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4507</v>
+        <v>17.5775</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4812</v>
+        <v>25.5165</v>
       </c>
       <c r="D14" t="n">
-        <v>47.7973</v>
+        <v>23.0216</v>
       </c>
       <c r="E14" t="n">
-        <v>72.2666</v>
+        <v>39.8549</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3283</v>
+        <v>18.0892</v>
       </c>
       <c r="C15" t="n">
-        <v>25.813</v>
+        <v>26.0905</v>
       </c>
       <c r="D15" t="n">
-        <v>48.3081</v>
+        <v>22.3216</v>
       </c>
       <c r="E15" t="n">
-        <v>73.18000000000001</v>
+        <v>37.4566</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0496</v>
+        <v>18.2604</v>
       </c>
       <c r="C16" t="n">
-        <v>26.531</v>
+        <v>26.5</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0247</v>
+        <v>21.1098</v>
       </c>
       <c r="E16" t="n">
-        <v>73.8777</v>
+        <v>37.5607</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0468</v>
+        <v>18.4303</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1228</v>
+        <v>27.0782</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1251</v>
+        <v>20.374</v>
       </c>
       <c r="E17" t="n">
-        <v>73.1249</v>
+        <v>35.1722</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.22866</v>
+        <v>8.095649999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1855</v>
+        <v>14.2</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2352</v>
+        <v>17.0527</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2685</v>
+        <v>20.7754</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.82061</v>
+        <v>9.43863</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7946</v>
+        <v>11.342</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8122</v>
+        <v>20.0986</v>
       </c>
       <c r="E3" t="n">
-        <v>27.2678</v>
+        <v>25.1965</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0922</v>
+        <v>12.1518</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7189</v>
+        <v>13.7871</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6149</v>
+        <v>26.2679</v>
       </c>
       <c r="E4" t="n">
-        <v>37.518</v>
+        <v>34.7364</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5682</v>
+        <v>14.7293</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0283</v>
+        <v>16.1144</v>
       </c>
       <c r="D5" t="n">
-        <v>30.032</v>
+        <v>30.3878</v>
       </c>
       <c r="E5" t="n">
-        <v>46.0797</v>
+        <v>41.3721</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1328</v>
+        <v>17.359</v>
       </c>
       <c r="C6" t="n">
-        <v>18.8193</v>
+        <v>18.9921</v>
       </c>
       <c r="D6" t="n">
-        <v>36.346</v>
+        <v>35.6654</v>
       </c>
       <c r="E6" t="n">
-        <v>54.8408</v>
+        <v>48.7684</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8821</v>
+        <v>19.7806</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7237</v>
+        <v>21.7197</v>
       </c>
       <c r="D7" t="n">
-        <v>42.5565</v>
+        <v>40.0096</v>
       </c>
       <c r="E7" t="n">
-        <v>63.1221</v>
+        <v>55.5646</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7401</v>
+        <v>22.8131</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7299</v>
+        <v>24.8037</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7806</v>
+        <v>43.9964</v>
       </c>
       <c r="E8" t="n">
-        <v>69.9461</v>
+        <v>61.0317</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6303</v>
+        <v>26.8088</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4361</v>
+        <v>27.4382</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3275</v>
+        <v>48.6301</v>
       </c>
       <c r="E9" t="n">
-        <v>77.4379</v>
+        <v>67.003</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.365</v>
+        <v>25.1973</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4674</v>
+        <v>26.2369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.3201</v>
+        <v>43.3632</v>
       </c>
       <c r="E10" t="n">
-        <v>69.4404</v>
+        <v>62.9405</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8119</v>
+        <v>25.3913</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2735</v>
+        <v>26.575</v>
       </c>
       <c r="D11" t="n">
-        <v>52.4178</v>
+        <v>40.66</v>
       </c>
       <c r="E11" t="n">
-        <v>70.1931</v>
+        <v>62.7805</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0412</v>
+        <v>25.1861</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7062</v>
+        <v>26.6141</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5904</v>
+        <v>37.7482</v>
       </c>
       <c r="E12" t="n">
-        <v>72.6925</v>
+        <v>63.4085</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3724</v>
+        <v>25.603</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1104</v>
+        <v>27.1547</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9332</v>
+        <v>35.9436</v>
       </c>
       <c r="E13" t="n">
-        <v>72.1117</v>
+        <v>65.3938</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5834</v>
+        <v>25.0275</v>
       </c>
       <c r="C14" t="n">
-        <v>27.516</v>
+        <v>27.591</v>
       </c>
       <c r="D14" t="n">
-        <v>53.1734</v>
+        <v>33.0401</v>
       </c>
       <c r="E14" t="n">
-        <v>73.73220000000001</v>
+        <v>63.4525</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6169</v>
+        <v>25.6576</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2263</v>
+        <v>28.1661</v>
       </c>
       <c r="D15" t="n">
-        <v>53.3888</v>
+        <v>32.0635</v>
       </c>
       <c r="E15" t="n">
-        <v>74.36960000000001</v>
+        <v>63.4574</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0106</v>
+        <v>25.4238</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8416</v>
+        <v>28.932</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1416</v>
+        <v>31.0453</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9556</v>
+        <v>64.4025</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1291</v>
+        <v>25.6275</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8282</v>
+        <v>29.7616</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3664</v>
+        <v>28.1999</v>
       </c>
       <c r="E17" t="n">
-        <v>74.5351</v>
+        <v>60.7651</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.97098</v>
+        <v>9.738860000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.863</v>
+        <v>13.8775</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8067</v>
+        <v>17.0981</v>
       </c>
       <c r="E2" t="n">
-        <v>17.6352</v>
+        <v>20.6402</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.265309999999999</v>
+        <v>9.34259</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8775</v>
+        <v>10.8256</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2069</v>
+        <v>17.6054</v>
       </c>
       <c r="E3" t="n">
-        <v>19.5344</v>
+        <v>22.218</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.80462</v>
+        <v>10.8326</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5684</v>
+        <v>12.4432</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3295</v>
+        <v>20.7173</v>
       </c>
       <c r="E4" t="n">
-        <v>24.4319</v>
+        <v>27.3429</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9252</v>
+        <v>12.5798</v>
       </c>
       <c r="C5" t="n">
-        <v>11.5313</v>
+        <v>14.9942</v>
       </c>
       <c r="D5" t="n">
-        <v>18.6012</v>
+        <v>23.7572</v>
       </c>
       <c r="E5" t="n">
-        <v>23.1325</v>
+        <v>31.8614</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9554</v>
+        <v>14.5647</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4292</v>
+        <v>17.5139</v>
       </c>
       <c r="D6" t="n">
-        <v>16.2848</v>
+        <v>27.2429</v>
       </c>
       <c r="E6" t="n">
-        <v>21.4881</v>
+        <v>36.3714</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7519</v>
+        <v>16.8701</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5213</v>
+        <v>20.152</v>
       </c>
       <c r="D7" t="n">
-        <v>19.7192</v>
+        <v>30.8115</v>
       </c>
       <c r="E7" t="n">
-        <v>24.8705</v>
+        <v>40.1725</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8672</v>
+        <v>18.3688</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6923</v>
+        <v>22.5218</v>
       </c>
       <c r="D8" t="n">
-        <v>19.4562</v>
+        <v>32.3054</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0005</v>
+        <v>42.4204</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.7568</v>
+        <v>21.5019</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9082</v>
+        <v>24.9739</v>
       </c>
       <c r="D9" t="n">
-        <v>18.9485</v>
+        <v>34.9418</v>
       </c>
       <c r="E9" t="n">
-        <v>22.2987</v>
+        <v>45.4867</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.3803</v>
+        <v>19.2615</v>
       </c>
       <c r="C10" t="n">
-        <v>15.3929</v>
+        <v>23.9602</v>
       </c>
       <c r="D10" t="n">
-        <v>18.2446</v>
+        <v>30.4698</v>
       </c>
       <c r="E10" t="n">
-        <v>24.8635</v>
+        <v>43.1604</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.48</v>
+        <v>18.6929</v>
       </c>
       <c r="C11" t="n">
-        <v>16.0352</v>
+        <v>23.7178</v>
       </c>
       <c r="D11" t="n">
-        <v>19.9267</v>
+        <v>29.1121</v>
       </c>
       <c r="E11" t="n">
-        <v>28.2008</v>
+        <v>42.3635</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.9883</v>
+        <v>19.1403</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0688</v>
+        <v>23.9789</v>
       </c>
       <c r="D12" t="n">
-        <v>18.234</v>
+        <v>28.2538</v>
       </c>
       <c r="E12" t="n">
-        <v>25.8348</v>
+        <v>38.9969</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5214</v>
+        <v>19.7936</v>
       </c>
       <c r="C13" t="n">
-        <v>17.0983</v>
+        <v>24.4648</v>
       </c>
       <c r="D13" t="n">
-        <v>16.9804</v>
+        <v>24.915</v>
       </c>
       <c r="E13" t="n">
-        <v>25.6953</v>
+        <v>42.2203</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.1475</v>
+        <v>18.6512</v>
       </c>
       <c r="C14" t="n">
-        <v>17.6162</v>
+        <v>25.3642</v>
       </c>
       <c r="D14" t="n">
-        <v>14.0398</v>
+        <v>27.1945</v>
       </c>
       <c r="E14" t="n">
-        <v>21.4883</v>
+        <v>42.4341</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.1794</v>
+        <v>19.2574</v>
       </c>
       <c r="C15" t="n">
-        <v>18.5259</v>
+        <v>26.1435</v>
       </c>
       <c r="D15" t="n">
-        <v>13.6096</v>
+        <v>25.7161</v>
       </c>
       <c r="E15" t="n">
-        <v>19.8695</v>
+        <v>39.3671</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.9944</v>
+        <v>19.087</v>
       </c>
       <c r="C16" t="n">
-        <v>18.727</v>
+        <v>26.9951</v>
       </c>
       <c r="D16" t="n">
-        <v>14.0763</v>
+        <v>25.5946</v>
       </c>
       <c r="E16" t="n">
-        <v>24.4115</v>
+        <v>39.2686</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.6603</v>
+        <v>19.0433</v>
       </c>
       <c r="C17" t="n">
-        <v>18.3623</v>
+        <v>27.3702</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0969</v>
+        <v>24.72</v>
       </c>
       <c r="E17" t="n">
-        <v>22.6396</v>
+        <v>36.5106</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.192209999999999</v>
+        <v>10.1104</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3352</v>
+        <v>13.7261</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9102</v>
+        <v>17.0027</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0346</v>
+        <v>20.5072</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9109</v>
+        <v>9.36051</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7542</v>
+        <v>10.4188</v>
       </c>
       <c r="D3" t="n">
-        <v>13.9034</v>
+        <v>17.4681</v>
       </c>
       <c r="E3" t="n">
-        <v>15.6479</v>
+        <v>21.771</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.30702</v>
+        <v>11.2168</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9131</v>
+        <v>12.5114</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3329</v>
+        <v>20.7138</v>
       </c>
       <c r="E4" t="n">
-        <v>21.7309</v>
+        <v>27.3077</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3728</v>
+        <v>13.0388</v>
       </c>
       <c r="C5" t="n">
-        <v>12.4419</v>
+        <v>14.9334</v>
       </c>
       <c r="D5" t="n">
-        <v>16.2184</v>
+        <v>23.7257</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8099</v>
+        <v>31.8505</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.02403</v>
+        <v>15.1416</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8359</v>
+        <v>17.3846</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9113</v>
+        <v>27.2573</v>
       </c>
       <c r="E6" t="n">
-        <v>21.7865</v>
+        <v>36.5107</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.841620000000001</v>
+        <v>17.2251</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0728</v>
+        <v>19.9006</v>
       </c>
       <c r="D7" t="n">
-        <v>18.0068</v>
+        <v>30.3864</v>
       </c>
       <c r="E7" t="n">
-        <v>25.009</v>
+        <v>40.0585</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.3813</v>
+        <v>19.0402</v>
       </c>
       <c r="C8" t="n">
-        <v>14.2372</v>
+        <v>22.5231</v>
       </c>
       <c r="D8" t="n">
-        <v>16.1651</v>
+        <v>32.4036</v>
       </c>
       <c r="E8" t="n">
-        <v>24.1585</v>
+        <v>43.2832</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3452</v>
+        <v>22.509</v>
       </c>
       <c r="C9" t="n">
-        <v>14.5187</v>
+        <v>24.8013</v>
       </c>
       <c r="D9" t="n">
-        <v>13.7219</v>
+        <v>35.0971</v>
       </c>
       <c r="E9" t="n">
-        <v>20.6627</v>
+        <v>45.5887</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.953</v>
+        <v>20.2321</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5375</v>
+        <v>24.8402</v>
       </c>
       <c r="D10" t="n">
-        <v>17.619</v>
+        <v>32.1533</v>
       </c>
       <c r="E10" t="n">
-        <v>20.6309</v>
+        <v>42.9007</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.7872</v>
+        <v>19.2811</v>
       </c>
       <c r="C11" t="n">
-        <v>15.9017</v>
+        <v>23.7657</v>
       </c>
       <c r="D11" t="n">
-        <v>16.6606</v>
+        <v>29.0095</v>
       </c>
       <c r="E11" t="n">
-        <v>26.3216</v>
+        <v>40.9621</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2187</v>
+        <v>19.6959</v>
       </c>
       <c r="C12" t="n">
-        <v>16.1675</v>
+        <v>23.9352</v>
       </c>
       <c r="D12" t="n">
-        <v>15.2439</v>
+        <v>26.5706</v>
       </c>
       <c r="E12" t="n">
-        <v>24.7816</v>
+        <v>38.754</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.009</v>
+        <v>20.3848</v>
       </c>
       <c r="C13" t="n">
-        <v>17.195</v>
+        <v>24.9539</v>
       </c>
       <c r="D13" t="n">
-        <v>15.4864</v>
+        <v>25.9464</v>
       </c>
       <c r="E13" t="n">
-        <v>22.9588</v>
+        <v>41.3211</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0785</v>
+        <v>19.6229</v>
       </c>
       <c r="C14" t="n">
-        <v>16.4481</v>
+        <v>25.6236</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8348</v>
+        <v>25.6181</v>
       </c>
       <c r="E14" t="n">
-        <v>20.7242</v>
+        <v>40.5638</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.0394</v>
+        <v>19.5161</v>
       </c>
       <c r="C15" t="n">
-        <v>16.8513</v>
+        <v>26.0098</v>
       </c>
       <c r="D15" t="n">
-        <v>13.8019</v>
+        <v>24.3961</v>
       </c>
       <c r="E15" t="n">
-        <v>18.7983</v>
+        <v>39.8592</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1643</v>
+        <v>19.7588</v>
       </c>
       <c r="C16" t="n">
-        <v>17.9439</v>
+        <v>26.9054</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0268</v>
+        <v>24.159</v>
       </c>
       <c r="E16" t="n">
-        <v>22.0647</v>
+        <v>36.0304</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.3341</v>
+        <v>19.8669</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6682</v>
+        <v>27.2511</v>
       </c>
       <c r="D17" t="n">
-        <v>13.5718</v>
+        <v>21.4229</v>
       </c>
       <c r="E17" t="n">
-        <v>19.5724</v>
+        <v>38.537</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.56094</v>
+        <v>12.8159</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5727</v>
+        <v>15.2583</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0825</v>
+        <v>18.9339</v>
       </c>
       <c r="E2" t="n">
-        <v>17.9418</v>
+        <v>21.7204</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2703</v>
+        <v>10.5826</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1242</v>
+        <v>11.4911</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0486</v>
+        <v>20.8538</v>
       </c>
       <c r="E3" t="n">
-        <v>19.4462</v>
+        <v>25.349</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5222</v>
+        <v>12.8825</v>
       </c>
       <c r="C4" t="n">
-        <v>12.1382</v>
+        <v>13.8789</v>
       </c>
       <c r="D4" t="n">
-        <v>17.4918</v>
+        <v>25.0421</v>
       </c>
       <c r="E4" t="n">
-        <v>25.8702</v>
+        <v>32.0633</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8098</v>
+        <v>15.1889</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2537</v>
+        <v>16.6432</v>
       </c>
       <c r="D5" t="n">
-        <v>19.3068</v>
+        <v>29.1086</v>
       </c>
       <c r="E5" t="n">
-        <v>25.5481</v>
+        <v>38.1838</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5899</v>
+        <v>17.8414</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3012</v>
+        <v>19.6041</v>
       </c>
       <c r="D6" t="n">
-        <v>18.8688</v>
+        <v>33.3581</v>
       </c>
       <c r="E6" t="n">
-        <v>23.9736</v>
+        <v>43.0325</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5597</v>
+        <v>20.6487</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1399</v>
+        <v>22.5939</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3307</v>
+        <v>36.7625</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6978</v>
+        <v>46.4892</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1668</v>
+        <v>23.4185</v>
       </c>
       <c r="C8" t="n">
-        <v>16.4408</v>
+        <v>25.054</v>
       </c>
       <c r="D8" t="n">
-        <v>20.3639</v>
+        <v>39.2481</v>
       </c>
       <c r="E8" t="n">
-        <v>25.0881</v>
+        <v>50.1391</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6888</v>
+        <v>26.7063</v>
       </c>
       <c r="C9" t="n">
-        <v>16.427</v>
+        <v>27.1608</v>
       </c>
       <c r="D9" t="n">
-        <v>16.171</v>
+        <v>42.2993</v>
       </c>
       <c r="E9" t="n">
-        <v>26.7019</v>
+        <v>53.6746</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2141</v>
+        <v>25.1145</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7141</v>
+        <v>26.4379</v>
       </c>
       <c r="D10" t="n">
-        <v>16.6054</v>
+        <v>41.043</v>
       </c>
       <c r="E10" t="n">
-        <v>24.6725</v>
+        <v>52.146</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4466</v>
+        <v>23.8499</v>
       </c>
       <c r="C11" t="n">
-        <v>18.2525</v>
+        <v>25.4355</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2902</v>
+        <v>38.9089</v>
       </c>
       <c r="E11" t="n">
-        <v>33.6089</v>
+        <v>52.3298</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.9124</v>
+        <v>24.686</v>
       </c>
       <c r="C12" t="n">
-        <v>17.2573</v>
+        <v>25.9538</v>
       </c>
       <c r="D12" t="n">
-        <v>18.93</v>
+        <v>37.3269</v>
       </c>
       <c r="E12" t="n">
-        <v>32.5522</v>
+        <v>53.8775</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6133</v>
+        <v>25.7664</v>
       </c>
       <c r="C13" t="n">
-        <v>17.8323</v>
+        <v>26.1335</v>
       </c>
       <c r="D13" t="n">
-        <v>16.6337</v>
+        <v>37.8316</v>
       </c>
       <c r="E13" t="n">
-        <v>26.5586</v>
+        <v>53.3225</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1248</v>
+        <v>23.8773</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3026</v>
+        <v>26.965</v>
       </c>
       <c r="D14" t="n">
-        <v>19.9115</v>
+        <v>37.8814</v>
       </c>
       <c r="E14" t="n">
-        <v>30.6185</v>
+        <v>49.5643</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5595</v>
+        <v>23.5523</v>
       </c>
       <c r="C15" t="n">
-        <v>18.4922</v>
+        <v>27.7537</v>
       </c>
       <c r="D15" t="n">
-        <v>16.3582</v>
+        <v>38.5788</v>
       </c>
       <c r="E15" t="n">
-        <v>25.4931</v>
+        <v>51.9485</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3306</v>
+        <v>23.4917</v>
       </c>
       <c r="C16" t="n">
-        <v>18.4729</v>
+        <v>28.5752</v>
       </c>
       <c r="D16" t="n">
-        <v>14.0901</v>
+        <v>34.3025</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9972</v>
+        <v>50.8846</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2739</v>
+        <v>23.6616</v>
       </c>
       <c r="C17" t="n">
-        <v>18.3707</v>
+        <v>29.1461</v>
       </c>
       <c r="D17" t="n">
-        <v>13.7703</v>
+        <v>34.1928</v>
       </c>
       <c r="E17" t="n">
-        <v>23.0637</v>
+        <v>50.9932</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.87732</v>
+        <v>3.79881</v>
       </c>
       <c r="C2" t="n">
-        <v>7.28617</v>
+        <v>10.6769</v>
       </c>
       <c r="D2" t="n">
-        <v>8.0129</v>
+        <v>12.755</v>
       </c>
       <c r="E2" t="n">
-        <v>15.1797</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.00534</v>
+        <v>6.0636</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4478</v>
+        <v>10.1086</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7559</v>
+        <v>17.0551</v>
       </c>
       <c r="E3" t="n">
-        <v>21.379</v>
+        <v>24.0517</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.404249999999999</v>
+        <v>8.38611</v>
       </c>
       <c r="C4" t="n">
-        <v>13.4409</v>
+        <v>12.6177</v>
       </c>
       <c r="D4" t="n">
-        <v>19.8853</v>
+        <v>21.5185</v>
       </c>
       <c r="E4" t="n">
-        <v>28.9007</v>
+        <v>31.3934</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2518</v>
+        <v>10.3907</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7849</v>
+        <v>14.9848</v>
       </c>
       <c r="D5" t="n">
-        <v>23.7903</v>
+        <v>25.2007</v>
       </c>
       <c r="E5" t="n">
-        <v>34.6339</v>
+        <v>37.4711</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7895</v>
+        <v>12.4108</v>
       </c>
       <c r="C6" t="n">
-        <v>15.2319</v>
+        <v>17.61</v>
       </c>
       <c r="D6" t="n">
-        <v>22.852</v>
+        <v>28.8285</v>
       </c>
       <c r="E6" t="n">
-        <v>34.1148</v>
+        <v>43.4413</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4938</v>
+        <v>14.3102</v>
       </c>
       <c r="C7" t="n">
-        <v>16.33</v>
+        <v>20.3016</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0909</v>
+        <v>32.1567</v>
       </c>
       <c r="E7" t="n">
-        <v>32.728</v>
+        <v>48.7478</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.6066</v>
+        <v>16.127</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3154</v>
+        <v>23.4088</v>
       </c>
       <c r="D8" t="n">
-        <v>20.2543</v>
+        <v>35.249</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0469</v>
+        <v>53.4213</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.069</v>
+        <v>18.6407</v>
       </c>
       <c r="C9" t="n">
-        <v>15.081</v>
+        <v>27.0602</v>
       </c>
       <c r="D9" t="n">
-        <v>17.8788</v>
+        <v>39.5029</v>
       </c>
       <c r="E9" t="n">
-        <v>31.3978</v>
+        <v>57.4509</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.7409</v>
+        <v>17.6719</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6215</v>
+        <v>25.3743</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6235</v>
+        <v>33.1625</v>
       </c>
       <c r="E10" t="n">
-        <v>27.0282</v>
+        <v>50.2757</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.7328</v>
+        <v>17.7833</v>
       </c>
       <c r="C11" t="n">
-        <v>15.9664</v>
+        <v>24.5778</v>
       </c>
       <c r="D11" t="n">
-        <v>14.6641</v>
+        <v>28.8171</v>
       </c>
       <c r="E11" t="n">
-        <v>25.8947</v>
+        <v>46.9462</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.81</v>
+        <v>17.658</v>
       </c>
       <c r="C12" t="n">
-        <v>16.3221</v>
+        <v>25.0307</v>
       </c>
       <c r="D12" t="n">
-        <v>13.3645</v>
+        <v>26.7311</v>
       </c>
       <c r="E12" t="n">
-        <v>23.3138</v>
+        <v>45.8806</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.7237</v>
+        <v>17.7974</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7441</v>
+        <v>25.4724</v>
       </c>
       <c r="D13" t="n">
-        <v>12.1857</v>
+        <v>24.8016</v>
       </c>
       <c r="E13" t="n">
-        <v>23.3792</v>
+        <v>42.27</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.6637</v>
+        <v>17.1673</v>
       </c>
       <c r="C14" t="n">
-        <v>15.1137</v>
+        <v>25.6866</v>
       </c>
       <c r="D14" t="n">
-        <v>11.708</v>
+        <v>23.2941</v>
       </c>
       <c r="E14" t="n">
-        <v>22.5038</v>
+        <v>40.5138</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.2033</v>
+        <v>18.0189</v>
       </c>
       <c r="C15" t="n">
-        <v>18.832</v>
+        <v>26.0679</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2174</v>
+        <v>23.3915</v>
       </c>
       <c r="E15" t="n">
-        <v>40.8568</v>
+        <v>39.6813</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8115</v>
+        <v>17.6902</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5297</v>
+        <v>26.5504</v>
       </c>
       <c r="D16" t="n">
-        <v>22.7668</v>
+        <v>21.7012</v>
       </c>
       <c r="E16" t="n">
-        <v>38.0709</v>
+        <v>36.7761</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7924</v>
+        <v>17.6148</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2209</v>
+        <v>27.1789</v>
       </c>
       <c r="D17" t="n">
-        <v>20.281</v>
+        <v>20.467</v>
       </c>
       <c r="E17" t="n">
-        <v>35.5056</v>
+        <v>35.6163</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85755</v>
+        <v>3.88923</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7682</v>
+        <v>10.7873</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9801</v>
+        <v>12.6647</v>
       </c>
       <c r="E2" t="n">
-        <v>16.9691</v>
+        <v>18.2094</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.07617</v>
+        <v>6.09019</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1815</v>
+        <v>10.2543</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6234</v>
+        <v>17.3023</v>
       </c>
       <c r="E3" t="n">
-        <v>20.8152</v>
+        <v>24.0594</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.46025</v>
+        <v>8.412409999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6637</v>
+        <v>12.4926</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9265</v>
+        <v>21.3707</v>
       </c>
       <c r="E4" t="n">
-        <v>29.3392</v>
+        <v>31.042</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5098</v>
+        <v>10.5321</v>
       </c>
       <c r="C5" t="n">
-        <v>15.057</v>
+        <v>14.9453</v>
       </c>
       <c r="D5" t="n">
-        <v>23.8114</v>
+        <v>24.9294</v>
       </c>
       <c r="E5" t="n">
-        <v>34.1188</v>
+        <v>36.9558</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4854</v>
+        <v>12.5534</v>
       </c>
       <c r="C6" t="n">
-        <v>17.665</v>
+        <v>17.5821</v>
       </c>
       <c r="D6" t="n">
-        <v>27.9086</v>
+        <v>28.6098</v>
       </c>
       <c r="E6" t="n">
-        <v>40.293</v>
+        <v>42.8075</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5532</v>
+        <v>14.4928</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4268</v>
+        <v>20.2336</v>
       </c>
       <c r="D7" t="n">
-        <v>30.8058</v>
+        <v>31.888</v>
       </c>
       <c r="E7" t="n">
-        <v>46.1822</v>
+        <v>47.9909</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3246</v>
+        <v>16.4474</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5117</v>
+        <v>23.4082</v>
       </c>
       <c r="D8" t="n">
-        <v>34.11</v>
+        <v>34.5219</v>
       </c>
       <c r="E8" t="n">
-        <v>50.6312</v>
+        <v>52.6191</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8426</v>
+        <v>18.9644</v>
       </c>
       <c r="C9" t="n">
-        <v>26.996</v>
+        <v>26.8354</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6453</v>
+        <v>38.6794</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7811</v>
+        <v>56.2482</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7244</v>
+        <v>17.7302</v>
       </c>
       <c r="C10" t="n">
-        <v>25.359</v>
+        <v>25.0903</v>
       </c>
       <c r="D10" t="n">
-        <v>32.4611</v>
+        <v>31.6746</v>
       </c>
       <c r="E10" t="n">
-        <v>48.3625</v>
+        <v>48.9571</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9126</v>
+        <v>17.5799</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1514</v>
+        <v>25.1958</v>
       </c>
       <c r="D11" t="n">
-        <v>28.2117</v>
+        <v>28.6576</v>
       </c>
       <c r="E11" t="n">
-        <v>46.6431</v>
+        <v>45.5129</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8445</v>
+        <v>17.849</v>
       </c>
       <c r="C12" t="n">
-        <v>25.1949</v>
+        <v>25.2616</v>
       </c>
       <c r="D12" t="n">
-        <v>26.807</v>
+        <v>26.3043</v>
       </c>
       <c r="E12" t="n">
-        <v>43.2291</v>
+        <v>44.1325</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.134</v>
+        <v>18.1759</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5871</v>
+        <v>25.2834</v>
       </c>
       <c r="D13" t="n">
-        <v>24.5295</v>
+        <v>23.6402</v>
       </c>
       <c r="E13" t="n">
-        <v>41.886</v>
+        <v>40.6799</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5775</v>
+        <v>17.3649</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5165</v>
+        <v>25.5635</v>
       </c>
       <c r="D14" t="n">
-        <v>23.0216</v>
+        <v>22.4661</v>
       </c>
       <c r="E14" t="n">
-        <v>39.8549</v>
+        <v>38.9574</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0892</v>
+        <v>18.0724</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0905</v>
+        <v>25.9878</v>
       </c>
       <c r="D15" t="n">
-        <v>22.3216</v>
+        <v>21.7249</v>
       </c>
       <c r="E15" t="n">
-        <v>37.4566</v>
+        <v>38.0334</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2604</v>
+        <v>18.1263</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5</v>
+        <v>26.5713</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1098</v>
+        <v>20.4862</v>
       </c>
       <c r="E16" t="n">
-        <v>37.5607</v>
+        <v>36.8677</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4303</v>
+        <v>18.0523</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0782</v>
+        <v>27.3109</v>
       </c>
       <c r="D17" t="n">
-        <v>20.374</v>
+        <v>18.8892</v>
       </c>
       <c r="E17" t="n">
-        <v>35.1722</v>
+        <v>35.5591</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.095649999999999</v>
+        <v>8.234310000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2</v>
+        <v>14.1661</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0527</v>
+        <v>17.5114</v>
       </c>
       <c r="E2" t="n">
-        <v>20.7754</v>
+        <v>21.4056</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.43863</v>
+        <v>9.76863</v>
       </c>
       <c r="C3" t="n">
-        <v>11.342</v>
+        <v>11.8048</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0986</v>
+        <v>21.6911</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1965</v>
+        <v>27.6012</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1518</v>
+        <v>12.2737</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7871</v>
+        <v>13.7305</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2679</v>
+        <v>27.0036</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7364</v>
+        <v>36.1584</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7293</v>
+        <v>14.6492</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1144</v>
+        <v>16.0353</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3878</v>
+        <v>31.5757</v>
       </c>
       <c r="E5" t="n">
-        <v>41.3721</v>
+        <v>43.6277</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.359</v>
+        <v>17.168</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9921</v>
+        <v>18.9468</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6654</v>
+        <v>36.4451</v>
       </c>
       <c r="E6" t="n">
-        <v>48.7684</v>
+        <v>50.8441</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.7806</v>
+        <v>19.7931</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7197</v>
+        <v>21.7497</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0096</v>
+        <v>40.6368</v>
       </c>
       <c r="E7" t="n">
-        <v>55.5646</v>
+        <v>57.1458</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8131</v>
+        <v>22.8904</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8037</v>
+        <v>24.78</v>
       </c>
       <c r="D8" t="n">
-        <v>43.9964</v>
+        <v>44.635</v>
       </c>
       <c r="E8" t="n">
-        <v>61.0317</v>
+        <v>62.5206</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.8088</v>
+        <v>26.8385</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4382</v>
+        <v>27.5184</v>
       </c>
       <c r="D9" t="n">
-        <v>48.6301</v>
+        <v>49.315</v>
       </c>
       <c r="E9" t="n">
-        <v>67.003</v>
+        <v>67.9824</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1973</v>
+        <v>25.1764</v>
       </c>
       <c r="C10" t="n">
-        <v>26.2369</v>
+        <v>26.3794</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3632</v>
+        <v>44.5965</v>
       </c>
       <c r="E10" t="n">
-        <v>62.9405</v>
+        <v>63.1728</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.3913</v>
+        <v>24.7906</v>
       </c>
       <c r="C11" t="n">
-        <v>26.575</v>
+        <v>26.4624</v>
       </c>
       <c r="D11" t="n">
-        <v>40.66</v>
+        <v>40.8031</v>
       </c>
       <c r="E11" t="n">
-        <v>62.7805</v>
+        <v>63.8365</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1861</v>
+        <v>25.217</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6141</v>
+        <v>26.6487</v>
       </c>
       <c r="D12" t="n">
-        <v>37.7482</v>
+        <v>40.0906</v>
       </c>
       <c r="E12" t="n">
-        <v>63.4085</v>
+        <v>65.23260000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.603</v>
+        <v>25.6558</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1547</v>
+        <v>27.1222</v>
       </c>
       <c r="D13" t="n">
-        <v>35.9436</v>
+        <v>37.6737</v>
       </c>
       <c r="E13" t="n">
-        <v>65.3938</v>
+        <v>64.9466</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0275</v>
+        <v>24.9299</v>
       </c>
       <c r="C14" t="n">
-        <v>27.591</v>
+        <v>27.5844</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0401</v>
+        <v>35.3452</v>
       </c>
       <c r="E14" t="n">
-        <v>63.4525</v>
+        <v>64.2826</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6576</v>
+        <v>25.4423</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1661</v>
+        <v>28.1681</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0635</v>
+        <v>33.6282</v>
       </c>
       <c r="E15" t="n">
-        <v>63.4574</v>
+        <v>64.66849999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4238</v>
+        <v>25.7074</v>
       </c>
       <c r="C16" t="n">
-        <v>28.932</v>
+        <v>28.9836</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0453</v>
+        <v>33.4457</v>
       </c>
       <c r="E16" t="n">
-        <v>64.4025</v>
+        <v>64.79219999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6275</v>
+        <v>25.4471</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7616</v>
+        <v>29.8489</v>
       </c>
       <c r="D17" t="n">
-        <v>28.1999</v>
+        <v>30.7126</v>
       </c>
       <c r="E17" t="n">
-        <v>60.7651</v>
+        <v>63.048</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.738860000000001</v>
+        <v>8.430529999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8775</v>
+        <v>12.987</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0981</v>
+        <v>13.9593</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6402</v>
+        <v>17.893</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.34259</v>
+        <v>7.97306</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8256</v>
+        <v>10.4843</v>
       </c>
       <c r="D3" t="n">
-        <v>17.6054</v>
+        <v>17.7032</v>
       </c>
       <c r="E3" t="n">
-        <v>22.218</v>
+        <v>22.528</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8326</v>
+        <v>11.8488</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4432</v>
+        <v>15.25</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7173</v>
+        <v>23.1856</v>
       </c>
       <c r="E4" t="n">
-        <v>27.3429</v>
+        <v>29.4398</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5798</v>
+        <v>13.9382</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9942</v>
+        <v>16.9722</v>
       </c>
       <c r="D5" t="n">
-        <v>23.7572</v>
+        <v>25.9866</v>
       </c>
       <c r="E5" t="n">
-        <v>31.8614</v>
+        <v>34.764</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5647</v>
+        <v>13.7199</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5139</v>
+        <v>15.722</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2429</v>
+        <v>26.5653</v>
       </c>
       <c r="E6" t="n">
-        <v>36.3714</v>
+        <v>34.9404</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8701</v>
+        <v>14.4952</v>
       </c>
       <c r="C7" t="n">
-        <v>20.152</v>
+        <v>17.2527</v>
       </c>
       <c r="D7" t="n">
-        <v>30.8115</v>
+        <v>26.0751</v>
       </c>
       <c r="E7" t="n">
-        <v>40.1725</v>
+        <v>29.7274</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3688</v>
+        <v>14.5856</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5218</v>
+        <v>17.2266</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3054</v>
+        <v>22.5171</v>
       </c>
       <c r="E8" t="n">
-        <v>42.4204</v>
+        <v>28.1186</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5019</v>
+        <v>14.784</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9739</v>
+        <v>17.3522</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9418</v>
+        <v>20.7134</v>
       </c>
       <c r="E9" t="n">
-        <v>45.4867</v>
+        <v>30.6008</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2615</v>
+        <v>14.6801</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9602</v>
+        <v>18.0082</v>
       </c>
       <c r="D10" t="n">
-        <v>30.4698</v>
+        <v>18.0642</v>
       </c>
       <c r="E10" t="n">
-        <v>43.1604</v>
+        <v>27.6466</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.6929</v>
+        <v>14.1185</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7178</v>
+        <v>17.5285</v>
       </c>
       <c r="D11" t="n">
-        <v>29.1121</v>
+        <v>19.6347</v>
       </c>
       <c r="E11" t="n">
-        <v>42.3635</v>
+        <v>25.977</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.1403</v>
+        <v>14.332</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9789</v>
+        <v>17.5372</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2538</v>
+        <v>16.8956</v>
       </c>
       <c r="E12" t="n">
-        <v>38.9969</v>
+        <v>24.9321</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7936</v>
+        <v>14.2542</v>
       </c>
       <c r="C13" t="n">
-        <v>24.4648</v>
+        <v>17.4048</v>
       </c>
       <c r="D13" t="n">
-        <v>24.915</v>
+        <v>14.9177</v>
       </c>
       <c r="E13" t="n">
-        <v>42.2203</v>
+        <v>26.1951</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6512</v>
+        <v>13.7499</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3642</v>
+        <v>17.4422</v>
       </c>
       <c r="D14" t="n">
-        <v>27.1945</v>
+        <v>13.9892</v>
       </c>
       <c r="E14" t="n">
-        <v>42.4341</v>
+        <v>23.5376</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2574</v>
+        <v>14.0583</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1435</v>
+        <v>17.0567</v>
       </c>
       <c r="D15" t="n">
-        <v>25.7161</v>
+        <v>13.9298</v>
       </c>
       <c r="E15" t="n">
-        <v>39.3671</v>
+        <v>22.0612</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.087</v>
+        <v>13.1948</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9951</v>
+        <v>17.3015</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5946</v>
+        <v>14.912</v>
       </c>
       <c r="E16" t="n">
-        <v>39.2686</v>
+        <v>23.7704</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0433</v>
+        <v>13.2145</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3702</v>
+        <v>20.5206</v>
       </c>
       <c r="D17" t="n">
-        <v>24.72</v>
+        <v>20.329</v>
       </c>
       <c r="E17" t="n">
-        <v>36.5106</v>
+        <v>30.0544</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1104</v>
+        <v>10.3287</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7261</v>
+        <v>13.6355</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0027</v>
+        <v>16.9861</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5072</v>
+        <v>20.4988</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.36051</v>
+        <v>9.55176</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4188</v>
+        <v>10.472</v>
       </c>
       <c r="D3" t="n">
-        <v>17.4681</v>
+        <v>17.6538</v>
       </c>
       <c r="E3" t="n">
-        <v>21.771</v>
+        <v>22.1541</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2168</v>
+        <v>11.4934</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5114</v>
+        <v>12.9253</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7138</v>
+        <v>22.0936</v>
       </c>
       <c r="E4" t="n">
-        <v>27.3077</v>
+        <v>28.6465</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0388</v>
+        <v>14.1545</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9334</v>
+        <v>15.9098</v>
       </c>
       <c r="D5" t="n">
-        <v>23.7257</v>
+        <v>26.083</v>
       </c>
       <c r="E5" t="n">
-        <v>31.8505</v>
+        <v>34.2527</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1416</v>
+        <v>16.099</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3846</v>
+        <v>18.5564</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2573</v>
+        <v>28.6284</v>
       </c>
       <c r="E6" t="n">
-        <v>36.5107</v>
+        <v>38.1463</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2251</v>
+        <v>19.7715</v>
       </c>
       <c r="C7" t="n">
-        <v>19.9006</v>
+        <v>21.5078</v>
       </c>
       <c r="D7" t="n">
-        <v>30.3864</v>
+        <v>32.572</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0585</v>
+        <v>42.0238</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0402</v>
+        <v>18.7517</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5231</v>
+        <v>21.637</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4036</v>
+        <v>33.6931</v>
       </c>
       <c r="E8" t="n">
-        <v>43.2832</v>
+        <v>44.0925</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.509</v>
+        <v>17.3082</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8013</v>
+        <v>21.0354</v>
       </c>
       <c r="D9" t="n">
-        <v>35.0971</v>
+        <v>28.5184</v>
       </c>
       <c r="E9" t="n">
-        <v>45.5887</v>
+        <v>39.4002</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.2321</v>
+        <v>17.7114</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8402</v>
+        <v>21.7703</v>
       </c>
       <c r="D10" t="n">
-        <v>32.1533</v>
+        <v>28.677</v>
       </c>
       <c r="E10" t="n">
-        <v>42.9007</v>
+        <v>39.982</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2811</v>
+        <v>18.1476</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7657</v>
+        <v>22.1711</v>
       </c>
       <c r="D11" t="n">
-        <v>29.0095</v>
+        <v>27.3468</v>
       </c>
       <c r="E11" t="n">
-        <v>40.9621</v>
+        <v>38.3001</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6959</v>
+        <v>17.9266</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9352</v>
+        <v>22.6254</v>
       </c>
       <c r="D12" t="n">
-        <v>26.5706</v>
+        <v>25.1636</v>
       </c>
       <c r="E12" t="n">
-        <v>38.754</v>
+        <v>35.5196</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3848</v>
+        <v>18.3612</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9539</v>
+        <v>22.9694</v>
       </c>
       <c r="D13" t="n">
-        <v>25.9464</v>
+        <v>23.6571</v>
       </c>
       <c r="E13" t="n">
-        <v>41.3211</v>
+        <v>34.3588</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6229</v>
+        <v>18.6282</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6236</v>
+        <v>24.1373</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6181</v>
+        <v>23.2728</v>
       </c>
       <c r="E14" t="n">
-        <v>40.5638</v>
+        <v>36.8894</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.5161</v>
+        <v>18.1347</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0098</v>
+        <v>24.4421</v>
       </c>
       <c r="D15" t="n">
-        <v>24.3961</v>
+        <v>22.6587</v>
       </c>
       <c r="E15" t="n">
-        <v>39.8592</v>
+        <v>39.4497</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7588</v>
+        <v>18.0269</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9054</v>
+        <v>24.7311</v>
       </c>
       <c r="D16" t="n">
-        <v>24.159</v>
+        <v>21.2693</v>
       </c>
       <c r="E16" t="n">
-        <v>36.0304</v>
+        <v>30.526</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8669</v>
+        <v>18.221</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2511</v>
+        <v>24.721</v>
       </c>
       <c r="D17" t="n">
-        <v>21.4229</v>
+        <v>18.9027</v>
       </c>
       <c r="E17" t="n">
-        <v>38.537</v>
+        <v>31.8866</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.8159</v>
+        <v>12.7969</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2583</v>
+        <v>15.1954</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9339</v>
+        <v>18.8361</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7204</v>
+        <v>21.6861</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5826</v>
+        <v>10.5834</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4911</v>
+        <v>11.509</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8538</v>
+        <v>20.932</v>
       </c>
       <c r="E3" t="n">
-        <v>25.349</v>
+        <v>26.0582</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8825</v>
+        <v>12.93</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8789</v>
+        <v>14.4695</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0421</v>
+        <v>26.4141</v>
       </c>
       <c r="E4" t="n">
-        <v>32.0633</v>
+        <v>33.153</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1889</v>
+        <v>16.6375</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6432</v>
+        <v>17.8421</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1086</v>
+        <v>32.4916</v>
       </c>
       <c r="E5" t="n">
-        <v>38.1838</v>
+        <v>39.4695</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8414</v>
+        <v>19.7629</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6041</v>
+        <v>20.8975</v>
       </c>
       <c r="D6" t="n">
-        <v>33.3581</v>
+        <v>35.5778</v>
       </c>
       <c r="E6" t="n">
-        <v>43.0325</v>
+        <v>45.0206</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.6487</v>
+        <v>23.3249</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5939</v>
+        <v>23.8598</v>
       </c>
       <c r="D7" t="n">
-        <v>36.7625</v>
+        <v>40.3942</v>
       </c>
       <c r="E7" t="n">
-        <v>46.4892</v>
+        <v>48.2338</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.4185</v>
+        <v>23.1827</v>
       </c>
       <c r="C8" t="n">
-        <v>25.054</v>
+        <v>23.6152</v>
       </c>
       <c r="D8" t="n">
-        <v>39.2481</v>
+        <v>40.7993</v>
       </c>
       <c r="E8" t="n">
-        <v>50.1391</v>
+        <v>52.4884</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7063</v>
+        <v>21.6557</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1608</v>
+        <v>23.5288</v>
       </c>
       <c r="D9" t="n">
-        <v>42.2993</v>
+        <v>39.6534</v>
       </c>
       <c r="E9" t="n">
-        <v>53.6746</v>
+        <v>49.2615</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1145</v>
+        <v>22.124</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4379</v>
+        <v>23.5372</v>
       </c>
       <c r="D10" t="n">
-        <v>41.043</v>
+        <v>36.3012</v>
       </c>
       <c r="E10" t="n">
-        <v>52.146</v>
+        <v>50.5915</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8499</v>
+        <v>23.263</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4355</v>
+        <v>24.1156</v>
       </c>
       <c r="D11" t="n">
-        <v>38.9089</v>
+        <v>35.0636</v>
       </c>
       <c r="E11" t="n">
-        <v>52.3298</v>
+        <v>50.6655</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.686</v>
+        <v>21.0059</v>
       </c>
       <c r="C12" t="n">
-        <v>25.9538</v>
+        <v>22.9936</v>
       </c>
       <c r="D12" t="n">
-        <v>37.3269</v>
+        <v>29.4028</v>
       </c>
       <c r="E12" t="n">
-        <v>53.8775</v>
+        <v>43.2759</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7664</v>
+        <v>20.9041</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1335</v>
+        <v>23.5354</v>
       </c>
       <c r="D13" t="n">
-        <v>37.8316</v>
+        <v>29.1166</v>
       </c>
       <c r="E13" t="n">
-        <v>53.3225</v>
+        <v>44.7068</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8773</v>
+        <v>19.6104</v>
       </c>
       <c r="C14" t="n">
-        <v>26.965</v>
+        <v>24.6351</v>
       </c>
       <c r="D14" t="n">
-        <v>37.8814</v>
+        <v>27.994</v>
       </c>
       <c r="E14" t="n">
-        <v>49.5643</v>
+        <v>42.3405</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.5523</v>
+        <v>20.2771</v>
       </c>
       <c r="C15" t="n">
-        <v>27.7537</v>
+        <v>23.9482</v>
       </c>
       <c r="D15" t="n">
-        <v>38.5788</v>
+        <v>28.529</v>
       </c>
       <c r="E15" t="n">
-        <v>51.9485</v>
+        <v>39.1976</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.4917</v>
+        <v>20.1342</v>
       </c>
       <c r="C16" t="n">
-        <v>28.5752</v>
+        <v>23.8925</v>
       </c>
       <c r="D16" t="n">
-        <v>34.3025</v>
+        <v>24.9433</v>
       </c>
       <c r="E16" t="n">
-        <v>50.8846</v>
+        <v>37.783</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6616</v>
+        <v>19.1799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1461</v>
+        <v>23.9468</v>
       </c>
       <c r="D17" t="n">
-        <v>34.1928</v>
+        <v>29.0455</v>
       </c>
       <c r="E17" t="n">
-        <v>50.9932</v>
+        <v>37.0453</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.79881</v>
+        <v>3.83702</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6769</v>
+        <v>10.7716</v>
       </c>
       <c r="D2" t="n">
-        <v>12.755</v>
+        <v>12.8541</v>
       </c>
       <c r="E2" t="n">
-        <v>18.06</v>
+        <v>18.1775</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0636</v>
+        <v>5.90395</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1086</v>
+        <v>10.8479</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0551</v>
+        <v>17.0588</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0517</v>
+        <v>25.3109</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.38611</v>
+        <v>7.99808</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6177</v>
+        <v>11.7672</v>
       </c>
       <c r="D4" t="n">
-        <v>21.5185</v>
+        <v>19.3644</v>
       </c>
       <c r="E4" t="n">
-        <v>31.3934</v>
+        <v>30.1751</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3907</v>
+        <v>8.69805</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9848</v>
+        <v>12.0809</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2007</v>
+        <v>18.4011</v>
       </c>
       <c r="E5" t="n">
-        <v>37.4711</v>
+        <v>29.2907</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4108</v>
+        <v>9.213620000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>17.61</v>
+        <v>13.3272</v>
       </c>
       <c r="D6" t="n">
-        <v>28.8285</v>
+        <v>17.9163</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4413</v>
+        <v>28.4108</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3102</v>
+        <v>10.4716</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3016</v>
+        <v>14.4625</v>
       </c>
       <c r="D7" t="n">
-        <v>32.1567</v>
+        <v>18.4185</v>
       </c>
       <c r="E7" t="n">
-        <v>48.7478</v>
+        <v>31.0156</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.127</v>
+        <v>9.97823</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4088</v>
+        <v>14.112</v>
       </c>
       <c r="D8" t="n">
-        <v>35.249</v>
+        <v>18.5837</v>
       </c>
       <c r="E8" t="n">
-        <v>53.4213</v>
+        <v>29.4365</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6407</v>
+        <v>10.559</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0602</v>
+        <v>14.2089</v>
       </c>
       <c r="D9" t="n">
-        <v>39.5029</v>
+        <v>17.5587</v>
       </c>
       <c r="E9" t="n">
-        <v>57.4509</v>
+        <v>26.7322</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6719</v>
+        <v>9.860049999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3743</v>
+        <v>14.4581</v>
       </c>
       <c r="D10" t="n">
-        <v>33.1625</v>
+        <v>13.904</v>
       </c>
       <c r="E10" t="n">
-        <v>50.2757</v>
+        <v>25.0562</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7833</v>
+        <v>9.87144</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5778</v>
+        <v>14.8066</v>
       </c>
       <c r="D11" t="n">
-        <v>28.8171</v>
+        <v>12.4105</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9462</v>
+        <v>23.9148</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.658</v>
+        <v>10.4856</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0307</v>
+        <v>14.6442</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7311</v>
+        <v>11.3205</v>
       </c>
       <c r="E12" t="n">
-        <v>45.8806</v>
+        <v>22.6922</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7974</v>
+        <v>10.2368</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4724</v>
+        <v>14.5815</v>
       </c>
       <c r="D13" t="n">
-        <v>24.8016</v>
+        <v>11.6707</v>
       </c>
       <c r="E13" t="n">
-        <v>42.27</v>
+        <v>38.9884</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1673</v>
+        <v>16.3295</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6866</v>
+        <v>23.6038</v>
       </c>
       <c r="D14" t="n">
-        <v>23.2941</v>
+        <v>21.8583</v>
       </c>
       <c r="E14" t="n">
-        <v>40.5138</v>
+        <v>37.637</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0189</v>
+        <v>16.4234</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0679</v>
+        <v>24.3585</v>
       </c>
       <c r="D15" t="n">
-        <v>23.3915</v>
+        <v>20.3474</v>
       </c>
       <c r="E15" t="n">
-        <v>39.6813</v>
+        <v>35.5728</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6902</v>
+        <v>16.3233</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5504</v>
+        <v>24.9543</v>
       </c>
       <c r="D16" t="n">
-        <v>21.7012</v>
+        <v>18.8408</v>
       </c>
       <c r="E16" t="n">
-        <v>36.7761</v>
+        <v>32.7619</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6148</v>
+        <v>16.0269</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1789</v>
+        <v>23.7656</v>
       </c>
       <c r="D17" t="n">
-        <v>20.467</v>
+        <v>16.5064</v>
       </c>
       <c r="E17" t="n">
-        <v>35.6163</v>
+        <v>30.1614</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.88923</v>
+        <v>3.93057</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7873</v>
+        <v>10.7216</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6647</v>
+        <v>12.6826</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2094</v>
+        <v>18.2602</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.09019</v>
+        <v>6.17591</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2543</v>
+        <v>10.3198</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3023</v>
+        <v>17.146</v>
       </c>
       <c r="E3" t="n">
-        <v>24.0594</v>
+        <v>24.3429</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.412409999999999</v>
+        <v>8.105079999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4926</v>
+        <v>11.8002</v>
       </c>
       <c r="D4" t="n">
-        <v>21.3707</v>
+        <v>19.202</v>
       </c>
       <c r="E4" t="n">
-        <v>31.042</v>
+        <v>29.7065</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5321</v>
+        <v>8.549160000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9453</v>
+        <v>11.8774</v>
       </c>
       <c r="D5" t="n">
-        <v>24.9294</v>
+        <v>18.5175</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9558</v>
+        <v>28.0482</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5534</v>
+        <v>9.53552</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5821</v>
+        <v>13.2145</v>
       </c>
       <c r="D6" t="n">
-        <v>28.6098</v>
+        <v>17.5337</v>
       </c>
       <c r="E6" t="n">
-        <v>42.8075</v>
+        <v>29.0757</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4928</v>
+        <v>9.75306</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2336</v>
+        <v>14.1232</v>
       </c>
       <c r="D7" t="n">
-        <v>31.888</v>
+        <v>17.3506</v>
       </c>
       <c r="E7" t="n">
-        <v>47.9909</v>
+        <v>29.9528</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4474</v>
+        <v>9.63547</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4082</v>
+        <v>14.5275</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5219</v>
+        <v>16.6292</v>
       </c>
       <c r="E8" t="n">
-        <v>52.6191</v>
+        <v>25.5242</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9644</v>
+        <v>10.0615</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8354</v>
+        <v>14.3982</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6794</v>
+        <v>14.5214</v>
       </c>
       <c r="E9" t="n">
-        <v>56.2482</v>
+        <v>26.7633</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7302</v>
+        <v>9.603429999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0903</v>
+        <v>14.2323</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6746</v>
+        <v>13.4855</v>
       </c>
       <c r="E10" t="n">
-        <v>48.9571</v>
+        <v>24.5347</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5799</v>
+        <v>9.7273</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1958</v>
+        <v>13.9674</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6576</v>
+        <v>12.9186</v>
       </c>
       <c r="E11" t="n">
-        <v>45.5129</v>
+        <v>23.1671</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.849</v>
+        <v>9.957839999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2616</v>
+        <v>14.4546</v>
       </c>
       <c r="D12" t="n">
-        <v>26.3043</v>
+        <v>11.3328</v>
       </c>
       <c r="E12" t="n">
-        <v>44.1325</v>
+        <v>21.7894</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1759</v>
+        <v>9.85909</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2834</v>
+        <v>14.409</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6402</v>
+        <v>20.7692</v>
       </c>
       <c r="E13" t="n">
-        <v>40.6799</v>
+        <v>38.3191</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3649</v>
+        <v>16.7337</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5635</v>
+        <v>24.2637</v>
       </c>
       <c r="D14" t="n">
-        <v>22.4661</v>
+        <v>20.7397</v>
       </c>
       <c r="E14" t="n">
-        <v>38.9574</v>
+        <v>35.7501</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0724</v>
+        <v>16.9492</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9878</v>
+        <v>24.7449</v>
       </c>
       <c r="D15" t="n">
-        <v>21.7249</v>
+        <v>18.5692</v>
       </c>
       <c r="E15" t="n">
-        <v>38.0334</v>
+        <v>31.0966</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1263</v>
+        <v>15.8143</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5713</v>
+        <v>23.7793</v>
       </c>
       <c r="D16" t="n">
-        <v>20.4862</v>
+        <v>17.0295</v>
       </c>
       <c r="E16" t="n">
-        <v>36.8677</v>
+        <v>31.3849</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0523</v>
+        <v>15.8354</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3109</v>
+        <v>23.9037</v>
       </c>
       <c r="D17" t="n">
-        <v>18.8892</v>
+        <v>14.2819</v>
       </c>
       <c r="E17" t="n">
-        <v>35.5591</v>
+        <v>26.05</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.234310000000001</v>
+        <v>8.322990000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1661</v>
+        <v>14.1698</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5114</v>
+        <v>17.486</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4056</v>
+        <v>21.4025</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.76863</v>
+        <v>9.61591</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8048</v>
+        <v>11.5019</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6911</v>
+        <v>21.3179</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6012</v>
+        <v>27.4072</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2737</v>
+        <v>12.0483</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7305</v>
+        <v>13.1943</v>
       </c>
       <c r="D4" t="n">
-        <v>27.0036</v>
+        <v>24.3609</v>
       </c>
       <c r="E4" t="n">
-        <v>36.1584</v>
+        <v>30.6674</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6492</v>
+        <v>12.1233</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0353</v>
+        <v>14.2106</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5757</v>
+        <v>23.8562</v>
       </c>
       <c r="E5" t="n">
-        <v>43.6277</v>
+        <v>31.8354</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.168</v>
+        <v>13.7252</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9468</v>
+        <v>16.1485</v>
       </c>
       <c r="D6" t="n">
-        <v>36.4451</v>
+        <v>22.4542</v>
       </c>
       <c r="E6" t="n">
-        <v>50.8441</v>
+        <v>33.3645</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.7931</v>
+        <v>14.7401</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7497</v>
+        <v>17.5796</v>
       </c>
       <c r="D7" t="n">
-        <v>40.6368</v>
+        <v>20.9418</v>
       </c>
       <c r="E7" t="n">
-        <v>57.1458</v>
+        <v>31.5712</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8904</v>
+        <v>14.9569</v>
       </c>
       <c r="C8" t="n">
-        <v>24.78</v>
+        <v>15.7888</v>
       </c>
       <c r="D8" t="n">
-        <v>44.635</v>
+        <v>20.6272</v>
       </c>
       <c r="E8" t="n">
-        <v>62.5206</v>
+        <v>33.5604</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.8385</v>
+        <v>14.0213</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5184</v>
+        <v>16.1453</v>
       </c>
       <c r="D9" t="n">
-        <v>49.315</v>
+        <v>21.2456</v>
       </c>
       <c r="E9" t="n">
-        <v>67.9824</v>
+        <v>30.3913</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1764</v>
+        <v>14.2994</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3794</v>
+        <v>15.9164</v>
       </c>
       <c r="D10" t="n">
-        <v>44.5965</v>
+        <v>18.6536</v>
       </c>
       <c r="E10" t="n">
-        <v>63.1728</v>
+        <v>29.4232</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7906</v>
+        <v>13.855</v>
       </c>
       <c r="C11" t="n">
-        <v>26.4624</v>
+        <v>16.7231</v>
       </c>
       <c r="D11" t="n">
-        <v>40.8031</v>
+        <v>15.3791</v>
       </c>
       <c r="E11" t="n">
-        <v>63.8365</v>
+        <v>28.0252</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.217</v>
+        <v>13.561</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6487</v>
+        <v>22.4862</v>
       </c>
       <c r="D12" t="n">
-        <v>40.0906</v>
+        <v>40.5801</v>
       </c>
       <c r="E12" t="n">
-        <v>65.23260000000001</v>
+        <v>65.7814</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6558</v>
+        <v>25.4834</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1222</v>
+        <v>27.146</v>
       </c>
       <c r="D13" t="n">
-        <v>37.6737</v>
+        <v>37.939</v>
       </c>
       <c r="E13" t="n">
-        <v>64.9466</v>
+        <v>65.3802</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.9299</v>
+        <v>24.7818</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5844</v>
+        <v>27.5156</v>
       </c>
       <c r="D14" t="n">
-        <v>35.3452</v>
+        <v>33.893</v>
       </c>
       <c r="E14" t="n">
-        <v>64.2826</v>
+        <v>64.86409999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4423</v>
+        <v>25.6048</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1681</v>
+        <v>28.2894</v>
       </c>
       <c r="D15" t="n">
-        <v>33.6282</v>
+        <v>34.0817</v>
       </c>
       <c r="E15" t="n">
-        <v>64.66849999999999</v>
+        <v>65.7846</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7074</v>
+        <v>25.369</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9836</v>
+        <v>29.033</v>
       </c>
       <c r="D16" t="n">
-        <v>33.4457</v>
+        <v>32.8299</v>
       </c>
       <c r="E16" t="n">
-        <v>64.79219999999999</v>
+        <v>65.2169</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4471</v>
+        <v>25.433</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8489</v>
+        <v>29.908</v>
       </c>
       <c r="D17" t="n">
-        <v>30.7126</v>
+        <v>31.409</v>
       </c>
       <c r="E17" t="n">
-        <v>63.048</v>
+        <v>63.0725</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.430529999999999</v>
+        <v>9.42825</v>
       </c>
       <c r="C2" t="n">
-        <v>12.987</v>
+        <v>13.9096</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9593</v>
+        <v>15.7888</v>
       </c>
       <c r="E2" t="n">
-        <v>17.893</v>
+        <v>18.8188</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.97306</v>
+        <v>9.2525</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4843</v>
+        <v>10.8146</v>
       </c>
       <c r="D3" t="n">
-        <v>17.7032</v>
+        <v>16.2256</v>
       </c>
       <c r="E3" t="n">
-        <v>22.528</v>
+        <v>19.5019</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.8488</v>
+        <v>10.8134</v>
       </c>
       <c r="C4" t="n">
-        <v>15.25</v>
+        <v>12.5618</v>
       </c>
       <c r="D4" t="n">
-        <v>23.1856</v>
+        <v>19.1775</v>
       </c>
       <c r="E4" t="n">
-        <v>29.4398</v>
+        <v>25.1064</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.9382</v>
+        <v>12.485</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9722</v>
+        <v>14.7924</v>
       </c>
       <c r="D5" t="n">
-        <v>25.9866</v>
+        <v>23.1514</v>
       </c>
       <c r="E5" t="n">
-        <v>34.764</v>
+        <v>28.699</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7199</v>
+        <v>14.4909</v>
       </c>
       <c r="C6" t="n">
-        <v>15.722</v>
+        <v>17.4251</v>
       </c>
       <c r="D6" t="n">
-        <v>26.5653</v>
+        <v>26.4573</v>
       </c>
       <c r="E6" t="n">
-        <v>34.9404</v>
+        <v>33.4845</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4952</v>
+        <v>16.7651</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2527</v>
+        <v>20.2211</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0751</v>
+        <v>29.7164</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7274</v>
+        <v>37.3747</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.5856</v>
+        <v>18.2553</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2266</v>
+        <v>22.5006</v>
       </c>
       <c r="D8" t="n">
-        <v>22.5171</v>
+        <v>31.6973</v>
       </c>
       <c r="E8" t="n">
-        <v>28.1186</v>
+        <v>41.2705</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.784</v>
+        <v>21.4395</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3522</v>
+        <v>24.5852</v>
       </c>
       <c r="D9" t="n">
-        <v>20.7134</v>
+        <v>34.9959</v>
       </c>
       <c r="E9" t="n">
-        <v>30.6008</v>
+        <v>42.8194</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.6801</v>
+        <v>18.7642</v>
       </c>
       <c r="C10" t="n">
-        <v>18.0082</v>
+        <v>24.4676</v>
       </c>
       <c r="D10" t="n">
-        <v>18.0642</v>
+        <v>31.9565</v>
       </c>
       <c r="E10" t="n">
-        <v>27.6466</v>
+        <v>39.8788</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1185</v>
+        <v>18.3626</v>
       </c>
       <c r="C11" t="n">
-        <v>17.5285</v>
+        <v>23.199</v>
       </c>
       <c r="D11" t="n">
-        <v>19.6347</v>
+        <v>30.4088</v>
       </c>
       <c r="E11" t="n">
-        <v>25.977</v>
+        <v>39.7428</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.332</v>
+        <v>19.2091</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5372</v>
+        <v>24.0215</v>
       </c>
       <c r="D12" t="n">
-        <v>16.8956</v>
+        <v>27.2621</v>
       </c>
       <c r="E12" t="n">
-        <v>24.9321</v>
+        <v>41.6271</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2542</v>
+        <v>19.9039</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4048</v>
+        <v>24.5234</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9177</v>
+        <v>27.4047</v>
       </c>
       <c r="E13" t="n">
-        <v>26.1951</v>
+        <v>38.5119</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7499</v>
+        <v>18.9906</v>
       </c>
       <c r="C14" t="n">
-        <v>17.4422</v>
+        <v>25.2663</v>
       </c>
       <c r="D14" t="n">
-        <v>13.9892</v>
+        <v>24.435</v>
       </c>
       <c r="E14" t="n">
-        <v>23.5376</v>
+        <v>39.9311</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0583</v>
+        <v>19.0708</v>
       </c>
       <c r="C15" t="n">
-        <v>17.0567</v>
+        <v>25.8521</v>
       </c>
       <c r="D15" t="n">
-        <v>13.9298</v>
+        <v>23.6994</v>
       </c>
       <c r="E15" t="n">
-        <v>22.0612</v>
+        <v>38.0891</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1948</v>
+        <v>18.8836</v>
       </c>
       <c r="C16" t="n">
-        <v>17.3015</v>
+        <v>26.6187</v>
       </c>
       <c r="D16" t="n">
-        <v>14.912</v>
+        <v>23.999</v>
       </c>
       <c r="E16" t="n">
-        <v>23.7704</v>
+        <v>39.6587</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2145</v>
+        <v>19.3136</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5206</v>
+        <v>27.3221</v>
       </c>
       <c r="D17" t="n">
-        <v>20.329</v>
+        <v>24.8157</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0544</v>
+        <v>38.5842</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3287</v>
+        <v>10.1147</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6355</v>
+        <v>13.7417</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9861</v>
+        <v>15.7953</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4988</v>
+        <v>18.8847</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.55176</v>
+        <v>9.23443</v>
       </c>
       <c r="C3" t="n">
-        <v>10.472</v>
+        <v>10.4251</v>
       </c>
       <c r="D3" t="n">
-        <v>17.6538</v>
+        <v>16.0419</v>
       </c>
       <c r="E3" t="n">
-        <v>22.1541</v>
+        <v>19.3973</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4934</v>
+        <v>11.1442</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9253</v>
+        <v>12.4669</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0936</v>
+        <v>20.0304</v>
       </c>
       <c r="E4" t="n">
-        <v>28.6465</v>
+        <v>25.3399</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1545</v>
+        <v>13.0184</v>
       </c>
       <c r="C5" t="n">
-        <v>15.9098</v>
+        <v>14.8042</v>
       </c>
       <c r="D5" t="n">
-        <v>26.083</v>
+        <v>22.6934</v>
       </c>
       <c r="E5" t="n">
-        <v>34.2527</v>
+        <v>29.638</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.099</v>
+        <v>15.2002</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5564</v>
+        <v>17.3352</v>
       </c>
       <c r="D6" t="n">
-        <v>28.6284</v>
+        <v>27.1182</v>
       </c>
       <c r="E6" t="n">
-        <v>38.1463</v>
+        <v>33.4773</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.7715</v>
+        <v>17.0232</v>
       </c>
       <c r="C7" t="n">
-        <v>21.5078</v>
+        <v>20.0868</v>
       </c>
       <c r="D7" t="n">
-        <v>32.572</v>
+        <v>29.9112</v>
       </c>
       <c r="E7" t="n">
-        <v>42.0238</v>
+        <v>37.946</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.7517</v>
+        <v>18.8742</v>
       </c>
       <c r="C8" t="n">
-        <v>21.637</v>
+        <v>22.2007</v>
       </c>
       <c r="D8" t="n">
-        <v>33.6931</v>
+        <v>32.2019</v>
       </c>
       <c r="E8" t="n">
-        <v>44.0925</v>
+        <v>40.3123</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.3082</v>
+        <v>22.3403</v>
       </c>
       <c r="C9" t="n">
-        <v>21.0354</v>
+        <v>24.9154</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5184</v>
+        <v>35.2707</v>
       </c>
       <c r="E9" t="n">
-        <v>39.4002</v>
+        <v>43.9692</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7114</v>
+        <v>19.5929</v>
       </c>
       <c r="C10" t="n">
-        <v>21.7703</v>
+        <v>24.2004</v>
       </c>
       <c r="D10" t="n">
-        <v>28.677</v>
+        <v>31.9399</v>
       </c>
       <c r="E10" t="n">
-        <v>39.982</v>
+        <v>42.3286</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1476</v>
+        <v>19.391</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1711</v>
+        <v>23.5649</v>
       </c>
       <c r="D11" t="n">
-        <v>27.3468</v>
+        <v>29.7764</v>
       </c>
       <c r="E11" t="n">
-        <v>38.3001</v>
+        <v>38.9781</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9266</v>
+        <v>19.9633</v>
       </c>
       <c r="C12" t="n">
-        <v>22.6254</v>
+        <v>24.187</v>
       </c>
       <c r="D12" t="n">
-        <v>25.1636</v>
+        <v>29.3598</v>
       </c>
       <c r="E12" t="n">
-        <v>35.5196</v>
+        <v>37.8942</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3612</v>
+        <v>20.0977</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9694</v>
+        <v>24.6667</v>
       </c>
       <c r="D13" t="n">
-        <v>23.6571</v>
+        <v>28.759</v>
       </c>
       <c r="E13" t="n">
-        <v>34.3588</v>
+        <v>40.6966</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6282</v>
+        <v>19.6599</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1373</v>
+        <v>25.2742</v>
       </c>
       <c r="D14" t="n">
-        <v>23.2728</v>
+        <v>25.0561</v>
       </c>
       <c r="E14" t="n">
-        <v>36.8894</v>
+        <v>40.2764</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1347</v>
+        <v>19.9028</v>
       </c>
       <c r="C15" t="n">
-        <v>24.4421</v>
+        <v>26.1737</v>
       </c>
       <c r="D15" t="n">
-        <v>22.6587</v>
+        <v>27.9393</v>
       </c>
       <c r="E15" t="n">
-        <v>39.4497</v>
+        <v>37.8584</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0269</v>
+        <v>19.5851</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7311</v>
+        <v>26.5443</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2693</v>
+        <v>23.3731</v>
       </c>
       <c r="E16" t="n">
-        <v>30.526</v>
+        <v>40.151</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.221</v>
+        <v>19.4137</v>
       </c>
       <c r="C17" t="n">
-        <v>24.721</v>
+        <v>27.2593</v>
       </c>
       <c r="D17" t="n">
-        <v>18.9027</v>
+        <v>21.6837</v>
       </c>
       <c r="E17" t="n">
-        <v>31.8866</v>
+        <v>37.5363</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7969</v>
+        <v>12.7609</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1954</v>
+        <v>15.2005</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8361</v>
+        <v>18.1775</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6861</v>
+        <v>20.9285</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5834</v>
+        <v>10.9974</v>
       </c>
       <c r="C3" t="n">
-        <v>11.509</v>
+        <v>11.9126</v>
       </c>
       <c r="D3" t="n">
-        <v>20.932</v>
+        <v>20.2649</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0582</v>
+        <v>24.7093</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.93</v>
+        <v>12.9365</v>
       </c>
       <c r="C4" t="n">
-        <v>14.4695</v>
+        <v>13.8765</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4141</v>
+        <v>25.097</v>
       </c>
       <c r="E4" t="n">
-        <v>33.153</v>
+        <v>30.8299</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6375</v>
+        <v>15.1075</v>
       </c>
       <c r="C5" t="n">
-        <v>17.8421</v>
+        <v>16.6307</v>
       </c>
       <c r="D5" t="n">
-        <v>32.4916</v>
+        <v>28.3549</v>
       </c>
       <c r="E5" t="n">
-        <v>39.4695</v>
+        <v>37.7119</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.7629</v>
+        <v>17.9497</v>
       </c>
       <c r="C6" t="n">
-        <v>20.8975</v>
+        <v>19.6249</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5778</v>
+        <v>32.6749</v>
       </c>
       <c r="E6" t="n">
-        <v>45.0206</v>
+        <v>40.9541</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.3249</v>
+        <v>20.7938</v>
       </c>
       <c r="C7" t="n">
-        <v>23.8598</v>
+        <v>22.502</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3942</v>
+        <v>36.8579</v>
       </c>
       <c r="E7" t="n">
-        <v>48.2338</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.1827</v>
+        <v>23.3983</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6152</v>
+        <v>24.9646</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7993</v>
+        <v>38.9287</v>
       </c>
       <c r="E8" t="n">
-        <v>52.4884</v>
+        <v>47.7502</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6557</v>
+        <v>26.6683</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5288</v>
+        <v>27.3616</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6534</v>
+        <v>42.0578</v>
       </c>
       <c r="E9" t="n">
-        <v>49.2615</v>
+        <v>52.5146</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.124</v>
+        <v>24.9533</v>
       </c>
       <c r="C10" t="n">
-        <v>23.5372</v>
+        <v>26.4573</v>
       </c>
       <c r="D10" t="n">
-        <v>36.3012</v>
+        <v>38.9494</v>
       </c>
       <c r="E10" t="n">
-        <v>50.5915</v>
+        <v>51.6663</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.263</v>
+        <v>23.9249</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1156</v>
+        <v>25.2</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0636</v>
+        <v>38.3609</v>
       </c>
       <c r="E11" t="n">
-        <v>50.6655</v>
+        <v>50.2877</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.0059</v>
+        <v>24.2738</v>
       </c>
       <c r="C12" t="n">
-        <v>22.9936</v>
+        <v>25.6302</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4028</v>
+        <v>36.2853</v>
       </c>
       <c r="E12" t="n">
-        <v>43.2759</v>
+        <v>52.6821</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9041</v>
+        <v>25.934</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5354</v>
+        <v>26.2327</v>
       </c>
       <c r="D13" t="n">
-        <v>29.1166</v>
+        <v>39.3576</v>
       </c>
       <c r="E13" t="n">
-        <v>44.7068</v>
+        <v>53.8606</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6104</v>
+        <v>24.0085</v>
       </c>
       <c r="C14" t="n">
-        <v>24.6351</v>
+        <v>26.8474</v>
       </c>
       <c r="D14" t="n">
-        <v>27.994</v>
+        <v>37.7924</v>
       </c>
       <c r="E14" t="n">
-        <v>42.3405</v>
+        <v>53.4425</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.2771</v>
+        <v>23.8427</v>
       </c>
       <c r="C15" t="n">
-        <v>23.9482</v>
+        <v>27.7852</v>
       </c>
       <c r="D15" t="n">
-        <v>28.529</v>
+        <v>35.364</v>
       </c>
       <c r="E15" t="n">
-        <v>39.1976</v>
+        <v>52.1327</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.1342</v>
+        <v>23.6662</v>
       </c>
       <c r="C16" t="n">
-        <v>23.8925</v>
+        <v>28.3215</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9433</v>
+        <v>33.5186</v>
       </c>
       <c r="E16" t="n">
-        <v>37.783</v>
+        <v>53.0941</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.1799</v>
+        <v>23.5094</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9468</v>
+        <v>29.1176</v>
       </c>
       <c r="D17" t="n">
-        <v>29.0455</v>
+        <v>31.8465</v>
       </c>
       <c r="E17" t="n">
-        <v>37.0453</v>
+        <v>48.5033</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.83702</v>
+        <v>3.84356</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7716</v>
+        <v>10.509</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8541</v>
+        <v>12.0491</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1775</v>
+        <v>16.753</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.90395</v>
+        <v>6.07963</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8479</v>
+        <v>10.2336</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0588</v>
+        <v>16.0097</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3109</v>
+        <v>21.5895</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.99808</v>
+        <v>8.318160000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7672</v>
+        <v>12.5035</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3644</v>
+        <v>19.7342</v>
       </c>
       <c r="E4" t="n">
-        <v>30.1751</v>
+        <v>27.5361</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.69805</v>
+        <v>10.4616</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0809</v>
+        <v>14.9795</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4011</v>
+        <v>24.3997</v>
       </c>
       <c r="E5" t="n">
-        <v>29.2907</v>
+        <v>34.2349</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.213620000000001</v>
+        <v>12.4557</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3272</v>
+        <v>17.5984</v>
       </c>
       <c r="D6" t="n">
-        <v>17.9163</v>
+        <v>27.4552</v>
       </c>
       <c r="E6" t="n">
-        <v>28.4108</v>
+        <v>41.4916</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4716</v>
+        <v>14.2156</v>
       </c>
       <c r="C7" t="n">
-        <v>14.4625</v>
+        <v>20.2777</v>
       </c>
       <c r="D7" t="n">
-        <v>18.4185</v>
+        <v>31.0943</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0156</v>
+        <v>46.8078</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.97823</v>
+        <v>16.2661</v>
       </c>
       <c r="C8" t="n">
-        <v>14.112</v>
+        <v>23.3879</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5837</v>
+        <v>34.105</v>
       </c>
       <c r="E8" t="n">
-        <v>29.4365</v>
+        <v>51.7721</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.559</v>
+        <v>18.6461</v>
       </c>
       <c r="C9" t="n">
-        <v>14.2089</v>
+        <v>26.7579</v>
       </c>
       <c r="D9" t="n">
-        <v>17.5587</v>
+        <v>38.6332</v>
       </c>
       <c r="E9" t="n">
-        <v>26.7322</v>
+        <v>56.1207</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.860049999999999</v>
+        <v>17.8063</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4581</v>
+        <v>25.0224</v>
       </c>
       <c r="D10" t="n">
-        <v>13.904</v>
+        <v>32.6512</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0562</v>
+        <v>48.8462</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.87144</v>
+        <v>17.5063</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8066</v>
+        <v>24.7878</v>
       </c>
       <c r="D11" t="n">
-        <v>12.4105</v>
+        <v>29.3563</v>
       </c>
       <c r="E11" t="n">
-        <v>23.9148</v>
+        <v>45.9566</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.4856</v>
+        <v>17.6937</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6442</v>
+        <v>24.8952</v>
       </c>
       <c r="D12" t="n">
-        <v>11.3205</v>
+        <v>26.3591</v>
       </c>
       <c r="E12" t="n">
-        <v>22.6922</v>
+        <v>45.8682</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.2368</v>
+        <v>17.9218</v>
       </c>
       <c r="C13" t="n">
-        <v>14.5815</v>
+        <v>25.2163</v>
       </c>
       <c r="D13" t="n">
-        <v>11.6707</v>
+        <v>25.4626</v>
       </c>
       <c r="E13" t="n">
-        <v>38.9884</v>
+        <v>42.2663</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.3295</v>
+        <v>17.0268</v>
       </c>
       <c r="C14" t="n">
-        <v>23.6038</v>
+        <v>25.4811</v>
       </c>
       <c r="D14" t="n">
-        <v>21.8583</v>
+        <v>23.8229</v>
       </c>
       <c r="E14" t="n">
-        <v>37.637</v>
+        <v>41.2798</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.4234</v>
+        <v>17.9357</v>
       </c>
       <c r="C15" t="n">
-        <v>24.3585</v>
+        <v>25.9848</v>
       </c>
       <c r="D15" t="n">
-        <v>20.3474</v>
+        <v>23.1521</v>
       </c>
       <c r="E15" t="n">
-        <v>35.5728</v>
+        <v>39.5986</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.3233</v>
+        <v>17.8656</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9543</v>
+        <v>26.5585</v>
       </c>
       <c r="D16" t="n">
-        <v>18.8408</v>
+        <v>22.3847</v>
       </c>
       <c r="E16" t="n">
-        <v>32.7619</v>
+        <v>38.3758</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0269</v>
+        <v>17.7977</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7656</v>
+        <v>27.218</v>
       </c>
       <c r="D17" t="n">
-        <v>16.5064</v>
+        <v>20.804</v>
       </c>
       <c r="E17" t="n">
-        <v>30.1614</v>
+        <v>36.7811</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.93057</v>
+        <v>3.98906</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7216</v>
+        <v>10.8636</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6826</v>
+        <v>12.121</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2602</v>
+        <v>17.0597</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.17591</v>
+        <v>6.11351</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3198</v>
+        <v>10.1564</v>
       </c>
       <c r="D3" t="n">
-        <v>17.146</v>
+        <v>15.6811</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3429</v>
+        <v>20.7851</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.105079999999999</v>
+        <v>8.466659999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.8002</v>
+        <v>12.4959</v>
       </c>
       <c r="D4" t="n">
-        <v>19.202</v>
+        <v>19.9116</v>
       </c>
       <c r="E4" t="n">
-        <v>29.7065</v>
+        <v>29.0101</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.549160000000001</v>
+        <v>10.5377</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8774</v>
+        <v>14.9583</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5175</v>
+        <v>23.9686</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0482</v>
+        <v>33.8932</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.53552</v>
+        <v>12.5224</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2145</v>
+        <v>17.6081</v>
       </c>
       <c r="D6" t="n">
-        <v>17.5337</v>
+        <v>27.8749</v>
       </c>
       <c r="E6" t="n">
-        <v>29.0757</v>
+        <v>40.0712</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.75306</v>
+        <v>14.6008</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1232</v>
+        <v>20.3673</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3506</v>
+        <v>30.8548</v>
       </c>
       <c r="E7" t="n">
-        <v>29.9528</v>
+        <v>45.8975</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.63547</v>
+        <v>16.4794</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5275</v>
+        <v>23.2971</v>
       </c>
       <c r="D8" t="n">
-        <v>16.6292</v>
+        <v>34.0907</v>
       </c>
       <c r="E8" t="n">
-        <v>25.5242</v>
+        <v>50.5818</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0615</v>
+        <v>18.8867</v>
       </c>
       <c r="C9" t="n">
-        <v>14.3982</v>
+        <v>26.6361</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5214</v>
+        <v>38.4838</v>
       </c>
       <c r="E9" t="n">
-        <v>26.7633</v>
+        <v>54.7292</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.603429999999999</v>
+        <v>17.7525</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2323</v>
+        <v>25.0616</v>
       </c>
       <c r="D10" t="n">
-        <v>13.4855</v>
+        <v>31.7951</v>
       </c>
       <c r="E10" t="n">
-        <v>24.5347</v>
+        <v>50.0891</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.7273</v>
+        <v>17.7481</v>
       </c>
       <c r="C11" t="n">
-        <v>13.9674</v>
+        <v>24.7476</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9186</v>
+        <v>29.0253</v>
       </c>
       <c r="E11" t="n">
-        <v>23.1671</v>
+        <v>45.9058</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.957839999999999</v>
+        <v>17.8699</v>
       </c>
       <c r="C12" t="n">
-        <v>14.4546</v>
+        <v>24.8059</v>
       </c>
       <c r="D12" t="n">
-        <v>11.3328</v>
+        <v>26.8828</v>
       </c>
       <c r="E12" t="n">
-        <v>21.7894</v>
+        <v>43.3106</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.85909</v>
+        <v>18.2356</v>
       </c>
       <c r="C13" t="n">
-        <v>14.409</v>
+        <v>25.1154</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7692</v>
+        <v>24.4719</v>
       </c>
       <c r="E13" t="n">
-        <v>38.3191</v>
+        <v>43.1562</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7337</v>
+        <v>17.6541</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2637</v>
+        <v>25.6261</v>
       </c>
       <c r="D14" t="n">
-        <v>20.7397</v>
+        <v>22.809</v>
       </c>
       <c r="E14" t="n">
-        <v>35.7501</v>
+        <v>40.634</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9492</v>
+        <v>18.2365</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7449</v>
+        <v>25.9395</v>
       </c>
       <c r="D15" t="n">
-        <v>18.5692</v>
+        <v>21.727</v>
       </c>
       <c r="E15" t="n">
-        <v>31.0966</v>
+        <v>39.3712</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.8143</v>
+        <v>18.1952</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7793</v>
+        <v>26.5135</v>
       </c>
       <c r="D16" t="n">
-        <v>17.0295</v>
+        <v>20.7304</v>
       </c>
       <c r="E16" t="n">
-        <v>31.3849</v>
+        <v>37.4623</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8354</v>
+        <v>18.3739</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9037</v>
+        <v>27.0316</v>
       </c>
       <c r="D17" t="n">
-        <v>14.2819</v>
+        <v>19.7033</v>
       </c>
       <c r="E17" t="n">
-        <v>26.05</v>
+        <v>35.022</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.322990000000001</v>
+        <v>8.221109999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1698</v>
+        <v>14.1917</v>
       </c>
       <c r="D2" t="n">
-        <v>17.486</v>
+        <v>17.0614</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4025</v>
+        <v>20.7786</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.61591</v>
+        <v>9.444649999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5019</v>
+        <v>11.322</v>
       </c>
       <c r="D3" t="n">
-        <v>21.3179</v>
+        <v>20.0695</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4072</v>
+        <v>25.2684</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0483</v>
+        <v>12.1185</v>
       </c>
       <c r="C4" t="n">
-        <v>13.1943</v>
+        <v>13.5727</v>
       </c>
       <c r="D4" t="n">
-        <v>24.3609</v>
+        <v>26.1908</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6674</v>
+        <v>34.4998</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1233</v>
+        <v>14.6629</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2106</v>
+        <v>16.0035</v>
       </c>
       <c r="D5" t="n">
-        <v>23.8562</v>
+        <v>30.4509</v>
       </c>
       <c r="E5" t="n">
-        <v>31.8354</v>
+        <v>41.4131</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7252</v>
+        <v>17.2827</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1485</v>
+        <v>18.9127</v>
       </c>
       <c r="D6" t="n">
-        <v>22.4542</v>
+        <v>35.6985</v>
       </c>
       <c r="E6" t="n">
-        <v>33.3645</v>
+        <v>48.5713</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7401</v>
+        <v>20.0168</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5796</v>
+        <v>21.7808</v>
       </c>
       <c r="D7" t="n">
-        <v>20.9418</v>
+        <v>40.0961</v>
       </c>
       <c r="E7" t="n">
-        <v>31.5712</v>
+        <v>55.0499</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.9569</v>
+        <v>22.7575</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7888</v>
+        <v>24.7362</v>
       </c>
       <c r="D8" t="n">
-        <v>20.6272</v>
+        <v>44.1299</v>
       </c>
       <c r="E8" t="n">
-        <v>33.5604</v>
+        <v>60.9369</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0213</v>
+        <v>26.6757</v>
       </c>
       <c r="C9" t="n">
-        <v>16.1453</v>
+        <v>27.4615</v>
       </c>
       <c r="D9" t="n">
-        <v>21.2456</v>
+        <v>48.77</v>
       </c>
       <c r="E9" t="n">
-        <v>30.3913</v>
+        <v>66.6165</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2994</v>
+        <v>25.3821</v>
       </c>
       <c r="C10" t="n">
-        <v>15.9164</v>
+        <v>26.1998</v>
       </c>
       <c r="D10" t="n">
-        <v>18.6536</v>
+        <v>42.1396</v>
       </c>
       <c r="E10" t="n">
-        <v>29.4232</v>
+        <v>63.2423</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.855</v>
+        <v>25.0113</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7231</v>
+        <v>26.2389</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3791</v>
+        <v>39.9777</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0252</v>
+        <v>62.2261</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.561</v>
+        <v>25.3845</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4862</v>
+        <v>26.5378</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5801</v>
+        <v>36.6677</v>
       </c>
       <c r="E12" t="n">
-        <v>65.7814</v>
+        <v>64.5869</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4834</v>
+        <v>25.5761</v>
       </c>
       <c r="C13" t="n">
-        <v>27.146</v>
+        <v>27.0504</v>
       </c>
       <c r="D13" t="n">
-        <v>37.939</v>
+        <v>36.4041</v>
       </c>
       <c r="E13" t="n">
-        <v>65.3802</v>
+        <v>64.121</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7818</v>
+        <v>24.8092</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5156</v>
+        <v>27.4489</v>
       </c>
       <c r="D14" t="n">
-        <v>33.893</v>
+        <v>33.0433</v>
       </c>
       <c r="E14" t="n">
-        <v>64.86409999999999</v>
+        <v>63.3638</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6048</v>
+        <v>25.6951</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2894</v>
+        <v>28.1307</v>
       </c>
       <c r="D15" t="n">
-        <v>34.0817</v>
+        <v>31.0882</v>
       </c>
       <c r="E15" t="n">
-        <v>65.7846</v>
+        <v>63.3411</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.369</v>
+        <v>25.5884</v>
       </c>
       <c r="C16" t="n">
-        <v>29.033</v>
+        <v>28.8146</v>
       </c>
       <c r="D16" t="n">
-        <v>32.8299</v>
+        <v>30.1405</v>
       </c>
       <c r="E16" t="n">
-        <v>65.2169</v>
+        <v>63.6271</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.433</v>
+        <v>25.4657</v>
       </c>
       <c r="C17" t="n">
-        <v>29.908</v>
+        <v>29.763</v>
       </c>
       <c r="D17" t="n">
-        <v>31.409</v>
+        <v>29.2215</v>
       </c>
       <c r="E17" t="n">
-        <v>63.0725</v>
+        <v>62.0018</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.42825</v>
+        <v>8.11286</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9096</v>
+        <v>13.0782</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7888</v>
+        <v>16.6344</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8188</v>
+        <v>20.3339</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.2525</v>
+        <v>8.654159999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8146</v>
+        <v>9.977919999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>16.2256</v>
+        <v>21.2931</v>
       </c>
       <c r="E3" t="n">
-        <v>19.5019</v>
+        <v>21.4039</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8134</v>
+        <v>9.37384</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5618</v>
+        <v>13.2192</v>
       </c>
       <c r="D4" t="n">
-        <v>19.1775</v>
+        <v>21.8561</v>
       </c>
       <c r="E4" t="n">
-        <v>25.1064</v>
+        <v>29.1636</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.485</v>
+        <v>11.7892</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7924</v>
+        <v>12.6961</v>
       </c>
       <c r="D5" t="n">
-        <v>23.1514</v>
+        <v>21.3876</v>
       </c>
       <c r="E5" t="n">
-        <v>28.699</v>
+        <v>30.8895</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4909</v>
+        <v>11.0813</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4251</v>
+        <v>14.1768</v>
       </c>
       <c r="D6" t="n">
-        <v>26.4573</v>
+        <v>23.8562</v>
       </c>
       <c r="E6" t="n">
-        <v>33.4845</v>
+        <v>30.7462</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7651</v>
+        <v>12.0163</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2211</v>
+        <v>15.5954</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7164</v>
+        <v>28.7989</v>
       </c>
       <c r="E7" t="n">
-        <v>37.3747</v>
+        <v>36.224</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2553</v>
+        <v>12.5152</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5006</v>
+        <v>14.6063</v>
       </c>
       <c r="D8" t="n">
-        <v>31.6973</v>
+        <v>29.5245</v>
       </c>
       <c r="E8" t="n">
-        <v>41.2705</v>
+        <v>33.3358</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4395</v>
+        <v>13.002</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5852</v>
+        <v>15.0646</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9959</v>
+        <v>29.964</v>
       </c>
       <c r="E9" t="n">
-        <v>42.8194</v>
+        <v>37.4414</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7642</v>
+        <v>12.7436</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4676</v>
+        <v>16.9289</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9565</v>
+        <v>29.4752</v>
       </c>
       <c r="E10" t="n">
-        <v>39.8788</v>
+        <v>38.9743</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3626</v>
+        <v>14.0936</v>
       </c>
       <c r="C11" t="n">
-        <v>23.199</v>
+        <v>17.5545</v>
       </c>
       <c r="D11" t="n">
-        <v>30.4088</v>
+        <v>31.4775</v>
       </c>
       <c r="E11" t="n">
-        <v>39.7428</v>
+        <v>33.5103</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2091</v>
+        <v>13.0981</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0215</v>
+        <v>17.3449</v>
       </c>
       <c r="D12" t="n">
-        <v>27.2621</v>
+        <v>27.7713</v>
       </c>
       <c r="E12" t="n">
-        <v>41.6271</v>
+        <v>33.5669</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.9039</v>
+        <v>13.0715</v>
       </c>
       <c r="C13" t="n">
-        <v>24.5234</v>
+        <v>17.7318</v>
       </c>
       <c r="D13" t="n">
-        <v>27.4047</v>
+        <v>29.0872</v>
       </c>
       <c r="E13" t="n">
-        <v>38.5119</v>
+        <v>44.1044</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9906</v>
+        <v>12.8922</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2663</v>
+        <v>17.564</v>
       </c>
       <c r="D14" t="n">
-        <v>24.435</v>
+        <v>29.3881</v>
       </c>
       <c r="E14" t="n">
-        <v>39.9311</v>
+        <v>35.7436</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0708</v>
+        <v>13.4968</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8521</v>
+        <v>18.3382</v>
       </c>
       <c r="D15" t="n">
-        <v>23.6994</v>
+        <v>30.792</v>
       </c>
       <c r="E15" t="n">
-        <v>38.0891</v>
+        <v>38.6202</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.8836</v>
+        <v>14.5279</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6187</v>
+        <v>18.6431</v>
       </c>
       <c r="D16" t="n">
-        <v>23.999</v>
+        <v>30.5485</v>
       </c>
       <c r="E16" t="n">
-        <v>39.6587</v>
+        <v>43.6625</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3136</v>
+        <v>13.7809</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3221</v>
+        <v>18.6678</v>
       </c>
       <c r="D17" t="n">
-        <v>24.8157</v>
+        <v>28.2392</v>
       </c>
       <c r="E17" t="n">
-        <v>38.5842</v>
+        <v>36.2443</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1147</v>
+        <v>9.731400000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7417</v>
+        <v>13.125</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7953</v>
+        <v>16.4406</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8847</v>
+        <v>17.2016</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.23443</v>
+        <v>8.861879999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4251</v>
+        <v>10.4611</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0419</v>
+        <v>16.7015</v>
       </c>
       <c r="E3" t="n">
-        <v>19.3973</v>
+        <v>21.3711</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1442</v>
+        <v>9.359450000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4669</v>
+        <v>10.7704</v>
       </c>
       <c r="D4" t="n">
-        <v>20.0304</v>
+        <v>19.3467</v>
       </c>
       <c r="E4" t="n">
-        <v>25.3399</v>
+        <v>27.1985</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0184</v>
+        <v>10.3746</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8042</v>
+        <v>12.0304</v>
       </c>
       <c r="D5" t="n">
-        <v>22.6934</v>
+        <v>23.4532</v>
       </c>
       <c r="E5" t="n">
-        <v>29.638</v>
+        <v>30.8327</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2002</v>
+        <v>12.3475</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3352</v>
+        <v>14.7719</v>
       </c>
       <c r="D6" t="n">
-        <v>27.1182</v>
+        <v>27.6479</v>
       </c>
       <c r="E6" t="n">
-        <v>33.4773</v>
+        <v>33.8043</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.0232</v>
+        <v>12.5852</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0868</v>
+        <v>14.6532</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9112</v>
+        <v>22.8801</v>
       </c>
       <c r="E7" t="n">
-        <v>37.946</v>
+        <v>28.1299</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8742</v>
+        <v>11.1805</v>
       </c>
       <c r="C8" t="n">
-        <v>22.2007</v>
+        <v>16.3208</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2019</v>
+        <v>22.7772</v>
       </c>
       <c r="E8" t="n">
-        <v>40.3123</v>
+        <v>32.9359</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3403</v>
+        <v>13.8131</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9154</v>
+        <v>13.3714</v>
       </c>
       <c r="D9" t="n">
-        <v>35.2707</v>
+        <v>25.145</v>
       </c>
       <c r="E9" t="n">
-        <v>43.9692</v>
+        <v>36.6205</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.5929</v>
+        <v>13.1315</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2004</v>
+        <v>14.1901</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9399</v>
+        <v>29.5112</v>
       </c>
       <c r="E10" t="n">
-        <v>42.3286</v>
+        <v>33.3193</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.391</v>
+        <v>12.1084</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5649</v>
+        <v>16.8576</v>
       </c>
       <c r="D11" t="n">
-        <v>29.7764</v>
+        <v>28.3139</v>
       </c>
       <c r="E11" t="n">
-        <v>38.9781</v>
+        <v>39.1698</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9633</v>
+        <v>13.0359</v>
       </c>
       <c r="C12" t="n">
-        <v>24.187</v>
+        <v>16.9862</v>
       </c>
       <c r="D12" t="n">
-        <v>29.3598</v>
+        <v>29.8124</v>
       </c>
       <c r="E12" t="n">
-        <v>37.8942</v>
+        <v>40.5079</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.0977</v>
+        <v>13.9062</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6667</v>
+        <v>16.5172</v>
       </c>
       <c r="D13" t="n">
-        <v>28.759</v>
+        <v>25.474</v>
       </c>
       <c r="E13" t="n">
-        <v>40.6966</v>
+        <v>32.0794</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6599</v>
+        <v>12.8626</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2742</v>
+        <v>16.4462</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0561</v>
+        <v>28.5185</v>
       </c>
       <c r="E14" t="n">
-        <v>40.2764</v>
+        <v>33.5428</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9028</v>
+        <v>12.7192</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1737</v>
+        <v>17.0331</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9393</v>
+        <v>26.1123</v>
       </c>
       <c r="E15" t="n">
-        <v>37.8584</v>
+        <v>35.9293</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5851</v>
+        <v>13.8763</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5443</v>
+        <v>16.361</v>
       </c>
       <c r="D16" t="n">
-        <v>23.3731</v>
+        <v>27.3598</v>
       </c>
       <c r="E16" t="n">
-        <v>40.151</v>
+        <v>35.9393</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4137</v>
+        <v>13.7019</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2593</v>
+        <v>17.607</v>
       </c>
       <c r="D17" t="n">
-        <v>21.6837</v>
+        <v>29.3477</v>
       </c>
       <c r="E17" t="n">
-        <v>37.5363</v>
+        <v>36.4354</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7609</v>
+        <v>10.9253</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2005</v>
+        <v>13.9603</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1775</v>
+        <v>16.7222</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9285</v>
+        <v>19.623</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9974</v>
+        <v>10.116</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9126</v>
+        <v>13.6672</v>
       </c>
       <c r="D3" t="n">
-        <v>20.2649</v>
+        <v>18.4211</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7093</v>
+        <v>20.0034</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9365</v>
+        <v>10.4202</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8765</v>
+        <v>14.188</v>
       </c>
       <c r="D4" t="n">
-        <v>25.097</v>
+        <v>22.4192</v>
       </c>
       <c r="E4" t="n">
-        <v>30.8299</v>
+        <v>26.8188</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1075</v>
+        <v>11.673</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6307</v>
+        <v>11.6265</v>
       </c>
       <c r="D5" t="n">
-        <v>28.3549</v>
+        <v>22.9238</v>
       </c>
       <c r="E5" t="n">
-        <v>37.7119</v>
+        <v>26.7294</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9497</v>
+        <v>12.6443</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6249</v>
+        <v>12.3292</v>
       </c>
       <c r="D6" t="n">
-        <v>32.6749</v>
+        <v>23.8665</v>
       </c>
       <c r="E6" t="n">
-        <v>40.9541</v>
+        <v>32.1095</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7938</v>
+        <v>13.908</v>
       </c>
       <c r="C7" t="n">
-        <v>22.502</v>
+        <v>15.8176</v>
       </c>
       <c r="D7" t="n">
-        <v>36.8579</v>
+        <v>26.6069</v>
       </c>
       <c r="E7" t="n">
-        <v>44.9</v>
+        <v>40.8215</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3983</v>
+        <v>15.7614</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9646</v>
+        <v>17.9494</v>
       </c>
       <c r="D8" t="n">
-        <v>38.9287</v>
+        <v>30.8573</v>
       </c>
       <c r="E8" t="n">
-        <v>47.7502</v>
+        <v>27.8301</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6683</v>
+        <v>16.2231</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3616</v>
+        <v>15.2794</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0578</v>
+        <v>26.7029</v>
       </c>
       <c r="E9" t="n">
-        <v>52.5146</v>
+        <v>33.755</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9533</v>
+        <v>15.0689</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4573</v>
+        <v>16.5056</v>
       </c>
       <c r="D10" t="n">
-        <v>38.9494</v>
+        <v>28.9022</v>
       </c>
       <c r="E10" t="n">
-        <v>51.6663</v>
+        <v>37.5184</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9249</v>
+        <v>13.1266</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2</v>
+        <v>15.622</v>
       </c>
       <c r="D11" t="n">
-        <v>38.3609</v>
+        <v>28.1267</v>
       </c>
       <c r="E11" t="n">
-        <v>50.2877</v>
+        <v>38.3985</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.2738</v>
+        <v>14.0817</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6302</v>
+        <v>15.8161</v>
       </c>
       <c r="D12" t="n">
-        <v>36.2853</v>
+        <v>28.956</v>
       </c>
       <c r="E12" t="n">
-        <v>52.6821</v>
+        <v>34.5847</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.934</v>
+        <v>14.5322</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2327</v>
+        <v>16.7622</v>
       </c>
       <c r="D13" t="n">
-        <v>39.3576</v>
+        <v>26.3139</v>
       </c>
       <c r="E13" t="n">
-        <v>53.8606</v>
+        <v>41.366</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0085</v>
+        <v>14.1013</v>
       </c>
       <c r="C14" t="n">
-        <v>26.8474</v>
+        <v>18.0973</v>
       </c>
       <c r="D14" t="n">
-        <v>37.7924</v>
+        <v>31.04</v>
       </c>
       <c r="E14" t="n">
-        <v>53.4425</v>
+        <v>42.4134</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8427</v>
+        <v>15.6687</v>
       </c>
       <c r="C15" t="n">
-        <v>27.7852</v>
+        <v>18.6176</v>
       </c>
       <c r="D15" t="n">
-        <v>35.364</v>
+        <v>32.9905</v>
       </c>
       <c r="E15" t="n">
-        <v>52.1327</v>
+        <v>31.3989</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6662</v>
+        <v>14.023</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3215</v>
+        <v>18.0642</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5186</v>
+        <v>30.2464</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0941</v>
+        <v>34.8697</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.5094</v>
+        <v>14.5591</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1176</v>
+        <v>19.4594</v>
       </c>
       <c r="D17" t="n">
-        <v>31.8465</v>
+        <v>26.9528</v>
       </c>
       <c r="E17" t="n">
-        <v>48.5033</v>
+        <v>26.3225</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.84356</v>
+        <v>3.77912</v>
       </c>
       <c r="C2" t="n">
-        <v>10.509</v>
+        <v>10.6886</v>
       </c>
       <c r="D2" t="n">
-        <v>12.0491</v>
+        <v>12.6871</v>
       </c>
       <c r="E2" t="n">
-        <v>16.753</v>
+        <v>17.9817</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.07963</v>
+        <v>6.05623</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2336</v>
+        <v>10.2344</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0097</v>
+        <v>18.8727</v>
       </c>
       <c r="E3" t="n">
-        <v>21.5895</v>
+        <v>26.7893</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.318160000000001</v>
+        <v>8.311769999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5035</v>
+        <v>12.5477</v>
       </c>
       <c r="D4" t="n">
-        <v>19.7342</v>
+        <v>25.5778</v>
       </c>
       <c r="E4" t="n">
-        <v>27.5361</v>
+        <v>37.4916</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4616</v>
+        <v>10.3298</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9795</v>
+        <v>15.0001</v>
       </c>
       <c r="D5" t="n">
-        <v>24.3997</v>
+        <v>32.2226</v>
       </c>
       <c r="E5" t="n">
-        <v>34.2349</v>
+        <v>47.4829</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4557</v>
+        <v>12.4026</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5984</v>
+        <v>17.621</v>
       </c>
       <c r="D6" t="n">
-        <v>27.4552</v>
+        <v>38.385</v>
       </c>
       <c r="E6" t="n">
-        <v>41.4916</v>
+        <v>57.2652</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2156</v>
+        <v>14.2181</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2777</v>
+        <v>20.3136</v>
       </c>
       <c r="D7" t="n">
-        <v>31.0943</v>
+        <v>44.1362</v>
       </c>
       <c r="E7" t="n">
-        <v>46.8078</v>
+        <v>66.7338</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2661</v>
+        <v>16.0998</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3879</v>
+        <v>23.4479</v>
       </c>
       <c r="D8" t="n">
-        <v>34.105</v>
+        <v>49.9859</v>
       </c>
       <c r="E8" t="n">
-        <v>51.7721</v>
+        <v>75.60209999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6461</v>
+        <v>18.4717</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7579</v>
+        <v>26.9962</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6332</v>
+        <v>59.9905</v>
       </c>
       <c r="E9" t="n">
-        <v>56.1207</v>
+        <v>85.1151</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8063</v>
+        <v>17.5028</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0224</v>
+        <v>25.1602</v>
       </c>
       <c r="D10" t="n">
-        <v>32.6512</v>
+        <v>54.9776</v>
       </c>
       <c r="E10" t="n">
-        <v>48.8462</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5063</v>
+        <v>17.5637</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7878</v>
+        <v>24.9946</v>
       </c>
       <c r="D11" t="n">
-        <v>29.3563</v>
+        <v>54.8245</v>
       </c>
       <c r="E11" t="n">
-        <v>45.9566</v>
+        <v>75.6874</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6937</v>
+        <v>17.3329</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8952</v>
+        <v>25.231</v>
       </c>
       <c r="D12" t="n">
-        <v>26.3591</v>
+        <v>54.4776</v>
       </c>
       <c r="E12" t="n">
-        <v>45.8682</v>
+        <v>77.843</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9218</v>
+        <v>17.7812</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2163</v>
+        <v>25.396</v>
       </c>
       <c r="D13" t="n">
-        <v>25.4626</v>
+        <v>55.6681</v>
       </c>
       <c r="E13" t="n">
-        <v>42.2663</v>
+        <v>80.37569999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0268</v>
+        <v>17.2514</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4811</v>
+        <v>25.7145</v>
       </c>
       <c r="D14" t="n">
-        <v>23.8229</v>
+        <v>55.7841</v>
       </c>
       <c r="E14" t="n">
-        <v>41.2798</v>
+        <v>77.0714</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9357</v>
+        <v>17.8231</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9848</v>
+        <v>26.0769</v>
       </c>
       <c r="D15" t="n">
-        <v>23.1521</v>
+        <v>55.1273</v>
       </c>
       <c r="E15" t="n">
-        <v>39.5986</v>
+        <v>77.4024</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8656</v>
+        <v>17.8934</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5585</v>
+        <v>26.6894</v>
       </c>
       <c r="D16" t="n">
-        <v>22.3847</v>
+        <v>56.5985</v>
       </c>
       <c r="E16" t="n">
-        <v>38.3758</v>
+        <v>77.7137</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7977</v>
+        <v>17.8806</v>
       </c>
       <c r="C17" t="n">
-        <v>27.218</v>
+        <v>27.2911</v>
       </c>
       <c r="D17" t="n">
-        <v>20.804</v>
+        <v>55.9263</v>
       </c>
       <c r="E17" t="n">
-        <v>36.7811</v>
+        <v>80.14230000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98906</v>
+        <v>3.92584</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8636</v>
+        <v>10.8298</v>
       </c>
       <c r="D2" t="n">
-        <v>12.121</v>
+        <v>12.7052</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0597</v>
+        <v>18.1649</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11351</v>
+        <v>6.22473</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1564</v>
+        <v>10.5556</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6811</v>
+        <v>19.6706</v>
       </c>
       <c r="E3" t="n">
-        <v>20.7851</v>
+        <v>27.0844</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.466659999999999</v>
+        <v>8.444179999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4959</v>
+        <v>12.5996</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9116</v>
+        <v>25.953</v>
       </c>
       <c r="E4" t="n">
-        <v>29.0101</v>
+        <v>37.5248</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5377</v>
+        <v>10.5076</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9583</v>
+        <v>15.0155</v>
       </c>
       <c r="D5" t="n">
-        <v>23.9686</v>
+        <v>32.5689</v>
       </c>
       <c r="E5" t="n">
-        <v>33.8932</v>
+        <v>47.4539</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5224</v>
+        <v>12.5584</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6081</v>
+        <v>17.6616</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8749</v>
+        <v>38.4672</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0712</v>
+        <v>57.1922</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6008</v>
+        <v>14.4445</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3673</v>
+        <v>20.354</v>
       </c>
       <c r="D7" t="n">
-        <v>30.8548</v>
+        <v>44.9179</v>
       </c>
       <c r="E7" t="n">
-        <v>45.8975</v>
+        <v>67.03959999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4794</v>
+        <v>16.2342</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2971</v>
+        <v>23.3712</v>
       </c>
       <c r="D8" t="n">
-        <v>34.0907</v>
+        <v>50.0947</v>
       </c>
       <c r="E8" t="n">
-        <v>50.5818</v>
+        <v>76.42959999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8867</v>
+        <v>18.9395</v>
       </c>
       <c r="C9" t="n">
-        <v>26.6361</v>
+        <v>26.9706</v>
       </c>
       <c r="D9" t="n">
-        <v>38.4838</v>
+        <v>60.469</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7292</v>
+        <v>84.71080000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7525</v>
+        <v>18.245</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0616</v>
+        <v>24.9006</v>
       </c>
       <c r="D10" t="n">
-        <v>31.7951</v>
+        <v>54.5168</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0891</v>
+        <v>74.4198</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7481</v>
+        <v>17.7441</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7476</v>
+        <v>25.1224</v>
       </c>
       <c r="D11" t="n">
-        <v>29.0253</v>
+        <v>53.7493</v>
       </c>
       <c r="E11" t="n">
-        <v>45.9058</v>
+        <v>74.6512</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8699</v>
+        <v>17.9522</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8059</v>
+        <v>25.0556</v>
       </c>
       <c r="D12" t="n">
-        <v>26.8828</v>
+        <v>55.8048</v>
       </c>
       <c r="E12" t="n">
-        <v>43.3106</v>
+        <v>76.7235</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.2356</v>
+        <v>18.3914</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1154</v>
+        <v>25.4351</v>
       </c>
       <c r="D13" t="n">
-        <v>24.4719</v>
+        <v>57.1907</v>
       </c>
       <c r="E13" t="n">
-        <v>43.1562</v>
+        <v>79.7473</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6541</v>
+        <v>17.4558</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6261</v>
+        <v>25.604</v>
       </c>
       <c r="D14" t="n">
-        <v>22.809</v>
+        <v>55.5759</v>
       </c>
       <c r="E14" t="n">
-        <v>40.634</v>
+        <v>77.1627</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2365</v>
+        <v>18.0893</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9395</v>
+        <v>26.078</v>
       </c>
       <c r="D15" t="n">
-        <v>21.727</v>
+        <v>55.862</v>
       </c>
       <c r="E15" t="n">
-        <v>39.3712</v>
+        <v>76.81310000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1952</v>
+        <v>18.2164</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5135</v>
+        <v>26.7499</v>
       </c>
       <c r="D16" t="n">
-        <v>20.7304</v>
+        <v>56.2707</v>
       </c>
       <c r="E16" t="n">
-        <v>37.4623</v>
+        <v>77.58069999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3739</v>
+        <v>18.525</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0316</v>
+        <v>27.3212</v>
       </c>
       <c r="D17" t="n">
-        <v>19.7033</v>
+        <v>57.2263</v>
       </c>
       <c r="E17" t="n">
-        <v>35.022</v>
+        <v>78.15940000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.221109999999999</v>
+        <v>8.14317</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1917</v>
+        <v>14.1718</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0614</v>
+        <v>17.4272</v>
       </c>
       <c r="E2" t="n">
-        <v>20.7786</v>
+        <v>21.2236</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.444649999999999</v>
+        <v>9.3642</v>
       </c>
       <c r="C3" t="n">
-        <v>11.322</v>
+        <v>11.3645</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0695</v>
+        <v>22.5926</v>
       </c>
       <c r="E3" t="n">
-        <v>25.2684</v>
+        <v>29.021</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1185</v>
+        <v>12.05</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5727</v>
+        <v>13.7407</v>
       </c>
       <c r="D4" t="n">
-        <v>26.1908</v>
+        <v>30.2915</v>
       </c>
       <c r="E4" t="n">
-        <v>34.4998</v>
+        <v>40.3488</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6629</v>
+        <v>14.6139</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0035</v>
+        <v>16.1414</v>
       </c>
       <c r="D5" t="n">
-        <v>30.4509</v>
+        <v>37.3572</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4131</v>
+        <v>50.9836</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2827</v>
+        <v>17.1898</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9127</v>
+        <v>18.9691</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6985</v>
+        <v>44.4968</v>
       </c>
       <c r="E6" t="n">
-        <v>48.5713</v>
+        <v>61.9578</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0168</v>
+        <v>20.0048</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7808</v>
+        <v>21.8538</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0961</v>
+        <v>51.8189</v>
       </c>
       <c r="E7" t="n">
-        <v>55.0499</v>
+        <v>72.465</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7575</v>
+        <v>22.7422</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7362</v>
+        <v>24.909</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1299</v>
+        <v>60.054</v>
       </c>
       <c r="E8" t="n">
-        <v>60.9369</v>
+        <v>82.7572</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6757</v>
+        <v>26.6593</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4615</v>
+        <v>27.5743</v>
       </c>
       <c r="D9" t="n">
-        <v>48.77</v>
+        <v>69.79600000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>66.6165</v>
+        <v>94.0163</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3821</v>
+        <v>25.0695</v>
       </c>
       <c r="C10" t="n">
-        <v>26.1998</v>
+        <v>26.6107</v>
       </c>
       <c r="D10" t="n">
-        <v>42.1396</v>
+        <v>64.8177</v>
       </c>
       <c r="E10" t="n">
-        <v>63.2423</v>
+        <v>82.21429999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0113</v>
+        <v>24.891</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2389</v>
+        <v>26.6964</v>
       </c>
       <c r="D11" t="n">
-        <v>39.9777</v>
+        <v>65.3336</v>
       </c>
       <c r="E11" t="n">
-        <v>62.2261</v>
+        <v>82.0746</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3845</v>
+        <v>25.3297</v>
       </c>
       <c r="C12" t="n">
-        <v>26.5378</v>
+        <v>26.8289</v>
       </c>
       <c r="D12" t="n">
-        <v>36.6677</v>
+        <v>65.69110000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>64.5869</v>
+        <v>86.3147</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5761</v>
+        <v>25.6681</v>
       </c>
       <c r="C13" t="n">
-        <v>27.0504</v>
+        <v>27.2106</v>
       </c>
       <c r="D13" t="n">
-        <v>36.4041</v>
+        <v>66.90389999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>64.121</v>
+        <v>89.01560000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8092</v>
+        <v>24.6933</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4489</v>
+        <v>27.6015</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0433</v>
+        <v>66.9757</v>
       </c>
       <c r="E14" t="n">
-        <v>63.3638</v>
+        <v>86.6862</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6951</v>
+        <v>25.4232</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1307</v>
+        <v>28.2524</v>
       </c>
       <c r="D15" t="n">
-        <v>31.0882</v>
+        <v>67.8032</v>
       </c>
       <c r="E15" t="n">
-        <v>63.3411</v>
+        <v>87.9636</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5884</v>
+        <v>25.4041</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8146</v>
+        <v>29.0061</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1405</v>
+        <v>67.56270000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>63.6271</v>
+        <v>87.8519</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4657</v>
+        <v>25.0072</v>
       </c>
       <c r="C17" t="n">
-        <v>29.763</v>
+        <v>29.8837</v>
       </c>
       <c r="D17" t="n">
-        <v>29.2215</v>
+        <v>68.0697</v>
       </c>
       <c r="E17" t="n">
-        <v>62.0018</v>
+        <v>90.4477</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11286</v>
+        <v>9.46983</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0782</v>
+        <v>13.8886</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6344</v>
+        <v>17.0188</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3339</v>
+        <v>20.4708</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.654159999999999</v>
+        <v>8.95898</v>
       </c>
       <c r="C3" t="n">
-        <v>9.977919999999999</v>
+        <v>10.5086</v>
       </c>
       <c r="D3" t="n">
-        <v>21.2931</v>
+        <v>19.136</v>
       </c>
       <c r="E3" t="n">
-        <v>21.4039</v>
+        <v>24.5981</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.37384</v>
+        <v>10.7684</v>
       </c>
       <c r="C4" t="n">
-        <v>13.2192</v>
+        <v>12.5289</v>
       </c>
       <c r="D4" t="n">
-        <v>21.8561</v>
+        <v>24.4098</v>
       </c>
       <c r="E4" t="n">
-        <v>29.1636</v>
+        <v>32.9955</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7892</v>
+        <v>12.4821</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6961</v>
+        <v>14.9736</v>
       </c>
       <c r="D5" t="n">
-        <v>21.3876</v>
+        <v>29.6149</v>
       </c>
       <c r="E5" t="n">
-        <v>30.8895</v>
+        <v>39.9542</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0813</v>
+        <v>14.5085</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1768</v>
+        <v>17.5501</v>
       </c>
       <c r="D6" t="n">
-        <v>23.8562</v>
+        <v>34.6546</v>
       </c>
       <c r="E6" t="n">
-        <v>30.7462</v>
+        <v>46.7211</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.0163</v>
+        <v>16.8028</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5954</v>
+        <v>20.3192</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7989</v>
+        <v>39.6823</v>
       </c>
       <c r="E7" t="n">
-        <v>36.224</v>
+        <v>52.4187</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5152</v>
+        <v>18.2547</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6063</v>
+        <v>22.7099</v>
       </c>
       <c r="D8" t="n">
-        <v>29.5245</v>
+        <v>42.3015</v>
       </c>
       <c r="E8" t="n">
-        <v>33.3358</v>
+        <v>57.4529</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.002</v>
+        <v>21.5237</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0646</v>
+        <v>25.1412</v>
       </c>
       <c r="D9" t="n">
-        <v>29.964</v>
+        <v>49.0444</v>
       </c>
       <c r="E9" t="n">
-        <v>37.4414</v>
+        <v>64.19459999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.7436</v>
+        <v>18.618</v>
       </c>
       <c r="C10" t="n">
-        <v>16.9289</v>
+        <v>24.33</v>
       </c>
       <c r="D10" t="n">
-        <v>29.4752</v>
+        <v>45.5744</v>
       </c>
       <c r="E10" t="n">
-        <v>38.9743</v>
+        <v>58.8985</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0936</v>
+        <v>18.3822</v>
       </c>
       <c r="C11" t="n">
-        <v>17.5545</v>
+        <v>23.1639</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4775</v>
+        <v>47.4637</v>
       </c>
       <c r="E11" t="n">
-        <v>33.5103</v>
+        <v>60.7143</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.0981</v>
+        <v>18.8846</v>
       </c>
       <c r="C12" t="n">
-        <v>17.3449</v>
+        <v>24.1299</v>
       </c>
       <c r="D12" t="n">
-        <v>27.7713</v>
+        <v>47.0158</v>
       </c>
       <c r="E12" t="n">
-        <v>33.5669</v>
+        <v>62.9089</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.0715</v>
+        <v>19.7609</v>
       </c>
       <c r="C13" t="n">
-        <v>17.7318</v>
+        <v>24.9688</v>
       </c>
       <c r="D13" t="n">
-        <v>29.0872</v>
+        <v>49.0548</v>
       </c>
       <c r="E13" t="n">
-        <v>44.1044</v>
+        <v>66.1301</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.8922</v>
+        <v>19.1533</v>
       </c>
       <c r="C14" t="n">
-        <v>17.564</v>
+        <v>25.3402</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3881</v>
+        <v>50.6914</v>
       </c>
       <c r="E14" t="n">
-        <v>35.7436</v>
+        <v>65.7047</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4968</v>
+        <v>18.6471</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3382</v>
+        <v>26.1154</v>
       </c>
       <c r="D15" t="n">
-        <v>30.792</v>
+        <v>49.3108</v>
       </c>
       <c r="E15" t="n">
-        <v>38.6202</v>
+        <v>64.6241</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5279</v>
+        <v>19.4416</v>
       </c>
       <c r="C16" t="n">
-        <v>18.6431</v>
+        <v>26.8722</v>
       </c>
       <c r="D16" t="n">
-        <v>30.5485</v>
+        <v>49.9577</v>
       </c>
       <c r="E16" t="n">
-        <v>43.6625</v>
+        <v>65.9141</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.7809</v>
+        <v>18.9302</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6678</v>
+        <v>27.3515</v>
       </c>
       <c r="D17" t="n">
-        <v>28.2392</v>
+        <v>51.368</v>
       </c>
       <c r="E17" t="n">
-        <v>36.2443</v>
+        <v>67.9894</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.731400000000001</v>
+        <v>10.0601</v>
       </c>
       <c r="C2" t="n">
-        <v>13.125</v>
+        <v>13.7387</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4406</v>
+        <v>16.8919</v>
       </c>
       <c r="E2" t="n">
-        <v>17.2016</v>
+        <v>20.3295</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.861879999999999</v>
+        <v>9.4124</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4611</v>
+        <v>10.6008</v>
       </c>
       <c r="D3" t="n">
-        <v>16.7015</v>
+        <v>19.5673</v>
       </c>
       <c r="E3" t="n">
-        <v>21.3711</v>
+        <v>24.7504</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.359450000000001</v>
+        <v>11.073</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7704</v>
+        <v>12.3184</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3467</v>
+        <v>24.0777</v>
       </c>
       <c r="E4" t="n">
-        <v>27.1985</v>
+        <v>32.1138</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3746</v>
+        <v>13.0325</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0304</v>
+        <v>14.7188</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4532</v>
+        <v>29.1605</v>
       </c>
       <c r="E5" t="n">
-        <v>30.8327</v>
+        <v>39.5671</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3475</v>
+        <v>15.2157</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7719</v>
+        <v>17.4859</v>
       </c>
       <c r="D6" t="n">
-        <v>27.6479</v>
+        <v>34.8024</v>
       </c>
       <c r="E6" t="n">
-        <v>33.8043</v>
+        <v>45.2855</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5852</v>
+        <v>17.2884</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6532</v>
+        <v>20.0794</v>
       </c>
       <c r="D7" t="n">
-        <v>22.8801</v>
+        <v>40.331</v>
       </c>
       <c r="E7" t="n">
-        <v>28.1299</v>
+        <v>51.4357</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1805</v>
+        <v>18.9618</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3208</v>
+        <v>22.4164</v>
       </c>
       <c r="D8" t="n">
-        <v>22.7772</v>
+        <v>43.5194</v>
       </c>
       <c r="E8" t="n">
-        <v>32.9359</v>
+        <v>54.7704</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.8131</v>
+        <v>22.4804</v>
       </c>
       <c r="C9" t="n">
-        <v>13.3714</v>
+        <v>24.6762</v>
       </c>
       <c r="D9" t="n">
-        <v>25.145</v>
+        <v>47.7214</v>
       </c>
       <c r="E9" t="n">
-        <v>36.6205</v>
+        <v>61.6381</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.1315</v>
+        <v>19.3588</v>
       </c>
       <c r="C10" t="n">
-        <v>14.1901</v>
+        <v>24.3618</v>
       </c>
       <c r="D10" t="n">
-        <v>29.5112</v>
+        <v>46.0035</v>
       </c>
       <c r="E10" t="n">
-        <v>33.3193</v>
+        <v>56.6417</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1084</v>
+        <v>19.0317</v>
       </c>
       <c r="C11" t="n">
-        <v>16.8576</v>
+        <v>23.7485</v>
       </c>
       <c r="D11" t="n">
-        <v>28.3139</v>
+        <v>46.1368</v>
       </c>
       <c r="E11" t="n">
-        <v>39.1698</v>
+        <v>60.6224</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.0359</v>
+        <v>19.6997</v>
       </c>
       <c r="C12" t="n">
-        <v>16.9862</v>
+        <v>23.9976</v>
       </c>
       <c r="D12" t="n">
-        <v>29.8124</v>
+        <v>49.0398</v>
       </c>
       <c r="E12" t="n">
-        <v>40.5079</v>
+        <v>63.4069</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.9062</v>
+        <v>20.3176</v>
       </c>
       <c r="C13" t="n">
-        <v>16.5172</v>
+        <v>24.833</v>
       </c>
       <c r="D13" t="n">
-        <v>25.474</v>
+        <v>49.7026</v>
       </c>
       <c r="E13" t="n">
-        <v>32.0794</v>
+        <v>67.67019999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.8626</v>
+        <v>19.7171</v>
       </c>
       <c r="C14" t="n">
-        <v>16.4462</v>
+        <v>25.5117</v>
       </c>
       <c r="D14" t="n">
-        <v>28.5185</v>
+        <v>46.9579</v>
       </c>
       <c r="E14" t="n">
-        <v>33.5428</v>
+        <v>61.9831</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.7192</v>
+        <v>19.7253</v>
       </c>
       <c r="C15" t="n">
-        <v>17.0331</v>
+        <v>26.2217</v>
       </c>
       <c r="D15" t="n">
-        <v>26.1123</v>
+        <v>47.1774</v>
       </c>
       <c r="E15" t="n">
-        <v>35.9293</v>
+        <v>68.1998</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.8763</v>
+        <v>20.0929</v>
       </c>
       <c r="C16" t="n">
-        <v>16.361</v>
+        <v>26.9557</v>
       </c>
       <c r="D16" t="n">
-        <v>27.3598</v>
+        <v>49.9683</v>
       </c>
       <c r="E16" t="n">
-        <v>35.9393</v>
+        <v>67.413</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.7019</v>
+        <v>19.1213</v>
       </c>
       <c r="C17" t="n">
-        <v>17.607</v>
+        <v>27.1564</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3477</v>
+        <v>49.8595</v>
       </c>
       <c r="E17" t="n">
-        <v>36.4354</v>
+        <v>65.9783</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9253</v>
+        <v>12.5799</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9603</v>
+        <v>15.2171</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7222</v>
+        <v>18.6914</v>
       </c>
       <c r="E2" t="n">
-        <v>19.623</v>
+        <v>21.4684</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.116</v>
+        <v>10.6938</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6672</v>
+        <v>11.64</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4211</v>
+        <v>21.6895</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0034</v>
+        <v>27.5473</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4202</v>
+        <v>12.7799</v>
       </c>
       <c r="C4" t="n">
-        <v>14.188</v>
+        <v>13.7883</v>
       </c>
       <c r="D4" t="n">
-        <v>22.4192</v>
+        <v>28.0437</v>
       </c>
       <c r="E4" t="n">
-        <v>26.8188</v>
+        <v>36.2921</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.673</v>
+        <v>15.2564</v>
       </c>
       <c r="C5" t="n">
-        <v>11.6265</v>
+        <v>16.6304</v>
       </c>
       <c r="D5" t="n">
-        <v>22.9238</v>
+        <v>33.3358</v>
       </c>
       <c r="E5" t="n">
-        <v>26.7294</v>
+        <v>44.8623</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6443</v>
+        <v>17.9808</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3292</v>
+        <v>19.6534</v>
       </c>
       <c r="D6" t="n">
-        <v>23.8665</v>
+        <v>39.6438</v>
       </c>
       <c r="E6" t="n">
-        <v>32.1095</v>
+        <v>51.7902</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.908</v>
+        <v>20.881</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8176</v>
+        <v>22.6293</v>
       </c>
       <c r="D7" t="n">
-        <v>26.6069</v>
+        <v>45.7626</v>
       </c>
       <c r="E7" t="n">
-        <v>40.8215</v>
+        <v>57.7727</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7614</v>
+        <v>23.3798</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9494</v>
+        <v>24.8747</v>
       </c>
       <c r="D8" t="n">
-        <v>30.8573</v>
+        <v>49.1965</v>
       </c>
       <c r="E8" t="n">
-        <v>27.8301</v>
+        <v>64.96259999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.2231</v>
+        <v>26.6967</v>
       </c>
       <c r="C9" t="n">
-        <v>15.2794</v>
+        <v>27.1763</v>
       </c>
       <c r="D9" t="n">
-        <v>26.7029</v>
+        <v>55.2404</v>
       </c>
       <c r="E9" t="n">
-        <v>33.755</v>
+        <v>66.2034</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.0689</v>
+        <v>25.071</v>
       </c>
       <c r="C10" t="n">
-        <v>16.5056</v>
+        <v>26.5756</v>
       </c>
       <c r="D10" t="n">
-        <v>28.9022</v>
+        <v>52.4329</v>
       </c>
       <c r="E10" t="n">
-        <v>37.5184</v>
+        <v>67.7647</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.1266</v>
+        <v>23.8014</v>
       </c>
       <c r="C11" t="n">
-        <v>15.622</v>
+        <v>25.3396</v>
       </c>
       <c r="D11" t="n">
-        <v>28.1267</v>
+        <v>52.8178</v>
       </c>
       <c r="E11" t="n">
-        <v>38.3985</v>
+        <v>67.1699</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0817</v>
+        <v>24.4431</v>
       </c>
       <c r="C12" t="n">
-        <v>15.8161</v>
+        <v>25.7836</v>
       </c>
       <c r="D12" t="n">
-        <v>28.956</v>
+        <v>54.2816</v>
       </c>
       <c r="E12" t="n">
-        <v>34.5847</v>
+        <v>70.5917</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5322</v>
+        <v>25.4917</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7622</v>
+        <v>26.0821</v>
       </c>
       <c r="D13" t="n">
-        <v>26.3139</v>
+        <v>55.5228</v>
       </c>
       <c r="E13" t="n">
-        <v>41.366</v>
+        <v>67.6315</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.1013</v>
+        <v>24.2355</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0973</v>
+        <v>26.9455</v>
       </c>
       <c r="D14" t="n">
-        <v>31.04</v>
+        <v>53.812</v>
       </c>
       <c r="E14" t="n">
-        <v>42.4134</v>
+        <v>68.3746</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6687</v>
+        <v>24.0497</v>
       </c>
       <c r="C15" t="n">
-        <v>18.6176</v>
+        <v>27.714</v>
       </c>
       <c r="D15" t="n">
-        <v>32.9905</v>
+        <v>55.2709</v>
       </c>
       <c r="E15" t="n">
-        <v>31.3989</v>
+        <v>67.8189</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.023</v>
+        <v>23.7617</v>
       </c>
       <c r="C16" t="n">
-        <v>18.0642</v>
+        <v>28.4191</v>
       </c>
       <c r="D16" t="n">
-        <v>30.2464</v>
+        <v>57.2826</v>
       </c>
       <c r="E16" t="n">
-        <v>34.8697</v>
+        <v>69.078</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5591</v>
+        <v>23.2951</v>
       </c>
       <c r="C17" t="n">
-        <v>19.4594</v>
+        <v>29.2348</v>
       </c>
       <c r="D17" t="n">
-        <v>26.9528</v>
+        <v>55.8746</v>
       </c>
       <c r="E17" t="n">
-        <v>26.3225</v>
+        <v>71.6036</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.77912</v>
+        <v>3.83813</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6886</v>
+        <v>10.7041</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6871</v>
+        <v>12.7009</v>
       </c>
       <c r="E2" t="n">
-        <v>17.9817</v>
+        <v>17.9819</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05623</v>
+        <v>6.09793</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2344</v>
+        <v>10.2556</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8727</v>
+        <v>18.8642</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7893</v>
+        <v>26.9486</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.311769999999999</v>
+        <v>8.335089999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5477</v>
+        <v>12.4972</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5778</v>
+        <v>25.7185</v>
       </c>
       <c r="E4" t="n">
-        <v>37.4916</v>
+        <v>37.6026</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3298</v>
+        <v>10.3878</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0001</v>
+        <v>14.9392</v>
       </c>
       <c r="D5" t="n">
-        <v>32.2226</v>
+        <v>32.5071</v>
       </c>
       <c r="E5" t="n">
-        <v>47.4829</v>
+        <v>48.0321</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4026</v>
+        <v>12.3766</v>
       </c>
       <c r="C6" t="n">
-        <v>17.621</v>
+        <v>17.6045</v>
       </c>
       <c r="D6" t="n">
-        <v>38.385</v>
+        <v>38.5527</v>
       </c>
       <c r="E6" t="n">
-        <v>57.2652</v>
+        <v>58.1283</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2181</v>
+        <v>14.1645</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3136</v>
+        <v>20.2497</v>
       </c>
       <c r="D7" t="n">
-        <v>44.1362</v>
+        <v>44.0771</v>
       </c>
       <c r="E7" t="n">
-        <v>66.7338</v>
+        <v>67.5354</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0998</v>
+        <v>16.2182</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4479</v>
+        <v>23.389</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9859</v>
+        <v>50.5852</v>
       </c>
       <c r="E8" t="n">
-        <v>75.60209999999999</v>
+        <v>76.6918</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4717</v>
+        <v>18.6478</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9962</v>
+        <v>26.928</v>
       </c>
       <c r="D9" t="n">
-        <v>59.9905</v>
+        <v>60.009</v>
       </c>
       <c r="E9" t="n">
-        <v>85.1151</v>
+        <v>86.3019</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5028</v>
+        <v>17.4644</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1602</v>
+        <v>25.1874</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9776</v>
+        <v>53.7405</v>
       </c>
       <c r="E10" t="n">
-        <v>76.38</v>
+        <v>77.75449999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5637</v>
+        <v>17.3968</v>
       </c>
       <c r="C11" t="n">
-        <v>24.9946</v>
+        <v>24.975</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8245</v>
+        <v>53.9649</v>
       </c>
       <c r="E11" t="n">
-        <v>75.6874</v>
+        <v>77.24939999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3329</v>
+        <v>17.6922</v>
       </c>
       <c r="C12" t="n">
-        <v>25.231</v>
+        <v>24.9443</v>
       </c>
       <c r="D12" t="n">
-        <v>54.4776</v>
+        <v>54.8951</v>
       </c>
       <c r="E12" t="n">
-        <v>77.843</v>
+        <v>78.2863</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7812</v>
+        <v>17.8906</v>
       </c>
       <c r="C13" t="n">
-        <v>25.396</v>
+        <v>25.4514</v>
       </c>
       <c r="D13" t="n">
-        <v>55.6681</v>
+        <v>55.8814</v>
       </c>
       <c r="E13" t="n">
-        <v>80.37569999999999</v>
+        <v>79.68940000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2514</v>
+        <v>17.2354</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7145</v>
+        <v>25.6596</v>
       </c>
       <c r="D14" t="n">
-        <v>55.7841</v>
+        <v>55.4331</v>
       </c>
       <c r="E14" t="n">
-        <v>77.0714</v>
+        <v>78.1332</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8231</v>
+        <v>17.7591</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0769</v>
+        <v>26.074</v>
       </c>
       <c r="D15" t="n">
-        <v>55.1273</v>
+        <v>55.7096</v>
       </c>
       <c r="E15" t="n">
-        <v>77.4024</v>
+        <v>77.8458</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8934</v>
+        <v>17.7278</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6894</v>
+        <v>26.6879</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5985</v>
+        <v>56.8174</v>
       </c>
       <c r="E16" t="n">
-        <v>77.7137</v>
+        <v>77.95099999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8806</v>
+        <v>17.626</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2911</v>
+        <v>27.3671</v>
       </c>
       <c r="D17" t="n">
-        <v>55.9263</v>
+        <v>55.6658</v>
       </c>
       <c r="E17" t="n">
-        <v>80.14230000000001</v>
+        <v>76.9547</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92584</v>
+        <v>3.94273</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8298</v>
+        <v>10.8296</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7052</v>
+        <v>12.6837</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1649</v>
+        <v>18.2052</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22473</v>
+        <v>6.23226</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5556</v>
+        <v>10.5012</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6706</v>
+        <v>19.525</v>
       </c>
       <c r="E3" t="n">
-        <v>27.0844</v>
+        <v>27.0897</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.444179999999999</v>
+        <v>8.46012</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5996</v>
+        <v>12.568</v>
       </c>
       <c r="D4" t="n">
-        <v>25.953</v>
+        <v>25.7921</v>
       </c>
       <c r="E4" t="n">
-        <v>37.5248</v>
+        <v>37.6192</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5076</v>
+        <v>10.5344</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0155</v>
+        <v>15.0121</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5689</v>
+        <v>32.8072</v>
       </c>
       <c r="E5" t="n">
-        <v>47.4539</v>
+        <v>47.7483</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5584</v>
+        <v>12.6727</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6616</v>
+        <v>17.6102</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4672</v>
+        <v>39.07</v>
       </c>
       <c r="E6" t="n">
-        <v>57.1922</v>
+        <v>57.8851</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4445</v>
+        <v>14.4204</v>
       </c>
       <c r="C7" t="n">
-        <v>20.354</v>
+        <v>20.3346</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9179</v>
+        <v>44.9255</v>
       </c>
       <c r="E7" t="n">
-        <v>67.03959999999999</v>
+        <v>67.8706</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2342</v>
+        <v>16.2955</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3712</v>
+        <v>23.3774</v>
       </c>
       <c r="D8" t="n">
-        <v>50.0947</v>
+        <v>50.3126</v>
       </c>
       <c r="E8" t="n">
-        <v>76.42959999999999</v>
+        <v>77.1559</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9395</v>
+        <v>18.8223</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9706</v>
+        <v>27.0025</v>
       </c>
       <c r="D9" t="n">
-        <v>60.469</v>
+        <v>59.9772</v>
       </c>
       <c r="E9" t="n">
-        <v>84.71080000000001</v>
+        <v>86.3472</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.245</v>
+        <v>17.5516</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9006</v>
+        <v>24.7578</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5168</v>
+        <v>55.2982</v>
       </c>
       <c r="E10" t="n">
-        <v>74.4198</v>
+        <v>76.54819999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7441</v>
+        <v>17.8401</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1224</v>
+        <v>24.7554</v>
       </c>
       <c r="D11" t="n">
-        <v>53.7493</v>
+        <v>54.2614</v>
       </c>
       <c r="E11" t="n">
-        <v>74.6512</v>
+        <v>75.7484</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9522</v>
+        <v>17.802</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0556</v>
+        <v>25.0861</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8048</v>
+        <v>55.0896</v>
       </c>
       <c r="E12" t="n">
-        <v>76.7235</v>
+        <v>77.17400000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3914</v>
+        <v>18.2732</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4351</v>
+        <v>25.2492</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1907</v>
+        <v>56.1834</v>
       </c>
       <c r="E13" t="n">
-        <v>79.7473</v>
+        <v>79.7381</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4558</v>
+        <v>17.5996</v>
       </c>
       <c r="C14" t="n">
-        <v>25.604</v>
+        <v>25.6341</v>
       </c>
       <c r="D14" t="n">
-        <v>55.5759</v>
+        <v>55.9422</v>
       </c>
       <c r="E14" t="n">
-        <v>77.1627</v>
+        <v>77.03879999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0893</v>
+        <v>18.3001</v>
       </c>
       <c r="C15" t="n">
-        <v>26.078</v>
+        <v>26.1356</v>
       </c>
       <c r="D15" t="n">
-        <v>55.862</v>
+        <v>56.4264</v>
       </c>
       <c r="E15" t="n">
-        <v>76.81310000000001</v>
+        <v>78.93819999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2164</v>
+        <v>18.1261</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7499</v>
+        <v>26.6744</v>
       </c>
       <c r="D16" t="n">
-        <v>56.2707</v>
+        <v>56.3386</v>
       </c>
       <c r="E16" t="n">
-        <v>77.58069999999999</v>
+        <v>78.4747</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.525</v>
+        <v>18.2966</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3212</v>
+        <v>27.246</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2263</v>
+        <v>55.8692</v>
       </c>
       <c r="E17" t="n">
-        <v>78.15940000000001</v>
+        <v>77.38339999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.14317</v>
+        <v>8.10144</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1718</v>
+        <v>14.2312</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4272</v>
+        <v>17.4253</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2236</v>
+        <v>21.2185</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.3642</v>
+        <v>9.76713</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3645</v>
+        <v>11.6871</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5926</v>
+        <v>23.1659</v>
       </c>
       <c r="E3" t="n">
-        <v>29.021</v>
+        <v>29.5336</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.05</v>
+        <v>12.1468</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7407</v>
+        <v>13.6352</v>
       </c>
       <c r="D4" t="n">
-        <v>30.2915</v>
+        <v>30.5097</v>
       </c>
       <c r="E4" t="n">
-        <v>40.3488</v>
+        <v>40.674</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6139</v>
+        <v>14.7618</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1414</v>
+        <v>16.059</v>
       </c>
       <c r="D5" t="n">
-        <v>37.3572</v>
+        <v>37.2123</v>
       </c>
       <c r="E5" t="n">
-        <v>50.9836</v>
+        <v>51.5034</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1898</v>
+        <v>17.2448</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9691</v>
+        <v>18.9565</v>
       </c>
       <c r="D6" t="n">
-        <v>44.4968</v>
+        <v>44.2652</v>
       </c>
       <c r="E6" t="n">
-        <v>61.9578</v>
+        <v>62.6641</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0048</v>
+        <v>19.9918</v>
       </c>
       <c r="C7" t="n">
-        <v>21.8538</v>
+        <v>21.7338</v>
       </c>
       <c r="D7" t="n">
-        <v>51.8189</v>
+        <v>52.2204</v>
       </c>
       <c r="E7" t="n">
-        <v>72.465</v>
+        <v>73.45650000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7422</v>
+        <v>22.9247</v>
       </c>
       <c r="C8" t="n">
-        <v>24.909</v>
+        <v>24.8104</v>
       </c>
       <c r="D8" t="n">
-        <v>60.054</v>
+        <v>59.8573</v>
       </c>
       <c r="E8" t="n">
-        <v>82.7572</v>
+        <v>84.16840000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6593</v>
+        <v>26.7809</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5743</v>
+        <v>27.6589</v>
       </c>
       <c r="D9" t="n">
-        <v>69.79600000000001</v>
+        <v>70.4118</v>
       </c>
       <c r="E9" t="n">
-        <v>94.0163</v>
+        <v>94.79810000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0695</v>
+        <v>25.1508</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6107</v>
+        <v>26.2102</v>
       </c>
       <c r="D10" t="n">
-        <v>64.8177</v>
+        <v>65.3006</v>
       </c>
       <c r="E10" t="n">
-        <v>82.21429999999999</v>
+        <v>84.95780000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.891</v>
+        <v>25.0487</v>
       </c>
       <c r="C11" t="n">
-        <v>26.6964</v>
+        <v>26.3615</v>
       </c>
       <c r="D11" t="n">
-        <v>65.3336</v>
+        <v>64.2538</v>
       </c>
       <c r="E11" t="n">
-        <v>82.0746</v>
+        <v>84.4739</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3297</v>
+        <v>25.2201</v>
       </c>
       <c r="C12" t="n">
-        <v>26.8289</v>
+        <v>26.783</v>
       </c>
       <c r="D12" t="n">
-        <v>65.69110000000001</v>
+        <v>65.2726</v>
       </c>
       <c r="E12" t="n">
-        <v>86.3147</v>
+        <v>86.0928</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6681</v>
+        <v>25.4692</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2106</v>
+        <v>27.1491</v>
       </c>
       <c r="D13" t="n">
-        <v>66.90389999999999</v>
+        <v>66.8438</v>
       </c>
       <c r="E13" t="n">
-        <v>89.01560000000001</v>
+        <v>87.5568</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.6933</v>
+        <v>24.7578</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6015</v>
+        <v>27.6781</v>
       </c>
       <c r="D14" t="n">
-        <v>66.9757</v>
+        <v>66.1653</v>
       </c>
       <c r="E14" t="n">
-        <v>86.6862</v>
+        <v>87.85299999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4232</v>
+        <v>25.5245</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2524</v>
+        <v>28.2468</v>
       </c>
       <c r="D15" t="n">
-        <v>67.8032</v>
+        <v>67.17440000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>87.9636</v>
+        <v>90.1671</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4041</v>
+        <v>25.2947</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0061</v>
+        <v>29.0246</v>
       </c>
       <c r="D16" t="n">
-        <v>67.56270000000001</v>
+        <v>66.85599999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>87.8519</v>
+        <v>87.84610000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.0072</v>
+        <v>25.5902</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8837</v>
+        <v>29.8635</v>
       </c>
       <c r="D17" t="n">
-        <v>68.0697</v>
+        <v>66.66030000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>90.4477</v>
+        <v>90.67610000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.46983</v>
+        <v>9.370369999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8886</v>
+        <v>13.3887</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0188</v>
+        <v>17.2385</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4708</v>
+        <v>20.5172</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.95898</v>
+        <v>8.97932</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5086</v>
+        <v>10.8575</v>
       </c>
       <c r="D3" t="n">
-        <v>19.136</v>
+        <v>19.5899</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5981</v>
+        <v>24.2699</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7684</v>
+        <v>10.8035</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5289</v>
+        <v>13.14</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4098</v>
+        <v>25.7121</v>
       </c>
       <c r="E4" t="n">
-        <v>32.9955</v>
+        <v>31.2252</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4821</v>
+        <v>13.7035</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9736</v>
+        <v>15.9468</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6149</v>
+        <v>32.5387</v>
       </c>
       <c r="E5" t="n">
-        <v>39.9542</v>
+        <v>38.9941</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5085</v>
+        <v>15.5217</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5501</v>
+        <v>18.7814</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6546</v>
+        <v>35.1709</v>
       </c>
       <c r="E6" t="n">
-        <v>46.7211</v>
+        <v>45.4651</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8028</v>
+        <v>15.728</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3192</v>
+        <v>19.2049</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6823</v>
+        <v>40.7106</v>
       </c>
       <c r="E7" t="n">
-        <v>52.4187</v>
+        <v>48.1471</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2547</v>
+        <v>15.7308</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7099</v>
+        <v>19.4457</v>
       </c>
       <c r="D8" t="n">
-        <v>42.3015</v>
+        <v>41.1715</v>
       </c>
       <c r="E8" t="n">
-        <v>57.4529</v>
+        <v>47.1112</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5237</v>
+        <v>15.8097</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1412</v>
+        <v>19.9925</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0444</v>
+        <v>40.308</v>
       </c>
       <c r="E9" t="n">
-        <v>64.19459999999999</v>
+        <v>49.4771</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.618</v>
+        <v>16.217</v>
       </c>
       <c r="C10" t="n">
-        <v>24.33</v>
+        <v>20.1461</v>
       </c>
       <c r="D10" t="n">
-        <v>45.5744</v>
+        <v>41.7502</v>
       </c>
       <c r="E10" t="n">
-        <v>58.8985</v>
+        <v>50.4655</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3822</v>
+        <v>15.8343</v>
       </c>
       <c r="C11" t="n">
-        <v>23.1639</v>
+        <v>20.2972</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4637</v>
+        <v>40.1026</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7143</v>
+        <v>53.8645</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8846</v>
+        <v>16.2774</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1299</v>
+        <v>20.9594</v>
       </c>
       <c r="D12" t="n">
-        <v>47.0158</v>
+        <v>37.8529</v>
       </c>
       <c r="E12" t="n">
-        <v>62.9089</v>
+        <v>54.1602</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7609</v>
+        <v>16.6734</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9688</v>
+        <v>21.3897</v>
       </c>
       <c r="D13" t="n">
-        <v>49.0548</v>
+        <v>38.7124</v>
       </c>
       <c r="E13" t="n">
-        <v>66.1301</v>
+        <v>47.6266</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1533</v>
+        <v>16.7538</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3402</v>
+        <v>21.911</v>
       </c>
       <c r="D14" t="n">
-        <v>50.6914</v>
+        <v>40.6217</v>
       </c>
       <c r="E14" t="n">
-        <v>65.7047</v>
+        <v>50.1991</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6471</v>
+        <v>16.2978</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1154</v>
+        <v>22.267</v>
       </c>
       <c r="D15" t="n">
-        <v>49.3108</v>
+        <v>36.1999</v>
       </c>
       <c r="E15" t="n">
-        <v>64.6241</v>
+        <v>47.7223</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4416</v>
+        <v>15.9607</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8722</v>
+        <v>23.3601</v>
       </c>
       <c r="D16" t="n">
-        <v>49.9577</v>
+        <v>38.5439</v>
       </c>
       <c r="E16" t="n">
-        <v>65.9141</v>
+        <v>43.1882</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.9302</v>
+        <v>16.2097</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3515</v>
+        <v>23.563</v>
       </c>
       <c r="D17" t="n">
-        <v>51.368</v>
+        <v>37.8999</v>
       </c>
       <c r="E17" t="n">
-        <v>67.9894</v>
+        <v>47.0109</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0601</v>
+        <v>10.187</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7387</v>
+        <v>13.805</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8919</v>
+        <v>17.1782</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3295</v>
+        <v>20.4265</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.4124</v>
+        <v>9.74968</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6008</v>
+        <v>10.3967</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5673</v>
+        <v>19.0239</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7504</v>
+        <v>23.5532</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.073</v>
+        <v>13.0187</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3184</v>
+        <v>15.3078</v>
       </c>
       <c r="D4" t="n">
-        <v>24.0777</v>
+        <v>25.9129</v>
       </c>
       <c r="E4" t="n">
-        <v>32.1138</v>
+        <v>32.6737</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0325</v>
+        <v>17.365</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7188</v>
+        <v>17.9195</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1605</v>
+        <v>33.5475</v>
       </c>
       <c r="E5" t="n">
-        <v>39.5671</v>
+        <v>39.6364</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2157</v>
+        <v>14.9088</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4859</v>
+        <v>18.229</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8024</v>
+        <v>34.6864</v>
       </c>
       <c r="E6" t="n">
-        <v>45.2855</v>
+        <v>44.7466</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2884</v>
+        <v>15.8996</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0794</v>
+        <v>19.431</v>
       </c>
       <c r="D7" t="n">
-        <v>40.331</v>
+        <v>40.7643</v>
       </c>
       <c r="E7" t="n">
-        <v>51.4357</v>
+        <v>48.8056</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9618</v>
+        <v>16.1141</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4164</v>
+        <v>19.7348</v>
       </c>
       <c r="D8" t="n">
-        <v>43.5194</v>
+        <v>39.6703</v>
       </c>
       <c r="E8" t="n">
-        <v>54.7704</v>
+        <v>46.8306</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4804</v>
+        <v>16.3117</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6762</v>
+        <v>19.8609</v>
       </c>
       <c r="D9" t="n">
-        <v>47.7214</v>
+        <v>39.5631</v>
       </c>
       <c r="E9" t="n">
-        <v>61.6381</v>
+        <v>49.3391</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3588</v>
+        <v>16.6009</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3618</v>
+        <v>20.1188</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0035</v>
+        <v>39.954</v>
       </c>
       <c r="E10" t="n">
-        <v>56.6417</v>
+        <v>50.195</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0317</v>
+        <v>15.0865</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7485</v>
+        <v>18.8534</v>
       </c>
       <c r="D11" t="n">
-        <v>46.1368</v>
+        <v>40.2633</v>
       </c>
       <c r="E11" t="n">
-        <v>60.6224</v>
+        <v>44.2607</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6997</v>
+        <v>15.113</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9976</v>
+        <v>21.1078</v>
       </c>
       <c r="D12" t="n">
-        <v>49.0398</v>
+        <v>33.0704</v>
       </c>
       <c r="E12" t="n">
-        <v>63.4069</v>
+        <v>40.9973</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3176</v>
+        <v>16.3465</v>
       </c>
       <c r="C13" t="n">
-        <v>24.833</v>
+        <v>20.2444</v>
       </c>
       <c r="D13" t="n">
-        <v>49.7026</v>
+        <v>33.113</v>
       </c>
       <c r="E13" t="n">
-        <v>67.67019999999999</v>
+        <v>44.3986</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7171</v>
+        <v>15.5811</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5117</v>
+        <v>20.034</v>
       </c>
       <c r="D14" t="n">
-        <v>46.9579</v>
+        <v>35.9543</v>
       </c>
       <c r="E14" t="n">
-        <v>61.9831</v>
+        <v>56.2992</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7253</v>
+        <v>15.3187</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2217</v>
+        <v>20.9041</v>
       </c>
       <c r="D15" t="n">
-        <v>47.1774</v>
+        <v>44.3955</v>
       </c>
       <c r="E15" t="n">
-        <v>68.1998</v>
+        <v>42.7731</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0929</v>
+        <v>15.554</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9557</v>
+        <v>22.4737</v>
       </c>
       <c r="D16" t="n">
-        <v>49.9683</v>
+        <v>28.1166</v>
       </c>
       <c r="E16" t="n">
-        <v>67.413</v>
+        <v>36.9984</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.1213</v>
+        <v>15.7381</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1564</v>
+        <v>21.1063</v>
       </c>
       <c r="D17" t="n">
-        <v>49.8595</v>
+        <v>29.5096</v>
       </c>
       <c r="E17" t="n">
-        <v>65.9783</v>
+        <v>35.6417</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5799</v>
+        <v>12.7645</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2171</v>
+        <v>15.2381</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6914</v>
+        <v>19.1472</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4684</v>
+        <v>21.7303</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.6938</v>
+        <v>13.788</v>
       </c>
       <c r="C3" t="n">
-        <v>11.64</v>
+        <v>15.6277</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6895</v>
+        <v>31.875</v>
       </c>
       <c r="E3" t="n">
-        <v>27.5473</v>
+        <v>30.1834</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7799</v>
+        <v>16.1701</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7883</v>
+        <v>17.5954</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0437</v>
+        <v>30.6684</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2921</v>
+        <v>34.6239</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2564</v>
+        <v>15.7583</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6304</v>
+        <v>16.9652</v>
       </c>
       <c r="D5" t="n">
-        <v>33.3358</v>
+        <v>33.7852</v>
       </c>
       <c r="E5" t="n">
-        <v>44.8623</v>
+        <v>39.7906</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9808</v>
+        <v>17.6304</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6534</v>
+        <v>19.2</v>
       </c>
       <c r="D6" t="n">
-        <v>39.6438</v>
+        <v>38.5796</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7902</v>
+        <v>42.8361</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.881</v>
+        <v>19.1923</v>
       </c>
       <c r="C7" t="n">
-        <v>22.6293</v>
+        <v>19.7755</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7626</v>
+        <v>38.9139</v>
       </c>
       <c r="E7" t="n">
-        <v>57.7727</v>
+        <v>44.4575</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3798</v>
+        <v>18.828</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8747</v>
+        <v>21.0691</v>
       </c>
       <c r="D8" t="n">
-        <v>49.1965</v>
+        <v>36.71</v>
       </c>
       <c r="E8" t="n">
-        <v>64.96259999999999</v>
+        <v>46.1473</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6967</v>
+        <v>18.2014</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1763</v>
+        <v>21.2052</v>
       </c>
       <c r="D9" t="n">
-        <v>55.2404</v>
+        <v>41.7946</v>
       </c>
       <c r="E9" t="n">
-        <v>66.2034</v>
+        <v>49.2661</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.071</v>
+        <v>18.5814</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5756</v>
+        <v>20.8453</v>
       </c>
       <c r="D10" t="n">
-        <v>52.4329</v>
+        <v>40.1495</v>
       </c>
       <c r="E10" t="n">
-        <v>67.7647</v>
+        <v>46.9845</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8014</v>
+        <v>18.1256</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3396</v>
+        <v>19.7123</v>
       </c>
       <c r="D11" t="n">
-        <v>52.8178</v>
+        <v>43.7114</v>
       </c>
       <c r="E11" t="n">
-        <v>67.1699</v>
+        <v>38.095</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4431</v>
+        <v>17.4572</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7836</v>
+        <v>21.5042</v>
       </c>
       <c r="D12" t="n">
-        <v>54.2816</v>
+        <v>31.3356</v>
       </c>
       <c r="E12" t="n">
-        <v>70.5917</v>
+        <v>40.0931</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4917</v>
+        <v>18.7415</v>
       </c>
       <c r="C13" t="n">
-        <v>26.0821</v>
+        <v>20.9889</v>
       </c>
       <c r="D13" t="n">
-        <v>55.5228</v>
+        <v>45.1909</v>
       </c>
       <c r="E13" t="n">
-        <v>67.6315</v>
+        <v>33.636</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2355</v>
+        <v>17.508</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9455</v>
+        <v>20.9672</v>
       </c>
       <c r="D14" t="n">
-        <v>53.812</v>
+        <v>31.3303</v>
       </c>
       <c r="E14" t="n">
-        <v>68.3746</v>
+        <v>46.0798</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0497</v>
+        <v>17.6837</v>
       </c>
       <c r="C15" t="n">
-        <v>27.714</v>
+        <v>21.147</v>
       </c>
       <c r="D15" t="n">
-        <v>55.2709</v>
+        <v>43.8671</v>
       </c>
       <c r="E15" t="n">
-        <v>67.8189</v>
+        <v>25.4172</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7617</v>
+        <v>17.6464</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4191</v>
+        <v>21.046</v>
       </c>
       <c r="D16" t="n">
-        <v>57.2826</v>
+        <v>26.553</v>
       </c>
       <c r="E16" t="n">
-        <v>69.078</v>
+        <v>51.5199</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.2951</v>
+        <v>15.2046</v>
       </c>
       <c r="C17" t="n">
-        <v>29.2348</v>
+        <v>24.142</v>
       </c>
       <c r="D17" t="n">
-        <v>55.8746</v>
+        <v>32.3937</v>
       </c>
       <c r="E17" t="n">
-        <v>71.6036</v>
+        <v>32.4835</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.83813</v>
+        <v>3.89437</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7041</v>
+        <v>10.6682</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7009</v>
+        <v>12.8227</v>
       </c>
       <c r="E2" t="n">
-        <v>17.9819</v>
+        <v>17.6658</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.09793</v>
+        <v>5.52754</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2556</v>
+        <v>9.40832</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8642</v>
+        <v>14.2334</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9486</v>
+        <v>22.1015</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.335089999999999</v>
+        <v>6.48896</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4972</v>
+        <v>10.4882</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7185</v>
+        <v>15.4156</v>
       </c>
       <c r="E4" t="n">
-        <v>37.6026</v>
+        <v>28.2569</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3878</v>
+        <v>7.2663</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9392</v>
+        <v>11.1918</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5071</v>
+        <v>20.2978</v>
       </c>
       <c r="E5" t="n">
-        <v>48.0321</v>
+        <v>32.1878</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3766</v>
+        <v>8.6814</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6045</v>
+        <v>11.6703</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5527</v>
+        <v>24.1416</v>
       </c>
       <c r="E6" t="n">
-        <v>58.1283</v>
+        <v>34.1767</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1645</v>
+        <v>8.440379999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2497</v>
+        <v>12.8441</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0771</v>
+        <v>26.0155</v>
       </c>
       <c r="E7" t="n">
-        <v>67.5354</v>
+        <v>33.7887</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2182</v>
+        <v>11.7193</v>
       </c>
       <c r="C8" t="n">
-        <v>23.389</v>
+        <v>23.1437</v>
       </c>
       <c r="D8" t="n">
-        <v>50.5852</v>
+        <v>50.0402</v>
       </c>
       <c r="E8" t="n">
-        <v>76.6918</v>
+        <v>73.99420000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6478</v>
+        <v>16.0965</v>
       </c>
       <c r="C9" t="n">
-        <v>26.928</v>
+        <v>22.9713</v>
       </c>
       <c r="D9" t="n">
-        <v>60.009</v>
+        <v>49.6789</v>
       </c>
       <c r="E9" t="n">
-        <v>86.3019</v>
+        <v>66.5925</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4644</v>
+        <v>16.0825</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1874</v>
+        <v>21.0923</v>
       </c>
       <c r="D10" t="n">
-        <v>53.7405</v>
+        <v>44.7846</v>
       </c>
       <c r="E10" t="n">
-        <v>77.75449999999999</v>
+        <v>64.13679999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3968</v>
+        <v>15.9082</v>
       </c>
       <c r="C11" t="n">
-        <v>24.975</v>
+        <v>21.8657</v>
       </c>
       <c r="D11" t="n">
-        <v>53.9649</v>
+        <v>47.4287</v>
       </c>
       <c r="E11" t="n">
-        <v>77.24939999999999</v>
+        <v>63.4313</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6922</v>
+        <v>15.2453</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9443</v>
+        <v>20.9061</v>
       </c>
       <c r="D12" t="n">
-        <v>54.8951</v>
+        <v>42.4882</v>
       </c>
       <c r="E12" t="n">
-        <v>78.2863</v>
+        <v>59.8443</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8906</v>
+        <v>14.8127</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4514</v>
+        <v>21.7119</v>
       </c>
       <c r="D13" t="n">
-        <v>55.8814</v>
+        <v>43.5112</v>
       </c>
       <c r="E13" t="n">
-        <v>79.68940000000001</v>
+        <v>58.3324</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2354</v>
+        <v>13.778</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6596</v>
+        <v>21.6634</v>
       </c>
       <c r="D14" t="n">
-        <v>55.4331</v>
+        <v>39.4201</v>
       </c>
       <c r="E14" t="n">
-        <v>78.1332</v>
+        <v>59.6576</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7591</v>
+        <v>14.2943</v>
       </c>
       <c r="C15" t="n">
-        <v>26.074</v>
+        <v>20.985</v>
       </c>
       <c r="D15" t="n">
-        <v>55.7096</v>
+        <v>39.0419</v>
       </c>
       <c r="E15" t="n">
-        <v>77.8458</v>
+        <v>57.2259</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7278</v>
+        <v>14.2918</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6879</v>
+        <v>21.1358</v>
       </c>
       <c r="D16" t="n">
-        <v>56.8174</v>
+        <v>34.8703</v>
       </c>
       <c r="E16" t="n">
-        <v>77.95099999999999</v>
+        <v>40.2978</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.626</v>
+        <v>13.5225</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3671</v>
+        <v>20.9165</v>
       </c>
       <c r="D17" t="n">
-        <v>55.6658</v>
+        <v>31.3162</v>
       </c>
       <c r="E17" t="n">
-        <v>76.9547</v>
+        <v>45.6347</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94273</v>
+        <v>3.48478</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8296</v>
+        <v>9.15893</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6837</v>
+        <v>10.9134</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2052</v>
+        <v>15.5488</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.23226</v>
+        <v>4.81434</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5012</v>
+        <v>8.444129999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>19.525</v>
+        <v>13.207</v>
       </c>
       <c r="E3" t="n">
-        <v>27.0897</v>
+        <v>19.2294</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.46012</v>
+        <v>6.07919</v>
       </c>
       <c r="C4" t="n">
-        <v>12.568</v>
+        <v>10.4637</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7921</v>
+        <v>25.8245</v>
       </c>
       <c r="E4" t="n">
-        <v>37.6192</v>
+        <v>35.852</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5344</v>
+        <v>10.511</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0121</v>
+        <v>15.0212</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8072</v>
+        <v>32.5154</v>
       </c>
       <c r="E5" t="n">
-        <v>47.7483</v>
+        <v>45.2874</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6727</v>
+        <v>12.6676</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6102</v>
+        <v>17.6722</v>
       </c>
       <c r="D6" t="n">
-        <v>39.07</v>
+        <v>38.7291</v>
       </c>
       <c r="E6" t="n">
-        <v>57.8851</v>
+        <v>54.7121</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4204</v>
+        <v>14.5972</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3346</v>
+        <v>20.3758</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9255</v>
+        <v>44.4311</v>
       </c>
       <c r="E7" t="n">
-        <v>67.8706</v>
+        <v>64.1187</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2955</v>
+        <v>16.2953</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3774</v>
+        <v>23.4305</v>
       </c>
       <c r="D8" t="n">
-        <v>50.3126</v>
+        <v>50.8774</v>
       </c>
       <c r="E8" t="n">
-        <v>77.1559</v>
+        <v>73.48180000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8223</v>
+        <v>18.8723</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0025</v>
+        <v>27.0402</v>
       </c>
       <c r="D9" t="n">
-        <v>59.9772</v>
+        <v>60.3753</v>
       </c>
       <c r="E9" t="n">
-        <v>86.3472</v>
+        <v>82.8609</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5516</v>
+        <v>17.8392</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7578</v>
+        <v>25.3211</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2982</v>
+        <v>54.5741</v>
       </c>
       <c r="E10" t="n">
-        <v>76.54819999999999</v>
+        <v>73.3973</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8401</v>
+        <v>17.6662</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7554</v>
+        <v>24.9752</v>
       </c>
       <c r="D11" t="n">
-        <v>54.2614</v>
+        <v>55.2994</v>
       </c>
       <c r="E11" t="n">
-        <v>75.7484</v>
+        <v>73.5608</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.802</v>
+        <v>17.8204</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0861</v>
+        <v>25.1853</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0896</v>
+        <v>55.0958</v>
       </c>
       <c r="E12" t="n">
-        <v>77.17400000000001</v>
+        <v>76.1525</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.2732</v>
+        <v>18.3096</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2492</v>
+        <v>25.3956</v>
       </c>
       <c r="D13" t="n">
-        <v>56.1834</v>
+        <v>57.3133</v>
       </c>
       <c r="E13" t="n">
-        <v>79.7381</v>
+        <v>76.98690000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5996</v>
+        <v>17.4469</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6341</v>
+        <v>25.7204</v>
       </c>
       <c r="D14" t="n">
-        <v>55.9422</v>
+        <v>55.4517</v>
       </c>
       <c r="E14" t="n">
-        <v>77.03879999999999</v>
+        <v>74.08110000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3001</v>
+        <v>18.316</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1356</v>
+        <v>26.1793</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4264</v>
+        <v>56.0821</v>
       </c>
       <c r="E15" t="n">
-        <v>78.93819999999999</v>
+        <v>75.0354</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1261</v>
+        <v>18.2317</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6744</v>
+        <v>26.8086</v>
       </c>
       <c r="D16" t="n">
-        <v>56.3386</v>
+        <v>56.1579</v>
       </c>
       <c r="E16" t="n">
-        <v>78.4747</v>
+        <v>75.8982</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2966</v>
+        <v>18.04</v>
       </c>
       <c r="C17" t="n">
-        <v>27.246</v>
+        <v>27.4017</v>
       </c>
       <c r="D17" t="n">
-        <v>55.8692</v>
+        <v>55.4308</v>
       </c>
       <c r="E17" t="n">
-        <v>77.38339999999999</v>
+        <v>77.4409</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.10144</v>
+        <v>8.14385</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2312</v>
+        <v>14.2149</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4253</v>
+        <v>17.7839</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2185</v>
+        <v>21.4597</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.76713</v>
+        <v>9.455450000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>11.6871</v>
+        <v>11.3382</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1659</v>
+        <v>22.2744</v>
       </c>
       <c r="E3" t="n">
-        <v>29.5336</v>
+        <v>26.796</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1468</v>
+        <v>12.0586</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6352</v>
+        <v>13.6263</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5097</v>
+        <v>29.5046</v>
       </c>
       <c r="E4" t="n">
-        <v>40.674</v>
+        <v>36.7358</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7618</v>
+        <v>14.7817</v>
       </c>
       <c r="C5" t="n">
-        <v>16.059</v>
+        <v>16.1053</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2123</v>
+        <v>36.5275</v>
       </c>
       <c r="E5" t="n">
-        <v>51.5034</v>
+        <v>46.4903</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2448</v>
+        <v>17.2829</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9565</v>
+        <v>18.9954</v>
       </c>
       <c r="D6" t="n">
-        <v>44.2652</v>
+        <v>44.1726</v>
       </c>
       <c r="E6" t="n">
-        <v>62.6641</v>
+        <v>56.6607</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.9918</v>
+        <v>20.0563</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7338</v>
+        <v>21.8965</v>
       </c>
       <c r="D7" t="n">
-        <v>52.2204</v>
+        <v>50.861</v>
       </c>
       <c r="E7" t="n">
-        <v>73.45650000000001</v>
+        <v>65.8811</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.9247</v>
+        <v>22.7585</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8104</v>
+        <v>24.8873</v>
       </c>
       <c r="D8" t="n">
-        <v>59.8573</v>
+        <v>58.8734</v>
       </c>
       <c r="E8" t="n">
-        <v>84.16840000000001</v>
+        <v>75.7175</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7809</v>
+        <v>26.7489</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6589</v>
+        <v>27.5945</v>
       </c>
       <c r="D9" t="n">
-        <v>70.4118</v>
+        <v>69.6641</v>
       </c>
       <c r="E9" t="n">
-        <v>94.79810000000001</v>
+        <v>85.5266</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1508</v>
+        <v>25.2134</v>
       </c>
       <c r="C10" t="n">
-        <v>26.2102</v>
+        <v>26.3963</v>
       </c>
       <c r="D10" t="n">
-        <v>65.3006</v>
+        <v>63.734</v>
       </c>
       <c r="E10" t="n">
-        <v>84.95780000000001</v>
+        <v>75.7304</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0487</v>
+        <v>24.8142</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3615</v>
+        <v>26.2945</v>
       </c>
       <c r="D11" t="n">
-        <v>64.2538</v>
+        <v>63.7277</v>
       </c>
       <c r="E11" t="n">
-        <v>84.4739</v>
+        <v>77.83669999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2201</v>
+        <v>25.3327</v>
       </c>
       <c r="C12" t="n">
-        <v>26.783</v>
+        <v>26.7423</v>
       </c>
       <c r="D12" t="n">
-        <v>65.2726</v>
+        <v>65.2452</v>
       </c>
       <c r="E12" t="n">
-        <v>86.0928</v>
+        <v>78.1683</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4692</v>
+        <v>25.6807</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1491</v>
+        <v>27.1159</v>
       </c>
       <c r="D13" t="n">
-        <v>66.8438</v>
+        <v>65.5273</v>
       </c>
       <c r="E13" t="n">
-        <v>87.5568</v>
+        <v>79.2099</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7578</v>
+        <v>24.7308</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6781</v>
+        <v>27.6452</v>
       </c>
       <c r="D14" t="n">
-        <v>66.1653</v>
+        <v>64.4482</v>
       </c>
       <c r="E14" t="n">
-        <v>87.85299999999999</v>
+        <v>79.95</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5245</v>
+        <v>25.4643</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2468</v>
+        <v>28.1846</v>
       </c>
       <c r="D15" t="n">
-        <v>67.17440000000001</v>
+        <v>65.8831</v>
       </c>
       <c r="E15" t="n">
-        <v>90.1671</v>
+        <v>80.61450000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2947</v>
+        <v>25.4713</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0246</v>
+        <v>28.9694</v>
       </c>
       <c r="D16" t="n">
-        <v>66.85599999999999</v>
+        <v>66.2907</v>
       </c>
       <c r="E16" t="n">
-        <v>87.84610000000001</v>
+        <v>81.3477</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5902</v>
+        <v>25.5379</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8635</v>
+        <v>29.8178</v>
       </c>
       <c r="D17" t="n">
-        <v>66.66030000000001</v>
+        <v>66.2508</v>
       </c>
       <c r="E17" t="n">
-        <v>90.67610000000001</v>
+        <v>81.3099</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.370369999999999</v>
+        <v>9.61708</v>
       </c>
       <c r="C2" t="n">
-        <v>13.3887</v>
+        <v>13.8908</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2385</v>
+        <v>17.2299</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5172</v>
+        <v>20.5682</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.97932</v>
+        <v>8.97903</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8575</v>
+        <v>10.4052</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5899</v>
+        <v>19.0538</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2699</v>
+        <v>23.5169</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8035</v>
+        <v>10.7646</v>
       </c>
       <c r="C4" t="n">
-        <v>13.14</v>
+        <v>12.4169</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7121</v>
+        <v>24.5148</v>
       </c>
       <c r="E4" t="n">
-        <v>31.2252</v>
+        <v>30.4372</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7035</v>
+        <v>12.4779</v>
       </c>
       <c r="C5" t="n">
-        <v>15.9468</v>
+        <v>14.9274</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5387</v>
+        <v>29.5908</v>
       </c>
       <c r="E5" t="n">
-        <v>38.9941</v>
+        <v>36.7857</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5217</v>
+        <v>14.6443</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7814</v>
+        <v>17.6184</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1709</v>
+        <v>34.5531</v>
       </c>
       <c r="E6" t="n">
-        <v>45.4651</v>
+        <v>43.5989</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.728</v>
+        <v>16.7977</v>
       </c>
       <c r="C7" t="n">
-        <v>19.2049</v>
+        <v>20.2112</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7106</v>
+        <v>41.6281</v>
       </c>
       <c r="E7" t="n">
-        <v>48.1471</v>
+        <v>49.3665</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7308</v>
+        <v>18.2628</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4457</v>
+        <v>22.4096</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1715</v>
+        <v>43.8426</v>
       </c>
       <c r="E8" t="n">
-        <v>47.1112</v>
+        <v>53.957</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.8097</v>
+        <v>21.4583</v>
       </c>
       <c r="C9" t="n">
-        <v>19.9925</v>
+        <v>25.278</v>
       </c>
       <c r="D9" t="n">
-        <v>40.308</v>
+        <v>49.2219</v>
       </c>
       <c r="E9" t="n">
-        <v>49.4771</v>
+        <v>57.9746</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.217</v>
+        <v>18.97</v>
       </c>
       <c r="C10" t="n">
-        <v>20.1461</v>
+        <v>24.1791</v>
       </c>
       <c r="D10" t="n">
-        <v>41.7502</v>
+        <v>46.7521</v>
       </c>
       <c r="E10" t="n">
-        <v>50.4655</v>
+        <v>55.6137</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8343</v>
+        <v>18.3899</v>
       </c>
       <c r="C11" t="n">
-        <v>20.2972</v>
+        <v>23.6015</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1026</v>
+        <v>46.6733</v>
       </c>
       <c r="E11" t="n">
-        <v>53.8645</v>
+        <v>56.4596</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.2774</v>
+        <v>18.8146</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9594</v>
+        <v>24.0244</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8529</v>
+        <v>46.8919</v>
       </c>
       <c r="E12" t="n">
-        <v>54.1602</v>
+        <v>59.8309</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.6734</v>
+        <v>19.4079</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3897</v>
+        <v>24.8378</v>
       </c>
       <c r="D13" t="n">
-        <v>38.7124</v>
+        <v>48.2785</v>
       </c>
       <c r="E13" t="n">
-        <v>47.6266</v>
+        <v>61.3437</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7538</v>
+        <v>19.1994</v>
       </c>
       <c r="C14" t="n">
-        <v>21.911</v>
+        <v>25.3221</v>
       </c>
       <c r="D14" t="n">
-        <v>40.6217</v>
+        <v>48.6658</v>
       </c>
       <c r="E14" t="n">
-        <v>50.1991</v>
+        <v>63.6022</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.2978</v>
+        <v>19.174</v>
       </c>
       <c r="C15" t="n">
-        <v>22.267</v>
+        <v>26.1495</v>
       </c>
       <c r="D15" t="n">
-        <v>36.1999</v>
+        <v>48.7339</v>
       </c>
       <c r="E15" t="n">
-        <v>47.7223</v>
+        <v>64.7503</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9607</v>
+        <v>19.2404</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3601</v>
+        <v>26.7986</v>
       </c>
       <c r="D16" t="n">
-        <v>38.5439</v>
+        <v>51.2461</v>
       </c>
       <c r="E16" t="n">
-        <v>43.1882</v>
+        <v>63.6175</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.2097</v>
+        <v>19.4258</v>
       </c>
       <c r="C17" t="n">
-        <v>23.563</v>
+        <v>27.286</v>
       </c>
       <c r="D17" t="n">
-        <v>37.8999</v>
+        <v>50.1508</v>
       </c>
       <c r="E17" t="n">
-        <v>47.0109</v>
+        <v>65.262</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.187</v>
+        <v>10.1324</v>
       </c>
       <c r="C2" t="n">
-        <v>13.805</v>
+        <v>13.7637</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1782</v>
+        <v>17.1263</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4265</v>
+        <v>20.4397</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.74968</v>
+        <v>9.57405</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3967</v>
+        <v>10.721</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0239</v>
+        <v>19.5006</v>
       </c>
       <c r="E3" t="n">
-        <v>23.5532</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0187</v>
+        <v>11.2123</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3078</v>
+        <v>12.4265</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9129</v>
+        <v>24.607</v>
       </c>
       <c r="E4" t="n">
-        <v>32.6737</v>
+        <v>30.8284</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.365</v>
+        <v>13.0058</v>
       </c>
       <c r="C5" t="n">
-        <v>17.9195</v>
+        <v>14.8583</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5475</v>
+        <v>29.4281</v>
       </c>
       <c r="E5" t="n">
-        <v>39.6364</v>
+        <v>37.3836</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9088</v>
+        <v>15.1046</v>
       </c>
       <c r="C6" t="n">
-        <v>18.229</v>
+        <v>17.3067</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6864</v>
+        <v>34.3819</v>
       </c>
       <c r="E6" t="n">
-        <v>44.7466</v>
+        <v>41.3661</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8996</v>
+        <v>17.2663</v>
       </c>
       <c r="C7" t="n">
-        <v>19.431</v>
+        <v>20.2184</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7643</v>
+        <v>41.2339</v>
       </c>
       <c r="E7" t="n">
-        <v>48.8056</v>
+        <v>47.2673</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1141</v>
+        <v>18.9177</v>
       </c>
       <c r="C8" t="n">
-        <v>19.7348</v>
+        <v>22.259</v>
       </c>
       <c r="D8" t="n">
-        <v>39.6703</v>
+        <v>43.5875</v>
       </c>
       <c r="E8" t="n">
-        <v>46.8306</v>
+        <v>51.4756</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3117</v>
+        <v>22.3392</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8609</v>
+        <v>25.1109</v>
       </c>
       <c r="D9" t="n">
-        <v>39.5631</v>
+        <v>49.5912</v>
       </c>
       <c r="E9" t="n">
-        <v>49.3391</v>
+        <v>60.1335</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.6009</v>
+        <v>18.855</v>
       </c>
       <c r="C10" t="n">
-        <v>20.1188</v>
+        <v>24.3143</v>
       </c>
       <c r="D10" t="n">
-        <v>39.954</v>
+        <v>46.3208</v>
       </c>
       <c r="E10" t="n">
-        <v>50.195</v>
+        <v>54.4161</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.0865</v>
+        <v>19.1801</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8534</v>
+        <v>23.3576</v>
       </c>
       <c r="D11" t="n">
-        <v>40.2633</v>
+        <v>47.2201</v>
       </c>
       <c r="E11" t="n">
-        <v>44.2607</v>
+        <v>56.9706</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.113</v>
+        <v>19.9054</v>
       </c>
       <c r="C12" t="n">
-        <v>21.1078</v>
+        <v>24.2801</v>
       </c>
       <c r="D12" t="n">
-        <v>33.0704</v>
+        <v>48.934</v>
       </c>
       <c r="E12" t="n">
-        <v>40.9973</v>
+        <v>57.8787</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.3465</v>
+        <v>20.2832</v>
       </c>
       <c r="C13" t="n">
-        <v>20.2444</v>
+        <v>24.6982</v>
       </c>
       <c r="D13" t="n">
-        <v>33.113</v>
+        <v>49.2106</v>
       </c>
       <c r="E13" t="n">
-        <v>44.3986</v>
+        <v>59.5729</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.5811</v>
+        <v>19.9436</v>
       </c>
       <c r="C14" t="n">
-        <v>20.034</v>
+        <v>25.6126</v>
       </c>
       <c r="D14" t="n">
-        <v>35.9543</v>
+        <v>50.2905</v>
       </c>
       <c r="E14" t="n">
-        <v>56.2992</v>
+        <v>60.5068</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.3187</v>
+        <v>19.3385</v>
       </c>
       <c r="C15" t="n">
-        <v>20.9041</v>
+        <v>26.0933</v>
       </c>
       <c r="D15" t="n">
-        <v>44.3955</v>
+        <v>48.5654</v>
       </c>
       <c r="E15" t="n">
-        <v>42.7731</v>
+        <v>64.1662</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.554</v>
+        <v>20.0974</v>
       </c>
       <c r="C16" t="n">
-        <v>22.4737</v>
+        <v>26.9657</v>
       </c>
       <c r="D16" t="n">
-        <v>28.1166</v>
+        <v>48.2781</v>
       </c>
       <c r="E16" t="n">
-        <v>36.9984</v>
+        <v>64.3263</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7381</v>
+        <v>19.8791</v>
       </c>
       <c r="C17" t="n">
-        <v>21.1063</v>
+        <v>27.437</v>
       </c>
       <c r="D17" t="n">
-        <v>29.5096</v>
+        <v>52.8333</v>
       </c>
       <c r="E17" t="n">
-        <v>35.6417</v>
+        <v>63.9529</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7645</v>
+        <v>12.5994</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2381</v>
+        <v>15.2308</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1472</v>
+        <v>19.0524</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7303</v>
+        <v>21.6857</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.788</v>
+        <v>10.8898</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6277</v>
+        <v>11.8684</v>
       </c>
       <c r="D3" t="n">
-        <v>31.875</v>
+        <v>22.099</v>
       </c>
       <c r="E3" t="n">
-        <v>30.1834</v>
+        <v>25.7097</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.1701</v>
+        <v>12.8966</v>
       </c>
       <c r="C4" t="n">
-        <v>17.5954</v>
+        <v>13.8691</v>
       </c>
       <c r="D4" t="n">
-        <v>30.6684</v>
+        <v>28.0756</v>
       </c>
       <c r="E4" t="n">
-        <v>34.6239</v>
+        <v>33.0736</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7583</v>
+        <v>15.1598</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9652</v>
+        <v>16.709</v>
       </c>
       <c r="D5" t="n">
-        <v>33.7852</v>
+        <v>33.2019</v>
       </c>
       <c r="E5" t="n">
-        <v>39.7906</v>
+        <v>40.3318</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.6304</v>
+        <v>17.7895</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2</v>
+        <v>19.6112</v>
       </c>
       <c r="D6" t="n">
-        <v>38.5796</v>
+        <v>39.6591</v>
       </c>
       <c r="E6" t="n">
-        <v>42.8361</v>
+        <v>45.9865</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1923</v>
+        <v>20.7866</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7755</v>
+        <v>22.5582</v>
       </c>
       <c r="D7" t="n">
-        <v>38.9139</v>
+        <v>46.3779</v>
       </c>
       <c r="E7" t="n">
-        <v>44.4575</v>
+        <v>52.4147</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.828</v>
+        <v>23.2967</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0691</v>
+        <v>24.8248</v>
       </c>
       <c r="D8" t="n">
-        <v>36.71</v>
+        <v>49.2894</v>
       </c>
       <c r="E8" t="n">
-        <v>46.1473</v>
+        <v>57.1274</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2014</v>
+        <v>26.7103</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2052</v>
+        <v>27.2044</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7946</v>
+        <v>56.0923</v>
       </c>
       <c r="E9" t="n">
-        <v>49.2661</v>
+        <v>62.0514</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.5814</v>
+        <v>24.9455</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8453</v>
+        <v>26.5604</v>
       </c>
       <c r="D10" t="n">
-        <v>40.1495</v>
+        <v>52.7758</v>
       </c>
       <c r="E10" t="n">
-        <v>46.9845</v>
+        <v>59.4852</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1256</v>
+        <v>24.0643</v>
       </c>
       <c r="C11" t="n">
-        <v>19.7123</v>
+        <v>25.5297</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7114</v>
+        <v>54.3122</v>
       </c>
       <c r="E11" t="n">
-        <v>38.095</v>
+        <v>60.7569</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4572</v>
+        <v>24.5745</v>
       </c>
       <c r="C12" t="n">
-        <v>21.5042</v>
+        <v>25.6505</v>
       </c>
       <c r="D12" t="n">
-        <v>31.3356</v>
+        <v>54.8465</v>
       </c>
       <c r="E12" t="n">
-        <v>40.0931</v>
+        <v>64.4755</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.7415</v>
+        <v>25.2049</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9889</v>
+        <v>26.215</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1909</v>
+        <v>56.2666</v>
       </c>
       <c r="E13" t="n">
-        <v>33.636</v>
+        <v>63.7139</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.508</v>
+        <v>24.4387</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9672</v>
+        <v>27.0381</v>
       </c>
       <c r="D14" t="n">
-        <v>31.3303</v>
+        <v>55.9587</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0798</v>
+        <v>63.4034</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6837</v>
+        <v>23.8847</v>
       </c>
       <c r="C15" t="n">
-        <v>21.147</v>
+        <v>27.5589</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8671</v>
+        <v>57.9772</v>
       </c>
       <c r="E15" t="n">
-        <v>25.4172</v>
+        <v>65.8565</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6464</v>
+        <v>23.0811</v>
       </c>
       <c r="C16" t="n">
-        <v>21.046</v>
+        <v>28.3233</v>
       </c>
       <c r="D16" t="n">
-        <v>26.553</v>
+        <v>56.4022</v>
       </c>
       <c r="E16" t="n">
-        <v>51.5199</v>
+        <v>65.24290000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2046</v>
+        <v>23.5735</v>
       </c>
       <c r="C17" t="n">
-        <v>24.142</v>
+        <v>29.1801</v>
       </c>
       <c r="D17" t="n">
-        <v>32.3937</v>
+        <v>54.6969</v>
       </c>
       <c r="E17" t="n">
-        <v>32.4835</v>
+        <v>63.844</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.89437</v>
+        <v>3.81842</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6682</v>
+        <v>10.6917</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8227</v>
+        <v>12.7571</v>
       </c>
       <c r="E2" t="n">
-        <v>17.6658</v>
+        <v>17.9231</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.52754</v>
+        <v>6.07183</v>
       </c>
       <c r="C3" t="n">
-        <v>9.40832</v>
+        <v>10.1258</v>
       </c>
       <c r="D3" t="n">
-        <v>14.2334</v>
+        <v>18.8403</v>
       </c>
       <c r="E3" t="n">
-        <v>22.1015</v>
+        <v>25.9151</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.48896</v>
+        <v>8.381690000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4882</v>
+        <v>12.5996</v>
       </c>
       <c r="D4" t="n">
-        <v>15.4156</v>
+        <v>25.7754</v>
       </c>
       <c r="E4" t="n">
-        <v>28.2569</v>
+        <v>36.2081</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2663</v>
+        <v>10.4232</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1918</v>
+        <v>14.9726</v>
       </c>
       <c r="D5" t="n">
-        <v>20.2978</v>
+        <v>31.8717</v>
       </c>
       <c r="E5" t="n">
-        <v>32.1878</v>
+        <v>45.6255</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.6814</v>
+        <v>12.3835</v>
       </c>
       <c r="C6" t="n">
-        <v>11.6703</v>
+        <v>17.5889</v>
       </c>
       <c r="D6" t="n">
-        <v>24.1416</v>
+        <v>37.7697</v>
       </c>
       <c r="E6" t="n">
-        <v>34.1767</v>
+        <v>55.1669</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.440379999999999</v>
+        <v>14.3786</v>
       </c>
       <c r="C7" t="n">
-        <v>12.8441</v>
+        <v>20.3212</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0155</v>
+        <v>43.7587</v>
       </c>
       <c r="E7" t="n">
-        <v>33.7887</v>
+        <v>64.1832</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7193</v>
+        <v>16.1345</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1437</v>
+        <v>23.4118</v>
       </c>
       <c r="D8" t="n">
-        <v>50.0402</v>
+        <v>50.1429</v>
       </c>
       <c r="E8" t="n">
-        <v>73.99420000000001</v>
+        <v>73.6216</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0965</v>
+        <v>18.5018</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9713</v>
+        <v>26.9525</v>
       </c>
       <c r="D9" t="n">
-        <v>49.6789</v>
+        <v>60.2403</v>
       </c>
       <c r="E9" t="n">
-        <v>66.5925</v>
+        <v>82.66679999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0825</v>
+        <v>17.3973</v>
       </c>
       <c r="C10" t="n">
-        <v>21.0923</v>
+        <v>25.3816</v>
       </c>
       <c r="D10" t="n">
-        <v>44.7846</v>
+        <v>55.1319</v>
       </c>
       <c r="E10" t="n">
-        <v>64.13679999999999</v>
+        <v>73.714</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9082</v>
+        <v>17.54</v>
       </c>
       <c r="C11" t="n">
-        <v>21.8657</v>
+        <v>24.8445</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4287</v>
+        <v>53.5871</v>
       </c>
       <c r="E11" t="n">
-        <v>63.4313</v>
+        <v>72.7439</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.2453</v>
+        <v>17.6797</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9061</v>
+        <v>24.7969</v>
       </c>
       <c r="D12" t="n">
-        <v>42.4882</v>
+        <v>55.3402</v>
       </c>
       <c r="E12" t="n">
-        <v>59.8443</v>
+        <v>75.21680000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8127</v>
+        <v>17.7446</v>
       </c>
       <c r="C13" t="n">
-        <v>21.7119</v>
+        <v>25.4659</v>
       </c>
       <c r="D13" t="n">
-        <v>43.5112</v>
+        <v>56.9449</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3324</v>
+        <v>76.84269999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.778</v>
+        <v>17.0417</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6634</v>
+        <v>25.6094</v>
       </c>
       <c r="D14" t="n">
-        <v>39.4201</v>
+        <v>55.0502</v>
       </c>
       <c r="E14" t="n">
-        <v>59.6576</v>
+        <v>76.0772</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2943</v>
+        <v>17.8626</v>
       </c>
       <c r="C15" t="n">
-        <v>20.985</v>
+        <v>26.0586</v>
       </c>
       <c r="D15" t="n">
-        <v>39.0419</v>
+        <v>56.1072</v>
       </c>
       <c r="E15" t="n">
-        <v>57.2259</v>
+        <v>76.8396</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2918</v>
+        <v>17.9718</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1358</v>
+        <v>26.6909</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8703</v>
+        <v>55.4586</v>
       </c>
       <c r="E16" t="n">
-        <v>40.2978</v>
+        <v>76.2039</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.5225</v>
+        <v>17.8093</v>
       </c>
       <c r="C17" t="n">
-        <v>20.9165</v>
+        <v>27.2314</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3162</v>
+        <v>55.8194</v>
       </c>
       <c r="E17" t="n">
-        <v>45.6347</v>
+        <v>74.8776</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.48478</v>
+        <v>3.84926</v>
       </c>
       <c r="C2" t="n">
-        <v>9.15893</v>
+        <v>10.8063</v>
       </c>
       <c r="D2" t="n">
-        <v>10.9134</v>
+        <v>12.7271</v>
       </c>
       <c r="E2" t="n">
-        <v>15.5488</v>
+        <v>18.1545</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.81434</v>
+        <v>6.10874</v>
       </c>
       <c r="C3" t="n">
-        <v>8.444129999999999</v>
+        <v>10.2365</v>
       </c>
       <c r="D3" t="n">
-        <v>13.207</v>
+        <v>18.942</v>
       </c>
       <c r="E3" t="n">
-        <v>19.2294</v>
+        <v>25.8139</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.07919</v>
+        <v>8.46172</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4637</v>
+        <v>12.4836</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8245</v>
+        <v>25.8571</v>
       </c>
       <c r="E4" t="n">
-        <v>35.852</v>
+        <v>35.7855</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.511</v>
+        <v>10.5553</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0212</v>
+        <v>14.9781</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5154</v>
+        <v>32.4696</v>
       </c>
       <c r="E5" t="n">
-        <v>45.2874</v>
+        <v>45.1252</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6676</v>
+        <v>12.6224</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6722</v>
+        <v>17.6122</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7291</v>
+        <v>38.6251</v>
       </c>
       <c r="E6" t="n">
-        <v>54.7121</v>
+        <v>54.7945</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5972</v>
+        <v>14.478</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3758</v>
+        <v>20.2559</v>
       </c>
       <c r="D7" t="n">
-        <v>44.4311</v>
+        <v>44.8081</v>
       </c>
       <c r="E7" t="n">
-        <v>64.1187</v>
+        <v>64.0599</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2953</v>
+        <v>16.4023</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4305</v>
+        <v>23.4793</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8774</v>
+        <v>51.1245</v>
       </c>
       <c r="E8" t="n">
-        <v>73.48180000000001</v>
+        <v>73.35290000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8723</v>
+        <v>18.9924</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0402</v>
+        <v>26.7993</v>
       </c>
       <c r="D9" t="n">
-        <v>60.3753</v>
+        <v>60.3307</v>
       </c>
       <c r="E9" t="n">
-        <v>82.8609</v>
+        <v>82.3514</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8392</v>
+        <v>17.9724</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3211</v>
+        <v>24.5556</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5741</v>
+        <v>55.3342</v>
       </c>
       <c r="E10" t="n">
-        <v>73.3973</v>
+        <v>72.4652</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6662</v>
+        <v>17.7641</v>
       </c>
       <c r="C11" t="n">
-        <v>24.9752</v>
+        <v>25.027</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2994</v>
+        <v>54.9178</v>
       </c>
       <c r="E11" t="n">
-        <v>73.5608</v>
+        <v>72.94199999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8204</v>
+        <v>17.9555</v>
       </c>
       <c r="C12" t="n">
-        <v>25.1853</v>
+        <v>25.0291</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0958</v>
+        <v>54.42</v>
       </c>
       <c r="E12" t="n">
-        <v>76.1525</v>
+        <v>74.78530000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3096</v>
+        <v>18.3761</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3956</v>
+        <v>25.1836</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3133</v>
+        <v>56.9664</v>
       </c>
       <c r="E13" t="n">
-        <v>76.98690000000001</v>
+        <v>76.84520000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4469</v>
+        <v>17.6631</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7204</v>
+        <v>25.633</v>
       </c>
       <c r="D14" t="n">
-        <v>55.4517</v>
+        <v>56.2204</v>
       </c>
       <c r="E14" t="n">
-        <v>74.08110000000001</v>
+        <v>74.65470000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.316</v>
+        <v>18.2572</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1793</v>
+        <v>26.0417</v>
       </c>
       <c r="D15" t="n">
-        <v>56.0821</v>
+        <v>56.1207</v>
       </c>
       <c r="E15" t="n">
-        <v>75.0354</v>
+        <v>75.98269999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2317</v>
+        <v>18.3616</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8086</v>
+        <v>26.6749</v>
       </c>
       <c r="D16" t="n">
-        <v>56.1579</v>
+        <v>56.811</v>
       </c>
       <c r="E16" t="n">
-        <v>75.8982</v>
+        <v>75.2636</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.04</v>
+        <v>17.8656</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4017</v>
+        <v>27.3217</v>
       </c>
       <c r="D17" t="n">
-        <v>55.4308</v>
+        <v>56.6553</v>
       </c>
       <c r="E17" t="n">
-        <v>77.4409</v>
+        <v>73.91459999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.14385</v>
+        <v>8.125299999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2149</v>
+        <v>14.1931</v>
       </c>
       <c r="D2" t="n">
-        <v>17.7839</v>
+        <v>17.7448</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4597</v>
+        <v>21.4257</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.455450000000001</v>
+        <v>9.51699</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3382</v>
+        <v>11.4276</v>
       </c>
       <c r="D3" t="n">
-        <v>22.2744</v>
+        <v>22.4937</v>
       </c>
       <c r="E3" t="n">
-        <v>26.796</v>
+        <v>26.8327</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0586</v>
+        <v>12.0812</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6263</v>
+        <v>13.607</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5046</v>
+        <v>29.618</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7358</v>
+        <v>36.7632</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7817</v>
+        <v>14.6207</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1053</v>
+        <v>16.0355</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5275</v>
+        <v>36.707</v>
       </c>
       <c r="E5" t="n">
-        <v>46.4903</v>
+        <v>46.6181</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2829</v>
+        <v>17.1075</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9954</v>
+        <v>18.9242</v>
       </c>
       <c r="D6" t="n">
-        <v>44.1726</v>
+        <v>44.315</v>
       </c>
       <c r="E6" t="n">
-        <v>56.6607</v>
+        <v>56.5218</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0563</v>
+        <v>19.744</v>
       </c>
       <c r="C7" t="n">
-        <v>21.8965</v>
+        <v>21.7397</v>
       </c>
       <c r="D7" t="n">
-        <v>50.861</v>
+        <v>51.8618</v>
       </c>
       <c r="E7" t="n">
-        <v>65.8811</v>
+        <v>66.4889</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7585</v>
+        <v>22.8136</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8873</v>
+        <v>24.7747</v>
       </c>
       <c r="D8" t="n">
-        <v>58.8734</v>
+        <v>59.1163</v>
       </c>
       <c r="E8" t="n">
-        <v>75.7175</v>
+        <v>75.5138</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7489</v>
+        <v>26.6989</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5945</v>
+        <v>27.5424</v>
       </c>
       <c r="D9" t="n">
-        <v>69.6641</v>
+        <v>69.8968</v>
       </c>
       <c r="E9" t="n">
-        <v>85.5266</v>
+        <v>85.9041</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2134</v>
+        <v>25.1492</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3963</v>
+        <v>26.4848</v>
       </c>
       <c r="D10" t="n">
-        <v>63.734</v>
+        <v>63.8634</v>
       </c>
       <c r="E10" t="n">
-        <v>75.7304</v>
+        <v>77.58759999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8142</v>
+        <v>25.1003</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2945</v>
+        <v>26.337</v>
       </c>
       <c r="D11" t="n">
-        <v>63.7277</v>
+        <v>63.4318</v>
       </c>
       <c r="E11" t="n">
-        <v>77.83669999999999</v>
+        <v>77.77379999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3327</v>
+        <v>25.4356</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7423</v>
+        <v>26.6386</v>
       </c>
       <c r="D12" t="n">
-        <v>65.2452</v>
+        <v>64.7949</v>
       </c>
       <c r="E12" t="n">
-        <v>78.1683</v>
+        <v>79.9652</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6807</v>
+        <v>25.5934</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1159</v>
+        <v>27.1232</v>
       </c>
       <c r="D13" t="n">
-        <v>65.5273</v>
+        <v>65.46040000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>79.2099</v>
+        <v>80.2299</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7308</v>
+        <v>24.6539</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6452</v>
+        <v>27.5483</v>
       </c>
       <c r="D14" t="n">
-        <v>64.4482</v>
+        <v>65.48090000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>79.95</v>
+        <v>79.4303</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4643</v>
+        <v>25.531</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1846</v>
+        <v>28.1635</v>
       </c>
       <c r="D15" t="n">
-        <v>65.8831</v>
+        <v>66.5059</v>
       </c>
       <c r="E15" t="n">
-        <v>80.61450000000001</v>
+        <v>80.8896</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4713</v>
+        <v>25.3023</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9694</v>
+        <v>28.9242</v>
       </c>
       <c r="D16" t="n">
-        <v>66.2907</v>
+        <v>65.87820000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>81.3477</v>
+        <v>82.2753</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5379</v>
+        <v>25.577</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8178</v>
+        <v>29.7132</v>
       </c>
       <c r="D17" t="n">
-        <v>66.2508</v>
+        <v>66.3561</v>
       </c>
       <c r="E17" t="n">
-        <v>81.3099</v>
+        <v>80.5111</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.61708</v>
+        <v>9.53027</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8908</v>
+        <v>13.8981</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2299</v>
+        <v>16.9893</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5682</v>
+        <v>20.133</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.97903</v>
+        <v>8.950799999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4052</v>
+        <v>10.4338</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0538</v>
+        <v>19.1948</v>
       </c>
       <c r="E3" t="n">
-        <v>23.5169</v>
+        <v>23.3266</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7646</v>
+        <v>10.7344</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4169</v>
+        <v>12.4863</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5148</v>
+        <v>23.8823</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4372</v>
+        <v>29.9399</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4779</v>
+        <v>12.4695</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9274</v>
+        <v>14.9084</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5908</v>
+        <v>27.989</v>
       </c>
       <c r="E5" t="n">
-        <v>36.7857</v>
+        <v>36.6431</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6443</v>
+        <v>14.5684</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6184</v>
+        <v>17.5414</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5531</v>
+        <v>33.8004</v>
       </c>
       <c r="E6" t="n">
-        <v>43.5989</v>
+        <v>41.5622</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7977</v>
+        <v>16.8078</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2112</v>
+        <v>20.3008</v>
       </c>
       <c r="D7" t="n">
-        <v>41.6281</v>
+        <v>39.1514</v>
       </c>
       <c r="E7" t="n">
-        <v>49.3665</v>
+        <v>46.7904</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2628</v>
+        <v>18.2772</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4096</v>
+        <v>22.8502</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8426</v>
+        <v>42.3868</v>
       </c>
       <c r="E8" t="n">
-        <v>53.957</v>
+        <v>51.8663</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4583</v>
+        <v>21.3706</v>
       </c>
       <c r="C9" t="n">
-        <v>25.278</v>
+        <v>25.0156</v>
       </c>
       <c r="D9" t="n">
-        <v>49.2219</v>
+        <v>46.833</v>
       </c>
       <c r="E9" t="n">
-        <v>57.9746</v>
+        <v>54.8747</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.97</v>
+        <v>18.453</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1791</v>
+        <v>24.4472</v>
       </c>
       <c r="D10" t="n">
-        <v>46.7521</v>
+        <v>44.2472</v>
       </c>
       <c r="E10" t="n">
-        <v>55.6137</v>
+        <v>53.9928</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3899</v>
+        <v>18.4471</v>
       </c>
       <c r="C11" t="n">
-        <v>23.6015</v>
+        <v>23.714</v>
       </c>
       <c r="D11" t="n">
-        <v>46.6733</v>
+        <v>45.9965</v>
       </c>
       <c r="E11" t="n">
-        <v>56.4596</v>
+        <v>55.4703</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8146</v>
+        <v>18.8955</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0244</v>
+        <v>24.1887</v>
       </c>
       <c r="D12" t="n">
-        <v>46.8919</v>
+        <v>44.5805</v>
       </c>
       <c r="E12" t="n">
-        <v>59.8309</v>
+        <v>55.2047</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4079</v>
+        <v>19.6276</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8378</v>
+        <v>24.8242</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2785</v>
+        <v>47.4305</v>
       </c>
       <c r="E13" t="n">
-        <v>61.3437</v>
+        <v>57.7589</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1994</v>
+        <v>19.4451</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3221</v>
+        <v>25.4511</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6658</v>
+        <v>47.0894</v>
       </c>
       <c r="E14" t="n">
-        <v>63.6022</v>
+        <v>59.4059</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.174</v>
+        <v>18.8532</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1495</v>
+        <v>26.2717</v>
       </c>
       <c r="D15" t="n">
-        <v>48.7339</v>
+        <v>46.3029</v>
       </c>
       <c r="E15" t="n">
-        <v>64.7503</v>
+        <v>61.5665</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2404</v>
+        <v>19.3541</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7986</v>
+        <v>26.8642</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2461</v>
+        <v>48.6655</v>
       </c>
       <c r="E16" t="n">
-        <v>63.6175</v>
+        <v>62.5348</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4258</v>
+        <v>19.0209</v>
       </c>
       <c r="C17" t="n">
-        <v>27.286</v>
+        <v>27.4255</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1508</v>
+        <v>48.9221</v>
       </c>
       <c r="E17" t="n">
-        <v>65.262</v>
+        <v>64.91679999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1324</v>
+        <v>10.0833</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7637</v>
+        <v>13.7522</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1263</v>
+        <v>16.8809</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4397</v>
+        <v>20.0265</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.57405</v>
+        <v>9.437430000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.721</v>
+        <v>10.6808</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5006</v>
+        <v>19.332</v>
       </c>
       <c r="E3" t="n">
-        <v>23.224</v>
+        <v>23.2054</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2123</v>
+        <v>11.0643</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4265</v>
+        <v>12.447</v>
       </c>
       <c r="D4" t="n">
-        <v>24.607</v>
+        <v>23.9785</v>
       </c>
       <c r="E4" t="n">
-        <v>30.8284</v>
+        <v>30.1187</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0058</v>
+        <v>13.102</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8583</v>
+        <v>14.841</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4281</v>
+        <v>28.2022</v>
       </c>
       <c r="E5" t="n">
-        <v>37.3836</v>
+        <v>35.8953</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1046</v>
+        <v>15.1611</v>
       </c>
       <c r="C6" t="n">
-        <v>17.3067</v>
+        <v>17.556</v>
       </c>
       <c r="D6" t="n">
-        <v>34.3819</v>
+        <v>34.1391</v>
       </c>
       <c r="E6" t="n">
-        <v>41.3661</v>
+        <v>40.3544</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2663</v>
+        <v>17.2615</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2184</v>
+        <v>20.1291</v>
       </c>
       <c r="D7" t="n">
-        <v>41.2339</v>
+        <v>39.4436</v>
       </c>
       <c r="E7" t="n">
-        <v>47.2673</v>
+        <v>47.6778</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9177</v>
+        <v>18.8844</v>
       </c>
       <c r="C8" t="n">
-        <v>22.259</v>
+        <v>22.6698</v>
       </c>
       <c r="D8" t="n">
-        <v>43.5875</v>
+        <v>41.5622</v>
       </c>
       <c r="E8" t="n">
-        <v>51.4756</v>
+        <v>51.5218</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3392</v>
+        <v>22.4133</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1109</v>
+        <v>25.0798</v>
       </c>
       <c r="D9" t="n">
-        <v>49.5912</v>
+        <v>47.0294</v>
       </c>
       <c r="E9" t="n">
-        <v>60.1335</v>
+        <v>53.4336</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.855</v>
+        <v>19.2279</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3143</v>
+        <v>24.4595</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3208</v>
+        <v>44.391</v>
       </c>
       <c r="E10" t="n">
-        <v>54.4161</v>
+        <v>54.0771</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1801</v>
+        <v>18.9501</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3576</v>
+        <v>23.7789</v>
       </c>
       <c r="D11" t="n">
-        <v>47.2201</v>
+        <v>45.645</v>
       </c>
       <c r="E11" t="n">
-        <v>56.9706</v>
+        <v>57.074</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.9054</v>
+        <v>19.6358</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2801</v>
+        <v>24.5968</v>
       </c>
       <c r="D12" t="n">
-        <v>48.934</v>
+        <v>47.2219</v>
       </c>
       <c r="E12" t="n">
-        <v>57.8787</v>
+        <v>56.3285</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2832</v>
+        <v>20.4332</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6982</v>
+        <v>25.0089</v>
       </c>
       <c r="D13" t="n">
-        <v>49.2106</v>
+        <v>48.2011</v>
       </c>
       <c r="E13" t="n">
-        <v>59.5729</v>
+        <v>57.3123</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9436</v>
+        <v>19.6335</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6126</v>
+        <v>25.4728</v>
       </c>
       <c r="D14" t="n">
-        <v>50.2905</v>
+        <v>49.295</v>
       </c>
       <c r="E14" t="n">
-        <v>60.5068</v>
+        <v>61.2183</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.3385</v>
+        <v>19.6245</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0933</v>
+        <v>26.1667</v>
       </c>
       <c r="D15" t="n">
-        <v>48.5654</v>
+        <v>49.0252</v>
       </c>
       <c r="E15" t="n">
-        <v>64.1662</v>
+        <v>60.9723</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0974</v>
+        <v>19.5401</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9657</v>
+        <v>26.852</v>
       </c>
       <c r="D16" t="n">
-        <v>48.2781</v>
+        <v>50.0763</v>
       </c>
       <c r="E16" t="n">
-        <v>64.3263</v>
+        <v>62.2517</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8791</v>
+        <v>20.0677</v>
       </c>
       <c r="C17" t="n">
-        <v>27.437</v>
+        <v>27.4674</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8333</v>
+        <v>49.3989</v>
       </c>
       <c r="E17" t="n">
-        <v>63.9529</v>
+        <v>66.05970000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5994</v>
+        <v>12.6905</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2308</v>
+        <v>15.0042</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0524</v>
+        <v>18.6775</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6857</v>
+        <v>21.1588</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.8898</v>
+        <v>10.873</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8684</v>
+        <v>11.7552</v>
       </c>
       <c r="D3" t="n">
-        <v>22.099</v>
+        <v>21.3451</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7097</v>
+        <v>24.998</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8966</v>
+        <v>12.8364</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8691</v>
+        <v>13.8831</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0756</v>
+        <v>27.1274</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0736</v>
+        <v>32.2237</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1598</v>
+        <v>15.1091</v>
       </c>
       <c r="C5" t="n">
-        <v>16.709</v>
+        <v>16.7017</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2019</v>
+        <v>32.825</v>
       </c>
       <c r="E5" t="n">
-        <v>40.3318</v>
+        <v>40.0863</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7895</v>
+        <v>17.8438</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6112</v>
+        <v>19.695</v>
       </c>
       <c r="D6" t="n">
-        <v>39.6591</v>
+        <v>38.1881</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9865</v>
+        <v>46.1451</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7866</v>
+        <v>20.8436</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5582</v>
+        <v>22.6359</v>
       </c>
       <c r="D7" t="n">
-        <v>46.3779</v>
+        <v>44.3839</v>
       </c>
       <c r="E7" t="n">
-        <v>52.4147</v>
+        <v>51.7521</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.2967</v>
+        <v>23.4231</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8248</v>
+        <v>24.9125</v>
       </c>
       <c r="D8" t="n">
-        <v>49.2894</v>
+        <v>48.3349</v>
       </c>
       <c r="E8" t="n">
-        <v>57.1274</v>
+        <v>57.3492</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7103</v>
+        <v>26.7534</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2044</v>
+        <v>27.0631</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0923</v>
+        <v>54.6596</v>
       </c>
       <c r="E9" t="n">
-        <v>62.0514</v>
+        <v>61.5876</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9455</v>
+        <v>25.3303</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5604</v>
+        <v>26.2219</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7758</v>
+        <v>50.6745</v>
       </c>
       <c r="E10" t="n">
-        <v>59.4852</v>
+        <v>59.328</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.0643</v>
+        <v>24.0814</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5297</v>
+        <v>25.512</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3122</v>
+        <v>51.7906</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7569</v>
+        <v>58.6618</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.5745</v>
+        <v>23.9415</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6505</v>
+        <v>25.6844</v>
       </c>
       <c r="D12" t="n">
-        <v>54.8465</v>
+        <v>52.3003</v>
       </c>
       <c r="E12" t="n">
-        <v>64.4755</v>
+        <v>60.6004</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.2049</v>
+        <v>25.8063</v>
       </c>
       <c r="C13" t="n">
-        <v>26.215</v>
+        <v>26.2552</v>
       </c>
       <c r="D13" t="n">
-        <v>56.2666</v>
+        <v>53.546</v>
       </c>
       <c r="E13" t="n">
-        <v>63.7139</v>
+        <v>64.4126</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4387</v>
+        <v>24.0518</v>
       </c>
       <c r="C14" t="n">
-        <v>27.0381</v>
+        <v>27.1495</v>
       </c>
       <c r="D14" t="n">
-        <v>55.9587</v>
+        <v>53.6356</v>
       </c>
       <c r="E14" t="n">
-        <v>63.4034</v>
+        <v>63.4845</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8847</v>
+        <v>23.1413</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5589</v>
+        <v>27.5845</v>
       </c>
       <c r="D15" t="n">
-        <v>57.9772</v>
+        <v>57.7041</v>
       </c>
       <c r="E15" t="n">
-        <v>65.8565</v>
+        <v>63.5976</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0811</v>
+        <v>23.882</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3233</v>
+        <v>28.5489</v>
       </c>
       <c r="D16" t="n">
-        <v>56.4022</v>
+        <v>53.5272</v>
       </c>
       <c r="E16" t="n">
-        <v>65.24290000000001</v>
+        <v>65.0474</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.5735</v>
+        <v>23.7254</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1801</v>
+        <v>29.1374</v>
       </c>
       <c r="D17" t="n">
-        <v>54.6969</v>
+        <v>56.1444</v>
       </c>
       <c r="E17" t="n">
-        <v>63.844</v>
+        <v>62.7131</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.81842</v>
+        <v>3.83383</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6917</v>
+        <v>10.7088</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7571</v>
+        <v>12.6682</v>
       </c>
       <c r="E2" t="n">
-        <v>17.9231</v>
+        <v>17.8276</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.07183</v>
+        <v>6.12354</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1258</v>
+        <v>10.3174</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8403</v>
+        <v>18.7198</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9151</v>
+        <v>25.3663</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.381690000000001</v>
+        <v>8.274319999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5996</v>
+        <v>12.5485</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7754</v>
+        <v>25.1712</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2081</v>
+        <v>34.7324</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4232</v>
+        <v>10.462</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9726</v>
+        <v>15.0998</v>
       </c>
       <c r="D5" t="n">
-        <v>31.8717</v>
+        <v>31.4051</v>
       </c>
       <c r="E5" t="n">
-        <v>45.6255</v>
+        <v>43.4723</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3835</v>
+        <v>12.4068</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5889</v>
+        <v>17.7681</v>
       </c>
       <c r="D6" t="n">
-        <v>37.7697</v>
+        <v>37.202</v>
       </c>
       <c r="E6" t="n">
-        <v>55.1669</v>
+        <v>52.3845</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3786</v>
+        <v>14.2181</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3212</v>
+        <v>20.4448</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7587</v>
+        <v>43.3711</v>
       </c>
       <c r="E7" t="n">
-        <v>64.1832</v>
+        <v>61.514</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1345</v>
+        <v>16.1793</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4118</v>
+        <v>23.559</v>
       </c>
       <c r="D8" t="n">
-        <v>50.1429</v>
+        <v>49.5431</v>
       </c>
       <c r="E8" t="n">
-        <v>73.6216</v>
+        <v>69.95659999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5018</v>
+        <v>18.5306</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9525</v>
+        <v>27.2584</v>
       </c>
       <c r="D9" t="n">
-        <v>60.2403</v>
+        <v>58.6405</v>
       </c>
       <c r="E9" t="n">
-        <v>82.66679999999999</v>
+        <v>78.5214</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3973</v>
+        <v>17.3518</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3816</v>
+        <v>25.1705</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1319</v>
+        <v>54.5675</v>
       </c>
       <c r="E10" t="n">
-        <v>73.714</v>
+        <v>72.2651</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.54</v>
+        <v>17.4504</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8445</v>
+        <v>25.0601</v>
       </c>
       <c r="D11" t="n">
-        <v>53.5871</v>
+        <v>52.9169</v>
       </c>
       <c r="E11" t="n">
-        <v>72.7439</v>
+        <v>70.3493</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6797</v>
+        <v>17.6358</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7969</v>
+        <v>25.2456</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3402</v>
+        <v>53.8723</v>
       </c>
       <c r="E12" t="n">
-        <v>75.21680000000001</v>
+        <v>71.7512</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7446</v>
+        <v>17.7882</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4659</v>
+        <v>25.4703</v>
       </c>
       <c r="D13" t="n">
-        <v>56.9449</v>
+        <v>54.491</v>
       </c>
       <c r="E13" t="n">
-        <v>76.84269999999999</v>
+        <v>72.04170000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0417</v>
+        <v>17.4012</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6094</v>
+        <v>25.8333</v>
       </c>
       <c r="D14" t="n">
-        <v>55.0502</v>
+        <v>53.9499</v>
       </c>
       <c r="E14" t="n">
-        <v>76.0772</v>
+        <v>71.73820000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8626</v>
+        <v>17.8887</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0586</v>
+        <v>26.2667</v>
       </c>
       <c r="D15" t="n">
-        <v>56.1072</v>
+        <v>53.5202</v>
       </c>
       <c r="E15" t="n">
-        <v>76.8396</v>
+        <v>71.7024</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9718</v>
+        <v>17.7447</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6909</v>
+        <v>26.8515</v>
       </c>
       <c r="D16" t="n">
-        <v>55.4586</v>
+        <v>54.7437</v>
       </c>
       <c r="E16" t="n">
-        <v>76.2039</v>
+        <v>72.9198</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8093</v>
+        <v>17.9523</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2314</v>
+        <v>27.4631</v>
       </c>
       <c r="D17" t="n">
-        <v>55.8194</v>
+        <v>54.2728</v>
       </c>
       <c r="E17" t="n">
-        <v>74.8776</v>
+        <v>72.3762</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.84926</v>
+        <v>3.99872</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8063</v>
+        <v>10.6771</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7271</v>
+        <v>12.7298</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1545</v>
+        <v>18.1366</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.10874</v>
+        <v>6.14036</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2365</v>
+        <v>10.175</v>
       </c>
       <c r="D3" t="n">
-        <v>18.942</v>
+        <v>18.6428</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8139</v>
+        <v>25.1414</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.46172</v>
+        <v>8.457789999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4836</v>
+        <v>12.5812</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8571</v>
+        <v>25.3521</v>
       </c>
       <c r="E4" t="n">
-        <v>35.7855</v>
+        <v>34.7232</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5553</v>
+        <v>10.4897</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9781</v>
+        <v>15.0625</v>
       </c>
       <c r="D5" t="n">
-        <v>32.4696</v>
+        <v>31.6844</v>
       </c>
       <c r="E5" t="n">
-        <v>45.1252</v>
+        <v>43.7017</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6224</v>
+        <v>12.6056</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6122</v>
+        <v>17.6952</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6251</v>
+        <v>37.5347</v>
       </c>
       <c r="E6" t="n">
-        <v>54.7945</v>
+        <v>53.0391</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.478</v>
+        <v>14.6531</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2559</v>
+        <v>20.4313</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8081</v>
+        <v>44.3</v>
       </c>
       <c r="E7" t="n">
-        <v>64.0599</v>
+        <v>61.7521</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4023</v>
+        <v>16.4294</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4793</v>
+        <v>23.5894</v>
       </c>
       <c r="D8" t="n">
-        <v>51.1245</v>
+        <v>49.7003</v>
       </c>
       <c r="E8" t="n">
-        <v>73.35290000000001</v>
+        <v>70.3644</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9924</v>
+        <v>18.821</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7993</v>
+        <v>26.9759</v>
       </c>
       <c r="D9" t="n">
-        <v>60.3307</v>
+        <v>58.8805</v>
       </c>
       <c r="E9" t="n">
-        <v>82.3514</v>
+        <v>78.9734</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.9724</v>
+        <v>18.065</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5556</v>
+        <v>25.179</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3342</v>
+        <v>53.2151</v>
       </c>
       <c r="E10" t="n">
-        <v>72.4652</v>
+        <v>72.0899</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7641</v>
+        <v>17.6444</v>
       </c>
       <c r="C11" t="n">
-        <v>25.027</v>
+        <v>25.0528</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9178</v>
+        <v>54.802</v>
       </c>
       <c r="E11" t="n">
-        <v>72.94199999999999</v>
+        <v>69.1065</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9555</v>
+        <v>17.8285</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0291</v>
+        <v>25.3258</v>
       </c>
       <c r="D12" t="n">
-        <v>54.42</v>
+        <v>54.3111</v>
       </c>
       <c r="E12" t="n">
-        <v>74.78530000000001</v>
+        <v>72.1923</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3761</v>
+        <v>18.3016</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1836</v>
+        <v>25.4649</v>
       </c>
       <c r="D13" t="n">
-        <v>56.9664</v>
+        <v>54.993</v>
       </c>
       <c r="E13" t="n">
-        <v>76.84520000000001</v>
+        <v>72.93810000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.6631</v>
+        <v>17.5232</v>
       </c>
       <c r="C14" t="n">
-        <v>25.633</v>
+        <v>25.9112</v>
       </c>
       <c r="D14" t="n">
-        <v>56.2204</v>
+        <v>54.2694</v>
       </c>
       <c r="E14" t="n">
-        <v>74.65470000000001</v>
+        <v>72.9714</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2572</v>
+        <v>18.185</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0417</v>
+        <v>26.2439</v>
       </c>
       <c r="D15" t="n">
-        <v>56.1207</v>
+        <v>54.9746</v>
       </c>
       <c r="E15" t="n">
-        <v>75.98269999999999</v>
+        <v>71.0861</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.3616</v>
+        <v>18.343</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6749</v>
+        <v>26.8048</v>
       </c>
       <c r="D16" t="n">
-        <v>56.811</v>
+        <v>54.1433</v>
       </c>
       <c r="E16" t="n">
-        <v>75.2636</v>
+        <v>73.06780000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8656</v>
+        <v>18.4001</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3217</v>
+        <v>27.3548</v>
       </c>
       <c r="D17" t="n">
-        <v>56.6553</v>
+        <v>54.4493</v>
       </c>
       <c r="E17" t="n">
-        <v>73.91459999999999</v>
+        <v>72.47150000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.125299999999999</v>
+        <v>8.061920000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1931</v>
+        <v>14.2159</v>
       </c>
       <c r="D2" t="n">
-        <v>17.7448</v>
+        <v>17.4888</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4257</v>
+        <v>20.9469</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.51699</v>
+        <v>9.39203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4276</v>
+        <v>11.3187</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4937</v>
+        <v>22.2038</v>
       </c>
       <c r="E3" t="n">
-        <v>26.8327</v>
+        <v>26.463</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0812</v>
+        <v>12.1564</v>
       </c>
       <c r="C4" t="n">
-        <v>13.607</v>
+        <v>13.7767</v>
       </c>
       <c r="D4" t="n">
-        <v>29.618</v>
+        <v>29.627</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7632</v>
+        <v>36.8418</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6207</v>
+        <v>14.632</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0355</v>
+        <v>16.2483</v>
       </c>
       <c r="D5" t="n">
-        <v>36.707</v>
+        <v>36.3403</v>
       </c>
       <c r="E5" t="n">
-        <v>46.6181</v>
+        <v>46.534</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1075</v>
+        <v>17.3177</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9242</v>
+        <v>19.1003</v>
       </c>
       <c r="D6" t="n">
-        <v>44.315</v>
+        <v>43.6837</v>
       </c>
       <c r="E6" t="n">
-        <v>56.5218</v>
+        <v>56.2426</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.744</v>
+        <v>19.9613</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7397</v>
+        <v>21.9274</v>
       </c>
       <c r="D7" t="n">
-        <v>51.8618</v>
+        <v>50.9406</v>
       </c>
       <c r="E7" t="n">
-        <v>66.4889</v>
+        <v>65.96380000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8136</v>
+        <v>22.7014</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7747</v>
+        <v>24.9141</v>
       </c>
       <c r="D8" t="n">
-        <v>59.1163</v>
+        <v>58.1078</v>
       </c>
       <c r="E8" t="n">
-        <v>75.5138</v>
+        <v>74.64960000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6989</v>
+        <v>26.6294</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5424</v>
+        <v>27.7496</v>
       </c>
       <c r="D9" t="n">
-        <v>69.8968</v>
+        <v>68.2201</v>
       </c>
       <c r="E9" t="n">
-        <v>85.9041</v>
+        <v>85.01860000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1492</v>
+        <v>25.0637</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4848</v>
+        <v>26.6269</v>
       </c>
       <c r="D10" t="n">
-        <v>63.8634</v>
+        <v>63.3959</v>
       </c>
       <c r="E10" t="n">
-        <v>77.58759999999999</v>
+        <v>75.9348</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1003</v>
+        <v>24.9591</v>
       </c>
       <c r="C11" t="n">
-        <v>26.337</v>
+        <v>26.3495</v>
       </c>
       <c r="D11" t="n">
-        <v>63.4318</v>
+        <v>63.121</v>
       </c>
       <c r="E11" t="n">
-        <v>77.77379999999999</v>
+        <v>75.88930000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4356</v>
+        <v>25.1402</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6386</v>
+        <v>26.6792</v>
       </c>
       <c r="D12" t="n">
-        <v>64.7949</v>
+        <v>64.3977</v>
       </c>
       <c r="E12" t="n">
-        <v>79.9652</v>
+        <v>77.7169</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5934</v>
+        <v>25.4768</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1232</v>
+        <v>27.1184</v>
       </c>
       <c r="D13" t="n">
-        <v>65.46040000000001</v>
+        <v>64.31140000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>80.2299</v>
+        <v>80.16419999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.6539</v>
+        <v>24.816</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5483</v>
+        <v>27.6845</v>
       </c>
       <c r="D14" t="n">
-        <v>65.48090000000001</v>
+        <v>64.3154</v>
       </c>
       <c r="E14" t="n">
-        <v>79.4303</v>
+        <v>79.7212</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.531</v>
+        <v>25.605</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1635</v>
+        <v>28.3347</v>
       </c>
       <c r="D15" t="n">
-        <v>66.5059</v>
+        <v>65.0835</v>
       </c>
       <c r="E15" t="n">
-        <v>80.8896</v>
+        <v>80.02970000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3023</v>
+        <v>25.5332</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9242</v>
+        <v>28.9985</v>
       </c>
       <c r="D16" t="n">
-        <v>65.87820000000001</v>
+        <v>66.4256</v>
       </c>
       <c r="E16" t="n">
-        <v>82.2753</v>
+        <v>81.4323</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.577</v>
+        <v>25.3821</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7132</v>
+        <v>29.8694</v>
       </c>
       <c r="D17" t="n">
-        <v>66.3561</v>
+        <v>66.69799999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>80.5111</v>
+        <v>82.1281</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.53027</v>
+        <v>9.430529999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8981</v>
+        <v>13.9118</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9893</v>
+        <v>17.4431</v>
       </c>
       <c r="E2" t="n">
-        <v>20.133</v>
+        <v>20.6631</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.950799999999999</v>
+        <v>9.11833</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4338</v>
+        <v>10.6342</v>
       </c>
       <c r="D3" t="n">
-        <v>19.1948</v>
+        <v>19.5405</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3266</v>
+        <v>23.869</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7344</v>
+        <v>10.7456</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4863</v>
+        <v>12.4854</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8823</v>
+        <v>24.4734</v>
       </c>
       <c r="E4" t="n">
-        <v>29.9399</v>
+        <v>30.5884</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4695</v>
+        <v>12.6041</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9084</v>
+        <v>14.736</v>
       </c>
       <c r="D5" t="n">
-        <v>27.989</v>
+        <v>29.6645</v>
       </c>
       <c r="E5" t="n">
-        <v>36.6431</v>
+        <v>37.5063</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5684</v>
+        <v>14.6463</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5414</v>
+        <v>17.5296</v>
       </c>
       <c r="D6" t="n">
-        <v>33.8004</v>
+        <v>34.5308</v>
       </c>
       <c r="E6" t="n">
-        <v>41.5622</v>
+        <v>42.8406</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8078</v>
+        <v>16.8188</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3008</v>
+        <v>20.5475</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1514</v>
+        <v>40.7239</v>
       </c>
       <c r="E7" t="n">
-        <v>46.7904</v>
+        <v>47.1916</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2772</v>
+        <v>18.2762</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8502</v>
+        <v>22.5584</v>
       </c>
       <c r="D8" t="n">
-        <v>42.3868</v>
+        <v>43.3761</v>
       </c>
       <c r="E8" t="n">
-        <v>51.8663</v>
+        <v>52.8664</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3706</v>
+        <v>21.457</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0156</v>
+        <v>24.8426</v>
       </c>
       <c r="D9" t="n">
-        <v>46.833</v>
+        <v>48.1557</v>
       </c>
       <c r="E9" t="n">
-        <v>54.8747</v>
+        <v>58.629</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.453</v>
+        <v>18.8155</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4472</v>
+        <v>23.8116</v>
       </c>
       <c r="D10" t="n">
-        <v>44.2472</v>
+        <v>46.9153</v>
       </c>
       <c r="E10" t="n">
-        <v>53.9928</v>
+        <v>56.9147</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4471</v>
+        <v>18.5822</v>
       </c>
       <c r="C11" t="n">
-        <v>23.714</v>
+        <v>23.4707</v>
       </c>
       <c r="D11" t="n">
-        <v>45.9965</v>
+        <v>45.4922</v>
       </c>
       <c r="E11" t="n">
-        <v>55.4703</v>
+        <v>57.5054</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8955</v>
+        <v>19.1347</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1887</v>
+        <v>24.0296</v>
       </c>
       <c r="D12" t="n">
-        <v>44.5805</v>
+        <v>48.4217</v>
       </c>
       <c r="E12" t="n">
-        <v>55.2047</v>
+        <v>57.5539</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6276</v>
+        <v>19.6383</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8242</v>
+        <v>24.6526</v>
       </c>
       <c r="D13" t="n">
-        <v>47.4305</v>
+        <v>49.1034</v>
       </c>
       <c r="E13" t="n">
-        <v>57.7589</v>
+        <v>60.6755</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.4451</v>
+        <v>18.9234</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4511</v>
+        <v>25.2971</v>
       </c>
       <c r="D14" t="n">
-        <v>47.0894</v>
+        <v>48.4493</v>
       </c>
       <c r="E14" t="n">
-        <v>59.4059</v>
+        <v>63.5556</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8532</v>
+        <v>18.6794</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2717</v>
+        <v>26.2554</v>
       </c>
       <c r="D15" t="n">
-        <v>46.3029</v>
+        <v>51.2136</v>
       </c>
       <c r="E15" t="n">
-        <v>61.5665</v>
+        <v>63.6609</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3541</v>
+        <v>19.1367</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8642</v>
+        <v>26.955</v>
       </c>
       <c r="D16" t="n">
-        <v>48.6655</v>
+        <v>48.4798</v>
       </c>
       <c r="E16" t="n">
-        <v>62.5348</v>
+        <v>67.27119999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0209</v>
+        <v>18.933</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4255</v>
+        <v>27.4102</v>
       </c>
       <c r="D17" t="n">
-        <v>48.9221</v>
+        <v>48.8187</v>
       </c>
       <c r="E17" t="n">
-        <v>64.91679999999999</v>
+        <v>66.3865</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0833</v>
+        <v>10.176</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7522</v>
+        <v>13.7656</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8809</v>
+        <v>17.285</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0265</v>
+        <v>20.4877</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.437430000000001</v>
+        <v>9.437799999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6808</v>
+        <v>10.5956</v>
       </c>
       <c r="D3" t="n">
-        <v>19.332</v>
+        <v>19.6787</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2054</v>
+        <v>23.8328</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0643</v>
+        <v>11.1031</v>
       </c>
       <c r="C4" t="n">
-        <v>12.447</v>
+        <v>12.2918</v>
       </c>
       <c r="D4" t="n">
-        <v>23.9785</v>
+        <v>24.2391</v>
       </c>
       <c r="E4" t="n">
-        <v>30.1187</v>
+        <v>30.4484</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.102</v>
+        <v>13.0802</v>
       </c>
       <c r="C5" t="n">
-        <v>14.841</v>
+        <v>14.7339</v>
       </c>
       <c r="D5" t="n">
-        <v>28.2022</v>
+        <v>29.651</v>
       </c>
       <c r="E5" t="n">
-        <v>35.8953</v>
+        <v>36.7323</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1611</v>
+        <v>15.1724</v>
       </c>
       <c r="C6" t="n">
-        <v>17.556</v>
+        <v>17.4056</v>
       </c>
       <c r="D6" t="n">
-        <v>34.1391</v>
+        <v>36.1298</v>
       </c>
       <c r="E6" t="n">
-        <v>40.3544</v>
+        <v>42.736</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2615</v>
+        <v>17.2346</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1291</v>
+        <v>19.9921</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4436</v>
+        <v>41.4673</v>
       </c>
       <c r="E7" t="n">
-        <v>47.6778</v>
+        <v>48.8368</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8844</v>
+        <v>18.8942</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6698</v>
+        <v>22.2099</v>
       </c>
       <c r="D8" t="n">
-        <v>41.5622</v>
+        <v>44.9988</v>
       </c>
       <c r="E8" t="n">
-        <v>51.5218</v>
+        <v>54.0615</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4133</v>
+        <v>22.4628</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0798</v>
+        <v>25.1135</v>
       </c>
       <c r="D9" t="n">
-        <v>47.0294</v>
+        <v>48.9125</v>
       </c>
       <c r="E9" t="n">
-        <v>53.4336</v>
+        <v>56.8971</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2279</v>
+        <v>19.44</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4595</v>
+        <v>24.9231</v>
       </c>
       <c r="D10" t="n">
-        <v>44.391</v>
+        <v>45.715</v>
       </c>
       <c r="E10" t="n">
-        <v>54.0771</v>
+        <v>56.2841</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.9501</v>
+        <v>19.0628</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7789</v>
+        <v>23.7276</v>
       </c>
       <c r="D11" t="n">
-        <v>45.645</v>
+        <v>46.2425</v>
       </c>
       <c r="E11" t="n">
-        <v>57.074</v>
+        <v>58.1415</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6358</v>
+        <v>19.686</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5968</v>
+        <v>24.1354</v>
       </c>
       <c r="D12" t="n">
-        <v>47.2219</v>
+        <v>46.4293</v>
       </c>
       <c r="E12" t="n">
-        <v>56.3285</v>
+        <v>59.5489</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4332</v>
+        <v>20.3442</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0089</v>
+        <v>24.8429</v>
       </c>
       <c r="D13" t="n">
-        <v>48.2011</v>
+        <v>48.4981</v>
       </c>
       <c r="E13" t="n">
-        <v>57.3123</v>
+        <v>61.0834</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6335</v>
+        <v>19.6207</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4728</v>
+        <v>25.5656</v>
       </c>
       <c r="D14" t="n">
-        <v>49.295</v>
+        <v>49.686</v>
       </c>
       <c r="E14" t="n">
-        <v>61.2183</v>
+        <v>62.3717</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.6245</v>
+        <v>19.9001</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1667</v>
+        <v>25.9853</v>
       </c>
       <c r="D15" t="n">
-        <v>49.0252</v>
+        <v>48.9903</v>
       </c>
       <c r="E15" t="n">
-        <v>60.9723</v>
+        <v>67.0856</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5401</v>
+        <v>19.5079</v>
       </c>
       <c r="C16" t="n">
-        <v>26.852</v>
+        <v>26.9185</v>
       </c>
       <c r="D16" t="n">
-        <v>50.0763</v>
+        <v>50.6932</v>
       </c>
       <c r="E16" t="n">
-        <v>62.2517</v>
+        <v>62.6728</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0677</v>
+        <v>19.3401</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4674</v>
+        <v>27.663</v>
       </c>
       <c r="D17" t="n">
-        <v>49.3989</v>
+        <v>50.4236</v>
       </c>
       <c r="E17" t="n">
-        <v>66.05970000000001</v>
+        <v>62.7849</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6905</v>
+        <v>12.7044</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0042</v>
+        <v>15.2214</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6775</v>
+        <v>19.116</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1588</v>
+        <v>21.6188</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.873</v>
+        <v>10.5402</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7552</v>
+        <v>11.4788</v>
       </c>
       <c r="D3" t="n">
-        <v>21.3451</v>
+        <v>21.7681</v>
       </c>
       <c r="E3" t="n">
-        <v>24.998</v>
+        <v>25.0261</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8364</v>
+        <v>12.8647</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8831</v>
+        <v>13.9054</v>
       </c>
       <c r="D4" t="n">
-        <v>27.1274</v>
+        <v>28.0188</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2237</v>
+        <v>32.2893</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1091</v>
+        <v>15.1144</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7017</v>
+        <v>16.7536</v>
       </c>
       <c r="D5" t="n">
-        <v>32.825</v>
+        <v>32.9294</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0863</v>
+        <v>39.6457</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8438</v>
+        <v>17.9267</v>
       </c>
       <c r="C6" t="n">
-        <v>19.695</v>
+        <v>19.5784</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1881</v>
+        <v>39.4802</v>
       </c>
       <c r="E6" t="n">
-        <v>46.1451</v>
+        <v>46.3789</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.8436</v>
+        <v>20.7654</v>
       </c>
       <c r="C7" t="n">
-        <v>22.6359</v>
+        <v>22.4754</v>
       </c>
       <c r="D7" t="n">
-        <v>44.3839</v>
+        <v>46.9584</v>
       </c>
       <c r="E7" t="n">
-        <v>51.7521</v>
+        <v>51.5511</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.4231</v>
+        <v>23.3971</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9125</v>
+        <v>24.932</v>
       </c>
       <c r="D8" t="n">
-        <v>48.3349</v>
+        <v>49.7611</v>
       </c>
       <c r="E8" t="n">
-        <v>57.3492</v>
+        <v>56.5366</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7534</v>
+        <v>26.6968</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0631</v>
+        <v>27.2863</v>
       </c>
       <c r="D9" t="n">
-        <v>54.6596</v>
+        <v>54.6503</v>
       </c>
       <c r="E9" t="n">
-        <v>61.5876</v>
+        <v>63.4613</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3303</v>
+        <v>25.1759</v>
       </c>
       <c r="C10" t="n">
-        <v>26.2219</v>
+        <v>26.3834</v>
       </c>
       <c r="D10" t="n">
-        <v>50.6745</v>
+        <v>52.7518</v>
       </c>
       <c r="E10" t="n">
-        <v>59.328</v>
+        <v>60.9011</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.0814</v>
+        <v>23.9338</v>
       </c>
       <c r="C11" t="n">
-        <v>25.512</v>
+        <v>25.3943</v>
       </c>
       <c r="D11" t="n">
-        <v>51.7906</v>
+        <v>52.8476</v>
       </c>
       <c r="E11" t="n">
-        <v>58.6618</v>
+        <v>61.2395</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.9415</v>
+        <v>25.1007</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6844</v>
+        <v>25.6691</v>
       </c>
       <c r="D12" t="n">
-        <v>52.3003</v>
+        <v>52.8055</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6004</v>
+        <v>62.0735</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8063</v>
+        <v>24.9607</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2552</v>
+        <v>26.2818</v>
       </c>
       <c r="D13" t="n">
-        <v>53.546</v>
+        <v>54.7048</v>
       </c>
       <c r="E13" t="n">
-        <v>64.4126</v>
+        <v>63.9586</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0518</v>
+        <v>24.5656</v>
       </c>
       <c r="C14" t="n">
-        <v>27.1495</v>
+        <v>26.9834</v>
       </c>
       <c r="D14" t="n">
-        <v>53.6356</v>
+        <v>56.1242</v>
       </c>
       <c r="E14" t="n">
-        <v>63.4845</v>
+        <v>64.9534</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1413</v>
+        <v>23.5523</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5845</v>
+        <v>27.6532</v>
       </c>
       <c r="D15" t="n">
-        <v>57.7041</v>
+        <v>56.478</v>
       </c>
       <c r="E15" t="n">
-        <v>63.5976</v>
+        <v>64.8198</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.882</v>
+        <v>23.731</v>
       </c>
       <c r="C16" t="n">
-        <v>28.5489</v>
+        <v>28.3308</v>
       </c>
       <c r="D16" t="n">
-        <v>53.5272</v>
+        <v>56.7576</v>
       </c>
       <c r="E16" t="n">
-        <v>65.0474</v>
+        <v>62.6277</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7254</v>
+        <v>23.791</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1374</v>
+        <v>28.9183</v>
       </c>
       <c r="D17" t="n">
-        <v>56.1444</v>
+        <v>53.5504</v>
       </c>
       <c r="E17" t="n">
-        <v>62.7131</v>
+        <v>61.7437</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.83383</v>
+        <v>3.944</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7088</v>
+        <v>10.7571</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6682</v>
+        <v>12.9607</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8276</v>
+        <v>18.166</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12354</v>
+        <v>6.03458</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3174</v>
+        <v>10.1213</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7198</v>
+        <v>19.0048</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3663</v>
+        <v>26.1269</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.274319999999999</v>
+        <v>8.28964</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5485</v>
+        <v>12.5401</v>
       </c>
       <c r="D4" t="n">
-        <v>25.1712</v>
+        <v>25.9415</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7324</v>
+        <v>36.2243</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.462</v>
+        <v>10.3766</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0998</v>
+        <v>15.0286</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4051</v>
+        <v>31.9258</v>
       </c>
       <c r="E5" t="n">
-        <v>43.4723</v>
+        <v>45.9628</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4068</v>
+        <v>12.3998</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7681</v>
+        <v>17.6319</v>
       </c>
       <c r="D6" t="n">
-        <v>37.202</v>
+        <v>38.0006</v>
       </c>
       <c r="E6" t="n">
-        <v>52.3845</v>
+        <v>55.501</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2181</v>
+        <v>14.3046</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4448</v>
+        <v>20.4186</v>
       </c>
       <c r="D7" t="n">
-        <v>43.3711</v>
+        <v>44.7982</v>
       </c>
       <c r="E7" t="n">
-        <v>61.514</v>
+        <v>64.5009</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1793</v>
+        <v>16.2285</v>
       </c>
       <c r="C8" t="n">
-        <v>23.559</v>
+        <v>23.4746</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5431</v>
+        <v>50.6294</v>
       </c>
       <c r="E8" t="n">
-        <v>69.95659999999999</v>
+        <v>73.2882</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5306</v>
+        <v>18.4671</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2584</v>
+        <v>26.9947</v>
       </c>
       <c r="D9" t="n">
-        <v>58.6405</v>
+        <v>60.1942</v>
       </c>
       <c r="E9" t="n">
-        <v>78.5214</v>
+        <v>82.3845</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3518</v>
+        <v>17.3581</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1705</v>
+        <v>25.0503</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5675</v>
+        <v>56.0702</v>
       </c>
       <c r="E10" t="n">
-        <v>72.2651</v>
+        <v>74.217</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4504</v>
+        <v>17.042</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0601</v>
+        <v>25.0609</v>
       </c>
       <c r="D11" t="n">
-        <v>52.9169</v>
+        <v>54.5466</v>
       </c>
       <c r="E11" t="n">
-        <v>70.3493</v>
+        <v>72.9366</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6358</v>
+        <v>17.5771</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2456</v>
+        <v>25.2831</v>
       </c>
       <c r="D12" t="n">
-        <v>53.8723</v>
+        <v>56.3452</v>
       </c>
       <c r="E12" t="n">
-        <v>71.7512</v>
+        <v>75.3981</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7882</v>
+        <v>17.7993</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4703</v>
+        <v>25.4253</v>
       </c>
       <c r="D13" t="n">
-        <v>54.491</v>
+        <v>56.5923</v>
       </c>
       <c r="E13" t="n">
-        <v>72.04170000000001</v>
+        <v>76.49890000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4012</v>
+        <v>17.2605</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8333</v>
+        <v>25.6621</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9499</v>
+        <v>55.5527</v>
       </c>
       <c r="E14" t="n">
-        <v>71.73820000000001</v>
+        <v>75.36490000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8887</v>
+        <v>17.8805</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2667</v>
+        <v>26.1149</v>
       </c>
       <c r="D15" t="n">
-        <v>53.5202</v>
+        <v>56.0092</v>
       </c>
       <c r="E15" t="n">
-        <v>71.7024</v>
+        <v>75.49939999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7447</v>
+        <v>17.7498</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8515</v>
+        <v>26.7595</v>
       </c>
       <c r="D16" t="n">
-        <v>54.7437</v>
+        <v>56.079</v>
       </c>
       <c r="E16" t="n">
-        <v>72.9198</v>
+        <v>77.2076</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9523</v>
+        <v>17.7956</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4631</v>
+        <v>27.3139</v>
       </c>
       <c r="D17" t="n">
-        <v>54.2728</v>
+        <v>56.0367</v>
       </c>
       <c r="E17" t="n">
-        <v>72.3762</v>
+        <v>77.55249999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99872</v>
+        <v>3.93853</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6771</v>
+        <v>10.8348</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7298</v>
+        <v>12.8867</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1366</v>
+        <v>18.3074</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.14036</v>
+        <v>6.22208</v>
       </c>
       <c r="C3" t="n">
-        <v>10.175</v>
+        <v>10.5458</v>
       </c>
       <c r="D3" t="n">
-        <v>18.6428</v>
+        <v>19.5738</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1414</v>
+        <v>26.5161</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.457789999999999</v>
+        <v>8.498250000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5812</v>
+        <v>12.6144</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3521</v>
+        <v>26.1137</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7232</v>
+        <v>36.1179</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4897</v>
+        <v>10.556</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0625</v>
+        <v>15.016</v>
       </c>
       <c r="D5" t="n">
-        <v>31.6844</v>
+        <v>32.3842</v>
       </c>
       <c r="E5" t="n">
-        <v>43.7017</v>
+        <v>45.6865</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6056</v>
+        <v>12.5914</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6952</v>
+        <v>17.6097</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5347</v>
+        <v>38.4378</v>
       </c>
       <c r="E6" t="n">
-        <v>53.0391</v>
+        <v>54.9641</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6531</v>
+        <v>14.5003</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4313</v>
+        <v>20.3581</v>
       </c>
       <c r="D7" t="n">
-        <v>44.3</v>
+        <v>44.5226</v>
       </c>
       <c r="E7" t="n">
-        <v>61.7521</v>
+        <v>63.9847</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4294</v>
+        <v>16.3636</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5894</v>
+        <v>23.4155</v>
       </c>
       <c r="D8" t="n">
-        <v>49.7003</v>
+        <v>50.6939</v>
       </c>
       <c r="E8" t="n">
-        <v>70.3644</v>
+        <v>73.53149999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.821</v>
+        <v>18.9094</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9759</v>
+        <v>26.9246</v>
       </c>
       <c r="D9" t="n">
-        <v>58.8805</v>
+        <v>60.8346</v>
       </c>
       <c r="E9" t="n">
-        <v>78.9734</v>
+        <v>82.6585</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.065</v>
+        <v>17.4971</v>
       </c>
       <c r="C10" t="n">
-        <v>25.179</v>
+        <v>25.0261</v>
       </c>
       <c r="D10" t="n">
-        <v>53.2151</v>
+        <v>53.918</v>
       </c>
       <c r="E10" t="n">
-        <v>72.0899</v>
+        <v>73.52209999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6444</v>
+        <v>17.6988</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0528</v>
+        <v>25.1431</v>
       </c>
       <c r="D11" t="n">
-        <v>54.802</v>
+        <v>55.9726</v>
       </c>
       <c r="E11" t="n">
-        <v>69.1065</v>
+        <v>74.3541</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8285</v>
+        <v>18.0077</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3258</v>
+        <v>24.9063</v>
       </c>
       <c r="D12" t="n">
-        <v>54.3111</v>
+        <v>55.8712</v>
       </c>
       <c r="E12" t="n">
-        <v>72.1923</v>
+        <v>74.45189999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3016</v>
+        <v>18.1934</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4649</v>
+        <v>25.3585</v>
       </c>
       <c r="D13" t="n">
-        <v>54.993</v>
+        <v>56.7289</v>
       </c>
       <c r="E13" t="n">
-        <v>72.93810000000001</v>
+        <v>77.033</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5232</v>
+        <v>17.5559</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9112</v>
+        <v>25.5623</v>
       </c>
       <c r="D14" t="n">
-        <v>54.2694</v>
+        <v>55.9887</v>
       </c>
       <c r="E14" t="n">
-        <v>72.9714</v>
+        <v>75.6769</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.185</v>
+        <v>18.2122</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2439</v>
+        <v>26.1723</v>
       </c>
       <c r="D15" t="n">
-        <v>54.9746</v>
+        <v>56.2471</v>
       </c>
       <c r="E15" t="n">
-        <v>71.0861</v>
+        <v>75.9804</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.343</v>
+        <v>18.1706</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8048</v>
+        <v>26.7784</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1433</v>
+        <v>57.0289</v>
       </c>
       <c r="E16" t="n">
-        <v>73.06780000000001</v>
+        <v>76.69029999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4001</v>
+        <v>18.2734</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3548</v>
+        <v>27.2707</v>
       </c>
       <c r="D17" t="n">
-        <v>54.4493</v>
+        <v>57.1741</v>
       </c>
       <c r="E17" t="n">
-        <v>72.47150000000001</v>
+        <v>77.2668</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.061920000000001</v>
+        <v>8.088990000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2159</v>
+        <v>14.2328</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4888</v>
+        <v>17.8234</v>
       </c>
       <c r="E2" t="n">
-        <v>20.9469</v>
+        <v>21.3349</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.39203</v>
+        <v>9.53368</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3187</v>
+        <v>11.4591</v>
       </c>
       <c r="D3" t="n">
-        <v>22.2038</v>
+        <v>22.4372</v>
       </c>
       <c r="E3" t="n">
-        <v>26.463</v>
+        <v>26.6275</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1564</v>
+        <v>12.0179</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7767</v>
+        <v>13.584</v>
       </c>
       <c r="D4" t="n">
-        <v>29.627</v>
+        <v>29.6467</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8418</v>
+        <v>36.6396</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.632</v>
+        <v>14.6963</v>
       </c>
       <c r="C5" t="n">
-        <v>16.2483</v>
+        <v>16.02</v>
       </c>
       <c r="D5" t="n">
-        <v>36.3403</v>
+        <v>36.7896</v>
       </c>
       <c r="E5" t="n">
-        <v>46.534</v>
+        <v>46.0687</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.3177</v>
+        <v>17.2428</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1003</v>
+        <v>18.9911</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6837</v>
+        <v>44.0427</v>
       </c>
       <c r="E6" t="n">
-        <v>56.2426</v>
+        <v>56.2583</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.9613</v>
+        <v>19.9097</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9274</v>
+        <v>21.7787</v>
       </c>
       <c r="D7" t="n">
-        <v>50.9406</v>
+        <v>51.2794</v>
       </c>
       <c r="E7" t="n">
-        <v>65.96380000000001</v>
+        <v>66.255</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7014</v>
+        <v>22.7182</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9141</v>
+        <v>24.8004</v>
       </c>
       <c r="D8" t="n">
-        <v>58.1078</v>
+        <v>58.912</v>
       </c>
       <c r="E8" t="n">
-        <v>74.64960000000001</v>
+        <v>75.6566</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6294</v>
+        <v>26.6406</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7496</v>
+        <v>27.766</v>
       </c>
       <c r="D9" t="n">
-        <v>68.2201</v>
+        <v>69.8563</v>
       </c>
       <c r="E9" t="n">
-        <v>85.01860000000001</v>
+        <v>85.2679</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0637</v>
+        <v>25.1381</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6269</v>
+        <v>26.4676</v>
       </c>
       <c r="D10" t="n">
-        <v>63.3959</v>
+        <v>63.9985</v>
       </c>
       <c r="E10" t="n">
-        <v>75.9348</v>
+        <v>75.56910000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9591</v>
+        <v>24.9809</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3495</v>
+        <v>26.2836</v>
       </c>
       <c r="D11" t="n">
-        <v>63.121</v>
+        <v>63.2974</v>
       </c>
       <c r="E11" t="n">
-        <v>75.88930000000001</v>
+        <v>77.1901</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1402</v>
+        <v>25.2419</v>
       </c>
       <c r="C12" t="n">
-        <v>26.6792</v>
+        <v>26.716</v>
       </c>
       <c r="D12" t="n">
-        <v>64.3977</v>
+        <v>64.86579999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>77.7169</v>
+        <v>79.6751</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4768</v>
+        <v>25.652</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1184</v>
+        <v>27.2178</v>
       </c>
       <c r="D13" t="n">
-        <v>64.31140000000001</v>
+        <v>67.0341</v>
       </c>
       <c r="E13" t="n">
-        <v>80.16419999999999</v>
+        <v>80.7077</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.816</v>
+        <v>24.6407</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6845</v>
+        <v>27.5505</v>
       </c>
       <c r="D14" t="n">
-        <v>64.3154</v>
+        <v>65.4778</v>
       </c>
       <c r="E14" t="n">
-        <v>79.7212</v>
+        <v>80.07559999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.605</v>
+        <v>25.4746</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3347</v>
+        <v>28.1882</v>
       </c>
       <c r="D15" t="n">
-        <v>65.0835</v>
+        <v>66.3334</v>
       </c>
       <c r="E15" t="n">
-        <v>80.02970000000001</v>
+        <v>81.98260000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5332</v>
+        <v>25.4732</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9985</v>
+        <v>28.9915</v>
       </c>
       <c r="D16" t="n">
-        <v>66.4256</v>
+        <v>66.2179</v>
       </c>
       <c r="E16" t="n">
-        <v>81.4323</v>
+        <v>81.8929</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3821</v>
+        <v>25.4161</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8694</v>
+        <v>29.8634</v>
       </c>
       <c r="D17" t="n">
-        <v>66.69799999999999</v>
+        <v>65.2383</v>
       </c>
       <c r="E17" t="n">
-        <v>82.1281</v>
+        <v>79.7988</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.430529999999999</v>
+        <v>9.48185</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9118</v>
+        <v>13.9113</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4431</v>
+        <v>17.3421</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6631</v>
+        <v>20.5293</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.11833</v>
+        <v>8.972720000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6342</v>
+        <v>10.5314</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5405</v>
+        <v>19.286</v>
       </c>
       <c r="E3" t="n">
-        <v>23.869</v>
+        <v>23.4826</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7456</v>
+        <v>10.7251</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4854</v>
+        <v>12.5883</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4734</v>
+        <v>24.3372</v>
       </c>
       <c r="E4" t="n">
-        <v>30.5884</v>
+        <v>31.0244</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.6041</v>
+        <v>12.444</v>
       </c>
       <c r="C5" t="n">
-        <v>14.736</v>
+        <v>15.0314</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6645</v>
+        <v>29.157</v>
       </c>
       <c r="E5" t="n">
-        <v>37.5063</v>
+        <v>37.9561</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6463</v>
+        <v>14.4901</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5296</v>
+        <v>17.6866</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5308</v>
+        <v>34.4385</v>
       </c>
       <c r="E6" t="n">
-        <v>42.8406</v>
+        <v>42.8525</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8188</v>
+        <v>16.5545</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5475</v>
+        <v>20.4148</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7239</v>
+        <v>40.2406</v>
       </c>
       <c r="E7" t="n">
-        <v>47.1916</v>
+        <v>49.827</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2762</v>
+        <v>18.2306</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5584</v>
+        <v>23.1255</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3761</v>
+        <v>42.9325</v>
       </c>
       <c r="E8" t="n">
-        <v>52.8664</v>
+        <v>52.7593</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.457</v>
+        <v>21.4705</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8426</v>
+        <v>25.6625</v>
       </c>
       <c r="D9" t="n">
-        <v>48.1557</v>
+        <v>48.3553</v>
       </c>
       <c r="E9" t="n">
-        <v>58.629</v>
+        <v>59.0592</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.8155</v>
+        <v>18.9519</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8116</v>
+        <v>24.5864</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9153</v>
+        <v>47.5367</v>
       </c>
       <c r="E10" t="n">
-        <v>56.9147</v>
+        <v>57.1692</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5822</v>
+        <v>18.2839</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4707</v>
+        <v>23.7633</v>
       </c>
       <c r="D11" t="n">
-        <v>45.4922</v>
+        <v>47.4227</v>
       </c>
       <c r="E11" t="n">
-        <v>57.5054</v>
+        <v>60.4842</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.1347</v>
+        <v>18.8527</v>
       </c>
       <c r="C12" t="n">
-        <v>24.0296</v>
+        <v>24.1103</v>
       </c>
       <c r="D12" t="n">
-        <v>48.4217</v>
+        <v>47.3264</v>
       </c>
       <c r="E12" t="n">
-        <v>57.5539</v>
+        <v>61.335</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6383</v>
+        <v>19.7629</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6526</v>
+        <v>24.9225</v>
       </c>
       <c r="D13" t="n">
-        <v>49.1034</v>
+        <v>49.9802</v>
       </c>
       <c r="E13" t="n">
-        <v>60.6755</v>
+        <v>63.0036</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9234</v>
+        <v>19.3294</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2971</v>
+        <v>25.6788</v>
       </c>
       <c r="D14" t="n">
-        <v>48.4493</v>
+        <v>52.6304</v>
       </c>
       <c r="E14" t="n">
-        <v>63.5556</v>
+        <v>62.9432</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6794</v>
+        <v>18.7723</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2554</v>
+        <v>26.2572</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2136</v>
+        <v>49.7568</v>
       </c>
       <c r="E15" t="n">
-        <v>63.6609</v>
+        <v>66.2372</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1367</v>
+        <v>19.8586</v>
       </c>
       <c r="C16" t="n">
-        <v>26.955</v>
+        <v>26.8456</v>
       </c>
       <c r="D16" t="n">
-        <v>48.4798</v>
+        <v>52.512</v>
       </c>
       <c r="E16" t="n">
-        <v>67.27119999999999</v>
+        <v>65.6083</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.933</v>
+        <v>19.157</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4102</v>
+        <v>27.5474</v>
       </c>
       <c r="D17" t="n">
-        <v>48.8187</v>
+        <v>51.3224</v>
       </c>
       <c r="E17" t="n">
-        <v>66.3865</v>
+        <v>69.1454</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.176</v>
+        <v>10.0293</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7656</v>
+        <v>13.7359</v>
       </c>
       <c r="D2" t="n">
-        <v>17.285</v>
+        <v>17.2498</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4877</v>
+        <v>20.4198</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.437799999999999</v>
+        <v>9.57672</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5956</v>
+        <v>10.8299</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6787</v>
+        <v>19.7822</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8328</v>
+        <v>23.7159</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1031</v>
+        <v>11.1498</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2918</v>
+        <v>12.5789</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2391</v>
+        <v>24.628</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4484</v>
+        <v>30.981</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0802</v>
+        <v>12.9295</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7339</v>
+        <v>15.0004</v>
       </c>
       <c r="D5" t="n">
-        <v>29.651</v>
+        <v>28.71</v>
       </c>
       <c r="E5" t="n">
-        <v>36.7323</v>
+        <v>37.7398</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1724</v>
+        <v>14.9928</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4056</v>
+        <v>17.629</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1298</v>
+        <v>34.5144</v>
       </c>
       <c r="E6" t="n">
-        <v>42.736</v>
+        <v>43.8989</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2346</v>
+        <v>17.1974</v>
       </c>
       <c r="C7" t="n">
-        <v>19.9921</v>
+        <v>20.4676</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4673</v>
+        <v>40.9324</v>
       </c>
       <c r="E7" t="n">
-        <v>48.8368</v>
+        <v>48.1097</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8942</v>
+        <v>18.8526</v>
       </c>
       <c r="C8" t="n">
-        <v>22.2099</v>
+        <v>22.8546</v>
       </c>
       <c r="D8" t="n">
-        <v>44.9988</v>
+        <v>42.7275</v>
       </c>
       <c r="E8" t="n">
-        <v>54.0615</v>
+        <v>52.4678</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.4628</v>
+        <v>22.3092</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1135</v>
+        <v>25.5875</v>
       </c>
       <c r="D9" t="n">
-        <v>48.9125</v>
+        <v>48.2841</v>
       </c>
       <c r="E9" t="n">
-        <v>56.8971</v>
+        <v>57.5366</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.44</v>
+        <v>19.1371</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9231</v>
+        <v>24.8069</v>
       </c>
       <c r="D10" t="n">
-        <v>45.715</v>
+        <v>47.1013</v>
       </c>
       <c r="E10" t="n">
-        <v>56.2841</v>
+        <v>55.9789</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0628</v>
+        <v>18.9207</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7276</v>
+        <v>24.0908</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2425</v>
+        <v>46.3375</v>
       </c>
       <c r="E11" t="n">
-        <v>58.1415</v>
+        <v>57.5329</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.686</v>
+        <v>19.6034</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1354</v>
+        <v>24.6514</v>
       </c>
       <c r="D12" t="n">
-        <v>46.4293</v>
+        <v>48.3583</v>
       </c>
       <c r="E12" t="n">
-        <v>59.5489</v>
+        <v>59.528</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3442</v>
+        <v>19.9848</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8429</v>
+        <v>24.8405</v>
       </c>
       <c r="D13" t="n">
-        <v>48.4981</v>
+        <v>50.0556</v>
       </c>
       <c r="E13" t="n">
-        <v>61.0834</v>
+        <v>60.7565</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6207</v>
+        <v>19.848</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5656</v>
+        <v>25.6566</v>
       </c>
       <c r="D14" t="n">
-        <v>49.686</v>
+        <v>49.5366</v>
       </c>
       <c r="E14" t="n">
-        <v>62.3717</v>
+        <v>63.8143</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9001</v>
+        <v>19.8435</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9853</v>
+        <v>26.2681</v>
       </c>
       <c r="D15" t="n">
-        <v>48.9903</v>
+        <v>50.2152</v>
       </c>
       <c r="E15" t="n">
-        <v>67.0856</v>
+        <v>64.6447</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5079</v>
+        <v>19.8999</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9185</v>
+        <v>27.0495</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6932</v>
+        <v>52.9361</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6728</v>
+        <v>65.023</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3401</v>
+        <v>19.4475</v>
       </c>
       <c r="C17" t="n">
-        <v>27.663</v>
+        <v>27.5501</v>
       </c>
       <c r="D17" t="n">
-        <v>50.4236</v>
+        <v>52.8223</v>
       </c>
       <c r="E17" t="n">
-        <v>62.7849</v>
+        <v>66.8826</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7044</v>
+        <v>12.6378</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2214</v>
+        <v>15.2179</v>
       </c>
       <c r="D2" t="n">
-        <v>19.116</v>
+        <v>19.0775</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6188</v>
+        <v>21.4949</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5402</v>
+        <v>10.6561</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4788</v>
+        <v>11.6741</v>
       </c>
       <c r="D3" t="n">
-        <v>21.7681</v>
+        <v>21.6956</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0261</v>
+        <v>25.0304</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8647</v>
+        <v>12.7779</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9054</v>
+        <v>13.8509</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0188</v>
+        <v>27.4183</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2893</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1144</v>
+        <v>15.2108</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7536</v>
+        <v>16.7421</v>
       </c>
       <c r="D5" t="n">
-        <v>32.9294</v>
+        <v>32.956</v>
       </c>
       <c r="E5" t="n">
-        <v>39.6457</v>
+        <v>40.4279</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9267</v>
+        <v>18.0248</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5784</v>
+        <v>19.7715</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4802</v>
+        <v>39.0242</v>
       </c>
       <c r="E6" t="n">
-        <v>46.3789</v>
+        <v>45.3574</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7654</v>
+        <v>20.8085</v>
       </c>
       <c r="C7" t="n">
-        <v>22.4754</v>
+        <v>22.6904</v>
       </c>
       <c r="D7" t="n">
-        <v>46.9584</v>
+        <v>44.428</v>
       </c>
       <c r="E7" t="n">
-        <v>51.5511</v>
+        <v>51.2121</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3971</v>
+        <v>23.3752</v>
       </c>
       <c r="C8" t="n">
-        <v>24.932</v>
+        <v>25.1265</v>
       </c>
       <c r="D8" t="n">
-        <v>49.7611</v>
+        <v>47.4329</v>
       </c>
       <c r="E8" t="n">
-        <v>56.5366</v>
+        <v>56.2318</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6968</v>
+        <v>26.6021</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2863</v>
+        <v>27.5737</v>
       </c>
       <c r="D9" t="n">
-        <v>54.6503</v>
+        <v>51.8916</v>
       </c>
       <c r="E9" t="n">
-        <v>63.4613</v>
+        <v>59.9963</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1759</v>
+        <v>25.2425</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3834</v>
+        <v>26.6875</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7518</v>
+        <v>50.3596</v>
       </c>
       <c r="E10" t="n">
-        <v>60.9011</v>
+        <v>58.902</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9338</v>
+        <v>24.0372</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3943</v>
+        <v>25.899</v>
       </c>
       <c r="D11" t="n">
-        <v>52.8476</v>
+        <v>52.1906</v>
       </c>
       <c r="E11" t="n">
-        <v>61.2395</v>
+        <v>60.0585</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1007</v>
+        <v>24.6542</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6691</v>
+        <v>26.0949</v>
       </c>
       <c r="D12" t="n">
-        <v>52.8055</v>
+        <v>52.819</v>
       </c>
       <c r="E12" t="n">
-        <v>62.0735</v>
+        <v>60.3851</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.9607</v>
+        <v>25.3806</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2818</v>
+        <v>26.5869</v>
       </c>
       <c r="D13" t="n">
-        <v>54.7048</v>
+        <v>54.0222</v>
       </c>
       <c r="E13" t="n">
-        <v>63.9586</v>
+        <v>63.2453</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5656</v>
+        <v>23.9739</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9834</v>
+        <v>26.8238</v>
       </c>
       <c r="D14" t="n">
-        <v>56.1242</v>
+        <v>54.4544</v>
       </c>
       <c r="E14" t="n">
-        <v>64.9534</v>
+        <v>65.4298</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.5523</v>
+        <v>23.3259</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6532</v>
+        <v>27.722</v>
       </c>
       <c r="D15" t="n">
-        <v>56.478</v>
+        <v>52.9788</v>
       </c>
       <c r="E15" t="n">
-        <v>64.8198</v>
+        <v>62.8772</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.731</v>
+        <v>23.5764</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3308</v>
+        <v>28.4611</v>
       </c>
       <c r="D16" t="n">
-        <v>56.7576</v>
+        <v>55.8654</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6277</v>
+        <v>62.3354</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.791</v>
+        <v>23.8676</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9183</v>
+        <v>29.197</v>
       </c>
       <c r="D17" t="n">
-        <v>53.5504</v>
+        <v>56.666</v>
       </c>
       <c r="E17" t="n">
-        <v>61.7437</v>
+        <v>62.0909</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.944</v>
+        <v>3.87646</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7571</v>
+        <v>10.8212</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9607</v>
+        <v>12.9747</v>
       </c>
       <c r="E2" t="n">
-        <v>18.166</v>
+        <v>18.1243</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03458</v>
+        <v>6.17712</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1213</v>
+        <v>10.5056</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0048</v>
+        <v>19.6288</v>
       </c>
       <c r="E3" t="n">
-        <v>26.1269</v>
+        <v>26.6571</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.28964</v>
+        <v>8.34538</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5401</v>
+        <v>12.62</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9415</v>
+        <v>25.8547</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2243</v>
+        <v>36.4981</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3766</v>
+        <v>10.4104</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0286</v>
+        <v>15.0365</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9258</v>
+        <v>32.4543</v>
       </c>
       <c r="E5" t="n">
-        <v>45.9628</v>
+        <v>46.1448</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3998</v>
+        <v>12.4658</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6319</v>
+        <v>17.7625</v>
       </c>
       <c r="D6" t="n">
-        <v>38.0006</v>
+        <v>38.2774</v>
       </c>
       <c r="E6" t="n">
-        <v>55.501</v>
+        <v>56.0221</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3046</v>
+        <v>14.2927</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4186</v>
+        <v>20.5122</v>
       </c>
       <c r="D7" t="n">
-        <v>44.7982</v>
+        <v>44.6634</v>
       </c>
       <c r="E7" t="n">
-        <v>64.5009</v>
+        <v>64.94750000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2285</v>
+        <v>16.0884</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4746</v>
+        <v>23.6197</v>
       </c>
       <c r="D8" t="n">
-        <v>50.6294</v>
+        <v>49.91</v>
       </c>
       <c r="E8" t="n">
-        <v>73.2882</v>
+        <v>74.0921</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4671</v>
+        <v>18.6633</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9947</v>
+        <v>27.2434</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1942</v>
+        <v>61.1786</v>
       </c>
       <c r="E9" t="n">
-        <v>82.3845</v>
+        <v>85.31319999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3581</v>
+        <v>17.5195</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0503</v>
+        <v>25.0151</v>
       </c>
       <c r="D10" t="n">
-        <v>56.0702</v>
+        <v>54.8171</v>
       </c>
       <c r="E10" t="n">
-        <v>74.217</v>
+        <v>73.90009999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.042</v>
+        <v>17.4757</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0609</v>
+        <v>25.0381</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5466</v>
+        <v>54.7802</v>
       </c>
       <c r="E11" t="n">
-        <v>72.9366</v>
+        <v>74.9915</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5771</v>
+        <v>17.5689</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2831</v>
+        <v>25.5503</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3452</v>
+        <v>56.202</v>
       </c>
       <c r="E12" t="n">
-        <v>75.3981</v>
+        <v>77.1887</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7993</v>
+        <v>17.9014</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4253</v>
+        <v>25.6456</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5923</v>
+        <v>55.7956</v>
       </c>
       <c r="E13" t="n">
-        <v>76.49890000000001</v>
+        <v>76.37690000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2605</v>
+        <v>17.2195</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6621</v>
+        <v>25.9034</v>
       </c>
       <c r="D14" t="n">
-        <v>55.5527</v>
+        <v>55.7017</v>
       </c>
       <c r="E14" t="n">
-        <v>75.36490000000001</v>
+        <v>77.1622</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8805</v>
+        <v>17.8285</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1149</v>
+        <v>26.2935</v>
       </c>
       <c r="D15" t="n">
-        <v>56.0092</v>
+        <v>55.747</v>
       </c>
       <c r="E15" t="n">
-        <v>75.49939999999999</v>
+        <v>76.417</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7498</v>
+        <v>17.8751</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7595</v>
+        <v>26.8672</v>
       </c>
       <c r="D16" t="n">
-        <v>56.079</v>
+        <v>55.5037</v>
       </c>
       <c r="E16" t="n">
-        <v>77.2076</v>
+        <v>76.99250000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7956</v>
+        <v>17.903</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3139</v>
+        <v>27.373</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0367</v>
+        <v>56.6961</v>
       </c>
       <c r="E17" t="n">
-        <v>77.55249999999999</v>
+        <v>77.77249999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.93853</v>
+        <v>3.8869</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8348</v>
+        <v>10.9117</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8867</v>
+        <v>12.8422</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3074</v>
+        <v>18.1398</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22208</v>
+        <v>6.05815</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5458</v>
+        <v>10.36</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5738</v>
+        <v>18.9604</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5161</v>
+        <v>25.8994</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.498250000000001</v>
+        <v>8.40574</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6144</v>
+        <v>12.5423</v>
       </c>
       <c r="D4" t="n">
-        <v>26.1137</v>
+        <v>25.8247</v>
       </c>
       <c r="E4" t="n">
-        <v>36.1179</v>
+        <v>35.9124</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.556</v>
+        <v>10.5592</v>
       </c>
       <c r="C5" t="n">
-        <v>15.016</v>
+        <v>15.0898</v>
       </c>
       <c r="D5" t="n">
-        <v>32.3842</v>
+        <v>32.5356</v>
       </c>
       <c r="E5" t="n">
-        <v>45.6865</v>
+        <v>45.8726</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5914</v>
+        <v>12.5444</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6097</v>
+        <v>17.7501</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4378</v>
+        <v>38.6633</v>
       </c>
       <c r="E6" t="n">
-        <v>54.9641</v>
+        <v>55.7873</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5003</v>
+        <v>14.4317</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3581</v>
+        <v>20.4422</v>
       </c>
       <c r="D7" t="n">
-        <v>44.5226</v>
+        <v>44.6782</v>
       </c>
       <c r="E7" t="n">
-        <v>63.9847</v>
+        <v>64.9568</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3636</v>
+        <v>16.5188</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4155</v>
+        <v>23.7023</v>
       </c>
       <c r="D8" t="n">
-        <v>50.6939</v>
+        <v>50.138</v>
       </c>
       <c r="E8" t="n">
-        <v>73.53149999999999</v>
+        <v>73.48390000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9094</v>
+        <v>18.8627</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9246</v>
+        <v>27.2754</v>
       </c>
       <c r="D9" t="n">
-        <v>60.8346</v>
+        <v>60.5757</v>
       </c>
       <c r="E9" t="n">
-        <v>82.6585</v>
+        <v>84.1083</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4971</v>
+        <v>18.1792</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0261</v>
+        <v>25.2993</v>
       </c>
       <c r="D10" t="n">
-        <v>53.918</v>
+        <v>53.668</v>
       </c>
       <c r="E10" t="n">
-        <v>73.52209999999999</v>
+        <v>73.3719</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6988</v>
+        <v>17.5873</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1431</v>
+        <v>25.3406</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9726</v>
+        <v>53.5213</v>
       </c>
       <c r="E11" t="n">
-        <v>74.3541</v>
+        <v>74.2283</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0077</v>
+        <v>17.9111</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9063</v>
+        <v>25.4447</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8712</v>
+        <v>54.7307</v>
       </c>
       <c r="E12" t="n">
-        <v>74.45189999999999</v>
+        <v>77.58110000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1934</v>
+        <v>18.3134</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3585</v>
+        <v>25.9076</v>
       </c>
       <c r="D13" t="n">
-        <v>56.7289</v>
+        <v>56.7755</v>
       </c>
       <c r="E13" t="n">
-        <v>77.033</v>
+        <v>78.2422</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5559</v>
+        <v>17.5107</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5623</v>
+        <v>25.8096</v>
       </c>
       <c r="D14" t="n">
-        <v>55.9887</v>
+        <v>55.5972</v>
       </c>
       <c r="E14" t="n">
-        <v>75.6769</v>
+        <v>75.0829</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2122</v>
+        <v>18.2141</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1723</v>
+        <v>26.2362</v>
       </c>
       <c r="D15" t="n">
-        <v>56.2471</v>
+        <v>56.0297</v>
       </c>
       <c r="E15" t="n">
-        <v>75.9804</v>
+        <v>77.251</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1706</v>
+        <v>18.2687</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7784</v>
+        <v>26.9046</v>
       </c>
       <c r="D16" t="n">
-        <v>57.0289</v>
+        <v>55.7991</v>
       </c>
       <c r="E16" t="n">
-        <v>76.69029999999999</v>
+        <v>76.70650000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2734</v>
+        <v>18.3508</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2707</v>
+        <v>27.4853</v>
       </c>
       <c r="D17" t="n">
-        <v>57.1741</v>
+        <v>55.7285</v>
       </c>
       <c r="E17" t="n">
-        <v>77.2668</v>
+        <v>76.43989999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.088990000000001</v>
+        <v>8.23386</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2328</v>
+        <v>14.2903</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8234</v>
+        <v>17.8411</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3349</v>
+        <v>21.2824</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.53368</v>
+        <v>9.47226</v>
       </c>
       <c r="C3" t="n">
-        <v>11.4591</v>
+        <v>11.5597</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4372</v>
+        <v>22.4589</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6275</v>
+        <v>26.7242</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0179</v>
+        <v>12.0143</v>
       </c>
       <c r="C4" t="n">
-        <v>13.584</v>
+        <v>13.7104</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6467</v>
+        <v>29.7671</v>
       </c>
       <c r="E4" t="n">
-        <v>36.6396</v>
+        <v>36.7836</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6963</v>
+        <v>14.5795</v>
       </c>
       <c r="C5" t="n">
-        <v>16.02</v>
+        <v>16.2044</v>
       </c>
       <c r="D5" t="n">
-        <v>36.7896</v>
+        <v>36.7448</v>
       </c>
       <c r="E5" t="n">
-        <v>46.0687</v>
+        <v>46.3963</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2428</v>
+        <v>17.258</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9911</v>
+        <v>19.1579</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0427</v>
+        <v>43.8784</v>
       </c>
       <c r="E6" t="n">
-        <v>56.2583</v>
+        <v>56.1331</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.9097</v>
+        <v>19.8916</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7787</v>
+        <v>21.988</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2794</v>
+        <v>50.6753</v>
       </c>
       <c r="E7" t="n">
-        <v>66.255</v>
+        <v>66.02760000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7182</v>
+        <v>22.6649</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8004</v>
+        <v>25.2994</v>
       </c>
       <c r="D8" t="n">
-        <v>58.912</v>
+        <v>58.1262</v>
       </c>
       <c r="E8" t="n">
-        <v>75.6566</v>
+        <v>75.67740000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6406</v>
+        <v>26.5693</v>
       </c>
       <c r="C9" t="n">
-        <v>27.766</v>
+        <v>28.0836</v>
       </c>
       <c r="D9" t="n">
-        <v>69.8563</v>
+        <v>69.211</v>
       </c>
       <c r="E9" t="n">
-        <v>85.2679</v>
+        <v>85.4119</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1381</v>
+        <v>25.1239</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4676</v>
+        <v>26.7726</v>
       </c>
       <c r="D10" t="n">
-        <v>63.9985</v>
+        <v>61.4332</v>
       </c>
       <c r="E10" t="n">
-        <v>75.56910000000001</v>
+        <v>74.31</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9809</v>
+        <v>25.4375</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2836</v>
+        <v>26.9537</v>
       </c>
       <c r="D11" t="n">
-        <v>63.2974</v>
+        <v>60.962</v>
       </c>
       <c r="E11" t="n">
-        <v>77.1901</v>
+        <v>74.8895</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2419</v>
+        <v>25.1917</v>
       </c>
       <c r="C12" t="n">
-        <v>26.716</v>
+        <v>27.002</v>
       </c>
       <c r="D12" t="n">
-        <v>64.86579999999999</v>
+        <v>62.6847</v>
       </c>
       <c r="E12" t="n">
-        <v>79.6751</v>
+        <v>75.4436</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.652</v>
+        <v>25.6101</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2178</v>
+        <v>27.5156</v>
       </c>
       <c r="D13" t="n">
-        <v>67.0341</v>
+        <v>63.7698</v>
       </c>
       <c r="E13" t="n">
-        <v>80.7077</v>
+        <v>76.6694</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.6407</v>
+        <v>24.5692</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5505</v>
+        <v>27.8305</v>
       </c>
       <c r="D14" t="n">
-        <v>65.4778</v>
+        <v>63.1055</v>
       </c>
       <c r="E14" t="n">
-        <v>80.07559999999999</v>
+        <v>78.55880000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4746</v>
+        <v>25.4002</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1882</v>
+        <v>28.3698</v>
       </c>
       <c r="D15" t="n">
-        <v>66.3334</v>
+        <v>62.4229</v>
       </c>
       <c r="E15" t="n">
-        <v>81.98260000000001</v>
+        <v>77.941</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4732</v>
+        <v>25.2921</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9915</v>
+        <v>29.0234</v>
       </c>
       <c r="D16" t="n">
-        <v>66.2179</v>
+        <v>64.1125</v>
       </c>
       <c r="E16" t="n">
-        <v>81.8929</v>
+        <v>79.4796</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4161</v>
+        <v>25.5144</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8634</v>
+        <v>29.869</v>
       </c>
       <c r="D17" t="n">
-        <v>65.2383</v>
+        <v>64.0866</v>
       </c>
       <c r="E17" t="n">
-        <v>79.7988</v>
+        <v>77.2728</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.48185</v>
+        <v>9.3634</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9113</v>
+        <v>13.9032</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3421</v>
+        <v>17.4067</v>
       </c>
       <c r="E2" t="n">
-        <v>20.5293</v>
+        <v>20.6515</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.972720000000001</v>
+        <v>9.14292</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5314</v>
+        <v>10.6502</v>
       </c>
       <c r="D3" t="n">
-        <v>19.286</v>
+        <v>19.4995</v>
       </c>
       <c r="E3" t="n">
-        <v>23.4826</v>
+        <v>25.3279</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7251</v>
+        <v>10.7179</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5883</v>
+        <v>12.4738</v>
       </c>
       <c r="D4" t="n">
-        <v>24.3372</v>
+        <v>24.6195</v>
       </c>
       <c r="E4" t="n">
-        <v>31.0244</v>
+        <v>33.5626</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.444</v>
+        <v>12.5678</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0314</v>
+        <v>14.8945</v>
       </c>
       <c r="D5" t="n">
-        <v>29.157</v>
+        <v>31.1438</v>
       </c>
       <c r="E5" t="n">
-        <v>37.9561</v>
+        <v>40.5107</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4901</v>
+        <v>14.6799</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6866</v>
+        <v>17.4527</v>
       </c>
       <c r="D6" t="n">
-        <v>34.4385</v>
+        <v>34.6165</v>
       </c>
       <c r="E6" t="n">
-        <v>42.8525</v>
+        <v>48.6428</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.5545</v>
+        <v>16.7098</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4148</v>
+        <v>20.2447</v>
       </c>
       <c r="D7" t="n">
-        <v>40.2406</v>
+        <v>41.0905</v>
       </c>
       <c r="E7" t="n">
-        <v>49.827</v>
+        <v>55.2469</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2306</v>
+        <v>18.2981</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1255</v>
+        <v>22.5522</v>
       </c>
       <c r="D8" t="n">
-        <v>42.9325</v>
+        <v>44.0584</v>
       </c>
       <c r="E8" t="n">
-        <v>52.7593</v>
+        <v>61.9034</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4705</v>
+        <v>21.3119</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6625</v>
+        <v>25.3819</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3553</v>
+        <v>49.1109</v>
       </c>
       <c r="E9" t="n">
-        <v>59.0592</v>
+        <v>67.7175</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.9519</v>
+        <v>18.4911</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5864</v>
+        <v>24.5643</v>
       </c>
       <c r="D10" t="n">
-        <v>47.5367</v>
+        <v>46.7968</v>
       </c>
       <c r="E10" t="n">
-        <v>57.1692</v>
+        <v>62.1256</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2839</v>
+        <v>18.4237</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7633</v>
+        <v>23.7509</v>
       </c>
       <c r="D11" t="n">
-        <v>47.4227</v>
+        <v>46.8859</v>
       </c>
       <c r="E11" t="n">
-        <v>60.4842</v>
+        <v>63.5307</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.8527</v>
+        <v>19.2157</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1103</v>
+        <v>24.1598</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3264</v>
+        <v>48.844</v>
       </c>
       <c r="E12" t="n">
-        <v>61.335</v>
+        <v>64.3015</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7629</v>
+        <v>19.5975</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9225</v>
+        <v>24.729</v>
       </c>
       <c r="D13" t="n">
-        <v>49.9802</v>
+        <v>50.3871</v>
       </c>
       <c r="E13" t="n">
-        <v>63.0036</v>
+        <v>68.6909</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3294</v>
+        <v>18.7432</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6788</v>
+        <v>25.5671</v>
       </c>
       <c r="D14" t="n">
-        <v>52.6304</v>
+        <v>51.9926</v>
       </c>
       <c r="E14" t="n">
-        <v>62.9432</v>
+        <v>70.3129</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7723</v>
+        <v>18.864</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2572</v>
+        <v>26.2107</v>
       </c>
       <c r="D15" t="n">
-        <v>49.7568</v>
+        <v>52.3171</v>
       </c>
       <c r="E15" t="n">
-        <v>66.2372</v>
+        <v>69.02119999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8586</v>
+        <v>19.7257</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8456</v>
+        <v>26.7457</v>
       </c>
       <c r="D16" t="n">
-        <v>52.512</v>
+        <v>53.0003</v>
       </c>
       <c r="E16" t="n">
-        <v>65.6083</v>
+        <v>74.169</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.157</v>
+        <v>18.8343</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5474</v>
+        <v>27.663</v>
       </c>
       <c r="D17" t="n">
-        <v>51.3224</v>
+        <v>53.2507</v>
       </c>
       <c r="E17" t="n">
-        <v>69.1454</v>
+        <v>70.76260000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0293</v>
+        <v>10.1652</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7359</v>
+        <v>13.7407</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2498</v>
+        <v>17.307</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4198</v>
+        <v>20.4997</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.57672</v>
+        <v>9.43717</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8299</v>
+        <v>10.6418</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7822</v>
+        <v>19.9672</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7159</v>
+        <v>25.321</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1498</v>
+        <v>11.1155</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5789</v>
+        <v>12.4741</v>
       </c>
       <c r="D4" t="n">
-        <v>24.628</v>
+        <v>24.3746</v>
       </c>
       <c r="E4" t="n">
-        <v>30.981</v>
+        <v>33.7403</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9295</v>
+        <v>13.0505</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0004</v>
+        <v>14.7815</v>
       </c>
       <c r="D5" t="n">
-        <v>28.71</v>
+        <v>29.5415</v>
       </c>
       <c r="E5" t="n">
-        <v>37.7398</v>
+        <v>40.9991</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9928</v>
+        <v>15.1927</v>
       </c>
       <c r="C6" t="n">
-        <v>17.629</v>
+        <v>17.5624</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5144</v>
+        <v>34.9986</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8989</v>
+        <v>48.3383</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.1974</v>
+        <v>17.2323</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4676</v>
+        <v>20.256</v>
       </c>
       <c r="D7" t="n">
-        <v>40.9324</v>
+        <v>40.9941</v>
       </c>
       <c r="E7" t="n">
-        <v>48.1097</v>
+        <v>55.6475</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8526</v>
+        <v>18.8136</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8546</v>
+        <v>22.5854</v>
       </c>
       <c r="D8" t="n">
-        <v>42.7275</v>
+        <v>43.8174</v>
       </c>
       <c r="E8" t="n">
-        <v>52.4678</v>
+        <v>62.5763</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3092</v>
+        <v>22.3678</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5875</v>
+        <v>25.0479</v>
       </c>
       <c r="D9" t="n">
-        <v>48.2841</v>
+        <v>48.8391</v>
       </c>
       <c r="E9" t="n">
-        <v>57.5366</v>
+        <v>67.54510000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1371</v>
+        <v>19.6105</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8069</v>
+        <v>24.6561</v>
       </c>
       <c r="D10" t="n">
-        <v>47.1013</v>
+        <v>46.4896</v>
       </c>
       <c r="E10" t="n">
-        <v>55.9789</v>
+        <v>60.8461</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.9207</v>
+        <v>19.1082</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0908</v>
+        <v>23.9479</v>
       </c>
       <c r="D11" t="n">
-        <v>46.3375</v>
+        <v>46.585</v>
       </c>
       <c r="E11" t="n">
-        <v>57.5329</v>
+        <v>64.8682</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6034</v>
+        <v>19.737</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6514</v>
+        <v>24.5137</v>
       </c>
       <c r="D12" t="n">
-        <v>48.3583</v>
+        <v>48.2072</v>
       </c>
       <c r="E12" t="n">
-        <v>59.528</v>
+        <v>66.0626</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.9848</v>
+        <v>20.5007</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8405</v>
+        <v>25.0161</v>
       </c>
       <c r="D13" t="n">
-        <v>50.0556</v>
+        <v>49.6266</v>
       </c>
       <c r="E13" t="n">
-        <v>60.7565</v>
+        <v>67.10469999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.848</v>
+        <v>19.699</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6566</v>
+        <v>25.3833</v>
       </c>
       <c r="D14" t="n">
-        <v>49.5366</v>
+        <v>49.3247</v>
       </c>
       <c r="E14" t="n">
-        <v>63.8143</v>
+        <v>69.8416</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.8435</v>
+        <v>19.7458</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2681</v>
+        <v>26.3883</v>
       </c>
       <c r="D15" t="n">
-        <v>50.2152</v>
+        <v>52.9277</v>
       </c>
       <c r="E15" t="n">
-        <v>64.6447</v>
+        <v>69.128</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8999</v>
+        <v>19.6624</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0495</v>
+        <v>26.9532</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9361</v>
+        <v>54.0818</v>
       </c>
       <c r="E16" t="n">
-        <v>65.023</v>
+        <v>69.7346</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4475</v>
+        <v>19.3719</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5501</v>
+        <v>27.4802</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8223</v>
+        <v>52.1559</v>
       </c>
       <c r="E17" t="n">
-        <v>66.8826</v>
+        <v>71.4503</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6378</v>
+        <v>12.6578</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2179</v>
+        <v>15.233</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0775</v>
+        <v>19.2404</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4949</v>
+        <v>21.7134</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.6561</v>
+        <v>10.6934</v>
       </c>
       <c r="C3" t="n">
-        <v>11.6741</v>
+        <v>11.6378</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6956</v>
+        <v>22.9014</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0304</v>
+        <v>28.5674</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7779</v>
+        <v>12.6853</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8509</v>
+        <v>13.7895</v>
       </c>
       <c r="D4" t="n">
-        <v>27.4183</v>
+        <v>28.2797</v>
       </c>
       <c r="E4" t="n">
-        <v>32.1</v>
+        <v>37.3325</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2108</v>
+        <v>15.0486</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7421</v>
+        <v>16.7549</v>
       </c>
       <c r="D5" t="n">
-        <v>32.956</v>
+        <v>35.0337</v>
       </c>
       <c r="E5" t="n">
-        <v>40.4279</v>
+        <v>45.7045</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0248</v>
+        <v>17.9423</v>
       </c>
       <c r="C6" t="n">
-        <v>19.7715</v>
+        <v>19.6221</v>
       </c>
       <c r="D6" t="n">
-        <v>39.0242</v>
+        <v>40.2599</v>
       </c>
       <c r="E6" t="n">
-        <v>45.3574</v>
+        <v>54.2837</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.8085</v>
+        <v>20.7423</v>
       </c>
       <c r="C7" t="n">
-        <v>22.6904</v>
+        <v>22.5999</v>
       </c>
       <c r="D7" t="n">
-        <v>44.428</v>
+        <v>47.0764</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2121</v>
+        <v>59.9085</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.3752</v>
+        <v>23.2437</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1265</v>
+        <v>24.8281</v>
       </c>
       <c r="D8" t="n">
-        <v>47.4329</v>
+        <v>49.0169</v>
       </c>
       <c r="E8" t="n">
-        <v>56.2318</v>
+        <v>66.0487</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6021</v>
+        <v>26.6468</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5737</v>
+        <v>26.9404</v>
       </c>
       <c r="D9" t="n">
-        <v>51.8916</v>
+        <v>55.5275</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9963</v>
+        <v>71.53440000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2425</v>
+        <v>24.9832</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6875</v>
+        <v>26.5384</v>
       </c>
       <c r="D10" t="n">
-        <v>50.3596</v>
+        <v>53.5043</v>
       </c>
       <c r="E10" t="n">
-        <v>58.902</v>
+        <v>67.5692</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.0372</v>
+        <v>24.0802</v>
       </c>
       <c r="C11" t="n">
-        <v>25.899</v>
+        <v>25.4251</v>
       </c>
       <c r="D11" t="n">
-        <v>52.1906</v>
+        <v>54.1254</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0585</v>
+        <v>69.65219999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6542</v>
+        <v>24.6287</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0949</v>
+        <v>25.5836</v>
       </c>
       <c r="D12" t="n">
-        <v>52.819</v>
+        <v>55.6564</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3851</v>
+        <v>72.6738</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3806</v>
+        <v>25.4394</v>
       </c>
       <c r="C13" t="n">
-        <v>26.5869</v>
+        <v>26.1941</v>
       </c>
       <c r="D13" t="n">
-        <v>54.0222</v>
+        <v>56.7399</v>
       </c>
       <c r="E13" t="n">
-        <v>63.2453</v>
+        <v>73.7452</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.9739</v>
+        <v>24.0229</v>
       </c>
       <c r="C14" t="n">
-        <v>26.8238</v>
+        <v>26.9067</v>
       </c>
       <c r="D14" t="n">
-        <v>54.4544</v>
+        <v>57.8647</v>
       </c>
       <c r="E14" t="n">
-        <v>65.4298</v>
+        <v>75.07689999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.3259</v>
+        <v>23.4123</v>
       </c>
       <c r="C15" t="n">
-        <v>27.722</v>
+        <v>27.6263</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9788</v>
+        <v>60.9163</v>
       </c>
       <c r="E15" t="n">
-        <v>62.8772</v>
+        <v>76.1734</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5764</v>
+        <v>23.9823</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4611</v>
+        <v>28.4677</v>
       </c>
       <c r="D16" t="n">
-        <v>55.8654</v>
+        <v>61.8161</v>
       </c>
       <c r="E16" t="n">
-        <v>62.3354</v>
+        <v>78.1203</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8676</v>
+        <v>23.8333</v>
       </c>
       <c r="C17" t="n">
-        <v>29.197</v>
+        <v>29.1577</v>
       </c>
       <c r="D17" t="n">
-        <v>56.666</v>
+        <v>60.2539</v>
       </c>
       <c r="E17" t="n">
-        <v>62.0909</v>
+        <v>79.9636</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.87646</v>
+        <v>3.87725</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8212</v>
+        <v>10.8445</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9747</v>
+        <v>12.9049</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1243</v>
+        <v>18.0126</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.17712</v>
+        <v>6.03837</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5056</v>
+        <v>10.3082</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6288</v>
+        <v>19.0309</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6571</v>
+        <v>27.3385</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.34538</v>
+        <v>8.27821</v>
       </c>
       <c r="C4" t="n">
-        <v>12.62</v>
+        <v>12.5825</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8547</v>
+        <v>25.9026</v>
       </c>
       <c r="E4" t="n">
-        <v>36.4981</v>
+        <v>38.2988</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4104</v>
+        <v>10.3673</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0365</v>
+        <v>15.0604</v>
       </c>
       <c r="D5" t="n">
-        <v>32.4543</v>
+        <v>32.6825</v>
       </c>
       <c r="E5" t="n">
-        <v>46.1448</v>
+        <v>48.8736</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4658</v>
+        <v>12.3093</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7625</v>
+        <v>17.7222</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2774</v>
+        <v>38.4194</v>
       </c>
       <c r="E6" t="n">
-        <v>56.0221</v>
+        <v>59.3243</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2927</v>
+        <v>14.2289</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5122</v>
+        <v>20.4127</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6634</v>
+        <v>44.6152</v>
       </c>
       <c r="E7" t="n">
-        <v>64.94750000000001</v>
+        <v>69.8501</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0884</v>
+        <v>16.1644</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6197</v>
+        <v>23.5847</v>
       </c>
       <c r="D8" t="n">
-        <v>49.91</v>
+        <v>50.841</v>
       </c>
       <c r="E8" t="n">
-        <v>74.0921</v>
+        <v>79.488</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6633</v>
+        <v>18.604</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2434</v>
+        <v>27.1866</v>
       </c>
       <c r="D9" t="n">
-        <v>61.1786</v>
+        <v>61.0072</v>
       </c>
       <c r="E9" t="n">
-        <v>85.31319999999999</v>
+        <v>91.5596</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5195</v>
+        <v>17.6538</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0151</v>
+        <v>25.5347</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8171</v>
+        <v>55.6172</v>
       </c>
       <c r="E10" t="n">
-        <v>73.90009999999999</v>
+        <v>80.0377</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4757</v>
+        <v>17.3005</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0381</v>
+        <v>25.1624</v>
       </c>
       <c r="D11" t="n">
-        <v>54.7802</v>
+        <v>55.8562</v>
       </c>
       <c r="E11" t="n">
-        <v>74.9915</v>
+        <v>81.1606</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5689</v>
+        <v>17.4172</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5503</v>
+        <v>25.5026</v>
       </c>
       <c r="D12" t="n">
-        <v>56.202</v>
+        <v>55.2935</v>
       </c>
       <c r="E12" t="n">
-        <v>77.1887</v>
+        <v>81.94159999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9014</v>
+        <v>17.9036</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6456</v>
+        <v>25.6721</v>
       </c>
       <c r="D13" t="n">
-        <v>55.7956</v>
+        <v>56.5031</v>
       </c>
       <c r="E13" t="n">
-        <v>76.37690000000001</v>
+        <v>83.25230000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.2195</v>
+        <v>17.1487</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9034</v>
+        <v>25.758</v>
       </c>
       <c r="D14" t="n">
-        <v>55.7017</v>
+        <v>55.4947</v>
       </c>
       <c r="E14" t="n">
-        <v>77.1622</v>
+        <v>82.24890000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8285</v>
+        <v>17.7694</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2935</v>
+        <v>26.2451</v>
       </c>
       <c r="D15" t="n">
-        <v>55.747</v>
+        <v>57.0913</v>
       </c>
       <c r="E15" t="n">
-        <v>76.417</v>
+        <v>81.1739</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8751</v>
+        <v>17.9038</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8672</v>
+        <v>26.7624</v>
       </c>
       <c r="D16" t="n">
-        <v>55.5037</v>
+        <v>57.5398</v>
       </c>
       <c r="E16" t="n">
-        <v>76.99250000000001</v>
+        <v>82.3678</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.903</v>
+        <v>17.9652</v>
       </c>
       <c r="C17" t="n">
-        <v>27.373</v>
+        <v>27.4184</v>
       </c>
       <c r="D17" t="n">
-        <v>56.6961</v>
+        <v>56.6111</v>
       </c>
       <c r="E17" t="n">
-        <v>77.77249999999999</v>
+        <v>81.81529999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.8869</v>
+        <v>3.99953</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9117</v>
+        <v>10.9469</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8422</v>
+        <v>12.9543</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1398</v>
+        <v>18.2677</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05815</v>
+        <v>6.05835</v>
       </c>
       <c r="C3" t="n">
-        <v>10.36</v>
+        <v>10.2025</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9604</v>
+        <v>19.0139</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8994</v>
+        <v>27.3764</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.40574</v>
+        <v>8.43229</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5423</v>
+        <v>12.5562</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8247</v>
+        <v>25.8911</v>
       </c>
       <c r="E4" t="n">
-        <v>35.9124</v>
+        <v>38.2681</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5592</v>
+        <v>10.4785</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0898</v>
+        <v>15.0439</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5356</v>
+        <v>32.923</v>
       </c>
       <c r="E5" t="n">
-        <v>45.8726</v>
+        <v>49.0794</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5444</v>
+        <v>12.6556</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7501</v>
+        <v>17.6824</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6633</v>
+        <v>39.2923</v>
       </c>
       <c r="E6" t="n">
-        <v>55.7873</v>
+        <v>59.4945</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4317</v>
+        <v>14.4888</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4422</v>
+        <v>20.4378</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6782</v>
+        <v>45.3727</v>
       </c>
       <c r="E7" t="n">
-        <v>64.9568</v>
+        <v>69.5304</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5188</v>
+        <v>16.4548</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7023</v>
+        <v>23.6051</v>
       </c>
       <c r="D8" t="n">
-        <v>50.138</v>
+        <v>51.4895</v>
       </c>
       <c r="E8" t="n">
-        <v>73.48390000000001</v>
+        <v>79.9015</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8627</v>
+        <v>18.9432</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2754</v>
+        <v>27.0511</v>
       </c>
       <c r="D9" t="n">
-        <v>60.5757</v>
+        <v>62.0324</v>
       </c>
       <c r="E9" t="n">
-        <v>84.1083</v>
+        <v>91.8074</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1792</v>
+        <v>17.8456</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2993</v>
+        <v>25.3118</v>
       </c>
       <c r="D10" t="n">
-        <v>53.668</v>
+        <v>55.6588</v>
       </c>
       <c r="E10" t="n">
-        <v>73.3719</v>
+        <v>77.4777</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5873</v>
+        <v>17.6286</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3406</v>
+        <v>25.0267</v>
       </c>
       <c r="D11" t="n">
-        <v>53.5213</v>
+        <v>54.9212</v>
       </c>
       <c r="E11" t="n">
-        <v>74.2283</v>
+        <v>82.119</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9111</v>
+        <v>17.8317</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4447</v>
+        <v>25.3861</v>
       </c>
       <c r="D12" t="n">
-        <v>54.7307</v>
+        <v>56.4674</v>
       </c>
       <c r="E12" t="n">
-        <v>77.58110000000001</v>
+        <v>82.0919</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3134</v>
+        <v>18.1199</v>
       </c>
       <c r="C13" t="n">
-        <v>25.9076</v>
+        <v>25.4864</v>
       </c>
       <c r="D13" t="n">
-        <v>56.7755</v>
+        <v>57.5838</v>
       </c>
       <c r="E13" t="n">
-        <v>78.2422</v>
+        <v>83.07980000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5107</v>
+        <v>17.5882</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8096</v>
+        <v>25.7502</v>
       </c>
       <c r="D14" t="n">
-        <v>55.5972</v>
+        <v>56.3933</v>
       </c>
       <c r="E14" t="n">
-        <v>75.0829</v>
+        <v>81.0973</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2141</v>
+        <v>18.3032</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2362</v>
+        <v>26.1966</v>
       </c>
       <c r="D15" t="n">
-        <v>56.0297</v>
+        <v>57.0757</v>
       </c>
       <c r="E15" t="n">
-        <v>77.251</v>
+        <v>81.5617</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2687</v>
+        <v>18.1938</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9046</v>
+        <v>26.7931</v>
       </c>
       <c r="D16" t="n">
-        <v>55.7991</v>
+        <v>57.0075</v>
       </c>
       <c r="E16" t="n">
-        <v>76.70650000000001</v>
+        <v>82.73050000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3508</v>
+        <v>18.4693</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4853</v>
+        <v>27.3624</v>
       </c>
       <c r="D17" t="n">
-        <v>55.7285</v>
+        <v>56.9859</v>
       </c>
       <c r="E17" t="n">
-        <v>76.43989999999999</v>
+        <v>82.52290000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.23386</v>
+        <v>8.18317</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2903</v>
+        <v>14.2453</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8411</v>
+        <v>17.954</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2824</v>
+        <v>21.4253</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.47226</v>
+        <v>9.352259999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5597</v>
+        <v>11.3882</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4589</v>
+        <v>23.3371</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7242</v>
+        <v>30.2766</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0143</v>
+        <v>12.0933</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7104</v>
+        <v>13.6941</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7671</v>
+        <v>32.1392</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7836</v>
+        <v>42.5805</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5795</v>
+        <v>14.5241</v>
       </c>
       <c r="C5" t="n">
-        <v>16.2044</v>
+        <v>16.1791</v>
       </c>
       <c r="D5" t="n">
-        <v>36.7448</v>
+        <v>38.6103</v>
       </c>
       <c r="E5" t="n">
-        <v>46.3963</v>
+        <v>53.9341</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.258</v>
+        <v>17.1217</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1579</v>
+        <v>19.0764</v>
       </c>
       <c r="D6" t="n">
-        <v>43.8784</v>
+        <v>45.7855</v>
       </c>
       <c r="E6" t="n">
-        <v>56.1331</v>
+        <v>65.24299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8916</v>
+        <v>19.6985</v>
       </c>
       <c r="C7" t="n">
-        <v>21.988</v>
+        <v>21.878</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6753</v>
+        <v>53.5965</v>
       </c>
       <c r="E7" t="n">
-        <v>66.02760000000001</v>
+        <v>76.63379999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.6649</v>
+        <v>22.6051</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2994</v>
+        <v>25.1417</v>
       </c>
       <c r="D8" t="n">
-        <v>58.1262</v>
+        <v>61.177</v>
       </c>
       <c r="E8" t="n">
-        <v>75.67740000000001</v>
+        <v>88.0647</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.5693</v>
+        <v>26.4136</v>
       </c>
       <c r="C9" t="n">
-        <v>28.0836</v>
+        <v>27.757</v>
       </c>
       <c r="D9" t="n">
-        <v>69.211</v>
+        <v>73.4186</v>
       </c>
       <c r="E9" t="n">
-        <v>85.4119</v>
+        <v>101.341</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1239</v>
+        <v>25.1134</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7726</v>
+        <v>26.7075</v>
       </c>
       <c r="D10" t="n">
-        <v>61.4332</v>
+        <v>65.9037</v>
       </c>
       <c r="E10" t="n">
-        <v>74.31</v>
+        <v>87.38249999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4375</v>
+        <v>24.9344</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9537</v>
+        <v>26.3896</v>
       </c>
       <c r="D11" t="n">
-        <v>60.962</v>
+        <v>65.49760000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>74.8895</v>
+        <v>88.1923</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.1917</v>
+        <v>24.9329</v>
       </c>
       <c r="C12" t="n">
-        <v>27.002</v>
+        <v>26.8931</v>
       </c>
       <c r="D12" t="n">
-        <v>62.6847</v>
+        <v>66.6347</v>
       </c>
       <c r="E12" t="n">
-        <v>75.4436</v>
+        <v>90.3738</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6101</v>
+        <v>25.3733</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5156</v>
+        <v>27.1162</v>
       </c>
       <c r="D13" t="n">
-        <v>63.7698</v>
+        <v>65.6493</v>
       </c>
       <c r="E13" t="n">
-        <v>76.6694</v>
+        <v>92.5198</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5692</v>
+        <v>24.4203</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8305</v>
+        <v>27.7473</v>
       </c>
       <c r="D14" t="n">
-        <v>63.1055</v>
+        <v>67.1836</v>
       </c>
       <c r="E14" t="n">
-        <v>78.55880000000001</v>
+        <v>91.697</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4002</v>
+        <v>25.6397</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3698</v>
+        <v>28.3488</v>
       </c>
       <c r="D15" t="n">
-        <v>62.4229</v>
+        <v>68.5184</v>
       </c>
       <c r="E15" t="n">
-        <v>77.941</v>
+        <v>92.3857</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2921</v>
+        <v>25.0981</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0234</v>
+        <v>29.0573</v>
       </c>
       <c r="D16" t="n">
-        <v>64.1125</v>
+        <v>67.35809999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>79.4796</v>
+        <v>91.0009</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5144</v>
+        <v>25.3865</v>
       </c>
       <c r="C17" t="n">
-        <v>29.869</v>
+        <v>29.8962</v>
       </c>
       <c r="D17" t="n">
-        <v>64.0866</v>
+        <v>69.0382</v>
       </c>
       <c r="E17" t="n">
-        <v>77.2728</v>
+        <v>93.8904</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.3634</v>
+        <v>9.613960000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9032</v>
+        <v>13.9117</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4067</v>
+        <v>17.0676</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6515</v>
+        <v>20.2814</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.14292</v>
+        <v>12.1294</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6502</v>
+        <v>16.0235</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4995</v>
+        <v>25.8062</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3279</v>
+        <v>28.9849</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7179</v>
+        <v>12.4398</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4738</v>
+        <v>15.4851</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6195</v>
+        <v>24.3971</v>
       </c>
       <c r="E4" t="n">
-        <v>33.5626</v>
+        <v>32.2392</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5678</v>
+        <v>13.9676</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8945</v>
+        <v>15.5183</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1438</v>
+        <v>28.8506</v>
       </c>
       <c r="E5" t="n">
-        <v>40.5107</v>
+        <v>36.6578</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6799</v>
+        <v>14.4188</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4527</v>
+        <v>18.1455</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6165</v>
+        <v>31.866</v>
       </c>
       <c r="E6" t="n">
-        <v>48.6428</v>
+        <v>39.5818</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.7098</v>
+        <v>15.0302</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2447</v>
+        <v>16.3945</v>
       </c>
       <c r="D7" t="n">
-        <v>41.0905</v>
+        <v>32.7952</v>
       </c>
       <c r="E7" t="n">
-        <v>55.2469</v>
+        <v>41.7309</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2981</v>
+        <v>14.864</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5522</v>
+        <v>16.5267</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0584</v>
+        <v>34.5461</v>
       </c>
       <c r="E8" t="n">
-        <v>61.9034</v>
+        <v>44.7405</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3119</v>
+        <v>15.7683</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3819</v>
+        <v>17.5025</v>
       </c>
       <c r="D9" t="n">
-        <v>49.1109</v>
+        <v>34.0036</v>
       </c>
       <c r="E9" t="n">
-        <v>67.7175</v>
+        <v>43.5129</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.4911</v>
+        <v>15.6456</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5643</v>
+        <v>18.0949</v>
       </c>
       <c r="D10" t="n">
-        <v>46.7968</v>
+        <v>36.0729</v>
       </c>
       <c r="E10" t="n">
-        <v>62.1256</v>
+        <v>44.9323</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.4237</v>
+        <v>16.1899</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7509</v>
+        <v>18.7986</v>
       </c>
       <c r="D11" t="n">
-        <v>46.8859</v>
+        <v>37.4097</v>
       </c>
       <c r="E11" t="n">
-        <v>63.5307</v>
+        <v>47.3136</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2157</v>
+        <v>15.6926</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1598</v>
+        <v>18.5585</v>
       </c>
       <c r="D12" t="n">
-        <v>48.844</v>
+        <v>36.9654</v>
       </c>
       <c r="E12" t="n">
-        <v>64.3015</v>
+        <v>46.0029</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5975</v>
+        <v>15.9905</v>
       </c>
       <c r="C13" t="n">
-        <v>24.729</v>
+        <v>18.9389</v>
       </c>
       <c r="D13" t="n">
-        <v>50.3871</v>
+        <v>37.4449</v>
       </c>
       <c r="E13" t="n">
-        <v>68.6909</v>
+        <v>47.336</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7432</v>
+        <v>15.55</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5671</v>
+        <v>19.5883</v>
       </c>
       <c r="D14" t="n">
-        <v>51.9926</v>
+        <v>36.0767</v>
       </c>
       <c r="E14" t="n">
-        <v>70.3129</v>
+        <v>50.2426</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.864</v>
+        <v>15.6044</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2107</v>
+        <v>20.4365</v>
       </c>
       <c r="D15" t="n">
-        <v>52.3171</v>
+        <v>36.1107</v>
       </c>
       <c r="E15" t="n">
-        <v>69.02119999999999</v>
+        <v>47.635</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.7257</v>
+        <v>15.5143</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7457</v>
+        <v>20.4107</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0003</v>
+        <v>35.0713</v>
       </c>
       <c r="E16" t="n">
-        <v>74.169</v>
+        <v>47.8343</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.8343</v>
+        <v>15.9782</v>
       </c>
       <c r="C17" t="n">
-        <v>27.663</v>
+        <v>20.5037</v>
       </c>
       <c r="D17" t="n">
-        <v>53.2507</v>
+        <v>35.07</v>
       </c>
       <c r="E17" t="n">
-        <v>70.76260000000001</v>
+        <v>45.0414</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1652</v>
+        <v>10.3675</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7407</v>
+        <v>13.7748</v>
       </c>
       <c r="D2" t="n">
-        <v>17.307</v>
+        <v>16.8867</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4997</v>
+        <v>19.7603</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.43717</v>
+        <v>12.7748</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6418</v>
+        <v>15.8959</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9672</v>
+        <v>22.1917</v>
       </c>
       <c r="E3" t="n">
-        <v>25.321</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1155</v>
+        <v>13.0566</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4741</v>
+        <v>14.3864</v>
       </c>
       <c r="D4" t="n">
-        <v>24.3746</v>
+        <v>24.3987</v>
       </c>
       <c r="E4" t="n">
-        <v>33.7403</v>
+        <v>31.6479</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0505</v>
+        <v>13.6786</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7815</v>
+        <v>15.5326</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5415</v>
+        <v>28.9318</v>
       </c>
       <c r="E5" t="n">
-        <v>40.9991</v>
+        <v>37.3092</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1927</v>
+        <v>15.0295</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5624</v>
+        <v>16.6616</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9986</v>
+        <v>31.1809</v>
       </c>
       <c r="E6" t="n">
-        <v>48.3383</v>
+        <v>40.2547</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2323</v>
+        <v>15.7937</v>
       </c>
       <c r="C7" t="n">
-        <v>20.256</v>
+        <v>16.6292</v>
       </c>
       <c r="D7" t="n">
-        <v>40.9941</v>
+        <v>32.8886</v>
       </c>
       <c r="E7" t="n">
-        <v>55.6475</v>
+        <v>41.1373</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8136</v>
+        <v>15.6004</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5854</v>
+        <v>17.0553</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8174</v>
+        <v>34.8813</v>
       </c>
       <c r="E8" t="n">
-        <v>62.5763</v>
+        <v>43.4384</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.3678</v>
+        <v>16.251</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0479</v>
+        <v>17.2228</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8391</v>
+        <v>33.5371</v>
       </c>
       <c r="E9" t="n">
-        <v>67.54510000000001</v>
+        <v>44.4008</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.6105</v>
+        <v>16.671</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6561</v>
+        <v>17.9161</v>
       </c>
       <c r="D10" t="n">
-        <v>46.4896</v>
+        <v>34.9419</v>
       </c>
       <c r="E10" t="n">
-        <v>60.8461</v>
+        <v>46.6927</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1082</v>
+        <v>16.1758</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9479</v>
+        <v>18.2892</v>
       </c>
       <c r="D11" t="n">
-        <v>46.585</v>
+        <v>34.9817</v>
       </c>
       <c r="E11" t="n">
-        <v>64.8682</v>
+        <v>49.6058</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.737</v>
+        <v>16.3</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5137</v>
+        <v>18.9995</v>
       </c>
       <c r="D12" t="n">
-        <v>48.2072</v>
+        <v>36.3456</v>
       </c>
       <c r="E12" t="n">
-        <v>66.0626</v>
+        <v>48.3594</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5007</v>
+        <v>16.1063</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0161</v>
+        <v>19.1297</v>
       </c>
       <c r="D13" t="n">
-        <v>49.6266</v>
+        <v>38.2202</v>
       </c>
       <c r="E13" t="n">
-        <v>67.10469999999999</v>
+        <v>46.4645</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.699</v>
+        <v>16.8263</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3833</v>
+        <v>20.0687</v>
       </c>
       <c r="D14" t="n">
-        <v>49.3247</v>
+        <v>37.5999</v>
       </c>
       <c r="E14" t="n">
-        <v>69.8416</v>
+        <v>49.1331</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.7458</v>
+        <v>16.665</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3883</v>
+        <v>19.728</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9277</v>
+        <v>34.8615</v>
       </c>
       <c r="E15" t="n">
-        <v>69.128</v>
+        <v>47.8191</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6624</v>
+        <v>16.2894</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9532</v>
+        <v>20.3815</v>
       </c>
       <c r="D16" t="n">
-        <v>54.0818</v>
+        <v>35.7175</v>
       </c>
       <c r="E16" t="n">
-        <v>69.7346</v>
+        <v>48.3856</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3719</v>
+        <v>16.2854</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4802</v>
+        <v>20.8793</v>
       </c>
       <c r="D17" t="n">
-        <v>52.1559</v>
+        <v>36.3582</v>
       </c>
       <c r="E17" t="n">
-        <v>71.4503</v>
+        <v>47.3689</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6578</v>
+        <v>12.7544</v>
       </c>
       <c r="C2" t="n">
-        <v>15.233</v>
+        <v>15.2194</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2404</v>
+        <v>18.9368</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7134</v>
+        <v>21.7414</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.6934</v>
+        <v>12.9847</v>
       </c>
       <c r="C3" t="n">
-        <v>11.6378</v>
+        <v>17.8482</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9014</v>
+        <v>26.5497</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5674</v>
+        <v>32.7416</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6853</v>
+        <v>16.3509</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7895</v>
+        <v>17.6494</v>
       </c>
       <c r="D4" t="n">
-        <v>28.2797</v>
+        <v>29.5954</v>
       </c>
       <c r="E4" t="n">
-        <v>37.3325</v>
+        <v>37.043</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0486</v>
+        <v>16.0517</v>
       </c>
       <c r="C5" t="n">
-        <v>16.7549</v>
+        <v>19.2509</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0337</v>
+        <v>33.8049</v>
       </c>
       <c r="E5" t="n">
-        <v>45.7045</v>
+        <v>42.1609</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9423</v>
+        <v>17.8766</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6221</v>
+        <v>18.8233</v>
       </c>
       <c r="D6" t="n">
-        <v>40.2599</v>
+        <v>37.3126</v>
       </c>
       <c r="E6" t="n">
-        <v>54.2837</v>
+        <v>47.4816</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7423</v>
+        <v>18.3329</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5999</v>
+        <v>19.485</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0764</v>
+        <v>37.9154</v>
       </c>
       <c r="E7" t="n">
-        <v>59.9085</v>
+        <v>49.2795</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.2437</v>
+        <v>18.9308</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8281</v>
+        <v>19.0154</v>
       </c>
       <c r="D8" t="n">
-        <v>49.0169</v>
+        <v>39.8478</v>
       </c>
       <c r="E8" t="n">
-        <v>66.0487</v>
+        <v>51.6652</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6468</v>
+        <v>18.8488</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9404</v>
+        <v>19.147</v>
       </c>
       <c r="D9" t="n">
-        <v>55.5275</v>
+        <v>40.4855</v>
       </c>
       <c r="E9" t="n">
-        <v>71.53440000000001</v>
+        <v>54.3524</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9832</v>
+        <v>19.6191</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5384</v>
+        <v>19.5628</v>
       </c>
       <c r="D10" t="n">
-        <v>53.5043</v>
+        <v>42.0982</v>
       </c>
       <c r="E10" t="n">
-        <v>67.5692</v>
+        <v>52.9847</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.0802</v>
+        <v>19.253</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4251</v>
+        <v>20.9709</v>
       </c>
       <c r="D11" t="n">
-        <v>54.1254</v>
+        <v>42.3352</v>
       </c>
       <c r="E11" t="n">
-        <v>69.65219999999999</v>
+        <v>52.6328</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6287</v>
+        <v>19.2696</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5836</v>
+        <v>21.6192</v>
       </c>
       <c r="D12" t="n">
-        <v>55.6564</v>
+        <v>41.7099</v>
       </c>
       <c r="E12" t="n">
-        <v>72.6738</v>
+        <v>51.566</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4394</v>
+        <v>18.8779</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1941</v>
+        <v>21.9774</v>
       </c>
       <c r="D13" t="n">
-        <v>56.7399</v>
+        <v>43.6754</v>
       </c>
       <c r="E13" t="n">
-        <v>73.7452</v>
+        <v>56.0123</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0229</v>
+        <v>18.2672</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9067</v>
+        <v>21.3847</v>
       </c>
       <c r="D14" t="n">
-        <v>57.8647</v>
+        <v>43.22</v>
       </c>
       <c r="E14" t="n">
-        <v>75.07689999999999</v>
+        <v>56.119</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.4123</v>
+        <v>19.3526</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6263</v>
+        <v>22.0795</v>
       </c>
       <c r="D15" t="n">
-        <v>60.9163</v>
+        <v>40.2845</v>
       </c>
       <c r="E15" t="n">
-        <v>76.1734</v>
+        <v>50.6332</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.9823</v>
+        <v>19.0194</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4677</v>
+        <v>22.6568</v>
       </c>
       <c r="D16" t="n">
-        <v>61.8161</v>
+        <v>43.4898</v>
       </c>
       <c r="E16" t="n">
-        <v>78.1203</v>
+        <v>53.6767</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8333</v>
+        <v>19.1574</v>
       </c>
       <c r="C17" t="n">
-        <v>29.1577</v>
+        <v>22.4526</v>
       </c>
       <c r="D17" t="n">
-        <v>60.2539</v>
+        <v>38.8111</v>
       </c>
       <c r="E17" t="n">
-        <v>79.9636</v>
+        <v>53.6538</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.87725</v>
+        <v>3.93948</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8445</v>
+        <v>10.778</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9049</v>
+        <v>12.7181</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0126</v>
+        <v>17.7692</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03837</v>
+        <v>6.28639</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3082</v>
+        <v>11.9315</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0309</v>
+        <v>18.5111</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3385</v>
+        <v>24.8949</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.27821</v>
+        <v>8.574619999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5825</v>
+        <v>14.2928</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9026</v>
+        <v>23.7287</v>
       </c>
       <c r="E4" t="n">
-        <v>38.2988</v>
+        <v>35.1239</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3673</v>
+        <v>10.5782</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0604</v>
+        <v>15.4741</v>
       </c>
       <c r="D5" t="n">
-        <v>32.6825</v>
+        <v>29.2271</v>
       </c>
       <c r="E5" t="n">
-        <v>48.8736</v>
+        <v>43.7688</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3093</v>
+        <v>12.4176</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7222</v>
+        <v>17.5439</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4194</v>
+        <v>34.4525</v>
       </c>
       <c r="E6" t="n">
-        <v>59.3243</v>
+        <v>51.9753</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2289</v>
+        <v>13.4945</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4127</v>
+        <v>16.9064</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6152</v>
+        <v>39.2422</v>
       </c>
       <c r="E7" t="n">
-        <v>69.8501</v>
+        <v>55.9647</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1644</v>
+        <v>13.9111</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5847</v>
+        <v>16.7036</v>
       </c>
       <c r="D8" t="n">
-        <v>50.841</v>
+        <v>38.9902</v>
       </c>
       <c r="E8" t="n">
-        <v>79.488</v>
+        <v>55.099</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.604</v>
+        <v>14.0959</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1866</v>
+        <v>16.8055</v>
       </c>
       <c r="D9" t="n">
-        <v>61.0072</v>
+        <v>40.749</v>
       </c>
       <c r="E9" t="n">
-        <v>91.5596</v>
+        <v>58.0927</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6538</v>
+        <v>14.5745</v>
       </c>
       <c r="C10" t="n">
-        <v>25.5347</v>
+        <v>17.5158</v>
       </c>
       <c r="D10" t="n">
-        <v>55.6172</v>
+        <v>41.3086</v>
       </c>
       <c r="E10" t="n">
-        <v>80.0377</v>
+        <v>59.3832</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3005</v>
+        <v>14.2189</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1624</v>
+        <v>18.0844</v>
       </c>
       <c r="D11" t="n">
-        <v>55.8562</v>
+        <v>41.1513</v>
       </c>
       <c r="E11" t="n">
-        <v>81.1606</v>
+        <v>59.9881</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4172</v>
+        <v>14.4933</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5026</v>
+        <v>18.3531</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2935</v>
+        <v>41.9754</v>
       </c>
       <c r="E12" t="n">
-        <v>81.94159999999999</v>
+        <v>60.4405</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9036</v>
+        <v>14.2052</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6721</v>
+        <v>18.6905</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5031</v>
+        <v>42.4672</v>
       </c>
       <c r="E13" t="n">
-        <v>83.25230000000001</v>
+        <v>62.3047</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1487</v>
+        <v>14.105</v>
       </c>
       <c r="C14" t="n">
-        <v>25.758</v>
+        <v>19.685</v>
       </c>
       <c r="D14" t="n">
-        <v>55.4947</v>
+        <v>42.9875</v>
       </c>
       <c r="E14" t="n">
-        <v>82.24890000000001</v>
+        <v>59.5463</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7694</v>
+        <v>14.4208</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2451</v>
+        <v>19.3948</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0913</v>
+        <v>43.5345</v>
       </c>
       <c r="E15" t="n">
-        <v>81.1739</v>
+        <v>63.1986</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9038</v>
+        <v>14.6621</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7624</v>
+        <v>19.6589</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5398</v>
+        <v>43.0746</v>
       </c>
       <c r="E16" t="n">
-        <v>82.3678</v>
+        <v>62.2051</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9652</v>
+        <v>14.4224</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4184</v>
+        <v>20.1125</v>
       </c>
       <c r="D17" t="n">
-        <v>56.6111</v>
+        <v>43.1739</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81529999999999</v>
+        <v>61.6427</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99953</v>
+        <v>3.92614</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9469</v>
+        <v>10.7949</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9543</v>
+        <v>12.7218</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2677</v>
+        <v>17.9961</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05835</v>
+        <v>6.60276</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2025</v>
+        <v>11.8895</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0139</v>
+        <v>19.0607</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3764</v>
+        <v>27.9783</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.43229</v>
+        <v>8.604760000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5562</v>
+        <v>14.4505</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8911</v>
+        <v>23.6678</v>
       </c>
       <c r="E4" t="n">
-        <v>38.2681</v>
+        <v>35.8466</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4785</v>
+        <v>10.6956</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0439</v>
+        <v>15.4875</v>
       </c>
       <c r="D5" t="n">
-        <v>32.923</v>
+        <v>29.2876</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0794</v>
+        <v>43.8902</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6556</v>
+        <v>12.6967</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6824</v>
+        <v>17.5523</v>
       </c>
       <c r="D6" t="n">
-        <v>39.2923</v>
+        <v>34.6365</v>
       </c>
       <c r="E6" t="n">
-        <v>59.4945</v>
+        <v>52.8287</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.4888</v>
+        <v>13.6838</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4378</v>
+        <v>16.8158</v>
       </c>
       <c r="D7" t="n">
-        <v>45.3727</v>
+        <v>37.2563</v>
       </c>
       <c r="E7" t="n">
-        <v>69.5304</v>
+        <v>56.3345</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.4548</v>
+        <v>14.1398</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6051</v>
+        <v>17.0431</v>
       </c>
       <c r="D8" t="n">
-        <v>51.4895</v>
+        <v>40.0327</v>
       </c>
       <c r="E8" t="n">
-        <v>79.9015</v>
+        <v>55.2236</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.9432</v>
+        <v>14.4206</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0511</v>
+        <v>17.1914</v>
       </c>
       <c r="D9" t="n">
-        <v>62.0324</v>
+        <v>40.0691</v>
       </c>
       <c r="E9" t="n">
-        <v>91.8074</v>
+        <v>57.3881</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8456</v>
+        <v>14.7826</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3118</v>
+        <v>17.5758</v>
       </c>
       <c r="D10" t="n">
-        <v>55.6588</v>
+        <v>42.0724</v>
       </c>
       <c r="E10" t="n">
-        <v>77.4777</v>
+        <v>58.2722</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6286</v>
+        <v>14.3827</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0267</v>
+        <v>17.9579</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9212</v>
+        <v>42.198</v>
       </c>
       <c r="E11" t="n">
-        <v>82.119</v>
+        <v>59.0806</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8317</v>
+        <v>14.6856</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3861</v>
+        <v>18.5548</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4674</v>
+        <v>42.2004</v>
       </c>
       <c r="E12" t="n">
-        <v>82.0919</v>
+        <v>61.077</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.1199</v>
+        <v>14.7102</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4864</v>
+        <v>18.8753</v>
       </c>
       <c r="D13" t="n">
-        <v>57.5838</v>
+        <v>43.0696</v>
       </c>
       <c r="E13" t="n">
-        <v>83.07980000000001</v>
+        <v>60.5031</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5882</v>
+        <v>14.9389</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7502</v>
+        <v>18.9247</v>
       </c>
       <c r="D14" t="n">
-        <v>56.3933</v>
+        <v>42.8033</v>
       </c>
       <c r="E14" t="n">
-        <v>81.0973</v>
+        <v>62.6126</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3032</v>
+        <v>14.5567</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1966</v>
+        <v>19.2862</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0757</v>
+        <v>43.5558</v>
       </c>
       <c r="E15" t="n">
-        <v>81.5617</v>
+        <v>60.9899</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1938</v>
+        <v>14.5721</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7931</v>
+        <v>19.6206</v>
       </c>
       <c r="D16" t="n">
-        <v>57.0075</v>
+        <v>42.4952</v>
       </c>
       <c r="E16" t="n">
-        <v>82.73050000000001</v>
+        <v>61.0879</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.4693</v>
+        <v>14.7927</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3624</v>
+        <v>19.9665</v>
       </c>
       <c r="D17" t="n">
-        <v>56.9859</v>
+        <v>42.2017</v>
       </c>
       <c r="E17" t="n">
-        <v>82.52290000000001</v>
+        <v>57.8651</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.18317</v>
+        <v>8.27478</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2453</v>
+        <v>14.0353</v>
       </c>
       <c r="D2" t="n">
-        <v>17.954</v>
+        <v>17.6789</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4253</v>
+        <v>21.448</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.352259999999999</v>
+        <v>10.1509</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3882</v>
+        <v>15.3971</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3371</v>
+        <v>27.2072</v>
       </c>
       <c r="E3" t="n">
-        <v>30.2766</v>
+        <v>32.3559</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0933</v>
+        <v>13.1635</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6941</v>
+        <v>17.1665</v>
       </c>
       <c r="D4" t="n">
-        <v>32.1392</v>
+        <v>31.5018</v>
       </c>
       <c r="E4" t="n">
-        <v>42.5805</v>
+        <v>41.8941</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5241</v>
+        <v>14.9471</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1791</v>
+        <v>17.3858</v>
       </c>
       <c r="D5" t="n">
-        <v>38.6103</v>
+        <v>37.7434</v>
       </c>
       <c r="E5" t="n">
-        <v>53.9341</v>
+        <v>52.2184</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1217</v>
+        <v>17.5721</v>
       </c>
       <c r="C6" t="n">
-        <v>19.0764</v>
+        <v>18.9137</v>
       </c>
       <c r="D6" t="n">
-        <v>45.7855</v>
+        <v>43.9435</v>
       </c>
       <c r="E6" t="n">
-        <v>65.24299999999999</v>
+        <v>62.133</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6985</v>
+        <v>18.5248</v>
       </c>
       <c r="C7" t="n">
-        <v>21.878</v>
+        <v>18.8018</v>
       </c>
       <c r="D7" t="n">
-        <v>53.5965</v>
+        <v>46.9125</v>
       </c>
       <c r="E7" t="n">
-        <v>76.63379999999999</v>
+        <v>63.8698</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.6051</v>
+        <v>19.5306</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1417</v>
+        <v>18.6247</v>
       </c>
       <c r="D8" t="n">
-        <v>61.177</v>
+        <v>47.9732</v>
       </c>
       <c r="E8" t="n">
-        <v>88.0647</v>
+        <v>64.7949</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.4136</v>
+        <v>19.9632</v>
       </c>
       <c r="C9" t="n">
-        <v>27.757</v>
+        <v>19.0371</v>
       </c>
       <c r="D9" t="n">
-        <v>73.4186</v>
+        <v>49.1978</v>
       </c>
       <c r="E9" t="n">
-        <v>101.341</v>
+        <v>66.2805</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1134</v>
+        <v>20.3599</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7075</v>
+        <v>19.5145</v>
       </c>
       <c r="D10" t="n">
-        <v>65.9037</v>
+        <v>50.2807</v>
       </c>
       <c r="E10" t="n">
-        <v>87.38249999999999</v>
+        <v>69.1015</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9344</v>
+        <v>20.0021</v>
       </c>
       <c r="C11" t="n">
-        <v>26.3896</v>
+        <v>20.3291</v>
       </c>
       <c r="D11" t="n">
-        <v>65.49760000000001</v>
+        <v>51.3072</v>
       </c>
       <c r="E11" t="n">
-        <v>88.1923</v>
+        <v>69.5008</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9329</v>
+        <v>20.2967</v>
       </c>
       <c r="C12" t="n">
-        <v>26.8931</v>
+        <v>20.8995</v>
       </c>
       <c r="D12" t="n">
-        <v>66.6347</v>
+        <v>51.6791</v>
       </c>
       <c r="E12" t="n">
-        <v>90.3738</v>
+        <v>69.70950000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3733</v>
+        <v>19.6639</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1162</v>
+        <v>21.4433</v>
       </c>
       <c r="D13" t="n">
-        <v>65.6493</v>
+        <v>52.7043</v>
       </c>
       <c r="E13" t="n">
-        <v>92.5198</v>
+        <v>71.1827</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4203</v>
+        <v>20.0847</v>
       </c>
       <c r="C14" t="n">
-        <v>27.7473</v>
+        <v>21.7438</v>
       </c>
       <c r="D14" t="n">
-        <v>67.1836</v>
+        <v>52.08</v>
       </c>
       <c r="E14" t="n">
-        <v>91.697</v>
+        <v>70.8079</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6397</v>
+        <v>19.6773</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3488</v>
+        <v>22.0876</v>
       </c>
       <c r="D15" t="n">
-        <v>68.5184</v>
+        <v>52.2209</v>
       </c>
       <c r="E15" t="n">
-        <v>92.3857</v>
+        <v>69.2782</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0981</v>
+        <v>20.0529</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0573</v>
+        <v>22.5335</v>
       </c>
       <c r="D16" t="n">
-        <v>67.35809999999999</v>
+        <v>51.4332</v>
       </c>
       <c r="E16" t="n">
-        <v>91.0009</v>
+        <v>72.1267</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3865</v>
+        <v>20.4513</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8962</v>
+        <v>22.8572</v>
       </c>
       <c r="D17" t="n">
-        <v>69.0382</v>
+        <v>53.8854</v>
       </c>
       <c r="E17" t="n">
-        <v>93.8904</v>
+        <v>69.4897</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.46529</v>
+        <v>9.58883</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9243</v>
+        <v>13.8614</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8352</v>
+        <v>16.5345</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6682</v>
+        <v>20.4138</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.045260000000001</v>
+        <v>10.8483</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4805</v>
+        <v>14.3879</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2555</v>
+        <v>21.1771</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7758</v>
+        <v>32.4648</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7389</v>
+        <v>12.2431</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4243</v>
+        <v>15.2055</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0953</v>
+        <v>23.2626</v>
       </c>
       <c r="E4" t="n">
-        <v>30.793</v>
+        <v>32.4864</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5243</v>
+        <v>12.9762</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7749</v>
+        <v>15.5601</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8758</v>
+        <v>27.3209</v>
       </c>
       <c r="E5" t="n">
-        <v>36.986</v>
+        <v>40.2209</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6188</v>
+        <v>15.0199</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4894</v>
+        <v>18.0572</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3371</v>
+        <v>30.2828</v>
       </c>
       <c r="E6" t="n">
-        <v>42.0604</v>
+        <v>41.49</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.71</v>
+        <v>14.8782</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3576</v>
+        <v>16.9959</v>
       </c>
       <c r="D7" t="n">
-        <v>34.7784</v>
+        <v>30.5947</v>
       </c>
       <c r="E7" t="n">
-        <v>46.8715</v>
+        <v>42.7242</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2634</v>
+        <v>15.0866</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4444</v>
+        <v>16.8986</v>
       </c>
       <c r="D8" t="n">
-        <v>39.0176</v>
+        <v>31.3762</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1928</v>
+        <v>42.9099</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3571</v>
+        <v>15.2846</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6513</v>
+        <v>17.1933</v>
       </c>
       <c r="D9" t="n">
-        <v>43.7936</v>
+        <v>31.0386</v>
       </c>
       <c r="E9" t="n">
-        <v>56.9006</v>
+        <v>45.8143</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3352</v>
+        <v>15.4522</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2278</v>
+        <v>17.6644</v>
       </c>
       <c r="D10" t="n">
-        <v>40.8204</v>
+        <v>31.6165</v>
       </c>
       <c r="E10" t="n">
-        <v>54.2932</v>
+        <v>45.1643</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.476</v>
+        <v>15.4981</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4289</v>
+        <v>17.8484</v>
       </c>
       <c r="D11" t="n">
-        <v>39.529</v>
+        <v>32.6284</v>
       </c>
       <c r="E11" t="n">
-        <v>53.7454</v>
+        <v>46.8554</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.857</v>
+        <v>15.4382</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7289</v>
+        <v>18.6412</v>
       </c>
       <c r="D12" t="n">
-        <v>41.8584</v>
+        <v>32.0982</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1656</v>
+        <v>43.9991</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.677</v>
+        <v>16.0447</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8094</v>
+        <v>18.8957</v>
       </c>
       <c r="D13" t="n">
-        <v>41.5086</v>
+        <v>33.357</v>
       </c>
       <c r="E13" t="n">
-        <v>61.115</v>
+        <v>47.0975</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1582</v>
+        <v>15.8116</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3175</v>
+        <v>19.8745</v>
       </c>
       <c r="D14" t="n">
-        <v>42.7101</v>
+        <v>31.056</v>
       </c>
       <c r="E14" t="n">
-        <v>61.1126</v>
+        <v>43.5485</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9087</v>
+        <v>15.0458</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9947</v>
+        <v>19.6799</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8872</v>
+        <v>31.5976</v>
       </c>
       <c r="E15" t="n">
-        <v>62.3368</v>
+        <v>41.1227</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5155</v>
+        <v>15.1257</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6307</v>
+        <v>19.3395</v>
       </c>
       <c r="D16" t="n">
-        <v>43.2105</v>
+        <v>30.7298</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6567</v>
+        <v>38.6294</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2192</v>
+        <v>15.1081</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2396</v>
+        <v>20.2882</v>
       </c>
       <c r="D17" t="n">
-        <v>43.7396</v>
+        <v>29.74</v>
       </c>
       <c r="E17" t="n">
-        <v>63.4991</v>
+        <v>38.8251</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.016</v>
+        <v>10.2865</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7621</v>
+        <v>13.7263</v>
       </c>
       <c r="D2" t="n">
-        <v>16.627</v>
+        <v>16.4689</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4644</v>
+        <v>20.2406</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.353899999999999</v>
+        <v>16.2083</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4627</v>
+        <v>14.1261</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8947</v>
+        <v>22.5263</v>
       </c>
       <c r="E3" t="n">
-        <v>22.7377</v>
+        <v>27.4585</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0947</v>
+        <v>12.8931</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2463</v>
+        <v>15.3965</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8696</v>
+        <v>23.0183</v>
       </c>
       <c r="E4" t="n">
-        <v>29.9917</v>
+        <v>32.4552</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1448</v>
+        <v>13.5543</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7984</v>
+        <v>15.5801</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4222</v>
+        <v>25.707</v>
       </c>
       <c r="E5" t="n">
-        <v>35.878</v>
+        <v>38.3091</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1348</v>
+        <v>14.8037</v>
       </c>
       <c r="C6" t="n">
-        <v>17.445</v>
+        <v>17.8452</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2757</v>
+        <v>29.9809</v>
       </c>
       <c r="E6" t="n">
-        <v>41.2886</v>
+        <v>39.6932</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2878</v>
+        <v>15.3882</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2</v>
+        <v>16.6459</v>
       </c>
       <c r="D7" t="n">
-        <v>34.1257</v>
+        <v>29.9162</v>
       </c>
       <c r="E7" t="n">
-        <v>47.2828</v>
+        <v>41.0149</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9404</v>
+        <v>15.4613</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4194</v>
+        <v>17.5409</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5058</v>
+        <v>29.9803</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8771</v>
+        <v>43.6041</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2689</v>
+        <v>15.7003</v>
       </c>
       <c r="C9" t="n">
-        <v>24.7728</v>
+        <v>17.5747</v>
       </c>
       <c r="D9" t="n">
-        <v>42.607</v>
+        <v>29.8131</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7866</v>
+        <v>42.7451</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3263</v>
+        <v>16.2859</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2945</v>
+        <v>17.8634</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2286</v>
+        <v>30.2291</v>
       </c>
       <c r="E10" t="n">
-        <v>54.5481</v>
+        <v>45.596</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1576</v>
+        <v>16.3377</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5933</v>
+        <v>18.3255</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4729</v>
+        <v>31.6768</v>
       </c>
       <c r="E11" t="n">
-        <v>55.3797</v>
+        <v>44.7788</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7714</v>
+        <v>16.3703</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1969</v>
+        <v>18.7085</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2245</v>
+        <v>32.3392</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1253</v>
+        <v>46.9017</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2879</v>
+        <v>16.031</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6724</v>
+        <v>19.4679</v>
       </c>
       <c r="D13" t="n">
-        <v>39.9482</v>
+        <v>30.4271</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3288</v>
+        <v>46.1281</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6251</v>
+        <v>16.275</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5017</v>
+        <v>19.3411</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3762</v>
+        <v>29.8694</v>
       </c>
       <c r="E14" t="n">
-        <v>60.7613</v>
+        <v>44.5381</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4624</v>
+        <v>15.6437</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1483</v>
+        <v>19.2029</v>
       </c>
       <c r="D15" t="n">
-        <v>42.7122</v>
+        <v>29.2513</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2041</v>
+        <v>42.5528</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4905</v>
+        <v>16.3487</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6896</v>
+        <v>20.1272</v>
       </c>
       <c r="D16" t="n">
-        <v>43.227</v>
+        <v>30.3022</v>
       </c>
       <c r="E16" t="n">
-        <v>63.6947</v>
+        <v>39.4367</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8997</v>
+        <v>15.1731</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6556</v>
+        <v>20.1889</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9314</v>
+        <v>30.2443</v>
       </c>
       <c r="E17" t="n">
-        <v>65.1298</v>
+        <v>41.0629</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6892</v>
+        <v>12.7649</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2353</v>
+        <v>15.1854</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5061</v>
+        <v>18.3978</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5676</v>
+        <v>21.3058</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9001</v>
+        <v>12.8712</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9206</v>
+        <v>15.6809</v>
       </c>
       <c r="D3" t="n">
-        <v>18.5478</v>
+        <v>25.2073</v>
       </c>
       <c r="E3" t="n">
-        <v>25.683</v>
+        <v>28.5584</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8548</v>
+        <v>16.2353</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8549</v>
+        <v>17.9024</v>
       </c>
       <c r="D4" t="n">
-        <v>22.7791</v>
+        <v>25.9545</v>
       </c>
       <c r="E4" t="n">
-        <v>32.3777</v>
+        <v>34.374</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0306</v>
+        <v>15.8876</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6126</v>
+        <v>20.0479</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1171</v>
+        <v>29.3065</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7973</v>
+        <v>40.1145</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8494</v>
+        <v>17.5477</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5282</v>
+        <v>18.9227</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2472</v>
+        <v>31.9355</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4348</v>
+        <v>42.3453</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7411</v>
+        <v>18.7749</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5709</v>
+        <v>18.4843</v>
       </c>
       <c r="D7" t="n">
-        <v>37.5248</v>
+        <v>31.5581</v>
       </c>
       <c r="E7" t="n">
-        <v>48.9304</v>
+        <v>43.8371</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.353</v>
+        <v>18.969</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8769</v>
+        <v>20.6328</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2263</v>
+        <v>32.7944</v>
       </c>
       <c r="E8" t="n">
-        <v>51.7654</v>
+        <v>43.3428</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7839</v>
+        <v>19.4312</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2168</v>
+        <v>19.1274</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7919</v>
+        <v>33.3954</v>
       </c>
       <c r="E9" t="n">
-        <v>55.9048</v>
+        <v>43.5199</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.12</v>
+        <v>19.3178</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3692</v>
+        <v>20.1783</v>
       </c>
       <c r="D10" t="n">
-        <v>44.1402</v>
+        <v>32.2548</v>
       </c>
       <c r="E10" t="n">
-        <v>56.1338</v>
+        <v>44.7674</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1503</v>
+        <v>19.3728</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3489</v>
+        <v>20.6122</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1778</v>
+        <v>32.7146</v>
       </c>
       <c r="E11" t="n">
-        <v>54.627</v>
+        <v>43.464</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8482</v>
+        <v>18.5766</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8753</v>
+        <v>20.7855</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3484</v>
+        <v>33.617</v>
       </c>
       <c r="E12" t="n">
-        <v>55.6507</v>
+        <v>42.2746</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6588</v>
+        <v>18.5671</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2872</v>
+        <v>21.4505</v>
       </c>
       <c r="D13" t="n">
-        <v>45.7698</v>
+        <v>30.8629</v>
       </c>
       <c r="E13" t="n">
-        <v>55.7999</v>
+        <v>42.0747</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0891</v>
+        <v>18.5136</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9674</v>
+        <v>22.2062</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4824</v>
+        <v>32.8044</v>
       </c>
       <c r="E14" t="n">
-        <v>55.0995</v>
+        <v>42.5118</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0545</v>
+        <v>18.3771</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5275</v>
+        <v>22.0837</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2064</v>
+        <v>30.4971</v>
       </c>
       <c r="E15" t="n">
-        <v>55.5</v>
+        <v>40.0441</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6889</v>
+        <v>19.228</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4759</v>
+        <v>21.9316</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9715</v>
+        <v>30.9922</v>
       </c>
       <c r="E16" t="n">
-        <v>55.7213</v>
+        <v>37.6975</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8952</v>
+        <v>18.6705</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0685</v>
+        <v>22.6454</v>
       </c>
       <c r="D17" t="n">
-        <v>44.1196</v>
+        <v>29.8749</v>
       </c>
       <c r="E17" t="n">
-        <v>52.6544</v>
+        <v>36.1646</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97337</v>
+        <v>3.98051</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7922</v>
+        <v>10.7759</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8846</v>
+        <v>12.7674</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3634</v>
+        <v>18.0782</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05055</v>
+        <v>6.8398</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1166</v>
+        <v>14.3804</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2086</v>
+        <v>19.3295</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8806</v>
+        <v>28.2209</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.304069999999999</v>
+        <v>8.504200000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4866</v>
+        <v>14.3311</v>
       </c>
       <c r="D4" t="n">
-        <v>22.9762</v>
+        <v>23.2352</v>
       </c>
       <c r="E4" t="n">
-        <v>35.7477</v>
+        <v>36.8243</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3352</v>
+        <v>10.5238</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9292</v>
+        <v>15.3937</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5227</v>
+        <v>29.3527</v>
       </c>
       <c r="E5" t="n">
-        <v>45.1119</v>
+        <v>45.904</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.341</v>
+        <v>12.4722</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5947</v>
+        <v>17.552</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5595</v>
+        <v>33.8786</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5628</v>
+        <v>54.7377</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.313</v>
+        <v>13.0584</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3802</v>
+        <v>17.0148</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6216</v>
+        <v>36.3645</v>
       </c>
       <c r="E7" t="n">
-        <v>64.16889999999999</v>
+        <v>57.419</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0417</v>
+        <v>13.726</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3582</v>
+        <v>17.0308</v>
       </c>
       <c r="D8" t="n">
-        <v>44.5584</v>
+        <v>37.6458</v>
       </c>
       <c r="E8" t="n">
-        <v>72.146</v>
+        <v>57.9949</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4938</v>
+        <v>14.3888</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8099</v>
+        <v>17.0015</v>
       </c>
       <c r="D9" t="n">
-        <v>53.6211</v>
+        <v>38.1919</v>
       </c>
       <c r="E9" t="n">
-        <v>81.49639999999999</v>
+        <v>58.6551</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3459</v>
+        <v>14.3754</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8416</v>
+        <v>17.6457</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6292</v>
+        <v>40.0026</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6639</v>
+        <v>59.855</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.481</v>
+        <v>14.1745</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8766</v>
+        <v>18.1846</v>
       </c>
       <c r="D11" t="n">
-        <v>48.6969</v>
+        <v>39.1516</v>
       </c>
       <c r="E11" t="n">
-        <v>71.2321</v>
+        <v>58.0482</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5567</v>
+        <v>14.5026</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8425</v>
+        <v>18.5281</v>
       </c>
       <c r="D12" t="n">
-        <v>49.8513</v>
+        <v>40.1167</v>
       </c>
       <c r="E12" t="n">
-        <v>74.441</v>
+        <v>60.4283</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8243</v>
+        <v>14.3098</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0529</v>
+        <v>18.7489</v>
       </c>
       <c r="D13" t="n">
-        <v>49.3249</v>
+        <v>40.8838</v>
       </c>
       <c r="E13" t="n">
-        <v>75.0133</v>
+        <v>58.9997</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1942</v>
+        <v>14.4313</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4806</v>
+        <v>18.819</v>
       </c>
       <c r="D14" t="n">
-        <v>49.075</v>
+        <v>40.2619</v>
       </c>
       <c r="E14" t="n">
-        <v>74.8154</v>
+        <v>58.338</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9515</v>
+        <v>14.6274</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8628</v>
+        <v>18.9674</v>
       </c>
       <c r="D15" t="n">
-        <v>49.8012</v>
+        <v>40.4422</v>
       </c>
       <c r="E15" t="n">
-        <v>74.944</v>
+        <v>61.5784</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6969</v>
+        <v>14.8089</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5592</v>
+        <v>19.2022</v>
       </c>
       <c r="D16" t="n">
-        <v>50.3952</v>
+        <v>40.3542</v>
       </c>
       <c r="E16" t="n">
-        <v>74.8462</v>
+        <v>60.3835</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6239</v>
+        <v>14.8569</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0562</v>
+        <v>19.5474</v>
       </c>
       <c r="D17" t="n">
-        <v>50.158</v>
+        <v>39.2971</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8244</v>
+        <v>60.7561</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85347</v>
+        <v>3.9996</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7883</v>
+        <v>10.8179</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5593</v>
+        <v>12.4471</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2735</v>
+        <v>18.1012</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05939</v>
+        <v>6.56795</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1268</v>
+        <v>12.3817</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8613</v>
+        <v>16.8489</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4595</v>
+        <v>26.6626</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.42188</v>
+        <v>8.5532</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5414</v>
+        <v>14.4553</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5015</v>
+        <v>22.9311</v>
       </c>
       <c r="E4" t="n">
-        <v>35.3557</v>
+        <v>36.1871</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4637</v>
+        <v>10.6535</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9547</v>
+        <v>15.4804</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6727</v>
+        <v>28.1726</v>
       </c>
       <c r="E5" t="n">
-        <v>44.343</v>
+        <v>45.0782</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.523</v>
+        <v>12.6126</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5663</v>
+        <v>17.6508</v>
       </c>
       <c r="D6" t="n">
-        <v>33.449</v>
+        <v>33.3537</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8445</v>
+        <v>53.6951</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3534</v>
+        <v>13.7921</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2248</v>
+        <v>16.7101</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1966</v>
+        <v>35.395</v>
       </c>
       <c r="E7" t="n">
-        <v>62.766</v>
+        <v>54.5647</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2427</v>
+        <v>13.9875</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3314</v>
+        <v>17.1696</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8128</v>
+        <v>36.3847</v>
       </c>
       <c r="E8" t="n">
-        <v>71.1421</v>
+        <v>56.6362</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7395</v>
+        <v>14.2898</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7308</v>
+        <v>17.0131</v>
       </c>
       <c r="D9" t="n">
-        <v>52.4419</v>
+        <v>37.3889</v>
       </c>
       <c r="E9" t="n">
-        <v>80.499</v>
+        <v>56.5586</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8448</v>
+        <v>14.9517</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3254</v>
+        <v>17.5414</v>
       </c>
       <c r="D10" t="n">
-        <v>48.6185</v>
+        <v>38.1023</v>
       </c>
       <c r="E10" t="n">
-        <v>72.84310000000001</v>
+        <v>59.186</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7342</v>
+        <v>14.3658</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8207</v>
+        <v>17.9474</v>
       </c>
       <c r="D11" t="n">
-        <v>47.137</v>
+        <v>38.3685</v>
       </c>
       <c r="E11" t="n">
-        <v>71.3165</v>
+        <v>58.9147</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9827</v>
+        <v>14.7565</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9817</v>
+        <v>18.5498</v>
       </c>
       <c r="D12" t="n">
-        <v>47.7995</v>
+        <v>39.3102</v>
       </c>
       <c r="E12" t="n">
-        <v>72.717</v>
+        <v>59.9031</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3247</v>
+        <v>14.5018</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1464</v>
+        <v>18.5625</v>
       </c>
       <c r="D13" t="n">
-        <v>49.5854</v>
+        <v>38.34</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9388</v>
+        <v>59.4503</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4507</v>
+        <v>14.7415</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4812</v>
+        <v>18.8446</v>
       </c>
       <c r="D14" t="n">
-        <v>47.7973</v>
+        <v>39.1448</v>
       </c>
       <c r="E14" t="n">
-        <v>72.2666</v>
+        <v>58.8534</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3283</v>
+        <v>14.8805</v>
       </c>
       <c r="C15" t="n">
-        <v>25.813</v>
+        <v>19.4122</v>
       </c>
       <c r="D15" t="n">
-        <v>48.3081</v>
+        <v>39.0152</v>
       </c>
       <c r="E15" t="n">
-        <v>73.18000000000001</v>
+        <v>59.1825</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0496</v>
+        <v>15.0035</v>
       </c>
       <c r="C16" t="n">
-        <v>26.531</v>
+        <v>19.3997</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0247</v>
+        <v>36.8646</v>
       </c>
       <c r="E16" t="n">
-        <v>73.8777</v>
+        <v>59.2015</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0468</v>
+        <v>15.3536</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1228</v>
+        <v>19.6262</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1251</v>
+        <v>38.8434</v>
       </c>
       <c r="E17" t="n">
-        <v>73.1249</v>
+        <v>56.2025</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.22866</v>
+        <v>8.361510000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1855</v>
+        <v>14.2101</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2352</v>
+        <v>17.1613</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2685</v>
+        <v>21.2205</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.82061</v>
+        <v>11.8457</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7946</v>
+        <v>12.4822</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8122</v>
+        <v>26.1224</v>
       </c>
       <c r="E3" t="n">
-        <v>27.2678</v>
+        <v>30.4916</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0922</v>
+        <v>13.2686</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7189</v>
+        <v>17.2169</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6149</v>
+        <v>27.2453</v>
       </c>
       <c r="E4" t="n">
-        <v>37.518</v>
+        <v>38.832</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5682</v>
+        <v>14.9787</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0283</v>
+        <v>16.9813</v>
       </c>
       <c r="D5" t="n">
-        <v>30.032</v>
+        <v>30.8386</v>
       </c>
       <c r="E5" t="n">
-        <v>46.0797</v>
+        <v>46.9084</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1328</v>
+        <v>17.1278</v>
       </c>
       <c r="C6" t="n">
-        <v>18.8193</v>
+        <v>18.9174</v>
       </c>
       <c r="D6" t="n">
-        <v>36.346</v>
+        <v>37.4532</v>
       </c>
       <c r="E6" t="n">
-        <v>54.8408</v>
+        <v>55.1099</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8821</v>
+        <v>19.2738</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7237</v>
+        <v>18.5557</v>
       </c>
       <c r="D7" t="n">
-        <v>42.5565</v>
+        <v>38.3496</v>
       </c>
       <c r="E7" t="n">
-        <v>63.1221</v>
+        <v>54.215</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7401</v>
+        <v>19.619</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7299</v>
+        <v>18.8584</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7806</v>
+        <v>38.5063</v>
       </c>
       <c r="E8" t="n">
-        <v>69.9461</v>
+        <v>53.6661</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6303</v>
+        <v>19.9739</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4361</v>
+        <v>18.9915</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3275</v>
+        <v>39.7936</v>
       </c>
       <c r="E9" t="n">
-        <v>77.4379</v>
+        <v>55.5732</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.365</v>
+        <v>20.4478</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4674</v>
+        <v>19.4441</v>
       </c>
       <c r="D10" t="n">
-        <v>53.3201</v>
+        <v>40.2553</v>
       </c>
       <c r="E10" t="n">
-        <v>69.4404</v>
+        <v>56.8802</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8119</v>
+        <v>20.1587</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2735</v>
+        <v>20.242</v>
       </c>
       <c r="D11" t="n">
-        <v>52.4178</v>
+        <v>40.9738</v>
       </c>
       <c r="E11" t="n">
-        <v>70.1931</v>
+        <v>57.4119</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0412</v>
+        <v>20.8433</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7062</v>
+        <v>20.8544</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5904</v>
+        <v>41.5962</v>
       </c>
       <c r="E12" t="n">
-        <v>72.6925</v>
+        <v>58.126</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3724</v>
+        <v>20.386</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1104</v>
+        <v>21.2786</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9332</v>
+        <v>42.7331</v>
       </c>
       <c r="E13" t="n">
-        <v>72.1117</v>
+        <v>57.7594</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5834</v>
+        <v>20.3503</v>
       </c>
       <c r="C14" t="n">
-        <v>27.516</v>
+        <v>21.7494</v>
       </c>
       <c r="D14" t="n">
-        <v>53.1734</v>
+        <v>41.3902</v>
       </c>
       <c r="E14" t="n">
-        <v>73.73220000000001</v>
+        <v>57.4812</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6169</v>
+        <v>20.5124</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2263</v>
+        <v>21.6178</v>
       </c>
       <c r="D15" t="n">
-        <v>53.3888</v>
+        <v>42.3602</v>
       </c>
       <c r="E15" t="n">
-        <v>74.36960000000001</v>
+        <v>58.9567</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0106</v>
+        <v>20.3479</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8416</v>
+        <v>21.8382</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1416</v>
+        <v>41.7097</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9556</v>
+        <v>57.6397</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1291</v>
+        <v>20.9246</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8282</v>
+        <v>22.2413</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3664</v>
+        <v>42.0063</v>
       </c>
       <c r="E17" t="n">
-        <v>74.5351</v>
+        <v>58.5603</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.58883</v>
+        <v>9.719329999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8614</v>
+        <v>13.8685</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5345</v>
+        <v>16.5482</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4138</v>
+        <v>20.3056</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.8483</v>
+        <v>12.0519</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3879</v>
+        <v>12.7564</v>
       </c>
       <c r="D3" t="n">
-        <v>21.1771</v>
+        <v>25.3788</v>
       </c>
       <c r="E3" t="n">
-        <v>32.4648</v>
+        <v>25.8795</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2431</v>
+        <v>12.1133</v>
       </c>
       <c r="C4" t="n">
-        <v>15.2055</v>
+        <v>15.7057</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2626</v>
+        <v>22.9248</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4864</v>
+        <v>31.9072</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9762</v>
+        <v>15.7613</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5601</v>
+        <v>15.4775</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3209</v>
+        <v>28.0242</v>
       </c>
       <c r="E5" t="n">
-        <v>40.2209</v>
+        <v>36.5197</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0199</v>
+        <v>14.5103</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0572</v>
+        <v>16.9216</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2828</v>
+        <v>29.9045</v>
       </c>
       <c r="E6" t="n">
-        <v>41.49</v>
+        <v>41.3218</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.8782</v>
+        <v>15.2007</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9959</v>
+        <v>16.9421</v>
       </c>
       <c r="D7" t="n">
-        <v>30.5947</v>
+        <v>29.4124</v>
       </c>
       <c r="E7" t="n">
-        <v>42.7242</v>
+        <v>42.774</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.0866</v>
+        <v>15.4788</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8986</v>
+        <v>17.1397</v>
       </c>
       <c r="D8" t="n">
-        <v>31.3762</v>
+        <v>31.0131</v>
       </c>
       <c r="E8" t="n">
-        <v>42.9099</v>
+        <v>42.8326</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2846</v>
+        <v>15.4527</v>
       </c>
       <c r="C9" t="n">
-        <v>17.1933</v>
+        <v>17.479</v>
       </c>
       <c r="D9" t="n">
-        <v>31.0386</v>
+        <v>31.7852</v>
       </c>
       <c r="E9" t="n">
-        <v>45.8143</v>
+        <v>43.031</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4522</v>
+        <v>15.3715</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6644</v>
+        <v>17.4507</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6165</v>
+        <v>31.6451</v>
       </c>
       <c r="E10" t="n">
-        <v>45.1643</v>
+        <v>45.7143</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4981</v>
+        <v>15.8541</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8484</v>
+        <v>18.837</v>
       </c>
       <c r="D11" t="n">
-        <v>32.6284</v>
+        <v>31.465</v>
       </c>
       <c r="E11" t="n">
-        <v>46.8554</v>
+        <v>44.3933</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4382</v>
+        <v>15.6308</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6412</v>
+        <v>18.5542</v>
       </c>
       <c r="D12" t="n">
-        <v>32.0982</v>
+        <v>31.9725</v>
       </c>
       <c r="E12" t="n">
-        <v>43.9991</v>
+        <v>46.5504</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.0447</v>
+        <v>15.1073</v>
       </c>
       <c r="C13" t="n">
-        <v>18.8957</v>
+        <v>19.0913</v>
       </c>
       <c r="D13" t="n">
-        <v>33.357</v>
+        <v>31.274</v>
       </c>
       <c r="E13" t="n">
-        <v>47.0975</v>
+        <v>43.9314</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8116</v>
+        <v>15.8359</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8745</v>
+        <v>19.4179</v>
       </c>
       <c r="D14" t="n">
-        <v>31.056</v>
+        <v>31.8547</v>
       </c>
       <c r="E14" t="n">
-        <v>43.5485</v>
+        <v>43.611</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0458</v>
+        <v>15.3787</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6799</v>
+        <v>19.5817</v>
       </c>
       <c r="D15" t="n">
-        <v>31.5976</v>
+        <v>31.4922</v>
       </c>
       <c r="E15" t="n">
-        <v>41.1227</v>
+        <v>44.523</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1257</v>
+        <v>15.663</v>
       </c>
       <c r="C16" t="n">
-        <v>19.3395</v>
+        <v>20.1006</v>
       </c>
       <c r="D16" t="n">
-        <v>30.7298</v>
+        <v>30.2774</v>
       </c>
       <c r="E16" t="n">
-        <v>38.6294</v>
+        <v>41.9711</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1081</v>
+        <v>15.916</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2882</v>
+        <v>20.2538</v>
       </c>
       <c r="D17" t="n">
-        <v>29.74</v>
+        <v>27.1842</v>
       </c>
       <c r="E17" t="n">
-        <v>38.8251</v>
+        <v>38.9326</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2865</v>
+        <v>10.2915</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7263</v>
+        <v>13.6932</v>
       </c>
       <c r="D2" t="n">
-        <v>16.4689</v>
+        <v>16.3504</v>
       </c>
       <c r="E2" t="n">
-        <v>20.2406</v>
+        <v>20.2897</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.2083</v>
+        <v>12.661</v>
       </c>
       <c r="C3" t="n">
-        <v>14.1261</v>
+        <v>15.9569</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5263</v>
+        <v>24.4114</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4585</v>
+        <v>29.775</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8931</v>
+        <v>13.0056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3965</v>
+        <v>15.4834</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0183</v>
+        <v>23.0296</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4552</v>
+        <v>31.6216</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5543</v>
+        <v>13.6065</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5801</v>
+        <v>15.4928</v>
       </c>
       <c r="D5" t="n">
-        <v>25.707</v>
+        <v>25.6929</v>
       </c>
       <c r="E5" t="n">
-        <v>38.3091</v>
+        <v>36.3857</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.8037</v>
+        <v>14.7675</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8452</v>
+        <v>17.0452</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9809</v>
+        <v>29.2915</v>
       </c>
       <c r="E6" t="n">
-        <v>39.6932</v>
+        <v>39.8406</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3882</v>
+        <v>15.2798</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6459</v>
+        <v>16.8708</v>
       </c>
       <c r="D7" t="n">
-        <v>29.9162</v>
+        <v>29.2736</v>
       </c>
       <c r="E7" t="n">
-        <v>41.0149</v>
+        <v>41.1927</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4613</v>
+        <v>16.2403</v>
       </c>
       <c r="C8" t="n">
-        <v>17.5409</v>
+        <v>17.8312</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9803</v>
+        <v>30.0073</v>
       </c>
       <c r="E8" t="n">
-        <v>43.6041</v>
+        <v>40.263</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.7003</v>
+        <v>16.1115</v>
       </c>
       <c r="C9" t="n">
-        <v>17.5747</v>
+        <v>18.1212</v>
       </c>
       <c r="D9" t="n">
-        <v>29.8131</v>
+        <v>30.183</v>
       </c>
       <c r="E9" t="n">
-        <v>42.7451</v>
+        <v>44.0416</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2859</v>
+        <v>15.6851</v>
       </c>
       <c r="C10" t="n">
-        <v>17.8634</v>
+        <v>17.6871</v>
       </c>
       <c r="D10" t="n">
-        <v>30.2291</v>
+        <v>32.8085</v>
       </c>
       <c r="E10" t="n">
-        <v>45.596</v>
+        <v>44.5345</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.3377</v>
+        <v>16.3094</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3255</v>
+        <v>18.2798</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6768</v>
+        <v>29.5847</v>
       </c>
       <c r="E11" t="n">
-        <v>44.7788</v>
+        <v>45.2596</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3703</v>
+        <v>16.2311</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7085</v>
+        <v>18.7626</v>
       </c>
       <c r="D12" t="n">
-        <v>32.3392</v>
+        <v>31.83</v>
       </c>
       <c r="E12" t="n">
-        <v>46.9017</v>
+        <v>42.2088</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.031</v>
+        <v>16.0101</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4679</v>
+        <v>19.349</v>
       </c>
       <c r="D13" t="n">
-        <v>30.4271</v>
+        <v>32.2001</v>
       </c>
       <c r="E13" t="n">
-        <v>46.1281</v>
+        <v>47.0687</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.275</v>
+        <v>15.9238</v>
       </c>
       <c r="C14" t="n">
-        <v>19.3411</v>
+        <v>19.1194</v>
       </c>
       <c r="D14" t="n">
-        <v>29.8694</v>
+        <v>29.7931</v>
       </c>
       <c r="E14" t="n">
-        <v>44.5381</v>
+        <v>44.3482</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6437</v>
+        <v>15.5927</v>
       </c>
       <c r="C15" t="n">
-        <v>19.2029</v>
+        <v>19.6348</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2513</v>
+        <v>32.9903</v>
       </c>
       <c r="E15" t="n">
-        <v>42.5528</v>
+        <v>47.0901</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.3487</v>
+        <v>16.1047</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1272</v>
+        <v>19.9721</v>
       </c>
       <c r="D16" t="n">
-        <v>30.3022</v>
+        <v>29.2258</v>
       </c>
       <c r="E16" t="n">
-        <v>39.4367</v>
+        <v>42.6886</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1731</v>
+        <v>16.2996</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1889</v>
+        <v>20.1239</v>
       </c>
       <c r="D17" t="n">
-        <v>30.2443</v>
+        <v>30.5155</v>
       </c>
       <c r="E17" t="n">
-        <v>41.0629</v>
+        <v>41.0262</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7649</v>
+        <v>12.7512</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1854</v>
+        <v>15.1937</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3978</v>
+        <v>18.2534</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3058</v>
+        <v>21.4455</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.8712</v>
+        <v>16.6981</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6809</v>
+        <v>17.9271</v>
       </c>
       <c r="D3" t="n">
-        <v>25.2073</v>
+        <v>22.4572</v>
       </c>
       <c r="E3" t="n">
-        <v>28.5584</v>
+        <v>26.6569</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.2353</v>
+        <v>16.29</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9024</v>
+        <v>17.777</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9545</v>
+        <v>25.0195</v>
       </c>
       <c r="E4" t="n">
-        <v>34.374</v>
+        <v>33.4649</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8876</v>
+        <v>15.9294</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0479</v>
+        <v>17.1296</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3065</v>
+        <v>28.0147</v>
       </c>
       <c r="E5" t="n">
-        <v>40.1145</v>
+        <v>39.8721</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.5477</v>
+        <v>18.0234</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9227</v>
+        <v>18.6802</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9355</v>
+        <v>31.4598</v>
       </c>
       <c r="E6" t="n">
-        <v>42.3453</v>
+        <v>42.4634</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7749</v>
+        <v>18.7578</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4843</v>
+        <v>18.8725</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5581</v>
+        <v>30.9254</v>
       </c>
       <c r="E7" t="n">
-        <v>43.8371</v>
+        <v>41.6824</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.969</v>
+        <v>18.6284</v>
       </c>
       <c r="C8" t="n">
-        <v>20.6328</v>
+        <v>19.1849</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7944</v>
+        <v>30.6955</v>
       </c>
       <c r="E8" t="n">
-        <v>43.3428</v>
+        <v>43.2834</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.4312</v>
+        <v>19.4543</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1274</v>
+        <v>20.7255</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3954</v>
+        <v>32.2135</v>
       </c>
       <c r="E9" t="n">
-        <v>43.5199</v>
+        <v>42.7119</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3178</v>
+        <v>19.2905</v>
       </c>
       <c r="C10" t="n">
-        <v>20.1783</v>
+        <v>20.4814</v>
       </c>
       <c r="D10" t="n">
-        <v>32.2548</v>
+        <v>33.0148</v>
       </c>
       <c r="E10" t="n">
-        <v>44.7674</v>
+        <v>45.6762</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.3728</v>
+        <v>18.3895</v>
       </c>
       <c r="C11" t="n">
-        <v>20.6122</v>
+        <v>21.4791</v>
       </c>
       <c r="D11" t="n">
-        <v>32.7146</v>
+        <v>32.2449</v>
       </c>
       <c r="E11" t="n">
-        <v>43.464</v>
+        <v>45.2144</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5766</v>
+        <v>19.0345</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7855</v>
+        <v>20.7054</v>
       </c>
       <c r="D12" t="n">
-        <v>33.617</v>
+        <v>32.6673</v>
       </c>
       <c r="E12" t="n">
-        <v>42.2746</v>
+        <v>43.1257</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.5671</v>
+        <v>19.135</v>
       </c>
       <c r="C13" t="n">
-        <v>21.4505</v>
+        <v>20.8526</v>
       </c>
       <c r="D13" t="n">
-        <v>30.8629</v>
+        <v>32.2392</v>
       </c>
       <c r="E13" t="n">
-        <v>42.0747</v>
+        <v>41.5698</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.5136</v>
+        <v>19.6658</v>
       </c>
       <c r="C14" t="n">
-        <v>22.2062</v>
+        <v>22.09</v>
       </c>
       <c r="D14" t="n">
-        <v>32.8044</v>
+        <v>30.887</v>
       </c>
       <c r="E14" t="n">
-        <v>42.5118</v>
+        <v>41.1981</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3771</v>
+        <v>18.6517</v>
       </c>
       <c r="C15" t="n">
-        <v>22.0837</v>
+        <v>21.5255</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4971</v>
+        <v>29.0742</v>
       </c>
       <c r="E15" t="n">
-        <v>40.0441</v>
+        <v>41.8596</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.228</v>
+        <v>18.7501</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9316</v>
+        <v>22.4841</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9922</v>
+        <v>27.8536</v>
       </c>
       <c r="E16" t="n">
-        <v>37.6975</v>
+        <v>37.9817</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.6705</v>
+        <v>18.2584</v>
       </c>
       <c r="C17" t="n">
-        <v>22.6454</v>
+        <v>23.0492</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8749</v>
+        <v>29.1981</v>
       </c>
       <c r="E17" t="n">
-        <v>36.1646</v>
+        <v>36.819</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98051</v>
+        <v>3.87933</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7759</v>
+        <v>10.6075</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7674</v>
+        <v>12.6742</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0782</v>
+        <v>18.1331</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.8398</v>
+        <v>6.30708</v>
       </c>
       <c r="C3" t="n">
-        <v>14.3804</v>
+        <v>14.5857</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3295</v>
+        <v>17.1687</v>
       </c>
       <c r="E3" t="n">
-        <v>28.2209</v>
+        <v>28.2476</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.504200000000001</v>
+        <v>8.40375</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3311</v>
+        <v>14.2866</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2352</v>
+        <v>23.2612</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8243</v>
+        <v>36.6166</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5238</v>
+        <v>10.5884</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3937</v>
+        <v>15.4751</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3527</v>
+        <v>28.1162</v>
       </c>
       <c r="E5" t="n">
-        <v>45.904</v>
+        <v>45.77</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4722</v>
+        <v>12.4105</v>
       </c>
       <c r="C6" t="n">
-        <v>17.552</v>
+        <v>17.6051</v>
       </c>
       <c r="D6" t="n">
-        <v>33.8786</v>
+        <v>33.241</v>
       </c>
       <c r="E6" t="n">
-        <v>54.7377</v>
+        <v>54.5827</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0584</v>
+        <v>13.5759</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0148</v>
+        <v>17.014</v>
       </c>
       <c r="D7" t="n">
-        <v>36.3645</v>
+        <v>36.0447</v>
       </c>
       <c r="E7" t="n">
-        <v>57.419</v>
+        <v>56.391</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.726</v>
+        <v>13.8397</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0308</v>
+        <v>17.054</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6458</v>
+        <v>36.441</v>
       </c>
       <c r="E8" t="n">
-        <v>57.9949</v>
+        <v>56.2727</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.3888</v>
+        <v>14.3979</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0015</v>
+        <v>17.1189</v>
       </c>
       <c r="D9" t="n">
-        <v>38.1919</v>
+        <v>37.56</v>
       </c>
       <c r="E9" t="n">
-        <v>58.6551</v>
+        <v>57.3932</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.3754</v>
+        <v>14.4793</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6457</v>
+        <v>17.5531</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0026</v>
+        <v>39.2463</v>
       </c>
       <c r="E10" t="n">
-        <v>59.855</v>
+        <v>58.9417</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1745</v>
+        <v>14.1915</v>
       </c>
       <c r="C11" t="n">
-        <v>18.1846</v>
+        <v>18.0401</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1516</v>
+        <v>38.4659</v>
       </c>
       <c r="E11" t="n">
-        <v>58.0482</v>
+        <v>59.4817</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5026</v>
+        <v>14.6148</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5281</v>
+        <v>18.5792</v>
       </c>
       <c r="D12" t="n">
-        <v>40.1167</v>
+        <v>39.199</v>
       </c>
       <c r="E12" t="n">
-        <v>60.4283</v>
+        <v>59.2897</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3098</v>
+        <v>14.3013</v>
       </c>
       <c r="C13" t="n">
-        <v>18.7489</v>
+        <v>18.585</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8838</v>
+        <v>39.2968</v>
       </c>
       <c r="E13" t="n">
-        <v>58.9997</v>
+        <v>58.833</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.4313</v>
+        <v>14.4998</v>
       </c>
       <c r="C14" t="n">
-        <v>18.819</v>
+        <v>18.7507</v>
       </c>
       <c r="D14" t="n">
-        <v>40.2619</v>
+        <v>39.0826</v>
       </c>
       <c r="E14" t="n">
-        <v>58.338</v>
+        <v>58.6701</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6274</v>
+        <v>14.5223</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9674</v>
+        <v>18.9626</v>
       </c>
       <c r="D15" t="n">
-        <v>40.4422</v>
+        <v>39.6762</v>
       </c>
       <c r="E15" t="n">
-        <v>61.5784</v>
+        <v>58.5242</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8089</v>
+        <v>14.7451</v>
       </c>
       <c r="C16" t="n">
-        <v>19.2022</v>
+        <v>19.1595</v>
       </c>
       <c r="D16" t="n">
-        <v>40.3542</v>
+        <v>39.4194</v>
       </c>
       <c r="E16" t="n">
-        <v>60.3835</v>
+        <v>59.2355</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.8569</v>
+        <v>14.5789</v>
       </c>
       <c r="C17" t="n">
-        <v>19.5474</v>
+        <v>19.368</v>
       </c>
       <c r="D17" t="n">
-        <v>39.2971</v>
+        <v>39.0299</v>
       </c>
       <c r="E17" t="n">
-        <v>60.7561</v>
+        <v>58.2467</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9996</v>
+        <v>3.9719</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8179</v>
+        <v>10.8357</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4471</v>
+        <v>12.4578</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1012</v>
+        <v>18.1259</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.56795</v>
+        <v>6.33406</v>
       </c>
       <c r="C3" t="n">
-        <v>12.3817</v>
+        <v>12.0892</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8489</v>
+        <v>17.495</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6626</v>
+        <v>26.6351</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.5532</v>
+        <v>8.57067</v>
       </c>
       <c r="C4" t="n">
-        <v>14.4553</v>
+        <v>14.5092</v>
       </c>
       <c r="D4" t="n">
-        <v>22.9311</v>
+        <v>22.5323</v>
       </c>
       <c r="E4" t="n">
-        <v>36.1871</v>
+        <v>36.3552</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6535</v>
+        <v>10.6251</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4804</v>
+        <v>15.4565</v>
       </c>
       <c r="D5" t="n">
-        <v>28.1726</v>
+        <v>27.6141</v>
       </c>
       <c r="E5" t="n">
-        <v>45.0782</v>
+        <v>45.1713</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6126</v>
+        <v>12.7197</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6508</v>
+        <v>17.5807</v>
       </c>
       <c r="D6" t="n">
-        <v>33.3537</v>
+        <v>32.6363</v>
       </c>
       <c r="E6" t="n">
-        <v>53.6951</v>
+        <v>53.1114</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7921</v>
+        <v>13.6751</v>
       </c>
       <c r="C7" t="n">
-        <v>16.7101</v>
+        <v>17.1256</v>
       </c>
       <c r="D7" t="n">
-        <v>35.395</v>
+        <v>34.733</v>
       </c>
       <c r="E7" t="n">
-        <v>54.5647</v>
+        <v>53.1565</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9875</v>
+        <v>13.9701</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1696</v>
+        <v>16.8388</v>
       </c>
       <c r="D8" t="n">
-        <v>36.3847</v>
+        <v>35.9813</v>
       </c>
       <c r="E8" t="n">
-        <v>56.6362</v>
+        <v>57.705</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.2898</v>
+        <v>14.3423</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0131</v>
+        <v>17.3749</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3889</v>
+        <v>36.5819</v>
       </c>
       <c r="E9" t="n">
-        <v>56.5586</v>
+        <v>55.9477</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.9517</v>
+        <v>14.7266</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5414</v>
+        <v>17.6036</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1023</v>
+        <v>37.6637</v>
       </c>
       <c r="E10" t="n">
-        <v>59.186</v>
+        <v>58.5865</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3658</v>
+        <v>14.3649</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9474</v>
+        <v>17.9672</v>
       </c>
       <c r="D11" t="n">
-        <v>38.3685</v>
+        <v>38.0971</v>
       </c>
       <c r="E11" t="n">
-        <v>58.9147</v>
+        <v>58.0653</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7565</v>
+        <v>14.7396</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5498</v>
+        <v>18.3847</v>
       </c>
       <c r="D12" t="n">
-        <v>39.3102</v>
+        <v>37.7182</v>
       </c>
       <c r="E12" t="n">
-        <v>59.9031</v>
+        <v>59.1925</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5018</v>
+        <v>14.6336</v>
       </c>
       <c r="C13" t="n">
-        <v>18.5625</v>
+        <v>18.4405</v>
       </c>
       <c r="D13" t="n">
-        <v>38.34</v>
+        <v>38.9259</v>
       </c>
       <c r="E13" t="n">
-        <v>59.4503</v>
+        <v>59.2845</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7415</v>
+        <v>14.7563</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8446</v>
+        <v>18.6631</v>
       </c>
       <c r="D14" t="n">
-        <v>39.1448</v>
+        <v>38.3146</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8534</v>
+        <v>58.8788</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.8805</v>
+        <v>14.6395</v>
       </c>
       <c r="C15" t="n">
-        <v>19.4122</v>
+        <v>19.0191</v>
       </c>
       <c r="D15" t="n">
-        <v>39.0152</v>
+        <v>37.9148</v>
       </c>
       <c r="E15" t="n">
-        <v>59.1825</v>
+        <v>57.457</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0035</v>
+        <v>14.9117</v>
       </c>
       <c r="C16" t="n">
-        <v>19.3997</v>
+        <v>19.3334</v>
       </c>
       <c r="D16" t="n">
-        <v>36.8646</v>
+        <v>38.4244</v>
       </c>
       <c r="E16" t="n">
-        <v>59.2015</v>
+        <v>59.083</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3536</v>
+        <v>14.7517</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6262</v>
+        <v>19.4514</v>
       </c>
       <c r="D17" t="n">
-        <v>38.8434</v>
+        <v>38.2623</v>
       </c>
       <c r="E17" t="n">
-        <v>56.2025</v>
+        <v>57.3453</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.361510000000001</v>
+        <v>8.390090000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>14.2101</v>
+        <v>14.1851</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1613</v>
+        <v>17.1291</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2205</v>
+        <v>21.3069</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.8457</v>
+        <v>10.9214</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4822</v>
+        <v>15.2732</v>
       </c>
       <c r="D3" t="n">
-        <v>26.1224</v>
+        <v>21.2972</v>
       </c>
       <c r="E3" t="n">
-        <v>30.4916</v>
+        <v>31.8403</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2686</v>
+        <v>13.2138</v>
       </c>
       <c r="C4" t="n">
-        <v>17.2169</v>
+        <v>17.1986</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2453</v>
+        <v>26.652</v>
       </c>
       <c r="E4" t="n">
-        <v>38.832</v>
+        <v>37.9235</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9787</v>
+        <v>14.8864</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9813</v>
+        <v>16.9862</v>
       </c>
       <c r="D5" t="n">
-        <v>30.8386</v>
+        <v>30.1281</v>
       </c>
       <c r="E5" t="n">
-        <v>46.9084</v>
+        <v>45.9034</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1278</v>
+        <v>17.2429</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9174</v>
+        <v>18.9381</v>
       </c>
       <c r="D6" t="n">
-        <v>37.4532</v>
+        <v>35.6377</v>
       </c>
       <c r="E6" t="n">
-        <v>55.1099</v>
+        <v>53.8199</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.2738</v>
+        <v>19.0432</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5557</v>
+        <v>19.0667</v>
       </c>
       <c r="D7" t="n">
-        <v>38.3496</v>
+        <v>37.1937</v>
       </c>
       <c r="E7" t="n">
-        <v>54.215</v>
+        <v>53.6612</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.619</v>
+        <v>19.6842</v>
       </c>
       <c r="C8" t="n">
-        <v>18.8584</v>
+        <v>19.0172</v>
       </c>
       <c r="D8" t="n">
-        <v>38.5063</v>
+        <v>37.6495</v>
       </c>
       <c r="E8" t="n">
-        <v>53.6661</v>
+        <v>53.4043</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9739</v>
+        <v>20.1583</v>
       </c>
       <c r="C9" t="n">
-        <v>18.9915</v>
+        <v>19.1525</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7936</v>
+        <v>38.0473</v>
       </c>
       <c r="E9" t="n">
-        <v>55.5732</v>
+        <v>54.2989</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4478</v>
+        <v>20.7741</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4441</v>
+        <v>19.5343</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2553</v>
+        <v>38.5881</v>
       </c>
       <c r="E10" t="n">
-        <v>56.8802</v>
+        <v>55.2799</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1587</v>
+        <v>19.9018</v>
       </c>
       <c r="C11" t="n">
-        <v>20.242</v>
+        <v>20.296</v>
       </c>
       <c r="D11" t="n">
-        <v>40.9738</v>
+        <v>40.2358</v>
       </c>
       <c r="E11" t="n">
-        <v>57.4119</v>
+        <v>55.2351</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8433</v>
+        <v>20.4214</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8544</v>
+        <v>20.7091</v>
       </c>
       <c r="D12" t="n">
-        <v>41.5962</v>
+        <v>39.8913</v>
       </c>
       <c r="E12" t="n">
-        <v>58.126</v>
+        <v>57.6054</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.386</v>
+        <v>20.5896</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2786</v>
+        <v>21.0664</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7331</v>
+        <v>39.6214</v>
       </c>
       <c r="E13" t="n">
-        <v>57.7594</v>
+        <v>58.5207</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3503</v>
+        <v>20.5429</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7494</v>
+        <v>21.3577</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3902</v>
+        <v>40.6609</v>
       </c>
       <c r="E14" t="n">
-        <v>57.4812</v>
+        <v>58.6121</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5124</v>
+        <v>20.943</v>
       </c>
       <c r="C15" t="n">
-        <v>21.6178</v>
+        <v>21.486</v>
       </c>
       <c r="D15" t="n">
-        <v>42.3602</v>
+        <v>40.9215</v>
       </c>
       <c r="E15" t="n">
-        <v>58.9567</v>
+        <v>57.5313</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3479</v>
+        <v>20.0996</v>
       </c>
       <c r="C16" t="n">
-        <v>21.8382</v>
+        <v>21.7801</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7097</v>
+        <v>40.5561</v>
       </c>
       <c r="E16" t="n">
-        <v>57.6397</v>
+        <v>56.7357</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9246</v>
+        <v>20.1828</v>
       </c>
       <c r="C17" t="n">
-        <v>22.2413</v>
+        <v>22.1486</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0063</v>
+        <v>40.7296</v>
       </c>
       <c r="E17" t="n">
-        <v>58.5603</v>
+        <v>57.381</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.719329999999999</v>
+        <v>9.780340000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8685</v>
+        <v>13.8595</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5482</v>
+        <v>16.4581</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3056</v>
+        <v>20.4279</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.0519</v>
+        <v>12.2719</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7564</v>
+        <v>14.1827</v>
       </c>
       <c r="D3" t="n">
-        <v>25.3788</v>
+        <v>18.3672</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8795</v>
+        <v>25.9818</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1133</v>
+        <v>12.3069</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7057</v>
+        <v>15.3535</v>
       </c>
       <c r="D4" t="n">
-        <v>22.9248</v>
+        <v>23.3456</v>
       </c>
       <c r="E4" t="n">
-        <v>31.9072</v>
+        <v>31.9222</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.7613</v>
+        <v>13.6199</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4775</v>
+        <v>15.4518</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0242</v>
+        <v>25.5206</v>
       </c>
       <c r="E5" t="n">
-        <v>36.5197</v>
+        <v>36.5799</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5103</v>
+        <v>14.597</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9216</v>
+        <v>16.8887</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9045</v>
+        <v>29.6417</v>
       </c>
       <c r="E6" t="n">
-        <v>41.3218</v>
+        <v>40.7681</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.2007</v>
+        <v>15.2871</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9421</v>
+        <v>16.3701</v>
       </c>
       <c r="D7" t="n">
-        <v>29.4124</v>
+        <v>29.9888</v>
       </c>
       <c r="E7" t="n">
-        <v>42.774</v>
+        <v>42.1218</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4788</v>
+        <v>15.1166</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1397</v>
+        <v>17.2017</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0131</v>
+        <v>31.6275</v>
       </c>
       <c r="E8" t="n">
-        <v>42.8326</v>
+        <v>42.6319</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4527</v>
+        <v>15.4725</v>
       </c>
       <c r="C9" t="n">
-        <v>17.479</v>
+        <v>17.1525</v>
       </c>
       <c r="D9" t="n">
-        <v>31.7852</v>
+        <v>30.8869</v>
       </c>
       <c r="E9" t="n">
-        <v>43.031</v>
+        <v>44.3172</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.3715</v>
+        <v>15.1556</v>
       </c>
       <c r="C10" t="n">
-        <v>17.4507</v>
+        <v>18.1917</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6451</v>
+        <v>31.1161</v>
       </c>
       <c r="E10" t="n">
-        <v>45.7143</v>
+        <v>44.1764</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8541</v>
+        <v>15.7289</v>
       </c>
       <c r="C11" t="n">
-        <v>18.837</v>
+        <v>18.3071</v>
       </c>
       <c r="D11" t="n">
-        <v>31.465</v>
+        <v>32.1983</v>
       </c>
       <c r="E11" t="n">
-        <v>44.3933</v>
+        <v>44.2765</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6308</v>
+        <v>15.8747</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5542</v>
+        <v>18.3371</v>
       </c>
       <c r="D12" t="n">
-        <v>31.9725</v>
+        <v>31.5228</v>
       </c>
       <c r="E12" t="n">
-        <v>46.5504</v>
+        <v>43.6784</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1073</v>
+        <v>15.756</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0913</v>
+        <v>18.4246</v>
       </c>
       <c r="D13" t="n">
-        <v>31.274</v>
+        <v>32.0627</v>
       </c>
       <c r="E13" t="n">
-        <v>43.9314</v>
+        <v>43.4671</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8359</v>
+        <v>15.9278</v>
       </c>
       <c r="C14" t="n">
-        <v>19.4179</v>
+        <v>19.3052</v>
       </c>
       <c r="D14" t="n">
-        <v>31.8547</v>
+        <v>28.7911</v>
       </c>
       <c r="E14" t="n">
-        <v>43.611</v>
+        <v>44.8433</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.3787</v>
+        <v>15.7626</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5817</v>
+        <v>19.5644</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4922</v>
+        <v>29.4999</v>
       </c>
       <c r="E15" t="n">
-        <v>44.523</v>
+        <v>45.9751</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.663</v>
+        <v>15.5188</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1006</v>
+        <v>19.8969</v>
       </c>
       <c r="D16" t="n">
-        <v>30.2774</v>
+        <v>30.623</v>
       </c>
       <c r="E16" t="n">
-        <v>41.9711</v>
+        <v>40.6374</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.916</v>
+        <v>15.7648</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2538</v>
+        <v>20.2045</v>
       </c>
       <c r="D17" t="n">
-        <v>27.1842</v>
+        <v>28.3067</v>
       </c>
       <c r="E17" t="n">
-        <v>38.9326</v>
+        <v>46.3343</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2915</v>
+        <v>10.2902</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6932</v>
+        <v>13.7125</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3504</v>
+        <v>16.474</v>
       </c>
       <c r="E2" t="n">
-        <v>20.2897</v>
+        <v>20.4667</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.661</v>
+        <v>11.3559</v>
       </c>
       <c r="C3" t="n">
-        <v>15.9569</v>
+        <v>12.6769</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4114</v>
+        <v>22.7413</v>
       </c>
       <c r="E3" t="n">
-        <v>29.775</v>
+        <v>31.1618</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0056</v>
+        <v>12.937</v>
       </c>
       <c r="C4" t="n">
-        <v>15.4834</v>
+        <v>15.4625</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0296</v>
+        <v>22.7486</v>
       </c>
       <c r="E4" t="n">
-        <v>31.6216</v>
+        <v>31.276</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.6065</v>
+        <v>13.5098</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4928</v>
+        <v>16.9921</v>
       </c>
       <c r="D5" t="n">
-        <v>25.6929</v>
+        <v>29.0102</v>
       </c>
       <c r="E5" t="n">
-        <v>36.3857</v>
+        <v>36.3642</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.7675</v>
+        <v>15.0021</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0452</v>
+        <v>17.4972</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2915</v>
+        <v>29.1315</v>
       </c>
       <c r="E6" t="n">
-        <v>39.8406</v>
+        <v>38.8695</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.2798</v>
+        <v>15.5823</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8708</v>
+        <v>16.8791</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2736</v>
+        <v>29.1587</v>
       </c>
       <c r="E7" t="n">
-        <v>41.1927</v>
+        <v>41.9752</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2403</v>
+        <v>15.7075</v>
       </c>
       <c r="C8" t="n">
-        <v>17.8312</v>
+        <v>17.7236</v>
       </c>
       <c r="D8" t="n">
-        <v>30.0073</v>
+        <v>29.6935</v>
       </c>
       <c r="E8" t="n">
-        <v>40.263</v>
+        <v>41.6366</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1115</v>
+        <v>15.4364</v>
       </c>
       <c r="C9" t="n">
-        <v>18.1212</v>
+        <v>16.7345</v>
       </c>
       <c r="D9" t="n">
-        <v>30.183</v>
+        <v>30.6935</v>
       </c>
       <c r="E9" t="n">
-        <v>44.0416</v>
+        <v>40.8695</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6851</v>
+        <v>15.5099</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6871</v>
+        <v>18.0152</v>
       </c>
       <c r="D10" t="n">
-        <v>32.8085</v>
+        <v>31.6025</v>
       </c>
       <c r="E10" t="n">
-        <v>44.5345</v>
+        <v>46.2118</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.3094</v>
+        <v>15.6844</v>
       </c>
       <c r="C11" t="n">
-        <v>18.2798</v>
+        <v>18.4658</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5847</v>
+        <v>31.5019</v>
       </c>
       <c r="E11" t="n">
-        <v>45.2596</v>
+        <v>43.1984</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.2311</v>
+        <v>15.7153</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7626</v>
+        <v>19.1614</v>
       </c>
       <c r="D12" t="n">
-        <v>31.83</v>
+        <v>30.5254</v>
       </c>
       <c r="E12" t="n">
-        <v>42.2088</v>
+        <v>43.6725</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.0101</v>
+        <v>16.4405</v>
       </c>
       <c r="C13" t="n">
-        <v>19.349</v>
+        <v>19.2826</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2001</v>
+        <v>29.8354</v>
       </c>
       <c r="E13" t="n">
-        <v>47.0687</v>
+        <v>43.7796</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9238</v>
+        <v>16.3304</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1194</v>
+        <v>19.6346</v>
       </c>
       <c r="D14" t="n">
-        <v>29.7931</v>
+        <v>29.4226</v>
       </c>
       <c r="E14" t="n">
-        <v>44.3482</v>
+        <v>43.502</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5927</v>
+        <v>16.2579</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6348</v>
+        <v>19.6366</v>
       </c>
       <c r="D15" t="n">
-        <v>32.9903</v>
+        <v>28.0831</v>
       </c>
       <c r="E15" t="n">
-        <v>47.0901</v>
+        <v>40.3619</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.1047</v>
+        <v>16.2453</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9721</v>
+        <v>20.4326</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2258</v>
+        <v>29.4097</v>
       </c>
       <c r="E16" t="n">
-        <v>42.6886</v>
+        <v>44.5009</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.2996</v>
+        <v>16.4892</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1239</v>
+        <v>20.2147</v>
       </c>
       <c r="D17" t="n">
-        <v>30.5155</v>
+        <v>27.9945</v>
       </c>
       <c r="E17" t="n">
-        <v>41.0262</v>
+        <v>44.6033</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.7512</v>
+        <v>12.7397</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1937</v>
+        <v>15.178</v>
       </c>
       <c r="D2" t="n">
-        <v>18.2534</v>
+        <v>18.3429</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4455</v>
+        <v>21.5519</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.6981</v>
+        <v>11.7295</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9271</v>
+        <v>17.8264</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4572</v>
+        <v>26.7829</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6569</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.29</v>
+        <v>16.2386</v>
       </c>
       <c r="C4" t="n">
-        <v>17.777</v>
+        <v>17.6106</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0195</v>
+        <v>25.797</v>
       </c>
       <c r="E4" t="n">
-        <v>33.4649</v>
+        <v>33.6274</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9294</v>
+        <v>18.1596</v>
       </c>
       <c r="C5" t="n">
-        <v>17.1296</v>
+        <v>17.336</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0147</v>
+        <v>27.5619</v>
       </c>
       <c r="E5" t="n">
-        <v>39.8721</v>
+        <v>38.5687</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0234</v>
+        <v>18.4547</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6802</v>
+        <v>19.7604</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4598</v>
+        <v>32.2321</v>
       </c>
       <c r="E6" t="n">
-        <v>42.4634</v>
+        <v>41.2721</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7578</v>
+        <v>18.1165</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8725</v>
+        <v>19.6151</v>
       </c>
       <c r="D7" t="n">
-        <v>30.9254</v>
+        <v>32.2544</v>
       </c>
       <c r="E7" t="n">
-        <v>41.6824</v>
+        <v>40.9241</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6284</v>
+        <v>18.242</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1849</v>
+        <v>18.8969</v>
       </c>
       <c r="D8" t="n">
-        <v>30.6955</v>
+        <v>31.9275</v>
       </c>
       <c r="E8" t="n">
-        <v>43.2834</v>
+        <v>42.3663</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.4543</v>
+        <v>18.6817</v>
       </c>
       <c r="C9" t="n">
-        <v>20.7255</v>
+        <v>19.8763</v>
       </c>
       <c r="D9" t="n">
-        <v>32.2135</v>
+        <v>32.0383</v>
       </c>
       <c r="E9" t="n">
-        <v>42.7119</v>
+        <v>42.7887</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2905</v>
+        <v>19.2004</v>
       </c>
       <c r="C10" t="n">
-        <v>20.4814</v>
+        <v>19.661</v>
       </c>
       <c r="D10" t="n">
-        <v>33.0148</v>
+        <v>31.7675</v>
       </c>
       <c r="E10" t="n">
-        <v>45.6762</v>
+        <v>41.6443</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3895</v>
+        <v>19.4836</v>
       </c>
       <c r="C11" t="n">
-        <v>21.4791</v>
+        <v>19.8197</v>
       </c>
       <c r="D11" t="n">
-        <v>32.2449</v>
+        <v>32.4175</v>
       </c>
       <c r="E11" t="n">
-        <v>45.2144</v>
+        <v>42.9714</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0345</v>
+        <v>19.0512</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7054</v>
+        <v>21.0318</v>
       </c>
       <c r="D12" t="n">
-        <v>32.6673</v>
+        <v>33.1823</v>
       </c>
       <c r="E12" t="n">
-        <v>43.1257</v>
+        <v>40.7677</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.135</v>
+        <v>19.3388</v>
       </c>
       <c r="C13" t="n">
-        <v>20.8526</v>
+        <v>21.3656</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2392</v>
+        <v>32.2423</v>
       </c>
       <c r="E13" t="n">
-        <v>41.5698</v>
+        <v>42.6125</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6658</v>
+        <v>19.2891</v>
       </c>
       <c r="C14" t="n">
-        <v>22.09</v>
+        <v>21.3752</v>
       </c>
       <c r="D14" t="n">
-        <v>30.887</v>
+        <v>31.2332</v>
       </c>
       <c r="E14" t="n">
-        <v>41.1981</v>
+        <v>38.2562</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6517</v>
+        <v>19.1506</v>
       </c>
       <c r="C15" t="n">
-        <v>21.5255</v>
+        <v>21.7208</v>
       </c>
       <c r="D15" t="n">
-        <v>29.0742</v>
+        <v>29.6925</v>
       </c>
       <c r="E15" t="n">
-        <v>41.8596</v>
+        <v>40.1789</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.7501</v>
+        <v>18.3112</v>
       </c>
       <c r="C16" t="n">
-        <v>22.4841</v>
+        <v>21.9008</v>
       </c>
       <c r="D16" t="n">
-        <v>27.8536</v>
+        <v>32.325</v>
       </c>
       <c r="E16" t="n">
-        <v>37.9817</v>
+        <v>36.0683</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2584</v>
+        <v>19.5808</v>
       </c>
       <c r="C17" t="n">
-        <v>23.0492</v>
+        <v>22.3785</v>
       </c>
       <c r="D17" t="n">
-        <v>29.1981</v>
+        <v>32.1259</v>
       </c>
       <c r="E17" t="n">
-        <v>36.819</v>
+        <v>37.7027</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.87933</v>
+        <v>3.87986</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6075</v>
+        <v>10.6983</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6742</v>
+        <v>12.5743</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1331</v>
+        <v>18.0189</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.30708</v>
+        <v>6.51998</v>
       </c>
       <c r="C3" t="n">
-        <v>14.5857</v>
+        <v>14.3447</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1687</v>
+        <v>18.9414</v>
       </c>
       <c r="E3" t="n">
-        <v>28.2476</v>
+        <v>28.0553</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.40375</v>
+        <v>8.50835</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2866</v>
+        <v>13.7218</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2612</v>
+        <v>23.0351</v>
       </c>
       <c r="E4" t="n">
-        <v>36.6166</v>
+        <v>36.481</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5884</v>
+        <v>10.5581</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4751</v>
+        <v>15.3598</v>
       </c>
       <c r="D5" t="n">
-        <v>28.1162</v>
+        <v>28.3423</v>
       </c>
       <c r="E5" t="n">
-        <v>45.77</v>
+        <v>45.8545</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4105</v>
+        <v>12.4592</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6051</v>
+        <v>17.7382</v>
       </c>
       <c r="D6" t="n">
-        <v>33.241</v>
+        <v>33.79</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5827</v>
+        <v>54.3712</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5759</v>
+        <v>13.1968</v>
       </c>
       <c r="C7" t="n">
-        <v>17.014</v>
+        <v>16.9339</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0447</v>
+        <v>35.5193</v>
       </c>
       <c r="E7" t="n">
-        <v>56.391</v>
+        <v>55.6398</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8397</v>
+        <v>13.8928</v>
       </c>
       <c r="C8" t="n">
-        <v>17.054</v>
+        <v>16.8274</v>
       </c>
       <c r="D8" t="n">
-        <v>36.441</v>
+        <v>36.3436</v>
       </c>
       <c r="E8" t="n">
-        <v>56.2727</v>
+        <v>56.0642</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.3979</v>
+        <v>13.9951</v>
       </c>
       <c r="C9" t="n">
-        <v>17.1189</v>
+        <v>17.0909</v>
       </c>
       <c r="D9" t="n">
-        <v>37.56</v>
+        <v>37.5743</v>
       </c>
       <c r="E9" t="n">
-        <v>57.3932</v>
+        <v>56.1942</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.4793</v>
+        <v>14.3982</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5531</v>
+        <v>17.5732</v>
       </c>
       <c r="D10" t="n">
-        <v>39.2463</v>
+        <v>38.1566</v>
       </c>
       <c r="E10" t="n">
-        <v>58.9417</v>
+        <v>59.4827</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1915</v>
+        <v>14.0438</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0401</v>
+        <v>18.0405</v>
       </c>
       <c r="D11" t="n">
-        <v>38.4659</v>
+        <v>38.8108</v>
       </c>
       <c r="E11" t="n">
-        <v>59.4817</v>
+        <v>58.7463</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6148</v>
+        <v>14.4731</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5792</v>
+        <v>18.2584</v>
       </c>
       <c r="D12" t="n">
-        <v>39.199</v>
+        <v>38.6186</v>
       </c>
       <c r="E12" t="n">
-        <v>59.2897</v>
+        <v>60.2564</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3013</v>
+        <v>14.0707</v>
       </c>
       <c r="C13" t="n">
-        <v>18.585</v>
+        <v>18.5836</v>
       </c>
       <c r="D13" t="n">
-        <v>39.2968</v>
+        <v>39.5192</v>
       </c>
       <c r="E13" t="n">
-        <v>58.833</v>
+        <v>60.2571</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.4998</v>
+        <v>14.1762</v>
       </c>
       <c r="C14" t="n">
-        <v>18.7507</v>
+        <v>18.6224</v>
       </c>
       <c r="D14" t="n">
-        <v>39.0826</v>
+        <v>39.3001</v>
       </c>
       <c r="E14" t="n">
-        <v>58.6701</v>
+        <v>59.4351</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5223</v>
+        <v>14.3043</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9626</v>
+        <v>18.8943</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6762</v>
+        <v>39.1132</v>
       </c>
       <c r="E15" t="n">
-        <v>58.5242</v>
+        <v>60.5883</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.7451</v>
+        <v>14.7346</v>
       </c>
       <c r="C16" t="n">
-        <v>19.1595</v>
+        <v>18.9844</v>
       </c>
       <c r="D16" t="n">
-        <v>39.4194</v>
+        <v>39.5724</v>
       </c>
       <c r="E16" t="n">
-        <v>59.2355</v>
+        <v>60.2089</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5789</v>
+        <v>14.57</v>
       </c>
       <c r="C17" t="n">
-        <v>19.368</v>
+        <v>19.482</v>
       </c>
       <c r="D17" t="n">
-        <v>39.0299</v>
+        <v>39.0536</v>
       </c>
       <c r="E17" t="n">
-        <v>58.2467</v>
+        <v>57.8006</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9719</v>
+        <v>3.98589</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8357</v>
+        <v>10.7808</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4578</v>
+        <v>12.465</v>
       </c>
       <c r="E2" t="n">
-        <v>18.1259</v>
+        <v>18.1314</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.33406</v>
+        <v>6.29864</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0892</v>
+        <v>14.5267</v>
       </c>
       <c r="D3" t="n">
-        <v>17.495</v>
+        <v>19.7952</v>
       </c>
       <c r="E3" t="n">
-        <v>26.6351</v>
+        <v>27.9096</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.57067</v>
+        <v>8.502179999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>14.5092</v>
+        <v>14.1797</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5323</v>
+        <v>22.5915</v>
       </c>
       <c r="E4" t="n">
-        <v>36.3552</v>
+        <v>36.0534</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6251</v>
+        <v>10.8737</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4565</v>
+        <v>15.4682</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6141</v>
+        <v>28.2249</v>
       </c>
       <c r="E5" t="n">
-        <v>45.1713</v>
+        <v>44.5949</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.7197</v>
+        <v>12.7991</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5807</v>
+        <v>17.6984</v>
       </c>
       <c r="D6" t="n">
-        <v>32.6363</v>
+        <v>32.9183</v>
       </c>
       <c r="E6" t="n">
-        <v>53.1114</v>
+        <v>53.5254</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6751</v>
+        <v>13.45</v>
       </c>
       <c r="C7" t="n">
-        <v>17.1256</v>
+        <v>16.736</v>
       </c>
       <c r="D7" t="n">
-        <v>34.733</v>
+        <v>34.7463</v>
       </c>
       <c r="E7" t="n">
-        <v>53.1565</v>
+        <v>54.6919</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9701</v>
+        <v>13.6585</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8388</v>
+        <v>17.1249</v>
       </c>
       <c r="D8" t="n">
-        <v>35.9813</v>
+        <v>35.9204</v>
       </c>
       <c r="E8" t="n">
-        <v>57.705</v>
+        <v>54.4739</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.3423</v>
+        <v>14.2071</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3749</v>
+        <v>17.1937</v>
       </c>
       <c r="D9" t="n">
-        <v>36.5819</v>
+        <v>36.9283</v>
       </c>
       <c r="E9" t="n">
-        <v>55.9477</v>
+        <v>55.5784</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.7266</v>
+        <v>14.6525</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6036</v>
+        <v>17.3894</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6637</v>
+        <v>38.0448</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5865</v>
+        <v>56.4531</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3649</v>
+        <v>14.2186</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9672</v>
+        <v>17.9767</v>
       </c>
       <c r="D11" t="n">
-        <v>38.0971</v>
+        <v>37.6527</v>
       </c>
       <c r="E11" t="n">
-        <v>58.0653</v>
+        <v>58.7017</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7396</v>
+        <v>14.8893</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3847</v>
+        <v>18.3927</v>
       </c>
       <c r="D12" t="n">
-        <v>37.7182</v>
+        <v>37.9851</v>
       </c>
       <c r="E12" t="n">
-        <v>59.1925</v>
+        <v>58.3342</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6336</v>
+        <v>14.6431</v>
       </c>
       <c r="C13" t="n">
-        <v>18.4405</v>
+        <v>18.6922</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9259</v>
+        <v>37.6385</v>
       </c>
       <c r="E13" t="n">
-        <v>59.2845</v>
+        <v>57.6539</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7563</v>
+        <v>14.7153</v>
       </c>
       <c r="C14" t="n">
-        <v>18.6631</v>
+        <v>18.581</v>
       </c>
       <c r="D14" t="n">
-        <v>38.3146</v>
+        <v>39.1163</v>
       </c>
       <c r="E14" t="n">
-        <v>58.8788</v>
+        <v>54.5573</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6395</v>
+        <v>14.861</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0191</v>
+        <v>19.1279</v>
       </c>
       <c r="D15" t="n">
-        <v>37.9148</v>
+        <v>38.5475</v>
       </c>
       <c r="E15" t="n">
-        <v>57.457</v>
+        <v>56.7638</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.9117</v>
+        <v>15.017</v>
       </c>
       <c r="C16" t="n">
-        <v>19.3334</v>
+        <v>19.1823</v>
       </c>
       <c r="D16" t="n">
-        <v>38.4244</v>
+        <v>38.569</v>
       </c>
       <c r="E16" t="n">
-        <v>59.083</v>
+        <v>59.1367</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.7517</v>
+        <v>14.7551</v>
       </c>
       <c r="C17" t="n">
-        <v>19.4514</v>
+        <v>19.435</v>
       </c>
       <c r="D17" t="n">
-        <v>38.2623</v>
+        <v>38.7386</v>
       </c>
       <c r="E17" t="n">
-        <v>57.3453</v>
+        <v>57.9148</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.390090000000001</v>
+        <v>8.41855</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1851</v>
+        <v>14.1921</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1291</v>
+        <v>17.1998</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3069</v>
+        <v>21.1645</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9214</v>
+        <v>11.05</v>
       </c>
       <c r="C3" t="n">
-        <v>15.2732</v>
+        <v>19.6996</v>
       </c>
       <c r="D3" t="n">
-        <v>21.2972</v>
+        <v>19.6217</v>
       </c>
       <c r="E3" t="n">
-        <v>31.8403</v>
+        <v>33.9464</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2138</v>
+        <v>13.3223</v>
       </c>
       <c r="C4" t="n">
-        <v>17.1986</v>
+        <v>17.1168</v>
       </c>
       <c r="D4" t="n">
-        <v>26.652</v>
+        <v>26.5715</v>
       </c>
       <c r="E4" t="n">
-        <v>37.9235</v>
+        <v>37.7719</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8864</v>
+        <v>14.9098</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9862</v>
+        <v>16.8808</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1281</v>
+        <v>30.0047</v>
       </c>
       <c r="E5" t="n">
-        <v>45.9034</v>
+        <v>46.2476</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2429</v>
+        <v>17.8735</v>
       </c>
       <c r="C6" t="n">
-        <v>18.9381</v>
+        <v>18.8984</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6377</v>
+        <v>35.3699</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8199</v>
+        <v>54.2683</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0432</v>
+        <v>18.742</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0667</v>
+        <v>18.8784</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1937</v>
+        <v>37.4393</v>
       </c>
       <c r="E7" t="n">
-        <v>53.6612</v>
+        <v>51.5065</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6842</v>
+        <v>19.243</v>
       </c>
       <c r="C8" t="n">
-        <v>19.0172</v>
+        <v>18.3536</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6495</v>
+        <v>37.014</v>
       </c>
       <c r="E8" t="n">
-        <v>53.4043</v>
+        <v>52.6953</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1583</v>
+        <v>20.0048</v>
       </c>
       <c r="C9" t="n">
-        <v>19.1525</v>
+        <v>19.0245</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0473</v>
+        <v>37.8319</v>
       </c>
       <c r="E9" t="n">
-        <v>54.2989</v>
+        <v>52.6611</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.7741</v>
+        <v>20.4221</v>
       </c>
       <c r="C10" t="n">
-        <v>19.5343</v>
+        <v>19.6479</v>
       </c>
       <c r="D10" t="n">
-        <v>38.5881</v>
+        <v>38.9199</v>
       </c>
       <c r="E10" t="n">
-        <v>55.2799</v>
+        <v>55.3639</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9018</v>
+        <v>20.144</v>
       </c>
       <c r="C11" t="n">
-        <v>20.296</v>
+        <v>20.209</v>
       </c>
       <c r="D11" t="n">
-        <v>40.2358</v>
+        <v>39.2472</v>
       </c>
       <c r="E11" t="n">
-        <v>55.2351</v>
+        <v>55.962</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4214</v>
+        <v>20.5642</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7091</v>
+        <v>20.9808</v>
       </c>
       <c r="D12" t="n">
-        <v>39.8913</v>
+        <v>40.7018</v>
       </c>
       <c r="E12" t="n">
-        <v>57.6054</v>
+        <v>57.3453</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5896</v>
+        <v>20.3858</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0664</v>
+        <v>21.192</v>
       </c>
       <c r="D13" t="n">
-        <v>39.6214</v>
+        <v>39.9891</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5207</v>
+        <v>57.7091</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5429</v>
+        <v>20.3339</v>
       </c>
       <c r="C14" t="n">
-        <v>21.3577</v>
+        <v>21.3536</v>
       </c>
       <c r="D14" t="n">
-        <v>40.6609</v>
+        <v>41.306</v>
       </c>
       <c r="E14" t="n">
-        <v>58.6121</v>
+        <v>58.5336</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.943</v>
+        <v>20.7398</v>
       </c>
       <c r="C15" t="n">
-        <v>21.486</v>
+        <v>21.6063</v>
       </c>
       <c r="D15" t="n">
-        <v>40.9215</v>
+        <v>41.0493</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5313</v>
+        <v>56.7922</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0996</v>
+        <v>20.3636</v>
       </c>
       <c r="C16" t="n">
-        <v>21.7801</v>
+        <v>21.6846</v>
       </c>
       <c r="D16" t="n">
-        <v>40.5561</v>
+        <v>41.2404</v>
       </c>
       <c r="E16" t="n">
-        <v>56.7357</v>
+        <v>57.2256</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1828</v>
+        <v>20.8022</v>
       </c>
       <c r="C17" t="n">
-        <v>22.1486</v>
+        <v>22.2017</v>
       </c>
       <c r="D17" t="n">
-        <v>40.7296</v>
+        <v>39.065</v>
       </c>
       <c r="E17" t="n">
-        <v>57.381</v>
+        <v>55.5379</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.46529</v>
+        <v>9.537879999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>13.9243</v>
+        <v>13.8816</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8352</v>
+        <v>16.5049</v>
       </c>
       <c r="E2" t="n">
-        <v>20.6682</v>
+        <v>20.4786</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.045260000000001</v>
+        <v>13.7606</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4805</v>
+        <v>18.3772</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2555</v>
+        <v>22.7117</v>
       </c>
       <c r="E3" t="n">
-        <v>23.7758</v>
+        <v>32.1645</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7389</v>
+        <v>12.2933</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4243</v>
+        <v>15.5218</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0953</v>
+        <v>23.1244</v>
       </c>
       <c r="E4" t="n">
-        <v>30.793</v>
+        <v>33.154</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5243</v>
+        <v>13.6908</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7749</v>
+        <v>15.5639</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8758</v>
+        <v>27.775</v>
       </c>
       <c r="E5" t="n">
-        <v>36.986</v>
+        <v>39.9031</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6188</v>
+        <v>14.6231</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4894</v>
+        <v>17.763</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3371</v>
+        <v>30.6322</v>
       </c>
       <c r="E6" t="n">
-        <v>42.0604</v>
+        <v>43.165</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.71</v>
+        <v>15.3554</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3576</v>
+        <v>17.2122</v>
       </c>
       <c r="D7" t="n">
-        <v>34.7784</v>
+        <v>30.755</v>
       </c>
       <c r="E7" t="n">
-        <v>46.8715</v>
+        <v>41.3318</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2634</v>
+        <v>15.3997</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4444</v>
+        <v>16.4214</v>
       </c>
       <c r="D8" t="n">
-        <v>39.0176</v>
+        <v>31.7443</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1928</v>
+        <v>43.7511</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3571</v>
+        <v>14.8897</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6513</v>
+        <v>17.3962</v>
       </c>
       <c r="D9" t="n">
-        <v>43.7936</v>
+        <v>30.8103</v>
       </c>
       <c r="E9" t="n">
-        <v>56.9006</v>
+        <v>43.8454</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3352</v>
+        <v>15.2886</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2278</v>
+        <v>17.9869</v>
       </c>
       <c r="D10" t="n">
-        <v>40.8204</v>
+        <v>31.6044</v>
       </c>
       <c r="E10" t="n">
-        <v>54.2932</v>
+        <v>45.0513</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.476</v>
+        <v>15.2829</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4289</v>
+        <v>17.8844</v>
       </c>
       <c r="D11" t="n">
-        <v>39.529</v>
+        <v>31.3845</v>
       </c>
       <c r="E11" t="n">
-        <v>53.7454</v>
+        <v>46.7514</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.857</v>
+        <v>16.0101</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7289</v>
+        <v>18.2098</v>
       </c>
       <c r="D12" t="n">
-        <v>41.8584</v>
+        <v>32.65</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1656</v>
+        <v>44.4049</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.677</v>
+        <v>15.2865</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8094</v>
+        <v>18.7682</v>
       </c>
       <c r="D13" t="n">
-        <v>41.5086</v>
+        <v>32.5801</v>
       </c>
       <c r="E13" t="n">
-        <v>61.115</v>
+        <v>41.6313</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1582</v>
+        <v>15.6958</v>
       </c>
       <c r="C14" t="n">
-        <v>25.3175</v>
+        <v>18.8813</v>
       </c>
       <c r="D14" t="n">
-        <v>42.7101</v>
+        <v>32.9946</v>
       </c>
       <c r="E14" t="n">
-        <v>61.1126</v>
+        <v>41.2819</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9087</v>
+        <v>15.9232</v>
       </c>
       <c r="C15" t="n">
-        <v>25.9947</v>
+        <v>19.498</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8872</v>
+        <v>30.6448</v>
       </c>
       <c r="E15" t="n">
-        <v>62.3368</v>
+        <v>45.9071</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5155</v>
+        <v>15.2889</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6307</v>
+        <v>19.2079</v>
       </c>
       <c r="D16" t="n">
-        <v>43.2105</v>
+        <v>29.3402</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6567</v>
+        <v>45.3468</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2192</v>
+        <v>16.132</v>
       </c>
       <c r="C17" t="n">
-        <v>27.2396</v>
+        <v>20.1129</v>
       </c>
       <c r="D17" t="n">
-        <v>43.7396</v>
+        <v>30.4954</v>
       </c>
       <c r="E17" t="n">
-        <v>63.4991</v>
+        <v>43.0401</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.016</v>
+        <v>10.312</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7621</v>
+        <v>13.708</v>
       </c>
       <c r="D2" t="n">
-        <v>16.627</v>
+        <v>16.5822</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4644</v>
+        <v>20.3575</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.353899999999999</v>
+        <v>11.387</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4627</v>
+        <v>18.2535</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8947</v>
+        <v>24.9959</v>
       </c>
       <c r="E3" t="n">
-        <v>22.7377</v>
+        <v>26.9514</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0947</v>
+        <v>13.1923</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2463</v>
+        <v>15.0914</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8696</v>
+        <v>23.4182</v>
       </c>
       <c r="E4" t="n">
-        <v>29.9917</v>
+        <v>33.0876</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1448</v>
+        <v>17.0408</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7984</v>
+        <v>16.0945</v>
       </c>
       <c r="D5" t="n">
-        <v>25.4222</v>
+        <v>28.9102</v>
       </c>
       <c r="E5" t="n">
-        <v>35.878</v>
+        <v>40.2872</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1348</v>
+        <v>15.1241</v>
       </c>
       <c r="C6" t="n">
-        <v>17.445</v>
+        <v>16.684</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2757</v>
+        <v>30.2857</v>
       </c>
       <c r="E6" t="n">
-        <v>41.2886</v>
+        <v>43.0856</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.2878</v>
+        <v>15.9411</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2</v>
+        <v>16.8313</v>
       </c>
       <c r="D7" t="n">
-        <v>34.1257</v>
+        <v>29.0821</v>
       </c>
       <c r="E7" t="n">
-        <v>47.2828</v>
+        <v>42.309</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9404</v>
+        <v>15.4208</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4194</v>
+        <v>17.4268</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5058</v>
+        <v>31.0047</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8771</v>
+        <v>43.0342</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.2689</v>
+        <v>16.047</v>
       </c>
       <c r="C9" t="n">
-        <v>24.7728</v>
+        <v>17.9219</v>
       </c>
       <c r="D9" t="n">
-        <v>42.607</v>
+        <v>31.0375</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7866</v>
+        <v>44.2375</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.3263</v>
+        <v>16.1174</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2945</v>
+        <v>17.7938</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2286</v>
+        <v>31.1238</v>
       </c>
       <c r="E10" t="n">
-        <v>54.5481</v>
+        <v>45.2805</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1576</v>
+        <v>16.1845</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5933</v>
+        <v>18.6911</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4729</v>
+        <v>30.2157</v>
       </c>
       <c r="E11" t="n">
-        <v>55.3797</v>
+        <v>46.6545</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.7714</v>
+        <v>16.1299</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1969</v>
+        <v>18.2416</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2245</v>
+        <v>32.3356</v>
       </c>
       <c r="E12" t="n">
-        <v>57.1253</v>
+        <v>46.7513</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.2879</v>
+        <v>17.1042</v>
       </c>
       <c r="C13" t="n">
-        <v>24.6724</v>
+        <v>18.8508</v>
       </c>
       <c r="D13" t="n">
-        <v>39.9482</v>
+        <v>33.1275</v>
       </c>
       <c r="E13" t="n">
-        <v>58.3288</v>
+        <v>44.5055</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6251</v>
+        <v>16.4449</v>
       </c>
       <c r="C14" t="n">
-        <v>25.5017</v>
+        <v>18.4869</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3762</v>
+        <v>29.7559</v>
       </c>
       <c r="E14" t="n">
-        <v>60.7613</v>
+        <v>42.0276</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.4624</v>
+        <v>15.6873</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1483</v>
+        <v>18.9858</v>
       </c>
       <c r="D15" t="n">
-        <v>42.7122</v>
+        <v>31.2528</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2041</v>
+        <v>44.2598</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4905</v>
+        <v>16.0234</v>
       </c>
       <c r="C16" t="n">
-        <v>26.6896</v>
+        <v>20.0459</v>
       </c>
       <c r="D16" t="n">
-        <v>43.227</v>
+        <v>27.5187</v>
       </c>
       <c r="E16" t="n">
-        <v>63.6947</v>
+        <v>42.9506</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8997</v>
+        <v>16.0494</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6556</v>
+        <v>19.577</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9314</v>
+        <v>27.9194</v>
       </c>
       <c r="E17" t="n">
-        <v>65.1298</v>
+        <v>40.9429</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6892</v>
+        <v>12.6779</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2353</v>
+        <v>15.2169</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5061</v>
+        <v>18.4464</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5676</v>
+        <v>21.2691</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9001</v>
+        <v>12.6882</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9206</v>
+        <v>20.5299</v>
       </c>
       <c r="D3" t="n">
-        <v>18.5478</v>
+        <v>19.9674</v>
       </c>
       <c r="E3" t="n">
-        <v>25.683</v>
+        <v>32.1191</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8548</v>
+        <v>15.571</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8549</v>
+        <v>17.4556</v>
       </c>
       <c r="D4" t="n">
-        <v>22.7791</v>
+        <v>25.5088</v>
       </c>
       <c r="E4" t="n">
-        <v>32.3777</v>
+        <v>34.1672</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0306</v>
+        <v>17.2716</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6126</v>
+        <v>17.2752</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1171</v>
+        <v>30.6936</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7973</v>
+        <v>40.8835</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8494</v>
+        <v>16.4105</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5282</v>
+        <v>19.3167</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2472</v>
+        <v>33.2416</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4348</v>
+        <v>43.0743</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7411</v>
+        <v>17.274</v>
       </c>
       <c r="C7" t="n">
-        <v>22.5709</v>
+        <v>18.6565</v>
       </c>
       <c r="D7" t="n">
-        <v>37.5248</v>
+        <v>32.3695</v>
       </c>
       <c r="E7" t="n">
-        <v>48.9304</v>
+        <v>42.8904</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.353</v>
+        <v>17.2799</v>
       </c>
       <c r="C8" t="n">
-        <v>24.8769</v>
+        <v>19.4257</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2263</v>
+        <v>32.4493</v>
       </c>
       <c r="E8" t="n">
-        <v>51.7654</v>
+        <v>44.7487</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7839</v>
+        <v>17.1966</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2168</v>
+        <v>19.1447</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7919</v>
+        <v>33.173</v>
       </c>
       <c r="E9" t="n">
-        <v>55.9048</v>
+        <v>44.1958</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.12</v>
+        <v>18.0422</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3692</v>
+        <v>20.1401</v>
       </c>
       <c r="D10" t="n">
-        <v>44.1402</v>
+        <v>34.0021</v>
       </c>
       <c r="E10" t="n">
-        <v>56.1338</v>
+        <v>45.5081</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1503</v>
+        <v>17.8158</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3489</v>
+        <v>20.3646</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1778</v>
+        <v>32.6575</v>
       </c>
       <c r="E11" t="n">
-        <v>54.627</v>
+        <v>43.938</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8482</v>
+        <v>18.0165</v>
       </c>
       <c r="C12" t="n">
-        <v>25.8753</v>
+        <v>20.9328</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3484</v>
+        <v>35.6254</v>
       </c>
       <c r="E12" t="n">
-        <v>55.6507</v>
+        <v>43.3748</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.6588</v>
+        <v>17.8308</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2872</v>
+        <v>21.0072</v>
       </c>
       <c r="D13" t="n">
-        <v>45.7698</v>
+        <v>31.3399</v>
       </c>
       <c r="E13" t="n">
-        <v>55.7999</v>
+        <v>40.7521</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.0891</v>
+        <v>18.1829</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9674</v>
+        <v>21.2751</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4824</v>
+        <v>32.3191</v>
       </c>
       <c r="E14" t="n">
-        <v>55.0995</v>
+        <v>40.4036</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.0545</v>
+        <v>18.2457</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5275</v>
+        <v>21.2895</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2064</v>
+        <v>30.1129</v>
       </c>
       <c r="E15" t="n">
-        <v>55.5</v>
+        <v>37.8012</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6889</v>
+        <v>17.2443</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4759</v>
+        <v>22.3172</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9715</v>
+        <v>29.6179</v>
       </c>
       <c r="E16" t="n">
-        <v>55.7213</v>
+        <v>40.6533</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8952</v>
+        <v>17.4933</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0685</v>
+        <v>22.3312</v>
       </c>
       <c r="D17" t="n">
-        <v>44.1196</v>
+        <v>29.4991</v>
       </c>
       <c r="E17" t="n">
-        <v>52.6544</v>
+        <v>35.0679</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97337</v>
+        <v>3.93216</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7922</v>
+        <v>10.7292</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8846</v>
+        <v>12.6645</v>
       </c>
       <c r="E2" t="n">
-        <v>18.3634</v>
+        <v>18.113</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05055</v>
+        <v>6.30437</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1166</v>
+        <v>11.0179</v>
       </c>
       <c r="D3" t="n">
-        <v>17.2086</v>
+        <v>19.2365</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8806</v>
+        <v>27.1946</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.304069999999999</v>
+        <v>8.50751</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4866</v>
+        <v>14.2596</v>
       </c>
       <c r="D4" t="n">
-        <v>22.9762</v>
+        <v>23.5783</v>
       </c>
       <c r="E4" t="n">
-        <v>35.7477</v>
+        <v>37.0485</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3352</v>
+        <v>10.6242</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9292</v>
+        <v>15.3996</v>
       </c>
       <c r="D5" t="n">
-        <v>28.5227</v>
+        <v>29.1323</v>
       </c>
       <c r="E5" t="n">
-        <v>45.1119</v>
+        <v>46.5021</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.341</v>
+        <v>12.5898</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5947</v>
+        <v>17.5177</v>
       </c>
       <c r="D6" t="n">
-        <v>33.5595</v>
+        <v>34.966</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5628</v>
+        <v>55.7821</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.313</v>
+        <v>13.0307</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3802</v>
+        <v>17.4873</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6216</v>
+        <v>35.3136</v>
       </c>
       <c r="E7" t="n">
-        <v>64.16889999999999</v>
+        <v>55.3098</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0417</v>
+        <v>13.2056</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3582</v>
+        <v>17.4916</v>
       </c>
       <c r="D8" t="n">
-        <v>44.5584</v>
+        <v>34.9505</v>
       </c>
       <c r="E8" t="n">
-        <v>72.146</v>
+        <v>53.7738</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.4938</v>
+        <v>13.2231</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8099</v>
+        <v>17.4935</v>
       </c>
       <c r="D9" t="n">
-        <v>53.6211</v>
+        <v>36.251</v>
       </c>
       <c r="E9" t="n">
-        <v>81.49639999999999</v>
+        <v>55.7447</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3459</v>
+        <v>13.4553</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8416</v>
+        <v>18.0399</v>
       </c>
       <c r="D10" t="n">
-        <v>49.6292</v>
+        <v>37.0107</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6639</v>
+        <v>56.4054</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.481</v>
+        <v>13.7324</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8766</v>
+        <v>18.6391</v>
       </c>
       <c r="D11" t="n">
-        <v>48.6969</v>
+        <v>38.4962</v>
       </c>
       <c r="E11" t="n">
-        <v>71.2321</v>
+        <v>58.0721</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5567</v>
+        <v>14.2619</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8425</v>
+        <v>18.6181</v>
       </c>
       <c r="D12" t="n">
-        <v>49.8513</v>
+        <v>39.1231</v>
       </c>
       <c r="E12" t="n">
-        <v>74.441</v>
+        <v>58.6306</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8243</v>
+        <v>14.3067</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0529</v>
+        <v>18.5413</v>
       </c>
       <c r="D13" t="n">
-        <v>49.3249</v>
+        <v>39.0915</v>
       </c>
       <c r="E13" t="n">
-        <v>75.0133</v>
+        <v>59.4856</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1942</v>
+        <v>14.3829</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4806</v>
+        <v>18.5532</v>
       </c>
       <c r="D14" t="n">
-        <v>49.075</v>
+        <v>39.6569</v>
       </c>
       <c r="E14" t="n">
-        <v>74.8154</v>
+        <v>59.2951</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9515</v>
+        <v>14.3056</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8628</v>
+        <v>18.7175</v>
       </c>
       <c r="D15" t="n">
-        <v>49.8012</v>
+        <v>39.0468</v>
       </c>
       <c r="E15" t="n">
-        <v>74.944</v>
+        <v>59.1986</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6969</v>
+        <v>14.3626</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5592</v>
+        <v>19.2061</v>
       </c>
       <c r="D16" t="n">
-        <v>50.3952</v>
+        <v>39.7231</v>
       </c>
       <c r="E16" t="n">
-        <v>74.8462</v>
+        <v>59.3922</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6239</v>
+        <v>14.5956</v>
       </c>
       <c r="C17" t="n">
-        <v>27.0562</v>
+        <v>19.3868</v>
       </c>
       <c r="D17" t="n">
-        <v>50.158</v>
+        <v>39.0911</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8244</v>
+        <v>59.5807</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.85347</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7883</v>
+        <v>10.7824</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5593</v>
+        <v>12.5231</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2735</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.05939</v>
+        <v>6.36367</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1268</v>
+        <v>13.1063</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8613</v>
+        <v>18.9677</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4595</v>
+        <v>28.1663</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.42188</v>
+        <v>8.633990000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5414</v>
+        <v>14.4991</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5015</v>
+        <v>23.0762</v>
       </c>
       <c r="E4" t="n">
-        <v>35.3557</v>
+        <v>36.4328</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4637</v>
+        <v>10.9125</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9547</v>
+        <v>15.4549</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6727</v>
+        <v>28.5683</v>
       </c>
       <c r="E5" t="n">
-        <v>44.343</v>
+        <v>45.5687</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.523</v>
+        <v>12.6168</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5663</v>
+        <v>17.5642</v>
       </c>
       <c r="D6" t="n">
-        <v>33.449</v>
+        <v>33.7753</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8445</v>
+        <v>54.4544</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3534</v>
+        <v>13.1725</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2248</v>
+        <v>17.5071</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1966</v>
+        <v>34.135</v>
       </c>
       <c r="E7" t="n">
-        <v>62.766</v>
+        <v>53.6036</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2427</v>
+        <v>12.7239</v>
       </c>
       <c r="C8" t="n">
-        <v>23.3314</v>
+        <v>17.5424</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8128</v>
+        <v>35.0955</v>
       </c>
       <c r="E8" t="n">
-        <v>71.1421</v>
+        <v>52.2875</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7395</v>
+        <v>13.685</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7308</v>
+        <v>17.8654</v>
       </c>
       <c r="D9" t="n">
-        <v>52.4419</v>
+        <v>34.4255</v>
       </c>
       <c r="E9" t="n">
-        <v>80.499</v>
+        <v>54.3693</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8448</v>
+        <v>13.8781</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3254</v>
+        <v>18.0503</v>
       </c>
       <c r="D10" t="n">
-        <v>48.6185</v>
+        <v>35.5916</v>
       </c>
       <c r="E10" t="n">
-        <v>72.84310000000001</v>
+        <v>56.3118</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7342</v>
+        <v>13.9562</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8207</v>
+        <v>18.5974</v>
       </c>
       <c r="D11" t="n">
-        <v>47.137</v>
+        <v>37.6297</v>
       </c>
       <c r="E11" t="n">
-        <v>71.3165</v>
+        <v>57.556</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9827</v>
+        <v>14.6088</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9817</v>
+        <v>18.5729</v>
       </c>
       <c r="D12" t="n">
-        <v>47.7995</v>
+        <v>38.2543</v>
       </c>
       <c r="E12" t="n">
-        <v>72.717</v>
+        <v>58.8519</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3247</v>
+        <v>14.84</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1464</v>
+        <v>18.6314</v>
       </c>
       <c r="D13" t="n">
-        <v>49.5854</v>
+        <v>38.0105</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9388</v>
+        <v>58.4955</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4507</v>
+        <v>14.1551</v>
       </c>
       <c r="C14" t="n">
-        <v>25.4812</v>
+        <v>18.6097</v>
       </c>
       <c r="D14" t="n">
-        <v>47.7973</v>
+        <v>38.9396</v>
       </c>
       <c r="E14" t="n">
-        <v>72.2666</v>
+        <v>60.907</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3283</v>
+        <v>14.2077</v>
       </c>
       <c r="C15" t="n">
-        <v>25.813</v>
+        <v>19.1634</v>
       </c>
       <c r="D15" t="n">
-        <v>48.3081</v>
+        <v>39.3322</v>
       </c>
       <c r="E15" t="n">
-        <v>73.18000000000001</v>
+        <v>58.9432</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0496</v>
+        <v>14.6192</v>
       </c>
       <c r="C16" t="n">
-        <v>26.531</v>
+        <v>18.9155</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0247</v>
+        <v>39.1585</v>
       </c>
       <c r="E16" t="n">
-        <v>73.8777</v>
+        <v>55.8276</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0468</v>
+        <v>14.806</v>
       </c>
       <c r="C17" t="n">
-        <v>27.1228</v>
+        <v>19.3206</v>
       </c>
       <c r="D17" t="n">
-        <v>49.1251</v>
+        <v>39.16</v>
       </c>
       <c r="E17" t="n">
-        <v>73.1249</v>
+        <v>57.9922</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.22866</v>
+        <v>8.3725</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1855</v>
+        <v>14.1985</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2352</v>
+        <v>17.2327</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2685</v>
+        <v>20.9495</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.82061</v>
+        <v>9.43554</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7946</v>
+        <v>15.329</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8122</v>
+        <v>20.2259</v>
       </c>
       <c r="E3" t="n">
-        <v>27.2678</v>
+        <v>28.6867</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0922</v>
+        <v>13.0157</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7189</v>
+        <v>16.509</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6149</v>
+        <v>27.4755</v>
       </c>
       <c r="E4" t="n">
-        <v>37.518</v>
+        <v>38.5907</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5682</v>
+        <v>14.2998</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0283</v>
+        <v>16.9552</v>
       </c>
       <c r="D5" t="n">
-        <v>30.032</v>
+        <v>32.2915</v>
       </c>
       <c r="E5" t="n">
-        <v>46.0797</v>
+        <v>46.5039</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1328</v>
+        <v>16.5159</v>
       </c>
       <c r="C6" t="n">
-        <v>18.8193</v>
+        <v>18.7542</v>
       </c>
       <c r="D6" t="n">
-        <v>36.346</v>
+        <v>36.0034</v>
       </c>
       <c r="E6" t="n">
-        <v>54.8408</v>
+        <v>55.0261</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8821</v>
+        <v>17.4456</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7237</v>
+        <v>18.6485</v>
       </c>
       <c r="D7" t="n">
-        <v>42.5565</v>
+        <v>37.0205</v>
       </c>
       <c r="E7" t="n">
-        <v>63.1221</v>
+        <v>53.2266</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.7401</v>
+        <v>17.0695</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7299</v>
+        <v>18.9153</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7806</v>
+        <v>36.3972</v>
       </c>
       <c r="E8" t="n">
-        <v>69.9461</v>
+        <v>52.7132</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6303</v>
+        <v>17.2942</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4361</v>
+        <v>19.0816</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3275</v>
+        <v>37.4469</v>
       </c>
       <c r="E9" t="n">
-        <v>77.4379</v>
+        <v>54.2658</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.365</v>
+        <v>17.69</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4674</v>
+        <v>19.9238</v>
       </c>
       <c r="D10" t="n">
-        <v>53.3201</v>
+        <v>39.1454</v>
       </c>
       <c r="E10" t="n">
-        <v>69.4404</v>
+        <v>54.8324</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8119</v>
+        <v>18.3334</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2735</v>
+        <v>20.5272</v>
       </c>
       <c r="D11" t="n">
-        <v>52.4178</v>
+        <v>40.1801</v>
       </c>
       <c r="E11" t="n">
-        <v>70.1931</v>
+        <v>55.7591</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0412</v>
+        <v>18.7598</v>
       </c>
       <c r="C12" t="n">
-        <v>26.7062</v>
+        <v>21.1125</v>
       </c>
       <c r="D12" t="n">
-        <v>53.5904</v>
+        <v>41.3802</v>
       </c>
       <c r="E12" t="n">
-        <v>72.6925</v>
+        <v>58.1084</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3724</v>
+        <v>18.732</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1104</v>
+        <v>21.0395</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9332</v>
+        <v>42.6489</v>
       </c>
       <c r="E13" t="n">
-        <v>72.1117</v>
+        <v>57.7088</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5834</v>
+        <v>18.7799</v>
       </c>
       <c r="C14" t="n">
-        <v>27.516</v>
+        <v>21.2034</v>
       </c>
       <c r="D14" t="n">
-        <v>53.1734</v>
+        <v>40.9617</v>
       </c>
       <c r="E14" t="n">
-        <v>73.73220000000001</v>
+        <v>58.1973</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6169</v>
+        <v>17.5752</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2263</v>
+        <v>21.2077</v>
       </c>
       <c r="D15" t="n">
-        <v>53.3888</v>
+        <v>42.3954</v>
       </c>
       <c r="E15" t="n">
-        <v>74.36960000000001</v>
+        <v>56.3256</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0106</v>
+        <v>18.596</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8416</v>
+        <v>21.7382</v>
       </c>
       <c r="D16" t="n">
-        <v>54.1416</v>
+        <v>42.9667</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9556</v>
+        <v>57.4653</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1291</v>
+        <v>18.1519</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8282</v>
+        <v>21.7955</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3664</v>
+        <v>41.3737</v>
       </c>
       <c r="E17" t="n">
-        <v>74.5351</v>
+        <v>57.8954</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Parallel workload.xlsx
+++ b/clang-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.537879999999999</v>
+        <v>9.63293</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8816</v>
+        <v>13.9459</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5049</v>
+        <v>16.7683</v>
       </c>
       <c r="E2" t="n">
-        <v>20.4786</v>
+        <v>20.5452</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.7606</v>
+        <v>9.09698</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3772</v>
+        <v>10.4865</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7117</v>
+        <v>17.034</v>
       </c>
       <c r="E3" t="n">
-        <v>32.1645</v>
+        <v>23.6435</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2933</v>
+        <v>10.632</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5218</v>
+        <v>11.9883</v>
       </c>
       <c r="D4" t="n">
-        <v>23.1244</v>
+        <v>20.9797</v>
       </c>
       <c r="E4" t="n">
-        <v>33.154</v>
+        <v>29.3317</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.6908</v>
+        <v>12.2682</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5639</v>
+        <v>14.8877</v>
       </c>
       <c r="D5" t="n">
-        <v>27.775</v>
+        <v>25.4871</v>
       </c>
       <c r="E5" t="n">
-        <v>39.9031</v>
+        <v>36.2129</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6231</v>
+        <v>14.4745</v>
       </c>
       <c r="C6" t="n">
-        <v>17.763</v>
+        <v>17.3032</v>
       </c>
       <c r="D6" t="n">
-        <v>30.6322</v>
+        <v>30.7105</v>
       </c>
       <c r="E6" t="n">
-        <v>43.165</v>
+        <v>42.7773</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.3554</v>
+        <v>16.6472</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2122</v>
+        <v>20.1924</v>
       </c>
       <c r="D7" t="n">
-        <v>30.755</v>
+        <v>34.8987</v>
       </c>
       <c r="E7" t="n">
-        <v>41.3318</v>
+        <v>47.4668</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3997</v>
+        <v>18.2652</v>
       </c>
       <c r="C8" t="n">
-        <v>16.4214</v>
+        <v>22.4055</v>
       </c>
       <c r="D8" t="n">
-        <v>31.7443</v>
+        <v>38.8902</v>
       </c>
       <c r="E8" t="n">
-        <v>43.7511</v>
+        <v>52.5226</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8897</v>
+        <v>21.4791</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3962</v>
+        <v>25.197</v>
       </c>
       <c r="D9" t="n">
-        <v>30.8103</v>
+        <v>42.1751</v>
       </c>
       <c r="E9" t="n">
-        <v>43.8454</v>
+        <v>58.6019</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.2886</v>
+        <v>19.0215</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9869</v>
+        <v>24.3804</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6044</v>
+        <v>42.26</v>
       </c>
       <c r="E10" t="n">
-        <v>45.0513</v>
+        <v>57.1496</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.2829</v>
+        <v>18.8849</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8844</v>
+        <v>23.5182</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3845</v>
+        <v>39.7018</v>
       </c>
       <c r="E11" t="n">
-        <v>46.7514</v>
+        <v>55.3097</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.0101</v>
+        <v>19.0433</v>
       </c>
       <c r="C12" t="n">
-        <v>18.2098</v>
+        <v>24.0833</v>
       </c>
       <c r="D12" t="n">
-        <v>32.65</v>
+        <v>40.0605</v>
       </c>
       <c r="E12" t="n">
-        <v>44.4049</v>
+        <v>56.5453</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.2865</v>
+        <v>19.5492</v>
       </c>
       <c r="C13" t="n">
-        <v>18.7682</v>
+        <v>24.5886</v>
       </c>
       <c r="D13" t="n">
-        <v>32.5801</v>
+        <v>42.0252</v>
       </c>
       <c r="E13" t="n">
-        <v>41.6313</v>
+        <v>60.4721</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.6958</v>
+        <v>18.8965</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8813</v>
+        <v>25.4656</v>
       </c>
       <c r="D14" t="n">
-        <v>32.9946</v>
+        <v>41.1203</v>
       </c>
       <c r="E14" t="n">
-        <v>41.2819</v>
+        <v>60.2972</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.9232</v>
+        <v>19.113</v>
       </c>
       <c r="C15" t="n">
-        <v>19.498</v>
+        <v>25.9855</v>
       </c>
       <c r="D15" t="n">
-        <v>30.6448</v>
+        <v>44.6456</v>
       </c>
       <c r="E15" t="n">
-        <v>45.9071</v>
+        <v>61.8563</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.2889</v>
+        <v>19.7244</v>
       </c>
       <c r="C16" t="n">
-        <v>19.2079</v>
+        <v>26.7125</v>
       </c>
       <c r="D16" t="n">
-        <v>29.3402</v>
+        <v>42.6898</v>
       </c>
       <c r="E16" t="n">
-        <v>45.3468</v>
+        <v>60.9465</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.132</v>
+        <v>18.8768</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1129</v>
+        <v>27.1489</v>
       </c>
       <c r="D17" t="n">
-        <v>30.4954</v>
+        <v>42.3125</v>
       </c>
       <c r="E17" t="n">
-        <v>43.0401</v>
+        <v>63.358</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.312</v>
+        <v>10.3659</v>
       </c>
       <c r="C2" t="n">
-        <v>13.708</v>
+        <v>13.8131</v>
       </c>
       <c r="D2" t="n">
-        <v>16.5822</v>
+        <v>16.6425</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3575</v>
+        <v>20.3033</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.387</v>
+        <v>9.32629</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2535</v>
+        <v>10.4522</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9959</v>
+        <v>16.7286</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9514</v>
+        <v>22.388</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1923</v>
+        <v>10.2686</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0914</v>
+        <v>11.965</v>
       </c>
       <c r="D4" t="n">
-        <v>23.4182</v>
+        <v>20.6902</v>
       </c>
       <c r="E4" t="n">
-        <v>33.0876</v>
+        <v>28.8161</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0408</v>
+        <v>12.2146</v>
       </c>
       <c r="C5" t="n">
-        <v>16.0945</v>
+        <v>14.3542</v>
       </c>
       <c r="D5" t="n">
-        <v>28.9102</v>
+        <v>25.1419</v>
       </c>
       <c r="E5" t="n">
-        <v>40.2872</v>
+        <v>35.8801</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1241</v>
+        <v>15.0837</v>
       </c>
       <c r="C6" t="n">
-        <v>16.684</v>
+        <v>17.2484</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2857</v>
+        <v>30.3395</v>
       </c>
       <c r="E6" t="n">
-        <v>43.0856</v>
+        <v>41.6973</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9411</v>
+        <v>17.2358</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8313</v>
+        <v>20.1722</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0821</v>
+        <v>33.9803</v>
       </c>
       <c r="E7" t="n">
-        <v>42.309</v>
+        <v>46.5697</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4208</v>
+        <v>18.9184</v>
       </c>
       <c r="C8" t="n">
-        <v>17.4268</v>
+        <v>22.4268</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0047</v>
+        <v>38.6512</v>
       </c>
       <c r="E8" t="n">
-        <v>43.0342</v>
+        <v>50.7755</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.047</v>
+        <v>22.5541</v>
       </c>
       <c r="C9" t="n">
-        <v>17.9219</v>
+        <v>25.0992</v>
       </c>
       <c r="D9" t="n">
-        <v>31.0375</v>
+        <v>42.8021</v>
       </c>
       <c r="E9" t="n">
-        <v>44.2375</v>
+        <v>55.1657</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1174</v>
+        <v>19.6621</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7938</v>
+        <v>24.418</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1238</v>
+        <v>40.1377</v>
       </c>
       <c r="E10" t="n">
-        <v>45.2805</v>
+        <v>54.9772</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.1845</v>
+        <v>19.248</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6911</v>
+        <v>23.5629</v>
       </c>
       <c r="D11" t="n">
-        <v>30.2157</v>
+        <v>40.9391</v>
       </c>
       <c r="E11" t="n">
-        <v>46.6545</v>
+        <v>56.9519</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.1299</v>
+        <v>19.9135</v>
       </c>
       <c r="C12" t="n">
-        <v>18.2416</v>
+        <v>24.1152</v>
       </c>
       <c r="D12" t="n">
-        <v>32.3356</v>
+        <v>40.2286</v>
       </c>
       <c r="E12" t="n">
-        <v>46.7513</v>
+        <v>57.7248</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1042</v>
+        <v>20.4947</v>
       </c>
       <c r="C13" t="n">
-        <v>18.8508</v>
+        <v>24.8026</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1275</v>
+        <v>43.1644</v>
       </c>
       <c r="E13" t="n">
-        <v>44.5055</v>
+        <v>58.1428</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.4449</v>
+        <v>19.6306</v>
       </c>
       <c r="C14" t="n">
-        <v>18.4869</v>
+        <v>25.2404</v>
       </c>
       <c r="D14" t="n">
-        <v>29.7559</v>
+        <v>42.5349</v>
       </c>
       <c r="E14" t="n">
-        <v>42.0276</v>
+        <v>60.3229</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6873</v>
+        <v>20.263</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9858</v>
+        <v>26.0084</v>
       </c>
       <c r="D15" t="n">
-        <v>31.2528</v>
+        <v>42.0785</v>
       </c>
       <c r="E15" t="n">
-        <v>44.2598</v>
+        <v>59.6811</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.0234</v>
+        <v>18.986</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0459</v>
+        <v>26.9006</v>
       </c>
       <c r="D16" t="n">
-        <v>27.5187</v>
+        <v>43.4651</v>
       </c>
       <c r="E16" t="n">
-        <v>42.9506</v>
+        <v>60.4022</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0494</v>
+        <v>19.5372</v>
       </c>
       <c r="C17" t="n">
-        <v>19.577</v>
+        <v>27.5005</v>
       </c>
       <c r="D17" t="n">
-        <v>27.9194</v>
+        <v>42.3561</v>
       </c>
       <c r="E17" t="n">
-        <v>40.9429</v>
+        <v>62.7753</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6779</v>
+        <v>12.6965</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2169</v>
+        <v>15.2081</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4464</v>
+        <v>18.4176</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2691</v>
+        <v>21.2584</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.6882</v>
+        <v>10.7448</v>
       </c>
       <c r="C3" t="n">
-        <v>20.5299</v>
+        <v>12.2277</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9674</v>
+        <v>18.6352</v>
       </c>
       <c r="E3" t="n">
-        <v>32.1191</v>
+        <v>25.1664</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.571</v>
+        <v>11.4137</v>
       </c>
       <c r="C4" t="n">
-        <v>17.4556</v>
+        <v>13.4183</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5088</v>
+        <v>22.4435</v>
       </c>
       <c r="E4" t="n">
-        <v>34.1672</v>
+        <v>30.6125</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2716</v>
+        <v>13.0439</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2752</v>
+        <v>15.7985</v>
       </c>
       <c r="D5" t="n">
-        <v>30.6936</v>
+        <v>27.067</v>
       </c>
       <c r="E5" t="n">
-        <v>40.8835</v>
+        <v>36.3871</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4105</v>
+        <v>15.7367</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3167</v>
+        <v>18.9641</v>
       </c>
       <c r="D6" t="n">
-        <v>33.2416</v>
+        <v>32.6601</v>
       </c>
       <c r="E6" t="n">
-        <v>43.0743</v>
+        <v>41.8312</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.274</v>
+        <v>18.5815</v>
       </c>
       <c r="C7" t="n">
-        <v>18.6565</v>
+        <v>22.412</v>
       </c>
       <c r="D7" 